--- a/media/csv_uploads/gastronomia_establecimiento1.xlsx
+++ b/media/csv_uploads/gastronomia_establecimiento1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santigovinan/Documents/applications-django/emprendimientos/media/csv_uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8CB0B4-D162-DF4F-AE5E-F608B497F079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEBB52C-4E02-DF4B-AD81-52F1845435FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29580" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/media/csv_uploads/gastronomia_establecimiento1.xlsx
+++ b/media/csv_uploads/gastronomia_establecimiento1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santigovinan/Documents/applications-django/emprendimientos/media/csv_uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E825A7-681F-E144-8F19-505C7B852705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E5991B-A966-FE49-B846-B75F5DB85D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29580" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/media/csv_uploads/gastronomia_establecimiento1.xlsx
+++ b/media/csv_uploads/gastronomia_establecimiento1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santigovinan/Documents/applications-django/emprendimientos/media/csv_uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E5991B-A966-FE49-B846-B75F5DB85D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542304E6-8157-4243-BB83-BF19327A7DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29580" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="782">
   <si>
     <t>nombre</t>
   </si>
@@ -2336,6 +2336,41 @@
   </si>
   <si>
     <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1764381322/TruchasCurishiroYangana_Fachada_web1_btrywj.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455971/CafeyComidadeHogar_Vilcabamba_FachadaG_web__nbkx4d.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455976/CafeyComidadeHogar_Vilcabamba_Indentidad_web__be5aiq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455981/CafeyComidadeHogar_Vilcabamba_Instalaciones_web__vqiw29.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455984/CafeyComidadeHogar_Vilcabamba_productogn_web__k4qlgd.jpg,
+https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455987/CafeyComidadeHogar_Vilcabamba_productopdtl_web__ch2ffq.jpg, 
+https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455991/CafeyComidadeHogar_Vilcabamba_productopg2_web__hvo4on.jpg,
+https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455995/CafeyComidadeHogar_Vilcabamba_productopg3_web__wbzkke.jpg,
+https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456001/CafeyComidadeHogar_Vilcabamba_productopp1_web__w4avr0.jpg,
+https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456004/CafeyComidadeHogar_Vilcabamba_productosp_web__avyndh.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455971/CafeyComidadeHogar_Vilcabamba_FachadaG_web__nbkx4d.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456477/Dumplings_Noodles_Vilcabamba_Fachada_web_tnkzku.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456481/Dumplings_Noodles_Vilcabamba_Identidad_web__wrotds.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456486/Dumplings_Noodles_Vilcabamba_Producto_web__eyh9ac.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456489/Dumplings_Noodles_Vilcabamba_Instalaciones_web__ulcsjh.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456492/Dumplings_Noodles_Vilcabamba_ProductoCent_web__cbaaxj.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456497/Dumplings_Noodles_Vilcabamba_ProductoDetailDp_web__dfn8ad.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456501/Dumplings_Noodles_Vilcabamba_ProductoFront_web__fzxhgx.jpg,  https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456504/Dumplings_Noodles_Vilcabamba_ProductoDetail_web__ytz90w.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456477/Dumplings_Noodles_Vilcabamba_Fachada_web_tnkzku.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457048/Molino_Tropical_Vilcabamba_Identidad_web__cx5vf4.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457052/Molino_Tropical_Vilcabamba_Instalaciones_web__r4jgjm.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457056/Molino_Tropical_Vilcabamba_Instalaciones2_web__ki8liu.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457064/Molino_Tropical_Vilcabamba21_web__qqfrh2.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457068/Molino_Tropical_Vilcabamba_Plato_web_mcomur.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457073/Molino_Tropical_Vilcabamba_Producto_web__qblgzf.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457077/Molino_Tropical_Vilcabamba_Producto2_web__ogo2sj.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457048/Molino_Tropical_Vilcabamba_Identidad_web__cx5vf4.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457402/IbelliaMommyCoffee_Vilcabamba_Interior_web__iqs9t2.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457408/IbelliaMommyCoffee_Vilcabamba_ProductoF_web__yxytys.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457413/IbelliaMommyCoffee_Vilcabamba_InteriorAp_web__zfphra.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457419/IbelliaMommyCoffee_Vilcabamba_Gproductos_web__zreyru.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457423/IbelliaMommyCoffee_Vilcabamba_ID_web__js7sxb.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457428/IbelliaMommyCoffee_Vilcabamba_DetailSpgt_web__gomqlw.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457433/IbelliaMommyCoffee_Vilcabamba_GH_web__gswmrv.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457438/IbelliaMommyCoffee_Vilcabamba_Fachada_web__piven0.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457443/IbelliaMommyCoffee_Vilcabamba_DetailP_web__fjrqlu.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457449/IbelliaMommyCoffee_Vilcabamba_DetailLgs_web__dn6hxj.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457397/IbelliaMommyCoffee_Vilcabamba_IDH_web__crfldz.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457780/LaCriollita_Vilcabamba_Exterior_web__fmvkjb.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457787/LaCriollita_Vilcabamba_Identidad_web__vcl3l2.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457794/LaCriollita_Vilcabamba_Infraestructura_web__pokati.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457800/LaCriollita_Vilcabamba_Producto_web__f9iuzl.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457806/LaCriollita_Vilcabamba_Fachada_web__i1vwag.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457812/LaCriollita_Vilcabamba_Identidad2_web__k1eccg.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457817/LaCriollita_Vilcabamba_Infraestructura2_web__ifrffj.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457823/LaCriollita_Vilcabamba_ProductoCent_web__begsff.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457829/LaCriollita_Vilcabamba_Sopa_web__tpmpo9.jpg}</t>
   </si>
 </sst>
 </file>
@@ -2433,7 +2468,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2465,6 +2500,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3600,8 +3638,8 @@
   </sheetPr>
   <dimension ref="A1:AY87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AW46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AW61" sqref="AW61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AT41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AW53" sqref="AW53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10701,10 +10739,10 @@
         <v>58</v>
       </c>
       <c r="AW46" s="7" t="s">
-        <v>168</v>
+        <v>778</v>
       </c>
       <c r="AX46" s="8" t="s">
-        <v>169</v>
+        <v>779</v>
       </c>
       <c r="AY46" s="8" t="s">
         <v>214</v>
@@ -11778,10 +11816,10 @@
         <v>58</v>
       </c>
       <c r="AW53" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX53" s="8" t="s">
-        <v>169</v>
+        <v>781</v>
+      </c>
+      <c r="AX53" s="10" t="s">
+        <v>780</v>
       </c>
       <c r="AY53" s="8" t="s">
         <v>221</v>
@@ -12084,10 +12122,10 @@
         <v>58</v>
       </c>
       <c r="AW55" s="7" t="s">
-        <v>168</v>
+        <v>774</v>
       </c>
       <c r="AX55" s="8" t="s">
-        <v>169</v>
+        <v>775</v>
       </c>
       <c r="AY55" s="8" t="s">
         <v>223</v>
@@ -13316,10 +13354,10 @@
         <v>58</v>
       </c>
       <c r="AW63" s="7" t="s">
-        <v>168</v>
+        <v>776</v>
       </c>
       <c r="AX63" s="8" t="s">
-        <v>169</v>
+        <v>777</v>
       </c>
       <c r="AY63" s="8" t="s">
         <v>231</v>
@@ -16242,11 +16280,11 @@
       <c r="AV82" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AW82" s="7" t="s">
-        <v>168</v>
+      <c r="AW82" s="11" t="s">
+        <v>772</v>
       </c>
       <c r="AX82" s="8" t="s">
-        <v>169</v>
+        <v>773</v>
       </c>
       <c r="AY82" s="8" t="s">
         <v>751</v>
@@ -16877,10 +16915,10 @@
     <hyperlink ref="AX3" r:id="rId2" xr:uid="{FEAFDADB-9540-6640-AFC7-7274D2B60BDA}"/>
     <hyperlink ref="AY2" r:id="rId3" xr:uid="{409CF008-5245-4645-A242-A06F3969A293}"/>
     <hyperlink ref="AY3:AY63" r:id="rId4" display="https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp4" xr:uid="{71C85481-5617-5947-BDC8-E04FAE88F145}"/>
-    <hyperlink ref="AX64:AX86" r:id="rId5" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1762997368/PiedraDuraVilcabamba_Fachada_web_yabily.jpg" xr:uid="{0E898EC2-A560-FF49-A3D0-2B033DADC274}"/>
-    <hyperlink ref="AY64:AY86" r:id="rId6" display="https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp4" xr:uid="{F3E6BC6D-6654-6344-94CE-B41059D564E0}"/>
-    <hyperlink ref="AX60" r:id="rId7" xr:uid="{6D6FE87D-B2B1-6448-8095-5BF50F5038B9}"/>
-    <hyperlink ref="AX61" r:id="rId8" xr:uid="{6300B616-ECE0-6440-9117-C02B9CEBB4B1}"/>
+    <hyperlink ref="AY64:AY86" r:id="rId5" display="https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp4" xr:uid="{F3E6BC6D-6654-6344-94CE-B41059D564E0}"/>
+    <hyperlink ref="AX60" r:id="rId6" xr:uid="{6D6FE87D-B2B1-6448-8095-5BF50F5038B9}"/>
+    <hyperlink ref="AX61" r:id="rId7" xr:uid="{6300B616-ECE0-6440-9117-C02B9CEBB4B1}"/>
+    <hyperlink ref="AX53" r:id="rId8" xr:uid="{CC3FF9BF-7F08-6E4D-9D2E-539EC574AFFF}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>

--- a/media/csv_uploads/gastronomia_establecimiento1.xlsx
+++ b/media/csv_uploads/gastronomia_establecimiento1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santigovinan/Documents/applications-django/emprendimientos/media/csv_uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542304E6-8157-4243-BB83-BF19327A7DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6357405-5C01-8040-8155-E8181D1C3DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29580" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="798">
   <si>
     <t>nombre</t>
   </si>
@@ -2355,9 +2355,6 @@
     <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456477/Dumplings_Noodles_Vilcabamba_Fachada_web_tnkzku.jpg</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457048/Molino_Tropical_Vilcabamba_Identidad_web__cx5vf4.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457052/Molino_Tropical_Vilcabamba_Instalaciones_web__r4jgjm.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457056/Molino_Tropical_Vilcabamba_Instalaciones2_web__ki8liu.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457064/Molino_Tropical_Vilcabamba21_web__qqfrh2.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457068/Molino_Tropical_Vilcabamba_Plato_web_mcomur.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457073/Molino_Tropical_Vilcabamba_Producto_web__qblgzf.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457077/Molino_Tropical_Vilcabamba_Producto2_web__ogo2sj.jpg}</t>
-  </si>
-  <si>
     <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457048/Molino_Tropical_Vilcabamba_Identidad_web__cx5vf4.jpg</t>
   </si>
   <si>
@@ -2371,6 +2368,57 @@
   </si>
   <si>
     <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457787/LaCriollita_Vilcabamba_Identidad_web__vcl3l2.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457794/LaCriollita_Vilcabamba_Infraestructura_web__pokati.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457800/LaCriollita_Vilcabamba_Producto_web__f9iuzl.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457806/LaCriollita_Vilcabamba_Fachada_web__i1vwag.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457812/LaCriollita_Vilcabamba_Identidad2_web__k1eccg.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457817/LaCriollita_Vilcabamba_Infraestructura2_web__ifrffj.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457823/LaCriollita_Vilcabamba_ProductoCent_web__begsff.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457829/LaCriollita_Vilcabamba_Sopa_web__tpmpo9.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457052/Molino_Tropical_Vilcabamba_Instalaciones_web__r4jgjm.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457056/Molino_Tropical_Vilcabamba_Instalaciones2_web__ki8liu.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457064/Molino_Tropical_Vilcabamba21_web__qqfrh2.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457068/Molino_Tropical_Vilcabamba_Plato_web_mcomur.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457073/Molino_Tropical_Vilcabamba_Producto_web__qblgzf.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457077/Molino_Tropical_Vilcabamba_Producto2_web__ogo2sj.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502823/La_Terraza_Vilcabamba_fachada_web__f85btk.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502830/La_Terraza_Vilcabamba_instalaciones_web__ij6s7d.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502836/La_Terraza_Vilcabamba_productcen_web__cj8bbk.jpg,  https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502844/La_Terraza_Vilcabamba_productgll_web__goaf39.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502851/La_Terraza_Vilcabamba_identidad_web__gqktdq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502857/La_Terraza_Vilcabamba_instalaciones2_web__dwil1e.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502864/La_Terraza_Vilcabamba_instalaciones3_web__acdttf.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502878/La_Terraza_Vilcabamba_productdtl_web__jqip7c.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502892/La_Terraza_Vilcabamba_productogl_web__dy1230.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503228/La_Baguette_Vilcabamba_Instalaciones2_web__ryfyll.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503220/La_Baguette_Vilcabamba_Fachada_web__ro2zbj.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503237/La_Baguette_Vilcabamba_productodtl2_web__ftdj8x.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503246/La_Baguette_Vilcabamba_productogn4_web__zfdlwn.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503253/La_Baguette_Vilcabamba_Identidad_web__cz3sgc.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503261/La_Baguette_Vilcabamba_Instalaciones_web__yxz79z.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503272/La_Baguette_Vilcabamba_productodt6_web__rynbw2.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503283/La_Baguette_Vilcabamba_productodtl_web__n26dgg.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503291/La_Baguette_Vilcabamba_productodtl3_web__sx3fxi.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503299/La_Baguette_Vilcabamba_productogn_web__rjuvhg.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503552/Las_Delicias_de_Paquita_Vilcabamba_productod_web__gfmlb7.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503562/Las_Delicias_de_Paquita_Vilcabamba_productoG_web__kyvqta.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503569/Las_Delicias_de_Paquita_Vilcabamba_productodtl_web__h1u5ki.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503577/Las_Delicias_de_Paquita_Vilcabamba_productodtly_web__rblsqu.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503585/Las_delicias_de_Paquita_Yangana__prd33_web_jpg_ggepfe.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503593/Las_delicias_de_Paquita_Yangana_instalaciones_pg_web_jpg_klc1xj.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503601/Las_delicias_de_Paquita_Yangana_instlacionesi__web_jpg_xdciqw.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503816/Mama_Silvia_Vilcabamba_productocent_web__loipg5.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503806/Mama_Silvia_Vilcabamba_exteriores_web__ul2pdb.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503825/Mama_Silvia_Vilcabamba_exterioresfront_web__uy9w25.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503833/Mama_Silvia_Vilcabamba_identidad_web__sze6ee.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503842/Mama_Silvia_Vilcabamba_Instalaciones_web__y0elsy.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503851/Mama_Silvia_Vilcabamba_productodetl_web__u4i3fk.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503860/Mama_Silvia_Vilcabamba_productofront_web__tfkp0j.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504298/Oriundo_Vilcabamba_fachadadtl_web__ifhyt7.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504308/Oriundo_Vilcabamba_productodtft_web__toomhe.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504317/Oriundo_Vilcabamba_productognf_web__dr36s9.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504327/Oriundo_Vilcabamba_fachadafr_web__u0aijd.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504335/Oriundo_Vilcabamba_identidad_web__jficnp.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504345/Oriundo_Vilcabamba_productocent_web__uxrym2.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504354/Oriundo_Vilcabamba_productodtls_web__ubzw2x.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504363/Oriundo_Vilcabamba_productoggg_web__c0ene4.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504372/Oriundo_Vilcabamba_productogn_web__j6stgx.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504601/Katherine_Restaurante_Vilcabamba_fachada_web__kl9v1v.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504611/Katherine_Restaurante_Vilcabamba_productdtlss_web__kkdzd5.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504623/Katherine_Restaurante_Vilcabamba_identidad_web__wxchix.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504633/Katherine_Restaurante_Vilcabamba_identidad2_web__vqi8ze.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504643/Katherine_Restaurante_Vilcabamba_instalaciones_web__wns4q5.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504653/Katherine_Restaurante_Vilcabamba_productdtlss2_web__wr9inj.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504663/Katherine_Restaurante_Vilcabamba_productdtlss3_web__b4idza.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504673/Katherine_Restaurante_Vilcabamba_productofrt2_web__f6ty2c.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504684/Katherine_Restaurante_Vilcabamba_productoft_web__tpxedm.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504695/Katherine_Restaurante_Vilcabamba_productoonly_web__d2j5bn.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455965/CafeyComidadeHogar_Vilcabamba_Fachada_web__j7awu1.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455971/CafeyComidadeHogar_Vilcabamba_FachadaG_web__nbkx4d.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455976/CafeyComidadeHogar_Vilcabamba_Indentidad_web__be5aiq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455981/CafeyComidadeHogar_Vilcabamba_Instalaciones_web__vqiw29.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455984/CafeyComidadeHogar_Vilcabamba_productogn_web__k4qlgd.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455987/CafeyComidadeHogar_Vilcabamba_productopdtl_web__ch2ffq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455991/CafeyComidadeHogar_Vilcabamba_productopg2_web__hvo4on.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456001/CafeyComidadeHogar_Vilcabamba_productopp1_web__w4avr0.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456004/CafeyComidadeHogar_Vilcabamba_productosp_web__avyndh.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766540847/Restaurante_Noroccidental_Chantaco_productodt_web__eyniob.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766540820/Restaurante_Noroccidental_Chantaco_identidad1_web__ffrx4j.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766540828/Restaurante_Noroccidental_Chantaco_instalaciones_web__sils6a.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766540837/Restaurante_Noroccidental_Chantaco_productodetail_web__pctb6y.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766540866/Restaurante_Noroccidental_Chantaco_productoppl_web__jrxlbv.jpg}</t>
   </si>
 </sst>
 </file>
@@ -2468,7 +2516,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2500,9 +2548,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3638,8 +3683,8 @@
   </sheetPr>
   <dimension ref="A1:AY87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AT41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AW53" sqref="AW53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AT1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AW3" sqref="AW3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3995,10 +4040,10 @@
       </c>
       <c r="AV2" s="6"/>
       <c r="AW2" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX2" s="8" t="s">
-        <v>169</v>
+        <v>797</v>
+      </c>
+      <c r="AX2" s="10" t="s">
+        <v>796</v>
       </c>
       <c r="AY2" s="8" t="s">
         <v>170</v>
@@ -10586,10 +10631,10 @@
         <v>58</v>
       </c>
       <c r="AW45" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX45" s="8" t="s">
-        <v>169</v>
+        <v>789</v>
+      </c>
+      <c r="AX45" s="10" t="s">
+        <v>788</v>
       </c>
       <c r="AY45" s="8" t="s">
         <v>213</v>
@@ -10739,10 +10784,10 @@
         <v>58</v>
       </c>
       <c r="AW46" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="AX46" s="8" t="s">
         <v>778</v>
-      </c>
-      <c r="AX46" s="8" t="s">
-        <v>779</v>
       </c>
       <c r="AY46" s="8" t="s">
         <v>214</v>
@@ -11202,10 +11247,10 @@
         <v>58</v>
       </c>
       <c r="AW49" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX49" s="8" t="s">
-        <v>169</v>
+        <v>793</v>
+      </c>
+      <c r="AX49" s="10" t="s">
+        <v>792</v>
       </c>
       <c r="AY49" s="8" t="s">
         <v>217</v>
@@ -11510,10 +11555,10 @@
         <v>58</v>
       </c>
       <c r="AW51" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX51" s="8" t="s">
-        <v>169</v>
+        <v>795</v>
+      </c>
+      <c r="AX51" s="10" t="s">
+        <v>794</v>
       </c>
       <c r="AY51" s="8" t="s">
         <v>219</v>
@@ -11816,10 +11861,10 @@
         <v>58</v>
       </c>
       <c r="AW53" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AX53" s="10" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AY53" s="8" t="s">
         <v>221</v>
@@ -11969,10 +12014,10 @@
         <v>58</v>
       </c>
       <c r="AW54" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX54" s="8" t="s">
-        <v>169</v>
+        <v>783</v>
+      </c>
+      <c r="AX54" s="10" t="s">
+        <v>782</v>
       </c>
       <c r="AY54" s="8" t="s">
         <v>222</v>
@@ -13354,10 +13399,10 @@
         <v>58</v>
       </c>
       <c r="AW63" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="AX63" s="8" t="s">
         <v>776</v>
-      </c>
-      <c r="AX63" s="8" t="s">
-        <v>777</v>
       </c>
       <c r="AY63" s="8" t="s">
         <v>231</v>
@@ -14280,10 +14325,10 @@
         <v>58</v>
       </c>
       <c r="AW69" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX69" s="8" t="s">
-        <v>169</v>
+        <v>787</v>
+      </c>
+      <c r="AX69" s="10" t="s">
+        <v>786</v>
       </c>
       <c r="AY69" s="8" t="s">
         <v>738</v>
@@ -15206,10 +15251,10 @@
         <v>58</v>
       </c>
       <c r="AW75" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX75" s="8" t="s">
-        <v>169</v>
+        <v>785</v>
+      </c>
+      <c r="AX75" s="10" t="s">
+        <v>784</v>
       </c>
       <c r="AY75" s="8" t="s">
         <v>744</v>
@@ -16128,10 +16173,10 @@
         <v>58</v>
       </c>
       <c r="AW81" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX81" s="8" t="s">
-        <v>169</v>
+        <v>791</v>
+      </c>
+      <c r="AX81" s="10" t="s">
+        <v>790</v>
       </c>
       <c r="AY81" s="8" t="s">
         <v>750</v>
@@ -16280,7 +16325,7 @@
       <c r="AV82" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AW82" s="11" t="s">
+      <c r="AW82" s="5" t="s">
         <v>772</v>
       </c>
       <c r="AX82" s="8" t="s">
@@ -16911,14 +16956,21 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="AX2" r:id="rId1" xr:uid="{23D1C7D1-FA59-3F45-88CD-0616576FE808}"/>
-    <hyperlink ref="AX3" r:id="rId2" xr:uid="{FEAFDADB-9540-6640-AFC7-7274D2B60BDA}"/>
-    <hyperlink ref="AY2" r:id="rId3" xr:uid="{409CF008-5245-4645-A242-A06F3969A293}"/>
-    <hyperlink ref="AY3:AY63" r:id="rId4" display="https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp4" xr:uid="{71C85481-5617-5947-BDC8-E04FAE88F145}"/>
-    <hyperlink ref="AY64:AY86" r:id="rId5" display="https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp4" xr:uid="{F3E6BC6D-6654-6344-94CE-B41059D564E0}"/>
-    <hyperlink ref="AX60" r:id="rId6" xr:uid="{6D6FE87D-B2B1-6448-8095-5BF50F5038B9}"/>
-    <hyperlink ref="AX61" r:id="rId7" xr:uid="{6300B616-ECE0-6440-9117-C02B9CEBB4B1}"/>
-    <hyperlink ref="AX53" r:id="rId8" xr:uid="{CC3FF9BF-7F08-6E4D-9D2E-539EC574AFFF}"/>
+    <hyperlink ref="AX3" r:id="rId1" xr:uid="{FEAFDADB-9540-6640-AFC7-7274D2B60BDA}"/>
+    <hyperlink ref="AY2" r:id="rId2" xr:uid="{409CF008-5245-4645-A242-A06F3969A293}"/>
+    <hyperlink ref="AY3:AY63" r:id="rId3" display="https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp4" xr:uid="{71C85481-5617-5947-BDC8-E04FAE88F145}"/>
+    <hyperlink ref="AY64:AY86" r:id="rId4" display="https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp4" xr:uid="{F3E6BC6D-6654-6344-94CE-B41059D564E0}"/>
+    <hyperlink ref="AX60" r:id="rId5" xr:uid="{6D6FE87D-B2B1-6448-8095-5BF50F5038B9}"/>
+    <hyperlink ref="AX61" r:id="rId6" xr:uid="{6300B616-ECE0-6440-9117-C02B9CEBB4B1}"/>
+    <hyperlink ref="AX53" r:id="rId7" xr:uid="{CC3FF9BF-7F08-6E4D-9D2E-539EC574AFFF}"/>
+    <hyperlink ref="AX54" r:id="rId8" xr:uid="{AEAA509B-12C3-4B4B-9BD4-52C2F2A8E7FD}"/>
+    <hyperlink ref="AX75" r:id="rId9" xr:uid="{AF739A31-1067-E244-BC69-5A1A18EA9C9D}"/>
+    <hyperlink ref="AX69" r:id="rId10" xr:uid="{0CC0561B-FBF6-B246-9652-3A671841A75A}"/>
+    <hyperlink ref="AX45" r:id="rId11" xr:uid="{4E36135F-11D5-BE4A-B770-AEAABBDE61E6}"/>
+    <hyperlink ref="AX81" r:id="rId12" xr:uid="{439DB451-601C-9840-AD8F-E52A8236C8D9}"/>
+    <hyperlink ref="AX49" r:id="rId13" xr:uid="{75873CB5-4162-4647-9368-B5C11489D37E}"/>
+    <hyperlink ref="AX51" r:id="rId14" xr:uid="{C3292907-97FB-A643-B51D-0960B7108503}"/>
+    <hyperlink ref="AX2" r:id="rId15" xr:uid="{707208D6-EA7B-FF4A-814B-19A0E6DA1290}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>

--- a/media/csv_uploads/gastronomia_establecimiento1.xlsx
+++ b/media/csv_uploads/gastronomia_establecimiento1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santigovinan/Documents/applications-django/emprendimientos/media/csv_uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6357405-5C01-8040-8155-E8181D1C3DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A75298-DFE3-4640-8F38-29AD9702481F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29580" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="800">
   <si>
     <t>nombre</t>
   </si>
@@ -2419,6 +2419,12 @@
   </si>
   <si>
     <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766540820/Restaurante_Noroccidental_Chantaco_identidad1_web__ffrx4j.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766540828/Restaurante_Noroccidental_Chantaco_instalaciones_web__sils6a.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766540837/Restaurante_Noroccidental_Chantaco_productodetail_web__pctb6y.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766540866/Restaurante_Noroccidental_Chantaco_productoppl_web__jrxlbv.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766541445/Villa_Beatriz_Vilcabamba_extpg_web__repiic.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766541423/Villa_Beatriz_Vilcabamba_EXPG_web__ntgwr8.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766541435/Villa_Beatriz_Vilcabamba_fachadaext2_web__wadczk.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766541456/Villa_Beatriz_Vilcabamba_fachada_web__mnabyu.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766541466/Villa_Beatriz_Vilcabamba_fachadaext_web__vkidmk.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766541477/Villa_Beatriz_Vilcabamba_HBPG_web__ykemp1.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766541487/Villa_Beatriz_Vilcabamba_iPG_web__cuywk9.jpg}</t>
   </si>
 </sst>
 </file>
@@ -3683,8 +3689,8 @@
   </sheetPr>
   <dimension ref="A1:AY87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AT1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AW3" sqref="AW3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AW61" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AW73" sqref="AW73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14943,10 +14949,10 @@
         <v>58</v>
       </c>
       <c r="AW73" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX73" s="8" t="s">
-        <v>169</v>
+        <v>799</v>
+      </c>
+      <c r="AX73" s="10" t="s">
+        <v>798</v>
       </c>
       <c r="AY73" s="8" t="s">
         <v>742</v>
@@ -16971,6 +16977,7 @@
     <hyperlink ref="AX49" r:id="rId13" xr:uid="{75873CB5-4162-4647-9368-B5C11489D37E}"/>
     <hyperlink ref="AX51" r:id="rId14" xr:uid="{C3292907-97FB-A643-B51D-0960B7108503}"/>
     <hyperlink ref="AX2" r:id="rId15" xr:uid="{707208D6-EA7B-FF4A-814B-19A0E6DA1290}"/>
+    <hyperlink ref="AX73" r:id="rId16" xr:uid="{89A3B1FA-0DF8-A84F-BB42-DAA8CFBE7A65}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>

--- a/media/csv_uploads/gastronomia_establecimiento1.xlsx
+++ b/media/csv_uploads/gastronomia_establecimiento1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santigovinan/Documents/applications-django/emprendimientos/media/csv_uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A75298-DFE3-4640-8F38-29AD9702481F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D55E696-D829-F54D-988E-84DE599B29A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29580" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="826">
   <si>
     <t>nombre</t>
   </si>
@@ -2425,6 +2425,84 @@
   </si>
   <si>
     <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766541423/Villa_Beatriz_Vilcabamba_EXPG_web__ntgwr8.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766541435/Villa_Beatriz_Vilcabamba_fachadaext2_web__wadczk.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766541456/Villa_Beatriz_Vilcabamba_fachada_web__mnabyu.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766541466/Villa_Beatriz_Vilcabamba_fachadaext_web__vkidmk.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766541477/Villa_Beatriz_Vilcabamba_HBPG_web__ykemp1.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766541487/Villa_Beatriz_Vilcabamba_iPG_web__cuywk9.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703094/Restaurante_Teresita_Chantaco_fachada_web___jjttnm.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703082/Restaurante_Teresita_Chantaco_details_web___nvpnbh.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703090/Restaurante_Teresita_Chantaco_espacios_web___xeavjo.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703098/Restaurante_Teresita_Chantaco_identidad1_web___rg5lt3.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703104/Restaurante_Teresita_Chantaco_productoslp_web__w8ccrf.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703346/Cecinas_Johanna_ElCisne_Fachada_web__tet1d2.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703349/Cecinas_Johanna_ElCisne_Fachada2_web__fqvn3a.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703352/Cecinas_Johanna_ElCisne_identidadw_web__lpfzpd.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703354/Cecinas_Johanna_ElCisne_prodtaails_web__osqyep.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703357/Cecinas_Johanna_ElCisne_productodetail_web__jbemwa.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703364/Cecinas_Johanna_ElCisne_productodtl_web__olaegh.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767059942/Comedor_AlPaso_ElCisne_fachada_web__hywnow.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767059946/Comedor_AlPaso_ElCisne_fachada2p_web__sfenew.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767059950/Comedor_AlPaso_ElCisne_identidadw_web__jarjfn.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767059957/Comedor_AlPaso_ElCisne_pescadofrito_web__yo1hzw.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767059962/Comedor_AlPaso_ElCisne_pescadofritodetcen_web__qtc19f.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767059967/Comedor_AlPaso_ElCisne_pescadofritodt_web__kpahpi.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060138/ComoenCasa_Restaurante_ElCisne_fachadaext_web__eqlznf.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060141/ComoenCasa_Restaurante_ElCisne_identidad_web__wukhl4.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060149/ComoenCasa_Restaurante_ElCisne_producto2_web__ddg62d.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060152/ComoenCasa_Restaurante_ElCisne_producto_web__uxuuem.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060159/ComoenCasa_Restaurante_ElCisne_productopgdtl_web__mcvj0i.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060166/ComoenCasa_Restaurante_ElCisne_productopg_web__jy5xbu.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060423/Cuenquita_Comedor_ElCisne_restspa_web__xtkzw8.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060428/Cuenquita_Comedor_ElCisne_restspace_web__dyibc2.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060395/Cuenquita_Comedor_ElCisne_identidad_web__ctcsht.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060399/Cuenquita_Comedor_ElCisne_producto1_web__bsceyy.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060406/Cuenquita_Comedor_ElCisne_productodtl_web__qr8mpl.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060417/Cuenquita_Comedor_ElCisne_productodtlll_web__ggmtc4.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060428/Cuenquita_Comedor_ElCisne_restspace_web__dyibc2.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060696/DonaMary_Restaurante_ElCisne_fachada_web__r6anzn.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060706/DonaMary_Restaurante_ElCisne_identidad_web__wb1pgt.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060715/DonaMary_Restaurante_ElCisne_produccent_web__lbxcfd.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060720/DonaMary_Restaurante_ElCisne_productdtl_web__e3hn0j.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060725/DonaMary_Restaurante_ElCisne_productsgn_web__dsdfne.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060833/El_Conquistador_ElCisne_fachada_web__kqukht.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060846/El_Conquistador_ElCisne_producto1ft_web__tllatj.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060857/El_Conquistador_ElCisne_product2py_web__ch1q48.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060868/El_Conquistador_ElCisne_productogndt_web__pxahpd.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061436/Rincon_Cisteno_ElCisne_identidad2_web__l2tfju.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061416/Rincon_Cisteno_ElCisne_producto1_web__rgncia.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061425/Rincon_Cisteno_ElCisne_producto3_web__spdjqt.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061431/Rincon_Cisteno_ElCisne_producto5_web__jhvadu.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061673/ElTurista_Cecinas_Restaurante_ElCisne_fachada_web__o7yd8y.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061680/ElTurista_Cecinas_Restaurante_ElCisne_fachadaint_web__odcu0q.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061690/ElTurista_Cecinas_Restaurante_ElCisne_product_web__ywuyil.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061696/ElTurista_Cecinas_Restaurante_ElCisne_identidad_web__a4ugzy.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061703/ElTurista_Cecinas_Restaurante_ElCisne_productdtl_web__nbjylx.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061848/Grill_HouseBar_ElCisne_fachadaext_web__l5avim.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061855/Grill_HouseBar_ElCisne_identidad_web__v0u8lq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061862/Grill_HouseBar_ElCisne_fachadaint_web__hxvrhw.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061870/Grill_HouseBar_ElCisne_productdtlsg_web__s95rak.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061877/Grill_HouseBar_ElCisne_productdtl_web__meobhf.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061884/Grill_HouseBar_ElCisne_productdtls_web__di30z6.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062076/LaEstanciaNaranjillo_Rest_ElCisne_fachadaet_web__owyedo.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062101/LaEstanciaNaranjillo_Rest_ElCisne_fachadaext_web__fl3vtn.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062086/LaEstanciaNaranjillo_Rest_ElCisne_product1_web__jgmmg8.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062094/LaEstanciaNaranjillo_Rest_ElCisne_productfrdt_web__tqwzqb.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062109/LaEstanciaNaranjillo_Rest_ElCisne_identidad_web__sagimq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062116/LaEstanciaNaranjillo_Rest_ElCisne_productdetl_web__h8ci4s.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062501/MamaOlla_Rest_ElCisne_fachada_web__pa1wty.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062509/MamaOlla_Rest_ElCisne_espacioh_web__ahlcnn.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062493/MamaOlla_Rest_ElCisne_espacio_web__cp7hmu.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062518/MamaOlla_Rest_ElCisne_identidad_web__qebeyp.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062526/MamaOlla_Rest_ElCisne_productdtlz_web__hc2emd.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062753/Pinto_Cecinas_Restaurante_ElCisne_lafachada_web__vdebgx.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062734/Pinto_Cecinas_Restaurante_ElCisne_producto1_web__xswrfs.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062724/Pinto_Cecinas_Restaurante_ElCisne_identidad_web__y4mu53.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062744/Pinto_Cecinas_Restaurante_ElCisne_producto3_web__t3wb3k.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062762/Pinto_Cecinas_Restaurante_ElCisne_producto2_web__vnjkaw.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062771/Pinto_Cecinas_Restaurante_ElCisne_productodrk_web__ixpf9g.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062780/Pinto_Cecinas_Restaurante_ElCisne_productodtl_web__moca55.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062792/Pinto_Cecinas_Restaurante_ElCisne_productodtpe_web__xoerik.jpg}</t>
   </si>
 </sst>
 </file>
@@ -3689,8 +3767,8 @@
   </sheetPr>
   <dimension ref="A1:AY87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AW61" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AW73" sqref="AW73"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AV14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AW20" sqref="AW20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4199,10 +4277,10 @@
         <v>58</v>
       </c>
       <c r="AW3" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX3" s="8" t="s">
-        <v>169</v>
+        <v>801</v>
+      </c>
+      <c r="AX3" s="10" t="s">
+        <v>800</v>
       </c>
       <c r="AY3" s="8" t="s">
         <v>171</v>
@@ -4811,10 +4889,10 @@
         <v>58</v>
       </c>
       <c r="AW7" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX7" s="8" t="s">
-        <v>169</v>
+        <v>803</v>
+      </c>
+      <c r="AX7" s="10" t="s">
+        <v>802</v>
       </c>
       <c r="AY7" s="8" t="s">
         <v>175</v>
@@ -4964,10 +5042,10 @@
         <v>58</v>
       </c>
       <c r="AW8" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX8" s="8" t="s">
-        <v>169</v>
+        <v>809</v>
+      </c>
+      <c r="AX8" s="10" t="s">
+        <v>808</v>
       </c>
       <c r="AY8" s="8" t="s">
         <v>176</v>
@@ -5117,10 +5195,10 @@
         <v>58</v>
       </c>
       <c r="AW9" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX9" s="8" t="s">
-        <v>169</v>
+        <v>813</v>
+      </c>
+      <c r="AX9" s="10" t="s">
+        <v>812</v>
       </c>
       <c r="AY9" s="8" t="s">
         <v>177</v>
@@ -5270,10 +5348,10 @@
         <v>58</v>
       </c>
       <c r="AW10" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX10" s="8" t="s">
-        <v>169</v>
+        <v>811</v>
+      </c>
+      <c r="AX10" s="10" t="s">
+        <v>810</v>
       </c>
       <c r="AY10" s="8" t="s">
         <v>178</v>
@@ -6345,10 +6423,10 @@
         <v>58</v>
       </c>
       <c r="AW17" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX17" s="8" t="s">
-        <v>169</v>
+        <v>817</v>
+      </c>
+      <c r="AX17" s="10" t="s">
+        <v>816</v>
       </c>
       <c r="AY17" s="8" t="s">
         <v>185</v>
@@ -6498,10 +6576,10 @@
         <v>58</v>
       </c>
       <c r="AW18" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX18" s="8" t="s">
-        <v>169</v>
+        <v>821</v>
+      </c>
+      <c r="AX18" s="10" t="s">
+        <v>820</v>
       </c>
       <c r="AY18" s="8" t="s">
         <v>186</v>
@@ -6651,10 +6729,10 @@
         <v>58</v>
       </c>
       <c r="AW19" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX19" s="8" t="s">
-        <v>169</v>
+        <v>823</v>
+      </c>
+      <c r="AX19" s="10" t="s">
+        <v>822</v>
       </c>
       <c r="AY19" s="8" t="s">
         <v>187</v>
@@ -6806,10 +6884,10 @@
         <v>58</v>
       </c>
       <c r="AW20" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX20" s="8" t="s">
-        <v>169</v>
+        <v>825</v>
+      </c>
+      <c r="AX20" s="10" t="s">
+        <v>824</v>
       </c>
       <c r="AY20" s="8" t="s">
         <v>188</v>
@@ -7112,10 +7190,10 @@
         <v>58</v>
       </c>
       <c r="AW22" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX22" s="8" t="s">
-        <v>169</v>
+        <v>807</v>
+      </c>
+      <c r="AX22" s="10" t="s">
+        <v>806</v>
       </c>
       <c r="AY22" s="8" t="s">
         <v>190</v>
@@ -7265,10 +7343,10 @@
         <v>58</v>
       </c>
       <c r="AW23" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX23" s="8" t="s">
-        <v>169</v>
+        <v>819</v>
+      </c>
+      <c r="AX23" s="10" t="s">
+        <v>818</v>
       </c>
       <c r="AY23" s="8" t="s">
         <v>191</v>
@@ -7571,10 +7649,10 @@
         <v>58</v>
       </c>
       <c r="AW25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX25" s="8" t="s">
-        <v>169</v>
+        <v>815</v>
+      </c>
+      <c r="AX25" s="10" t="s">
+        <v>814</v>
       </c>
       <c r="AY25" s="8" t="s">
         <v>193</v>
@@ -7724,10 +7802,10 @@
         <v>58</v>
       </c>
       <c r="AW26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX26" s="8" t="s">
-        <v>169</v>
+        <v>805</v>
+      </c>
+      <c r="AX26" s="10" t="s">
+        <v>804</v>
       </c>
       <c r="AY26" s="8" t="s">
         <v>194</v>
@@ -16962,22 +17040,34 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="AX3" r:id="rId1" xr:uid="{FEAFDADB-9540-6640-AFC7-7274D2B60BDA}"/>
-    <hyperlink ref="AY2" r:id="rId2" xr:uid="{409CF008-5245-4645-A242-A06F3969A293}"/>
-    <hyperlink ref="AY3:AY63" r:id="rId3" display="https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp4" xr:uid="{71C85481-5617-5947-BDC8-E04FAE88F145}"/>
-    <hyperlink ref="AY64:AY86" r:id="rId4" display="https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp4" xr:uid="{F3E6BC6D-6654-6344-94CE-B41059D564E0}"/>
-    <hyperlink ref="AX60" r:id="rId5" xr:uid="{6D6FE87D-B2B1-6448-8095-5BF50F5038B9}"/>
-    <hyperlink ref="AX61" r:id="rId6" xr:uid="{6300B616-ECE0-6440-9117-C02B9CEBB4B1}"/>
-    <hyperlink ref="AX53" r:id="rId7" xr:uid="{CC3FF9BF-7F08-6E4D-9D2E-539EC574AFFF}"/>
-    <hyperlink ref="AX54" r:id="rId8" xr:uid="{AEAA509B-12C3-4B4B-9BD4-52C2F2A8E7FD}"/>
-    <hyperlink ref="AX75" r:id="rId9" xr:uid="{AF739A31-1067-E244-BC69-5A1A18EA9C9D}"/>
-    <hyperlink ref="AX69" r:id="rId10" xr:uid="{0CC0561B-FBF6-B246-9652-3A671841A75A}"/>
-    <hyperlink ref="AX45" r:id="rId11" xr:uid="{4E36135F-11D5-BE4A-B770-AEAABBDE61E6}"/>
-    <hyperlink ref="AX81" r:id="rId12" xr:uid="{439DB451-601C-9840-AD8F-E52A8236C8D9}"/>
-    <hyperlink ref="AX49" r:id="rId13" xr:uid="{75873CB5-4162-4647-9368-B5C11489D37E}"/>
-    <hyperlink ref="AX51" r:id="rId14" xr:uid="{C3292907-97FB-A643-B51D-0960B7108503}"/>
-    <hyperlink ref="AX2" r:id="rId15" xr:uid="{707208D6-EA7B-FF4A-814B-19A0E6DA1290}"/>
-    <hyperlink ref="AX73" r:id="rId16" xr:uid="{89A3B1FA-0DF8-A84F-BB42-DAA8CFBE7A65}"/>
+    <hyperlink ref="AY2" r:id="rId1" xr:uid="{409CF008-5245-4645-A242-A06F3969A293}"/>
+    <hyperlink ref="AY3:AY63" r:id="rId2" display="https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp4" xr:uid="{71C85481-5617-5947-BDC8-E04FAE88F145}"/>
+    <hyperlink ref="AY64:AY86" r:id="rId3" display="https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp4" xr:uid="{F3E6BC6D-6654-6344-94CE-B41059D564E0}"/>
+    <hyperlink ref="AX60" r:id="rId4" xr:uid="{6D6FE87D-B2B1-6448-8095-5BF50F5038B9}"/>
+    <hyperlink ref="AX61" r:id="rId5" xr:uid="{6300B616-ECE0-6440-9117-C02B9CEBB4B1}"/>
+    <hyperlink ref="AX53" r:id="rId6" xr:uid="{CC3FF9BF-7F08-6E4D-9D2E-539EC574AFFF}"/>
+    <hyperlink ref="AX54" r:id="rId7" xr:uid="{AEAA509B-12C3-4B4B-9BD4-52C2F2A8E7FD}"/>
+    <hyperlink ref="AX75" r:id="rId8" xr:uid="{AF739A31-1067-E244-BC69-5A1A18EA9C9D}"/>
+    <hyperlink ref="AX69" r:id="rId9" xr:uid="{0CC0561B-FBF6-B246-9652-3A671841A75A}"/>
+    <hyperlink ref="AX45" r:id="rId10" xr:uid="{4E36135F-11D5-BE4A-B770-AEAABBDE61E6}"/>
+    <hyperlink ref="AX81" r:id="rId11" xr:uid="{439DB451-601C-9840-AD8F-E52A8236C8D9}"/>
+    <hyperlink ref="AX49" r:id="rId12" xr:uid="{75873CB5-4162-4647-9368-B5C11489D37E}"/>
+    <hyperlink ref="AX51" r:id="rId13" xr:uid="{C3292907-97FB-A643-B51D-0960B7108503}"/>
+    <hyperlink ref="AX2" r:id="rId14" xr:uid="{707208D6-EA7B-FF4A-814B-19A0E6DA1290}"/>
+    <hyperlink ref="AX73" r:id="rId15" xr:uid="{89A3B1FA-0DF8-A84F-BB42-DAA8CFBE7A65}"/>
+    <hyperlink ref="AX3" r:id="rId16" xr:uid="{FB16C349-DCBF-5F41-8595-B16AF2F8FEAF}"/>
+    <hyperlink ref="AX7" r:id="rId17" xr:uid="{B9DE33C8-5B74-BE4B-BC1C-63A2EA6BC475}"/>
+    <hyperlink ref="AX26" r:id="rId18" xr:uid="{7383680B-EBB8-D144-A520-C9353F9F5C76}"/>
+    <hyperlink ref="AX22" r:id="rId19" xr:uid="{8A2E9758-ED6F-1B4F-AF5F-4339EBF379B0}"/>
+    <hyperlink ref="AX8" r:id="rId20" xr:uid="{C91459E3-0FDC-0A42-9DA9-F73E4D58C649}"/>
+    <hyperlink ref="AX10" r:id="rId21" xr:uid="{BD85B7B5-11AF-4E42-83A9-15CA00BAF3E3}"/>
+    <hyperlink ref="AX9" r:id="rId22" xr:uid="{E7FFA598-41F8-8544-A9B7-DCFA6722ACF4}"/>
+    <hyperlink ref="AX25" r:id="rId23" xr:uid="{0B6AD3C8-378E-0A4E-A27C-B4C571AE8E9E}"/>
+    <hyperlink ref="AX17" r:id="rId24" xr:uid="{1980DD46-4A5D-CE49-AB11-728F5919DE96}"/>
+    <hyperlink ref="AX23" r:id="rId25" xr:uid="{AE190B76-FDD0-BA4B-BFAF-29D288533928}"/>
+    <hyperlink ref="AX18" r:id="rId26" xr:uid="{6CAD1ACA-9B42-9D4C-AAAB-62CA837BAC29}"/>
+    <hyperlink ref="AX19" r:id="rId27" xr:uid="{9D1C12B2-9199-D44C-A827-E483C0AD5D54}"/>
+    <hyperlink ref="AX20" r:id="rId28" xr:uid="{C39534CA-AC8B-9E45-A9A0-3E02FFB73E54}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>

--- a/media/csv_uploads/gastronomia_establecimiento1.xlsx
+++ b/media/csv_uploads/gastronomia_establecimiento1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santigovinan/Documents/applications-django/emprendimientos/media/csv_uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D55E696-D829-F54D-988E-84DE599B29A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8859D8-A4A6-A246-9C78-F604BFDBC862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29580" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="854">
   <si>
     <t>nombre</t>
   </si>
@@ -2503,6 +2503,90 @@
   </si>
   <si>
     <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062734/Pinto_Cecinas_Restaurante_ElCisne_producto1_web__xswrfs.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062724/Pinto_Cecinas_Restaurante_ElCisne_identidad_web__y4mu53.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062744/Pinto_Cecinas_Restaurante_ElCisne_producto3_web__t3wb3k.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062762/Pinto_Cecinas_Restaurante_ElCisne_producto2_web__vnjkaw.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062771/Pinto_Cecinas_Restaurante_ElCisne_productodrk_web__ixpf9g.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062780/Pinto_Cecinas_Restaurante_ElCisne_productodtl_web__moca55.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062792/Pinto_Cecinas_Restaurante_ElCisne_productodtpe_web__xoerik.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121691/ElBuenSabor_Rest_ElCisne_prodxhz_web__fv98dy.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121648/ElBuenSabor_Rest_ElCisne_extf_web__bmstvs.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121682/ElBuenSabor_Rest_ElCisne_ident_web__qc4akh.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121671/ElBuenSabor_Rest_ElCisne_prtcx_web__vupvac.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121659/ElBuenSabor_Rest_ElCisne_prdclp_web__wo7xqq.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121933/MamiLola_Rest_ElCisne_producdtl_web__llvolb.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121890/MamiLola_Rest_ElCisne_identidad_web__ppizlb.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121875/MamiLola_Rest_ElCisne_fachada_web__ftd7ph.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121904/MamiLola_Rest_ElCisne_productovtdtl_web__ge1swz.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121914/MamiLola_Rest_ElCisne_fachadad_web__bq40ds.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121923/MamiLola_Rest_ElCisne_fachdadtl_web__r3vq7b.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121943/MamiLola_Rest_ElCisne_producdtlce_web__rayy0e.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122320/Nancyta_Rest_ElCisne_ext2_web__mbtpea.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122330/Nancyta_Rest_ElCisne_ident_web__jexuni.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122340/Nancyta_Rest_ElCisne_ident2_web__fvdgrd.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122351/Nancyta_Rest_ElCisne_prodfrg_web__wnoolb.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122362/Nancyta_Rest_ElCisne_prodonl_web__vhtreu.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122372/Nancyta_Rest_ElCisne_prodt_web__avrai5.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122535/SaboresdelCampo_Rest_ElCisne_ident_web__dn9j2l.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122547/SaboresdelCampo_Rest_ElCisne_prdcnt_web__yszsnm.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122568/SaboresdelCampo_Rest_ElCisne_prdcndetl_web__welew6.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122579/SaboresdelCampo_Rest_ElCisne_prdcntl_web__qv1byy.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122590/SaboresdelCampo_Rest_ElCisne_prdcotrp_web__alt5rl.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122675/Yesenia_Rest_ElCisne_fachada_web__zrwuup.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122687/Yesenia_Rest_ElCisne_int_web__ot6exm.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122705/Yesenia_Rest_ElCisne_prddtl_web__dwohd5.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122716/Yesenia_Rest_ElCisne_identhor_web__kzbtgr.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122731/Yesenia_Rest_ElCisne_prd_web__jehva0.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122742/Yesenia_Rest_ElCisne_prdcent_web__os7z08.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122756/Yesenia_Rest_ElCisne_prdgfr_web__vycyfm.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122767/Yesenia_Rest_ElCisne_prdtails_web__zpfmml.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122990/ElGolosito_Gualel_ext_web__mxuvuz.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123014/ElGolosito_Gualel_idnt_web__dtdjny.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123002/ElGolosito_Gualel_prdtdt_web__aa0zru.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123026/ElGolosito_Gualel_prdclp_web__alfzfl.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123198/SaborGualasense_Gualel_prdcen_web__zuyxer.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123186/SaborGualasense_Gualel_ext_web__gfoksp.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123223/SaborGualasense_Gualel_idnt2_web__fjugdt.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123234/SaborGualasense_Gualel_prd_web__wmlyzy.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123249/SaborGualasense_Gualel_prdDD_web__izdboq.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123368/ElBuenSazondeQuinara_Quinara_ext_web__clzf7r.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123381/ElBuenSazondeQuinara_Quinara_prddetalle_web__fhw2vg.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123394/ElBuenSazondeQuinara_Quinara_idnt_web__eviwpi.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123419/ElBuenSazondeQuinara_Quinara_int_web__vg69nd.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123431/ElBuenSazondeQuinara_Quinara_prd_web__bnq6lf.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123444/ElBuenSazondeQuinara_Quinara_prdetallec_web__nb3iza.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123457/ElBuenSazondeQuinara_Quinara_prdft_web__gh3czh.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123474/ElBuenSazondeQuinara_Quinara_prdjh_web__ey9sub.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123487/ElBuenSazondeQuinara_Quinara_prdpgg_web__ncohdo.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123682/EsconditedeQuezada_Santiago_interx2f_web__hpido6.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123638/EsconditedeQuezada_Santiago_idnt2_web__qh61jh.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123653/EsconditedeQuezada_Santiago_prdcldg_web__aw95zw.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123668/EsconditedeQuezada_Santiago_inter_web__smtfmo.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123696/EsconditedeQuezada_Santiago_prdchasd_web__o4mbgg.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123709/EsconditedeQuezada_Santiago_prdcosdt_web__fhqhqr.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123725/EsconditedeQuezada_Santiago_prdcost_web__bmirsp.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123740/EsconditedeQuezada_Santiago_prdcv_web__lwwyvy.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123740/EsconditedeQuezada_Santiago_prdcv_web__lwwyvy.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123788/EsconditedeQuezada_Santiago_prddclp_web__wm43tm.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123788/EsconditedeQuezada_Santiago_prddclp_web__wm43tm.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123837/EsconditedeQuezada_Santiago_prdtll_web__g4hl7h.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123941/EstanciaAlcivar_Santiago_ext_web__q52qph.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123971/EstanciaAlcivar_Santiago_ext2_web__lwyi0i.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123957/EstanciaAlcivar_Santiago_prdf_web__va5gnq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123986/EstanciaAlcivar_Santiago_idntv_web__egqbdn.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124001/EstanciaAlcivar_Santiago_int_web__gel6jl.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124015/EstanciaAlcivar_Santiago_int2_web__v7unfw.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124031/EstanciaAlcivar_Santiago_prdfdt_web__w3amqs.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124216/Olivo_Yangana_fachada_web__ytjsxg.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124232/Olivo_Yangana_prodplt_web__pq42kc.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124247/Olivo_Yangana_idnt_web__fchslt.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124265/Olivo_Yangana_idntw_web__jdtrbt.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124280/Olivo_Yangana_prodall_web__xzfhoz.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124294/Olivo_Yangana_prodc_web__f8jnln.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124309/Olivo_Yangana_prodfrot_web__gw8ie0.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124341/Olivo_Yangana_prodpltg_web__uvzc10.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124358/Olivo_Yangana_prodqp_web__y1da8t.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124393/Olivo_Yangana_space2_web__y2lvyb.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124544/QueRico_Restaurante_Yangana_prdg_web__ndgt4j.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124513/QueRico_Restaurante_Yangana_idnt_web__sck2hs.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124529/QueRico_Restaurante_Yangana_prdfrnt_web__fhrtzt.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124559/QueRico_Restaurante_Yangana_prdgr_web__qv73b2.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124730/SaboresdemiTierra_Yangana_prdchz_web__v0oopa.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124683/SaboresdemiTierra_Yangana_idnt_web__zuarbq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124714/SaboresdemiTierra_Yangana_prd_web__hleljg.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124749/SaboresdemiTierra_Yangana_prdcrn_web__mz1mjf.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124766/SaboresdemiTierra_Yangana_prddet_web__rcvium.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124877/Sanamaqui_Yangana_ext_web__xa0rtf.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124893/Sanamaqui_Yangana_prdtails_web__ppz04n.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124910/Sanamaqui_Yangana_idnt_web__tprquj.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124926/Sanamaqui_Yangana_int_web__n3efvr.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124942/Sanamaqui_Yangana_prd_web__fbcyy9.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124959/Sanamaqui_Yangana_prdcent_web__ccihhf.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124977/Sanamaqui_Yangana_prddetl_web__ugn2oy.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124997/Sanamaqui_Yangana_prdfrt_web__vdrlsd.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767125017/Sanamaqui_Yangana_prdvt_web__h5bgrm.jpg}</t>
   </si>
 </sst>
 </file>
@@ -3767,8 +3851,8 @@
   </sheetPr>
   <dimension ref="A1:AY87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AV14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AW20" sqref="AW20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AW49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AW62" sqref="AW62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4736,10 +4820,10 @@
         <v>58</v>
       </c>
       <c r="AW6" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX6" s="8" t="s">
-        <v>169</v>
+        <v>835</v>
+      </c>
+      <c r="AX6" s="10" t="s">
+        <v>834</v>
       </c>
       <c r="AY6" s="8" t="s">
         <v>174</v>
@@ -5654,10 +5738,10 @@
         <v>58</v>
       </c>
       <c r="AW12" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX12" s="8" t="s">
-        <v>169</v>
+        <v>827</v>
+      </c>
+      <c r="AX12" s="10" t="s">
+        <v>826</v>
       </c>
       <c r="AY12" s="8" t="s">
         <v>180</v>
@@ -5807,10 +5891,10 @@
         <v>58</v>
       </c>
       <c r="AW13" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX13" s="8" t="s">
-        <v>169</v>
+        <v>831</v>
+      </c>
+      <c r="AX13" s="10" t="s">
+        <v>830</v>
       </c>
       <c r="AY13" s="8" t="s">
         <v>181</v>
@@ -5960,10 +6044,10 @@
         <v>58</v>
       </c>
       <c r="AW14" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX14" s="8" t="s">
-        <v>169</v>
+        <v>829</v>
+      </c>
+      <c r="AX14" s="10" t="s">
+        <v>828</v>
       </c>
       <c r="AY14" s="8" t="s">
         <v>182</v>
@@ -6268,10 +6352,10 @@
         <v>58</v>
       </c>
       <c r="AW16" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX16" s="8" t="s">
-        <v>169</v>
+        <v>833</v>
+      </c>
+      <c r="AX16" s="10" t="s">
+        <v>832</v>
       </c>
       <c r="AY16" s="8" t="s">
         <v>184</v>
@@ -8263,10 +8347,10 @@
         <v>58</v>
       </c>
       <c r="AW29" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX29" s="8" t="s">
-        <v>169</v>
+        <v>837</v>
+      </c>
+      <c r="AX29" s="10" t="s">
+        <v>836</v>
       </c>
       <c r="AY29" s="8" t="s">
         <v>197</v>
@@ -8416,10 +8500,10 @@
         <v>58</v>
       </c>
       <c r="AW30" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX30" s="8" t="s">
-        <v>169</v>
+        <v>839</v>
+      </c>
+      <c r="AX30" s="10" t="s">
+        <v>838</v>
       </c>
       <c r="AY30" s="8" t="s">
         <v>198</v>
@@ -12557,10 +12641,10 @@
         <v>58</v>
       </c>
       <c r="AW57" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX57" s="8" t="s">
-        <v>169</v>
+        <v>849</v>
+      </c>
+      <c r="AX57" s="10" t="s">
+        <v>848</v>
       </c>
       <c r="AY57" s="8" t="s">
         <v>225</v>
@@ -12710,10 +12794,10 @@
         <v>58</v>
       </c>
       <c r="AW58" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX58" s="8" t="s">
-        <v>169</v>
+        <v>847</v>
+      </c>
+      <c r="AX58" s="10" t="s">
+        <v>846</v>
       </c>
       <c r="AY58" s="8" t="s">
         <v>226</v>
@@ -12863,10 +12947,10 @@
         <v>58</v>
       </c>
       <c r="AW59" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX59" s="8" t="s">
-        <v>169</v>
+        <v>851</v>
+      </c>
+      <c r="AX59" s="10" t="s">
+        <v>850</v>
       </c>
       <c r="AY59" s="8" t="s">
         <v>227</v>
@@ -13328,10 +13412,10 @@
         <v>58</v>
       </c>
       <c r="AW62" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX62" s="8" t="s">
-        <v>169</v>
+        <v>853</v>
+      </c>
+      <c r="AX62" s="10" t="s">
+        <v>852</v>
       </c>
       <c r="AY62" s="8" t="s">
         <v>230</v>
@@ -14717,10 +14801,10 @@
         <v>58</v>
       </c>
       <c r="AW71" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX71" s="8" t="s">
-        <v>169</v>
+        <v>843</v>
+      </c>
+      <c r="AX71" s="10" t="s">
+        <v>842</v>
       </c>
       <c r="AY71" s="8" t="s">
         <v>740</v>
@@ -15182,10 +15266,10 @@
         <v>58</v>
       </c>
       <c r="AW74" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX74" s="8" t="s">
-        <v>169</v>
+        <v>845</v>
+      </c>
+      <c r="AX74" s="10" t="s">
+        <v>844</v>
       </c>
       <c r="AY74" s="8" t="s">
         <v>743</v>
@@ -15794,10 +15878,10 @@
         <v>58</v>
       </c>
       <c r="AW78" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX78" s="8" t="s">
-        <v>169</v>
+        <v>841</v>
+      </c>
+      <c r="AX78" s="10" t="s">
+        <v>840</v>
       </c>
       <c r="AY78" s="8" t="s">
         <v>747</v>
@@ -17068,6 +17152,20 @@
     <hyperlink ref="AX18" r:id="rId26" xr:uid="{6CAD1ACA-9B42-9D4C-AAAB-62CA837BAC29}"/>
     <hyperlink ref="AX19" r:id="rId27" xr:uid="{9D1C12B2-9199-D44C-A827-E483C0AD5D54}"/>
     <hyperlink ref="AX20" r:id="rId28" xr:uid="{C39534CA-AC8B-9E45-A9A0-3E02FFB73E54}"/>
+    <hyperlink ref="AX12" r:id="rId29" xr:uid="{1106AB31-BCE6-2946-B619-7A6F3133F4ED}"/>
+    <hyperlink ref="AX14" r:id="rId30" xr:uid="{9621AAA5-457C-5841-9DD9-2FC9C1BE1BC3}"/>
+    <hyperlink ref="AX13" r:id="rId31" xr:uid="{AFA1D841-BA8C-CD4F-B5C2-58DF47D8E8AD}"/>
+    <hyperlink ref="AX16" r:id="rId32" xr:uid="{E2FA31CF-07ED-F54D-AD6B-C19F2D4CB8F5}"/>
+    <hyperlink ref="AX6" r:id="rId33" xr:uid="{45284FF3-A607-7948-BDE1-55706433473F}"/>
+    <hyperlink ref="AX29" r:id="rId34" xr:uid="{030EBF59-C8D0-274A-9ED6-BD6CD8B35A88}"/>
+    <hyperlink ref="AX30" r:id="rId35" xr:uid="{492D201E-BE84-3C4A-874F-033BC5F9DC6C}"/>
+    <hyperlink ref="AX78" r:id="rId36" xr:uid="{4FA1DFA1-11A7-8F4B-9BD3-2A89EA3F82E6}"/>
+    <hyperlink ref="AX71" r:id="rId37" xr:uid="{D513CACB-421C-E543-8C03-3A7BDEA3807F}"/>
+    <hyperlink ref="AX74" r:id="rId38" xr:uid="{AA7E62E2-C099-DE4A-8913-313012792725}"/>
+    <hyperlink ref="AX58" r:id="rId39" xr:uid="{2C338D1A-8BE8-8A4A-BC07-2BC84E3B6E19}"/>
+    <hyperlink ref="AX57" r:id="rId40" xr:uid="{1FBF4277-EEBA-624F-9D5A-389DCDE3DD93}"/>
+    <hyperlink ref="AX59" r:id="rId41" xr:uid="{BE36CCFA-103C-C94F-BB55-D5EB4BAEC179}"/>
+    <hyperlink ref="AX62" r:id="rId42" xr:uid="{FD8A8272-674F-7245-B622-8A96313E6954}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>

--- a/media/csv_uploads/gastronomia_establecimiento1.xlsx
+++ b/media/csv_uploads/gastronomia_establecimiento1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santigovinan/Documents/applications-django/emprendimientos/media/csv_uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8859D8-A4A6-A246-9C78-F604BFDBC862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C30D0C4-EA60-994F-B5F7-A40C0F4D371D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29580" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3325" uniqueCount="861">
   <si>
     <t>nombre</t>
   </si>
@@ -2505,6 +2505,9 @@
     <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062734/Pinto_Cecinas_Restaurante_ElCisne_producto1_web__xswrfs.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062724/Pinto_Cecinas_Restaurante_ElCisne_identidad_web__y4mu53.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062744/Pinto_Cecinas_Restaurante_ElCisne_producto3_web__t3wb3k.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062762/Pinto_Cecinas_Restaurante_ElCisne_producto2_web__vnjkaw.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062771/Pinto_Cecinas_Restaurante_ElCisne_productodrk_web__ixpf9g.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062780/Pinto_Cecinas_Restaurante_ElCisne_productodtl_web__moca55.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062792/Pinto_Cecinas_Restaurante_ElCisne_productodtpe_web__xoerik.jpg}</t>
   </si>
   <si>
+    <t>{}</t>
+  </si>
+  <si>
     <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121691/ElBuenSabor_Rest_ElCisne_prodxhz_web__fv98dy.jpg</t>
   </si>
   <si>
@@ -2587,6 +2590,24 @@
   </si>
   <si>
     <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124893/Sanamaqui_Yangana_prdtails_web__ppz04n.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124910/Sanamaqui_Yangana_idnt_web__tprquj.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124926/Sanamaqui_Yangana_int_web__n3efvr.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124942/Sanamaqui_Yangana_prd_web__fbcyy9.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124959/Sanamaqui_Yangana_prdcent_web__ccihhf.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124977/Sanamaqui_Yangana_prddetl_web__ugn2oy.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124997/Sanamaqui_Yangana_prdfrt_web__vdrlsd.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767125017/Sanamaqui_Yangana_prdvt_web__h5bgrm.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193085/Machay_Taquil_ext_web__hag0y9.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193122/Machay_Taquil_ident_web__j6dcav.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193105/Machay_Taquil_proddetll_web__ge6i6e.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193139/Machay_Taquil_int_web__bc8edc.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193156/Machay_Taquil_prodcentm_web__hm0q1f.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193172/Machay_Taquil_prodcompl_web__p4058g.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193190/Machay_Taquil_proddetllp2_web__g7oiyh.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193207/Machay_Taquil_prodpcent_web__rziu4y.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193226/Machay_Taquil_prodredm_web__xquvlx.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193445/SabordelCampo_Taquil_ext_web__waizee.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193482/SabordelCampo_Taquil_idnt_web__fbrhsz.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193465/SabordelCampo_Taquil_prodtlio_web__kv60i8.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193500/SabordelCampo_Taquil_prddetalle_web__an3x8j.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193518/SabordelCampo_Taquil_prod_web__spbtxm.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193538/SabordelCampo_Taquil_prodpg_web__zfrezm.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193738/Sariri_Taquil_instal_web__m4ebig.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193757/Sariri_Taquil_prodcent_web__hwvcxr.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193793/Sariri_Taquil_prodant_web__jp1ggm.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193812/Sariri_Taquil_prodbbdey_web__l9ne3z.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193830/Sariri_Taquil_proddetal_web__khcpsz.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193848/Sariri_Taquil_prodjusber_web__tjmpk2.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193866/Sariri_Taquil_prodmdpd_web__v6vh9r.jpg}</t>
   </si>
 </sst>
 </file>
@@ -3851,8 +3872,8 @@
   </sheetPr>
   <dimension ref="A1:AY87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AW49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AW62" sqref="AW62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4820,10 +4841,10 @@
         <v>58</v>
       </c>
       <c r="AW6" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="AX6" s="10" t="s">
         <v>835</v>
-      </c>
-      <c r="AX6" s="10" t="s">
-        <v>834</v>
       </c>
       <c r="AY6" s="8" t="s">
         <v>174</v>
@@ -5738,10 +5759,10 @@
         <v>58</v>
       </c>
       <c r="AW12" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="AX12" s="10" t="s">
         <v>827</v>
-      </c>
-      <c r="AX12" s="10" t="s">
-        <v>826</v>
       </c>
       <c r="AY12" s="8" t="s">
         <v>180</v>
@@ -5891,10 +5912,10 @@
         <v>58</v>
       </c>
       <c r="AW13" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="AX13" s="10" t="s">
         <v>831</v>
-      </c>
-      <c r="AX13" s="10" t="s">
-        <v>830</v>
       </c>
       <c r="AY13" s="8" t="s">
         <v>181</v>
@@ -6044,10 +6065,10 @@
         <v>58</v>
       </c>
       <c r="AW14" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="AX14" s="10" t="s">
         <v>829</v>
-      </c>
-      <c r="AX14" s="10" t="s">
-        <v>828</v>
       </c>
       <c r="AY14" s="8" t="s">
         <v>182</v>
@@ -6352,10 +6373,10 @@
         <v>58</v>
       </c>
       <c r="AW16" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="AX16" s="10" t="s">
         <v>833</v>
-      </c>
-      <c r="AX16" s="10" t="s">
-        <v>832</v>
       </c>
       <c r="AY16" s="8" t="s">
         <v>184</v>
@@ -8347,10 +8368,10 @@
         <v>58</v>
       </c>
       <c r="AW29" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="AX29" s="10" t="s">
         <v>837</v>
-      </c>
-      <c r="AX29" s="10" t="s">
-        <v>836</v>
       </c>
       <c r="AY29" s="8" t="s">
         <v>197</v>
@@ -8500,10 +8521,10 @@
         <v>58</v>
       </c>
       <c r="AW30" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="AX30" s="10" t="s">
         <v>839</v>
-      </c>
-      <c r="AX30" s="10" t="s">
-        <v>838</v>
       </c>
       <c r="AY30" s="8" t="s">
         <v>198</v>
@@ -10183,11 +10204,9 @@
         <v>58</v>
       </c>
       <c r="AW41" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX41" s="8" t="s">
-        <v>169</v>
-      </c>
+        <v>826</v>
+      </c>
+      <c r="AX41" s="8"/>
       <c r="AY41" s="8" t="s">
         <v>209</v>
       </c>
@@ -10336,10 +10355,10 @@
         <v>58</v>
       </c>
       <c r="AW42" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX42" s="8" t="s">
-        <v>169</v>
+        <v>858</v>
+      </c>
+      <c r="AX42" s="10" t="s">
+        <v>857</v>
       </c>
       <c r="AY42" s="8" t="s">
         <v>210</v>
@@ -10491,10 +10510,10 @@
         <v>58</v>
       </c>
       <c r="AW43" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX43" s="8" t="s">
-        <v>169</v>
+        <v>856</v>
+      </c>
+      <c r="AX43" s="10" t="s">
+        <v>855</v>
       </c>
       <c r="AY43" s="8" t="s">
         <v>211</v>
@@ -10646,10 +10665,10 @@
         <v>58</v>
       </c>
       <c r="AW44" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX44" s="8" t="s">
-        <v>169</v>
+        <v>860</v>
+      </c>
+      <c r="AX44" s="10" t="s">
+        <v>859</v>
       </c>
       <c r="AY44" s="8" t="s">
         <v>212</v>
@@ -12641,10 +12660,10 @@
         <v>58</v>
       </c>
       <c r="AW57" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="AX57" s="10" t="s">
         <v>849</v>
-      </c>
-      <c r="AX57" s="10" t="s">
-        <v>848</v>
       </c>
       <c r="AY57" s="8" t="s">
         <v>225</v>
@@ -12794,10 +12813,10 @@
         <v>58</v>
       </c>
       <c r="AW58" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="AX58" s="10" t="s">
         <v>847</v>
-      </c>
-      <c r="AX58" s="10" t="s">
-        <v>846</v>
       </c>
       <c r="AY58" s="8" t="s">
         <v>226</v>
@@ -12947,10 +12966,10 @@
         <v>58</v>
       </c>
       <c r="AW59" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="AX59" s="10" t="s">
         <v>851</v>
-      </c>
-      <c r="AX59" s="10" t="s">
-        <v>850</v>
       </c>
       <c r="AY59" s="8" t="s">
         <v>227</v>
@@ -13412,10 +13431,10 @@
         <v>58</v>
       </c>
       <c r="AW62" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="AX62" s="10" t="s">
         <v>853</v>
-      </c>
-      <c r="AX62" s="10" t="s">
-        <v>852</v>
       </c>
       <c r="AY62" s="8" t="s">
         <v>230</v>
@@ -14801,10 +14820,10 @@
         <v>58</v>
       </c>
       <c r="AW71" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="AX71" s="10" t="s">
         <v>843</v>
-      </c>
-      <c r="AX71" s="10" t="s">
-        <v>842</v>
       </c>
       <c r="AY71" s="8" t="s">
         <v>740</v>
@@ -15266,10 +15285,10 @@
         <v>58</v>
       </c>
       <c r="AW74" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="AX74" s="10" t="s">
         <v>845</v>
-      </c>
-      <c r="AX74" s="10" t="s">
-        <v>844</v>
       </c>
       <c r="AY74" s="8" t="s">
         <v>743</v>
@@ -15878,10 +15897,10 @@
         <v>58</v>
       </c>
       <c r="AW78" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="AX78" s="10" t="s">
         <v>841</v>
-      </c>
-      <c r="AX78" s="10" t="s">
-        <v>840</v>
       </c>
       <c r="AY78" s="8" t="s">
         <v>747</v>
@@ -17166,6 +17185,9 @@
     <hyperlink ref="AX57" r:id="rId40" xr:uid="{1FBF4277-EEBA-624F-9D5A-389DCDE3DD93}"/>
     <hyperlink ref="AX59" r:id="rId41" xr:uid="{BE36CCFA-103C-C94F-BB55-D5EB4BAEC179}"/>
     <hyperlink ref="AX62" r:id="rId42" xr:uid="{FD8A8272-674F-7245-B622-8A96313E6954}"/>
+    <hyperlink ref="AX43" r:id="rId43" xr:uid="{FCCA98D6-6D28-4C40-B348-614DC5F3C592}"/>
+    <hyperlink ref="AX42" r:id="rId44" xr:uid="{81DBB0F7-541D-454D-8AD3-C0AA6FFE1FBB}"/>
+    <hyperlink ref="AX44" r:id="rId45" xr:uid="{0D8CAF1E-8068-B64D-A6C8-5798370EB4FC}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>

--- a/media/csv_uploads/gastronomia_establecimiento1.xlsx
+++ b/media/csv_uploads/gastronomia_establecimiento1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santigovinan/Documents/applications-django/emprendimientos/media/csv_uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C30D0C4-EA60-994F-B5F7-A40C0F4D371D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4EE01E-633E-664B-AB0A-EB50E424D1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29580" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3325" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3204" uniqueCount="776">
   <si>
     <t>nombre</t>
   </si>
@@ -532,192 +532,6 @@
     <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1762997368/PiedraDuraVilcabamba_Fachada_web_yabily.jpg</t>
   </si>
   <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp4</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp5</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp6</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp7</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp8</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp9</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp10</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp11</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp12</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp13</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp14</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp15</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp16</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp17</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp18</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp19</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp20</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp21</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp22</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp23</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp24</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp25</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp26</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp27</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp28</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp29</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp30</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp31</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp32</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp33</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp34</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp35</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp36</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp37</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp38</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp39</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp40</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp41</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp42</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp43</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp44</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp45</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp46</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp47</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp48</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp49</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp50</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp51</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp52</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp53</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp54</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp55</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp56</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp57</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp58</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp59</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp60</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp61</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp62</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp63</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp64</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp65</t>
-  </si>
-  <si>
     <t>Restaurante Teresita</t>
   </si>
   <si>
@@ -2219,75 +2033,6 @@
   </si>
   <si>
     <t>piscicolaordonez</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp66</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp67</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp68</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp69</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp70</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp71</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp72</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp73</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp74</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp75</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp76</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp77</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp78</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp79</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp80</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp81</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp82</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp83</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp84</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp85</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp86</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp87</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp88</t>
   </si>
   <si>
     <t>Lunes a viernes 11 am a 10 pm Sábado a Domingo 10 am a 11 pm</t>
@@ -3872,8 +3617,8 @@
   </sheetPr>
   <dimension ref="A1:AY87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AU68" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AW86" sqref="AW86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4098,13 +3843,13 @@
         <v>53</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="E2" s="3">
         <v>979670398</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>325</v>
+        <v>263</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>54</v>
@@ -4122,11 +3867,11 @@
         <v>57</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>460</v>
+        <v>398</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="O2" s="3">
         <v>1</v>
@@ -4144,7 +3889,7 @@
         <v>60</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>542</v>
+        <v>480</v>
       </c>
       <c r="U2" s="4">
         <v>3.75</v>
@@ -4153,10 +3898,10 @@
         <v>61</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>629</v>
+        <v>567</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>634</v>
+        <v>572</v>
       </c>
       <c r="Y2" s="3">
         <v>2</v>
@@ -4229,18 +3974,16 @@
       </c>
       <c r="AV2" s="6"/>
       <c r="AW2" s="7" t="s">
-        <v>797</v>
+        <v>712</v>
       </c>
       <c r="AX2" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="AY2" s="8" t="s">
-        <v>170</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="AY2" s="8"/>
     </row>
     <row r="3" spans="1:51" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>52</v>
@@ -4249,13 +3992,13 @@
         <v>53</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>301</v>
+        <v>239</v>
       </c>
       <c r="E3" s="3">
         <v>982686170</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>68</v>
@@ -4273,11 +4016,11 @@
         <v>57</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>461</v>
+        <v>399</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="O3" s="3">
         <v>2</v>
@@ -4295,7 +4038,7 @@
         <v>60</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>543</v>
+        <v>481</v>
       </c>
       <c r="U3" s="4">
         <v>2.5</v>
@@ -4304,10 +4047,10 @@
         <v>61</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>630</v>
+        <v>568</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y3" s="3">
         <v>1</v>
@@ -4382,18 +4125,16 @@
         <v>58</v>
       </c>
       <c r="AW3" s="7" t="s">
-        <v>801</v>
+        <v>716</v>
       </c>
       <c r="AX3" s="10" t="s">
-        <v>800</v>
-      </c>
-      <c r="AY3" s="8" t="s">
-        <v>171</v>
-      </c>
+        <v>715</v>
+      </c>
+      <c r="AY3" s="8"/>
     </row>
     <row r="4" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>52</v>
@@ -4402,16 +4143,16 @@
         <v>71</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="E4" s="3">
         <v>958690650</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>366</v>
+        <v>304</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>55</v>
@@ -4426,11 +4167,11 @@
         <v>57</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>462</v>
+        <v>400</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
-        <v>503</v>
+        <v>441</v>
       </c>
       <c r="O4" s="3">
         <v>2</v>
@@ -4448,7 +4189,7 @@
         <v>60</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>544</v>
+        <v>482</v>
       </c>
       <c r="U4" s="4">
         <v>3.5</v>
@@ -4457,10 +4198,10 @@
         <v>61</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>630</v>
+        <v>568</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y4" s="3">
         <v>2</v>
@@ -4535,14 +4276,10 @@
         <v>58</v>
       </c>
       <c r="AW4" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX4" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY4" s="8" t="s">
-        <v>172</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
     </row>
     <row r="5" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
@@ -4555,22 +4292,22 @@
         <v>71</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="E5" s="3">
         <v>985094341</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>328</v>
+        <v>266</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>367</v>
+        <v>305</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>767</v>
+        <v>682</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>56</v>
@@ -4579,11 +4316,11 @@
         <v>57</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>463</v>
+        <v>401</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
-        <v>504</v>
+        <v>442</v>
       </c>
       <c r="O5" s="3">
         <v>2</v>
@@ -4601,7 +4338,7 @@
         <v>60</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>545</v>
+        <v>483</v>
       </c>
       <c r="U5" s="4">
         <v>3</v>
@@ -4610,10 +4347,10 @@
         <v>61</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>631</v>
+        <v>569</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y5" s="3">
         <v>2</v>
@@ -4688,18 +4425,14 @@
         <v>58</v>
       </c>
       <c r="AW5" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX5" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY5" s="8" t="s">
-        <v>173</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
     </row>
     <row r="6" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>52</v>
@@ -4708,22 +4441,22 @@
         <v>86</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>302</v>
+        <v>240</v>
       </c>
       <c r="E6" s="3">
         <v>985902378</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>368</v>
+        <v>306</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>55</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>767</v>
+        <v>682</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>56</v>
@@ -4732,11 +4465,11 @@
         <v>77</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>464</v>
+        <v>402</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="O6" s="3">
         <v>3</v>
@@ -4754,7 +4487,7 @@
         <v>60</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>546</v>
+        <v>484</v>
       </c>
       <c r="U6" s="4">
         <v>5</v>
@@ -4763,10 +4496,10 @@
         <v>61</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>630</v>
+        <v>568</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>636</v>
+        <v>574</v>
       </c>
       <c r="Y6" s="3">
         <v>4</v>
@@ -4841,18 +4574,16 @@
         <v>58</v>
       </c>
       <c r="AW6" s="7" t="s">
-        <v>836</v>
+        <v>751</v>
       </c>
       <c r="AX6" s="10" t="s">
-        <v>835</v>
-      </c>
-      <c r="AY6" s="8" t="s">
-        <v>174</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="AY6" s="8"/>
     </row>
     <row r="7" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>235</v>
+        <v>173</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>52</v>
@@ -4861,22 +4592,22 @@
         <v>86</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="E7" s="3">
         <v>997101647</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>369</v>
+        <v>307</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>767</v>
+        <v>682</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>56</v>
@@ -4885,11 +4616,11 @@
         <v>81</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>465</v>
+        <v>403</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="O7" s="3">
         <v>2</v>
@@ -4907,7 +4638,7 @@
         <v>60</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>547</v>
+        <v>485</v>
       </c>
       <c r="U7" s="4">
         <v>7.5</v>
@@ -4916,10 +4647,10 @@
         <v>61</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>630</v>
+        <v>568</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y7" s="3">
         <v>3</v>
@@ -4994,18 +4725,16 @@
         <v>58</v>
       </c>
       <c r="AW7" s="7" t="s">
-        <v>803</v>
+        <v>718</v>
       </c>
       <c r="AX7" s="10" t="s">
-        <v>802</v>
-      </c>
-      <c r="AY7" s="8" t="s">
-        <v>175</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="AY7" s="8"/>
     </row>
     <row r="8" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>52</v>
@@ -5014,22 +4743,22 @@
         <v>86</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="E8" s="3">
         <v>994424295</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>370</v>
+        <v>308</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>80</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>767</v>
+        <v>682</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>56</v>
@@ -5038,11 +4767,11 @@
         <v>81</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>466</v>
+        <v>404</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="O8" s="3">
         <v>2</v>
@@ -5060,7 +4789,7 @@
         <v>60</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>548</v>
+        <v>486</v>
       </c>
       <c r="U8" s="4">
         <v>4</v>
@@ -5069,10 +4798,10 @@
         <v>61</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>629</v>
+        <v>567</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y8" s="3">
         <v>2</v>
@@ -5147,18 +4876,16 @@
         <v>58</v>
       </c>
       <c r="AW8" s="7" t="s">
-        <v>809</v>
+        <v>724</v>
       </c>
       <c r="AX8" s="10" t="s">
-        <v>808</v>
-      </c>
-      <c r="AY8" s="8" t="s">
-        <v>176</v>
-      </c>
+        <v>723</v>
+      </c>
+      <c r="AY8" s="8"/>
     </row>
     <row r="9" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>237</v>
+        <v>175</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>52</v>
@@ -5167,13 +4894,13 @@
         <v>86</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="E9" s="3">
         <v>985709075</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>82</v>
@@ -5182,7 +4909,7 @@
         <v>55</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>767</v>
+        <v>682</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>56</v>
@@ -5191,11 +4918,11 @@
         <v>81</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>467</v>
+        <v>405</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="O9" s="3">
         <v>2</v>
@@ -5213,7 +4940,7 @@
         <v>83</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>549</v>
+        <v>487</v>
       </c>
       <c r="U9" s="4">
         <v>6</v>
@@ -5222,10 +4949,10 @@
         <v>61</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>630</v>
+        <v>568</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y9" s="3">
         <v>4</v>
@@ -5300,14 +5027,12 @@
         <v>58</v>
       </c>
       <c r="AW9" s="7" t="s">
-        <v>813</v>
+        <v>728</v>
       </c>
       <c r="AX9" s="10" t="s">
-        <v>812</v>
-      </c>
-      <c r="AY9" s="8" t="s">
-        <v>177</v>
-      </c>
+        <v>727</v>
+      </c>
+      <c r="AY9" s="8"/>
     </row>
     <row r="10" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
@@ -5320,22 +5045,22 @@
         <v>86</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="E10" s="3">
         <v>969691330</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>371</v>
+        <v>309</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>55</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>767</v>
+        <v>682</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>56</v>
@@ -5344,11 +5069,11 @@
         <v>81</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>466</v>
+        <v>404</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="O10" s="3">
         <v>2</v>
@@ -5366,7 +5091,7 @@
         <v>60</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>550</v>
+        <v>488</v>
       </c>
       <c r="U10" s="4">
         <v>4</v>
@@ -5375,10 +5100,10 @@
         <v>61</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>631</v>
+        <v>569</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y10" s="3">
         <v>3</v>
@@ -5453,18 +5178,16 @@
         <v>58</v>
       </c>
       <c r="AW10" s="7" t="s">
-        <v>811</v>
+        <v>726</v>
       </c>
       <c r="AX10" s="10" t="s">
-        <v>810</v>
-      </c>
-      <c r="AY10" s="8" t="s">
-        <v>178</v>
-      </c>
+        <v>725</v>
+      </c>
+      <c r="AY10" s="8"/>
     </row>
     <row r="11" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>52</v>
@@ -5473,13 +5196,13 @@
         <v>86</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="E11" s="3">
         <v>991450218</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>87</v>
@@ -5497,11 +5220,11 @@
         <v>88</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>464</v>
+        <v>402</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="O11" s="3">
         <v>2</v>
@@ -5519,7 +5242,7 @@
         <v>60</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>551</v>
+        <v>489</v>
       </c>
       <c r="U11" s="4">
         <v>4</v>
@@ -5528,10 +5251,10 @@
         <v>61</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>630</v>
+        <v>568</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y11" s="3">
         <v>5</v>
@@ -5606,18 +5329,14 @@
         <v>58</v>
       </c>
       <c r="AW11" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX11" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY11" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX11" s="8"/>
+      <c r="AY11" s="8"/>
     </row>
     <row r="12" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>52</v>
@@ -5626,13 +5345,13 @@
         <v>86</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="E12" s="3">
         <v>939462796</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>89</v>
@@ -5641,7 +5360,7 @@
         <v>90</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>767</v>
+        <v>682</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>56</v>
@@ -5650,11 +5369,11 @@
         <v>81</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>461</v>
+        <v>399</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
-        <v>504</v>
+        <v>442</v>
       </c>
       <c r="O12" s="3">
         <v>1</v>
@@ -5672,7 +5391,7 @@
         <v>60</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>552</v>
+        <v>490</v>
       </c>
       <c r="U12" s="4">
         <v>4</v>
@@ -5759,18 +5478,16 @@
         <v>58</v>
       </c>
       <c r="AW12" s="7" t="s">
-        <v>828</v>
+        <v>743</v>
       </c>
       <c r="AX12" s="10" t="s">
-        <v>827</v>
-      </c>
-      <c r="AY12" s="8" t="s">
-        <v>180</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="AY12" s="8"/>
     </row>
     <row r="13" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>240</v>
+        <v>178</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>52</v>
@@ -5779,22 +5496,22 @@
         <v>86</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="E13" s="3">
         <v>990937330</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>330</v>
+        <v>268</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>372</v>
+        <v>310</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>90</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>767</v>
+        <v>682</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>56</v>
@@ -5803,11 +5520,11 @@
         <v>81</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>461</v>
+        <v>399</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="O13" s="3">
         <v>2</v>
@@ -5825,7 +5542,7 @@
         <v>60</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>553</v>
+        <v>491</v>
       </c>
       <c r="U13" s="4">
         <v>3</v>
@@ -5834,7 +5551,7 @@
         <v>61</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>630</v>
+        <v>568</v>
       </c>
       <c r="X13" s="3" t="s">
         <v>92</v>
@@ -5912,18 +5629,16 @@
         <v>58</v>
       </c>
       <c r="AW13" s="7" t="s">
-        <v>832</v>
+        <v>747</v>
       </c>
       <c r="AX13" s="10" t="s">
-        <v>831</v>
-      </c>
-      <c r="AY13" s="8" t="s">
-        <v>181</v>
-      </c>
+        <v>746</v>
+      </c>
+      <c r="AY13" s="8"/>
     </row>
     <row r="14" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>52</v>
@@ -5932,35 +5647,35 @@
         <v>86</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="E14" s="3">
         <v>939008806</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>331</v>
+        <v>269</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>373</v>
+        <v>311</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>55</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>767</v>
+        <v>682</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>56</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>427</v>
+        <v>365</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>461</v>
+        <v>399</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="O14" s="3">
         <v>1</v>
@@ -5978,7 +5693,7 @@
         <v>60</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>554</v>
+        <v>492</v>
       </c>
       <c r="U14" s="4">
         <v>3</v>
@@ -5987,10 +5702,10 @@
         <v>61</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>630</v>
+        <v>568</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y14" s="3">
         <v>2</v>
@@ -6065,18 +5780,16 @@
         <v>58</v>
       </c>
       <c r="AW14" s="7" t="s">
-        <v>830</v>
+        <v>745</v>
       </c>
       <c r="AX14" s="10" t="s">
-        <v>829</v>
-      </c>
-      <c r="AY14" s="8" t="s">
-        <v>182</v>
-      </c>
+        <v>744</v>
+      </c>
+      <c r="AY14" s="8"/>
     </row>
     <row r="15" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>52</v>
@@ -6085,13 +5798,13 @@
         <v>86</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>303</v>
+        <v>241</v>
       </c>
       <c r="E15" s="3">
         <v>985908474</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>332</v>
+        <v>270</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>94</v>
@@ -6109,11 +5822,11 @@
         <v>95</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>468</v>
+        <v>406</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
-        <v>503</v>
+        <v>441</v>
       </c>
       <c r="O15" s="3">
         <v>3</v>
@@ -6131,7 +5844,7 @@
         <v>83</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>555</v>
+        <v>493</v>
       </c>
       <c r="U15" s="4">
         <v>4</v>
@@ -6140,7 +5853,7 @@
         <v>61</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>629</v>
+        <v>567</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>92</v>
@@ -6218,18 +5931,14 @@
         <v>58</v>
       </c>
       <c r="AW15" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX15" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY15" s="8" t="s">
-        <v>183</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX15" s="8"/>
+      <c r="AY15" s="8"/>
     </row>
     <row r="16" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>52</v>
@@ -6244,16 +5953,16 @@
         <v>939233599</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>374</v>
+        <v>312</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>55</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>767</v>
+        <v>682</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>56</v>
@@ -6262,13 +5971,13 @@
         <v>98</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>466</v>
+        <v>404</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="O16" s="3">
         <v>2</v>
@@ -6286,19 +5995,19 @@
         <v>60</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>556</v>
+        <v>494</v>
       </c>
       <c r="U16" s="4">
         <v>5</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>626</v>
+        <v>564</v>
       </c>
       <c r="W16" s="3" t="s">
         <v>91</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y16" s="3">
         <v>3</v>
@@ -6373,14 +6082,12 @@
         <v>58</v>
       </c>
       <c r="AW16" s="7" t="s">
-        <v>834</v>
+        <v>749</v>
       </c>
       <c r="AX16" s="10" t="s">
-        <v>833</v>
-      </c>
-      <c r="AY16" s="8" t="s">
-        <v>184</v>
-      </c>
+        <v>748</v>
+      </c>
+      <c r="AY16" s="8"/>
     </row>
     <row r="17" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
@@ -6399,7 +6106,7 @@
         <v>992586806</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>101</v>
@@ -6417,13 +6124,13 @@
         <v>102</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>469</v>
+        <v>407</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="O17" s="3">
         <v>2</v>
@@ -6441,7 +6148,7 @@
         <v>60</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>557</v>
+        <v>495</v>
       </c>
       <c r="U17" s="4">
         <v>5</v>
@@ -6450,10 +6157,10 @@
         <v>61</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>630</v>
+        <v>568</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y17" s="3">
         <v>2</v>
@@ -6528,18 +6235,16 @@
         <v>58</v>
       </c>
       <c r="AW17" s="7" t="s">
-        <v>817</v>
+        <v>732</v>
       </c>
       <c r="AX17" s="10" t="s">
-        <v>816</v>
-      </c>
-      <c r="AY17" s="8" t="s">
-        <v>185</v>
-      </c>
+        <v>731</v>
+      </c>
+      <c r="AY17" s="8"/>
     </row>
     <row r="18" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>52</v>
@@ -6554,10 +6259,10 @@
         <v>939320817</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>375</v>
+        <v>313</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>104</v>
@@ -6572,11 +6277,11 @@
         <v>105</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>466</v>
+        <v>404</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="O18" s="3">
         <v>2</v>
@@ -6594,7 +6299,7 @@
         <v>60</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>558</v>
+        <v>496</v>
       </c>
       <c r="U18" s="4">
         <v>5</v>
@@ -6603,10 +6308,10 @@
         <v>61</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>630</v>
+        <v>568</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y18" s="3">
         <v>3</v>
@@ -6681,18 +6386,16 @@
         <v>58</v>
       </c>
       <c r="AW18" s="7" t="s">
-        <v>821</v>
+        <v>736</v>
       </c>
       <c r="AX18" s="10" t="s">
-        <v>820</v>
-      </c>
-      <c r="AY18" s="8" t="s">
-        <v>186</v>
-      </c>
+        <v>735</v>
+      </c>
+      <c r="AY18" s="8"/>
     </row>
     <row r="19" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>52</v>
@@ -6707,10 +6410,10 @@
         <v>992309098</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>376</v>
+        <v>314</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>104</v>
@@ -6725,11 +6428,11 @@
         <v>106</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>470</v>
+        <v>408</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="O19" s="3">
         <v>2</v>
@@ -6747,7 +6450,7 @@
         <v>60</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>559</v>
+        <v>497</v>
       </c>
       <c r="U19" s="4">
         <v>5</v>
@@ -6756,10 +6459,10 @@
         <v>61</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>629</v>
+        <v>567</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y19" s="3">
         <v>7</v>
@@ -6834,18 +6537,16 @@
         <v>58</v>
       </c>
       <c r="AW19" s="7" t="s">
-        <v>823</v>
+        <v>738</v>
       </c>
       <c r="AX19" s="10" t="s">
-        <v>822</v>
-      </c>
-      <c r="AY19" s="8" t="s">
-        <v>187</v>
-      </c>
+        <v>737</v>
+      </c>
+      <c r="AY19" s="8"/>
     </row>
     <row r="20" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>246</v>
+        <v>184</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>52</v>
@@ -6854,16 +6555,16 @@
         <v>86</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="E20" s="3">
         <v>981952323</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>377</v>
+        <v>315</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>104</v>
@@ -6878,13 +6579,13 @@
         <v>106</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>464</v>
+        <v>402</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>505</v>
+        <v>443</v>
       </c>
       <c r="O20" s="3">
         <v>2</v>
@@ -6902,7 +6603,7 @@
         <v>83</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>560</v>
+        <v>498</v>
       </c>
       <c r="U20" s="4">
         <v>5</v>
@@ -6911,10 +6612,10 @@
         <v>61</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>630</v>
+        <v>568</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y20" s="3">
         <v>2</v>
@@ -6989,18 +6690,16 @@
         <v>58</v>
       </c>
       <c r="AW20" s="7" t="s">
-        <v>825</v>
+        <v>740</v>
       </c>
       <c r="AX20" s="10" t="s">
-        <v>824</v>
-      </c>
-      <c r="AY20" s="8" t="s">
-        <v>188</v>
-      </c>
+        <v>739</v>
+      </c>
+      <c r="AY20" s="8"/>
     </row>
     <row r="21" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>52</v>
@@ -7015,10 +6714,10 @@
         <v>939998896</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>378</v>
+        <v>316</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>55</v>
@@ -7033,11 +6732,11 @@
         <v>106</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>466</v>
+        <v>404</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="O21" s="3">
         <v>2</v>
@@ -7055,7 +6754,7 @@
         <v>60</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>561</v>
+        <v>499</v>
       </c>
       <c r="U21" s="4">
         <v>5</v>
@@ -7064,10 +6763,10 @@
         <v>61</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>629</v>
+        <v>567</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y21" s="3">
         <v>4</v>
@@ -7142,18 +6841,14 @@
         <v>58</v>
       </c>
       <c r="AW21" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX21" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY21" s="8" t="s">
-        <v>189</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX21" s="8"/>
+      <c r="AY21" s="8"/>
     </row>
     <row r="22" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>52</v>
@@ -7162,16 +6857,16 @@
         <v>86</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="E22" s="3">
         <v>988275571</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>379</v>
+        <v>317</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>55</v>
@@ -7186,11 +6881,11 @@
         <v>81</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>471</v>
+        <v>409</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
-        <v>506</v>
+        <v>444</v>
       </c>
       <c r="O22" s="3">
         <v>2</v>
@@ -7208,7 +6903,7 @@
         <v>60</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="U22" s="4">
         <v>4</v>
@@ -7217,10 +6912,10 @@
         <v>61</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>629</v>
+        <v>567</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y22" s="3">
         <v>2</v>
@@ -7295,18 +6990,16 @@
         <v>58</v>
       </c>
       <c r="AW22" s="7" t="s">
-        <v>807</v>
+        <v>722</v>
       </c>
       <c r="AX22" s="10" t="s">
-        <v>806</v>
-      </c>
-      <c r="AY22" s="8" t="s">
-        <v>190</v>
-      </c>
+        <v>721</v>
+      </c>
+      <c r="AY22" s="8"/>
     </row>
     <row r="23" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>52</v>
@@ -7321,7 +7014,7 @@
         <v>993179418</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>107</v>
@@ -7339,11 +7032,11 @@
         <v>108</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>466</v>
+        <v>404</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="O23" s="3">
         <v>2</v>
@@ -7355,13 +7048,13 @@
         <v>58</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>535</v>
+        <v>473</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>60</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>563</v>
+        <v>501</v>
       </c>
       <c r="U23" s="4">
         <v>5</v>
@@ -7373,7 +7066,7 @@
         <v>113</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y23" s="3">
         <v>2</v>
@@ -7412,7 +7105,7 @@
         <v>3</v>
       </c>
       <c r="AK23" s="3" t="s">
-        <v>663</v>
+        <v>601</v>
       </c>
       <c r="AL23" s="3" t="s">
         <v>65</v>
@@ -7436,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="3" t="s">
-        <v>719</v>
+        <v>657</v>
       </c>
       <c r="AT23" s="3" t="s">
         <v>67</v>
@@ -7448,18 +7141,16 @@
         <v>58</v>
       </c>
       <c r="AW23" s="7" t="s">
-        <v>819</v>
+        <v>734</v>
       </c>
       <c r="AX23" s="10" t="s">
-        <v>818</v>
-      </c>
-      <c r="AY23" s="8" t="s">
-        <v>191</v>
-      </c>
+        <v>733</v>
+      </c>
+      <c r="AY23" s="8"/>
     </row>
     <row r="24" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>52</v>
@@ -7468,16 +7159,16 @@
         <v>86</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="E24" s="3">
         <v>992121769</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>380</v>
+        <v>318</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>80</v>
@@ -7492,11 +7183,11 @@
         <v>111</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>461</v>
+        <v>399</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="s">
-        <v>504</v>
+        <v>442</v>
       </c>
       <c r="O24" s="3">
         <v>2</v>
@@ -7514,7 +7205,7 @@
         <v>83</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>564</v>
+        <v>502</v>
       </c>
       <c r="U24" s="4">
         <v>3</v>
@@ -7523,7 +7214,7 @@
         <v>61</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>631</v>
+        <v>569</v>
       </c>
       <c r="X24" s="3" t="s">
         <v>92</v>
@@ -7601,18 +7292,14 @@
         <v>58</v>
       </c>
       <c r="AW24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX24" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY24" s="8" t="s">
-        <v>192</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX24" s="8"/>
+      <c r="AY24" s="8"/>
     </row>
     <row r="25" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>52</v>
@@ -7621,22 +7308,22 @@
         <v>86</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="E25" s="3">
         <v>986709948</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>381</v>
+        <v>319</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>55</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>767</v>
+        <v>682</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>56</v>
@@ -7645,11 +7332,11 @@
         <v>77</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>461</v>
+        <v>399</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3" t="s">
-        <v>507</v>
+        <v>445</v>
       </c>
       <c r="O25" s="3">
         <v>2</v>
@@ -7667,7 +7354,7 @@
         <v>60</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>565</v>
+        <v>503</v>
       </c>
       <c r="U25" s="4">
         <v>3</v>
@@ -7679,7 +7366,7 @@
         <v>91</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>636</v>
+        <v>574</v>
       </c>
       <c r="Y25" s="3">
         <v>3</v>
@@ -7754,18 +7441,16 @@
         <v>58</v>
       </c>
       <c r="AW25" s="7" t="s">
-        <v>815</v>
+        <v>730</v>
       </c>
       <c r="AX25" s="10" t="s">
-        <v>814</v>
-      </c>
-      <c r="AY25" s="8" t="s">
-        <v>193</v>
-      </c>
+        <v>729</v>
+      </c>
+      <c r="AY25" s="8"/>
     </row>
     <row r="26" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>52</v>
@@ -7774,13 +7459,13 @@
         <v>86</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>304</v>
+        <v>242</v>
       </c>
       <c r="E26" s="3">
         <v>982944163</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>333</v>
+        <v>271</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>115</v>
@@ -7798,11 +7483,11 @@
         <v>77</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>472</v>
+        <v>410</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="O26" s="3">
         <v>5</v>
@@ -7820,7 +7505,7 @@
         <v>60</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>566</v>
+        <v>504</v>
       </c>
       <c r="U26" s="4">
         <v>3</v>
@@ -7907,14 +7592,12 @@
         <v>58</v>
       </c>
       <c r="AW26" s="7" t="s">
-        <v>805</v>
+        <v>720</v>
       </c>
       <c r="AX26" s="10" t="s">
-        <v>804</v>
-      </c>
-      <c r="AY26" s="8" t="s">
-        <v>194</v>
-      </c>
+        <v>719</v>
+      </c>
+      <c r="AY26" s="8"/>
     </row>
     <row r="27" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
@@ -7927,13 +7610,13 @@
         <v>86</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>305</v>
+        <v>243</v>
       </c>
       <c r="E27" s="3">
         <v>939468990</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>334</v>
+        <v>272</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>117</v>
@@ -7951,11 +7634,11 @@
         <v>81</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>461</v>
+        <v>399</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="O27" s="3">
         <v>2</v>
@@ -7973,7 +7656,7 @@
         <v>60</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="U27" s="4">
         <v>4</v>
@@ -7985,7 +7668,7 @@
         <v>113</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y27" s="3">
         <v>4</v>
@@ -8060,18 +7743,14 @@
         <v>58</v>
       </c>
       <c r="AW27" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX27" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY27" s="8" t="s">
-        <v>195</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX27" s="8"/>
+      <c r="AY27" s="8"/>
     </row>
     <row r="28" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>253</v>
+        <v>191</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>52</v>
@@ -8080,16 +7759,16 @@
         <v>86</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>306</v>
+        <v>244</v>
       </c>
       <c r="E28" s="3">
         <v>980904460</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>335</v>
+        <v>273</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>382</v>
+        <v>320</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>55</v>
@@ -8104,13 +7783,13 @@
         <v>81</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>466</v>
+        <v>404</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>517</v>
+        <v>455</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>507</v>
+        <v>445</v>
       </c>
       <c r="O28" s="3">
         <v>4</v>
@@ -8128,7 +7807,7 @@
         <v>83</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>568</v>
+        <v>506</v>
       </c>
       <c r="U28" s="4">
         <v>4</v>
@@ -8140,7 +7819,7 @@
         <v>113</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y28" s="3">
         <v>2</v>
@@ -8215,18 +7894,14 @@
         <v>58</v>
       </c>
       <c r="AW28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX28" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY28" s="8" t="s">
-        <v>196</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX28" s="8"/>
+      <c r="AY28" s="8"/>
     </row>
     <row r="29" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>52</v>
@@ -8241,16 +7916,16 @@
         <v>993041863</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>336</v>
+        <v>274</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>383</v>
+        <v>321</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>55</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>767</v>
+        <v>682</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>56</v>
@@ -8259,11 +7934,11 @@
         <v>119</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>461</v>
+        <v>399</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
-        <v>506</v>
+        <v>444</v>
       </c>
       <c r="O29" s="3">
         <v>2</v>
@@ -8281,7 +7956,7 @@
         <v>60</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>569</v>
+        <v>507</v>
       </c>
       <c r="U29" s="4">
         <v>3</v>
@@ -8368,18 +8043,16 @@
         <v>58</v>
       </c>
       <c r="AW29" s="7" t="s">
-        <v>838</v>
+        <v>753</v>
       </c>
       <c r="AX29" s="10" t="s">
-        <v>837</v>
-      </c>
-      <c r="AY29" s="8" t="s">
-        <v>197</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="AY29" s="8"/>
     </row>
     <row r="30" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>255</v>
+        <v>193</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>52</v>
@@ -8394,16 +8067,16 @@
         <v>994108661</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>337</v>
+        <v>275</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>384</v>
+        <v>322</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>104</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>767</v>
+        <v>682</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>56</v>
@@ -8412,11 +8085,11 @@
         <v>57</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>461</v>
+        <v>399</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3" t="s">
-        <v>507</v>
+        <v>445</v>
       </c>
       <c r="O30" s="3">
         <v>1</v>
@@ -8434,7 +8107,7 @@
         <v>60</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>570</v>
+        <v>508</v>
       </c>
       <c r="U30" s="4">
         <v>3</v>
@@ -8443,10 +8116,10 @@
         <v>61</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>632</v>
+        <v>570</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y30" s="3">
         <v>3</v>
@@ -8521,18 +8194,16 @@
         <v>58</v>
       </c>
       <c r="AW30" s="7" t="s">
-        <v>840</v>
+        <v>755</v>
       </c>
       <c r="AX30" s="10" t="s">
-        <v>839</v>
-      </c>
-      <c r="AY30" s="8" t="s">
-        <v>198</v>
-      </c>
+        <v>754</v>
+      </c>
+      <c r="AY30" s="8"/>
     </row>
     <row r="31" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>52</v>
@@ -8547,10 +8218,10 @@
         <v>967437524</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>385</v>
+        <v>323</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>55</v>
@@ -8565,11 +8236,11 @@
         <v>57</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>461</v>
+        <v>399</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="O31" s="3">
         <v>2</v>
@@ -8587,7 +8258,7 @@
         <v>60</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>571</v>
+        <v>509</v>
       </c>
       <c r="U31" s="4">
         <v>3</v>
@@ -8596,7 +8267,7 @@
         <v>61</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>630</v>
+        <v>568</v>
       </c>
       <c r="X31" s="3" t="s">
         <v>92</v>
@@ -8674,18 +8345,14 @@
         <v>58</v>
       </c>
       <c r="AW31" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX31" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY31" s="8" t="s">
-        <v>199</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX31" s="8"/>
+      <c r="AY31" s="8"/>
     </row>
     <row r="32" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>257</v>
+        <v>195</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>52</v>
@@ -8700,10 +8367,10 @@
         <v>967078713</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>386</v>
+        <v>324</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>104</v>
@@ -8718,11 +8385,11 @@
         <v>121</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>471</v>
+        <v>409</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="O32" s="3">
         <v>1</v>
@@ -8740,7 +8407,7 @@
         <v>60</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>572</v>
+        <v>510</v>
       </c>
       <c r="U32" s="4">
         <v>3</v>
@@ -8749,7 +8416,7 @@
         <v>61</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>630</v>
+        <v>568</v>
       </c>
       <c r="X32" s="3" t="s">
         <v>92</v>
@@ -8827,18 +8494,14 @@
         <v>58</v>
       </c>
       <c r="AW32" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX32" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY32" s="8" t="s">
-        <v>200</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX32" s="8"/>
+      <c r="AY32" s="8"/>
     </row>
     <row r="33" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>114</v>
@@ -8853,16 +8516,16 @@
         <v>985550956</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>338</v>
+        <v>276</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>387</v>
+        <v>325</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>55</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>767</v>
+        <v>682</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>56</v>
@@ -8871,11 +8534,11 @@
         <v>121</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>471</v>
+        <v>409</v>
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="O33" s="3">
         <v>1</v>
@@ -8893,7 +8556,7 @@
         <v>60</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>573</v>
+        <v>511</v>
       </c>
       <c r="U33" s="4">
         <v>3</v>
@@ -8902,7 +8565,7 @@
         <v>61</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>630</v>
+        <v>568</v>
       </c>
       <c r="X33" s="3" t="s">
         <v>92</v>
@@ -8980,14 +8643,10 @@
         <v>58</v>
       </c>
       <c r="AW33" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX33" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY33" s="8" t="s">
-        <v>201</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX33" s="8"/>
+      <c r="AY33" s="8"/>
     </row>
     <row r="34" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
@@ -9006,7 +8665,7 @@
         <v>992305288</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>125</v>
@@ -9021,14 +8680,14 @@
         <v>56</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>428</v>
+        <v>366</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>473</v>
+        <v>411</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3" t="s">
-        <v>508</v>
+        <v>446</v>
       </c>
       <c r="O34" s="3">
         <v>5</v>
@@ -9046,7 +8705,7 @@
         <v>83</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>574</v>
+        <v>512</v>
       </c>
       <c r="U34" s="4">
         <v>3</v>
@@ -9058,7 +8717,7 @@
         <v>91</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>637</v>
+        <v>575</v>
       </c>
       <c r="Y34" s="3">
         <v>1</v>
@@ -9133,14 +8792,10 @@
         <v>58</v>
       </c>
       <c r="AW34" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX34" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY34" s="8" t="s">
-        <v>202</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX34" s="8"/>
+      <c r="AY34" s="8"/>
     </row>
     <row r="35" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
@@ -9159,7 +8814,7 @@
         <v>9599997990</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>339</v>
+        <v>277</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>128</v>
@@ -9174,14 +8829,14 @@
         <v>56</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>429</v>
+        <v>367</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>474</v>
+        <v>412</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O35" s="3">
         <v>5</v>
@@ -9193,13 +8848,13 @@
         <v>58</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>536</v>
+        <v>474</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>83</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>575</v>
+        <v>513</v>
       </c>
       <c r="U35" s="4">
         <v>3</v>
@@ -9211,7 +8866,7 @@
         <v>113</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y35" s="3">
         <v>1</v>
@@ -9286,14 +8941,10 @@
         <v>58</v>
       </c>
       <c r="AW35" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX35" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY35" s="8" t="s">
-        <v>203</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX35" s="8"/>
+      <c r="AY35" s="8"/>
     </row>
     <row r="36" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
@@ -9312,10 +8963,10 @@
         <v>939780206</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>340</v>
+        <v>278</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>388</v>
+        <v>326</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>55</v>
@@ -9327,14 +8978,14 @@
         <v>56</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>430</v>
+        <v>368</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>475</v>
+        <v>413</v>
       </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O36" s="3">
         <v>5</v>
@@ -9349,10 +9000,10 @@
         <v>109</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>540</v>
+        <v>478</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>576</v>
+        <v>514</v>
       </c>
       <c r="U36" s="4">
         <v>7</v>
@@ -9361,10 +9012,10 @@
         <v>129</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>629</v>
+        <v>567</v>
       </c>
       <c r="X36" s="3" t="s">
-        <v>638</v>
+        <v>576</v>
       </c>
       <c r="Y36" s="3">
         <v>3</v>
@@ -9439,14 +9090,10 @@
         <v>58</v>
       </c>
       <c r="AW36" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX36" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY36" s="8" t="s">
-        <v>204</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX36" s="8"/>
+      <c r="AY36" s="8"/>
     </row>
     <row r="37" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
@@ -9465,10 +9112,10 @@
         <v>998313039</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>389</v>
+        <v>327</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>90</v>
@@ -9480,14 +9127,14 @@
         <v>56</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>431</v>
+        <v>369</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>476</v>
+        <v>414</v>
       </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3" t="s">
-        <v>503</v>
+        <v>441</v>
       </c>
       <c r="O37" s="3">
         <v>2</v>
@@ -9502,10 +9149,10 @@
         <v>112</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>540</v>
+        <v>478</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>577</v>
+        <v>515</v>
       </c>
       <c r="U37" s="4">
         <v>3.5</v>
@@ -9517,7 +9164,7 @@
         <v>91</v>
       </c>
       <c r="X37" s="3" t="s">
-        <v>636</v>
+        <v>574</v>
       </c>
       <c r="Y37" s="3">
         <v>3</v>
@@ -9592,14 +9239,10 @@
         <v>58</v>
       </c>
       <c r="AW37" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX37" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY37" s="8" t="s">
-        <v>205</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX37" s="8"/>
+      <c r="AY37" s="8"/>
     </row>
     <row r="38" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
@@ -9618,10 +9261,10 @@
         <v>959024149</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>55</v>
@@ -9633,14 +9276,14 @@
         <v>56</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>432</v>
+        <v>370</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>477</v>
+        <v>415</v>
       </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3" t="s">
-        <v>510</v>
+        <v>448</v>
       </c>
       <c r="O38" s="3">
         <v>2</v>
@@ -9658,7 +9301,7 @@
         <v>60</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>578</v>
+        <v>516</v>
       </c>
       <c r="U38" s="4">
         <v>3.5</v>
@@ -9706,7 +9349,7 @@
         <v>64</v>
       </c>
       <c r="AJ38" s="3" t="s">
-        <v>661</v>
+        <v>599</v>
       </c>
       <c r="AK38" s="3" t="s">
         <v>56</v>
@@ -9730,7 +9373,7 @@
         <v>56</v>
       </c>
       <c r="AR38" s="3" t="s">
-        <v>662</v>
+        <v>600</v>
       </c>
       <c r="AS38" s="3" t="s">
         <v>56</v>
@@ -9745,14 +9388,10 @@
         <v>58</v>
       </c>
       <c r="AW38" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX38" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY38" s="8" t="s">
-        <v>206</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX38" s="8"/>
+      <c r="AY38" s="8"/>
     </row>
     <row r="39" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
@@ -9771,10 +9410,10 @@
         <v>980076875</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>341</v>
+        <v>279</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>391</v>
+        <v>329</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>55</v>
@@ -9786,14 +9425,14 @@
         <v>56</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>433</v>
+        <v>371</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>478</v>
+        <v>416</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3" t="s">
-        <v>511</v>
+        <v>449</v>
       </c>
       <c r="O39" s="3">
         <v>1</v>
@@ -9811,7 +9450,7 @@
         <v>60</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>579</v>
+        <v>517</v>
       </c>
       <c r="U39" s="4">
         <v>2.5</v>
@@ -9898,18 +9537,14 @@
         <v>58</v>
       </c>
       <c r="AW39" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX39" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY39" s="8" t="s">
-        <v>207</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX39" s="8"/>
+      <c r="AY39" s="8"/>
     </row>
     <row r="40" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>52</v>
@@ -9924,10 +9559,10 @@
         <v>991276907</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>392</v>
+        <v>330</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>55</v>
@@ -9939,14 +9574,14 @@
         <v>56</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>434</v>
+        <v>372</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>479</v>
+        <v>417</v>
       </c>
       <c r="M40" s="3"/>
       <c r="N40" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O40" s="3">
         <v>3</v>
@@ -9961,10 +9596,10 @@
         <v>112</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>540</v>
+        <v>478</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>580</v>
+        <v>518</v>
       </c>
       <c r="U40" s="4">
         <v>2</v>
@@ -9976,7 +9611,7 @@
         <v>91</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y40" s="3">
         <v>2</v>
@@ -10051,18 +9686,14 @@
         <v>58</v>
       </c>
       <c r="AW40" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX40" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY40" s="8" t="s">
-        <v>208</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX40" s="8"/>
+      <c r="AY40" s="8"/>
     </row>
     <row r="41" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>52</v>
@@ -10077,7 +9708,7 @@
         <v>969349587</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>138</v>
@@ -10086,7 +9717,7 @@
         <v>55</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>767</v>
+        <v>682</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>56</v>
@@ -10095,11 +9726,11 @@
         <v>121</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>480</v>
+        <v>418</v>
       </c>
       <c r="M41" s="3"/>
       <c r="N41" s="3" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="O41" s="3">
         <v>1</v>
@@ -10117,7 +9748,7 @@
         <v>60</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>581</v>
+        <v>519</v>
       </c>
       <c r="U41" s="4">
         <v>3</v>
@@ -10126,10 +9757,10 @@
         <v>129</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>630</v>
+        <v>568</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y41" s="3">
         <v>2</v>
@@ -10204,16 +9835,14 @@
         <v>58</v>
       </c>
       <c r="AW41" s="7" t="s">
-        <v>826</v>
+        <v>741</v>
       </c>
       <c r="AX41" s="8"/>
-      <c r="AY41" s="8" t="s">
-        <v>209</v>
-      </c>
+      <c r="AY41" s="8"/>
     </row>
     <row r="42" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>56</v>
@@ -10228,7 +9857,7 @@
         <v>981670898</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>342</v>
+        <v>280</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>139</v>
@@ -10237,7 +9866,7 @@
         <v>55</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>767</v>
+        <v>682</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>56</v>
@@ -10246,11 +9875,11 @@
         <v>121</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>463</v>
+        <v>401</v>
       </c>
       <c r="M42" s="3"/>
       <c r="N42" s="3" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="O42" s="3">
         <v>2</v>
@@ -10268,7 +9897,7 @@
         <v>60</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>582</v>
+        <v>520</v>
       </c>
       <c r="U42" s="4">
         <v>3</v>
@@ -10277,10 +9906,10 @@
         <v>61</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>630</v>
+        <v>568</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y42" s="3">
         <v>2</v>
@@ -10355,14 +9984,12 @@
         <v>58</v>
       </c>
       <c r="AW42" s="7" t="s">
-        <v>858</v>
+        <v>773</v>
       </c>
       <c r="AX42" s="10" t="s">
-        <v>857</v>
-      </c>
-      <c r="AY42" s="8" t="s">
-        <v>210</v>
-      </c>
+        <v>772</v>
+      </c>
+      <c r="AY42" s="8"/>
     </row>
     <row r="43" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
@@ -10375,16 +10002,16 @@
         <v>137</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>307</v>
+        <v>245</v>
       </c>
       <c r="E43" s="3">
         <v>991347799</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>343</v>
+        <v>281</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>393</v>
+        <v>331</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>55</v>
@@ -10399,13 +10026,13 @@
         <v>141</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>481</v>
+        <v>419</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>518</v>
+        <v>456</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>503</v>
+        <v>441</v>
       </c>
       <c r="O43" s="3">
         <v>2</v>
@@ -10423,7 +10050,7 @@
         <v>60</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>583</v>
+        <v>521</v>
       </c>
       <c r="U43" s="4">
         <v>7</v>
@@ -10432,7 +10059,7 @@
         <v>61</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>630</v>
+        <v>568</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>92</v>
@@ -10474,13 +10101,13 @@
         <v>16</v>
       </c>
       <c r="AK43" s="3" t="s">
-        <v>664</v>
+        <v>602</v>
       </c>
       <c r="AL43" s="3" t="s">
         <v>65</v>
       </c>
       <c r="AM43" s="3" t="s">
-        <v>695</v>
+        <v>633</v>
       </c>
       <c r="AN43" s="3" t="s">
         <v>52</v>
@@ -10498,7 +10125,7 @@
         <v>5</v>
       </c>
       <c r="AS43" s="3" t="s">
-        <v>720</v>
+        <v>658</v>
       </c>
       <c r="AT43" s="3" t="s">
         <v>142</v>
@@ -10510,14 +10137,12 @@
         <v>58</v>
       </c>
       <c r="AW43" s="7" t="s">
-        <v>856</v>
+        <v>771</v>
       </c>
       <c r="AX43" s="10" t="s">
-        <v>855</v>
-      </c>
-      <c r="AY43" s="8" t="s">
-        <v>211</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="AY43" s="8"/>
     </row>
     <row r="44" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
@@ -10530,16 +10155,16 @@
         <v>137</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>308</v>
+        <v>246</v>
       </c>
       <c r="E44" s="3">
         <v>997194675</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>344</v>
+        <v>282</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>394</v>
+        <v>332</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>55</v>
@@ -10554,13 +10179,13 @@
         <v>144</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>482</v>
+        <v>420</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>519</v>
+        <v>457</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="O44" s="3">
         <v>5</v>
@@ -10578,7 +10203,7 @@
         <v>83</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>584</v>
+        <v>522</v>
       </c>
       <c r="U44" s="4">
         <v>8</v>
@@ -10629,13 +10254,13 @@
         <v>5</v>
       </c>
       <c r="AK44" s="3" t="s">
-        <v>665</v>
+        <v>603</v>
       </c>
       <c r="AL44" s="3" t="s">
         <v>65</v>
       </c>
       <c r="AM44" s="3" t="s">
-        <v>696</v>
+        <v>634</v>
       </c>
       <c r="AN44" s="3" t="s">
         <v>52</v>
@@ -10653,7 +10278,7 @@
         <v>3</v>
       </c>
       <c r="AS44" s="3" t="s">
-        <v>721</v>
+        <v>659</v>
       </c>
       <c r="AT44" s="3" t="s">
         <v>142</v>
@@ -10665,18 +10290,16 @@
         <v>58</v>
       </c>
       <c r="AW44" s="7" t="s">
-        <v>860</v>
+        <v>775</v>
       </c>
       <c r="AX44" s="10" t="s">
-        <v>859</v>
-      </c>
-      <c r="AY44" s="8" t="s">
-        <v>212</v>
-      </c>
+        <v>774</v>
+      </c>
+      <c r="AY44" s="8"/>
     </row>
     <row r="45" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>52</v>
@@ -10691,7 +10314,7 @@
         <v>962983944</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>345</v>
+        <v>283</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>146</v>
@@ -10706,14 +10329,14 @@
         <v>56</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>435</v>
+        <v>373</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>483</v>
+        <v>421</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="O45" s="3">
         <v>6</v>
@@ -10731,7 +10354,7 @@
         <v>83</v>
       </c>
       <c r="T45" s="3" t="s">
-        <v>585</v>
+        <v>523</v>
       </c>
       <c r="U45" s="4">
         <v>5.5</v>
@@ -10743,7 +10366,7 @@
         <v>91</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>636</v>
+        <v>574</v>
       </c>
       <c r="Y45" s="3">
         <v>10</v>
@@ -10782,13 +10405,13 @@
         <v>6</v>
       </c>
       <c r="AK45" s="3" t="s">
-        <v>666</v>
+        <v>604</v>
       </c>
       <c r="AL45" s="3" t="s">
         <v>65</v>
       </c>
       <c r="AM45" s="3" t="s">
-        <v>697</v>
+        <v>635</v>
       </c>
       <c r="AN45" s="3" t="s">
         <v>114</v>
@@ -10818,18 +10441,16 @@
         <v>58</v>
       </c>
       <c r="AW45" s="7" t="s">
-        <v>789</v>
+        <v>704</v>
       </c>
       <c r="AX45" s="10" t="s">
-        <v>788</v>
-      </c>
-      <c r="AY45" s="8" t="s">
-        <v>213</v>
-      </c>
+        <v>703</v>
+      </c>
+      <c r="AY45" s="8"/>
     </row>
     <row r="46" spans="1:51" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>52</v>
@@ -10844,7 +10465,7 @@
         <v>989524512</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>150</v>
@@ -10859,14 +10480,14 @@
         <v>56</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>436</v>
+        <v>374</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>484</v>
+        <v>422</v>
       </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3" t="s">
-        <v>511</v>
+        <v>449</v>
       </c>
       <c r="O46" s="3">
         <v>5</v>
@@ -10878,13 +10499,13 @@
         <v>58</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>537</v>
+        <v>475</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>83</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>586</v>
+        <v>524</v>
       </c>
       <c r="U46" s="4">
         <v>5</v>
@@ -10896,7 +10517,7 @@
         <v>113</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>639</v>
+        <v>577</v>
       </c>
       <c r="Y46" s="3">
         <v>3</v>
@@ -10935,13 +10556,13 @@
         <v>3</v>
       </c>
       <c r="AK46" s="3" t="s">
-        <v>667</v>
+        <v>605</v>
       </c>
       <c r="AL46" s="3" t="s">
         <v>69</v>
       </c>
       <c r="AM46" s="3" t="s">
-        <v>698</v>
+        <v>636</v>
       </c>
       <c r="AN46" s="3" t="s">
         <v>52</v>
@@ -10971,14 +10592,12 @@
         <v>58</v>
       </c>
       <c r="AW46" s="7" t="s">
-        <v>777</v>
+        <v>692</v>
       </c>
       <c r="AX46" s="8" t="s">
-        <v>778</v>
-      </c>
-      <c r="AY46" s="8" t="s">
-        <v>214</v>
-      </c>
+        <v>693</v>
+      </c>
+      <c r="AY46" s="8"/>
     </row>
     <row r="47" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
@@ -10997,7 +10616,7 @@
         <v>959569399</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>346</v>
+        <v>284</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>152</v>
@@ -11012,14 +10631,14 @@
         <v>56</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>437</v>
+        <v>375</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>476</v>
+        <v>414</v>
       </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3" t="s">
-        <v>510</v>
+        <v>448</v>
       </c>
       <c r="O47" s="3">
         <v>10</v>
@@ -11031,13 +10650,13 @@
         <v>58</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>538</v>
+        <v>476</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>83</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>587</v>
+        <v>525</v>
       </c>
       <c r="U47" s="4">
         <v>7</v>
@@ -11049,7 +10668,7 @@
         <v>91</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>640</v>
+        <v>578</v>
       </c>
       <c r="Y47" s="3">
         <v>4</v>
@@ -11088,7 +10707,7 @@
         <v>4</v>
       </c>
       <c r="AK47" s="3" t="s">
-        <v>668</v>
+        <v>606</v>
       </c>
       <c r="AL47" s="3" t="s">
         <v>69</v>
@@ -11124,18 +10743,14 @@
         <v>58</v>
       </c>
       <c r="AW47" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX47" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY47" s="8" t="s">
-        <v>215</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX47" s="8"/>
+      <c r="AY47" s="8"/>
     </row>
     <row r="48" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>52</v>
@@ -11150,7 +10765,7 @@
         <v>72640148</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>153</v>
@@ -11165,16 +10780,16 @@
         <v>56</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>766</v>
+        <v>681</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>485</v>
+        <v>423</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>520</v>
+        <v>458</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>511</v>
+        <v>449</v>
       </c>
       <c r="O48" s="3">
         <v>6</v>
@@ -11192,7 +10807,7 @@
         <v>83</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>588</v>
+        <v>526</v>
       </c>
       <c r="U48" s="4">
         <v>10.5</v>
@@ -11243,13 +10858,13 @@
         <v>10</v>
       </c>
       <c r="AK48" s="3" t="s">
-        <v>669</v>
+        <v>607</v>
       </c>
       <c r="AL48" s="3" t="s">
         <v>65</v>
       </c>
       <c r="AM48" s="3" t="s">
-        <v>699</v>
+        <v>637</v>
       </c>
       <c r="AN48" s="3" t="s">
         <v>52</v>
@@ -11279,14 +10894,10 @@
         <v>58</v>
       </c>
       <c r="AW48" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX48" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY48" s="8" t="s">
-        <v>216</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX48" s="8"/>
+      <c r="AY48" s="8"/>
     </row>
     <row r="49" spans="1:51" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
@@ -11305,10 +10916,10 @@
         <v>992250697</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>347</v>
+        <v>285</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>395</v>
+        <v>333</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>55</v>
@@ -11323,13 +10934,13 @@
         <v>155</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>486</v>
+        <v>424</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>521</v>
+        <v>459</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>513</v>
+        <v>451</v>
       </c>
       <c r="O49" s="3">
         <v>3</v>
@@ -11344,10 +10955,10 @@
         <v>59</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>541</v>
+        <v>479</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>589</v>
+        <v>527</v>
       </c>
       <c r="U49" s="4">
         <v>3.5</v>
@@ -11356,10 +10967,10 @@
         <v>99</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>633</v>
+        <v>571</v>
       </c>
       <c r="X49" s="3" t="s">
-        <v>634</v>
+        <v>572</v>
       </c>
       <c r="Y49" s="3">
         <v>3</v>
@@ -11398,7 +11009,7 @@
         <v>15</v>
       </c>
       <c r="AK49" s="3" t="s">
-        <v>670</v>
+        <v>608</v>
       </c>
       <c r="AL49" s="3" t="s">
         <v>69</v>
@@ -11434,14 +11045,12 @@
         <v>58</v>
       </c>
       <c r="AW49" s="7" t="s">
-        <v>793</v>
+        <v>708</v>
       </c>
       <c r="AX49" s="10" t="s">
-        <v>792</v>
-      </c>
-      <c r="AY49" s="8" t="s">
-        <v>217</v>
-      </c>
+        <v>707</v>
+      </c>
+      <c r="AY49" s="8"/>
     </row>
     <row r="50" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
@@ -11460,7 +11069,7 @@
         <v>960288270</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>157</v>
@@ -11475,16 +11084,16 @@
         <v>56</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>764</v>
+        <v>679</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>487</v>
+        <v>425</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>522</v>
+        <v>460</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O50" s="3">
         <v>7</v>
@@ -11502,7 +11111,7 @@
         <v>83</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>590</v>
+        <v>528</v>
       </c>
       <c r="U50" s="4">
         <v>5</v>
@@ -11511,10 +11120,10 @@
         <v>129</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>630</v>
+        <v>568</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y50" s="3">
         <v>3</v>
@@ -11553,13 +11162,13 @@
         <v>4</v>
       </c>
       <c r="AK50" s="3" t="s">
-        <v>671</v>
+        <v>609</v>
       </c>
       <c r="AL50" s="3" t="s">
         <v>69</v>
       </c>
       <c r="AM50" s="3" t="s">
-        <v>700</v>
+        <v>638</v>
       </c>
       <c r="AN50" s="3" t="s">
         <v>52</v>
@@ -11574,10 +11183,10 @@
         <v>56</v>
       </c>
       <c r="AR50" s="3" t="s">
-        <v>718</v>
+        <v>656</v>
       </c>
       <c r="AS50" s="3" t="s">
-        <v>722</v>
+        <v>660</v>
       </c>
       <c r="AT50" s="3" t="s">
         <v>67</v>
@@ -11594,13 +11203,11 @@
       <c r="AX50" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="AY50" s="8" t="s">
-        <v>218</v>
-      </c>
+      <c r="AY50" s="8"/>
     </row>
     <row r="51" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>52</v>
@@ -11615,10 +11222,10 @@
         <v>988271410</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>396</v>
+        <v>334</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>55</v>
@@ -11630,14 +11237,14 @@
         <v>56</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>765</v>
+        <v>680</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>488</v>
+        <v>426</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3" t="s">
-        <v>514</v>
+        <v>452</v>
       </c>
       <c r="O51" s="3">
         <v>3</v>
@@ -11652,10 +11259,10 @@
         <v>59</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>540</v>
+        <v>478</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>591</v>
+        <v>529</v>
       </c>
       <c r="U51" s="4">
         <v>3.5</v>
@@ -11667,7 +11274,7 @@
         <v>113</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>641</v>
+        <v>579</v>
       </c>
       <c r="Y51" s="3">
         <v>3</v>
@@ -11742,18 +11349,16 @@
         <v>58</v>
       </c>
       <c r="AW51" s="7" t="s">
-        <v>795</v>
+        <v>710</v>
       </c>
       <c r="AX51" s="10" t="s">
-        <v>794</v>
-      </c>
-      <c r="AY51" s="8" t="s">
-        <v>219</v>
-      </c>
+        <v>709</v>
+      </c>
+      <c r="AY51" s="8"/>
     </row>
     <row r="52" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>266</v>
+        <v>204</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>52</v>
@@ -11768,7 +11373,7 @@
         <v>992670070</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>349</v>
+        <v>287</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>158</v>
@@ -11783,14 +11388,14 @@
         <v>56</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>438</v>
+        <v>376</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>489</v>
+        <v>427</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3" t="s">
-        <v>513</v>
+        <v>451</v>
       </c>
       <c r="O52" s="3">
         <v>4</v>
@@ -11808,7 +11413,7 @@
         <v>83</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>592</v>
+        <v>530</v>
       </c>
       <c r="U52" s="4">
         <v>4</v>
@@ -11859,13 +11464,13 @@
         <v>8</v>
       </c>
       <c r="AK52" s="3" t="s">
-        <v>672</v>
+        <v>610</v>
       </c>
       <c r="AL52" s="3" t="s">
         <v>65</v>
       </c>
       <c r="AM52" s="3" t="s">
-        <v>701</v>
+        <v>639</v>
       </c>
       <c r="AN52" s="3" t="s">
         <v>52</v>
@@ -11895,18 +11500,14 @@
         <v>58</v>
       </c>
       <c r="AW52" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX52" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY52" s="8" t="s">
-        <v>220</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX52" s="8"/>
+      <c r="AY52" s="8"/>
     </row>
     <row r="53" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>52</v>
@@ -11921,10 +11522,10 @@
         <v>939866173</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>397</v>
+        <v>335</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>55</v>
@@ -11936,14 +11537,14 @@
         <v>56</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>439</v>
+        <v>377</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>489</v>
+        <v>427</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O53" s="3">
         <v>5</v>
@@ -11961,7 +11562,7 @@
         <v>60</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>593</v>
+        <v>531</v>
       </c>
       <c r="U53" s="4">
         <v>3.5</v>
@@ -11973,7 +11574,7 @@
         <v>113</v>
       </c>
       <c r="X53" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y53" s="3">
         <v>2</v>
@@ -12048,18 +11649,16 @@
         <v>58</v>
       </c>
       <c r="AW53" s="7" t="s">
-        <v>780</v>
+        <v>695</v>
       </c>
       <c r="AX53" s="10" t="s">
-        <v>779</v>
-      </c>
-      <c r="AY53" s="8" t="s">
-        <v>221</v>
-      </c>
+        <v>694</v>
+      </c>
+      <c r="AY53" s="8"/>
     </row>
     <row r="54" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>268</v>
+        <v>206</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>52</v>
@@ -12074,7 +11673,7 @@
         <v>991322614</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>159</v>
@@ -12089,14 +11688,14 @@
         <v>56</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>440</v>
+        <v>378</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>490</v>
+        <v>428</v>
       </c>
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O54" s="3">
         <v>5</v>
@@ -12111,10 +11710,10 @@
         <v>112</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>540</v>
+        <v>478</v>
       </c>
       <c r="T54" s="3" t="s">
-        <v>593</v>
+        <v>531</v>
       </c>
       <c r="U54" s="4">
         <v>3.5</v>
@@ -12126,7 +11725,7 @@
         <v>91</v>
       </c>
       <c r="X54" s="3" t="s">
-        <v>636</v>
+        <v>574</v>
       </c>
       <c r="Y54" s="3">
         <v>10</v>
@@ -12201,18 +11800,16 @@
         <v>58</v>
       </c>
       <c r="AW54" s="7" t="s">
-        <v>783</v>
+        <v>698</v>
       </c>
       <c r="AX54" s="10" t="s">
-        <v>782</v>
-      </c>
-      <c r="AY54" s="8" t="s">
-        <v>222</v>
-      </c>
+        <v>697</v>
+      </c>
+      <c r="AY54" s="8"/>
     </row>
     <row r="55" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>52</v>
@@ -12227,10 +11824,10 @@
         <v>939767460</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>398</v>
+        <v>336</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>55</v>
@@ -12242,14 +11839,14 @@
         <v>56</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>441</v>
+        <v>379</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>489</v>
+        <v>427</v>
       </c>
       <c r="M55" s="3"/>
       <c r="N55" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O55" s="3">
         <v>5</v>
@@ -12267,7 +11864,7 @@
         <v>83</v>
       </c>
       <c r="T55" s="3" t="s">
-        <v>594</v>
+        <v>532</v>
       </c>
       <c r="U55" s="4">
         <v>7</v>
@@ -12279,7 +11876,7 @@
         <v>113</v>
       </c>
       <c r="X55" s="3" t="s">
-        <v>642</v>
+        <v>580</v>
       </c>
       <c r="Y55" s="3">
         <v>7</v>
@@ -12318,13 +11915,13 @@
         <v>4</v>
       </c>
       <c r="AK55" s="3" t="s">
-        <v>673</v>
+        <v>611</v>
       </c>
       <c r="AL55" s="3" t="s">
         <v>69</v>
       </c>
       <c r="AM55" s="3" t="s">
-        <v>702</v>
+        <v>640</v>
       </c>
       <c r="AN55" s="3" t="s">
         <v>52</v>
@@ -12354,18 +11951,16 @@
         <v>58</v>
       </c>
       <c r="AW55" s="7" t="s">
-        <v>774</v>
+        <v>689</v>
       </c>
       <c r="AX55" s="8" t="s">
-        <v>775</v>
-      </c>
-      <c r="AY55" s="8" t="s">
-        <v>223</v>
-      </c>
+        <v>690</v>
+      </c>
+      <c r="AY55" s="8"/>
     </row>
     <row r="56" spans="1:51" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>270</v>
+        <v>208</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>52</v>
@@ -12380,10 +11975,10 @@
         <v>991364262</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>399</v>
+        <v>337</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>80</v>
@@ -12398,11 +11993,11 @@
         <v>161</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>489</v>
+        <v>427</v>
       </c>
       <c r="M56" s="3"/>
       <c r="N56" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O56" s="3">
         <v>6</v>
@@ -12414,13 +12009,13 @@
         <v>58</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>537</v>
+        <v>475</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>540</v>
+        <v>478</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>595</v>
+        <v>533</v>
       </c>
       <c r="U56" s="4">
         <v>3</v>
@@ -12432,7 +12027,7 @@
         <v>113</v>
       </c>
       <c r="X56" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y56" s="3">
         <v>2</v>
@@ -12471,7 +12066,7 @@
         <v>6</v>
       </c>
       <c r="AK56" s="3" t="s">
-        <v>674</v>
+        <v>612</v>
       </c>
       <c r="AL56" s="3" t="s">
         <v>65</v>
@@ -12507,18 +12102,14 @@
         <v>58</v>
       </c>
       <c r="AW56" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX56" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY56" s="8" t="s">
-        <v>224</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX56" s="8"/>
+      <c r="AY56" s="8"/>
     </row>
     <row r="57" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>271</v>
+        <v>209</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>52</v>
@@ -12533,7 +12124,7 @@
         <v>72735773</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>351</v>
+        <v>289</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>163</v>
@@ -12548,14 +12139,14 @@
         <v>56</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>432</v>
+        <v>370</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>491</v>
+        <v>429</v>
       </c>
       <c r="M57" s="3"/>
       <c r="N57" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O57" s="3">
         <v>3</v>
@@ -12573,7 +12164,7 @@
         <v>60</v>
       </c>
       <c r="T57" s="3" t="s">
-        <v>596</v>
+        <v>534</v>
       </c>
       <c r="U57" s="4">
         <v>3</v>
@@ -12585,7 +12176,7 @@
         <v>91</v>
       </c>
       <c r="X57" s="3" t="s">
-        <v>638</v>
+        <v>576</v>
       </c>
       <c r="Y57" s="3">
         <v>7</v>
@@ -12660,14 +12251,12 @@
         <v>58</v>
       </c>
       <c r="AW57" s="7" t="s">
-        <v>850</v>
+        <v>765</v>
       </c>
       <c r="AX57" s="10" t="s">
-        <v>849</v>
-      </c>
-      <c r="AY57" s="8" t="s">
-        <v>225</v>
-      </c>
+        <v>764</v>
+      </c>
+      <c r="AY57" s="8"/>
     </row>
     <row r="58" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
@@ -12686,10 +12275,10 @@
         <v>979802166</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>352</v>
+        <v>290</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>400</v>
+        <v>338</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>55</v>
@@ -12701,14 +12290,14 @@
         <v>56</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>432</v>
+        <v>370</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>476</v>
+        <v>414</v>
       </c>
       <c r="M58" s="3"/>
       <c r="N58" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O58" s="3">
         <v>2</v>
@@ -12726,7 +12315,7 @@
         <v>60</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>597</v>
+        <v>535</v>
       </c>
       <c r="U58" s="4">
         <v>3</v>
@@ -12813,18 +12402,16 @@
         <v>58</v>
       </c>
       <c r="AW58" s="7" t="s">
-        <v>848</v>
+        <v>763</v>
       </c>
       <c r="AX58" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="AY58" s="8" t="s">
-        <v>226</v>
-      </c>
+        <v>762</v>
+      </c>
+      <c r="AY58" s="8"/>
     </row>
     <row r="59" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>272</v>
+        <v>210</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>52</v>
@@ -12839,10 +12426,10 @@
         <v>996259401</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>353</v>
+        <v>291</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>401</v>
+        <v>339</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>55</v>
@@ -12854,14 +12441,14 @@
         <v>56</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>442</v>
+        <v>380</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>488</v>
+        <v>426</v>
       </c>
       <c r="M59" s="3"/>
       <c r="N59" s="3" t="s">
-        <v>511</v>
+        <v>449</v>
       </c>
       <c r="O59" s="3">
         <v>2</v>
@@ -12879,7 +12466,7 @@
         <v>60</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>598</v>
+        <v>536</v>
       </c>
       <c r="U59" s="4">
         <v>2.75</v>
@@ -12891,7 +12478,7 @@
         <v>91</v>
       </c>
       <c r="X59" s="3" t="s">
-        <v>638</v>
+        <v>576</v>
       </c>
       <c r="Y59" s="3">
         <v>3</v>
@@ -12966,18 +12553,16 @@
         <v>58</v>
       </c>
       <c r="AW59" s="7" t="s">
-        <v>852</v>
+        <v>767</v>
       </c>
       <c r="AX59" s="10" t="s">
-        <v>851</v>
-      </c>
-      <c r="AY59" s="8" t="s">
-        <v>227</v>
-      </c>
+        <v>766</v>
+      </c>
+      <c r="AY59" s="8"/>
     </row>
     <row r="60" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>273</v>
+        <v>211</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>52</v>
@@ -12992,10 +12577,10 @@
         <v>990716673</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>354</v>
+        <v>292</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>402</v>
+        <v>340</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>55</v>
@@ -13007,16 +12592,16 @@
         <v>56</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>443</v>
+        <v>381</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>489</v>
+        <v>427</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>523</v>
+        <v>461</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O60" s="3">
         <v>4</v>
@@ -13034,7 +12619,7 @@
         <v>83</v>
       </c>
       <c r="T60" s="3" t="s">
-        <v>599</v>
+        <v>537</v>
       </c>
       <c r="U60" s="4">
         <v>5</v>
@@ -13082,16 +12667,16 @@
         <v>64</v>
       </c>
       <c r="AJ60" s="3" t="s">
-        <v>662</v>
+        <v>600</v>
       </c>
       <c r="AK60" s="3" t="s">
-        <v>675</v>
+        <v>613</v>
       </c>
       <c r="AL60" s="3" t="s">
         <v>65</v>
       </c>
       <c r="AM60" s="3" t="s">
-        <v>703</v>
+        <v>641</v>
       </c>
       <c r="AN60" s="3" t="s">
         <v>114</v>
@@ -13106,7 +12691,7 @@
         <v>56</v>
       </c>
       <c r="AR60" s="3" t="s">
-        <v>662</v>
+        <v>600</v>
       </c>
       <c r="AS60" s="3" t="s">
         <v>56</v>
@@ -13121,18 +12706,16 @@
         <v>58</v>
       </c>
       <c r="AW60" s="7" t="s">
-        <v>768</v>
+        <v>683</v>
       </c>
       <c r="AX60" s="10" t="s">
-        <v>769</v>
-      </c>
-      <c r="AY60" s="8" t="s">
-        <v>228</v>
-      </c>
+        <v>684</v>
+      </c>
+      <c r="AY60" s="8"/>
     </row>
     <row r="61" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>274</v>
+        <v>212</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>52</v>
@@ -13147,10 +12730,10 @@
         <v>988637307</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>403</v>
+        <v>341</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>55</v>
@@ -13162,16 +12745,16 @@
         <v>56</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>444</v>
+        <v>382</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>492</v>
+        <v>430</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>524</v>
+        <v>462</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>515</v>
+        <v>453</v>
       </c>
       <c r="O61" s="3">
         <v>1</v>
@@ -13189,7 +12772,7 @@
         <v>83</v>
       </c>
       <c r="T61" s="3" t="s">
-        <v>600</v>
+        <v>538</v>
       </c>
       <c r="U61" s="4">
         <v>5.5</v>
@@ -13201,7 +12784,7 @@
         <v>91</v>
       </c>
       <c r="X61" s="3" t="s">
-        <v>643</v>
+        <v>581</v>
       </c>
       <c r="Y61" s="3">
         <v>3</v>
@@ -13222,10 +12805,10 @@
         <v>56</v>
       </c>
       <c r="AE61" s="5" t="s">
-        <v>644</v>
+        <v>582</v>
       </c>
       <c r="AF61" s="5" t="s">
-        <v>651</v>
+        <v>589</v>
       </c>
       <c r="AG61" s="3" t="s">
         <v>52</v>
@@ -13240,13 +12823,13 @@
         <v>4</v>
       </c>
       <c r="AK61" s="3" t="s">
-        <v>676</v>
+        <v>614</v>
       </c>
       <c r="AL61" s="3" t="s">
         <v>69</v>
       </c>
       <c r="AM61" s="3" t="s">
-        <v>704</v>
+        <v>642</v>
       </c>
       <c r="AN61" s="3" t="s">
         <v>52</v>
@@ -13276,14 +12859,12 @@
         <v>58</v>
       </c>
       <c r="AW61" s="7" t="s">
-        <v>770</v>
+        <v>685</v>
       </c>
       <c r="AX61" s="10" t="s">
-        <v>771</v>
-      </c>
-      <c r="AY61" s="8" t="s">
-        <v>229</v>
-      </c>
+        <v>686</v>
+      </c>
+      <c r="AY61" s="8"/>
     </row>
     <row r="62" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
@@ -13302,10 +12883,10 @@
         <v>969647354</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>355</v>
+        <v>293</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>404</v>
+        <v>342</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>55</v>
@@ -13317,16 +12898,16 @@
         <v>56</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>444</v>
+        <v>382</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>489</v>
+        <v>427</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>516</v>
+        <v>454</v>
       </c>
       <c r="O62" s="3">
         <v>4</v>
@@ -13341,10 +12922,10 @@
         <v>59</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>540</v>
+        <v>478</v>
       </c>
       <c r="T62" s="3" t="s">
-        <v>601</v>
+        <v>539</v>
       </c>
       <c r="U62" s="4">
         <v>5</v>
@@ -13395,7 +12976,7 @@
         <v>4</v>
       </c>
       <c r="AK62" s="3" t="s">
-        <v>677</v>
+        <v>615</v>
       </c>
       <c r="AL62" s="3" t="s">
         <v>65</v>
@@ -13431,18 +13012,16 @@
         <v>58</v>
       </c>
       <c r="AW62" s="7" t="s">
-        <v>854</v>
+        <v>769</v>
       </c>
       <c r="AX62" s="10" t="s">
-        <v>853</v>
-      </c>
-      <c r="AY62" s="8" t="s">
-        <v>230</v>
-      </c>
+        <v>768</v>
+      </c>
+      <c r="AY62" s="8"/>
     </row>
     <row r="63" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>275</v>
+        <v>213</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>56</v>
@@ -13451,16 +13030,16 @@
         <v>145</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>309</v>
+        <v>247</v>
       </c>
       <c r="E63" s="3">
         <v>939385851</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>356</v>
+        <v>294</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>405</v>
+        <v>343</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>55</v>
@@ -13475,13 +13054,13 @@
         <v>119</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>493</v>
+        <v>431</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>526</v>
+        <v>464</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O63" s="3">
         <v>2</v>
@@ -13499,7 +13078,7 @@
         <v>83</v>
       </c>
       <c r="T63" s="3" t="s">
-        <v>602</v>
+        <v>540</v>
       </c>
       <c r="U63" s="4">
         <v>5</v>
@@ -13550,13 +13129,13 @@
         <v>4</v>
       </c>
       <c r="AK63" s="3" t="s">
-        <v>678</v>
+        <v>616</v>
       </c>
       <c r="AL63" s="3" t="s">
         <v>69</v>
       </c>
       <c r="AM63" s="3" t="s">
-        <v>678</v>
+        <v>616</v>
       </c>
       <c r="AN63" s="3" t="s">
         <v>52</v>
@@ -13574,7 +13153,7 @@
         <v>6</v>
       </c>
       <c r="AS63" s="3" t="s">
-        <v>723</v>
+        <v>661</v>
       </c>
       <c r="AT63" s="3" t="s">
         <v>142</v>
@@ -13586,18 +13165,16 @@
         <v>58</v>
       </c>
       <c r="AW63" s="7" t="s">
-        <v>781</v>
+        <v>696</v>
       </c>
       <c r="AX63" s="8" t="s">
-        <v>776</v>
-      </c>
-      <c r="AY63" s="8" t="s">
-        <v>231</v>
-      </c>
+        <v>691</v>
+      </c>
+      <c r="AY63" s="8"/>
     </row>
     <row r="64" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>276</v>
+        <v>214</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>52</v>
@@ -13606,16 +13183,16 @@
         <v>145</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>310</v>
+        <v>248</v>
       </c>
       <c r="E64" s="3">
         <v>989804020</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>357</v>
+        <v>295</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>406</v>
+        <v>344</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>55</v>
@@ -13627,16 +13204,16 @@
         <v>56</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>445</v>
+        <v>383</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>494</v>
+        <v>432</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>527</v>
+        <v>465</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O64" s="3">
         <v>4</v>
@@ -13654,7 +13231,7 @@
         <v>83</v>
       </c>
       <c r="T64" s="3" t="s">
-        <v>603</v>
+        <v>541</v>
       </c>
       <c r="U64" s="4">
         <v>8</v>
@@ -13666,7 +13243,7 @@
         <v>113</v>
       </c>
       <c r="X64" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y64" s="3">
         <v>4</v>
@@ -13687,10 +13264,10 @@
         <v>56</v>
       </c>
       <c r="AE64" s="5" t="s">
-        <v>650</v>
+        <v>588</v>
       </c>
       <c r="AF64" s="5" t="s">
-        <v>652</v>
+        <v>590</v>
       </c>
       <c r="AG64" s="3" t="s">
         <v>52</v>
@@ -13705,13 +13282,13 @@
         <v>4</v>
       </c>
       <c r="AK64" s="3" t="s">
-        <v>679</v>
+        <v>617</v>
       </c>
       <c r="AL64" s="3" t="s">
         <v>69</v>
       </c>
       <c r="AM64" s="3" t="s">
-        <v>705</v>
+        <v>643</v>
       </c>
       <c r="AN64" s="3" t="s">
         <v>52</v>
@@ -13729,7 +13306,7 @@
         <v>4</v>
       </c>
       <c r="AS64" s="3" t="s">
-        <v>724</v>
+        <v>662</v>
       </c>
       <c r="AT64" s="3" t="s">
         <v>142</v>
@@ -13746,13 +13323,11 @@
       <c r="AX64" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="AY64" s="8" t="s">
-        <v>733</v>
-      </c>
+      <c r="AY64" s="8"/>
     </row>
     <row r="65" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>52</v>
@@ -13761,16 +13336,16 @@
         <v>145</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>311</v>
+        <v>249</v>
       </c>
       <c r="E65" s="3">
         <v>980882809</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>358</v>
+        <v>296</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>407</v>
+        <v>345</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>55</v>
@@ -13782,16 +13357,16 @@
         <v>56</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>763</v>
+        <v>678</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>495</v>
+        <v>433</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>528</v>
+        <v>466</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O65" s="3">
         <v>10</v>
@@ -13809,7 +13384,7 @@
         <v>83</v>
       </c>
       <c r="T65" s="3" t="s">
-        <v>604</v>
+        <v>542</v>
       </c>
       <c r="U65" s="4">
         <v>7</v>
@@ -13818,10 +13393,10 @@
         <v>129</v>
       </c>
       <c r="W65" s="3" t="s">
-        <v>630</v>
+        <v>568</v>
       </c>
       <c r="X65" s="3" t="s">
-        <v>640</v>
+        <v>578</v>
       </c>
       <c r="Y65" s="3">
         <v>10</v>
@@ -13842,10 +13417,10 @@
         <v>58</v>
       </c>
       <c r="AE65" s="5" t="s">
-        <v>648</v>
+        <v>586</v>
       </c>
       <c r="AF65" s="5" t="s">
-        <v>653</v>
+        <v>591</v>
       </c>
       <c r="AG65" s="3" t="s">
         <v>52</v>
@@ -13860,13 +13435,13 @@
         <v>15</v>
       </c>
       <c r="AK65" s="3" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="AL65" s="3" t="s">
         <v>69</v>
       </c>
       <c r="AM65" s="3" t="s">
-        <v>706</v>
+        <v>644</v>
       </c>
       <c r="AN65" s="3" t="s">
         <v>52</v>
@@ -13878,7 +13453,7 @@
         <v>73</v>
       </c>
       <c r="AQ65" s="3" t="s">
-        <v>717</v>
+        <v>655</v>
       </c>
       <c r="AR65" s="3">
         <v>3</v>
@@ -13896,18 +13471,14 @@
         <v>58</v>
       </c>
       <c r="AW65" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX65" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY65" s="8" t="s">
-        <v>734</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX65" s="8"/>
+      <c r="AY65" s="8"/>
     </row>
     <row r="66" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
-        <v>278</v>
+        <v>216</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>52</v>
@@ -13916,16 +13487,16 @@
         <v>145</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>312</v>
+        <v>250</v>
       </c>
       <c r="E66" s="3">
         <v>984934506</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>408</v>
+        <v>346</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>55</v>
@@ -13937,16 +13508,16 @@
         <v>56</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>762</v>
+        <v>677</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>496</v>
+        <v>434</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>529</v>
+        <v>467</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O66" s="3">
         <v>7</v>
@@ -13961,10 +13532,10 @@
         <v>133</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>540</v>
+        <v>478</v>
       </c>
       <c r="T66" s="3" t="s">
-        <v>605</v>
+        <v>543</v>
       </c>
       <c r="U66" s="4">
         <v>7</v>
@@ -13976,7 +13547,7 @@
         <v>91</v>
       </c>
       <c r="X66" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y66" s="3">
         <v>5</v>
@@ -13997,10 +13568,10 @@
         <v>58</v>
       </c>
       <c r="AE66" s="5" t="s">
-        <v>649</v>
+        <v>587</v>
       </c>
       <c r="AF66" s="5" t="s">
-        <v>654</v>
+        <v>592</v>
       </c>
       <c r="AG66" s="3" t="s">
         <v>56</v>
@@ -14015,13 +13586,13 @@
         <v>5</v>
       </c>
       <c r="AK66" s="3" t="s">
-        <v>681</v>
+        <v>619</v>
       </c>
       <c r="AL66" s="3" t="s">
         <v>69</v>
       </c>
       <c r="AM66" s="3" t="s">
-        <v>707</v>
+        <v>645</v>
       </c>
       <c r="AN66" s="3" t="s">
         <v>52</v>
@@ -14030,7 +13601,7 @@
         <v>6</v>
       </c>
       <c r="AP66" s="3" t="s">
-        <v>716</v>
+        <v>654</v>
       </c>
       <c r="AQ66" s="3" t="s">
         <v>56</v>
@@ -14039,7 +13610,7 @@
         <v>26</v>
       </c>
       <c r="AS66" s="3" t="s">
-        <v>725</v>
+        <v>663</v>
       </c>
       <c r="AT66" s="3" t="s">
         <v>67</v>
@@ -14051,18 +13622,14 @@
         <v>58</v>
       </c>
       <c r="AW66" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX66" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY66" s="8" t="s">
-        <v>735</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX66" s="8"/>
+      <c r="AY66" s="8"/>
     </row>
     <row r="67" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
-        <v>279</v>
+        <v>217</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>52</v>
@@ -14071,16 +13638,16 @@
         <v>123</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>313</v>
+        <v>251</v>
       </c>
       <c r="E67" s="3">
         <v>997382881</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>409</v>
+        <v>347</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>55</v>
@@ -14092,16 +13659,16 @@
         <v>56</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>446</v>
+        <v>384</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>497</v>
+        <v>435</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>524</v>
+        <v>462</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O67" s="3">
         <v>8</v>
@@ -14116,22 +13683,22 @@
         <v>126</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>540</v>
+        <v>478</v>
       </c>
       <c r="T67" s="3" t="s">
-        <v>606</v>
+        <v>544</v>
       </c>
       <c r="U67" s="4">
         <v>5.5</v>
       </c>
       <c r="V67" s="3" t="s">
-        <v>627</v>
+        <v>565</v>
       </c>
       <c r="W67" s="3" t="s">
         <v>113</v>
       </c>
       <c r="X67" s="3" t="s">
-        <v>640</v>
+        <v>578</v>
       </c>
       <c r="Y67" s="3">
         <v>2</v>
@@ -14170,7 +13737,7 @@
         <v>6</v>
       </c>
       <c r="AK67" s="3" t="s">
-        <v>682</v>
+        <v>620</v>
       </c>
       <c r="AL67" s="3" t="s">
         <v>69</v>
@@ -14194,7 +13761,7 @@
         <v>1</v>
       </c>
       <c r="AS67" s="3" t="s">
-        <v>726</v>
+        <v>664</v>
       </c>
       <c r="AT67" s="3" t="s">
         <v>67</v>
@@ -14206,18 +13773,14 @@
         <v>58</v>
       </c>
       <c r="AW67" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX67" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY67" s="8" t="s">
-        <v>736</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX67" s="8"/>
+      <c r="AY67" s="8"/>
     </row>
     <row r="68" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>52</v>
@@ -14232,10 +13795,10 @@
         <v>992714781</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>410</v>
+        <v>348</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>55</v>
@@ -14247,14 +13810,14 @@
         <v>56</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>447</v>
+        <v>385</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>498</v>
+        <v>436</v>
       </c>
       <c r="M68" s="3"/>
       <c r="N68" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O68" s="3">
         <v>5</v>
@@ -14272,7 +13835,7 @@
         <v>83</v>
       </c>
       <c r="T68" s="3" t="s">
-        <v>607</v>
+        <v>545</v>
       </c>
       <c r="U68" s="4">
         <v>3</v>
@@ -14284,7 +13847,7 @@
         <v>113</v>
       </c>
       <c r="X68" s="3" t="s">
-        <v>640</v>
+        <v>578</v>
       </c>
       <c r="Y68" s="3">
         <v>1</v>
@@ -14323,13 +13886,13 @@
         <v>5</v>
       </c>
       <c r="AK68" s="3" t="s">
-        <v>683</v>
+        <v>621</v>
       </c>
       <c r="AL68" s="3" t="s">
         <v>65</v>
       </c>
       <c r="AM68" s="3" t="s">
-        <v>708</v>
+        <v>646</v>
       </c>
       <c r="AN68" s="3" t="s">
         <v>52</v>
@@ -14359,18 +13922,14 @@
         <v>58</v>
       </c>
       <c r="AW68" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX68" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY68" s="8" t="s">
-        <v>737</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX68" s="8"/>
+      <c r="AY68" s="8"/>
     </row>
     <row r="69" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
-        <v>281</v>
+        <v>219</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>52</v>
@@ -14379,16 +13938,16 @@
         <v>145</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>314</v>
+        <v>252</v>
       </c>
       <c r="E69" s="3">
         <v>987192802</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>411</v>
+        <v>349</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>55</v>
@@ -14400,14 +13959,14 @@
         <v>56</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>448</v>
+        <v>386</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>489</v>
+        <v>427</v>
       </c>
       <c r="M69" s="3"/>
       <c r="N69" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O69" s="3">
         <v>3</v>
@@ -14425,7 +13984,7 @@
         <v>60</v>
       </c>
       <c r="T69" s="3" t="s">
-        <v>608</v>
+        <v>546</v>
       </c>
       <c r="U69" s="4">
         <v>3</v>
@@ -14437,7 +13996,7 @@
         <v>113</v>
       </c>
       <c r="X69" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y69" s="3">
         <v>2</v>
@@ -14476,7 +14035,7 @@
         <v>16</v>
       </c>
       <c r="AK69" s="3" t="s">
-        <v>684</v>
+        <v>622</v>
       </c>
       <c r="AL69" s="3" t="s">
         <v>69</v>
@@ -14512,18 +14071,16 @@
         <v>58</v>
       </c>
       <c r="AW69" s="7" t="s">
-        <v>787</v>
+        <v>702</v>
       </c>
       <c r="AX69" s="10" t="s">
-        <v>786</v>
-      </c>
-      <c r="AY69" s="8" t="s">
-        <v>738</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="AY69" s="8"/>
     </row>
     <row r="70" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
-        <v>282</v>
+        <v>220</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>52</v>
@@ -14538,10 +14095,10 @@
         <v>991322614</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>359</v>
+        <v>297</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>412</v>
+        <v>350</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>55</v>
@@ -14553,14 +14110,14 @@
         <v>56</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>449</v>
+        <v>387</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>499</v>
+        <v>437</v>
       </c>
       <c r="M70" s="3"/>
       <c r="N70" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O70" s="3">
         <v>6</v>
@@ -14575,10 +14132,10 @@
         <v>59</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>540</v>
+        <v>478</v>
       </c>
       <c r="T70" s="3" t="s">
-        <v>609</v>
+        <v>547</v>
       </c>
       <c r="U70" s="4">
         <v>3.5</v>
@@ -14590,7 +14147,7 @@
         <v>113</v>
       </c>
       <c r="X70" s="3" t="s">
-        <v>640</v>
+        <v>578</v>
       </c>
       <c r="Y70" s="3">
         <v>4</v>
@@ -14665,24 +14222,20 @@
         <v>58</v>
       </c>
       <c r="AW70" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX70" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY70" s="8" t="s">
-        <v>739</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX70" s="8"/>
+      <c r="AY70" s="8"/>
     </row>
     <row r="71" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
-        <v>283</v>
+        <v>221</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>298</v>
+        <v>236</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>124</v>
@@ -14691,10 +14244,10 @@
         <v>969306278</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>360</v>
+        <v>298</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>413</v>
+        <v>351</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>55</v>
@@ -14706,16 +14259,16 @@
         <v>56</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>757</v>
+        <v>672</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>489</v>
+        <v>427</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>524</v>
+        <v>462</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O71" s="3">
         <v>7</v>
@@ -14730,10 +14283,10 @@
         <v>59</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>541</v>
+        <v>479</v>
       </c>
       <c r="T71" s="3" t="s">
-        <v>610</v>
+        <v>548</v>
       </c>
       <c r="U71" s="4">
         <v>5</v>
@@ -14745,7 +14298,7 @@
         <v>113</v>
       </c>
       <c r="X71" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y71" s="3">
         <v>5</v>
@@ -14769,7 +14322,7 @@
         <v>-3.7921779999999998</v>
       </c>
       <c r="AF71" s="5" t="s">
-        <v>655</v>
+        <v>593</v>
       </c>
       <c r="AG71" s="3" t="s">
         <v>56</v>
@@ -14784,13 +14337,13 @@
         <v>4</v>
       </c>
       <c r="AK71" s="3" t="s">
-        <v>685</v>
+        <v>623</v>
       </c>
       <c r="AL71" s="3" t="s">
         <v>65</v>
       </c>
       <c r="AM71" s="3" t="s">
-        <v>709</v>
+        <v>647</v>
       </c>
       <c r="AN71" s="3" t="s">
         <v>52</v>
@@ -14820,18 +14373,16 @@
         <v>58</v>
       </c>
       <c r="AW71" s="7" t="s">
-        <v>844</v>
+        <v>759</v>
       </c>
       <c r="AX71" s="10" t="s">
-        <v>843</v>
-      </c>
-      <c r="AY71" s="8" t="s">
-        <v>740</v>
-      </c>
+        <v>758</v>
+      </c>
+      <c r="AY71" s="8"/>
     </row>
     <row r="72" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>52</v>
@@ -14840,16 +14391,16 @@
         <v>123</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>315</v>
+        <v>253</v>
       </c>
       <c r="E72" s="3">
         <v>991860378</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>361</v>
+        <v>299</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>414</v>
+        <v>352</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>55</v>
@@ -14861,16 +14412,16 @@
         <v>56</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>756</v>
+        <v>671</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>489</v>
+        <v>427</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>524</v>
+        <v>462</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O72" s="3">
         <v>12</v>
@@ -14882,13 +14433,13 @@
         <v>58</v>
       </c>
       <c r="R72" s="3" t="s">
-        <v>535</v>
+        <v>473</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>83</v>
       </c>
       <c r="T72" s="3" t="s">
-        <v>611</v>
+        <v>549</v>
       </c>
       <c r="U72" s="4">
         <v>5</v>
@@ -14900,7 +14451,7 @@
         <v>91</v>
       </c>
       <c r="X72" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y72" s="3">
         <v>3</v>
@@ -14921,10 +14472,10 @@
         <v>58</v>
       </c>
       <c r="AE72" s="5" t="s">
-        <v>645</v>
+        <v>583</v>
       </c>
       <c r="AF72" s="5" t="s">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="AG72" s="3" t="s">
         <v>56</v>
@@ -14939,13 +14490,13 @@
         <v>8</v>
       </c>
       <c r="AK72" s="3" t="s">
-        <v>686</v>
+        <v>624</v>
       </c>
       <c r="AL72" s="3" t="s">
         <v>69</v>
       </c>
       <c r="AM72" s="3" t="s">
-        <v>710</v>
+        <v>648</v>
       </c>
       <c r="AN72" s="3" t="s">
         <v>52</v>
@@ -14963,7 +14514,7 @@
         <v>3</v>
       </c>
       <c r="AS72" s="3" t="s">
-        <v>727</v>
+        <v>665</v>
       </c>
       <c r="AT72" s="3" t="s">
         <v>67</v>
@@ -14975,18 +14526,14 @@
         <v>58</v>
       </c>
       <c r="AW72" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX72" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY72" s="8" t="s">
         <v>741</v>
       </c>
+      <c r="AX72" s="8"/>
+      <c r="AY72" s="8"/>
     </row>
     <row r="73" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
-        <v>285</v>
+        <v>223</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>52</v>
@@ -14995,16 +14542,16 @@
         <v>145</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>316</v>
+        <v>254</v>
       </c>
       <c r="E73" s="3">
         <v>987979144</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>415</v>
+        <v>353</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>55</v>
@@ -15016,16 +14563,16 @@
         <v>56</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>450</v>
+        <v>388</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>489</v>
+        <v>427</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>530</v>
+        <v>468</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O73" s="3">
         <v>6</v>
@@ -15043,7 +14590,7 @@
         <v>83</v>
       </c>
       <c r="T73" s="3" t="s">
-        <v>612</v>
+        <v>550</v>
       </c>
       <c r="U73" s="4">
         <v>12</v>
@@ -15055,7 +14602,7 @@
         <v>113</v>
       </c>
       <c r="X73" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y73" s="3">
         <v>2</v>
@@ -15079,7 +14626,7 @@
         <v>-4.2401593999999996</v>
       </c>
       <c r="AF73" s="5" t="s">
-        <v>657</v>
+        <v>595</v>
       </c>
       <c r="AG73" s="3" t="s">
         <v>56</v>
@@ -15094,13 +14641,13 @@
         <v>12</v>
       </c>
       <c r="AK73" s="3" t="s">
-        <v>687</v>
+        <v>625</v>
       </c>
       <c r="AL73" s="3" t="s">
         <v>69</v>
       </c>
       <c r="AM73" s="3" t="s">
-        <v>711</v>
+        <v>649</v>
       </c>
       <c r="AN73" s="3" t="s">
         <v>52</v>
@@ -15130,36 +14677,34 @@
         <v>58</v>
       </c>
       <c r="AW73" s="7" t="s">
-        <v>799</v>
+        <v>714</v>
       </c>
       <c r="AX73" s="10" t="s">
-        <v>798</v>
-      </c>
-      <c r="AY73" s="8" t="s">
-        <v>742</v>
-      </c>
+        <v>713</v>
+      </c>
+      <c r="AY73" s="8"/>
     </row>
     <row r="74" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>298</v>
+        <v>236</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="E74" s="3">
         <v>984234395</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>362</v>
+        <v>300</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>416</v>
+        <v>354</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>55</v>
@@ -15171,16 +14716,16 @@
         <v>56</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>451</v>
+        <v>389</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>531</v>
+        <v>469</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O74" s="3">
         <v>10</v>
@@ -15192,13 +14737,13 @@
         <v>58</v>
       </c>
       <c r="R74" s="3" t="s">
-        <v>539</v>
+        <v>477</v>
       </c>
       <c r="S74" s="3" t="s">
         <v>83</v>
       </c>
       <c r="T74" s="3" t="s">
-        <v>613</v>
+        <v>551</v>
       </c>
       <c r="U74" s="4">
         <v>10</v>
@@ -15210,7 +14755,7 @@
         <v>113</v>
       </c>
       <c r="X74" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y74" s="3">
         <v>2</v>
@@ -15249,13 +14794,13 @@
         <v>12</v>
       </c>
       <c r="AK74" s="3" t="s">
-        <v>688</v>
+        <v>626</v>
       </c>
       <c r="AL74" s="3" t="s">
         <v>65</v>
       </c>
       <c r="AM74" s="3" t="s">
-        <v>712</v>
+        <v>650</v>
       </c>
       <c r="AN74" s="3" t="s">
         <v>52</v>
@@ -15273,7 +14818,7 @@
         <v>4</v>
       </c>
       <c r="AS74" s="3" t="s">
-        <v>728</v>
+        <v>666</v>
       </c>
       <c r="AT74" s="3" t="s">
         <v>142</v>
@@ -15285,18 +14830,16 @@
         <v>58</v>
       </c>
       <c r="AW74" s="7" t="s">
-        <v>846</v>
+        <v>761</v>
       </c>
       <c r="AX74" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="AY74" s="8" t="s">
-        <v>743</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="AY74" s="8"/>
     </row>
     <row r="75" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>52</v>
@@ -15311,10 +14854,10 @@
         <v>989577107</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>363</v>
+        <v>301</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>417</v>
+        <v>355</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>80</v>
@@ -15326,14 +14869,14 @@
         <v>56</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>452</v>
+        <v>390</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>489</v>
+        <v>427</v>
       </c>
       <c r="M75" s="3"/>
       <c r="N75" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O75" s="3">
         <v>7</v>
@@ -15348,16 +14891,16 @@
         <v>147</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>540</v>
+        <v>478</v>
       </c>
       <c r="T75" s="3" t="s">
-        <v>614</v>
+        <v>552</v>
       </c>
       <c r="U75" s="4">
         <v>1</v>
       </c>
       <c r="V75" s="3" t="s">
-        <v>628</v>
+        <v>566</v>
       </c>
       <c r="W75" s="3" t="s">
         <v>113</v>
@@ -15402,13 +14945,13 @@
         <v>20</v>
       </c>
       <c r="AK75" s="3" t="s">
-        <v>689</v>
+        <v>627</v>
       </c>
       <c r="AL75" s="3" t="s">
         <v>69</v>
       </c>
       <c r="AM75" s="3" t="s">
-        <v>713</v>
+        <v>651</v>
       </c>
       <c r="AN75" s="3" t="s">
         <v>52</v>
@@ -15438,18 +14981,16 @@
         <v>58</v>
       </c>
       <c r="AW75" s="7" t="s">
-        <v>785</v>
+        <v>700</v>
       </c>
       <c r="AX75" s="10" t="s">
-        <v>784</v>
-      </c>
-      <c r="AY75" s="8" t="s">
-        <v>744</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="AY75" s="8"/>
     </row>
     <row r="76" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
-        <v>288</v>
+        <v>226</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>52</v>
@@ -15458,16 +14999,16 @@
         <v>145</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>318</v>
+        <v>256</v>
       </c>
       <c r="E76" s="3">
         <v>962876988</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>364</v>
+        <v>302</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>418</v>
+        <v>356</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>55</v>
@@ -15479,14 +15020,14 @@
         <v>56</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>761</v>
+        <v>676</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>489</v>
+        <v>427</v>
       </c>
       <c r="M76" s="3"/>
       <c r="N76" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O76" s="3">
         <v>5</v>
@@ -15504,7 +15045,7 @@
         <v>60</v>
       </c>
       <c r="T76" s="3" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U76" s="4">
         <v>3</v>
@@ -15516,7 +15057,7 @@
         <v>113</v>
       </c>
       <c r="X76" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="Y76" s="3">
         <v>2</v>
@@ -15540,7 +15081,7 @@
         <v>-4.2617066000000001</v>
       </c>
       <c r="AF76" s="5" t="s">
-        <v>658</v>
+        <v>596</v>
       </c>
       <c r="AG76" s="3" t="s">
         <v>56</v>
@@ -15561,7 +15102,7 @@
         <v>69</v>
       </c>
       <c r="AM76" s="3" t="s">
-        <v>714</v>
+        <v>652</v>
       </c>
       <c r="AN76" s="3" t="s">
         <v>52</v>
@@ -15591,18 +15132,14 @@
         <v>58</v>
       </c>
       <c r="AW76" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX76" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY76" s="8" t="s">
-        <v>745</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX76" s="8"/>
+      <c r="AY76" s="8"/>
     </row>
     <row r="77" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
-        <v>289</v>
+        <v>227</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>52</v>
@@ -15617,10 +15154,10 @@
         <v>939866173</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>397</v>
+        <v>335</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>55</v>
@@ -15632,14 +15169,14 @@
         <v>56</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>453</v>
+        <v>391</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>489</v>
+        <v>427</v>
       </c>
       <c r="M77" s="3"/>
       <c r="N77" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O77" s="3">
         <v>4</v>
@@ -15657,7 +15194,7 @@
         <v>60</v>
       </c>
       <c r="T77" s="3" t="s">
-        <v>616</v>
+        <v>554</v>
       </c>
       <c r="U77" s="4">
         <v>3.5</v>
@@ -15669,7 +15206,7 @@
         <v>113</v>
       </c>
       <c r="X77" s="3" t="s">
-        <v>639</v>
+        <v>577</v>
       </c>
       <c r="Y77" s="3">
         <v>2</v>
@@ -15708,7 +15245,7 @@
         <v>10</v>
       </c>
       <c r="AK77" s="3" t="s">
-        <v>690</v>
+        <v>628</v>
       </c>
       <c r="AL77" s="3" t="s">
         <v>69</v>
@@ -15744,18 +15281,14 @@
         <v>58</v>
       </c>
       <c r="AW77" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX77" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY77" s="8" t="s">
-        <v>746</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX77" s="8"/>
+      <c r="AY77" s="8"/>
     </row>
     <row r="78" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
-        <v>290</v>
+        <v>228</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>52</v>
@@ -15770,10 +15303,10 @@
         <v>986925665</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>419</v>
+        <v>357</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>55</v>
@@ -15785,14 +15318,14 @@
         <v>56</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>454</v>
+        <v>392</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>461</v>
+        <v>399</v>
       </c>
       <c r="M78" s="3"/>
       <c r="N78" s="3" t="s">
-        <v>510</v>
+        <v>448</v>
       </c>
       <c r="O78" s="3">
         <v>3</v>
@@ -15810,19 +15343,19 @@
         <v>60</v>
       </c>
       <c r="T78" s="3" t="s">
-        <v>617</v>
+        <v>555</v>
       </c>
       <c r="U78" s="4">
         <v>2.25</v>
       </c>
       <c r="V78" s="3" t="s">
-        <v>626</v>
+        <v>564</v>
       </c>
       <c r="W78" s="3" t="s">
         <v>113</v>
       </c>
       <c r="X78" s="3" t="s">
-        <v>642</v>
+        <v>580</v>
       </c>
       <c r="Y78" s="3">
         <v>3</v>
@@ -15897,18 +15430,16 @@
         <v>58</v>
       </c>
       <c r="AW78" s="7" t="s">
-        <v>842</v>
+        <v>757</v>
       </c>
       <c r="AX78" s="10" t="s">
-        <v>841</v>
-      </c>
-      <c r="AY78" s="8" t="s">
-        <v>747</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="AY78" s="8"/>
     </row>
     <row r="79" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
-        <v>291</v>
+        <v>229</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>52</v>
@@ -15917,16 +15448,16 @@
         <v>145</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>319</v>
+        <v>257</v>
       </c>
       <c r="E79" s="3">
         <v>985480644</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>365</v>
+        <v>303</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>420</v>
+        <v>358</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>55</v>
@@ -15938,16 +15469,16 @@
         <v>56</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>455</v>
+        <v>393</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>489</v>
+        <v>427</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>532</v>
+        <v>470</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O79" s="3">
         <v>5</v>
@@ -15965,7 +15496,7 @@
         <v>83</v>
       </c>
       <c r="T79" s="3" t="s">
-        <v>618</v>
+        <v>556</v>
       </c>
       <c r="U79" s="4">
         <v>3.5</v>
@@ -16016,13 +15547,13 @@
         <v>5</v>
       </c>
       <c r="AK79" s="3" t="s">
-        <v>691</v>
+        <v>629</v>
       </c>
       <c r="AL79" s="3" t="s">
         <v>65</v>
       </c>
       <c r="AM79" s="3" t="s">
-        <v>715</v>
+        <v>653</v>
       </c>
       <c r="AN79" s="3" t="s">
         <v>52</v>
@@ -16052,36 +15583,32 @@
         <v>58</v>
       </c>
       <c r="AW79" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX79" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY79" s="8" t="s">
-        <v>748</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX79" s="8"/>
+      <c r="AY79" s="8"/>
     </row>
     <row r="80" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
-        <v>292</v>
+        <v>230</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>298</v>
+        <v>236</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>320</v>
+        <v>258</v>
       </c>
       <c r="E80" s="3">
         <v>96262869</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>421</v>
+        <v>359</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>55</v>
@@ -16093,16 +15620,16 @@
         <v>56</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>760</v>
+        <v>675</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>461</v>
+        <v>399</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>533</v>
+        <v>471</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O80" s="3">
         <v>3</v>
@@ -16117,10 +15644,10 @@
         <v>59</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>541</v>
+        <v>479</v>
       </c>
       <c r="T80" s="3" t="s">
-        <v>619</v>
+        <v>557</v>
       </c>
       <c r="U80" s="4">
         <v>6</v>
@@ -16132,7 +15659,7 @@
         <v>113</v>
       </c>
       <c r="X80" s="3" t="s">
-        <v>643</v>
+        <v>581</v>
       </c>
       <c r="Y80" s="3">
         <v>2</v>
@@ -16153,10 +15680,10 @@
         <v>58</v>
       </c>
       <c r="AE80" s="5" t="s">
-        <v>646</v>
+        <v>584</v>
       </c>
       <c r="AF80" s="5" t="s">
-        <v>659</v>
+        <v>597</v>
       </c>
       <c r="AG80" s="3" t="s">
         <v>56</v>
@@ -16171,7 +15698,7 @@
         <v>9</v>
       </c>
       <c r="AK80" s="3" t="s">
-        <v>692</v>
+        <v>630</v>
       </c>
       <c r="AL80" s="3" t="s">
         <v>65</v>
@@ -16195,7 +15722,7 @@
         <v>2</v>
       </c>
       <c r="AS80" s="3" t="s">
-        <v>729</v>
+        <v>667</v>
       </c>
       <c r="AT80" s="3" t="s">
         <v>67</v>
@@ -16207,18 +15734,14 @@
         <v>58</v>
       </c>
       <c r="AW80" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX80" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY80" s="8" t="s">
-        <v>749</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX80" s="8"/>
+      <c r="AY80" s="8"/>
     </row>
     <row r="81" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
-        <v>293</v>
+        <v>231</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>114</v>
@@ -16227,16 +15750,16 @@
         <v>145</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>321</v>
+        <v>259</v>
       </c>
       <c r="E81" s="3">
         <v>939537782</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>422</v>
+        <v>360</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>55</v>
@@ -16248,14 +15771,14 @@
         <v>56</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>456</v>
+        <v>394</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>501</v>
+        <v>439</v>
       </c>
       <c r="M81" s="3"/>
       <c r="N81" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O81" s="3">
         <v>3</v>
@@ -16273,7 +15796,7 @@
         <v>83</v>
       </c>
       <c r="T81" s="3" t="s">
-        <v>620</v>
+        <v>558</v>
       </c>
       <c r="U81" s="4">
         <v>3.5</v>
@@ -16306,10 +15829,10 @@
         <v>58</v>
       </c>
       <c r="AE81" s="5" t="s">
-        <v>647</v>
+        <v>585</v>
       </c>
       <c r="AF81" s="5" t="s">
-        <v>660</v>
+        <v>598</v>
       </c>
       <c r="AG81" s="3" t="s">
         <v>56</v>
@@ -16348,7 +15871,7 @@
         <v>1</v>
       </c>
       <c r="AS81" s="3" t="s">
-        <v>730</v>
+        <v>668</v>
       </c>
       <c r="AT81" s="3" t="s">
         <v>67</v>
@@ -16360,18 +15883,16 @@
         <v>58</v>
       </c>
       <c r="AW81" s="7" t="s">
-        <v>791</v>
+        <v>706</v>
       </c>
       <c r="AX81" s="10" t="s">
-        <v>790</v>
-      </c>
-      <c r="AY81" s="8" t="s">
-        <v>750</v>
-      </c>
+        <v>705</v>
+      </c>
+      <c r="AY81" s="8"/>
     </row>
     <row r="82" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>52</v>
@@ -16386,10 +15907,10 @@
         <v>988271410</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>423</v>
+        <v>361</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>80</v>
@@ -16401,14 +15922,14 @@
         <v>56</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>758</v>
+        <v>673</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>489</v>
+        <v>427</v>
       </c>
       <c r="M82" s="3"/>
       <c r="N82" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O82" s="3">
         <v>2</v>
@@ -16426,7 +15947,7 @@
         <v>83</v>
       </c>
       <c r="T82" s="3" t="s">
-        <v>621</v>
+        <v>559</v>
       </c>
       <c r="U82" s="4">
         <v>5</v>
@@ -16438,7 +15959,7 @@
         <v>113</v>
       </c>
       <c r="X82" s="3" t="s">
-        <v>639</v>
+        <v>577</v>
       </c>
       <c r="Y82" s="3">
         <v>2</v>
@@ -16477,7 +15998,7 @@
         <v>2</v>
       </c>
       <c r="AK82" s="3" t="s">
-        <v>693</v>
+        <v>631</v>
       </c>
       <c r="AL82" s="3" t="s">
         <v>69</v>
@@ -16501,7 +16022,7 @@
         <v>1</v>
       </c>
       <c r="AS82" s="3" t="s">
-        <v>731</v>
+        <v>669</v>
       </c>
       <c r="AT82" s="3" t="s">
         <v>142</v>
@@ -16513,36 +16034,34 @@
         <v>58</v>
       </c>
       <c r="AW82" s="5" t="s">
-        <v>772</v>
+        <v>687</v>
       </c>
       <c r="AX82" s="8" t="s">
-        <v>773</v>
-      </c>
-      <c r="AY82" s="8" t="s">
-        <v>751</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="AY82" s="8"/>
     </row>
     <row r="83" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="3" t="s">
-        <v>294</v>
+        <v>232</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>299</v>
+        <v>237</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>322</v>
+        <v>260</v>
       </c>
       <c r="E83" s="3">
         <v>967800981</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>424</v>
+        <v>362</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>55</v>
@@ -16554,14 +16073,14 @@
         <v>56</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>759</v>
+        <v>674</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>489</v>
+        <v>427</v>
       </c>
       <c r="M83" s="3"/>
       <c r="N83" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O83" s="3">
         <v>3</v>
@@ -16579,7 +16098,7 @@
         <v>60</v>
       </c>
       <c r="T83" s="3" t="s">
-        <v>622</v>
+        <v>560</v>
       </c>
       <c r="U83" s="4">
         <v>2.5</v>
@@ -16591,7 +16110,7 @@
         <v>113</v>
       </c>
       <c r="X83" s="3" t="s">
-        <v>639</v>
+        <v>577</v>
       </c>
       <c r="Y83" s="3">
         <v>1</v>
@@ -16666,36 +16185,32 @@
         <v>58</v>
       </c>
       <c r="AW83" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX83" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY83" s="8" t="s">
-        <v>752</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX83" s="8"/>
+      <c r="AY83" s="8"/>
     </row>
     <row r="84" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>298</v>
+        <v>236</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>323</v>
+        <v>261</v>
       </c>
       <c r="E84" s="3">
         <v>995832522</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>425</v>
+        <v>363</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>80</v>
@@ -16707,16 +16222,16 @@
         <v>56</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>457</v>
+        <v>395</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>489</v>
+        <v>427</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>534</v>
+        <v>472</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O84" s="3">
         <v>4</v>
@@ -16731,10 +16246,10 @@
         <v>59</v>
       </c>
       <c r="S84" s="3" t="s">
-        <v>540</v>
+        <v>478</v>
       </c>
       <c r="T84" s="3" t="s">
-        <v>623</v>
+        <v>561</v>
       </c>
       <c r="U84" s="4">
         <v>6</v>
@@ -16746,7 +16261,7 @@
         <v>113</v>
       </c>
       <c r="X84" s="3" t="s">
-        <v>639</v>
+        <v>577</v>
       </c>
       <c r="Y84" s="3">
         <v>2</v>
@@ -16821,18 +16336,14 @@
         <v>58</v>
       </c>
       <c r="AW84" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX84" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY84" s="8" t="s">
-        <v>753</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX84" s="8"/>
+      <c r="AY84" s="8"/>
     </row>
     <row r="85" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="3" t="s">
-        <v>297</v>
+        <v>235</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>52</v>
@@ -16841,16 +16352,16 @@
         <v>145</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>324</v>
+        <v>262</v>
       </c>
       <c r="E85" s="3">
         <v>989874633</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>426</v>
+        <v>364</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>90</v>
@@ -16862,16 +16373,16 @@
         <v>56</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>458</v>
+        <v>396</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>489</v>
+        <v>427</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>532</v>
+        <v>470</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O85" s="3">
         <v>5</v>
@@ -16883,13 +16394,13 @@
         <v>58</v>
       </c>
       <c r="R85" s="3" t="s">
-        <v>539</v>
+        <v>477</v>
       </c>
       <c r="S85" s="3" t="s">
         <v>60</v>
       </c>
       <c r="T85" s="3" t="s">
-        <v>624</v>
+        <v>562</v>
       </c>
       <c r="U85" s="4">
         <v>3</v>
@@ -16901,7 +16412,7 @@
         <v>113</v>
       </c>
       <c r="X85" s="3" t="s">
-        <v>639</v>
+        <v>577</v>
       </c>
       <c r="Y85" s="3">
         <v>2</v>
@@ -16976,36 +16487,32 @@
         <v>58</v>
       </c>
       <c r="AW85" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX85" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY85" s="8" t="s">
-        <v>754</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX85" s="8"/>
+      <c r="AY85" s="8"/>
     </row>
     <row r="86" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
-        <v>296</v>
+        <v>234</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>298</v>
+        <v>236</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>323</v>
+        <v>261</v>
       </c>
       <c r="E86" s="3">
         <v>995832522</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>425</v>
+        <v>363</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>80</v>
@@ -17017,16 +16524,16 @@
         <v>56</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>459</v>
+        <v>397</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>489</v>
+        <v>427</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>534</v>
+        <v>472</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="O86" s="3">
         <v>4</v>
@@ -17041,10 +16548,10 @@
         <v>59</v>
       </c>
       <c r="S86" s="3" t="s">
-        <v>540</v>
+        <v>478</v>
       </c>
       <c r="T86" s="3" t="s">
-        <v>625</v>
+        <v>563</v>
       </c>
       <c r="U86" s="4">
         <v>6</v>
@@ -17091,7 +16598,7 @@
         <v>10</v>
       </c>
       <c r="AK86" s="3" t="s">
-        <v>694</v>
+        <v>632</v>
       </c>
       <c r="AL86" s="3" t="s">
         <v>65</v>
@@ -17115,7 +16622,7 @@
         <v>1</v>
       </c>
       <c r="AS86" s="3" t="s">
-        <v>732</v>
+        <v>670</v>
       </c>
       <c r="AT86" s="3" t="s">
         <v>142</v>
@@ -17127,14 +16634,10 @@
         <v>58</v>
       </c>
       <c r="AW86" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX86" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY86" s="8" t="s">
-        <v>755</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="AX86" s="8"/>
+      <c r="AY86" s="8"/>
     </row>
     <row r="87" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H87"/>
@@ -17143,51 +16646,48 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="AY2" r:id="rId1" xr:uid="{409CF008-5245-4645-A242-A06F3969A293}"/>
-    <hyperlink ref="AY3:AY63" r:id="rId2" display="https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp4" xr:uid="{71C85481-5617-5947-BDC8-E04FAE88F145}"/>
-    <hyperlink ref="AY64:AY86" r:id="rId3" display="https://res.cloudinary.com/djl0e1p6e/video/upload/v1762564763/samples/elephants.mp4" xr:uid="{F3E6BC6D-6654-6344-94CE-B41059D564E0}"/>
-    <hyperlink ref="AX60" r:id="rId4" xr:uid="{6D6FE87D-B2B1-6448-8095-5BF50F5038B9}"/>
-    <hyperlink ref="AX61" r:id="rId5" xr:uid="{6300B616-ECE0-6440-9117-C02B9CEBB4B1}"/>
-    <hyperlink ref="AX53" r:id="rId6" xr:uid="{CC3FF9BF-7F08-6E4D-9D2E-539EC574AFFF}"/>
-    <hyperlink ref="AX54" r:id="rId7" xr:uid="{AEAA509B-12C3-4B4B-9BD4-52C2F2A8E7FD}"/>
-    <hyperlink ref="AX75" r:id="rId8" xr:uid="{AF739A31-1067-E244-BC69-5A1A18EA9C9D}"/>
-    <hyperlink ref="AX69" r:id="rId9" xr:uid="{0CC0561B-FBF6-B246-9652-3A671841A75A}"/>
-    <hyperlink ref="AX45" r:id="rId10" xr:uid="{4E36135F-11D5-BE4A-B770-AEAABBDE61E6}"/>
-    <hyperlink ref="AX81" r:id="rId11" xr:uid="{439DB451-601C-9840-AD8F-E52A8236C8D9}"/>
-    <hyperlink ref="AX49" r:id="rId12" xr:uid="{75873CB5-4162-4647-9368-B5C11489D37E}"/>
-    <hyperlink ref="AX51" r:id="rId13" xr:uid="{C3292907-97FB-A643-B51D-0960B7108503}"/>
-    <hyperlink ref="AX2" r:id="rId14" xr:uid="{707208D6-EA7B-FF4A-814B-19A0E6DA1290}"/>
-    <hyperlink ref="AX73" r:id="rId15" xr:uid="{89A3B1FA-0DF8-A84F-BB42-DAA8CFBE7A65}"/>
-    <hyperlink ref="AX3" r:id="rId16" xr:uid="{FB16C349-DCBF-5F41-8595-B16AF2F8FEAF}"/>
-    <hyperlink ref="AX7" r:id="rId17" xr:uid="{B9DE33C8-5B74-BE4B-BC1C-63A2EA6BC475}"/>
-    <hyperlink ref="AX26" r:id="rId18" xr:uid="{7383680B-EBB8-D144-A520-C9353F9F5C76}"/>
-    <hyperlink ref="AX22" r:id="rId19" xr:uid="{8A2E9758-ED6F-1B4F-AF5F-4339EBF379B0}"/>
-    <hyperlink ref="AX8" r:id="rId20" xr:uid="{C91459E3-0FDC-0A42-9DA9-F73E4D58C649}"/>
-    <hyperlink ref="AX10" r:id="rId21" xr:uid="{BD85B7B5-11AF-4E42-83A9-15CA00BAF3E3}"/>
-    <hyperlink ref="AX9" r:id="rId22" xr:uid="{E7FFA598-41F8-8544-A9B7-DCFA6722ACF4}"/>
-    <hyperlink ref="AX25" r:id="rId23" xr:uid="{0B6AD3C8-378E-0A4E-A27C-B4C571AE8E9E}"/>
-    <hyperlink ref="AX17" r:id="rId24" xr:uid="{1980DD46-4A5D-CE49-AB11-728F5919DE96}"/>
-    <hyperlink ref="AX23" r:id="rId25" xr:uid="{AE190B76-FDD0-BA4B-BFAF-29D288533928}"/>
-    <hyperlink ref="AX18" r:id="rId26" xr:uid="{6CAD1ACA-9B42-9D4C-AAAB-62CA837BAC29}"/>
-    <hyperlink ref="AX19" r:id="rId27" xr:uid="{9D1C12B2-9199-D44C-A827-E483C0AD5D54}"/>
-    <hyperlink ref="AX20" r:id="rId28" xr:uid="{C39534CA-AC8B-9E45-A9A0-3E02FFB73E54}"/>
-    <hyperlink ref="AX12" r:id="rId29" xr:uid="{1106AB31-BCE6-2946-B619-7A6F3133F4ED}"/>
-    <hyperlink ref="AX14" r:id="rId30" xr:uid="{9621AAA5-457C-5841-9DD9-2FC9C1BE1BC3}"/>
-    <hyperlink ref="AX13" r:id="rId31" xr:uid="{AFA1D841-BA8C-CD4F-B5C2-58DF47D8E8AD}"/>
-    <hyperlink ref="AX16" r:id="rId32" xr:uid="{E2FA31CF-07ED-F54D-AD6B-C19F2D4CB8F5}"/>
-    <hyperlink ref="AX6" r:id="rId33" xr:uid="{45284FF3-A607-7948-BDE1-55706433473F}"/>
-    <hyperlink ref="AX29" r:id="rId34" xr:uid="{030EBF59-C8D0-274A-9ED6-BD6CD8B35A88}"/>
-    <hyperlink ref="AX30" r:id="rId35" xr:uid="{492D201E-BE84-3C4A-874F-033BC5F9DC6C}"/>
-    <hyperlink ref="AX78" r:id="rId36" xr:uid="{4FA1DFA1-11A7-8F4B-9BD3-2A89EA3F82E6}"/>
-    <hyperlink ref="AX71" r:id="rId37" xr:uid="{D513CACB-421C-E543-8C03-3A7BDEA3807F}"/>
-    <hyperlink ref="AX74" r:id="rId38" xr:uid="{AA7E62E2-C099-DE4A-8913-313012792725}"/>
-    <hyperlink ref="AX58" r:id="rId39" xr:uid="{2C338D1A-8BE8-8A4A-BC07-2BC84E3B6E19}"/>
-    <hyperlink ref="AX57" r:id="rId40" xr:uid="{1FBF4277-EEBA-624F-9D5A-389DCDE3DD93}"/>
-    <hyperlink ref="AX59" r:id="rId41" xr:uid="{BE36CCFA-103C-C94F-BB55-D5EB4BAEC179}"/>
-    <hyperlink ref="AX62" r:id="rId42" xr:uid="{FD8A8272-674F-7245-B622-8A96313E6954}"/>
-    <hyperlink ref="AX43" r:id="rId43" xr:uid="{FCCA98D6-6D28-4C40-B348-614DC5F3C592}"/>
-    <hyperlink ref="AX42" r:id="rId44" xr:uid="{81DBB0F7-541D-454D-8AD3-C0AA6FFE1FBB}"/>
-    <hyperlink ref="AX44" r:id="rId45" xr:uid="{0D8CAF1E-8068-B64D-A6C8-5798370EB4FC}"/>
+    <hyperlink ref="AX60" r:id="rId1" xr:uid="{6D6FE87D-B2B1-6448-8095-5BF50F5038B9}"/>
+    <hyperlink ref="AX61" r:id="rId2" xr:uid="{6300B616-ECE0-6440-9117-C02B9CEBB4B1}"/>
+    <hyperlink ref="AX53" r:id="rId3" xr:uid="{CC3FF9BF-7F08-6E4D-9D2E-539EC574AFFF}"/>
+    <hyperlink ref="AX54" r:id="rId4" xr:uid="{AEAA509B-12C3-4B4B-9BD4-52C2F2A8E7FD}"/>
+    <hyperlink ref="AX75" r:id="rId5" xr:uid="{AF739A31-1067-E244-BC69-5A1A18EA9C9D}"/>
+    <hyperlink ref="AX69" r:id="rId6" xr:uid="{0CC0561B-FBF6-B246-9652-3A671841A75A}"/>
+    <hyperlink ref="AX45" r:id="rId7" xr:uid="{4E36135F-11D5-BE4A-B770-AEAABBDE61E6}"/>
+    <hyperlink ref="AX81" r:id="rId8" xr:uid="{439DB451-601C-9840-AD8F-E52A8236C8D9}"/>
+    <hyperlink ref="AX49" r:id="rId9" xr:uid="{75873CB5-4162-4647-9368-B5C11489D37E}"/>
+    <hyperlink ref="AX51" r:id="rId10" xr:uid="{C3292907-97FB-A643-B51D-0960B7108503}"/>
+    <hyperlink ref="AX2" r:id="rId11" xr:uid="{707208D6-EA7B-FF4A-814B-19A0E6DA1290}"/>
+    <hyperlink ref="AX73" r:id="rId12" xr:uid="{89A3B1FA-0DF8-A84F-BB42-DAA8CFBE7A65}"/>
+    <hyperlink ref="AX3" r:id="rId13" xr:uid="{FB16C349-DCBF-5F41-8595-B16AF2F8FEAF}"/>
+    <hyperlink ref="AX7" r:id="rId14" xr:uid="{B9DE33C8-5B74-BE4B-BC1C-63A2EA6BC475}"/>
+    <hyperlink ref="AX26" r:id="rId15" xr:uid="{7383680B-EBB8-D144-A520-C9353F9F5C76}"/>
+    <hyperlink ref="AX22" r:id="rId16" xr:uid="{8A2E9758-ED6F-1B4F-AF5F-4339EBF379B0}"/>
+    <hyperlink ref="AX8" r:id="rId17" xr:uid="{C91459E3-0FDC-0A42-9DA9-F73E4D58C649}"/>
+    <hyperlink ref="AX10" r:id="rId18" xr:uid="{BD85B7B5-11AF-4E42-83A9-15CA00BAF3E3}"/>
+    <hyperlink ref="AX9" r:id="rId19" xr:uid="{E7FFA598-41F8-8544-A9B7-DCFA6722ACF4}"/>
+    <hyperlink ref="AX25" r:id="rId20" xr:uid="{0B6AD3C8-378E-0A4E-A27C-B4C571AE8E9E}"/>
+    <hyperlink ref="AX17" r:id="rId21" xr:uid="{1980DD46-4A5D-CE49-AB11-728F5919DE96}"/>
+    <hyperlink ref="AX23" r:id="rId22" xr:uid="{AE190B76-FDD0-BA4B-BFAF-29D288533928}"/>
+    <hyperlink ref="AX18" r:id="rId23" xr:uid="{6CAD1ACA-9B42-9D4C-AAAB-62CA837BAC29}"/>
+    <hyperlink ref="AX19" r:id="rId24" xr:uid="{9D1C12B2-9199-D44C-A827-E483C0AD5D54}"/>
+    <hyperlink ref="AX20" r:id="rId25" xr:uid="{C39534CA-AC8B-9E45-A9A0-3E02FFB73E54}"/>
+    <hyperlink ref="AX12" r:id="rId26" xr:uid="{1106AB31-BCE6-2946-B619-7A6F3133F4ED}"/>
+    <hyperlink ref="AX14" r:id="rId27" xr:uid="{9621AAA5-457C-5841-9DD9-2FC9C1BE1BC3}"/>
+    <hyperlink ref="AX13" r:id="rId28" xr:uid="{AFA1D841-BA8C-CD4F-B5C2-58DF47D8E8AD}"/>
+    <hyperlink ref="AX16" r:id="rId29" xr:uid="{E2FA31CF-07ED-F54D-AD6B-C19F2D4CB8F5}"/>
+    <hyperlink ref="AX6" r:id="rId30" xr:uid="{45284FF3-A607-7948-BDE1-55706433473F}"/>
+    <hyperlink ref="AX29" r:id="rId31" xr:uid="{030EBF59-C8D0-274A-9ED6-BD6CD8B35A88}"/>
+    <hyperlink ref="AX30" r:id="rId32" xr:uid="{492D201E-BE84-3C4A-874F-033BC5F9DC6C}"/>
+    <hyperlink ref="AX78" r:id="rId33" xr:uid="{4FA1DFA1-11A7-8F4B-9BD3-2A89EA3F82E6}"/>
+    <hyperlink ref="AX71" r:id="rId34" xr:uid="{D513CACB-421C-E543-8C03-3A7BDEA3807F}"/>
+    <hyperlink ref="AX74" r:id="rId35" xr:uid="{AA7E62E2-C099-DE4A-8913-313012792725}"/>
+    <hyperlink ref="AX58" r:id="rId36" xr:uid="{2C338D1A-8BE8-8A4A-BC07-2BC84E3B6E19}"/>
+    <hyperlink ref="AX57" r:id="rId37" xr:uid="{1FBF4277-EEBA-624F-9D5A-389DCDE3DD93}"/>
+    <hyperlink ref="AX59" r:id="rId38" xr:uid="{BE36CCFA-103C-C94F-BB55-D5EB4BAEC179}"/>
+    <hyperlink ref="AX62" r:id="rId39" xr:uid="{FD8A8272-674F-7245-B622-8A96313E6954}"/>
+    <hyperlink ref="AX43" r:id="rId40" xr:uid="{FCCA98D6-6D28-4C40-B348-614DC5F3C592}"/>
+    <hyperlink ref="AX42" r:id="rId41" xr:uid="{81DBB0F7-541D-454D-8AD3-C0AA6FFE1FBB}"/>
+    <hyperlink ref="AX44" r:id="rId42" xr:uid="{0D8CAF1E-8068-B64D-A6C8-5798370EB4FC}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>

--- a/media/csv_uploads/gastronomia_establecimiento1.xlsx
+++ b/media/csv_uploads/gastronomia_establecimiento1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santigovinan/Documents/applications-django/emprendimientos/media/csv_uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654B0B93-7E14-544A-816A-C2EEEFCA55D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFF98FF-84EE-854D-A26C-2B7E9C8DE355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29580" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1760,12 +1760,6 @@
     <t>tipo turismo</t>
   </si>
   <si>
-    <t>gallery urls</t>
-  </si>
-  <si>
-    <t>photo url</t>
-  </si>
-  <si>
     <t>video url</t>
   </si>
   <si>
@@ -1781,24 +1775,12 @@
     <t>Proveedores cantonales o provin,Autoabastecimiento</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766540820/Restaurante Noroccidental Chantaco identidad1 web  ffrx4j.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766540828/Restaurante Noroccidental Chantaco instalaciones web  sils6a.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766540837/Restaurante Noroccidental Chantaco productodetail web  pctb6y.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766540866/Restaurante Noroccidental Chantaco productoppl web  jrxlbv.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766540847/Restaurante Noroccidental Chantaco productodt web  eyniob.jpg</t>
-  </si>
-  <si>
     <t>Productos orgánicos,Productos agrícolas con fertili</t>
   </si>
   <si>
     <t>Proveedores locales,Proveedores cantonales o provin</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703082/Restaurante Teresita Chantaco details web   nvpnbh.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703090/Restaurante Teresita Chantaco espacios web   xeavjo.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703098/Restaurante Teresita Chantaco identidad1 web   rg5lt3.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703104/Restaurante Teresita Chantaco productoslp web  w8ccrf.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703094/Restaurante Teresita Chantaco fachada web   jjttnm.jpg</t>
-  </si>
-  <si>
     <t>Teléfono móvil,Música ambiental</t>
   </si>
   <si>
@@ -1811,171 +1793,57 @@
     <t>Proveedores cantonales o provin,Proveedores locales</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122687/Yesenia Rest ElCisne int web  ot6exm.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122705/Yesenia Rest ElCisne prddtl web  dwohd5.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122716/Yesenia Rest ElCisne identhor web  kzbtgr.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122731/Yesenia Rest ElCisne prd web  jehva0.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122742/Yesenia Rest ElCisne prdcent web  os7z08.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122756/Yesenia Rest ElCisne prdgfr web  vycyfm.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122767/Yesenia Rest ElCisne prdtails web  zpfmml.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122675/Yesenia Rest ElCisne fachada web  zrwuup.jpg</t>
-  </si>
-  <si>
     <t>Teléfono móvil,Wifi,Audio Visuales</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703349/Cecinas Johanna ElCisne Fachada2 web  fqvn3a.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703352/Cecinas Johanna ElCisne identidadw web  lpfzpd.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703354/Cecinas Johanna ElCisne prodtaails web  osqyep.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703357/Cecinas Johanna ElCisne productodetail web  jbemwa.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703364/Cecinas Johanna ElCisne productodtl web  olaegh.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703346/Cecinas Johanna ElCisne Fachada web  tet1d2.jpg</t>
-  </si>
-  <si>
     <t>Teléfono móvil,Wifi,Música ambiental</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060428/Cuenquita Comedor ElCisne restspace web  dyibc2.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060395/Cuenquita Comedor ElCisne identidad web  ctcsht.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060399/Cuenquita Comedor ElCisne producto1 web  bsceyy.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060406/Cuenquita Comedor ElCisne productodtl web  qr8mpl.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060417/Cuenquita Comedor ElCisne productodtlll web  ggmtc4.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060428/Cuenquita Comedor ElCisne restspace web  dyibc2.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060423/Cuenquita Comedor ElCisne restspa web  xtkzw8.jpg</t>
-  </si>
-  <si>
     <t>Wifi,Teléfono móvil,Audio Visuales,Música ambiental</t>
   </si>
   <si>
     <t>A la carta</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060846/El Conquistador ElCisne producto1ft web  tllatj.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060857/El Conquistador ElCisne product2py web  ch1q48.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060868/El Conquistador ElCisne productogndt web  pxahpd.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060833/El Conquistador ElCisne fachada web  kqukht.jpg</t>
-  </si>
-  <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060706/DonaMary Restaurante ElCisne identidad web  wb1pgt.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060715/DonaMary Restaurante ElCisne produccent web  lbxcfd.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060720/DonaMary Restaurante ElCisne productdtl web  e3hn0j.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060725/DonaMary Restaurante ElCisne productsgn web  dsdfne.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060696/DonaMary Restaurante ElCisne fachada web  r6anzn.jpg</t>
-  </si>
-  <si>
     <t>Productos orgánicos</t>
   </si>
   <si>
     <t>Proveedores locales</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121648/ElBuenSabor Rest ElCisne extf web  bmstvs.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121682/ElBuenSabor Rest ElCisne ident web  qc4akh.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121671/ElBuenSabor Rest ElCisne prtcx web  vupvac.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121659/ElBuenSabor Rest ElCisne prdclp web  wo7xqq.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121691/ElBuenSabor Rest ElCisne prodxhz web  fv98dy.jpg</t>
-  </si>
-  <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122330/Nancyta Rest ElCisne ident web  jexuni.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122340/Nancyta Rest ElCisne ident2 web  fvdgrd.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122351/Nancyta Rest ElCisne prodfrg web  wnoolb.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122362/Nancyta Rest ElCisne prodonl web  vhtreu.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122372/Nancyta Rest ElCisne prodt web  avrai5.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122320/Nancyta Rest ElCisne ext2 web  mbtpea.jpg</t>
-  </si>
-  <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121890/MamiLola Rest ElCisne identidad web  ppizlb.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121875/MamiLola Rest ElCisne fachada web  ftd7ph.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121904/MamiLola Rest ElCisne productovtdtl web  ge1swz.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121914/MamiLola Rest ElCisne fachadad web  bq40ds.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121923/MamiLola Rest ElCisne fachdadtl web  r3vq7b.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121943/MamiLola Rest ElCisne producdtlce web  rayy0e.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121933/MamiLola Rest ElCisne producdtl web  llvolb.jpg</t>
-  </si>
-  <si>
     <t>Caja registradora,Wifi,Teléfono móvil,Audio Visuales</t>
   </si>
   <si>
     <t>No posee,Receta improvisada</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122547/SaboresdelCampo Rest ElCisne prdcnt web  yszsnm.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122568/SaboresdelCampo Rest ElCisne prdcndetl web  welew6.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122579/SaboresdelCampo Rest ElCisne prdcntl web  qv1byy.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122590/SaboresdelCampo Rest ElCisne prdcotrp web  alt5rl.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122535/SaboresdelCampo Rest ElCisne ident web  dn9j2l.jpg</t>
-  </si>
-  <si>
     <t>Wifi,Teléfono móvil,Música ambiental</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061680/ElTurista Cecinas Restaurante ElCisne fachadaint web  odcu0q.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061690/ElTurista Cecinas Restaurante ElCisne product web  ywuyil.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061696/ElTurista Cecinas Restaurante ElCisne identidad web  a4ugzy.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061703/ElTurista Cecinas Restaurante ElCisne productdtl web  nbjylx.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061673/ElTurista Cecinas Restaurante ElCisne fachada web  o7yd8y.jpg</t>
-  </si>
-  <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062101/LaEstanciaNaranjillo Rest ElCisne fachadaext web  fl3vtn.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062086/LaEstanciaNaranjillo Rest ElCisne product1 web  jgmmg8.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062094/LaEstanciaNaranjillo Rest ElCisne productfrdt web  tqwzqb.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062109/LaEstanciaNaranjillo Rest ElCisne identidad web  sagimq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062116/LaEstanciaNaranjillo Rest ElCisne productdetl web  h8ci4s.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062076/LaEstanciaNaranjillo Rest ElCisne fachadaet web  owyedo.jpg</t>
-  </si>
-  <si>
     <t>Wifi,Teléfono móvil,Audio Visuales,Equipos de seguridad</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062509/MamaOlla Rest ElCisne espacioh web  ahlcnn.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062493/MamaOlla Rest ElCisne espacio web  cp7hmu.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062518/MamaOlla Rest ElCisne identidad web  qebeyp.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062526/MamaOlla Rest ElCisne productdtlz web  hc2emd.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062501/MamaOlla Rest ElCisne fachada web  pa1wty.jpg</t>
-  </si>
-  <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062734/Pinto Cecinas Restaurante ElCisne producto1 web  xswrfs.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062724/Pinto Cecinas Restaurante ElCisne identidad web  y4mu53.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062744/Pinto Cecinas Restaurante ElCisne producto3 web  t3wb3k.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062762/Pinto Cecinas Restaurante ElCisne producto2 web  vnjkaw.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062771/Pinto Cecinas Restaurante ElCisne productodrk web  ixpf9g.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062780/Pinto Cecinas Restaurante ElCisne productodtl web  moca55.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062792/Pinto Cecinas Restaurante ElCisne productodtpe web  xoerik.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062753/Pinto Cecinas Restaurante ElCisne lafachada web  vdebgx.jpg</t>
-  </si>
-  <si>
     <t>Teléfono móvil</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060141/ComoenCasa Restaurante ElCisne identidad web  wukhl4.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060149/ComoenCasa Restaurante ElCisne producto2 web  ddg62d.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060152/ComoenCasa Restaurante ElCisne producto web  uxuuem.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060159/ComoenCasa Restaurante ElCisne productopgdtl web  mcvj0i.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060166/ComoenCasa Restaurante ElCisne productopg web  jy5xbu.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060138/ComoenCasa Restaurante ElCisne fachadaext web  eqlznf.jpg</t>
-  </si>
-  <si>
     <t>Cocina internacional,Cocina nacional</t>
   </si>
   <si>
     <t>Productos orgánicos,Productos procesados</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061855/Grill HouseBar ElCisne identidad web  v0u8lq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061862/Grill HouseBar ElCisne fachadaint web  hxvrhw.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061870/Grill HouseBar ElCisne productdtlsg web  s95rak.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061877/Grill HouseBar ElCisne productdtl web  meobhf.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061884/Grill HouseBar ElCisne productdtls web  di30z6.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061848/Grill HouseBar ElCisne fachadaext web  l5avim.jpg</t>
-  </si>
-  <si>
     <t>Cocina nacional,Cocina rápida</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061416/Rincon Cisteno ElCisne producto1 web  rgncia.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061425/Rincon Cisteno ElCisne producto3 web  spdjqt.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061431/Rincon Cisteno ElCisne producto5 web  jhvadu.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061436/Rincon Cisteno ElCisne identidad2 web  l2tfju.jpg</t>
-  </si>
-  <si>
     <t>Wifi,Teléfono móvil</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767059946/Comedor AlPaso ElCisne fachada2p web  sfenew.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767059950/Comedor AlPaso ElCisne identidadw web  jarjfn.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767059957/Comedor AlPaso ElCisne pescadofrito web  yo1hzw.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767059962/Comedor AlPaso ElCisne pescadofritodetcen web  qtc19f.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767059967/Comedor AlPaso ElCisne pescadofritodt web  kpahpi.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767059942/Comedor AlPaso ElCisne fachada web  hywnow.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alojamiento,Parqueadero </t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123014/ElGolosito Gualel idnt web  dtdjny.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123002/ElGolosito Gualel prdtdt web  aa0zru.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123026/ElGolosito Gualel prdclp web  alfzfl.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122990/ElGolosito Gualel ext web  mxuvuz.jpg</t>
-  </si>
-  <si>
     <t>Productos orgánicos,Productos procesados,Productos agrícolas con fertili</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123186/SaborGualasense Gualel ext web  gfoksp.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123223/SaborGualasense Gualel idnt2 web  fjugdt.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123234/SaborGualasense Gualel prd web  wmlyzy.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123249/SaborGualasense Gualel prdDD web  izdboq.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123198/SaborGualasense Gualel prdcen web  zuyxer.jpg</t>
-  </si>
-  <si>
     <t>Medios de pago digitales (Apps),Wifi</t>
   </si>
   <si>
@@ -2024,48 +1892,24 @@
     <t>Teléfono móvil,Audio Visuales,Wifi</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193482/SabordelCampo Taquil idnt web  fbrhsz.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193465/SabordelCampo Taquil prodtlio web  kv60i8.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193500/SabordelCampo Taquil prddetalle web  an3x8j.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193518/SabordelCampo Taquil prod web  spbtxm.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193538/SabordelCampo Taquil prodpg web  zfrezm.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193445/SabordelCampo Taquil ext web  waizee.jpg</t>
-  </si>
-  <si>
     <t>Computador,Caja registradora,Teléfono móvil,Wifi,Audio Visuales,Música ambiental,Estación de carga de celulares</t>
   </si>
   <si>
     <t>Alojamiento,Salón de eventos ,Deportes extremos,Spot fotográfico,Miradores,Senderos de excursión</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193122/Machay Taquil ident web  j6dcav.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193105/Machay Taquil proddetll web  ge6i6e.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193139/Machay Taquil int web  bc8edc.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193156/Machay Taquil prodcentm web  hm0q1f.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193172/Machay Taquil prodcompl web  p4058g.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193190/Machay Taquil proddetllp2 web  g7oiyh.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193207/Machay Taquil prodpcent web  rziu4y.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193226/Machay Taquil prodredm web  xquvlx.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193085/Machay Taquil ext web  hag0y9.jpg</t>
-  </si>
-  <si>
     <t>Computador,Caja registradora,Teléfono móvil,Wifi,Audio Visuales,QR del Menú,Música ambiental,Estación de carga de celulares,Medios de pago digitales (Apps)</t>
   </si>
   <si>
     <t>Alojamiento,Salón de eventos ,Senderos de excursión,Spot fotográfico</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193757/Sariri Taquil prodcent web  hwvcxr.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193793/Sariri Taquil prodant web  jp1ggm.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193812/Sariri Taquil prodbbdey web  l9ne3z.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193830/Sariri Taquil proddetal web  khcpsz.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193848/Sariri Taquil prodjusber web  tjmpk2.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193866/Sariri Taquil prodmdpd web  v6vh9r.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193738/Sariri Taquil instal web  m4ebig.jpg</t>
-  </si>
-  <si>
     <t>Computador,Software de facturación,Teléfono,Wifi,Audio Visuales,Medios de pago digitales (Apps)</t>
   </si>
   <si>
     <t>Cocina internacional</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503806/Mama Silvia Vilcabamba exteriores web  ul2pdb.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503825/Mama Silvia Vilcabamba exterioresfront web  uy9w25.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503833/Mama Silvia Vilcabamba identidad web  sze6ee.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503842/Mama Silvia Vilcabamba Instalaciones web  y0elsy.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503851/Mama Silvia Vilcabamba productodetl web  u4i3fk.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503860/Mama Silvia Vilcabamba productofront web  tfkp0j.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503816/Mama Silvia Vilcabamba productocent web  loipg5.jpg</t>
-  </si>
-  <si>
     <t>Computador,Wifi,Audio Visuales,Medios de pago digitales (Apps)</t>
   </si>
   <si>
@@ -2078,12 +1922,6 @@
     <t>https://www.instagram.com/ibelia mommy?igsh=bTIzbTA4cjExZnVu</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457402/IbelliaMommyCoffee Vilcabamba Interior web  iqs9t2.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457408/IbelliaMommyCoffee Vilcabamba ProductoF web  yxytys.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457413/IbelliaMommyCoffee Vilcabamba InteriorAp web  zfphra.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457419/IbelliaMommyCoffee Vilcabamba Gproductos web  zreyru.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457423/IbelliaMommyCoffee Vilcabamba ID web  js7sxb.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457428/IbelliaMommyCoffee Vilcabamba DetailSpgt web  gomqlw.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457433/IbelliaMommyCoffee Vilcabamba GH web  gswmrv.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457438/IbelliaMommyCoffee Vilcabamba Fachada web  piven0.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457443/IbelliaMommyCoffee Vilcabamba DetailP web  fjrqlu.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457449/IbelliaMommyCoffee Vilcabamba DetailLgs web  dn6hxj.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457397/IbelliaMommyCoffee Vilcabamba IDH web  crfldz.jpg</t>
-  </si>
-  <si>
     <t>Proveedores cantonales o provin</t>
   </si>
   <si>
@@ -2099,96 +1937,36 @@
     <t>Productos procesados,Productos orgánicos</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504611/Katherine Restaurante Vilcabamba productdtlss web  kkdzd5.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504623/Katherine Restaurante Vilcabamba identidad web  wxchix.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504633/Katherine Restaurante Vilcabamba identidad2 web  vqi8ze.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504643/Katherine Restaurante Vilcabamba instalaciones web  wns4q5.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504653/Katherine Restaurante Vilcabamba productdtlss2 web  wr9inj.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504663/Katherine Restaurante Vilcabamba productdtlss3 web  b4idza.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504673/Katherine Restaurante Vilcabamba productofrt2 web  f6ty2c.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504684/Katherine Restaurante Vilcabamba productoft web  tpxedm.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504695/Katherine Restaurante Vilcabamba productoonly web  d2j5bn.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504601/Katherine Restaurante Vilcabamba fachada web  kl9v1v.jpg</t>
-  </si>
-  <si>
     <t>Caja registradora,Computador,Software de facturación,Impresora,Datafast,Wifi,Medios de pago digitales (Apps)</t>
   </si>
   <si>
     <t>Spot fotográfico,Miradores</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1762997370/PiedraDuraVilcabamba PescadoSalsaMariscos Front web od3rig.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1762997369/PiedraDuraVilcabamba PescadoSalsaMariscos details web calnmv.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1762997366/PiedraDuraVilcabamba CevichedePescado front web fcchux.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1762997345/PiedraDuraVilcabamba CevichedePescado Cenital web i6zqij.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1762997368/PiedraDuraVilcabamba Fachada web yabily.jpg</t>
-  </si>
-  <si>
     <t>Medios de pago digitales (Apps),Wifi,Teléfono móvil</t>
   </si>
   <si>
     <t>Autoabastecimiento,Proveedores cantonales o provin,Proveedores locales</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455971/CafeyComidadeHogar Vilcabamba FachadaG web  nbkx4d.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455976/CafeyComidadeHogar Vilcabamba Indentidad web  be5aiq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455981/CafeyComidadeHogar Vilcabamba Instalaciones web  vqiw29.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455984/CafeyComidadeHogar Vilcabamba productogn web  k4qlgd.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455987/CafeyComidadeHogar Vilcabamba productopdtl web  ch2ffq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455991/CafeyComidadeHogar Vilcabamba productopg2 web  hvo4on.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456001/CafeyComidadeHogar Vilcabamba productopp1 web  w4avr0.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456004/CafeyComidadeHogar Vilcabamba productosp web  avyndh.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455965/CafeyComidadeHogar Vilcabamba Fachada web  j7awu1.jpg</t>
-  </si>
-  <si>
     <t>Teléfono móvil,Wifi,Medios de pago digitales (Apps)</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457787/LaCriollita Vilcabamba Identidad web  vcl3l2.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457794/LaCriollita Vilcabamba Infraestructura web  pokati.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457800/LaCriollita Vilcabamba Producto web  f9iuzl.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457806/LaCriollita Vilcabamba Fachada web  i1vwag.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457812/LaCriollita Vilcabamba Identidad2 web  k1eccg.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457817/LaCriollita Vilcabamba Infraestructura2 web  ifrffj.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457823/LaCriollita Vilcabamba ProductoCent web  begsff.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457829/LaCriollita Vilcabamba Sopa web  tpmpo9.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457780/LaCriollita Vilcabamba Exterior web  fmvkjb.jpg</t>
-  </si>
-  <si>
     <t>Computador,Software de facturación,Impresora,Teléfono móvil,Wifi,Medios de pago digitales (Apps)</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502830/La Terraza Vilcabamba instalaciones web  ij6s7d.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502836/La Terraza Vilcabamba productcen web  cj8bbk.jpg,  https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502844/La Terraza Vilcabamba productgll web  goaf39.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502851/La Terraza Vilcabamba identidad web  gqktdq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502857/La Terraza Vilcabamba instalaciones2 web  dwil1e.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502864/La Terraza Vilcabamba instalaciones3 web  acdttf.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502878/La Terraza Vilcabamba productdtl web  jqip7c.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502892/La Terraza Vilcabamba productogl web  dy1230.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502823/La Terraza Vilcabamba fachada web  f85btk.jpg</t>
-  </si>
-  <si>
     <t>Proveedores locales,Proveedores cantonales o provin,Autoabastecimiento</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456477/Dumplings Noodles Vilcabamba Fachada web tnkzku.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456481/Dumplings Noodles Vilcabamba Identidad web  wrotds.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456486/Dumplings Noodles Vilcabamba Producto web  eyh9ac.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456489/Dumplings Noodles Vilcabamba Instalaciones web  ulcsjh.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456492/Dumplings Noodles Vilcabamba ProductoCent web  cbaaxj.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456497/Dumplings Noodles Vilcabamba ProductoDetailDp web  dfn8ad.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456501/Dumplings Noodles Vilcabamba ProductoFront web  fzxhgx.jpg,  https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456504/Dumplings Noodles Vilcabamba ProductoDetail web  ytz90w.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456477/Dumplings Noodles Vilcabamba Fachada web tnkzku.jpg</t>
-  </si>
-  <si>
     <t>Medios de pago digitales (Apps)</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124513/QueRico Restaurante Yangana idnt web  sck2hs.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124529/QueRico Restaurante Yangana prdfrnt web  fhrtzt.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124559/QueRico Restaurante Yangana prdgr web  qv73b2.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124544/QueRico Restaurante Yangana prdg web  ndgt4j.jpg</t>
-  </si>
-  <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124232/Olivo Yangana prodplt web  pq42kc.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124247/Olivo Yangana idnt web  fchslt.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124265/Olivo Yangana idntw web  jdtrbt.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124280/Olivo Yangana prodall web  xzfhoz.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124294/Olivo Yangana prodc web  f8jnln.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124309/Olivo Yangana prodfrot web  gw8ie0.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124341/Olivo Yangana prodpltg web  uvzc10.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124358/Olivo Yangana prodqp web  y1da8t.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124393/Olivo Yangana space2 web  y2lvyb.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124216/Olivo Yangana fachada web  ytjsxg.jpg</t>
-  </si>
-  <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124683/SaboresdemiTierra Yangana idnt web  zuarbq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124714/SaboresdemiTierra Yangana prd web  hleljg.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124749/SaboresdemiTierra Yangana prdcrn web  mz1mjf.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124766/SaboresdemiTierra Yangana prddet web  rcvium.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124730/SaboresdemiTierra Yangana prdchz web  v0oopa.jpg</t>
-  </si>
-  <si>
     <t>Parqueadero ,Miradores</t>
   </si>
   <si>
     <t>https://www.instagram.com/restaurant mamaetelvina?igsh=NnA4dTNocHZ5amJu</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1764380752/MamaEtelvinaYangana Restaurante Exterior web1 xp0qrv.jpg,https://res.cloudinary.com/djl0e1p6e/image/upload/v1764380767/MamaEtelvinaYangana Restaurante Frontal web2 krkffl.jpg,https://res.cloudinary.com/djl0e1p6e/image/upload/v1764380771/MamaEtelvinaYangana Restaurante web3 buwkkp.jpg,https://res.cloudinary.com/djl0e1p6e/image/upload/v1764380775/MamaEtelvinaYangana TruchaFrita Detalle web4 nl0o4y.jpg,https://res.cloudinary.com/djl0e1p6e/image/upload/v1764380778/MamaEtelvinaYangana TruchaFrita PG web5 r582ei.jpg,https://res.cloudinary.com/djl0e1p6e/image/upload/v1764380785/MamaEtelvinaYangana TruchaFrita PM web7 vldcpn.jpg,https://res.cloudinary.com/djl0e1p6e/image/upload/v1764380782/MamaEtelvinaYangana TruchaFrita PlanoGeneral web6 uamrzg.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1764380752/MamaEtelvinaYangana Restaurante Exterior web1 xp0qrv.jpg</t>
-  </si>
-  <si>
     <t>Teléfono móvil,Wifi,Equipos de seguridad</t>
   </si>
   <si>
@@ -2198,33 +1976,15 @@
     <t>Autoabastecimiento,Proveedores cantonales o provin</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1764381322/TruchasCurishiroYangana Fachada web1 btrywj.jpg,https://res.cloudinary.com/djl0e1p6e/image/upload/v1764381337/TruchasCurishiroYangana TruchaCenital web5 ox2wmd.jpg,https://res.cloudinary.com/djl0e1p6e/image/upload/v1764381341/TruchasCurishiroYangana Propietarios web4 khyizm.jpg,https://res.cloudinary.com/djl0e1p6e/image/upload/v1764381344/TruchasCurishiroYangana Truchadetalle web6 tbwn40.jpg,https://res.cloudinary.com/djl0e1p6e/image/upload/v1764381327/TruchasCurishiroYangana ChicharonTruchaFrontal web2 e8zr7z.jpg,https://res.cloudinary.com/djl0e1p6e/image/upload/v1764381331/TruchasCurishiroYangana Espacio web o3 w6yowq.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1764381322/TruchasCurishiroYangana Fachada web1 btrywj.jpg</t>
-  </si>
-  <si>
     <t>Parqueadero ,Canchas deportivas</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124893/Sanamaqui Yangana prdtails web  ppz04n.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124910/Sanamaqui Yangana idnt web  tprquj.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124926/Sanamaqui Yangana int web  n3efvr.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124942/Sanamaqui Yangana prd web  fbcyy9.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124959/Sanamaqui Yangana prdcent web  ccihhf.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124977/Sanamaqui Yangana prddetl web  ugn2oy.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124997/Sanamaqui Yangana prdfrt web  vdrlsd.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767125017/Sanamaqui Yangana prdvt web  h5bgrm.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124877/Sanamaqui Yangana ext web  xa0rtf.jpg</t>
-  </si>
-  <si>
     <t>Computador,Wifi,Teléfono móvil,Audio Visuales,Equipos de seguridad,Música ambiental,Medios de pago digitales (Apps)</t>
   </si>
   <si>
     <t>Canchas deportivas,Alojamiento,Parqueadero ,Piscina,Hidromasaje,Miradores,Turco,Sauna</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457052/Molino Tropical Vilcabamba Instalaciones web  r4jgjm.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457056/Molino Tropical Vilcabamba Instalaciones2 web  ki8liu.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457064/Molino Tropical Vilcabamba21 web  qqfrh2.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457068/Molino Tropical Vilcabamba Plato web mcomur.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457073/Molino Tropical Vilcabamba Producto web  qblgzf.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457077/Molino Tropical Vilcabamba Producto2 web  ogo2sj.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457048/Molino Tropical Vilcabamba Identidad web  cx5vf4.jpg</t>
-  </si>
-  <si>
     <t>arianna jadan@hotmail.com</t>
   </si>
   <si>
@@ -2267,12 +2027,6 @@
     <t>https://www.instagram.com/gerry  pizza?igsh=MW9ocGs5bHM1Mmk2MQ==</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503562/Las Delicias de Paquita Vilcabamba productoG web  kyvqta.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503569/Las Delicias de Paquita Vilcabamba productodtl web  h1u5ki.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503577/Las Delicias de Paquita Vilcabamba productodtly web  rblsqu.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503585/Las delicias de Paquita Yangana  prd33 web jpg ggepfe.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503593/Las delicias de Paquita Yangana instalaciones pg web jpg klc1xj.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503601/Las delicias de Paquita Yangana instlacionesi  web jpg xdciqw.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503552/Las Delicias de Paquita Vilcabamba productod web  gfmlb7.jpg</t>
-  </si>
-  <si>
     <t>elizabeth26 vilcabamna@hotmail.com</t>
   </si>
   <si>
@@ -2282,12 +2036,6 @@
     <t>https://www.instagram.com/escondite de quezada?igsh=MWw1cXNzdXRhbTNnYg==</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123638/EsconditedeQuezada Santiago idnt2 web  qh61jh.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123653/EsconditedeQuezada Santiago prdcldg web  aw95zw.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123668/EsconditedeQuezada Santiago inter web  smtfmo.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123696/EsconditedeQuezada Santiago prdchasd web  o4mbgg.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123709/EsconditedeQuezada Santiago prdcosdt web  fhqhqr.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123725/EsconditedeQuezada Santiago prdcost web  bmirsp.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123740/EsconditedeQuezada Santiago prdcv web  lwwyvy.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123740/EsconditedeQuezada Santiago prdcv web  lwwyvy.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123788/EsconditedeQuezada Santiago prddclp web  wm43tm.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123788/EsconditedeQuezada Santiago prddclp web  wm43tm.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123837/EsconditedeQuezada Santiago prdtll web  g4hl7h.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123682/EsconditedeQuezada Santiago interx2f web  hpido6.jpg</t>
-  </si>
-  <si>
     <t>https://www.instagram.com/chifa yunnan ?igsh=eTltaXFrMXI4bHBm</t>
   </si>
   <si>
@@ -2297,12 +2045,6 @@
     <t>https://www.instagram.com/villabeatriz vilcabamba?igsh=MWFpMjNrbnA0c2YzMw==</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766541423/Villa Beatriz Vilcabamba EXPG web  ntgwr8.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766541435/Villa Beatriz Vilcabamba fachadaext2 web  wadczk.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766541456/Villa Beatriz Vilcabamba fachada web  mnabyu.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766541466/Villa Beatriz Vilcabamba fachadaext web  vkidmk.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766541477/Villa Beatriz Vilcabamba HBPG web  ykemp1.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766541487/Villa Beatriz Vilcabamba iPG web  cuywk9.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766541445/Villa Beatriz Vilcabamba extpg web  repiic.jpg</t>
-  </si>
-  <si>
     <t>Wifi,Teléfono móvil,Medios de pago digitales (Apps)</t>
   </si>
   <si>
@@ -2312,30 +2054,12 @@
     <t>Cocina nacional,other</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123971/EstanciaAlcivar Santiago ext2 web  lwyi0i.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123957/EstanciaAlcivar Santiago prdf web  va5gnq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123986/EstanciaAlcivar Santiago idntv web  egqbdn.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124001/EstanciaAlcivar Santiago int web  gel6jl.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124015/EstanciaAlcivar Santiago int2 web  v7unfw.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124031/EstanciaAlcivar Santiago prdfdt web  w3amqs.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123941/EstanciaAlcivar Santiago ext web  q52qph.jpg</t>
-  </si>
-  <si>
     <t>Receta estándar,Receta improvisada</t>
   </si>
   <si>
     <t>https://www.instagram.com/baguette ec?igsh=MWttenQ1ajR4b3Rveg==</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503220/La Baguette Vilcabamba Fachada web  ro2zbj.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503237/La Baguette Vilcabamba productodtl2 web  ftdj8x.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503246/La Baguette Vilcabamba productogn4 web  zfdlwn.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503253/La Baguette Vilcabamba Identidad web  cz3sgc.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503261/La Baguette Vilcabamba Instalaciones web  yxz79z.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503272/La Baguette Vilcabamba productodt6 web  rynbw2.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503283/La Baguette Vilcabamba productodtl web  n26dgg.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503291/La Baguette Vilcabamba productodtl3 web  sx3fxi.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503299/La Baguette Vilcabamba productogn web  rjuvhg.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503228/La Baguette Vilcabamba Instalaciones2 web  ryfyll.jpg</t>
-  </si>
-  <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123381/ElBuenSazondeQuinara Quinara prddetalle web  fhw2vg.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123394/ElBuenSazondeQuinara Quinara idnt web  eviwpi.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123419/ElBuenSazondeQuinara Quinara int web  vg69nd.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123431/ElBuenSazondeQuinara Quinara prd web  bnq6lf.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123444/ElBuenSazondeQuinara Quinara prdetallec web  nb3iza.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123457/ElBuenSazondeQuinara Quinara prdft web  gh3czh.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123474/ElBuenSazondeQuinara Quinara prdjh web  ey9sub.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123487/ElBuenSazondeQuinara Quinara prdpgg web  ncohdo.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123368/ElBuenSazondeQuinara Quinara ext web  clzf7r.jpg</t>
-  </si>
-  <si>
     <t>Servicio Domicilio</t>
   </si>
   <si>
@@ -2345,23 +2069,6 @@
     <t>Medios de pago digitales (Apps),Teléfono móvil,Wifi</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504308/Oriundo Vilcabamba productodtft web  toomhe.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504317/Oriundo Vilcabamba productognf web  dr36s9.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504327/Oriundo Vilcabamba fachadafr web  u0aijd.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504335/Oriundo Vilcabamba identidad web  jficnp.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504345/Oriundo Vilcabamba productocent web  uxrym2.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504354/Oriundo Vilcabamba productodtls web  ubzw2x.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504363/Oriundo Vilcabamba productoggg web  c0ene4.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504372/Oriundo Vilcabamba productogn web  j6stgx.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504298/Oriundo Vilcabamba fachadadtl web  ifhyt7.jpg</t>
-  </si>
-  <si>
-    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455971/CafeyComidadeHogar Vilcabamba FachadaG web  nbkx4d.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455976/CafeyComidadeHogar Vilcabamba Indentidad web  be5aiq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455981/CafeyComidadeHogar Vilcabamba Instalaciones web  vqiw29.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455984/CafeyComidadeHogar Vilcabamba productogn web  k4qlgd.jpg,
-https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455987/CafeyComidadeHogar Vilcabamba productopdtl web  ch2ffq.jpg, 
-https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455991/CafeyComidadeHogar Vilcabamba productopg2 web  hvo4on.jpg,
-https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455995/CafeyComidadeHogar Vilcabamba productopg3 web  wbzkke.jpg,
-https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456001/CafeyComidadeHogar Vilcabamba productopp1 web  w4avr0.jpg,
-https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456004/CafeyComidadeHogar Vilcabamba productosp web  avyndh.jpg}</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455971/CafeyComidadeHogar Vilcabamba FachadaG web  nbkx4d.jpg</t>
-  </si>
-  <si>
     <t>Pesca deportiva</t>
   </si>
   <si>
@@ -2387,6 +2094,299 @@
   </si>
   <si>
     <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1768186163/DescansodelToro_Vilcabamba_restprodext_web__d2hur6.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768186184/DescansodelToro_Vilcabamba_fachadaint_web__kzmieb.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768186204/DescansodelToro_Vilcabamba_fachadarest_web__llbzao.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768186226/DescansodelToro_Vilcabamba_fachadarestsunset_web__bfacne.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768186255/DescansodelToro_Vilcabamba_inrest_web__gm1iuh.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768186284/DescansodelToro_Vilcabamba_restprod_web__mvgaqa.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768186317/DescansodelToro_Vilcabamba_restprodcent_web__miyzym.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768186337/DescansodelToro_Vilcabamba_restprodfrnt_web__pwu1yh.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766540847/Restaurante_Noroccidental_Chantaco_productodt_web__eyniob.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703082/Restaurante_Teresita_Chantaco_details_web___nvpnbh.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703090/Restaurante_Teresita_Chantaco_espacios_web___xeavjo.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703098/Restaurante_Teresita_Chantaco_identidad1_web___rg5lt3.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703104/Restaurante_Teresita_Chantaco_productoslp_web__w8ccrf.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703094/Restaurante_Teresita_Chantaco_fachada_web___jjttnm.jpg</t>
+  </si>
+  <si>
+    <t>photo_url</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122675/Yesenia_Rest_ElCisne_fachada_web__zrwuup.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703346/Cecinas_Johanna_ElCisne_Fachada_web__tet1d2.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060423/Cuenquita_Comedor_ElCisne_restspa_web__xtkzw8.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060833/El_Conquistador_ElCisne_fachada_web__kqukht.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060696/DonaMary_Restaurante_ElCisne_fachada_web__r6anzn.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121691/ElBuenSabor_Rest_ElCisne_prodxhz_web__fv98dy.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122320/Nancyta_Rest_ElCisne_ext2_web__mbtpea.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121933/MamiLola_Rest_ElCisne_producdtl_web__llvolb.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122535/SaboresdelCampo_Rest_ElCisne_ident_web__dn9j2l.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061673/ElTurista_Cecinas_Restaurante_ElCisne_fachada_web__o7yd8y.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062076/LaEstanciaNaranjillo_Rest_ElCisne_fachadaet_web__owyedo.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062501/MamaOlla_Rest_ElCisne_fachada_web__pa1wty.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062753/Pinto_Cecinas_Restaurante_ElCisne_lafachada_web__vdebgx.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060138/ComoenCasa_Restaurante_ElCisne_fachadaext_web__eqlznf.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061848/Grill_HouseBar_ElCisne_fachadaext_web__l5avim.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061436/Rincon_Cisteno_ElCisne_identidad2_web__l2tfju.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767059942/Comedor_AlPaso_ElCisne_fachada_web__hywnow.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122990/ElGolosito_Gualel_ext_web__mxuvuz.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123198/SaborGualasense_Gualel_prdcen_web__zuyxer.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193445/SabordelCampo_Taquil_ext_web__waizee.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193085/Machay_Taquil_ext_web__hag0y9.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193738/Sariri_Taquil_instal_web__m4ebig.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503816/Mama_Silvia_Vilcabamba_productocent_web__loipg5.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457397/IbelliaMommyCoffee_Vilcabamba_IDH_web__crfldz.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504601/Katherine_Restaurante_Vilcabamba_fachada_web__kl9v1v.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455965/CafeyComidadeHogar_Vilcabamba_Fachada_web__j7awu1.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457780/LaCriollita_Vilcabamba_Exterior_web__fmvkjb.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502823/La_Terraza_Vilcabamba_fachada_web__f85btk.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456477/Dumplings_Noodles_Vilcabamba_Fachada_web_tnkzku.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124544/QueRico_Restaurante_Yangana_prdg_web__ndgt4j.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124216/Olivo_Yangana_fachada_web__ytjsxg.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124730/SaboresdemiTierra_Yangana_prdchz_web__v0oopa.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1764380752/MamaEtelvinaYangana_Restaurante_Exterior_web1_xp0qrv.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1764381322/TruchasCurishiroYangana_Fachada_web1_btrywj.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124877/Sanamaqui_Yangana_ext_web__xa0rtf.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457048/Molino_Tropical_Vilcabamba_Identidad_web__cx5vf4.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1762997368/PiedraDuraVilcabamba_Fachada_web_yabily.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503552/Las_Delicias_de_Paquita_Vilcabamba_productod_web__gfmlb7.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123682/EsconditedeQuezada_Santiago_interx2f_web__hpido6.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766541445/Villa_Beatriz_Vilcabamba_extpg_web__repiic.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123941/EstanciaAlcivar_Santiago_ext_web__q52qph.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503228/La_Baguette_Vilcabamba_Instalaciones2_web__ryfyll.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123368/ElBuenSazondeQuinara_Quinara_ext_web__clzf7r.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504298/Oriundo_Vilcabamba_fachadadtl_web__ifhyt7.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455971/CafeyComidadeHogar_Vilcabamba_FachadaG_web__nbkx4d.jpg</t>
+  </si>
+  <si>
+    <t>gallery_urls</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1764380752/MamaEtelvinaYangana_Restaurante_Exterior_web1_xp0qrv.jpg,https://res.cloudinary.com/djl0e1p6e/image/upload/v1764380767/MamaEtelvinaYangana_Restaurante_Frontal_web2_krkffl.jpg,https://res.cloudinary.com/djl0e1p6e/image/upload/v1764380771/MamaEtelvinaYangana_Restaurante_web3_buwkkp.jpg,https://res.cloudinary.com/djl0e1p6e/image/upload/v1764380775/MamaEtelvinaYangana_TruchaFrita_Detalle_web4_nl0o4y.jpg,https://res.cloudinary.com/djl0e1p6e/image/upload/v1764380778/MamaEtelvinaYangana_TruchaFrita_PG_web5_r582ei.jpg,https://res.cloudinary.com/djl0e1p6e/image/upload/v1764380785/MamaEtelvinaYangana_TruchaFrita_PM_web7_vldcpn.jpg,https://res.cloudinary.com/djl0e1p6e/image/upload/v1764380782/MamaEtelvinaYangana_TruchaFrita_PlanoGeneral_web6_uamrzg.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1764381322/TruchasCurishiroYangana_Fachada_web1_btrywj.jpg,https://res.cloudinary.com/djl0e1p6e/image/upload/v1764381337/TruchasCurishiroYangana_TruchaCenital_web5_ox2wmd.jpg,https://res.cloudinary.com/djl0e1p6e/image/upload/v1764381341/TruchasCurishiroYangana_Propietarios_web4_khyizm.jpg,https://res.cloudinary.com/djl0e1p6e/image/upload/v1764381344/TruchasCurishiroYangana_Truchadetalle_web6_tbwn40.jpg,https://res.cloudinary.com/djl0e1p6e/image/upload/v1764381327/TruchasCurishiroYangana_ChicharonTruchaFrontal_web2_e8zr7z.jpg,https://res.cloudinary.com/djl0e1p6e/image/upload/v1764381331/TruchasCurishiroYangana_Espacio_web_o3_w6yowq.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766540820/Restaurante_Noroccidental_Chantaco_identidad1_web__ffrx4j.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766540828/Restaurante_Noroccidental_Chantaco_instalaciones_web__sils6a.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766540837/Restaurante_Noroccidental_Chantaco_productodetail_web__pctb6y.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766540866/Restaurante_Noroccidental_Chantaco_productoppl_web__jrxlbv.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122687/Yesenia_Rest_ElCisne_int_web__ot6exm.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122705/Yesenia_Rest_ElCisne_prddtl_web__dwohd5.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122716/Yesenia_Rest_ElCisne_identhor_web__kzbtgr.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122731/Yesenia_Rest_ElCisne_prd_web__jehva0.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122742/Yesenia_Rest_ElCisne_prdcent_web__os7z08.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122756/Yesenia_Rest_ElCisne_prdgfr_web__vycyfm.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122767/Yesenia_Rest_ElCisne_prdtails_web__zpfmml.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703349/Cecinas_Johanna_ElCisne_Fachada2_web__fqvn3a.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703352/Cecinas_Johanna_ElCisne_identidadw_web__lpfzpd.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703354/Cecinas_Johanna_ElCisne_prodtaails_web__osqyep.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703357/Cecinas_Johanna_ElCisne_productodetail_web__jbemwa.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703364/Cecinas_Johanna_ElCisne_productodtl_web__olaegh.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060428/Cuenquita_Comedor_ElCisne_restspace_web__dyibc2.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060395/Cuenquita_Comedor_ElCisne_identidad_web__ctcsht.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060399/Cuenquita_Comedor_ElCisne_producto1_web__bsceyy.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060406/Cuenquita_Comedor_ElCisne_productodtl_web__qr8mpl.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060417/Cuenquita_Comedor_ElCisne_productodtlll_web__ggmtc4.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060428/Cuenquita_Comedor_ElCisne_restspace_web__dyibc2.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060846/El_Conquistador_ElCisne_producto1ft_web__tllatj.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060857/El_Conquistador_ElCisne_product2py_web__ch1q48.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060868/El_Conquistador_ElCisne_productogndt_web__pxahpd.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060706/DonaMary_Restaurante_ElCisne_identidad_web__wb1pgt.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060715/DonaMary_Restaurante_ElCisne_produccent_web__lbxcfd.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060720/DonaMary_Restaurante_ElCisne_productdtl_web__e3hn0j.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060725/DonaMary_Restaurante_ElCisne_productsgn_web__dsdfne.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121648/ElBuenSabor_Rest_ElCisne_extf_web__bmstvs.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121682/ElBuenSabor_Rest_ElCisne_ident_web__qc4akh.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121671/ElBuenSabor_Rest_ElCisne_prtcx_web__vupvac.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121659/ElBuenSabor_Rest_ElCisne_prdclp_web__wo7xqq.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122330/Nancyta_Rest_ElCisne_ident_web__jexuni.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122340/Nancyta_Rest_ElCisne_ident2_web__fvdgrd.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122351/Nancyta_Rest_ElCisne_prodfrg_web__wnoolb.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122362/Nancyta_Rest_ElCisne_prodonl_web__vhtreu.jpg,https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122372/Nancyta_Rest_ElCisne_prodt_web__avrai5.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121890/MamiLola_Rest_ElCisne_identidad_web__ppizlb.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121875/MamiLola_Rest_ElCisne_fachada_web__ftd7ph.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121904/MamiLola_Rest_ElCisne_productovtdtl_web__ge1swz.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121914/MamiLola_Rest_ElCisne_fachadad_web__bq40ds.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121923/MamiLola_Rest_ElCisne_fachdadtl_web__r3vq7b.jpg,https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121943/MamiLola_Rest_ElCisne_producdtlce_web__rayy0e.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122547/SaboresdelCampo_Rest_ElCisne_prdcnt_web__yszsnm.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122568/SaboresdelCampo_Rest_ElCisne_prdcndetl_web__welew6.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122579/SaboresdelCampo_Rest_ElCisne_prdcntl_web__qv1byy.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122590/SaboresdelCampo_Rest_ElCisne_prdcotrp_web__alt5rl.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061680/ElTurista_Cecinas_Restaurante_ElCisne_fachadaint_web__odcu0q.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061690/ElTurista_Cecinas_Restaurante_ElCisne_product_web__ywuyil.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061696/ElTurista_Cecinas_Restaurante_ElCisne_identidad_web__a4ugzy.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061703/ElTurista_Cecinas_Restaurante_ElCisne_productdtl_web__nbjylx.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062101/LaEstanciaNaranjillo_Rest_ElCisne_fachadaext_web__fl3vtn.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062086/LaEstanciaNaranjillo_Rest_ElCisne_product1_web__jgmmg8.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062094/LaEstanciaNaranjillo_Rest_ElCisne_productfrdt_web__tqwzqb.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062109/LaEstanciaNaranjillo_Rest_ElCisne_identidad_web__sagimq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062116/LaEstanciaNaranjillo_Rest_ElCisne_productdetl_web__h8ci4s.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062509/MamaOlla_Rest_ElCisne_espacioh_web__ahlcnn.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062493/MamaOlla_Rest_ElCisne_espacio_web__cp7hmu.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062518/MamaOlla_Rest_ElCisne_identidad_web__qebeyp.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062526/MamaOlla_Rest_ElCisne_productdtlz_web__hc2emd.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062734/Pinto_Cecinas_Restaurante_ElCisne_producto1_web__xswrfs.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062724/Pinto_Cecinas_Restaurante_ElCisne_identidad_web__y4mu53.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062744/Pinto_Cecinas_Restaurante_ElCisne_producto3_web__t3wb3k.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062762/Pinto_Cecinas_Restaurante_ElCisne_producto2_web__vnjkaw.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062771/Pinto_Cecinas_Restaurante_ElCisne_productodrk_web__ixpf9g.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062780/Pinto_Cecinas_Restaurante_ElCisne_productodtl_web__moca55.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062792/Pinto_Cecinas_Restaurante_ElCisne_productodtpe_web__xoerik.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060141/ComoenCasa_Restaurante_ElCisne_identidad_web__wukhl4.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060149/ComoenCasa_Restaurante_ElCisne_producto2_web__ddg62d.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060152/ComoenCasa_Restaurante_ElCisne_producto_web__uxuuem.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060159/ComoenCasa_Restaurante_ElCisne_productopgdtl_web__mcvj0i.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060166/ComoenCasa_Restaurante_ElCisne_productopg_web__jy5xbu.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061855/Grill_HouseBar_ElCisne_identidad_web__v0u8lq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061862/Grill_HouseBar_ElCisne_fachadaint_web__hxvrhw.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061870/Grill_HouseBar_ElCisne_productdtlsg_web__s95rak.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061877/Grill_HouseBar_ElCisne_productdtl_web__meobhf.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061884/Grill_HouseBar_ElCisne_productdtls_web__di30z6.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061416/Rincon_Cisteno_ElCisne_producto1_web__rgncia.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061425/Rincon_Cisteno_ElCisne_producto3_web__spdjqt.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061431/Rincon_Cisteno_ElCisne_producto5_web__jhvadu.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767059946/Comedor_AlPaso_ElCisne_fachada2p_web__sfenew.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767059950/Comedor_AlPaso_ElCisne_identidadw_web__jarjfn.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767059957/Comedor_AlPaso_ElCisne_pescadofrito_web__yo1hzw.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767059962/Comedor_AlPaso_ElCisne_pescadofritodetcen_web__qtc19f.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767059967/Comedor_AlPaso_ElCisne_pescadofritodt_web__kpahpi.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123014/ElGolosito_Gualel_idnt_web__dtdjny.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123002/ElGolosito_Gualel_prdtdt_web__aa0zru.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123026/ElGolosito_Gualel_prdclp_web__alfzfl.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123186/SaborGualasense_Gualel_ext_web__gfoksp.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123223/SaborGualasense_Gualel_idnt2_web__fjugdt.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123234/SaborGualasense_Gualel_prd_web__wmlyzy.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123249/SaborGualasense_Gualel_prdDD_web__izdboq.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193482/SabordelCampo_Taquil_idnt_web__fbrhsz.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193465/SabordelCampo_Taquil_prodtlio_web__kv60i8.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193500/SabordelCampo_Taquil_prddetalle_web__an3x8j.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193518/SabordelCampo_Taquil_prod_web__spbtxm.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193538/SabordelCampo_Taquil_prodpg_web__zfrezm.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193122/Machay_Taquil_ident_web__j6dcav.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193105/Machay_Taquil_proddetll_web__ge6i6e.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193139/Machay_Taquil_int_web__bc8edc.jpg,_https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193156/Machay_Taquil_prodcentm_web__hm0q1f.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193172/Machay_Taquil_prodcompl_web__p4058g.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193190/Machay_Taquil_proddetllp2_web__g7oiyh.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193207/Machay_Taquil_prodpcent_web__rziu4y.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193226/Machay_Taquil_prodredm_web__xquvlx.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193757/Sariri_Taquil_prodcent_web__hwvcxr.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193793/Sariri_Taquil_prodant_web__jp1ggm.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193812/Sariri_Taquil_prodbbdey_web__l9ne3z.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193830/Sariri_Taquil_proddetal_web__khcpsz.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193848/Sariri_Taquil_prodjusber_web__tjmpk2.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193866/Sariri_Taquil_prodmdpd_web__v6vh9r.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503806/Mama_Silvia_Vilcabamba_exteriores_web__ul2pdb.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503825/Mama_Silvia_Vilcabamba_exterioresfront_web__uy9w25.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503833/Mama_Silvia_Vilcabamba_identidad_web__sze6ee.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503842/Mama_Silvia_Vilcabamba_Instalaciones_web__y0elsy.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503851/Mama_Silvia_Vilcabamba_productodetl_web__u4i3fk.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503860/Mama_Silvia_Vilcabamba_productofront_web__tfkp0j.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457402/IbelliaMommyCoffee_Vilcabamba_Interior_web__iqs9t2.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457408/IbelliaMommyCoffee_Vilcabamba_ProductoF_web__yxytys.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457413/IbelliaMommyCoffee_Vilcabamba_InteriorAp_web__zfphra.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457419/IbelliaMommyCoffee_Vilcabamba_Gproductos_web__zreyru.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457423/IbelliaMommyCoffee_Vilcabamba_ID_web__js7sxb.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457428/IbelliaMommyCoffee_Vilcabamba_DetailSpgt_web__gomqlw.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457433/IbelliaMommyCoffee_Vilcabamba_GH_web__gswmrv.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457438/IbelliaMommyCoffee_Vilcabamba_Fachada_web__piven0.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457443/IbelliaMommyCoffee_Vilcabamba_DetailP_web__fjrqlu.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457449/IbelliaMommyCoffee_Vilcabamba_DetailLgs_web__dn6hxj.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504611/Katherine_Restaurante_Vilcabamba_productdtlss_web__kkdzd5.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504623/Katherine_Restaurante_Vilcabamba_identidad_web__wxchix.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504633/Katherine_Restaurante_Vilcabamba_identidad2_web__vqi8ze.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504643/Katherine_Restaurante_Vilcabamba_instalaciones_web__wns4q5.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504653/Katherine_Restaurante_Vilcabamba_productdtlss2_web__wr9inj.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504663/Katherine_Restaurante_Vilcabamba_productdtlss3_web__b4idza.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504673/Katherine_Restaurante_Vilcabamba_productofrt2_web__f6ty2c.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504684/Katherine_Restaurante_Vilcabamba_productoft_web__tpxedm.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504695/Katherine_Restaurante_Vilcabamba_productoonly_web__d2j5bn.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455971/CafeyComidadeHogar_Vilcabamba_FachadaG_web__nbkx4d.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455976/CafeyComidadeHogar_Vilcabamba_Indentidad_web__be5aiq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455981/CafeyComidadeHogar_Vilcabamba_Instalaciones_web__vqiw29.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455984/CafeyComidadeHogar_Vilcabamba_productogn_web__k4qlgd.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455987/CafeyComidadeHogar_Vilcabamba_productopdtl_web__ch2ffq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455991/CafeyComidadeHogar_Vilcabamba_productopg2_web__hvo4on.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456001/CafeyComidadeHogar_Vilcabamba_productopp1_web__w4avr0.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456004/CafeyComidadeHogar_Vilcabamba_productosp_web__avyndh.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457787/LaCriollita_Vilcabamba_Identidad_web__vcl3l2.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457794/LaCriollita_Vilcabamba_Infraestructura_web__pokati.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457800/LaCriollita_Vilcabamba_Producto_web__f9iuzl.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457806/LaCriollita_Vilcabamba_Fachada_web__i1vwag.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457812/LaCriollita_Vilcabamba_Identidad2_web__k1eccg.jpg,_https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457817/LaCriollita_Vilcabamba_Infraestructura2_web__ifrffj.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457823/LaCriollita_Vilcabamba_ProductoCent_web__begsff.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457829/LaCriollita_Vilcabamba_Sopa_web__tpmpo9.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502830/La_Terraza_Vilcabamba_instalaciones_web__ij6s7d.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502836/La_Terraza_Vilcabamba_productcen_web__cj8bbk.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502844/La_Terraza_Vilcabamba_productgll_web__goaf39.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502851/La_Terraza_Vilcabamba_identidad_web__gqktdq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502857/La_Terraza_Vilcabamba_instalaciones2_web__dwil1e.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502864/La_Terraza_Vilcabamba_instalaciones3_web__acdttf.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502878/La_Terraza_Vilcabamba_productdtl_web__jqip7c.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502892/La_Terraza_Vilcabamba_productogl_web__dy1230.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456477/Dumplings_Noodles_Vilcabamba_Fachada_web_tnkzku.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456481/Dumplings_Noodles_Vilcabamba_Identidad_web__wrotds.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456486/Dumplings_Noodles_Vilcabamba_Producto_web__eyh9ac.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456489/Dumplings_Noodles_Vilcabamba_Instalaciones_web__ulcsjh.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456492/Dumplings_Noodles_Vilcabamba_ProductoCent_web__cbaaxj.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456497/Dumplings_Noodles_Vilcabamba_ProductoDetailDp_web__dfn8ad.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456501/Dumplings_Noodles_Vilcabamba_ProductoFront_web__fzxhgx.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456504/Dumplings_Noodles_Vilcabamba_ProductoDetail_web__ytz90w.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124513/QueRico_Restaurante_Yangana_idnt_web__sck2hs.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124529/QueRico_Restaurante_Yangana_prdfrnt_web__fhrtzt.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124559/QueRico_Restaurante_Yangana_prdgr_web__qv73b2.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124232/Olivo_Yangana_prodplt_web__pq42kc.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124247/Olivo_Yangana_idnt_web__fchslt.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124265/Olivo_Yangana_idntw_web__jdtrbt.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124280/Olivo_Yangana_prodall_web__xzfhoz.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124294/Olivo_Yangana_prodc_web__f8jnln.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124309/Olivo_Yangana_prodfrot_web__gw8ie0.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124341/Olivo_Yangana_prodpltg_web__uvzc10.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124358/Olivo_Yangana_prodqp_web__y1da8t.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124393/Olivo_Yangana_space2_web__y2lvyb.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124683/SaboresdemiTierra_Yangana_idnt_web__zuarbq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124714/SaboresdemiTierra_Yangana_prd_web__hleljg.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124749/SaboresdemiTierra_Yangana_prdcrn_web__mz1mjf.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124766/SaboresdemiTierra_Yangana_prddet_web__rcvium.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124893/Sanamaqui_Yangana_prdtails_web__ppz04n.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124910/Sanamaqui_Yangana_idnt_web__tprquj.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124926/Sanamaqui_Yangana_int_web__n3efvr.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124942/Sanamaqui_Yangana_prd_web__fbcyy9.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124959/Sanamaqui_Yangana_prdcent_web__ccihhf.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124977/Sanamaqui_Yangana_prddetl_web__ugn2oy.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124997/Sanamaqui_Yangana_prdfrt_web__vdrlsd.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767125017/Sanamaqui_Yangana_prdvt_web__h5bgrm.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457052/Molino_Tropical_Vilcabamba_Instalaciones_web__r4jgjm.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457056/Molino_Tropical_Vilcabamba_Instalaciones2_web__ki8liu.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457064/Molino_Tropical_Vilcabamba21_web__qqfrh2.jpg,_https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457068/Molino_Tropical_Vilcabamba_Plato_web_mcomur.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457073/Molino_Tropical_Vilcabamba_Producto_web__qblgzf.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457077/Molino_Tropical_Vilcabamba_Producto2_web__ogo2sj.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1762997370/PiedraDuraVilcabamba_PescadoSalsaMariscos_Front_web_od3rig.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1762997369/PiedraDuraVilcabamba_PescadoSalsaMariscos_details_web_calnmv.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1762997366/PiedraDuraVilcabamba_CevichedePescado_front_web_fcchux.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1762997345/PiedraDuraVilcabamba_CevichedePescado_Cenital_web_i6zqij.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503562/Las_Delicias_de_Paquita_Vilcabamba_productoG_web__kyvqta.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503569/Las_Delicias_de_Paquita_Vilcabamba_productodtl_web__h1u5ki.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503577/Las_Delicias_de_Paquita_Vilcabamba_productodtly_web__rblsqu.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503585/Las_delicias_de_Paquita_Yangana__prd33_web_jpg_ggepfe.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503593/Las_delicias_de_Paquita_Yangana_instalaciones_pg_web_jpg_klc1xj.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503601/Las_delicias_de_Paquita_Yangana_instlacionesi__web_jpg_xdciqw.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123638/EsconditedeQuezada_Santiago_idnt2_web__qh61jh.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123653/EsconditedeQuezada_Santiago_prdcldg_web__aw95zw.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123668/EsconditedeQuezada_Santiago_inter_web__smtfmo.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123696/EsconditedeQuezada_Santiago_prdchasd_web__o4mbgg.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123709/EsconditedeQuezada_Santiago_prdcosdt_web__fhqhqr.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123725/EsconditedeQuezada_Santiago_prdcost_web__bmirsp.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123740/EsconditedeQuezada_Santiago_prdcv_web__lwwyvy.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123740/EsconditedeQuezada_Santiago_prdcv_web__lwwyvy.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123788/EsconditedeQuezada_Santiago_prddclp_web__wm43tm.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123788/EsconditedeQuezada_Santiago_prddclp_web__wm43tm.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123837/EsconditedeQuezada_Santiago_prdtll_web__g4hl7h.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766541423/Villa_Beatriz_Vilcabamba_EXPG_web__ntgwr8.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766541435/Villa_Beatriz_Vilcabamba_fachadaext2_web__wadczk.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766541456/Villa_Beatriz_Vilcabamba_fachada_web__mnabyu.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766541466/Villa_Beatriz_Vilcabamba_fachadaext_web__vkidmk.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766541477/Villa_Beatriz_Vilcabamba_HBPG_web__ykemp1.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766541487/Villa_Beatriz_Vilcabamba_iPG_web__cuywk9.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123971/EstanciaAlcivar_Santiago_ext2_web__lwyi0i.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123957/EstanciaAlcivar_Santiago_prdf_web__va5gnq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123986/EstanciaAlcivar_Santiago_idntv_web__egqbdn.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124001/EstanciaAlcivar_Santiago_int_web__gel6jl.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124015/EstanciaAlcivar_Santiago_int2_web__v7unfw.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124031/EstanciaAlcivar_Santiago_prdfdt_web__w3amqs.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503220/La_Baguette_Vilcabamba_Fachada_web__ro2zbj.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503237/La_Baguette_Vilcabamba_productodtl2_web__ftdj8x.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503246/La_Baguette_Vilcabamba_productogn4_web__zfdlwn.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503253/La_Baguette_Vilcabamba_Identidad_web__cz3sgc.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503261/La_Baguette_Vilcabamba_Instalaciones_web__yxz79z.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503272/La_Baguette_Vilcabamba_productodt6_web__rynbw2.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503283/La_Baguette_Vilcabamba_productodtl_web__n26dgg.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503291/La_Baguette_Vilcabamba_productodtl3_web__sx3fxi.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503299/La_Baguette_Vilcabamba_productogn_web__rjuvhg.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123381/ElBuenSazondeQuinara_Quinara_prddetalle_web__fhw2vg.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123394/ElBuenSazondeQuinara_Quinara_idnt_web__eviwpi.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123419/ElBuenSazondeQuinara_Quinara_int_web__vg69nd.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123431/ElBuenSazondeQuinara_Quinara_prd_web__bnq6lf.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123444/ElBuenSazondeQuinara_Quinara_prdetallec_web__nb3iza.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123457/ElBuenSazondeQuinara_Quinara_prdft_web__gh3czh.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123474/ElBuenSazondeQuinara_Quinara_prdjh_web__ey9sub.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123487/ElBuenSazondeQuinara_Quinara_prdpgg_web__ncohdo.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504308/Oriundo_Vilcabamba_productodtft_web__toomhe.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504317/Oriundo_Vilcabamba_productognf_web__dr36s9.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504327/Oriundo_Vilcabamba_fachadafr_web__u0aijd.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504335/Oriundo_Vilcabamba_identidad_web__jficnp.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504345/Oriundo_Vilcabamba_productocent_web__uxrym2.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504354/Oriundo_Vilcabamba_productodtls_web__ubzw2x.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504363/Oriundo_Vilcabamba_productoggg_web__c0ene4.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504372/Oriundo_Vilcabamba_productogn_web__j6stgx.jpg}</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455971/CafeyComidadeHogar_Vilcabamba_FachadaG_web__nbkx4d.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455976/CafeyComidadeHogar_Vilcabamba_Indentidad_web__be5aiq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455981/CafeyComidadeHogar_Vilcabamba_Instalaciones_web__vqiw29.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455984/CafeyComidadeHogar_Vilcabamba_productogn_web__k4qlgd.jpg,
+https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455987/CafeyComidadeHogar_Vilcabamba_productopdtl_web__ch2ffq.jpg, 
+https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455991/CafeyComidadeHogar_Vilcabamba_productopg2_web__hvo4on.jpg,
+https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455995/CafeyComidadeHogar_Vilcabamba_productopg3_web__wbzkke.jpg,
+https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456001/CafeyComidadeHogar_Vilcabamba_productopp1_web__w4avr0.jpg,
+https://res.cloudinary.com/djl0e1p6e/image/upload/v1766456004/CafeyComidadeHogar_Vilcabamba_productosp_web__avyndh.jpg}</t>
   </si>
 </sst>
 </file>
@@ -3651,8 +3651,8 @@
   </sheetPr>
   <dimension ref="A1:AY87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AU45" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AW65" sqref="AW65"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AW67" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AW86" sqref="AW86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3857,13 +3857,13 @@
         <v>30</v>
       </c>
       <c r="AW1" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="AY1" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="2" spans="1:51" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3917,10 +3917,10 @@
         <v>38</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>379</v>
@@ -3932,10 +3932,10 @@
         <v>232</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="Y2" s="3">
         <v>2</v>
@@ -4008,10 +4008,10 @@
       </c>
       <c r="AV2" s="6"/>
       <c r="AW2" s="7" t="s">
-        <v>582</v>
+        <v>739</v>
       </c>
       <c r="AX2" s="10" t="s">
-        <v>583</v>
+        <v>687</v>
       </c>
       <c r="AY2" s="8"/>
     </row>
@@ -4066,10 +4066,10 @@
         <v>38</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>380</v>
@@ -4081,10 +4081,10 @@
         <v>232</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y3" s="3">
         <v>1</v>
@@ -4159,10 +4159,10 @@
         <v>38</v>
       </c>
       <c r="AW3" s="7" t="s">
-        <v>586</v>
+        <v>688</v>
       </c>
       <c r="AX3" s="10" t="s">
-        <v>587</v>
+        <v>689</v>
       </c>
       <c r="AY3" s="8"/>
     </row>
@@ -4217,10 +4217,10 @@
         <v>38</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>381</v>
@@ -4232,10 +4232,10 @@
         <v>232</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y4" s="3">
         <v>2</v>
@@ -4350,7 +4350,7 @@
         <v>37</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
@@ -4366,10 +4366,10 @@
         <v>36</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>382</v>
@@ -4381,10 +4381,10 @@
         <v>232</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y5" s="3">
         <v>2</v>
@@ -4499,7 +4499,7 @@
         <v>54</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
@@ -4515,10 +4515,10 @@
         <v>38</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>383</v>
@@ -4530,10 +4530,10 @@
         <v>232</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="Y6" s="3">
         <v>4</v>
@@ -4608,10 +4608,10 @@
         <v>38</v>
       </c>
       <c r="AW6" s="7" t="s">
-        <v>592</v>
+        <v>740</v>
       </c>
       <c r="AX6" s="10" t="s">
-        <v>593</v>
+        <v>691</v>
       </c>
       <c r="AY6" s="8"/>
     </row>
@@ -4650,7 +4650,7 @@
         <v>58</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
@@ -4666,10 +4666,10 @@
         <v>38</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>384</v>
@@ -4681,10 +4681,10 @@
         <v>232</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y7" s="3">
         <v>3</v>
@@ -4759,10 +4759,10 @@
         <v>38</v>
       </c>
       <c r="AW7" s="7" t="s">
-        <v>595</v>
+        <v>741</v>
       </c>
       <c r="AX7" s="10" t="s">
-        <v>596</v>
+        <v>692</v>
       </c>
       <c r="AY7" s="8"/>
     </row>
@@ -4801,7 +4801,7 @@
         <v>58</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
@@ -4817,10 +4817,10 @@
         <v>38</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>385</v>
@@ -4832,10 +4832,10 @@
         <v>232</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y8" s="3">
         <v>2</v>
@@ -4910,10 +4910,10 @@
         <v>38</v>
       </c>
       <c r="AW8" s="7" t="s">
-        <v>598</v>
+        <v>742</v>
       </c>
       <c r="AX8" s="10" t="s">
-        <v>599</v>
+        <v>693</v>
       </c>
       <c r="AY8" s="8"/>
     </row>
@@ -4952,7 +4952,7 @@
         <v>58</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
@@ -4968,10 +4968,10 @@
         <v>38</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>386</v>
@@ -4983,10 +4983,10 @@
         <v>232</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y9" s="3">
         <v>4</v>
@@ -5061,10 +5061,10 @@
         <v>38</v>
       </c>
       <c r="AW9" s="7" t="s">
-        <v>602</v>
+        <v>743</v>
       </c>
       <c r="AX9" s="10" t="s">
-        <v>603</v>
+        <v>694</v>
       </c>
       <c r="AY9" s="8"/>
     </row>
@@ -5103,7 +5103,7 @@
         <v>58</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
@@ -5119,10 +5119,10 @@
         <v>38</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>387</v>
@@ -5134,10 +5134,10 @@
         <v>232</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y10" s="3">
         <v>3</v>
@@ -5212,10 +5212,10 @@
         <v>38</v>
       </c>
       <c r="AW10" s="7" t="s">
-        <v>604</v>
+        <v>744</v>
       </c>
       <c r="AX10" s="10" t="s">
-        <v>605</v>
+        <v>695</v>
       </c>
       <c r="AY10" s="8"/>
     </row>
@@ -5254,7 +5254,7 @@
         <v>64</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
@@ -5270,10 +5270,10 @@
         <v>38</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T11" s="3" t="s">
         <v>388</v>
@@ -5285,10 +5285,10 @@
         <v>232</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y11" s="3">
         <v>5</v>
@@ -5419,10 +5419,10 @@
         <v>38</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>389</v>
@@ -5434,10 +5434,10 @@
         <v>232</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="Y12" s="3">
         <v>2</v>
@@ -5512,10 +5512,10 @@
         <v>38</v>
       </c>
       <c r="AW12" s="7" t="s">
-        <v>608</v>
+        <v>745</v>
       </c>
       <c r="AX12" s="10" t="s">
-        <v>609</v>
+        <v>696</v>
       </c>
       <c r="AY12" s="8"/>
     </row>
@@ -5570,10 +5570,10 @@
         <v>38</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T13" s="3" t="s">
         <v>390</v>
@@ -5585,10 +5585,10 @@
         <v>232</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="Y13" s="3">
         <v>3</v>
@@ -5663,10 +5663,10 @@
         <v>38</v>
       </c>
       <c r="AW13" s="7" t="s">
-        <v>610</v>
+        <v>746</v>
       </c>
       <c r="AX13" s="10" t="s">
-        <v>611</v>
+        <v>697</v>
       </c>
       <c r="AY13" s="8"/>
     </row>
@@ -5721,10 +5721,10 @@
         <v>38</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>391</v>
@@ -5736,10 +5736,10 @@
         <v>232</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y14" s="3">
         <v>2</v>
@@ -5814,10 +5814,10 @@
         <v>38</v>
       </c>
       <c r="AW14" s="7" t="s">
-        <v>612</v>
+        <v>747</v>
       </c>
       <c r="AX14" s="10" t="s">
-        <v>613</v>
+        <v>698</v>
       </c>
       <c r="AY14" s="8"/>
     </row>
@@ -5856,7 +5856,7 @@
         <v>69</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>614</v>
+        <v>592</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
@@ -5872,10 +5872,10 @@
         <v>38</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>392</v>
@@ -5887,10 +5887,10 @@
         <v>232</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="Y15" s="3">
         <v>3</v>
@@ -6005,7 +6005,7 @@
         <v>72</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>76</v>
@@ -6023,10 +6023,10 @@
         <v>38</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>393</v>
@@ -6035,13 +6035,13 @@
         <v>5</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>615</v>
+        <v>593</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y16" s="3">
         <v>3</v>
@@ -6116,10 +6116,10 @@
         <v>38</v>
       </c>
       <c r="AW16" s="7" t="s">
-        <v>616</v>
+        <v>748</v>
       </c>
       <c r="AX16" s="10" t="s">
-        <v>617</v>
+        <v>699</v>
       </c>
       <c r="AY16" s="8"/>
     </row>
@@ -6158,7 +6158,7 @@
         <v>75</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>618</v>
+        <v>594</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>76</v>
@@ -6176,10 +6176,10 @@
         <v>38</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>394</v>
@@ -6191,10 +6191,10 @@
         <v>232</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y17" s="3">
         <v>2</v>
@@ -6269,10 +6269,10 @@
         <v>38</v>
       </c>
       <c r="AW17" s="7" t="s">
-        <v>619</v>
+        <v>749</v>
       </c>
       <c r="AX17" s="10" t="s">
-        <v>620</v>
+        <v>700</v>
       </c>
       <c r="AY17" s="8"/>
     </row>
@@ -6311,7 +6311,7 @@
         <v>78</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
@@ -6327,10 +6327,10 @@
         <v>38</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>395</v>
@@ -6342,10 +6342,10 @@
         <v>232</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y18" s="3">
         <v>3</v>
@@ -6420,10 +6420,10 @@
         <v>38</v>
       </c>
       <c r="AW18" s="7" t="s">
-        <v>621</v>
+        <v>750</v>
       </c>
       <c r="AX18" s="10" t="s">
-        <v>622</v>
+        <v>701</v>
       </c>
       <c r="AY18" s="8"/>
     </row>
@@ -6462,7 +6462,7 @@
         <v>79</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>623</v>
+        <v>595</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
@@ -6478,10 +6478,10 @@
         <v>38</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T19" s="3" t="s">
         <v>396</v>
@@ -6493,10 +6493,10 @@
         <v>232</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y19" s="3">
         <v>7</v>
@@ -6571,10 +6571,10 @@
         <v>38</v>
       </c>
       <c r="AW19" s="7" t="s">
-        <v>624</v>
+        <v>751</v>
       </c>
       <c r="AX19" s="10" t="s">
-        <v>625</v>
+        <v>702</v>
       </c>
       <c r="AY19" s="8"/>
     </row>
@@ -6613,7 +6613,7 @@
         <v>79</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>76</v>
@@ -6631,10 +6631,10 @@
         <v>38</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>397</v>
@@ -6646,10 +6646,10 @@
         <v>232</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y20" s="3">
         <v>2</v>
@@ -6724,10 +6724,10 @@
         <v>38</v>
       </c>
       <c r="AW20" s="7" t="s">
-        <v>626</v>
+        <v>752</v>
       </c>
       <c r="AX20" s="10" t="s">
-        <v>627</v>
+        <v>703</v>
       </c>
       <c r="AY20" s="8"/>
     </row>
@@ -6766,7 +6766,7 @@
         <v>79</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="s">
@@ -6782,10 +6782,10 @@
         <v>38</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>398</v>
@@ -6797,10 +6797,10 @@
         <v>232</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y21" s="3">
         <v>4</v>
@@ -6915,7 +6915,7 @@
         <v>58</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>628</v>
+        <v>596</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
@@ -6931,10 +6931,10 @@
         <v>38</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>399</v>
@@ -6946,10 +6946,10 @@
         <v>232</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y22" s="3">
         <v>2</v>
@@ -7024,10 +7024,10 @@
         <v>38</v>
       </c>
       <c r="AW22" s="7" t="s">
-        <v>629</v>
+        <v>753</v>
       </c>
       <c r="AX22" s="10" t="s">
-        <v>630</v>
+        <v>704</v>
       </c>
       <c r="AY22" s="8"/>
     </row>
@@ -7066,7 +7066,7 @@
         <v>81</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
@@ -7082,10 +7082,10 @@
         <v>38</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>631</v>
+        <v>597</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>400</v>
@@ -7097,10 +7097,10 @@
         <v>232</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y23" s="3">
         <v>2</v>
@@ -7175,10 +7175,10 @@
         <v>38</v>
       </c>
       <c r="AW23" s="7" t="s">
-        <v>633</v>
+        <v>754</v>
       </c>
       <c r="AX23" s="10" t="s">
-        <v>634</v>
+        <v>705</v>
       </c>
       <c r="AY23" s="8"/>
     </row>
@@ -7233,10 +7233,10 @@
         <v>38</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>401</v>
@@ -7248,10 +7248,10 @@
         <v>232</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="Y24" s="3">
         <v>3</v>
@@ -7382,10 +7382,10 @@
         <v>38</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T25" s="3" t="s">
         <v>402</v>
@@ -7397,10 +7397,10 @@
         <v>232</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="Y25" s="3">
         <v>3</v>
@@ -7475,10 +7475,10 @@
         <v>38</v>
       </c>
       <c r="AW25" s="7" t="s">
-        <v>636</v>
+        <v>755</v>
       </c>
       <c r="AX25" s="10" t="s">
-        <v>637</v>
+        <v>706</v>
       </c>
       <c r="AY25" s="8"/>
     </row>
@@ -7517,7 +7517,7 @@
         <v>54</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>638</v>
+        <v>600</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
@@ -7533,10 +7533,10 @@
         <v>38</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>403</v>
@@ -7548,10 +7548,10 @@
         <v>232</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="Y26" s="3">
         <v>5</v>
@@ -7626,10 +7626,10 @@
         <v>38</v>
       </c>
       <c r="AW26" s="7" t="s">
-        <v>639</v>
+        <v>756</v>
       </c>
       <c r="AX26" s="10" t="s">
-        <v>640</v>
+        <v>707</v>
       </c>
       <c r="AY26" s="8"/>
     </row>
@@ -7684,10 +7684,10 @@
         <v>38</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>404</v>
@@ -7699,10 +7699,10 @@
         <v>232</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y27" s="3">
         <v>4</v>
@@ -7817,10 +7817,10 @@
         <v>58</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>641</v>
+        <v>601</v>
       </c>
       <c r="N28" s="3" t="s">
         <v>366</v>
@@ -7835,10 +7835,10 @@
         <v>36</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="T28" s="3" t="s">
         <v>405</v>
@@ -7850,10 +7850,10 @@
         <v>232</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y28" s="3">
         <v>2</v>
@@ -7984,10 +7984,10 @@
         <v>38</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>406</v>
@@ -7999,10 +7999,10 @@
         <v>232</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="Y29" s="3">
         <v>1</v>
@@ -8077,10 +8077,10 @@
         <v>38</v>
       </c>
       <c r="AW29" s="7" t="s">
-        <v>642</v>
+        <v>757</v>
       </c>
       <c r="AX29" s="10" t="s">
-        <v>643</v>
+        <v>708</v>
       </c>
       <c r="AY29" s="8"/>
     </row>
@@ -8135,10 +8135,10 @@
         <v>38</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T30" s="3" t="s">
         <v>407</v>
@@ -8150,10 +8150,10 @@
         <v>232</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>644</v>
+        <v>602</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y30" s="3">
         <v>3</v>
@@ -8228,10 +8228,10 @@
         <v>38</v>
       </c>
       <c r="AW30" s="7" t="s">
-        <v>645</v>
+        <v>758</v>
       </c>
       <c r="AX30" s="10" t="s">
-        <v>646</v>
+        <v>709</v>
       </c>
       <c r="AY30" s="8"/>
     </row>
@@ -8286,10 +8286,10 @@
         <v>38</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T31" s="3" t="s">
         <v>408</v>
@@ -8301,10 +8301,10 @@
         <v>232</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="Y31" s="3">
         <v>3</v>
@@ -8419,7 +8419,7 @@
         <v>91</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>628</v>
+        <v>596</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3" t="s">
@@ -8435,10 +8435,10 @@
         <v>38</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>409</v>
@@ -8450,10 +8450,10 @@
         <v>232</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="Y32" s="3">
         <v>1</v>
@@ -8568,7 +8568,7 @@
         <v>91</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>628</v>
+        <v>596</v>
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3" t="s">
@@ -8584,10 +8584,10 @@
         <v>38</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>410</v>
@@ -8599,10 +8599,10 @@
         <v>232</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="Y33" s="3">
         <v>2</v>
@@ -8717,7 +8717,7 @@
         <v>329</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>647</v>
+        <v>603</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3" t="s">
@@ -8733,10 +8733,10 @@
         <v>38</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>648</v>
+        <v>604</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="T34" s="3" t="s">
         <v>411</v>
@@ -8745,13 +8745,13 @@
         <v>3</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>649</v>
+        <v>605</v>
       </c>
       <c r="W34" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="X34" s="3" t="s">
         <v>606</v>
-      </c>
-      <c r="X34" s="3" t="s">
-        <v>650</v>
       </c>
       <c r="Y34" s="3">
         <v>1</v>
@@ -8866,7 +8866,7 @@
         <v>330</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>651</v>
+        <v>607</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3" t="s">
@@ -8882,10 +8882,10 @@
         <v>38</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>652</v>
+        <v>608</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>412</v>
@@ -8894,13 +8894,13 @@
         <v>3</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>653</v>
+        <v>609</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y35" s="3">
         <v>1</v>
@@ -9015,7 +9015,7 @@
         <v>331</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>654</v>
+        <v>610</v>
       </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3" t="s">
@@ -9031,10 +9031,10 @@
         <v>38</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>655</v>
+        <v>611</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>656</v>
+        <v>612</v>
       </c>
       <c r="T36" s="3" t="s">
         <v>413</v>
@@ -9043,13 +9043,13 @@
         <v>7</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>653</v>
+        <v>609</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="X36" s="3" t="s">
-        <v>657</v>
+        <v>613</v>
       </c>
       <c r="Y36" s="3">
         <v>3</v>
@@ -9164,7 +9164,7 @@
         <v>332</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>658</v>
+        <v>614</v>
       </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3" t="s">
@@ -9180,10 +9180,10 @@
         <v>38</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>656</v>
+        <v>612</v>
       </c>
       <c r="T37" s="3" t="s">
         <v>414</v>
@@ -9192,13 +9192,13 @@
         <v>3.5</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>649</v>
+        <v>605</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="X37" s="3" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="Y37" s="3">
         <v>3</v>
@@ -9313,7 +9313,7 @@
         <v>333</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>659</v>
+        <v>615</v>
       </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3" t="s">
@@ -9329,10 +9329,10 @@
         <v>38</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T38" s="3" t="s">
         <v>415</v>
@@ -9341,13 +9341,13 @@
         <v>3.5</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>649</v>
+        <v>605</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X38" s="3" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="Y38" s="3">
         <v>3</v>
@@ -9462,7 +9462,7 @@
         <v>334</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>660</v>
+        <v>616</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3" t="s">
@@ -9478,10 +9478,10 @@
         <v>36</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T39" s="3" t="s">
         <v>416</v>
@@ -9493,10 +9493,10 @@
         <v>232</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="X39" s="3" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="Y39" s="3">
         <v>1</v>
@@ -9611,7 +9611,7 @@
         <v>335</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>661</v>
+        <v>617</v>
       </c>
       <c r="M40" s="3"/>
       <c r="N40" s="3" t="s">
@@ -9627,10 +9627,10 @@
         <v>36</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>656</v>
+        <v>612</v>
       </c>
       <c r="T40" s="3" t="s">
         <v>417</v>
@@ -9639,13 +9639,13 @@
         <v>2</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>649</v>
+        <v>605</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y40" s="3">
         <v>2</v>
@@ -9760,7 +9760,7 @@
         <v>91</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>662</v>
+        <v>618</v>
       </c>
       <c r="M41" s="3"/>
       <c r="N41" s="3" t="s">
@@ -9776,10 +9776,10 @@
         <v>38</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>418</v>
@@ -9788,13 +9788,13 @@
         <v>3</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>653</v>
+        <v>609</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y41" s="3">
         <v>2</v>
@@ -9909,7 +9909,7 @@
         <v>91</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="M42" s="3"/>
       <c r="N42" s="3" t="s">
@@ -9925,10 +9925,10 @@
         <v>38</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>419</v>
@@ -9940,10 +9940,10 @@
         <v>232</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y42" s="3">
         <v>2</v>
@@ -10018,10 +10018,10 @@
         <v>38</v>
       </c>
       <c r="AW42" s="7" t="s">
-        <v>663</v>
+        <v>759</v>
       </c>
       <c r="AX42" s="10" t="s">
-        <v>664</v>
+        <v>710</v>
       </c>
       <c r="AY42" s="8"/>
     </row>
@@ -10060,10 +10060,10 @@
         <v>109</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>665</v>
+        <v>619</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>666</v>
+        <v>620</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>362</v>
@@ -10078,10 +10078,10 @@
         <v>38</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>420</v>
@@ -10093,10 +10093,10 @@
         <v>232</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="Y43" s="3">
         <v>3</v>
@@ -10171,10 +10171,10 @@
         <v>38</v>
       </c>
       <c r="AW43" s="7" t="s">
-        <v>667</v>
+        <v>760</v>
       </c>
       <c r="AX43" s="10" t="s">
-        <v>668</v>
+        <v>711</v>
       </c>
       <c r="AY43" s="8"/>
     </row>
@@ -10213,10 +10213,10 @@
         <v>112</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>669</v>
+        <v>621</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>670</v>
+        <v>622</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>371</v>
@@ -10231,10 +10231,10 @@
         <v>38</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>421</v>
@@ -10246,10 +10246,10 @@
         <v>232</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="Y44" s="3">
         <v>3</v>
@@ -10324,10 +10324,10 @@
         <v>38</v>
       </c>
       <c r="AW44" s="7" t="s">
-        <v>671</v>
+        <v>761</v>
       </c>
       <c r="AX44" s="10" t="s">
-        <v>672</v>
+        <v>712</v>
       </c>
       <c r="AY44" s="8"/>
     </row>
@@ -10366,7 +10366,7 @@
         <v>336</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>673</v>
+        <v>623</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3" t="s">
@@ -10382,10 +10382,10 @@
         <v>38</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>674</v>
+        <v>624</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>422</v>
@@ -10394,13 +10394,13 @@
         <v>5.5</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>653</v>
+        <v>609</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="Y45" s="3">
         <v>10</v>
@@ -10475,10 +10475,10 @@
         <v>38</v>
       </c>
       <c r="AW45" s="7" t="s">
-        <v>675</v>
+        <v>762</v>
       </c>
       <c r="AX45" s="10" t="s">
-        <v>676</v>
+        <v>713</v>
       </c>
       <c r="AY45" s="8"/>
     </row>
@@ -10517,7 +10517,7 @@
         <v>337</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>677</v>
+        <v>625</v>
       </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3" t="s">
@@ -10533,10 +10533,10 @@
         <v>38</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>678</v>
+        <v>626</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>423</v>
@@ -10545,13 +10545,13 @@
         <v>5</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>649</v>
+        <v>605</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>679</v>
+        <v>627</v>
       </c>
       <c r="Y46" s="3">
         <v>3</v>
@@ -10596,7 +10596,7 @@
         <v>46</v>
       </c>
       <c r="AM46" s="3" t="s">
-        <v>680</v>
+        <v>628</v>
       </c>
       <c r="AN46" s="3" t="s">
         <v>32</v>
@@ -10626,10 +10626,10 @@
         <v>38</v>
       </c>
       <c r="AW46" s="7" t="s">
-        <v>681</v>
+        <v>763</v>
       </c>
       <c r="AX46" s="8" t="s">
-        <v>682</v>
+        <v>714</v>
       </c>
       <c r="AY46" s="8"/>
     </row>
@@ -10668,7 +10668,7 @@
         <v>338</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>658</v>
+        <v>614</v>
       </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3" t="s">
@@ -10687,7 +10687,7 @@
         <v>378</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>424</v>
@@ -10696,13 +10696,13 @@
         <v>7</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>653</v>
+        <v>609</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>683</v>
+        <v>629</v>
       </c>
       <c r="Y47" s="3">
         <v>4</v>
@@ -10817,7 +10817,7 @@
         <v>552</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>684</v>
+        <v>630</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>376</v>
@@ -10835,10 +10835,10 @@
         <v>38</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>674</v>
+        <v>624</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>425</v>
@@ -10847,13 +10847,13 @@
         <v>10.5</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>653</v>
+        <v>609</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="Y48" s="3">
         <v>4</v>
@@ -10968,7 +10968,7 @@
         <v>122</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>685</v>
+        <v>631</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>377</v>
@@ -10986,10 +10986,10 @@
         <v>38</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>686</v>
+        <v>632</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>426</v>
@@ -10998,13 +10998,13 @@
         <v>3.5</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>649</v>
+        <v>605</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>687</v>
+        <v>633</v>
       </c>
       <c r="X49" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="Y49" s="3">
         <v>3</v>
@@ -11079,10 +11079,10 @@
         <v>38</v>
       </c>
       <c r="AW49" s="7" t="s">
-        <v>688</v>
+        <v>764</v>
       </c>
       <c r="AX49" s="10" t="s">
-        <v>689</v>
+        <v>715</v>
       </c>
       <c r="AY49" s="8"/>
     </row>
@@ -11121,10 +11121,10 @@
         <v>550</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>690</v>
+        <v>634</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>691</v>
+        <v>635</v>
       </c>
       <c r="N50" s="3" t="s">
         <v>368</v>
@@ -11139,10 +11139,10 @@
         <v>38</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>648</v>
+        <v>604</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="T50" s="3" t="s">
         <v>427</v>
@@ -11151,13 +11151,13 @@
         <v>5</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>653</v>
+        <v>609</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y50" s="3">
         <v>3</v>
@@ -11272,7 +11272,7 @@
         <v>551</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>694</v>
+        <v>636</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3" t="s">
@@ -11288,10 +11288,10 @@
         <v>36</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>656</v>
+        <v>612</v>
       </c>
       <c r="T51" s="3" t="s">
         <v>428</v>
@@ -11300,13 +11300,13 @@
         <v>3.5</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>649</v>
+        <v>605</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>695</v>
+        <v>637</v>
       </c>
       <c r="Y51" s="3">
         <v>3</v>
@@ -11381,10 +11381,10 @@
         <v>38</v>
       </c>
       <c r="AW51" s="7" t="s">
-        <v>696</v>
+        <v>765</v>
       </c>
       <c r="AX51" s="10" t="s">
-        <v>697</v>
+        <v>716</v>
       </c>
       <c r="AY51" s="8"/>
     </row>
@@ -11423,7 +11423,7 @@
         <v>339</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>698</v>
+        <v>638</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3" t="s">
@@ -11439,10 +11439,10 @@
         <v>36</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>674</v>
+        <v>624</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>429</v>
@@ -11451,13 +11451,13 @@
         <v>4</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>653</v>
+        <v>609</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="Y52" s="3">
         <v>1</v>
@@ -11572,7 +11572,7 @@
         <v>340</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>698</v>
+        <v>638</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3" t="s">
@@ -11588,10 +11588,10 @@
         <v>36</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T53" s="3" t="s">
         <v>430</v>
@@ -11600,13 +11600,13 @@
         <v>3.5</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>649</v>
+        <v>605</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X53" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y53" s="3">
         <v>2</v>
@@ -11681,10 +11681,10 @@
         <v>38</v>
       </c>
       <c r="AW53" s="7" t="s">
-        <v>699</v>
+        <v>766</v>
       </c>
       <c r="AX53" s="10" t="s">
-        <v>700</v>
+        <v>717</v>
       </c>
       <c r="AY53" s="8"/>
     </row>
@@ -11723,7 +11723,7 @@
         <v>341</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>701</v>
+        <v>639</v>
       </c>
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="s">
@@ -11739,10 +11739,10 @@
         <v>38</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>656</v>
+        <v>612</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>430</v>
@@ -11754,10 +11754,10 @@
         <v>232</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="X54" s="3" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="Y54" s="3">
         <v>10</v>
@@ -11832,10 +11832,10 @@
         <v>38</v>
       </c>
       <c r="AW54" s="7" t="s">
-        <v>702</v>
+        <v>767</v>
       </c>
       <c r="AX54" s="10" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="AY54" s="8"/>
     </row>
@@ -11874,7 +11874,7 @@
         <v>342</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>698</v>
+        <v>638</v>
       </c>
       <c r="M55" s="3"/>
       <c r="N55" s="3" t="s">
@@ -11890,10 +11890,10 @@
         <v>36</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>674</v>
+        <v>624</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="T55" s="3" t="s">
         <v>431</v>
@@ -11902,13 +11902,13 @@
         <v>7</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>653</v>
+        <v>609</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X55" s="3" t="s">
-        <v>704</v>
+        <v>640</v>
       </c>
       <c r="Y55" s="3">
         <v>7</v>
@@ -11983,10 +11983,10 @@
         <v>38</v>
       </c>
       <c r="AW55" s="7" t="s">
-        <v>705</v>
+        <v>768</v>
       </c>
       <c r="AX55" s="8" t="s">
-        <v>706</v>
+        <v>719</v>
       </c>
       <c r="AY55" s="8"/>
     </row>
@@ -12025,7 +12025,7 @@
         <v>128</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>698</v>
+        <v>638</v>
       </c>
       <c r="M56" s="3"/>
       <c r="N56" s="3" t="s">
@@ -12041,10 +12041,10 @@
         <v>38</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>678</v>
+        <v>626</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>656</v>
+        <v>612</v>
       </c>
       <c r="T56" s="3" t="s">
         <v>432</v>
@@ -12056,10 +12056,10 @@
         <v>232</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X56" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y56" s="3">
         <v>2</v>
@@ -12174,7 +12174,7 @@
         <v>333</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>707</v>
+        <v>641</v>
       </c>
       <c r="M57" s="3"/>
       <c r="N57" s="3" t="s">
@@ -12190,10 +12190,10 @@
         <v>36</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>433</v>
@@ -12202,13 +12202,13 @@
         <v>3</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>649</v>
+        <v>605</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="X57" s="3" t="s">
-        <v>657</v>
+        <v>613</v>
       </c>
       <c r="Y57" s="3">
         <v>7</v>
@@ -12283,10 +12283,10 @@
         <v>38</v>
       </c>
       <c r="AW57" s="7" t="s">
-        <v>708</v>
+        <v>769</v>
       </c>
       <c r="AX57" s="10" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="AY57" s="8"/>
     </row>
@@ -12325,7 +12325,7 @@
         <v>333</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>658</v>
+        <v>614</v>
       </c>
       <c r="M58" s="3"/>
       <c r="N58" s="3" t="s">
@@ -12341,10 +12341,10 @@
         <v>36</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>434</v>
@@ -12353,13 +12353,13 @@
         <v>3</v>
       </c>
       <c r="V58" s="3" t="s">
-        <v>649</v>
+        <v>605</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X58" s="3" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="Y58" s="3">
         <v>3</v>
@@ -12434,10 +12434,10 @@
         <v>38</v>
       </c>
       <c r="AW58" s="7" t="s">
-        <v>710</v>
+        <v>770</v>
       </c>
       <c r="AX58" s="10" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="AY58" s="8"/>
     </row>
@@ -12476,7 +12476,7 @@
         <v>343</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>694</v>
+        <v>636</v>
       </c>
       <c r="M59" s="3"/>
       <c r="N59" s="3" t="s">
@@ -12492,10 +12492,10 @@
         <v>36</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>435</v>
@@ -12504,13 +12504,13 @@
         <v>2.75</v>
       </c>
       <c r="V59" s="3" t="s">
-        <v>649</v>
+        <v>605</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="X59" s="3" t="s">
-        <v>657</v>
+        <v>613</v>
       </c>
       <c r="Y59" s="3">
         <v>3</v>
@@ -12585,10 +12585,10 @@
         <v>38</v>
       </c>
       <c r="AW59" s="7" t="s">
-        <v>712</v>
+        <v>771</v>
       </c>
       <c r="AX59" s="10" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="AY59" s="8"/>
     </row>
@@ -12627,10 +12627,10 @@
         <v>344</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>698</v>
+        <v>638</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>714</v>
+        <v>642</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>368</v>
@@ -12645,10 +12645,10 @@
         <v>38</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>436</v>
@@ -12657,13 +12657,13 @@
         <v>5</v>
       </c>
       <c r="V60" s="3" t="s">
-        <v>649</v>
+        <v>605</v>
       </c>
       <c r="W60" s="3" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="X60" s="3" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="Y60" s="3">
         <v>2</v>
@@ -12708,7 +12708,7 @@
         <v>42</v>
       </c>
       <c r="AM60" s="3" t="s">
-        <v>715</v>
+        <v>643</v>
       </c>
       <c r="AN60" s="3" t="s">
         <v>84</v>
@@ -12738,10 +12738,10 @@
         <v>38</v>
       </c>
       <c r="AW60" s="7" t="s">
-        <v>716</v>
+        <v>737</v>
       </c>
       <c r="AX60" s="10" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="AY60" s="8"/>
     </row>
@@ -12780,10 +12780,10 @@
         <v>345</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>718</v>
+        <v>644</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>719</v>
+        <v>645</v>
       </c>
       <c r="N61" s="3" t="s">
         <v>374</v>
@@ -12798,10 +12798,10 @@
         <v>36</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="T61" s="3" t="s">
         <v>437</v>
@@ -12810,13 +12810,13 @@
         <v>5.5</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>649</v>
+        <v>605</v>
       </c>
       <c r="W61" s="3" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="X61" s="3" t="s">
-        <v>720</v>
+        <v>646</v>
       </c>
       <c r="Y61" s="3">
         <v>3</v>
@@ -12891,10 +12891,10 @@
         <v>38</v>
       </c>
       <c r="AW61" s="7" t="s">
-        <v>721</v>
+        <v>738</v>
       </c>
       <c r="AX61" s="10" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="AY61" s="8"/>
     </row>
@@ -12933,10 +12933,10 @@
         <v>345</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>698</v>
+        <v>638</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>723</v>
+        <v>647</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>375</v>
@@ -12951,10 +12951,10 @@
         <v>36</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>656</v>
+        <v>612</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>438</v>
@@ -12966,10 +12966,10 @@
         <v>232</v>
       </c>
       <c r="W62" s="3" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="X62" s="3" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="Y62" s="3">
         <v>2</v>
@@ -13044,7 +13044,7 @@
         <v>38</v>
       </c>
       <c r="AW62" s="7" t="s">
-        <v>724</v>
+        <v>772</v>
       </c>
       <c r="AX62" s="10" t="s">
         <v>725</v>
@@ -13086,10 +13086,10 @@
         <v>89</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>726</v>
+        <v>648</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>727</v>
+        <v>649</v>
       </c>
       <c r="N63" s="3" t="s">
         <v>368</v>
@@ -13104,10 +13104,10 @@
         <v>38</v>
       </c>
       <c r="R63" s="3" t="s">
-        <v>655</v>
+        <v>611</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="T63" s="3" t="s">
         <v>439</v>
@@ -13119,10 +13119,10 @@
         <v>232</v>
       </c>
       <c r="W63" s="3" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="X63" s="3" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="Y63" s="3">
         <v>3</v>
@@ -13197,10 +13197,10 @@
         <v>38</v>
       </c>
       <c r="AW63" s="7" t="s">
-        <v>728</v>
+        <v>773</v>
       </c>
       <c r="AX63" s="8" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="AY63" s="8"/>
     </row>
@@ -13221,7 +13221,7 @@
         <v>989804020</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>730</v>
+        <v>650</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>307</v>
@@ -13239,10 +13239,10 @@
         <v>346</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>731</v>
+        <v>651</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>732</v>
+        <v>652</v>
       </c>
       <c r="N64" s="3" t="s">
         <v>368</v>
@@ -13257,10 +13257,10 @@
         <v>38</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>674</v>
+        <v>624</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="T64" s="3" t="s">
         <v>440</v>
@@ -13269,13 +13269,13 @@
         <v>8</v>
       </c>
       <c r="V64" s="3" t="s">
-        <v>653</v>
+        <v>609</v>
       </c>
       <c r="W64" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X64" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y64" s="3">
         <v>4</v>
@@ -13320,7 +13320,7 @@
         <v>46</v>
       </c>
       <c r="AM64" s="3" t="s">
-        <v>733</v>
+        <v>653</v>
       </c>
       <c r="AN64" s="3" t="s">
         <v>32</v>
@@ -13350,10 +13350,10 @@
         <v>38</v>
       </c>
       <c r="AW64" s="7" t="s">
-        <v>692</v>
+        <v>774</v>
       </c>
       <c r="AX64" s="8" t="s">
-        <v>693</v>
+        <v>727</v>
       </c>
       <c r="AY64" s="8"/>
     </row>
@@ -13392,10 +13392,10 @@
         <v>549</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>734</v>
+        <v>654</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>735</v>
+        <v>655</v>
       </c>
       <c r="N65" s="3" t="s">
         <v>368</v>
@@ -13410,10 +13410,10 @@
         <v>38</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>655</v>
+        <v>611</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="T65" s="3" t="s">
         <v>441</v>
@@ -13422,13 +13422,13 @@
         <v>7</v>
       </c>
       <c r="V65" s="3" t="s">
-        <v>653</v>
+        <v>609</v>
       </c>
       <c r="W65" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="X65" s="3" t="s">
-        <v>683</v>
+        <v>629</v>
       </c>
       <c r="Y65" s="3">
         <v>10</v>
@@ -13503,10 +13503,10 @@
         <v>38</v>
       </c>
       <c r="AW65" s="7" t="s">
-        <v>782</v>
+        <v>686</v>
       </c>
       <c r="AX65" s="10" t="s">
-        <v>781</v>
+        <v>685</v>
       </c>
       <c r="AY65" s="8"/>
     </row>
@@ -13545,10 +13545,10 @@
         <v>548</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>736</v>
+        <v>656</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>737</v>
+        <v>657</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>368</v>
@@ -13566,7 +13566,7 @@
         <v>101</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>656</v>
+        <v>612</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>442</v>
@@ -13575,13 +13575,13 @@
         <v>7</v>
       </c>
       <c r="V66" s="3" t="s">
-        <v>653</v>
+        <v>609</v>
       </c>
       <c r="W66" s="3" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="X66" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y66" s="3">
         <v>5</v>
@@ -13626,7 +13626,7 @@
         <v>46</v>
       </c>
       <c r="AM66" s="3" t="s">
-        <v>738</v>
+        <v>658</v>
       </c>
       <c r="AN66" s="3" t="s">
         <v>32</v>
@@ -13696,10 +13696,10 @@
         <v>347</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>739</v>
+        <v>659</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>719</v>
+        <v>645</v>
       </c>
       <c r="N67" s="3" t="s">
         <v>368</v>
@@ -13714,10 +13714,10 @@
         <v>38</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>648</v>
+        <v>604</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>656</v>
+        <v>612</v>
       </c>
       <c r="T67" s="3" t="s">
         <v>443</v>
@@ -13726,13 +13726,13 @@
         <v>5.5</v>
       </c>
       <c r="V67" s="3" t="s">
-        <v>740</v>
+        <v>660</v>
       </c>
       <c r="W67" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X67" s="3" t="s">
-        <v>683</v>
+        <v>629</v>
       </c>
       <c r="Y67" s="3">
         <v>2</v>
@@ -13795,7 +13795,7 @@
         <v>1</v>
       </c>
       <c r="AS67" s="3" t="s">
-        <v>741</v>
+        <v>661</v>
       </c>
       <c r="AT67" s="3" t="s">
         <v>44</v>
@@ -13847,7 +13847,7 @@
         <v>348</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>742</v>
+        <v>662</v>
       </c>
       <c r="M68" s="3"/>
       <c r="N68" s="3" t="s">
@@ -13863,10 +13863,10 @@
         <v>38</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>674</v>
+        <v>624</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="T68" s="3" t="s">
         <v>444</v>
@@ -13875,13 +13875,13 @@
         <v>3</v>
       </c>
       <c r="V68" s="3" t="s">
-        <v>653</v>
+        <v>609</v>
       </c>
       <c r="W68" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X68" s="3" t="s">
-        <v>683</v>
+        <v>629</v>
       </c>
       <c r="Y68" s="3">
         <v>1</v>
@@ -13926,7 +13926,7 @@
         <v>42</v>
       </c>
       <c r="AM68" s="3" t="s">
-        <v>743</v>
+        <v>663</v>
       </c>
       <c r="AN68" s="3" t="s">
         <v>32</v>
@@ -13996,7 +13996,7 @@
         <v>349</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>698</v>
+        <v>638</v>
       </c>
       <c r="M69" s="3"/>
       <c r="N69" s="3" t="s">
@@ -14012,10 +14012,10 @@
         <v>38</v>
       </c>
       <c r="R69" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T69" s="3" t="s">
         <v>445</v>
@@ -14024,13 +14024,13 @@
         <v>3</v>
       </c>
       <c r="V69" s="3" t="s">
-        <v>649</v>
+        <v>605</v>
       </c>
       <c r="W69" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X69" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y69" s="3">
         <v>2</v>
@@ -14105,10 +14105,10 @@
         <v>38</v>
       </c>
       <c r="AW69" s="7" t="s">
-        <v>744</v>
+        <v>775</v>
       </c>
       <c r="AX69" s="10" t="s">
-        <v>745</v>
+        <v>728</v>
       </c>
       <c r="AY69" s="8"/>
     </row>
@@ -14129,7 +14129,7 @@
         <v>991322614</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>746</v>
+        <v>664</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>313</v>
@@ -14147,7 +14147,7 @@
         <v>350</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>747</v>
+        <v>665</v>
       </c>
       <c r="M70" s="3"/>
       <c r="N70" s="3" t="s">
@@ -14163,10 +14163,10 @@
         <v>38</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>656</v>
+        <v>612</v>
       </c>
       <c r="T70" s="3" t="s">
         <v>446</v>
@@ -14178,10 +14178,10 @@
         <v>232</v>
       </c>
       <c r="W70" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X70" s="3" t="s">
-        <v>683</v>
+        <v>629</v>
       </c>
       <c r="Y70" s="3">
         <v>4</v>
@@ -14296,10 +14296,10 @@
         <v>543</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>698</v>
+        <v>638</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>719</v>
+        <v>645</v>
       </c>
       <c r="N71" s="3" t="s">
         <v>368</v>
@@ -14314,10 +14314,10 @@
         <v>38</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>686</v>
+        <v>632</v>
       </c>
       <c r="T71" s="3" t="s">
         <v>447</v>
@@ -14326,13 +14326,13 @@
         <v>5</v>
       </c>
       <c r="V71" s="3" t="s">
-        <v>649</v>
+        <v>605</v>
       </c>
       <c r="W71" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X71" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y71" s="3">
         <v>5</v>
@@ -14377,7 +14377,7 @@
         <v>42</v>
       </c>
       <c r="AM71" s="3" t="s">
-        <v>748</v>
+        <v>666</v>
       </c>
       <c r="AN71" s="3" t="s">
         <v>32</v>
@@ -14407,10 +14407,10 @@
         <v>38</v>
       </c>
       <c r="AW71" s="7" t="s">
-        <v>749</v>
+        <v>776</v>
       </c>
       <c r="AX71" s="10" t="s">
-        <v>750</v>
+        <v>729</v>
       </c>
       <c r="AY71" s="8"/>
     </row>
@@ -14449,10 +14449,10 @@
         <v>542</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>698</v>
+        <v>638</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>719</v>
+        <v>645</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>368</v>
@@ -14467,10 +14467,10 @@
         <v>38</v>
       </c>
       <c r="R72" s="3" t="s">
-        <v>631</v>
+        <v>597</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>448</v>
@@ -14479,13 +14479,13 @@
         <v>5</v>
       </c>
       <c r="V72" s="3" t="s">
-        <v>653</v>
+        <v>609</v>
       </c>
       <c r="W72" s="3" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="X72" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y72" s="3">
         <v>3</v>
@@ -14530,7 +14530,7 @@
         <v>46</v>
       </c>
       <c r="AM72" s="3" t="s">
-        <v>751</v>
+        <v>667</v>
       </c>
       <c r="AN72" s="3" t="s">
         <v>32</v>
@@ -14600,10 +14600,10 @@
         <v>351</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>698</v>
+        <v>638</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>752</v>
+        <v>668</v>
       </c>
       <c r="N73" s="3" t="s">
         <v>368</v>
@@ -14618,10 +14618,10 @@
         <v>38</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="T73" s="3" t="s">
         <v>449</v>
@@ -14630,13 +14630,13 @@
         <v>12</v>
       </c>
       <c r="V73" s="3" t="s">
-        <v>653</v>
+        <v>609</v>
       </c>
       <c r="W73" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X73" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y73" s="3">
         <v>2</v>
@@ -14681,7 +14681,7 @@
         <v>46</v>
       </c>
       <c r="AM73" s="3" t="s">
-        <v>753</v>
+        <v>669</v>
       </c>
       <c r="AN73" s="3" t="s">
         <v>32</v>
@@ -14711,10 +14711,10 @@
         <v>38</v>
       </c>
       <c r="AW73" s="7" t="s">
-        <v>754</v>
+        <v>777</v>
       </c>
       <c r="AX73" s="10" t="s">
-        <v>755</v>
+        <v>730</v>
       </c>
       <c r="AY73" s="8"/>
     </row>
@@ -14753,10 +14753,10 @@
         <v>352</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>756</v>
+        <v>670</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>757</v>
+        <v>671</v>
       </c>
       <c r="N74" s="3" t="s">
         <v>368</v>
@@ -14771,10 +14771,10 @@
         <v>38</v>
       </c>
       <c r="R74" s="3" t="s">
-        <v>758</v>
+        <v>672</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="T74" s="3" t="s">
         <v>450</v>
@@ -14783,13 +14783,13 @@
         <v>10</v>
       </c>
       <c r="V74" s="3" t="s">
-        <v>653</v>
+        <v>609</v>
       </c>
       <c r="W74" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X74" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y74" s="3">
         <v>2</v>
@@ -14864,10 +14864,10 @@
         <v>38</v>
       </c>
       <c r="AW74" s="7" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="AX74" s="10" t="s">
-        <v>760</v>
+        <v>731</v>
       </c>
       <c r="AY74" s="8"/>
     </row>
@@ -14906,7 +14906,7 @@
         <v>353</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>698</v>
+        <v>638</v>
       </c>
       <c r="M75" s="3"/>
       <c r="N75" s="3" t="s">
@@ -14922,10 +14922,10 @@
         <v>38</v>
       </c>
       <c r="R75" s="3" t="s">
-        <v>674</v>
+        <v>624</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>656</v>
+        <v>612</v>
       </c>
       <c r="T75" s="3" t="s">
         <v>451</v>
@@ -14934,13 +14934,13 @@
         <v>1</v>
       </c>
       <c r="V75" s="3" t="s">
-        <v>761</v>
+        <v>673</v>
       </c>
       <c r="W75" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X75" s="3" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="Y75" s="3">
         <v>4</v>
@@ -14985,7 +14985,7 @@
         <v>46</v>
       </c>
       <c r="AM75" s="3" t="s">
-        <v>762</v>
+        <v>674</v>
       </c>
       <c r="AN75" s="3" t="s">
         <v>32</v>
@@ -15015,10 +15015,10 @@
         <v>38</v>
       </c>
       <c r="AW75" s="7" t="s">
-        <v>763</v>
+        <v>779</v>
       </c>
       <c r="AX75" s="10" t="s">
-        <v>764</v>
+        <v>732</v>
       </c>
       <c r="AY75" s="8"/>
     </row>
@@ -15057,7 +15057,7 @@
         <v>547</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>698</v>
+        <v>638</v>
       </c>
       <c r="M76" s="3"/>
       <c r="N76" s="3" t="s">
@@ -15073,10 +15073,10 @@
         <v>38</v>
       </c>
       <c r="R76" s="3" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>452</v>
@@ -15085,13 +15085,13 @@
         <v>3</v>
       </c>
       <c r="V76" s="3" t="s">
-        <v>649</v>
+        <v>605</v>
       </c>
       <c r="W76" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X76" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y76" s="3">
         <v>2</v>
@@ -15206,7 +15206,7 @@
         <v>354</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>698</v>
+        <v>638</v>
       </c>
       <c r="M77" s="3"/>
       <c r="N77" s="3" t="s">
@@ -15222,10 +15222,10 @@
         <v>38</v>
       </c>
       <c r="R77" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T77" s="3" t="s">
         <v>453</v>
@@ -15234,13 +15234,13 @@
         <v>3.5</v>
       </c>
       <c r="V77" s="3" t="s">
-        <v>649</v>
+        <v>605</v>
       </c>
       <c r="W77" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X77" s="3" t="s">
-        <v>679</v>
+        <v>627</v>
       </c>
       <c r="Y77" s="3">
         <v>2</v>
@@ -15371,10 +15371,10 @@
         <v>38</v>
       </c>
       <c r="R78" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T78" s="3" t="s">
         <v>454</v>
@@ -15383,13 +15383,13 @@
         <v>2.25</v>
       </c>
       <c r="V78" s="3" t="s">
-        <v>615</v>
+        <v>593</v>
       </c>
       <c r="W78" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X78" s="3" t="s">
-        <v>704</v>
+        <v>640</v>
       </c>
       <c r="Y78" s="3">
         <v>3</v>
@@ -15464,10 +15464,10 @@
         <v>38</v>
       </c>
       <c r="AW78" s="7" t="s">
-        <v>765</v>
+        <v>780</v>
       </c>
       <c r="AX78" s="10" t="s">
-        <v>766</v>
+        <v>733</v>
       </c>
       <c r="AY78" s="8"/>
     </row>
@@ -15506,10 +15506,10 @@
         <v>356</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>698</v>
+        <v>638</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>767</v>
+        <v>675</v>
       </c>
       <c r="N79" s="3" t="s">
         <v>368</v>
@@ -15524,10 +15524,10 @@
         <v>38</v>
       </c>
       <c r="R79" s="3" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="T79" s="3" t="s">
         <v>455</v>
@@ -15539,10 +15539,10 @@
         <v>232</v>
       </c>
       <c r="W79" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X79" s="3" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="Y79" s="3">
         <v>3</v>
@@ -15660,7 +15660,7 @@
         <v>556</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>768</v>
+        <v>676</v>
       </c>
       <c r="N80" s="3" t="s">
         <v>368</v>
@@ -15675,10 +15675,10 @@
         <v>38</v>
       </c>
       <c r="R80" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>686</v>
+        <v>632</v>
       </c>
       <c r="T80" s="3" t="s">
         <v>456</v>
@@ -15687,13 +15687,13 @@
         <v>6</v>
       </c>
       <c r="V80" s="3" t="s">
-        <v>649</v>
+        <v>605</v>
       </c>
       <c r="W80" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X80" s="3" t="s">
-        <v>720</v>
+        <v>646</v>
       </c>
       <c r="Y80" s="3">
         <v>2</v>
@@ -15808,7 +15808,7 @@
         <v>357</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>769</v>
+        <v>677</v>
       </c>
       <c r="M81" s="3"/>
       <c r="N81" s="3" t="s">
@@ -15824,10 +15824,10 @@
         <v>38</v>
       </c>
       <c r="R81" s="3" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>457</v>
@@ -15836,13 +15836,13 @@
         <v>3.5</v>
       </c>
       <c r="V81" s="3" t="s">
-        <v>653</v>
+        <v>609</v>
       </c>
       <c r="W81" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X81" s="3" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="Y81" s="3">
         <v>1</v>
@@ -15917,10 +15917,10 @@
         <v>38</v>
       </c>
       <c r="AW81" s="7" t="s">
-        <v>770</v>
+        <v>781</v>
       </c>
       <c r="AX81" s="10" t="s">
-        <v>771</v>
+        <v>734</v>
       </c>
       <c r="AY81" s="8"/>
     </row>
@@ -15959,7 +15959,7 @@
         <v>544</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>698</v>
+        <v>638</v>
       </c>
       <c r="M82" s="3"/>
       <c r="N82" s="3" t="s">
@@ -15975,10 +15975,10 @@
         <v>38</v>
       </c>
       <c r="R82" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="T82" s="3" t="s">
         <v>458</v>
@@ -15987,13 +15987,13 @@
         <v>5</v>
       </c>
       <c r="V82" s="3" t="s">
-        <v>649</v>
+        <v>605</v>
       </c>
       <c r="W82" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X82" s="3" t="s">
-        <v>679</v>
+        <v>627</v>
       </c>
       <c r="Y82" s="3">
         <v>2</v>
@@ -16068,10 +16068,10 @@
         <v>38</v>
       </c>
       <c r="AW82" s="5" t="s">
-        <v>772</v>
+        <v>782</v>
       </c>
       <c r="AX82" s="8" t="s">
-        <v>773</v>
+        <v>735</v>
       </c>
       <c r="AY82" s="8"/>
     </row>
@@ -16110,7 +16110,7 @@
         <v>545</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>698</v>
+        <v>638</v>
       </c>
       <c r="M83" s="3"/>
       <c r="N83" s="3" t="s">
@@ -16126,10 +16126,10 @@
         <v>38</v>
       </c>
       <c r="R83" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S83" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>459</v>
@@ -16141,10 +16141,10 @@
         <v>232</v>
       </c>
       <c r="W83" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X83" s="3" t="s">
-        <v>679</v>
+        <v>627</v>
       </c>
       <c r="Y83" s="3">
         <v>1</v>
@@ -16219,10 +16219,10 @@
         <v>38</v>
       </c>
       <c r="AW83" s="7" t="s">
-        <v>776</v>
+        <v>680</v>
       </c>
       <c r="AX83" s="10" t="s">
-        <v>775</v>
+        <v>679</v>
       </c>
       <c r="AY83" s="8"/>
     </row>
@@ -16261,10 +16261,10 @@
         <v>358</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>698</v>
+        <v>638</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>774</v>
+        <v>678</v>
       </c>
       <c r="N84" s="3" t="s">
         <v>368</v>
@@ -16279,10 +16279,10 @@
         <v>38</v>
       </c>
       <c r="R84" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S84" s="3" t="s">
-        <v>656</v>
+        <v>612</v>
       </c>
       <c r="T84" s="3" t="s">
         <v>460</v>
@@ -16291,13 +16291,13 @@
         <v>6</v>
       </c>
       <c r="V84" s="3" t="s">
-        <v>649</v>
+        <v>605</v>
       </c>
       <c r="W84" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X84" s="3" t="s">
-        <v>679</v>
+        <v>627</v>
       </c>
       <c r="Y84" s="3">
         <v>2</v>
@@ -16372,10 +16372,10 @@
         <v>38</v>
       </c>
       <c r="AW84" s="7" t="s">
-        <v>778</v>
+        <v>682</v>
       </c>
       <c r="AX84" s="10" t="s">
-        <v>777</v>
+        <v>681</v>
       </c>
       <c r="AY84" s="8"/>
     </row>
@@ -16414,10 +16414,10 @@
         <v>359</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>698</v>
+        <v>638</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>767</v>
+        <v>675</v>
       </c>
       <c r="N85" s="3" t="s">
         <v>368</v>
@@ -16432,10 +16432,10 @@
         <v>38</v>
       </c>
       <c r="R85" s="3" t="s">
-        <v>758</v>
+        <v>672</v>
       </c>
       <c r="S85" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T85" s="3" t="s">
         <v>461</v>
@@ -16447,10 +16447,10 @@
         <v>232</v>
       </c>
       <c r="W85" s="3" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X85" s="3" t="s">
-        <v>679</v>
+        <v>627</v>
       </c>
       <c r="Y85" s="3">
         <v>2</v>
@@ -16565,10 +16565,10 @@
         <v>360</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>698</v>
+        <v>638</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>774</v>
+        <v>678</v>
       </c>
       <c r="N86" s="3" t="s">
         <v>368</v>
@@ -16583,10 +16583,10 @@
         <v>38</v>
       </c>
       <c r="R86" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S86" s="3" t="s">
-        <v>656</v>
+        <v>612</v>
       </c>
       <c r="T86" s="3" t="s">
         <v>462</v>
@@ -16595,7 +16595,7 @@
         <v>6</v>
       </c>
       <c r="V86" s="3" t="s">
-        <v>649</v>
+        <v>605</v>
       </c>
       <c r="W86" s="6"/>
       <c r="X86" s="6"/>
@@ -16672,10 +16672,10 @@
         <v>38</v>
       </c>
       <c r="AW86" s="7" t="s">
-        <v>780</v>
+        <v>684</v>
       </c>
       <c r="AX86" s="8" t="s">
-        <v>779</v>
+        <v>683</v>
       </c>
       <c r="AY86" s="8"/>
     </row>
@@ -16686,52 +16686,53 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="AX60" r:id="rId1" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1764380752/MamaEtelvinaYangana_Restaurante_Exterior_web1_xp0qrv.jpg" xr:uid="{6D6FE87D-B2B1-6448-8095-5BF50F5038B9}"/>
-    <hyperlink ref="AX61" r:id="rId2" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1764381322/TruchasCurishiroYangana_Fachada_web1_btrywj.jpg" xr:uid="{6300B616-ECE0-6440-9117-C02B9CEBB4B1}"/>
-    <hyperlink ref="AX53" r:id="rId3" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457780/LaCriollita_Vilcabamba_Exterior_web__fmvkjb.jpg" xr:uid="{CC3FF9BF-7F08-6E4D-9D2E-539EC574AFFF}"/>
-    <hyperlink ref="AX54" r:id="rId4" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502823/La_Terraza_Vilcabamba_fachada_web__f85btk.jpg" xr:uid="{AEAA509B-12C3-4B4B-9BD4-52C2F2A8E7FD}"/>
-    <hyperlink ref="AX75" r:id="rId5" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503228/La_Baguette_Vilcabamba_Instalaciones2_web__ryfyll.jpg" xr:uid="{AF739A31-1067-E244-BC69-5A1A18EA9C9D}"/>
-    <hyperlink ref="AX69" r:id="rId6" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503552/Las_Delicias_de_Paquita_Vilcabamba_productod_web__gfmlb7.jpg" xr:uid="{0CC0561B-FBF6-B246-9652-3A671841A75A}"/>
-    <hyperlink ref="AX45" r:id="rId7" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1766503816/Mama_Silvia_Vilcabamba_productocent_web__loipg5.jpg" xr:uid="{4E36135F-11D5-BE4A-B770-AEAABBDE61E6}"/>
-    <hyperlink ref="AX81" r:id="rId8" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504298/Oriundo_Vilcabamba_fachadadtl_web__ifhyt7.jpg" xr:uid="{439DB451-601C-9840-AD8F-E52A8236C8D9}"/>
-    <hyperlink ref="AX49" r:id="rId9" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504601/Katherine_Restaurante_Vilcabamba_fachada_web__kl9v1v.jpg" xr:uid="{75873CB5-4162-4647-9368-B5C11489D37E}"/>
-    <hyperlink ref="AX51" r:id="rId10" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1766455965/CafeyComidadeHogar_Vilcabamba_Fachada_web__j7awu1.jpg" xr:uid="{C3292907-97FB-A643-B51D-0960B7108503}"/>
-    <hyperlink ref="AX2" r:id="rId11" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1766540847/Restaurante_Noroccidental_Chantaco_productodt_web__eyniob.jpg" xr:uid="{707208D6-EA7B-FF4A-814B-19A0E6DA1290}"/>
-    <hyperlink ref="AX73" r:id="rId12" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1766541445/Villa_Beatriz_Vilcabamba_extpg_web__repiic.jpg" xr:uid="{89A3B1FA-0DF8-A84F-BB42-DAA8CFBE7A65}"/>
-    <hyperlink ref="AX3" r:id="rId13" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703094/Restaurante_Teresita_Chantaco_fachada_web___jjttnm.jpg" xr:uid="{FB16C349-DCBF-5F41-8595-B16AF2F8FEAF}"/>
-    <hyperlink ref="AX7" r:id="rId14" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1766703346/Cecinas_Johanna_ElCisne_Fachada_web__tet1d2.jpg" xr:uid="{B9DE33C8-5B74-BE4B-BC1C-63A2EA6BC475}"/>
-    <hyperlink ref="AX26" r:id="rId15" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1767059942/Comedor_AlPaso_ElCisne_fachada_web__hywnow.jpg" xr:uid="{7383680B-EBB8-D144-A520-C9353F9F5C76}"/>
-    <hyperlink ref="AX22" r:id="rId16" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060138/ComoenCasa_Restaurante_ElCisne_fachadaext_web__eqlznf.jpg" xr:uid="{8A2E9758-ED6F-1B4F-AF5F-4339EBF379B0}"/>
-    <hyperlink ref="AX8" r:id="rId17" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060423/Cuenquita_Comedor_ElCisne_restspa_web__xtkzw8.jpg" xr:uid="{C91459E3-0FDC-0A42-9DA9-F73E4D58C649}"/>
-    <hyperlink ref="AX10" r:id="rId18" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060696/DonaMary_Restaurante_ElCisne_fachada_web__r6anzn.jpg" xr:uid="{BD85B7B5-11AF-4E42-83A9-15CA00BAF3E3}"/>
-    <hyperlink ref="AX9" r:id="rId19" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1767060833/El_Conquistador_ElCisne_fachada_web__kqukht.jpg" xr:uid="{E7FFA598-41F8-8544-A9B7-DCFA6722ACF4}"/>
-    <hyperlink ref="AX25" r:id="rId20" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061436/Rincon_Cisteno_ElCisne_identidad2_web__l2tfju.jpg" xr:uid="{0B6AD3C8-378E-0A4E-A27C-B4C571AE8E9E}"/>
-    <hyperlink ref="AX17" r:id="rId21" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061673/ElTurista_Cecinas_Restaurante_ElCisne_fachada_web__o7yd8y.jpg" xr:uid="{1980DD46-4A5D-CE49-AB11-728F5919DE96}"/>
-    <hyperlink ref="AX23" r:id="rId22" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1767061848/Grill_HouseBar_ElCisne_fachadaext_web__l5avim.jpg" xr:uid="{AE190B76-FDD0-BA4B-BFAF-29D288533928}"/>
-    <hyperlink ref="AX18" r:id="rId23" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062076/LaEstanciaNaranjillo_Rest_ElCisne_fachadaet_web__owyedo.jpg" xr:uid="{6CAD1ACA-9B42-9D4C-AAAB-62CA837BAC29}"/>
-    <hyperlink ref="AX19" r:id="rId24" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062501/MamaOlla_Rest_ElCisne_fachada_web__pa1wty.jpg" xr:uid="{9D1C12B2-9199-D44C-A827-E483C0AD5D54}"/>
-    <hyperlink ref="AX20" r:id="rId25" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1767062753/Pinto_Cecinas_Restaurante_ElCisne_lafachada_web__vdebgx.jpg" xr:uid="{C39534CA-AC8B-9E45-A9A0-3E02FFB73E54}"/>
-    <hyperlink ref="AX12" r:id="rId26" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121691/ElBuenSabor_Rest_ElCisne_prodxhz_web__fv98dy.jpg" xr:uid="{1106AB31-BCE6-2946-B619-7A6F3133F4ED}"/>
-    <hyperlink ref="AX14" r:id="rId27" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1767121933/MamiLola_Rest_ElCisne_producdtl_web__llvolb.jpg" xr:uid="{9621AAA5-457C-5841-9DD9-2FC9C1BE1BC3}"/>
-    <hyperlink ref="AX13" r:id="rId28" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122320/Nancyta_Rest_ElCisne_ext2_web__mbtpea.jpg" xr:uid="{AFA1D841-BA8C-CD4F-B5C2-58DF47D8E8AD}"/>
-    <hyperlink ref="AX16" r:id="rId29" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122535/SaboresdelCampo_Rest_ElCisne_ident_web__dn9j2l.jpg" xr:uid="{E2FA31CF-07ED-F54D-AD6B-C19F2D4CB8F5}"/>
-    <hyperlink ref="AX6" r:id="rId30" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122675/Yesenia_Rest_ElCisne_fachada_web__zrwuup.jpg" xr:uid="{45284FF3-A607-7948-BDE1-55706433473F}"/>
-    <hyperlink ref="AX29" r:id="rId31" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1767122990/ElGolosito_Gualel_ext_web__mxuvuz.jpg" xr:uid="{030EBF59-C8D0-274A-9ED6-BD6CD8B35A88}"/>
-    <hyperlink ref="AX30" r:id="rId32" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123198/SaborGualasense_Gualel_prdcen_web__zuyxer.jpg" xr:uid="{492D201E-BE84-3C4A-874F-033BC5F9DC6C}"/>
-    <hyperlink ref="AX78" r:id="rId33" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123368/ElBuenSazondeQuinara_Quinara_ext_web__clzf7r.jpg" xr:uid="{4FA1DFA1-11A7-8F4B-9BD3-2A89EA3F82E6}"/>
-    <hyperlink ref="AX71" r:id="rId34" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123682/EsconditedeQuezada_Santiago_interx2f_web__hpido6.jpg" xr:uid="{D513CACB-421C-E543-8C03-3A7BDEA3807F}"/>
-    <hyperlink ref="AX74" r:id="rId35" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1767123941/EstanciaAlcivar_Santiago_ext_web__q52qph.jpg" xr:uid="{AA7E62E2-C099-DE4A-8913-313012792725}"/>
-    <hyperlink ref="AX58" r:id="rId36" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124216/Olivo_Yangana_fachada_web__ytjsxg.jpg" xr:uid="{2C338D1A-8BE8-8A4A-BC07-2BC84E3B6E19}"/>
-    <hyperlink ref="AX57" r:id="rId37" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124544/QueRico_Restaurante_Yangana_prdg_web__ndgt4j.jpg" xr:uid="{1FBF4277-EEBA-624F-9D5A-389DCDE3DD93}"/>
-    <hyperlink ref="AX59" r:id="rId38" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124730/SaboresdemiTierra_Yangana_prdchz_web__v0oopa.jpg" xr:uid="{BE36CCFA-103C-C94F-BB55-D5EB4BAEC179}"/>
-    <hyperlink ref="AX62" r:id="rId39" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1767124877/Sanamaqui_Yangana_ext_web__xa0rtf.jpg" xr:uid="{FD8A8272-674F-7245-B622-8A96313E6954}"/>
-    <hyperlink ref="AX43" r:id="rId40" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193085/Machay_Taquil_ext_web__hag0y9.jpg" xr:uid="{FCCA98D6-6D28-4C40-B348-614DC5F3C592}"/>
-    <hyperlink ref="AX42" r:id="rId41" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193445/SabordelCampo_Taquil_ext_web__waizee.jpg" xr:uid="{81DBB0F7-541D-454D-8AD3-C0AA6FFE1FBB}"/>
-    <hyperlink ref="AX44" r:id="rId42" display="https://res.cloudinary.com/djl0e1p6e/image/upload/v1767193738/Sariri_Taquil_instal_web__m4ebig.jpg" xr:uid="{0D8CAF1E-8068-B64D-A6C8-5798370EB4FC}"/>
+    <hyperlink ref="AX60" r:id="rId1" xr:uid="{6D6FE87D-B2B1-6448-8095-5BF50F5038B9}"/>
+    <hyperlink ref="AX61" r:id="rId2" xr:uid="{6300B616-ECE0-6440-9117-C02B9CEBB4B1}"/>
+    <hyperlink ref="AX53" r:id="rId3" xr:uid="{CC3FF9BF-7F08-6E4D-9D2E-539EC574AFFF}"/>
+    <hyperlink ref="AX54" r:id="rId4" xr:uid="{AEAA509B-12C3-4B4B-9BD4-52C2F2A8E7FD}"/>
+    <hyperlink ref="AX75" r:id="rId5" xr:uid="{AF739A31-1067-E244-BC69-5A1A18EA9C9D}"/>
+    <hyperlink ref="AX69" r:id="rId6" xr:uid="{0CC0561B-FBF6-B246-9652-3A671841A75A}"/>
+    <hyperlink ref="AX45" r:id="rId7" xr:uid="{4E36135F-11D5-BE4A-B770-AEAABBDE61E6}"/>
+    <hyperlink ref="AX81" r:id="rId8" xr:uid="{439DB451-601C-9840-AD8F-E52A8236C8D9}"/>
+    <hyperlink ref="AX49" r:id="rId9" xr:uid="{75873CB5-4162-4647-9368-B5C11489D37E}"/>
+    <hyperlink ref="AX51" r:id="rId10" xr:uid="{C3292907-97FB-A643-B51D-0960B7108503}"/>
+    <hyperlink ref="AX2" r:id="rId11" xr:uid="{707208D6-EA7B-FF4A-814B-19A0E6DA1290}"/>
+    <hyperlink ref="AX73" r:id="rId12" xr:uid="{89A3B1FA-0DF8-A84F-BB42-DAA8CFBE7A65}"/>
+    <hyperlink ref="AX3" r:id="rId13" xr:uid="{FB16C349-DCBF-5F41-8595-B16AF2F8FEAF}"/>
+    <hyperlink ref="AX7" r:id="rId14" xr:uid="{B9DE33C8-5B74-BE4B-BC1C-63A2EA6BC475}"/>
+    <hyperlink ref="AX26" r:id="rId15" xr:uid="{7383680B-EBB8-D144-A520-C9353F9F5C76}"/>
+    <hyperlink ref="AX22" r:id="rId16" xr:uid="{8A2E9758-ED6F-1B4F-AF5F-4339EBF379B0}"/>
+    <hyperlink ref="AX8" r:id="rId17" xr:uid="{C91459E3-0FDC-0A42-9DA9-F73E4D58C649}"/>
+    <hyperlink ref="AX10" r:id="rId18" xr:uid="{BD85B7B5-11AF-4E42-83A9-15CA00BAF3E3}"/>
+    <hyperlink ref="AX9" r:id="rId19" xr:uid="{E7FFA598-41F8-8544-A9B7-DCFA6722ACF4}"/>
+    <hyperlink ref="AX25" r:id="rId20" xr:uid="{0B6AD3C8-378E-0A4E-A27C-B4C571AE8E9E}"/>
+    <hyperlink ref="AX17" r:id="rId21" xr:uid="{1980DD46-4A5D-CE49-AB11-728F5919DE96}"/>
+    <hyperlink ref="AX23" r:id="rId22" xr:uid="{AE190B76-FDD0-BA4B-BFAF-29D288533928}"/>
+    <hyperlink ref="AX18" r:id="rId23" xr:uid="{6CAD1ACA-9B42-9D4C-AAAB-62CA837BAC29}"/>
+    <hyperlink ref="AX19" r:id="rId24" xr:uid="{9D1C12B2-9199-D44C-A827-E483C0AD5D54}"/>
+    <hyperlink ref="AX20" r:id="rId25" xr:uid="{C39534CA-AC8B-9E45-A9A0-3E02FFB73E54}"/>
+    <hyperlink ref="AX12" r:id="rId26" xr:uid="{1106AB31-BCE6-2946-B619-7A6F3133F4ED}"/>
+    <hyperlink ref="AX14" r:id="rId27" xr:uid="{9621AAA5-457C-5841-9DD9-2FC9C1BE1BC3}"/>
+    <hyperlink ref="AX13" r:id="rId28" xr:uid="{AFA1D841-BA8C-CD4F-B5C2-58DF47D8E8AD}"/>
+    <hyperlink ref="AX16" r:id="rId29" xr:uid="{E2FA31CF-07ED-F54D-AD6B-C19F2D4CB8F5}"/>
+    <hyperlink ref="AX6" r:id="rId30" xr:uid="{45284FF3-A607-7948-BDE1-55706433473F}"/>
+    <hyperlink ref="AX29" r:id="rId31" xr:uid="{030EBF59-C8D0-274A-9ED6-BD6CD8B35A88}"/>
+    <hyperlink ref="AX30" r:id="rId32" xr:uid="{492D201E-BE84-3C4A-874F-033BC5F9DC6C}"/>
+    <hyperlink ref="AX78" r:id="rId33" xr:uid="{4FA1DFA1-11A7-8F4B-9BD3-2A89EA3F82E6}"/>
+    <hyperlink ref="AX71" r:id="rId34" xr:uid="{D513CACB-421C-E543-8C03-3A7BDEA3807F}"/>
+    <hyperlink ref="AX74" r:id="rId35" xr:uid="{AA7E62E2-C099-DE4A-8913-313012792725}"/>
+    <hyperlink ref="AX58" r:id="rId36" xr:uid="{2C338D1A-8BE8-8A4A-BC07-2BC84E3B6E19}"/>
+    <hyperlink ref="AX57" r:id="rId37" xr:uid="{1FBF4277-EEBA-624F-9D5A-389DCDE3DD93}"/>
+    <hyperlink ref="AX59" r:id="rId38" xr:uid="{BE36CCFA-103C-C94F-BB55-D5EB4BAEC179}"/>
+    <hyperlink ref="AX62" r:id="rId39" xr:uid="{FD8A8272-674F-7245-B622-8A96313E6954}"/>
+    <hyperlink ref="AX43" r:id="rId40" xr:uid="{FCCA98D6-6D28-4C40-B348-614DC5F3C592}"/>
+    <hyperlink ref="AX42" r:id="rId41" xr:uid="{81DBB0F7-541D-454D-8AD3-C0AA6FFE1FBB}"/>
+    <hyperlink ref="AX44" r:id="rId42" xr:uid="{0D8CAF1E-8068-B64D-A6C8-5798370EB4FC}"/>
     <hyperlink ref="AX83" r:id="rId43" xr:uid="{2AC58E7A-7304-0040-8AA1-3182683899A8}"/>
     <hyperlink ref="AX84" r:id="rId44" xr:uid="{46DCA204-0E35-1841-AA7C-9A2E7524C138}"/>
     <hyperlink ref="AX86" r:id="rId45" xr:uid="{7D84B744-5B31-9C43-80F8-CF32B5B3A4A8}"/>
     <hyperlink ref="AX65" r:id="rId46" xr:uid="{F9669C75-4D0E-AA48-AD19-279027764C15}"/>
+    <hyperlink ref="AX46" r:id="rId47" xr:uid="{C9C8826F-EDEE-6048-8B46-F998250E9A80}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>

--- a/media/csv_uploads/gastronomia_establecimiento1.xlsx
+++ b/media/csv_uploads/gastronomia_establecimiento1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santigovinan/Documents/applications-django/emprendimientos/media/csv_uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54FEED8-1F07-AC48-85CB-F48FF582AB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA81EA57-121E-6341-831F-76557293F557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="1720" windowWidth="21840" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7100" yWindow="940" windowWidth="21840" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -329,9 +329,6 @@
     <t>Carmen Nohemy Aguilar Castillo</t>
   </si>
   <si>
-    <t>Restaurant Marisqueria Peru Mar Carnes y Parrillas</t>
-  </si>
-  <si>
     <t>Asados Doña Bachita</t>
   </si>
   <si>
@@ -563,9 +560,6 @@
     <t>Oriundo Restaurante</t>
   </si>
   <si>
-    <t>Cafeteria Killa</t>
-  </si>
-  <si>
     <t>Pollo a la Brasa Don Chinito</t>
   </si>
   <si>
@@ -2276,9 +2270,6 @@
     <t>Hostería Descanso del Toro</t>
   </si>
   <si>
-    <t>Bambú Café Restaurantt</t>
-  </si>
-  <si>
     <t>Cafetería Restaurant Olivo by Anita Tacuri</t>
   </si>
   <si>
@@ -2310,6 +2301,15 @@
   </si>
   <si>
     <t>Mama Digna Restaurant y Cafetería</t>
+  </si>
+  <si>
+    <t>Restaurant Marisquería Perú Mar Carnes y Parrillas</t>
+  </si>
+  <si>
+    <t>Cafetería Killa</t>
+  </si>
+  <si>
+    <t>Bambú Café Restaurant</t>
   </si>
 </sst>
 </file>
@@ -3574,8 +3574,8 @@
   </sheetPr>
   <dimension ref="A1:AY83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AV1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3675,10 +3675,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>13</v>
@@ -3690,40 +3690,40 @@
         <v>15</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>533</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>19</v>
@@ -3738,7 +3738,7 @@
         <v>22</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AJ1" s="2" t="s">
         <v>23</v>
@@ -3753,25 +3753,25 @@
         <v>26</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AO1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="AP1" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="AR1" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>538</v>
       </c>
       <c r="AS1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AU1" s="2" t="s">
         <v>29</v>
@@ -3780,13 +3780,13 @@
         <v>30</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="AY1" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="2" spans="1:51" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3800,13 +3800,13 @@
         <v>33</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E2" s="3">
         <v>979670398</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>34</v>
@@ -3824,11 +3824,11 @@
         <v>37</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O2" s="3">
         <v>1</v>
@@ -3840,25 +3840,25 @@
         <v>38</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="U2" s="4">
         <v>3.75</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="Y2" s="3">
         <v>2</v>
@@ -3931,16 +3931,16 @@
       </c>
       <c r="AV2" s="6"/>
       <c r="AW2" s="7" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AX2" s="10" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AY2" s="8"/>
     </row>
     <row r="3" spans="1:51" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>32</v>
@@ -3949,13 +3949,13 @@
         <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E3" s="3">
         <v>982686170</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>45</v>
@@ -3973,11 +3973,11 @@
         <v>37</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O3" s="3">
         <v>2</v>
@@ -3989,25 +3989,25 @@
         <v>38</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="U3" s="4">
         <v>2.5</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y3" s="3">
         <v>1</v>
@@ -4082,16 +4082,16 @@
         <v>38</v>
       </c>
       <c r="AW3" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AX3" s="10" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AY3" s="8"/>
     </row>
     <row r="4" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>32</v>
@@ -4100,16 +4100,16 @@
         <v>48</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E4" s="3">
         <v>958690650</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>35</v>
@@ -4124,11 +4124,11 @@
         <v>37</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O4" s="3">
         <v>2</v>
@@ -4140,25 +4140,25 @@
         <v>38</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="U4" s="4">
         <v>3.5</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y4" s="3">
         <v>2</v>
@@ -4233,7 +4233,7 @@
         <v>38</v>
       </c>
       <c r="AW4" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX4" s="8"/>
       <c r="AY4" s="8"/>
@@ -4249,22 +4249,22 @@
         <v>48</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E5" s="3">
         <v>985094341</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>36</v>
@@ -4273,11 +4273,11 @@
         <v>37</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O5" s="3">
         <v>2</v>
@@ -4289,25 +4289,25 @@
         <v>36</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U5" s="4">
         <v>3</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y5" s="3">
         <v>2</v>
@@ -4382,14 +4382,14 @@
         <v>38</v>
       </c>
       <c r="AW5" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX5" s="8"/>
       <c r="AY5" s="8"/>
     </row>
     <row r="6" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>32</v>
@@ -4398,22 +4398,22 @@
         <v>62</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E6" s="3">
         <v>985902378</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>36</v>
@@ -4422,11 +4422,11 @@
         <v>54</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O6" s="3">
         <v>3</v>
@@ -4438,25 +4438,25 @@
         <v>38</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="U6" s="4">
         <v>5</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="Y6" s="3">
         <v>4</v>
@@ -4531,16 +4531,16 @@
         <v>38</v>
       </c>
       <c r="AW6" s="7" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AX6" s="10" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AY6" s="8"/>
     </row>
     <row r="7" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>32</v>
@@ -4549,22 +4549,22 @@
         <v>62</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E7" s="3">
         <v>997101647</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>36</v>
@@ -4573,11 +4573,11 @@
         <v>58</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O7" s="3">
         <v>2</v>
@@ -4589,25 +4589,25 @@
         <v>38</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="U7" s="4">
         <v>7.5</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y7" s="3">
         <v>3</v>
@@ -4682,16 +4682,16 @@
         <v>38</v>
       </c>
       <c r="AW7" s="7" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AX7" s="10" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AY7" s="8"/>
     </row>
     <row r="8" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>32</v>
@@ -4700,22 +4700,22 @@
         <v>62</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E8" s="3">
         <v>994424295</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>57</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>36</v>
@@ -4724,11 +4724,11 @@
         <v>58</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O8" s="3">
         <v>2</v>
@@ -4740,25 +4740,25 @@
         <v>38</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U8" s="4">
         <v>4</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y8" s="3">
         <v>2</v>
@@ -4833,16 +4833,16 @@
         <v>38</v>
       </c>
       <c r="AW8" s="7" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AX8" s="10" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AY8" s="8"/>
     </row>
     <row r="9" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>32</v>
@@ -4851,13 +4851,13 @@
         <v>62</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E9" s="3">
         <v>985709075</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>59</v>
@@ -4866,7 +4866,7 @@
         <v>35</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>36</v>
@@ -4875,11 +4875,11 @@
         <v>58</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O9" s="3">
         <v>2</v>
@@ -4891,25 +4891,25 @@
         <v>38</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="U9" s="4">
         <v>6</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y9" s="3">
         <v>4</v>
@@ -4984,10 +4984,10 @@
         <v>38</v>
       </c>
       <c r="AW9" s="7" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="AX9" s="10" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AY9" s="8"/>
     </row>
@@ -5002,22 +5002,22 @@
         <v>62</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E10" s="3">
         <v>969691330</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>36</v>
@@ -5026,11 +5026,11 @@
         <v>58</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O10" s="3">
         <v>2</v>
@@ -5042,25 +5042,25 @@
         <v>38</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="U10" s="4">
         <v>4</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y10" s="3">
         <v>3</v>
@@ -5135,16 +5135,16 @@
         <v>38</v>
       </c>
       <c r="AW10" s="7" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AX10" s="10" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="AY10" s="8"/>
     </row>
     <row r="11" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>32</v>
@@ -5153,13 +5153,13 @@
         <v>62</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E11" s="3">
         <v>991450218</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>63</v>
@@ -5177,11 +5177,11 @@
         <v>64</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O11" s="3">
         <v>2</v>
@@ -5193,25 +5193,25 @@
         <v>38</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="U11" s="4">
         <v>4</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y11" s="3">
         <v>5</v>
@@ -5286,14 +5286,14 @@
         <v>38</v>
       </c>
       <c r="AW11" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX11" s="8"/>
       <c r="AY11" s="8"/>
     </row>
     <row r="12" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>32</v>
@@ -5302,13 +5302,13 @@
         <v>62</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E12" s="3">
         <v>939462796</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>65</v>
@@ -5317,7 +5317,7 @@
         <v>66</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>36</v>
@@ -5326,11 +5326,11 @@
         <v>58</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O12" s="3">
         <v>1</v>
@@ -5342,25 +5342,25 @@
         <v>38</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="U12" s="4">
         <v>4</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="Y12" s="3">
         <v>2</v>
@@ -5435,16 +5435,16 @@
         <v>38</v>
       </c>
       <c r="AW12" s="7" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AX12" s="10" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="AY12" s="8"/>
     </row>
     <row r="13" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>32</v>
@@ -5453,22 +5453,22 @@
         <v>62</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E13" s="3">
         <v>990937330</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>66</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>36</v>
@@ -5477,11 +5477,11 @@
         <v>58</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O13" s="3">
         <v>2</v>
@@ -5493,25 +5493,25 @@
         <v>38</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="U13" s="4">
         <v>3</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="Y13" s="3">
         <v>3</v>
@@ -5586,16 +5586,16 @@
         <v>38</v>
       </c>
       <c r="AW13" s="7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="AX13" s="10" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AY13" s="8"/>
     </row>
     <row r="14" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>32</v>
@@ -5604,35 +5604,35 @@
         <v>62</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E14" s="3">
         <v>939008806</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O14" s="3">
         <v>1</v>
@@ -5644,25 +5644,25 @@
         <v>38</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="U14" s="4">
         <v>3</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y14" s="3">
         <v>2</v>
@@ -5737,16 +5737,16 @@
         <v>38</v>
       </c>
       <c r="AW14" s="7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="AX14" s="10" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AY14" s="8"/>
     </row>
     <row r="15" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>32</v>
@@ -5755,13 +5755,13 @@
         <v>62</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E15" s="3">
         <v>985908474</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>68</v>
@@ -5779,11 +5779,11 @@
         <v>69</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O15" s="3">
         <v>3</v>
@@ -5795,25 +5795,25 @@
         <v>38</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="U15" s="4">
         <v>4</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="Y15" s="3">
         <v>3</v>
@@ -5888,14 +5888,14 @@
         <v>38</v>
       </c>
       <c r="AW15" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX15" s="8"/>
       <c r="AY15" s="8"/>
     </row>
     <row r="16" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>32</v>
@@ -5910,16 +5910,16 @@
         <v>939233599</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>36</v>
@@ -5928,13 +5928,13 @@
         <v>72</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O16" s="3">
         <v>2</v>
@@ -5946,25 +5946,25 @@
         <v>38</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="U16" s="4">
         <v>5</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y16" s="3">
         <v>3</v>
@@ -6039,10 +6039,10 @@
         <v>38</v>
       </c>
       <c r="AW16" s="7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AX16" s="10" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AY16" s="8"/>
     </row>
@@ -6063,7 +6063,7 @@
         <v>992586806</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>74</v>
@@ -6081,13 +6081,13 @@
         <v>75</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O17" s="3">
         <v>2</v>
@@ -6099,25 +6099,25 @@
         <v>38</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="U17" s="4">
         <v>5</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y17" s="3">
         <v>2</v>
@@ -6192,16 +6192,16 @@
         <v>38</v>
       </c>
       <c r="AW17" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AX17" s="10" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="AY17" s="8"/>
     </row>
     <row r="18" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>32</v>
@@ -6216,10 +6216,10 @@
         <v>939320817</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>77</v>
@@ -6234,11 +6234,11 @@
         <v>78</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O18" s="3">
         <v>2</v>
@@ -6250,25 +6250,25 @@
         <v>38</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="U18" s="4">
         <v>5</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y18" s="3">
         <v>3</v>
@@ -6343,16 +6343,16 @@
         <v>38</v>
       </c>
       <c r="AW18" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AX18" s="10" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="AY18" s="8"/>
     </row>
     <row r="19" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>32</v>
@@ -6367,10 +6367,10 @@
         <v>992309098</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>77</v>
@@ -6385,11 +6385,11 @@
         <v>79</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O19" s="3">
         <v>2</v>
@@ -6401,25 +6401,25 @@
         <v>38</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="U19" s="4">
         <v>5</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y19" s="3">
         <v>7</v>
@@ -6494,16 +6494,16 @@
         <v>38</v>
       </c>
       <c r="AW19" s="7" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AX19" s="10" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="AY19" s="8"/>
     </row>
     <row r="20" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -6512,16 +6512,16 @@
         <v>62</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E20" s="3">
         <v>981952323</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>77</v>
@@ -6536,13 +6536,13 @@
         <v>79</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O20" s="3">
         <v>2</v>
@@ -6554,25 +6554,25 @@
         <v>38</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="U20" s="4">
         <v>5</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y20" s="3">
         <v>2</v>
@@ -6647,16 +6647,16 @@
         <v>38</v>
       </c>
       <c r="AW20" s="7" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="AX20" s="10" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="AY20" s="8"/>
     </row>
     <row r="21" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>32</v>
@@ -6671,10 +6671,10 @@
         <v>939998896</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>35</v>
@@ -6689,11 +6689,11 @@
         <v>79</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O21" s="3">
         <v>2</v>
@@ -6705,25 +6705,25 @@
         <v>38</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="U21" s="4">
         <v>5</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y21" s="3">
         <v>4</v>
@@ -6798,14 +6798,14 @@
         <v>38</v>
       </c>
       <c r="AW21" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX21" s="8"/>
       <c r="AY21" s="8"/>
     </row>
     <row r="22" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>32</v>
@@ -6814,16 +6814,16 @@
         <v>62</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E22" s="3">
         <v>988275571</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>35</v>
@@ -6838,11 +6838,11 @@
         <v>58</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="O22" s="3">
         <v>2</v>
@@ -6854,25 +6854,25 @@
         <v>38</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="U22" s="4">
         <v>4</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y22" s="3">
         <v>2</v>
@@ -6947,16 +6947,16 @@
         <v>38</v>
       </c>
       <c r="AW22" s="7" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="AX22" s="10" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="AY22" s="8"/>
     </row>
     <row r="23" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>32</v>
@@ -6971,7 +6971,7 @@
         <v>993179418</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>80</v>
@@ -6989,11 +6989,11 @@
         <v>81</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O23" s="3">
         <v>2</v>
@@ -7005,25 +7005,25 @@
         <v>38</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="U23" s="4">
         <v>5</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y23" s="3">
         <v>2</v>
@@ -7062,7 +7062,7 @@
         <v>3</v>
       </c>
       <c r="AK23" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AL23" s="3" t="s">
         <v>42</v>
@@ -7086,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AT23" s="3" t="s">
         <v>44</v>
@@ -7098,16 +7098,16 @@
         <v>38</v>
       </c>
       <c r="AW23" s="7" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="AX23" s="10" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AY23" s="8"/>
     </row>
     <row r="24" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>32</v>
@@ -7116,16 +7116,16 @@
         <v>62</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E24" s="3">
         <v>992121769</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>57</v>
@@ -7140,11 +7140,11 @@
         <v>83</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O24" s="3">
         <v>2</v>
@@ -7156,25 +7156,25 @@
         <v>38</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="U24" s="4">
         <v>3</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="Y24" s="3">
         <v>3</v>
@@ -7249,14 +7249,14 @@
         <v>38</v>
       </c>
       <c r="AW24" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX24" s="8"/>
       <c r="AY24" s="8"/>
     </row>
     <row r="25" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>32</v>
@@ -7265,22 +7265,22 @@
         <v>62</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E25" s="3">
         <v>986709948</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>36</v>
@@ -7289,11 +7289,11 @@
         <v>54</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O25" s="3">
         <v>2</v>
@@ -7305,25 +7305,25 @@
         <v>38</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="U25" s="4">
         <v>3</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="Y25" s="3">
         <v>3</v>
@@ -7398,16 +7398,16 @@
         <v>38</v>
       </c>
       <c r="AW25" s="7" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AX25" s="10" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="AY25" s="8"/>
     </row>
     <row r="26" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>32</v>
@@ -7416,13 +7416,13 @@
         <v>62</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E26" s="3">
         <v>982944163</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>85</v>
@@ -7440,11 +7440,11 @@
         <v>54</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O26" s="3">
         <v>5</v>
@@ -7456,25 +7456,25 @@
         <v>38</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U26" s="4">
         <v>3</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="Y26" s="3">
         <v>5</v>
@@ -7549,10 +7549,10 @@
         <v>38</v>
       </c>
       <c r="AW26" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="AX26" s="10" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="AY26" s="8"/>
     </row>
@@ -7567,13 +7567,13 @@
         <v>62</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E27" s="3">
         <v>939468990</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>87</v>
@@ -7591,11 +7591,11 @@
         <v>58</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O27" s="3">
         <v>2</v>
@@ -7607,25 +7607,25 @@
         <v>38</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="U27" s="4">
         <v>4</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y27" s="3">
         <v>4</v>
@@ -7700,14 +7700,14 @@
         <v>38</v>
       </c>
       <c r="AW27" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX27" s="8"/>
       <c r="AY27" s="8"/>
     </row>
     <row r="28" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>32</v>
@@ -7716,16 +7716,16 @@
         <v>62</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E28" s="3">
         <v>980904460</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>35</v>
@@ -7740,13 +7740,13 @@
         <v>58</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O28" s="3">
         <v>4</v>
@@ -7758,25 +7758,25 @@
         <v>36</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="U28" s="4">
         <v>4</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y28" s="3">
         <v>2</v>
@@ -7851,14 +7851,14 @@
         <v>38</v>
       </c>
       <c r="AW28" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX28" s="8"/>
       <c r="AY28" s="8"/>
     </row>
     <row r="29" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>32</v>
@@ -7873,16 +7873,16 @@
         <v>993041863</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>36</v>
@@ -7891,11 +7891,11 @@
         <v>89</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="O29" s="3">
         <v>2</v>
@@ -7907,25 +7907,25 @@
         <v>38</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="U29" s="4">
         <v>3</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="Y29" s="3">
         <v>1</v>
@@ -8000,16 +8000,16 @@
         <v>38</v>
       </c>
       <c r="AW29" s="7" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="AX29" s="10" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="AY29" s="8"/>
     </row>
     <row r="30" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>32</v>
@@ -8024,16 +8024,16 @@
         <v>994108661</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>77</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>36</v>
@@ -8042,11 +8042,11 @@
         <v>37</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O30" s="3">
         <v>1</v>
@@ -8058,25 +8058,25 @@
         <v>38</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="U30" s="4">
         <v>3</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y30" s="3">
         <v>3</v>
@@ -8151,16 +8151,16 @@
         <v>38</v>
       </c>
       <c r="AW30" s="7" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AX30" s="10" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="AY30" s="8"/>
     </row>
     <row r="31" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>32</v>
@@ -8175,10 +8175,10 @@
         <v>967437524</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>35</v>
@@ -8193,11 +8193,11 @@
         <v>37</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O31" s="3">
         <v>2</v>
@@ -8209,25 +8209,25 @@
         <v>38</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="U31" s="4">
         <v>3</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="Y31" s="3">
         <v>3</v>
@@ -8302,14 +8302,14 @@
         <v>38</v>
       </c>
       <c r="AW31" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX31" s="8"/>
       <c r="AY31" s="8"/>
     </row>
     <row r="32" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>32</v>
@@ -8324,10 +8324,10 @@
         <v>967078713</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>77</v>
@@ -8342,11 +8342,11 @@
         <v>91</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O32" s="3">
         <v>1</v>
@@ -8358,25 +8358,25 @@
         <v>38</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="U32" s="4">
         <v>3</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="Y32" s="3">
         <v>1</v>
@@ -8451,14 +8451,14 @@
         <v>38</v>
       </c>
       <c r="AW32" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX32" s="8"/>
       <c r="AY32" s="8"/>
     </row>
     <row r="33" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>84</v>
@@ -8473,16 +8473,16 @@
         <v>985550956</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>36</v>
@@ -8491,11 +8491,11 @@
         <v>91</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O33" s="3">
         <v>1</v>
@@ -8507,25 +8507,25 @@
         <v>38</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="U33" s="4">
         <v>3</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="Y33" s="3">
         <v>2</v>
@@ -8600,7 +8600,7 @@
         <v>38</v>
       </c>
       <c r="AW33" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX33" s="8"/>
       <c r="AY33" s="8"/>
@@ -8622,7 +8622,7 @@
         <v>992305288</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>95</v>
@@ -8637,14 +8637,14 @@
         <v>36</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O34" s="3">
         <v>5</v>
@@ -8656,25 +8656,25 @@
         <v>38</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="U34" s="4">
         <v>3</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="Y34" s="3">
         <v>1</v>
@@ -8749,7 +8749,7 @@
         <v>38</v>
       </c>
       <c r="AW34" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX34" s="8"/>
       <c r="AY34" s="8"/>
@@ -8771,7 +8771,7 @@
         <v>9599997990</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>97</v>
@@ -8786,14 +8786,14 @@
         <v>36</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O35" s="3">
         <v>5</v>
@@ -8805,25 +8805,25 @@
         <v>38</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="U35" s="4">
         <v>3</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y35" s="3">
         <v>1</v>
@@ -8898,14 +8898,14 @@
         <v>38</v>
       </c>
       <c r="AW35" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX35" s="8"/>
       <c r="AY35" s="8"/>
     </row>
     <row r="36" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>98</v>
+        <v>756</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>32</v>
@@ -8920,10 +8920,10 @@
         <v>939780206</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>35</v>
@@ -8935,14 +8935,14 @@
         <v>36</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O36" s="3">
         <v>5</v>
@@ -8954,25 +8954,25 @@
         <v>38</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="U36" s="4">
         <v>7</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="X36" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="Y36" s="3">
         <v>3</v>
@@ -9047,14 +9047,14 @@
         <v>38</v>
       </c>
       <c r="AW36" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX36" s="8"/>
       <c r="AY36" s="8"/>
     </row>
     <row r="37" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>84</v>
@@ -9069,10 +9069,10 @@
         <v>998313039</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>66</v>
@@ -9084,14 +9084,14 @@
         <v>36</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O37" s="3">
         <v>2</v>
@@ -9103,25 +9103,25 @@
         <v>38</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="U37" s="4">
         <v>3.5</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="X37" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="Y37" s="3">
         <v>3</v>
@@ -9196,14 +9196,14 @@
         <v>38</v>
       </c>
       <c r="AW37" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX37" s="8"/>
       <c r="AY37" s="8"/>
     </row>
     <row r="38" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>32</v>
@@ -9218,10 +9218,10 @@
         <v>959024149</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>35</v>
@@ -9233,14 +9233,14 @@
         <v>36</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O38" s="3">
         <v>2</v>
@@ -9252,25 +9252,25 @@
         <v>38</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="U38" s="4">
         <v>3.5</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X38" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="Y38" s="3">
         <v>3</v>
@@ -9306,7 +9306,7 @@
         <v>41</v>
       </c>
       <c r="AJ38" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AK38" s="3" t="s">
         <v>36</v>
@@ -9330,7 +9330,7 @@
         <v>36</v>
       </c>
       <c r="AR38" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AS38" s="3" t="s">
         <v>36</v>
@@ -9345,20 +9345,20 @@
         <v>38</v>
       </c>
       <c r="AW38" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX38" s="8"/>
       <c r="AY38" s="8"/>
     </row>
     <row r="39" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>94</v>
@@ -9367,10 +9367,10 @@
         <v>991276907</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>35</v>
@@ -9382,14 +9382,14 @@
         <v>36</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O39" s="3">
         <v>3</v>
@@ -9401,25 +9401,25 @@
         <v>36</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="U39" s="4">
         <v>2</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="X39" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y39" s="3">
         <v>2</v>
@@ -9494,20 +9494,20 @@
         <v>38</v>
       </c>
       <c r="AW39" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX39" s="8"/>
       <c r="AY39" s="8"/>
     </row>
     <row r="40" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>94</v>
@@ -9516,16 +9516,16 @@
         <v>969349587</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>36</v>
@@ -9534,11 +9534,11 @@
         <v>91</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="M40" s="3"/>
       <c r="N40" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O40" s="3">
         <v>1</v>
@@ -9550,25 +9550,25 @@
         <v>38</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="U40" s="4">
         <v>3</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y40" s="3">
         <v>2</v>
@@ -9643,20 +9643,20 @@
         <v>38</v>
       </c>
       <c r="AW40" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX40" s="8"/>
       <c r="AY40" s="8"/>
     </row>
     <row r="41" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>94</v>
@@ -9665,16 +9665,16 @@
         <v>981670898</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>36</v>
@@ -9683,11 +9683,11 @@
         <v>91</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="M41" s="3"/>
       <c r="N41" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O41" s="3">
         <v>2</v>
@@ -9699,25 +9699,25 @@
         <v>38</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="U41" s="4">
         <v>3</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y41" s="3">
         <v>2</v>
@@ -9792,34 +9792,34 @@
         <v>38</v>
       </c>
       <c r="AW41" s="7" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AX41" s="10" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AY41" s="8"/>
     </row>
     <row r="42" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E42" s="3">
         <v>991347799</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>35</v>
@@ -9831,16 +9831,16 @@
         <v>36</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O42" s="3">
         <v>2</v>
@@ -9852,25 +9852,25 @@
         <v>38</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="U42" s="4">
         <v>7</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="Y42" s="3">
         <v>3</v>
@@ -9909,13 +9909,13 @@
         <v>16</v>
       </c>
       <c r="AK42" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AL42" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM42" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AN42" s="3" t="s">
         <v>32</v>
@@ -9933,10 +9933,10 @@
         <v>5</v>
       </c>
       <c r="AS42" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AT42" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AU42" s="3" t="s">
         <v>38</v>
@@ -9945,34 +9945,34 @@
         <v>38</v>
       </c>
       <c r="AW42" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="AX42" s="10" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="AY42" s="8"/>
     </row>
     <row r="43" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E43" s="3">
         <v>997194675</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>35</v>
@@ -9984,16 +9984,16 @@
         <v>36</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="O43" s="3">
         <v>5</v>
@@ -10005,25 +10005,25 @@
         <v>38</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="U43" s="4">
         <v>8</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="Y43" s="3">
         <v>3</v>
@@ -10062,13 +10062,13 @@
         <v>5</v>
       </c>
       <c r="AK43" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AL43" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM43" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN43" s="3" t="s">
         <v>32</v>
@@ -10086,10 +10086,10 @@
         <v>3</v>
       </c>
       <c r="AS43" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AT43" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AU43" s="3" t="s">
         <v>38</v>
@@ -10098,22 +10098,22 @@
         <v>38</v>
       </c>
       <c r="AW43" s="7" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="AX43" s="10" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AY43" s="8"/>
     </row>
     <row r="44" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>94</v>
@@ -10122,10 +10122,10 @@
         <v>962983944</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>35</v>
@@ -10137,14 +10137,14 @@
         <v>36</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O44" s="3">
         <v>6</v>
@@ -10156,25 +10156,25 @@
         <v>38</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="U44" s="4">
         <v>5.5</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="Y44" s="3">
         <v>10</v>
@@ -10189,7 +10189,7 @@
         <v>32</v>
       </c>
       <c r="AC44" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD44" s="3" t="s">
         <v>36</v>
@@ -10213,13 +10213,13 @@
         <v>6</v>
       </c>
       <c r="AK44" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AL44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM44" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AN44" s="3" t="s">
         <v>84</v>
@@ -10237,7 +10237,7 @@
         <v>6</v>
       </c>
       <c r="AS44" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AT44" s="3" t="s">
         <v>44</v>
@@ -10249,22 +10249,22 @@
         <v>38</v>
       </c>
       <c r="AW44" s="7" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AX44" s="10" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="AY44" s="8"/>
     </row>
     <row r="45" spans="1:51" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>94</v>
@@ -10273,10 +10273,10 @@
         <v>989524512</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>57</v>
@@ -10288,14 +10288,14 @@
         <v>36</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O45" s="3">
         <v>5</v>
@@ -10307,25 +10307,25 @@
         <v>38</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="T45" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="U45" s="4">
         <v>5</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="Y45" s="3">
         <v>3</v>
@@ -10364,13 +10364,13 @@
         <v>3</v>
       </c>
       <c r="AK45" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AL45" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM45" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AN45" s="3" t="s">
         <v>32</v>
@@ -10400,22 +10400,22 @@
         <v>38</v>
       </c>
       <c r="AW45" s="7" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AX45" s="8" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AY45" s="8"/>
     </row>
     <row r="46" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>94</v>
@@ -10424,10 +10424,10 @@
         <v>959569399</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>35</v>
@@ -10439,14 +10439,14 @@
         <v>36</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O46" s="3">
         <v>10</v>
@@ -10458,25 +10458,25 @@
         <v>38</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="U46" s="4">
         <v>7</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Y46" s="3">
         <v>4</v>
@@ -10491,7 +10491,7 @@
         <v>32</v>
       </c>
       <c r="AC46" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD46" s="3" t="s">
         <v>36</v>
@@ -10515,7 +10515,7 @@
         <v>4</v>
       </c>
       <c r="AK46" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AL46" s="3" t="s">
         <v>46</v>
@@ -10551,20 +10551,20 @@
         <v>38</v>
       </c>
       <c r="AW46" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX46" s="8"/>
       <c r="AY46" s="8"/>
     </row>
     <row r="47" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>94</v>
@@ -10573,10 +10573,10 @@
         <v>72640148</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>35</v>
@@ -10588,16 +10588,16 @@
         <v>36</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O47" s="3">
         <v>6</v>
@@ -10609,25 +10609,25 @@
         <v>38</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="U47" s="4">
         <v>10.5</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="Y47" s="3">
         <v>4</v>
@@ -10666,13 +10666,13 @@
         <v>10</v>
       </c>
       <c r="AK47" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AL47" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM47" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AN47" s="3" t="s">
         <v>32</v>
@@ -10702,20 +10702,20 @@
         <v>38</v>
       </c>
       <c r="AW47" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX47" s="8"/>
       <c r="AY47" s="8"/>
     </row>
     <row r="48" spans="1:51" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>94</v>
@@ -10724,10 +10724,10 @@
         <v>992250697</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>35</v>
@@ -10739,16 +10739,16 @@
         <v>36</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="O48" s="3">
         <v>3</v>
@@ -10760,25 +10760,25 @@
         <v>38</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="U48" s="4">
         <v>3.5</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="Y48" s="3">
         <v>3</v>
@@ -10817,7 +10817,7 @@
         <v>15</v>
       </c>
       <c r="AK48" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AL48" s="3" t="s">
         <v>46</v>
@@ -10853,22 +10853,22 @@
         <v>38</v>
       </c>
       <c r="AW48" s="7" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="AX48" s="10" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AY48" s="8"/>
     </row>
     <row r="49" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>94</v>
@@ -10877,10 +10877,10 @@
         <v>960288270</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>35</v>
@@ -10892,16 +10892,16 @@
         <v>36</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O49" s="3">
         <v>7</v>
@@ -10913,25 +10913,25 @@
         <v>38</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="U49" s="4">
         <v>5</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X49" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y49" s="3">
         <v>3</v>
@@ -10970,13 +10970,13 @@
         <v>4</v>
       </c>
       <c r="AK49" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AL49" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM49" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AN49" s="3" t="s">
         <v>32</v>
@@ -10991,10 +10991,10 @@
         <v>36</v>
       </c>
       <c r="AR49" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AS49" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AT49" s="3" t="s">
         <v>44</v>
@@ -11006,20 +11006,20 @@
         <v>38</v>
       </c>
       <c r="AW49" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX49" s="8"/>
       <c r="AY49" s="8"/>
     </row>
     <row r="50" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>94</v>
@@ -11028,10 +11028,10 @@
         <v>988271410</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>35</v>
@@ -11043,14 +11043,14 @@
         <v>36</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="M50" s="3"/>
       <c r="N50" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="O50" s="3">
         <v>3</v>
@@ -11062,25 +11062,25 @@
         <v>36</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="U50" s="4">
         <v>3.5</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="Y50" s="3">
         <v>3</v>
@@ -11155,22 +11155,22 @@
         <v>38</v>
       </c>
       <c r="AW50" s="7" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="AX50" s="10" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="AY50" s="8"/>
     </row>
     <row r="51" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>94</v>
@@ -11179,10 +11179,10 @@
         <v>992670070</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>57</v>
@@ -11194,14 +11194,14 @@
         <v>36</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="O51" s="3">
         <v>4</v>
@@ -11213,25 +11213,25 @@
         <v>36</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="U51" s="4">
         <v>4</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="Y51" s="3">
         <v>1</v>
@@ -11270,13 +11270,13 @@
         <v>8</v>
       </c>
       <c r="AK51" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AL51" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM51" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AN51" s="3" t="s">
         <v>32</v>
@@ -11306,32 +11306,32 @@
         <v>38</v>
       </c>
       <c r="AW51" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX51" s="8"/>
       <c r="AY51" s="8"/>
     </row>
     <row r="52" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E52" s="3">
         <v>939767460</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>35</v>
@@ -11343,14 +11343,14 @@
         <v>36</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O52" s="3">
         <v>5</v>
@@ -11362,25 +11362,25 @@
         <v>36</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="U52" s="4">
         <v>7</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="Y52" s="3">
         <v>7</v>
@@ -11419,13 +11419,13 @@
         <v>4</v>
       </c>
       <c r="AK52" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AL52" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM52" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AN52" s="3" t="s">
         <v>32</v>
@@ -11455,22 +11455,22 @@
         <v>38</v>
       </c>
       <c r="AW52" s="7" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="AX52" s="8" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="AY52" s="8"/>
     </row>
     <row r="53" spans="1:51" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>747</v>
+        <v>758</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>94</v>
@@ -11479,10 +11479,10 @@
         <v>991364262</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>57</v>
@@ -11494,14 +11494,14 @@
         <v>36</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O53" s="3">
         <v>6</v>
@@ -11513,25 +11513,25 @@
         <v>38</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="U53" s="4">
         <v>3</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X53" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y53" s="3">
         <v>2</v>
@@ -11570,7 +11570,7 @@
         <v>6</v>
       </c>
       <c r="AK53" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AL53" s="3" t="s">
         <v>42</v>
@@ -11606,20 +11606,20 @@
         <v>38</v>
       </c>
       <c r="AW53" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX53" s="8"/>
       <c r="AY53" s="8"/>
     </row>
     <row r="54" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>94</v>
@@ -11628,10 +11628,10 @@
         <v>72735773</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>35</v>
@@ -11643,14 +11643,14 @@
         <v>36</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O54" s="3">
         <v>3</v>
@@ -11662,25 +11662,25 @@
         <v>36</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T54" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="U54" s="4">
         <v>3</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="X54" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="Y54" s="3">
         <v>7</v>
@@ -11755,22 +11755,22 @@
         <v>38</v>
       </c>
       <c r="AW54" s="7" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="AX54" s="10" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="AY54" s="8"/>
     </row>
     <row r="55" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>94</v>
@@ -11779,10 +11779,10 @@
         <v>979802166</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>35</v>
@@ -11794,14 +11794,14 @@
         <v>36</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M55" s="3"/>
       <c r="N55" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O55" s="3">
         <v>2</v>
@@ -11813,25 +11813,25 @@
         <v>36</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T55" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="U55" s="4">
         <v>3</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X55" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="Y55" s="3">
         <v>3</v>
@@ -11906,22 +11906,22 @@
         <v>38</v>
       </c>
       <c r="AW55" s="7" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AX55" s="10" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="AY55" s="8"/>
     </row>
     <row r="56" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>94</v>
@@ -11930,10 +11930,10 @@
         <v>996259401</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>35</v>
@@ -11945,14 +11945,14 @@
         <v>36</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="M56" s="3"/>
       <c r="N56" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O56" s="3">
         <v>2</v>
@@ -11964,25 +11964,25 @@
         <v>36</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="U56" s="4">
         <v>2.75</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="X56" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="Y56" s="3">
         <v>3</v>
@@ -11997,7 +11997,7 @@
         <v>32</v>
       </c>
       <c r="AC56" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD56" s="3" t="s">
         <v>38</v>
@@ -12057,34 +12057,34 @@
         <v>38</v>
       </c>
       <c r="AW56" s="7" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="AX56" s="10" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AY56" s="8"/>
     </row>
     <row r="57" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E57" s="3">
         <v>990716673</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>35</v>
@@ -12096,16 +12096,16 @@
         <v>36</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O57" s="3">
         <v>4</v>
@@ -12117,25 +12117,25 @@
         <v>38</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="T57" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="U57" s="4">
         <v>5</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="X57" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="Y57" s="3">
         <v>2</v>
@@ -12171,16 +12171,16 @@
         <v>41</v>
       </c>
       <c r="AJ57" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AK57" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AL57" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM57" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AN57" s="3" t="s">
         <v>84</v>
@@ -12195,7 +12195,7 @@
         <v>36</v>
       </c>
       <c r="AR57" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AS57" s="3" t="s">
         <v>36</v>
@@ -12210,34 +12210,34 @@
         <v>38</v>
       </c>
       <c r="AW57" s="7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="AX57" s="10" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AY57" s="8"/>
     </row>
     <row r="58" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E58" s="3">
         <v>988637307</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>35</v>
@@ -12249,16 +12249,16 @@
         <v>36</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O58" s="3">
         <v>1</v>
@@ -12270,25 +12270,25 @@
         <v>36</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="U58" s="4">
         <v>5.5</v>
       </c>
       <c r="V58" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="X58" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="Y58" s="3">
         <v>3</v>
@@ -12309,10 +12309,10 @@
         <v>36</v>
       </c>
       <c r="AE58" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AF58" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AG58" s="3" t="s">
         <v>32</v>
@@ -12327,13 +12327,13 @@
         <v>4</v>
       </c>
       <c r="AK58" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AL58" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM58" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AN58" s="3" t="s">
         <v>32</v>
@@ -12363,34 +12363,34 @@
         <v>38</v>
       </c>
       <c r="AW58" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="AX58" s="10" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AY58" s="8"/>
     </row>
     <row r="59" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E59" s="3">
         <v>969647354</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>35</v>
@@ -12402,16 +12402,16 @@
         <v>36</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="O59" s="3">
         <v>4</v>
@@ -12423,25 +12423,25 @@
         <v>36</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="U59" s="4">
         <v>5</v>
       </c>
       <c r="V59" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="X59" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="Y59" s="3">
         <v>2</v>
@@ -12480,7 +12480,7 @@
         <v>4</v>
       </c>
       <c r="AK59" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AL59" s="3" t="s">
         <v>42</v>
@@ -12507,7 +12507,7 @@
         <v>36</v>
       </c>
       <c r="AT59" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AU59" s="3" t="s">
         <v>36</v>
@@ -12516,34 +12516,34 @@
         <v>38</v>
       </c>
       <c r="AW59" s="7" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AX59" s="10" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="AY59" s="8"/>
     </row>
     <row r="60" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E60" s="3">
         <v>939385851</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>35</v>
@@ -12558,13 +12558,13 @@
         <v>89</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O60" s="3">
         <v>2</v>
@@ -12576,25 +12576,25 @@
         <v>38</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="T60" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="U60" s="4">
         <v>5</v>
       </c>
       <c r="V60" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W60" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="X60" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="Y60" s="3">
         <v>3</v>
@@ -12633,13 +12633,13 @@
         <v>4</v>
       </c>
       <c r="AK60" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AL60" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM60" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AN60" s="3" t="s">
         <v>32</v>
@@ -12657,10 +12657,10 @@
         <v>6</v>
       </c>
       <c r="AS60" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AT60" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AU60" s="3" t="s">
         <v>36</v>
@@ -12669,34 +12669,34 @@
         <v>38</v>
       </c>
       <c r="AW60" s="7" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AX60" s="8" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AY60" s="8"/>
     </row>
     <row r="61" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E61" s="3">
         <v>989804020</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>35</v>
@@ -12708,16 +12708,16 @@
         <v>36</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O61" s="3">
         <v>4</v>
@@ -12729,25 +12729,25 @@
         <v>38</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="T61" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="U61" s="4">
         <v>8</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="W61" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X61" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y61" s="3">
         <v>4</v>
@@ -12762,16 +12762,16 @@
         <v>32</v>
       </c>
       <c r="AC61" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD61" s="3" t="s">
         <v>36</v>
       </c>
       <c r="AE61" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="AF61" s="5" t="s">
         <v>437</v>
-      </c>
-      <c r="AF61" s="5" t="s">
-        <v>439</v>
       </c>
       <c r="AG61" s="3" t="s">
         <v>32</v>
@@ -12786,13 +12786,13 @@
         <v>4</v>
       </c>
       <c r="AK61" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AL61" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM61" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AN61" s="3" t="s">
         <v>32</v>
@@ -12810,10 +12810,10 @@
         <v>4</v>
       </c>
       <c r="AS61" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AT61" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AU61" s="3" t="s">
         <v>38</v>
@@ -12822,34 +12822,34 @@
         <v>38</v>
       </c>
       <c r="AW61" s="7" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="AX61" s="8" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="AY61" s="8"/>
     </row>
     <row r="62" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E62" s="3">
         <v>980882809</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>35</v>
@@ -12861,16 +12861,16 @@
         <v>36</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O62" s="3">
         <v>10</v>
@@ -12882,25 +12882,25 @@
         <v>38</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="T62" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="U62" s="4">
         <v>7</v>
       </c>
       <c r="V62" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="W62" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X62" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Y62" s="3">
         <v>10</v>
@@ -12921,10 +12921,10 @@
         <v>38</v>
       </c>
       <c r="AE62" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AF62" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AG62" s="3" t="s">
         <v>32</v>
@@ -12939,13 +12939,13 @@
         <v>15</v>
       </c>
       <c r="AK62" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AL62" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM62" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AN62" s="3" t="s">
         <v>32</v>
@@ -12957,7 +12957,7 @@
         <v>50</v>
       </c>
       <c r="AQ62" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AR62" s="3">
         <v>3</v>
@@ -12966,7 +12966,7 @@
         <v>36</v>
       </c>
       <c r="AT62" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AU62" s="3" t="s">
         <v>36</v>
@@ -12975,34 +12975,34 @@
         <v>38</v>
       </c>
       <c r="AW62" s="7" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AX62" s="10" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AY62" s="8"/>
     </row>
     <row r="63" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E63" s="3">
         <v>984934506</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>35</v>
@@ -13014,16 +13014,16 @@
         <v>36</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O63" s="3">
         <v>7</v>
@@ -13035,25 +13035,25 @@
         <v>38</v>
       </c>
       <c r="R63" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="T63" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="U63" s="4">
         <v>7</v>
       </c>
       <c r="V63" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="W63" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="X63" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y63" s="3">
         <v>5</v>
@@ -13074,10 +13074,10 @@
         <v>38</v>
       </c>
       <c r="AE63" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AF63" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AG63" s="3" t="s">
         <v>36</v>
@@ -13092,13 +13092,13 @@
         <v>5</v>
       </c>
       <c r="AK63" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AL63" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM63" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AN63" s="3" t="s">
         <v>32</v>
@@ -13107,7 +13107,7 @@
         <v>6</v>
       </c>
       <c r="AP63" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AQ63" s="3" t="s">
         <v>36</v>
@@ -13116,7 +13116,7 @@
         <v>26</v>
       </c>
       <c r="AS63" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AT63" s="3" t="s">
         <v>44</v>
@@ -13128,14 +13128,14 @@
         <v>38</v>
       </c>
       <c r="AW63" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX63" s="8"/>
       <c r="AY63" s="8"/>
     </row>
     <row r="64" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>32</v>
@@ -13144,16 +13144,16 @@
         <v>93</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E64" s="3">
         <v>997382881</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>35</v>
@@ -13165,16 +13165,16 @@
         <v>36</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O64" s="3">
         <v>8</v>
@@ -13186,25 +13186,25 @@
         <v>38</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="T64" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="U64" s="4">
         <v>5.5</v>
       </c>
       <c r="V64" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="W64" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X64" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Y64" s="3">
         <v>2</v>
@@ -13243,7 +13243,7 @@
         <v>6</v>
       </c>
       <c r="AK64" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AL64" s="3" t="s">
         <v>46</v>
@@ -13267,7 +13267,7 @@
         <v>1</v>
       </c>
       <c r="AS64" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AT64" s="3" t="s">
         <v>44</v>
@@ -13279,14 +13279,14 @@
         <v>38</v>
       </c>
       <c r="AW64" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX64" s="8"/>
       <c r="AY64" s="8"/>
     </row>
     <row r="65" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>32</v>
@@ -13301,10 +13301,10 @@
         <v>992714781</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>35</v>
@@ -13316,14 +13316,14 @@
         <v>36</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="M65" s="3"/>
       <c r="N65" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O65" s="3">
         <v>5</v>
@@ -13335,25 +13335,25 @@
         <v>38</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="T65" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="U65" s="4">
         <v>3</v>
       </c>
       <c r="V65" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="W65" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X65" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Y65" s="3">
         <v>1</v>
@@ -13392,13 +13392,13 @@
         <v>5</v>
       </c>
       <c r="AK65" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AL65" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM65" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AN65" s="3" t="s">
         <v>32</v>
@@ -13428,32 +13428,32 @@
         <v>38</v>
       </c>
       <c r="AW65" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX65" s="8"/>
       <c r="AY65" s="8"/>
     </row>
     <row r="66" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E66" s="3">
         <v>987192802</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>35</v>
@@ -13465,14 +13465,14 @@
         <v>36</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="M66" s="3"/>
       <c r="N66" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O66" s="3">
         <v>3</v>
@@ -13484,25 +13484,25 @@
         <v>38</v>
       </c>
       <c r="R66" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T66" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="U66" s="4">
         <v>3</v>
       </c>
       <c r="V66" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="W66" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X66" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y66" s="3">
         <v>2</v>
@@ -13541,7 +13541,7 @@
         <v>16</v>
       </c>
       <c r="AK66" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AL66" s="3" t="s">
         <v>46</v>
@@ -13577,22 +13577,22 @@
         <v>38</v>
       </c>
       <c r="AW66" s="7" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="AX66" s="10" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="AY66" s="8"/>
     </row>
     <row r="67" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>94</v>
@@ -13601,10 +13601,10 @@
         <v>991322614</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>35</v>
@@ -13616,14 +13616,14 @@
         <v>36</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="M67" s="3"/>
       <c r="N67" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O67" s="3">
         <v>6</v>
@@ -13635,25 +13635,25 @@
         <v>38</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="T67" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="U67" s="4">
         <v>3.5</v>
       </c>
       <c r="V67" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W67" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X67" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Y67" s="3">
         <v>4</v>
@@ -13728,20 +13728,20 @@
         <v>38</v>
       </c>
       <c r="AW67" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX67" s="8"/>
       <c r="AY67" s="8"/>
     </row>
     <row r="68" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>94</v>
@@ -13750,10 +13750,10 @@
         <v>969306278</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>35</v>
@@ -13765,16 +13765,16 @@
         <v>36</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O68" s="3">
         <v>7</v>
@@ -13786,25 +13786,25 @@
         <v>38</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="T68" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="U68" s="4">
         <v>5</v>
       </c>
       <c r="V68" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="W68" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X68" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y68" s="3">
         <v>5</v>
@@ -13828,7 +13828,7 @@
         <v>-3.7921779999999998</v>
       </c>
       <c r="AF68" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AG68" s="3" t="s">
         <v>36</v>
@@ -13843,13 +13843,13 @@
         <v>4</v>
       </c>
       <c r="AK68" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AL68" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM68" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AN68" s="3" t="s">
         <v>32</v>
@@ -13879,16 +13879,16 @@
         <v>38</v>
       </c>
       <c r="AW68" s="7" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="AX68" s="10" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AY68" s="8"/>
     </row>
     <row r="69" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>32</v>
@@ -13897,16 +13897,16 @@
         <v>93</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E69" s="3">
         <v>991860378</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>35</v>
@@ -13918,16 +13918,16 @@
         <v>36</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O69" s="3">
         <v>12</v>
@@ -13939,25 +13939,25 @@
         <v>38</v>
       </c>
       <c r="R69" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="T69" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="U69" s="4">
         <v>5</v>
       </c>
       <c r="V69" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="W69" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="X69" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y69" s="3">
         <v>3</v>
@@ -13972,16 +13972,16 @@
         <v>32</v>
       </c>
       <c r="AC69" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD69" s="3" t="s">
         <v>38</v>
       </c>
       <c r="AE69" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AF69" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AG69" s="3" t="s">
         <v>36</v>
@@ -13996,13 +13996,13 @@
         <v>8</v>
       </c>
       <c r="AK69" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AL69" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM69" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AN69" s="3" t="s">
         <v>32</v>
@@ -14020,7 +14020,7 @@
         <v>3</v>
       </c>
       <c r="AS69" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AT69" s="3" t="s">
         <v>44</v>
@@ -14032,32 +14032,32 @@
         <v>38</v>
       </c>
       <c r="AW69" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX69" s="8"/>
       <c r="AY69" s="8"/>
     </row>
     <row r="70" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E70" s="3">
         <v>987979144</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>35</v>
@@ -14069,16 +14069,16 @@
         <v>36</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O70" s="3">
         <v>6</v>
@@ -14090,25 +14090,25 @@
         <v>38</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="T70" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="U70" s="4">
         <v>12</v>
       </c>
       <c r="V70" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="W70" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X70" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y70" s="3">
         <v>2</v>
@@ -14132,7 +14132,7 @@
         <v>-4.2401593999999996</v>
       </c>
       <c r="AF70" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AG70" s="3" t="s">
         <v>36</v>
@@ -14147,13 +14147,13 @@
         <v>12</v>
       </c>
       <c r="AK70" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AL70" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM70" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="AN70" s="3" t="s">
         <v>32</v>
@@ -14174,7 +14174,7 @@
         <v>36</v>
       </c>
       <c r="AT70" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AU70" s="3" t="s">
         <v>36</v>
@@ -14183,34 +14183,34 @@
         <v>38</v>
       </c>
       <c r="AW70" s="7" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="AX70" s="10" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AY70" s="8"/>
     </row>
     <row r="71" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E71" s="3">
         <v>984234395</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>35</v>
@@ -14222,16 +14222,16 @@
         <v>36</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O71" s="3">
         <v>10</v>
@@ -14243,25 +14243,25 @@
         <v>38</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="T71" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="U71" s="4">
         <v>10</v>
       </c>
       <c r="V71" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="W71" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X71" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y71" s="3">
         <v>2</v>
@@ -14276,7 +14276,7 @@
         <v>32</v>
       </c>
       <c r="AC71" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD71" s="3" t="s">
         <v>38</v>
@@ -14300,13 +14300,13 @@
         <v>12</v>
       </c>
       <c r="AK71" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AL71" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM71" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AN71" s="3" t="s">
         <v>32</v>
@@ -14324,10 +14324,10 @@
         <v>4</v>
       </c>
       <c r="AS71" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AT71" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AU71" s="3" t="s">
         <v>36</v>
@@ -14336,22 +14336,22 @@
         <v>38</v>
       </c>
       <c r="AW71" s="7" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="AX71" s="10" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="AY71" s="8"/>
     </row>
     <row r="72" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>94</v>
@@ -14360,10 +14360,10 @@
         <v>989577107</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>57</v>
@@ -14375,14 +14375,14 @@
         <v>36</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="M72" s="3"/>
       <c r="N72" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O72" s="3">
         <v>7</v>
@@ -14394,25 +14394,25 @@
         <v>38</v>
       </c>
       <c r="R72" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="T72" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="U72" s="4">
         <v>1</v>
       </c>
       <c r="V72" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="W72" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X72" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="Y72" s="3">
         <v>4</v>
@@ -14451,13 +14451,13 @@
         <v>20</v>
       </c>
       <c r="AK72" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AL72" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM72" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AN72" s="3" t="s">
         <v>32</v>
@@ -14487,34 +14487,34 @@
         <v>38</v>
       </c>
       <c r="AW72" s="7" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="AX72" s="10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AY72" s="8"/>
     </row>
     <row r="73" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E73" s="3">
         <v>962876988</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>35</v>
@@ -14526,14 +14526,14 @@
         <v>36</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="M73" s="3"/>
       <c r="N73" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O73" s="3">
         <v>5</v>
@@ -14545,25 +14545,25 @@
         <v>38</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T73" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="U73" s="4">
         <v>3</v>
       </c>
       <c r="V73" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="W73" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X73" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y73" s="3">
         <v>2</v>
@@ -14587,7 +14587,7 @@
         <v>-4.2617066000000001</v>
       </c>
       <c r="AF73" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AG73" s="3" t="s">
         <v>36</v>
@@ -14608,7 +14608,7 @@
         <v>46</v>
       </c>
       <c r="AM73" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AN73" s="3" t="s">
         <v>32</v>
@@ -14638,20 +14638,20 @@
         <v>38</v>
       </c>
       <c r="AW73" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX73" s="8"/>
       <c r="AY73" s="8"/>
     </row>
     <row r="74" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>94</v>
@@ -14660,10 +14660,10 @@
         <v>939866173</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>35</v>
@@ -14675,14 +14675,14 @@
         <v>36</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="M74" s="3"/>
       <c r="N74" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O74" s="3">
         <v>4</v>
@@ -14694,25 +14694,25 @@
         <v>38</v>
       </c>
       <c r="R74" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T74" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="U74" s="4">
         <v>3.5</v>
       </c>
       <c r="V74" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="W74" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X74" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="Y74" s="3">
         <v>2</v>
@@ -14751,7 +14751,7 @@
         <v>10</v>
       </c>
       <c r="AK74" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AL74" s="3" t="s">
         <v>46</v>
@@ -14787,20 +14787,20 @@
         <v>38</v>
       </c>
       <c r="AW74" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX74" s="8"/>
       <c r="AY74" s="8"/>
     </row>
     <row r="75" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>94</v>
@@ -14809,10 +14809,10 @@
         <v>986925665</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>35</v>
@@ -14824,14 +14824,14 @@
         <v>36</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M75" s="3"/>
       <c r="N75" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O75" s="3">
         <v>3</v>
@@ -14843,25 +14843,25 @@
         <v>38</v>
       </c>
       <c r="R75" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T75" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="U75" s="4">
         <v>2.25</v>
       </c>
       <c r="V75" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="W75" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X75" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="Y75" s="3">
         <v>3</v>
@@ -14936,34 +14936,34 @@
         <v>38</v>
       </c>
       <c r="AW75" s="7" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="AX75" s="10" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AY75" s="8"/>
     </row>
     <row r="76" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E76" s="3">
         <v>985480644</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>35</v>
@@ -14975,16 +14975,16 @@
         <v>36</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O76" s="3">
         <v>5</v>
@@ -14996,25 +14996,25 @@
         <v>38</v>
       </c>
       <c r="R76" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="T76" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="U76" s="4">
         <v>3.5</v>
       </c>
       <c r="V76" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W76" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X76" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="Y76" s="3">
         <v>3</v>
@@ -15053,13 +15053,13 @@
         <v>5</v>
       </c>
       <c r="AK76" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AL76" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM76" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AN76" s="3" t="s">
         <v>32</v>
@@ -15089,32 +15089,32 @@
         <v>38</v>
       </c>
       <c r="AW76" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX76" s="8"/>
       <c r="AY76" s="8"/>
     </row>
     <row r="77" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E77" s="3">
         <v>96262869</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>35</v>
@@ -15126,16 +15126,16 @@
         <v>36</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O77" s="3">
         <v>3</v>
@@ -15147,25 +15147,25 @@
         <v>38</v>
       </c>
       <c r="R77" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="T77" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="U77" s="4">
         <v>6</v>
       </c>
       <c r="V77" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="W77" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X77" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="Y77" s="3">
         <v>2</v>
@@ -15186,10 +15186,10 @@
         <v>38</v>
       </c>
       <c r="AE77" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AF77" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AG77" s="3" t="s">
         <v>36</v>
@@ -15204,7 +15204,7 @@
         <v>9</v>
       </c>
       <c r="AK77" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AL77" s="3" t="s">
         <v>42</v>
@@ -15228,7 +15228,7 @@
         <v>2</v>
       </c>
       <c r="AS77" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AT77" s="3" t="s">
         <v>44</v>
@@ -15240,32 +15240,32 @@
         <v>38</v>
       </c>
       <c r="AW77" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX77" s="8"/>
       <c r="AY77" s="8"/>
     </row>
     <row r="78" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E78" s="3">
         <v>939537782</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>35</v>
@@ -15277,14 +15277,14 @@
         <v>36</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="M78" s="3"/>
       <c r="N78" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O78" s="3">
         <v>3</v>
@@ -15296,25 +15296,25 @@
         <v>38</v>
       </c>
       <c r="R78" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="T78" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="U78" s="4">
         <v>3.5</v>
       </c>
       <c r="V78" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="W78" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X78" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="Y78" s="3">
         <v>1</v>
@@ -15335,10 +15335,10 @@
         <v>38</v>
       </c>
       <c r="AE78" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AF78" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AG78" s="3" t="s">
         <v>36</v>
@@ -15377,7 +15377,7 @@
         <v>1</v>
       </c>
       <c r="AS78" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AT78" s="3" t="s">
         <v>44</v>
@@ -15389,34 +15389,34 @@
         <v>38</v>
       </c>
       <c r="AW78" s="7" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="AX78" s="10" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="AY78" s="8"/>
     </row>
     <row r="79" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E79" s="3">
         <v>967800981</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>35</v>
@@ -15428,14 +15428,14 @@
         <v>36</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="M79" s="3"/>
       <c r="N79" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O79" s="3">
         <v>3</v>
@@ -15447,25 +15447,25 @@
         <v>38</v>
       </c>
       <c r="R79" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T79" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="U79" s="4">
         <v>2.5</v>
       </c>
       <c r="V79" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W79" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X79" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="Y79" s="3">
         <v>1</v>
@@ -15540,34 +15540,34 @@
         <v>38</v>
       </c>
       <c r="AW79" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AX79" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AY79" s="8"/>
     </row>
     <row r="80" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="D80" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E80" s="3">
         <v>995832522</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>57</v>
@@ -15579,16 +15579,16 @@
         <v>36</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O80" s="3">
         <v>4</v>
@@ -15600,25 +15600,25 @@
         <v>38</v>
       </c>
       <c r="R80" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="T80" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="U80" s="4">
         <v>6</v>
       </c>
       <c r="V80" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="W80" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X80" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="Y80" s="3">
         <v>2</v>
@@ -15684,7 +15684,7 @@
         <v>36</v>
       </c>
       <c r="AT80" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AU80" s="3" t="s">
         <v>36</v>
@@ -15693,34 +15693,34 @@
         <v>38</v>
       </c>
       <c r="AW80" s="7" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AX80" s="10" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AY80" s="8"/>
     </row>
     <row r="81" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E81" s="3">
         <v>989874633</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>66</v>
@@ -15732,16 +15732,16 @@
         <v>36</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="N81" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O81" s="3">
         <v>5</v>
@@ -15753,25 +15753,25 @@
         <v>38</v>
       </c>
       <c r="R81" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T81" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="U81" s="4">
         <v>3</v>
       </c>
       <c r="V81" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W81" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X81" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="Y81" s="3">
         <v>2</v>
@@ -15846,32 +15846,32 @@
         <v>38</v>
       </c>
       <c r="AW81" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AX81" s="8"/>
       <c r="AY81" s="8"/>
     </row>
     <row r="82" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E82" s="3">
         <v>995832522</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>57</v>
@@ -15883,16 +15883,16 @@
         <v>36</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O82" s="3">
         <v>4</v>
@@ -15904,19 +15904,19 @@
         <v>38</v>
       </c>
       <c r="R82" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="T82" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="U82" s="4">
         <v>6</v>
       </c>
       <c r="V82" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="W82" s="6"/>
       <c r="X82" s="6"/>
@@ -15957,7 +15957,7 @@
         <v>10</v>
       </c>
       <c r="AK82" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AL82" s="3" t="s">
         <v>42</v>
@@ -15981,10 +15981,10 @@
         <v>1</v>
       </c>
       <c r="AS82" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AT82" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AU82" s="3" t="s">
         <v>36</v>
@@ -15993,10 +15993,10 @@
         <v>38</v>
       </c>
       <c r="AW82" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AX82" s="8" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AY82" s="8"/>
     </row>

--- a/media/csv_uploads/gastronomia_establecimiento1.xlsx
+++ b/media/csv_uploads/gastronomia_establecimiento1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santigovinan/Documents/applications-django/emprendimientos/media/csv_uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA81EA57-121E-6341-831F-76557293F557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5040C19B-CBCD-574A-9E67-3B38137242A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7100" yWindow="940" windowWidth="21840" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="940" windowWidth="28940" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3060" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3080" uniqueCount="778">
   <si>
     <t>nombre</t>
   </si>
@@ -1322,18 +1322,6 @@
     <t>Trucha Frita Tradicional - Miel con quesillo - Horchata</t>
   </si>
   <si>
-    <t>−4.3626331</t>
-  </si>
-  <si>
-    <t>-4, 2157681</t>
-  </si>
-  <si>
-    <t>-4, 2605</t>
-  </si>
-  <si>
-    <t>-4, 2627</t>
-  </si>
-  <si>
     <t>-4,26184</t>
   </si>
   <si>
@@ -1343,9 +1331,6 @@
     <t>-4,2625</t>
   </si>
   <si>
-    <t>−79.1746054</t>
-  </si>
-  <si>
     <t>-79, 2229</t>
   </si>
   <si>
@@ -1367,12 +1352,6 @@
     <t>-79, 2238493</t>
   </si>
   <si>
-    <t>-79, 221</t>
-  </si>
-  <si>
-    <t>-79, 2250</t>
-  </si>
-  <si>
     <t>6 meses</t>
   </si>
   <si>
@@ -2310,6 +2289,84 @@
   </si>
   <si>
     <t>Bambú Café Restaurant</t>
+  </si>
+  <si>
+    <t>-3,886139</t>
+  </si>
+  <si>
+    <t>-3,850389</t>
+  </si>
+  <si>
+    <t>-3,850694</t>
+  </si>
+  <si>
+    <t>-3,850667</t>
+  </si>
+  <si>
+    <t>-3,851306</t>
+  </si>
+  <si>
+    <t>-3,851611</t>
+  </si>
+  <si>
+    <t>-3,851639</t>
+  </si>
+  <si>
+    <t>-3,850278</t>
+  </si>
+  <si>
+    <t>-3,889694</t>
+  </si>
+  <si>
+    <t>-3,885556</t>
+  </si>
+  <si>
+    <t>-3,850333</t>
+  </si>
+  <si>
+    <t>-3,851444</t>
+  </si>
+  <si>
+    <t>-3,850417</t>
+  </si>
+  <si>
+    <t>-3,851528</t>
+  </si>
+  <si>
+    <t>-3,770917</t>
+  </si>
+  <si>
+    <t>-4,2157681</t>
+  </si>
+  <si>
+    <t>-4,2605</t>
+  </si>
+  <si>
+    <t>-4,2627</t>
+  </si>
+  <si>
+    <t>-79,426056</t>
+  </si>
+  <si>
+    <t>-79,426694</t>
+  </si>
+  <si>
+    <t>-79,421722</t>
+  </si>
+  <si>
+    <t>-79,426833</t>
+  </si>
+  <si>
+    <t>-79.1746054</t>
+  </si>
+  <si>
+    <t>-4,3626331</t>
+  </si>
+  <si>
+    <t>-79,221</t>
+  </si>
+  <si>
+    <t>-79,2250</t>
   </si>
 </sst>
 </file>
@@ -2407,7 +2464,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2439,6 +2496,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3572,10 +3632,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AY83"/>
+  <dimension ref="A1:AY164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AV1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3675,10 +3735,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>13</v>
@@ -3690,40 +3750,40 @@
         <v>15</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>19</v>
@@ -3738,7 +3798,7 @@
         <v>22</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="AJ1" s="2" t="s">
         <v>23</v>
@@ -3753,25 +3813,25 @@
         <v>26</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="AO1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AS1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AU1" s="2" t="s">
         <v>29</v>
@@ -3780,13 +3840,13 @@
         <v>30</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="AY1" s="2" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:51" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3824,7 +3884,7 @@
         <v>37</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3" t="s">
@@ -3840,10 +3900,10 @@
         <v>38</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>348</v>
@@ -3855,10 +3915,10 @@
         <v>207</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="Y2" s="3">
         <v>2</v>
@@ -3931,10 +3991,10 @@
       </c>
       <c r="AV2" s="6"/>
       <c r="AW2" s="7" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="AX2" s="10" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="AY2" s="8"/>
     </row>
@@ -3973,7 +4033,7 @@
         <v>37</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
@@ -3989,10 +4049,10 @@
         <v>38</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>349</v>
@@ -4004,10 +4064,10 @@
         <v>207</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y3" s="3">
         <v>1</v>
@@ -4082,10 +4142,10 @@
         <v>38</v>
       </c>
       <c r="AW3" s="7" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="AX3" s="10" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="AY3" s="8"/>
     </row>
@@ -4124,7 +4184,7 @@
         <v>37</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
@@ -4140,10 +4200,10 @@
         <v>38</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>350</v>
@@ -4155,10 +4215,10 @@
         <v>207</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y4" s="3">
         <v>2</v>
@@ -4233,7 +4293,7 @@
         <v>38</v>
       </c>
       <c r="AW4" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX4" s="8"/>
       <c r="AY4" s="8"/>
@@ -4264,7 +4324,7 @@
         <v>35</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>36</v>
@@ -4273,7 +4333,7 @@
         <v>37</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
@@ -4289,10 +4349,10 @@
         <v>36</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>351</v>
@@ -4304,10 +4364,10 @@
         <v>207</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y5" s="3">
         <v>2</v>
@@ -4382,7 +4442,7 @@
         <v>38</v>
       </c>
       <c r="AW5" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX5" s="8"/>
       <c r="AY5" s="8"/>
@@ -4413,7 +4473,7 @@
         <v>35</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>36</v>
@@ -4422,7 +4482,7 @@
         <v>54</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
@@ -4438,10 +4498,10 @@
         <v>38</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>352</v>
@@ -4453,10 +4513,10 @@
         <v>207</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="Y6" s="3">
         <v>4</v>
@@ -4476,11 +4536,11 @@
       <c r="AD6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE6" s="5">
-        <v>-3.8859338939999999</v>
+      <c r="AE6" s="5" t="s">
+        <v>752</v>
       </c>
       <c r="AF6" s="5">
-        <v>-79.416813140000002</v>
+        <v>-79.416832999999997</v>
       </c>
       <c r="AG6" s="3" t="s">
         <v>36</v>
@@ -4531,10 +4591,10 @@
         <v>38</v>
       </c>
       <c r="AW6" s="7" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="AX6" s="10" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="AY6" s="8"/>
     </row>
@@ -4564,7 +4624,7 @@
         <v>35</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>36</v>
@@ -4573,7 +4633,7 @@
         <v>58</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
@@ -4589,10 +4649,10 @@
         <v>38</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>353</v>
@@ -4604,10 +4664,10 @@
         <v>207</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y7" s="3">
         <v>3</v>
@@ -4627,11 +4687,11 @@
       <c r="AD7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE7" s="5">
-        <v>-3.8506562959999999</v>
+      <c r="AE7" s="5" t="s">
+        <v>753</v>
       </c>
       <c r="AF7" s="5">
-        <v>-79.426441780000005</v>
+        <v>-79.426749999999998</v>
       </c>
       <c r="AG7" s="3" t="s">
         <v>36</v>
@@ -4682,10 +4742,10 @@
         <v>38</v>
       </c>
       <c r="AW7" s="7" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="AX7" s="10" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="AY7" s="8"/>
     </row>
@@ -4715,7 +4775,7 @@
         <v>57</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>36</v>
@@ -4724,7 +4784,7 @@
         <v>58</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
@@ -4740,10 +4800,10 @@
         <v>38</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>354</v>
@@ -4755,10 +4815,10 @@
         <v>207</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y8" s="3">
         <v>2</v>
@@ -4778,11 +4838,11 @@
       <c r="AD8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE8" s="5">
-        <v>-3.8506422960000002</v>
+      <c r="AE8" s="5" t="s">
+        <v>754</v>
       </c>
       <c r="AF8" s="5">
-        <v>-79.426443300000003</v>
+        <v>-79.426749999999998</v>
       </c>
       <c r="AG8" s="3" t="s">
         <v>36</v>
@@ -4833,10 +4893,10 @@
         <v>38</v>
       </c>
       <c r="AW8" s="7" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="AX8" s="10" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="AY8" s="8"/>
     </row>
@@ -4866,7 +4926,7 @@
         <v>35</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>36</v>
@@ -4875,7 +4935,7 @@
         <v>58</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
@@ -4891,10 +4951,10 @@
         <v>38</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>355</v>
@@ -4906,10 +4966,10 @@
         <v>207</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y9" s="3">
         <v>4</v>
@@ -4929,11 +4989,11 @@
       <c r="AD9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE9" s="5">
-        <v>-3.8507415229999999</v>
+      <c r="AE9" s="5" t="s">
+        <v>755</v>
       </c>
       <c r="AF9" s="5">
-        <v>-79.426575999999997</v>
+        <v>-79.426777999999999</v>
       </c>
       <c r="AG9" s="3" t="s">
         <v>36</v>
@@ -4984,10 +5044,10 @@
         <v>38</v>
       </c>
       <c r="AW9" s="7" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="AX9" s="10" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="AY9" s="8"/>
     </row>
@@ -5017,7 +5077,7 @@
         <v>35</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>36</v>
@@ -5026,7 +5086,7 @@
         <v>58</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
@@ -5042,10 +5102,10 @@
         <v>38</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>356</v>
@@ -5057,10 +5117,10 @@
         <v>207</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y10" s="3">
         <v>3</v>
@@ -5135,10 +5195,10 @@
         <v>38</v>
       </c>
       <c r="AW10" s="7" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="AX10" s="10" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="AY10" s="8"/>
     </row>
@@ -5177,7 +5237,7 @@
         <v>64</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
@@ -5193,10 +5253,10 @@
         <v>38</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T11" s="3" t="s">
         <v>357</v>
@@ -5208,10 +5268,10 @@
         <v>207</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y11" s="3">
         <v>5</v>
@@ -5231,11 +5291,11 @@
       <c r="AD11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE11" s="5">
-        <v>-3.8510064860000002</v>
+      <c r="AE11" s="5" t="s">
+        <v>756</v>
       </c>
       <c r="AF11" s="5">
-        <v>-79.426251679999993</v>
+        <v>-79.426167000000007</v>
       </c>
       <c r="AG11" s="3" t="s">
         <v>32</v>
@@ -5286,7 +5346,7 @@
         <v>38</v>
       </c>
       <c r="AW11" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX11" s="8"/>
       <c r="AY11" s="8"/>
@@ -5317,7 +5377,7 @@
         <v>66</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>36</v>
@@ -5326,7 +5386,7 @@
         <v>58</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
@@ -5342,10 +5402,10 @@
         <v>38</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>358</v>
@@ -5357,10 +5417,10 @@
         <v>207</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="Y12" s="3">
         <v>2</v>
@@ -5380,11 +5440,11 @@
       <c r="AD12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE12" s="5">
-        <v>-3.8513923459999999</v>
+      <c r="AE12" s="5" t="s">
+        <v>757</v>
       </c>
       <c r="AF12" s="5">
-        <v>-79.425826990000004</v>
+        <v>-79.425916999999998</v>
       </c>
       <c r="AG12" s="3" t="s">
         <v>36</v>
@@ -5435,10 +5495,10 @@
         <v>38</v>
       </c>
       <c r="AW12" s="7" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="AX12" s="10" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="AY12" s="8"/>
     </row>
@@ -5468,7 +5528,7 @@
         <v>66</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>36</v>
@@ -5477,7 +5537,7 @@
         <v>58</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
@@ -5493,10 +5553,10 @@
         <v>38</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T13" s="3" t="s">
         <v>359</v>
@@ -5508,10 +5568,10 @@
         <v>207</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="Y13" s="3">
         <v>3</v>
@@ -5531,11 +5591,11 @@
       <c r="AD13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE13" s="5">
-        <v>-3.851410633</v>
-      </c>
-      <c r="AF13" s="5">
-        <v>-79.425849779999993</v>
+      <c r="AE13" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="AF13" s="5" t="s">
+        <v>770</v>
       </c>
       <c r="AG13" s="3" t="s">
         <v>32</v>
@@ -5586,10 +5646,10 @@
         <v>38</v>
       </c>
       <c r="AW13" s="7" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="AX13" s="10" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="AY13" s="8"/>
     </row>
@@ -5619,7 +5679,7 @@
         <v>35</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>36</v>
@@ -5628,7 +5688,7 @@
         <v>300</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
@@ -5644,10 +5704,10 @@
         <v>38</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>360</v>
@@ -5659,10 +5719,10 @@
         <v>207</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y14" s="3">
         <v>2</v>
@@ -5682,11 +5742,11 @@
       <c r="AD14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AE14" s="5">
-        <v>-3.8505638160000002</v>
-      </c>
-      <c r="AF14" s="5">
-        <v>-79.426546459999997</v>
+      <c r="AE14" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="AF14" s="5" t="s">
+        <v>771</v>
       </c>
       <c r="AG14" s="3" t="s">
         <v>36</v>
@@ -5737,10 +5797,10 @@
         <v>38</v>
       </c>
       <c r="AW14" s="7" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="AX14" s="10" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="AY14" s="8"/>
     </row>
@@ -5779,7 +5839,7 @@
         <v>69</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
@@ -5795,10 +5855,10 @@
         <v>38</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>361</v>
@@ -5810,10 +5870,10 @@
         <v>207</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="Y15" s="3">
         <v>3</v>
@@ -5833,11 +5893,11 @@
       <c r="AD15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE15" s="5">
-        <v>-3.8505951679999999</v>
+      <c r="AE15" s="5" t="s">
+        <v>753</v>
       </c>
       <c r="AF15" s="5">
-        <v>-79.426553350000006</v>
+        <v>-79.426638999999994</v>
       </c>
       <c r="AG15" s="3" t="s">
         <v>36</v>
@@ -5888,7 +5948,7 @@
         <v>38</v>
       </c>
       <c r="AW15" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX15" s="8"/>
       <c r="AY15" s="8"/>
@@ -5919,7 +5979,7 @@
         <v>35</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>36</v>
@@ -5928,7 +5988,7 @@
         <v>72</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>76</v>
@@ -5946,10 +6006,10 @@
         <v>38</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>362</v>
@@ -5958,13 +6018,13 @@
         <v>5</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y16" s="3">
         <v>3</v>
@@ -5984,11 +6044,11 @@
       <c r="AD16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE16" s="5">
-        <v>-3.890133643</v>
-      </c>
-      <c r="AF16" s="5">
-        <v>-79.420613259999996</v>
+      <c r="AE16" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="AF16" s="5" t="s">
+        <v>772</v>
       </c>
       <c r="AG16" s="3" t="s">
         <v>32</v>
@@ -6039,10 +6099,10 @@
         <v>38</v>
       </c>
       <c r="AW16" s="7" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="AX16" s="10" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="AY16" s="8"/>
     </row>
@@ -6081,7 +6141,7 @@
         <v>75</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>76</v>
@@ -6099,10 +6159,10 @@
         <v>38</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>363</v>
@@ -6114,10 +6174,10 @@
         <v>207</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y17" s="3">
         <v>2</v>
@@ -6192,10 +6252,10 @@
         <v>38</v>
       </c>
       <c r="AW17" s="7" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="AX17" s="10" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="AY17" s="8"/>
     </row>
@@ -6234,7 +6294,7 @@
         <v>78</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
@@ -6250,10 +6310,10 @@
         <v>38</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>364</v>
@@ -6265,10 +6325,10 @@
         <v>207</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y18" s="3">
         <v>3</v>
@@ -6343,10 +6403,10 @@
         <v>38</v>
       </c>
       <c r="AW18" s="7" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="AX18" s="10" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="AY18" s="8"/>
     </row>
@@ -6385,7 +6445,7 @@
         <v>79</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
@@ -6401,10 +6461,10 @@
         <v>38</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T19" s="3" t="s">
         <v>365</v>
@@ -6416,10 +6476,10 @@
         <v>207</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y19" s="3">
         <v>7</v>
@@ -6494,10 +6554,10 @@
         <v>38</v>
       </c>
       <c r="AW19" s="7" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="AX19" s="10" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="AY19" s="8"/>
     </row>
@@ -6536,7 +6596,7 @@
         <v>79</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>76</v>
@@ -6554,10 +6614,10 @@
         <v>38</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>366</v>
@@ -6569,10 +6629,10 @@
         <v>207</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y20" s="3">
         <v>2</v>
@@ -6647,10 +6707,10 @@
         <v>38</v>
       </c>
       <c r="AW20" s="7" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="AX20" s="10" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="AY20" s="8"/>
     </row>
@@ -6689,7 +6749,7 @@
         <v>79</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="s">
@@ -6705,10 +6765,10 @@
         <v>38</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>367</v>
@@ -6720,10 +6780,10 @@
         <v>207</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y21" s="3">
         <v>4</v>
@@ -6743,11 +6803,11 @@
       <c r="AD21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE21" s="5">
-        <v>-3.8859087259999998</v>
+      <c r="AE21" s="5" t="s">
+        <v>761</v>
       </c>
       <c r="AF21" s="5">
-        <v>-79.41680934</v>
+        <v>-79.416639000000004</v>
       </c>
       <c r="AG21" s="3" t="s">
         <v>36</v>
@@ -6798,7 +6858,7 @@
         <v>38</v>
       </c>
       <c r="AW21" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX21" s="8"/>
       <c r="AY21" s="8"/>
@@ -6838,7 +6898,7 @@
         <v>58</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
@@ -6854,10 +6914,10 @@
         <v>38</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>368</v>
@@ -6869,10 +6929,10 @@
         <v>207</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y22" s="3">
         <v>2</v>
@@ -6892,11 +6952,11 @@
       <c r="AD22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE22" s="5">
-        <v>-3.8505682459999999</v>
+      <c r="AE22" s="5" t="s">
+        <v>762</v>
       </c>
       <c r="AF22" s="5">
-        <v>-79.426490759999993</v>
+        <v>-79.426777999999999</v>
       </c>
       <c r="AG22" s="3" t="s">
         <v>36</v>
@@ -6947,10 +7007,10 @@
         <v>38</v>
       </c>
       <c r="AW22" s="7" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="AX22" s="10" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="AY22" s="8"/>
     </row>
@@ -6989,7 +7049,7 @@
         <v>81</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
@@ -7005,10 +7065,10 @@
         <v>38</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>369</v>
@@ -7020,10 +7080,10 @@
         <v>207</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y23" s="3">
         <v>2</v>
@@ -7062,7 +7122,7 @@
         <v>3</v>
       </c>
       <c r="AK23" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="AL23" s="3" t="s">
         <v>42</v>
@@ -7086,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="3" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="AT23" s="3" t="s">
         <v>44</v>
@@ -7098,10 +7158,10 @@
         <v>38</v>
       </c>
       <c r="AW23" s="7" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="AX23" s="10" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="AY23" s="8"/>
     </row>
@@ -7140,7 +7200,7 @@
         <v>83</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="s">
@@ -7156,10 +7216,10 @@
         <v>38</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>370</v>
@@ -7171,10 +7231,10 @@
         <v>207</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="Y24" s="3">
         <v>3</v>
@@ -7194,11 +7254,11 @@
       <c r="AD24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE24" s="5">
-        <v>-3.8506211229999998</v>
+      <c r="AE24" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="AF24" s="5">
-        <v>-79.426394930000001</v>
+        <v>-79.426805999999999</v>
       </c>
       <c r="AG24" s="3" t="s">
         <v>32</v>
@@ -7249,7 +7309,7 @@
         <v>38</v>
       </c>
       <c r="AW24" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX24" s="8"/>
       <c r="AY24" s="8"/>
@@ -7280,7 +7340,7 @@
         <v>35</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>36</v>
@@ -7289,7 +7349,7 @@
         <v>54</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3" t="s">
@@ -7305,10 +7365,10 @@
         <v>38</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T25" s="3" t="s">
         <v>371</v>
@@ -7320,10 +7380,10 @@
         <v>207</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="Y25" s="3">
         <v>3</v>
@@ -7343,11 +7403,11 @@
       <c r="AD25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE25" s="5">
-        <v>-3.8506538670000001</v>
+      <c r="AE25" s="5" t="s">
+        <v>764</v>
       </c>
       <c r="AF25" s="5">
-        <v>-79.426305510000006</v>
+        <v>-79.426305999999997</v>
       </c>
       <c r="AG25" s="3" t="s">
         <v>84</v>
@@ -7398,10 +7458,10 @@
         <v>38</v>
       </c>
       <c r="AW25" s="7" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="AX25" s="10" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="AY25" s="8"/>
     </row>
@@ -7440,7 +7500,7 @@
         <v>54</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
@@ -7456,10 +7516,10 @@
         <v>38</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>372</v>
@@ -7471,10 +7531,10 @@
         <v>207</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="Y26" s="3">
         <v>5</v>
@@ -7494,11 +7554,11 @@
       <c r="AD26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE26" s="5">
-        <v>-3.8514460769999999</v>
-      </c>
-      <c r="AF26" s="5">
-        <v>-79.426957790000003</v>
+      <c r="AE26" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="AF26" s="5" t="s">
+        <v>773</v>
       </c>
       <c r="AG26" s="3" t="s">
         <v>32</v>
@@ -7549,10 +7609,10 @@
         <v>38</v>
       </c>
       <c r="AW26" s="7" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="AX26" s="10" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="AY26" s="8"/>
     </row>
@@ -7591,7 +7651,7 @@
         <v>58</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3" t="s">
@@ -7607,10 +7667,10 @@
         <v>38</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>373</v>
@@ -7622,10 +7682,10 @@
         <v>207</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y27" s="3">
         <v>4</v>
@@ -7700,7 +7760,7 @@
         <v>38</v>
       </c>
       <c r="AW27" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX27" s="8"/>
       <c r="AY27" s="8"/>
@@ -7740,10 +7800,10 @@
         <v>58</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="N28" s="3" t="s">
         <v>335</v>
@@ -7758,10 +7818,10 @@
         <v>36</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="T28" s="3" t="s">
         <v>374</v>
@@ -7773,10 +7833,10 @@
         <v>207</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y28" s="3">
         <v>2</v>
@@ -7851,7 +7911,7 @@
         <v>38</v>
       </c>
       <c r="AW28" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX28" s="8"/>
       <c r="AY28" s="8"/>
@@ -7882,7 +7942,7 @@
         <v>35</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>36</v>
@@ -7891,7 +7951,7 @@
         <v>89</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
@@ -7907,10 +7967,10 @@
         <v>38</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>375</v>
@@ -7922,10 +7982,10 @@
         <v>207</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="Y29" s="3">
         <v>1</v>
@@ -8000,10 +8060,10 @@
         <v>38</v>
       </c>
       <c r="AW29" s="7" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="AX29" s="10" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="AY29" s="8"/>
     </row>
@@ -8033,7 +8093,7 @@
         <v>77</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>36</v>
@@ -8042,7 +8102,7 @@
         <v>37</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3" t="s">
@@ -8058,10 +8118,10 @@
         <v>38</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T30" s="3" t="s">
         <v>376</v>
@@ -8073,10 +8133,10 @@
         <v>207</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y30" s="3">
         <v>3</v>
@@ -8096,11 +8156,11 @@
       <c r="AD30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE30" s="5">
-        <v>-3.7709771170000002</v>
+      <c r="AE30" s="5" t="s">
+        <v>766</v>
       </c>
       <c r="AF30" s="5">
-        <v>-79.377237050000005</v>
+        <v>-79.377082999999999</v>
       </c>
       <c r="AG30" s="3" t="s">
         <v>36</v>
@@ -8151,10 +8211,10 @@
         <v>38</v>
       </c>
       <c r="AW30" s="7" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="AX30" s="10" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="AY30" s="8"/>
     </row>
@@ -8193,7 +8253,7 @@
         <v>37</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3" t="s">
@@ -8209,10 +8269,10 @@
         <v>38</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T31" s="3" t="s">
         <v>377</v>
@@ -8224,10 +8284,10 @@
         <v>207</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="Y31" s="3">
         <v>3</v>
@@ -8302,7 +8362,7 @@
         <v>38</v>
       </c>
       <c r="AW31" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX31" s="8"/>
       <c r="AY31" s="8"/>
@@ -8342,7 +8402,7 @@
         <v>91</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3" t="s">
@@ -8358,10 +8418,10 @@
         <v>38</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>378</v>
@@ -8373,10 +8433,10 @@
         <v>207</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="Y32" s="3">
         <v>1</v>
@@ -8451,7 +8511,7 @@
         <v>38</v>
       </c>
       <c r="AW32" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX32" s="8"/>
       <c r="AY32" s="8"/>
@@ -8482,7 +8542,7 @@
         <v>35</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>36</v>
@@ -8491,7 +8551,7 @@
         <v>91</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3" t="s">
@@ -8507,10 +8567,10 @@
         <v>38</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>379</v>
@@ -8522,10 +8582,10 @@
         <v>207</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="Y33" s="3">
         <v>2</v>
@@ -8600,7 +8660,7 @@
         <v>38</v>
       </c>
       <c r="AW33" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX33" s="8"/>
       <c r="AY33" s="8"/>
@@ -8640,7 +8700,7 @@
         <v>301</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3" t="s">
@@ -8656,10 +8716,10 @@
         <v>38</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="T34" s="3" t="s">
         <v>380</v>
@@ -8668,13 +8728,13 @@
         <v>3</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="Y34" s="3">
         <v>1</v>
@@ -8749,7 +8809,7 @@
         <v>38</v>
       </c>
       <c r="AW34" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX34" s="8"/>
       <c r="AY34" s="8"/>
@@ -8789,7 +8849,7 @@
         <v>302</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3" t="s">
@@ -8805,10 +8865,10 @@
         <v>38</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>381</v>
@@ -8817,13 +8877,13 @@
         <v>3</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y35" s="3">
         <v>1</v>
@@ -8898,14 +8958,14 @@
         <v>38</v>
       </c>
       <c r="AW35" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX35" s="8"/>
       <c r="AY35" s="8"/>
     </row>
     <row r="36" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>32</v>
@@ -8938,7 +8998,7 @@
         <v>303</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3" t="s">
@@ -8954,10 +9014,10 @@
         <v>38</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="T36" s="3" t="s">
         <v>382</v>
@@ -8966,13 +9026,13 @@
         <v>7</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="X36" s="3" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="Y36" s="3">
         <v>3</v>
@@ -9047,7 +9107,7 @@
         <v>38</v>
       </c>
       <c r="AW36" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX36" s="8"/>
       <c r="AY36" s="8"/>
@@ -9087,7 +9147,7 @@
         <v>304</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3" t="s">
@@ -9103,10 +9163,10 @@
         <v>38</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="T37" s="3" t="s">
         <v>383</v>
@@ -9115,13 +9175,13 @@
         <v>3.5</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="X37" s="3" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="Y37" s="3">
         <v>3</v>
@@ -9196,14 +9256,14 @@
         <v>38</v>
       </c>
       <c r="AW37" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX37" s="8"/>
       <c r="AY37" s="8"/>
     </row>
     <row r="38" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>32</v>
@@ -9236,7 +9296,7 @@
         <v>305</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3" t="s">
@@ -9252,10 +9312,10 @@
         <v>38</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T38" s="3" t="s">
         <v>384</v>
@@ -9264,13 +9324,13 @@
         <v>3.5</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="X38" s="3" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="Y38" s="3">
         <v>3</v>
@@ -9306,7 +9366,7 @@
         <v>41</v>
       </c>
       <c r="AJ38" s="3" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="AK38" s="3" t="s">
         <v>36</v>
@@ -9330,7 +9390,7 @@
         <v>36</v>
       </c>
       <c r="AR38" s="3" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="AS38" s="3" t="s">
         <v>36</v>
@@ -9345,7 +9405,7 @@
         <v>38</v>
       </c>
       <c r="AW38" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX38" s="8"/>
       <c r="AY38" s="8"/>
@@ -9385,7 +9445,7 @@
         <v>306</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3" t="s">
@@ -9401,10 +9461,10 @@
         <v>36</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="T39" s="3" t="s">
         <v>385</v>
@@ -9413,13 +9473,13 @@
         <v>2</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="X39" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y39" s="3">
         <v>2</v>
@@ -9494,14 +9554,14 @@
         <v>38</v>
       </c>
       <c r="AW39" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX39" s="8"/>
       <c r="AY39" s="8"/>
     </row>
     <row r="40" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>32</v>
@@ -9525,7 +9585,7 @@
         <v>35</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>36</v>
@@ -9534,7 +9594,7 @@
         <v>91</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="M40" s="3"/>
       <c r="N40" s="3" t="s">
@@ -9550,10 +9610,10 @@
         <v>38</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T40" s="3" t="s">
         <v>386</v>
@@ -9562,13 +9622,13 @@
         <v>3</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y40" s="3">
         <v>2</v>
@@ -9643,14 +9703,14 @@
         <v>38</v>
       </c>
       <c r="AW40" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX40" s="8"/>
       <c r="AY40" s="8"/>
     </row>
     <row r="41" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>36</v>
@@ -9674,7 +9734,7 @@
         <v>35</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>36</v>
@@ -9683,7 +9743,7 @@
         <v>91</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="M41" s="3"/>
       <c r="N41" s="3" t="s">
@@ -9699,10 +9759,10 @@
         <v>38</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>387</v>
@@ -9714,10 +9774,10 @@
         <v>207</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y41" s="3">
         <v>2</v>
@@ -9792,10 +9852,10 @@
         <v>38</v>
       </c>
       <c r="AW41" s="7" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="AX41" s="10" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="AY41" s="8"/>
     </row>
@@ -9834,10 +9894,10 @@
         <v>106</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>331</v>
@@ -9852,10 +9912,10 @@
         <v>38</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>388</v>
@@ -9867,10 +9927,10 @@
         <v>207</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="Y42" s="3">
         <v>3</v>
@@ -9909,13 +9969,13 @@
         <v>16</v>
       </c>
       <c r="AK42" s="3" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="AL42" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM42" s="3" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AN42" s="3" t="s">
         <v>32</v>
@@ -9933,7 +9993,7 @@
         <v>5</v>
       </c>
       <c r="AS42" s="3" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="AT42" s="3" t="s">
         <v>107</v>
@@ -9945,10 +10005,10 @@
         <v>38</v>
       </c>
       <c r="AW42" s="7" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="AX42" s="10" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="AY42" s="8"/>
     </row>
@@ -9987,10 +10047,10 @@
         <v>109</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>340</v>
@@ -10005,10 +10065,10 @@
         <v>38</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>389</v>
@@ -10020,10 +10080,10 @@
         <v>207</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="Y43" s="3">
         <v>3</v>
@@ -10062,13 +10122,13 @@
         <v>5</v>
       </c>
       <c r="AK43" s="3" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="AL43" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM43" s="3" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="AN43" s="3" t="s">
         <v>32</v>
@@ -10086,7 +10146,7 @@
         <v>3</v>
       </c>
       <c r="AS43" s="3" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="AT43" s="3" t="s">
         <v>107</v>
@@ -10098,16 +10158,16 @@
         <v>38</v>
       </c>
       <c r="AW43" s="7" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="AX43" s="10" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="AY43" s="8"/>
     </row>
     <row r="44" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>32</v>
@@ -10140,7 +10200,7 @@
         <v>307</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3" t="s">
@@ -10156,10 +10216,10 @@
         <v>38</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>390</v>
@@ -10168,13 +10228,13 @@
         <v>5.5</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="Y44" s="3">
         <v>10</v>
@@ -10213,13 +10273,13 @@
         <v>6</v>
       </c>
       <c r="AK44" s="3" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="AL44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM44" s="3" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="AN44" s="3" t="s">
         <v>84</v>
@@ -10249,16 +10309,16 @@
         <v>38</v>
       </c>
       <c r="AW44" s="7" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="AX44" s="10" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="AY44" s="8"/>
     </row>
     <row r="45" spans="1:51" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>32</v>
@@ -10291,7 +10351,7 @@
         <v>308</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3" t="s">
@@ -10307,10 +10367,10 @@
         <v>38</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>391</v>
@@ -10319,13 +10379,13 @@
         <v>5</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="Y45" s="3">
         <v>3</v>
@@ -10364,13 +10424,13 @@
         <v>3</v>
       </c>
       <c r="AK45" s="3" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="AL45" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM45" s="3" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="AN45" s="3" t="s">
         <v>32</v>
@@ -10400,10 +10460,10 @@
         <v>38</v>
       </c>
       <c r="AW45" s="7" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="AX45" s="8" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="AY45" s="8"/>
     </row>
@@ -10442,7 +10502,7 @@
         <v>309</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3" t="s">
@@ -10461,7 +10521,7 @@
         <v>347</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>392</v>
@@ -10470,13 +10530,13 @@
         <v>7</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="Y46" s="3">
         <v>4</v>
@@ -10515,7 +10575,7 @@
         <v>4</v>
       </c>
       <c r="AK46" s="3" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="AL46" s="3" t="s">
         <v>46</v>
@@ -10551,7 +10611,7 @@
         <v>38</v>
       </c>
       <c r="AW46" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX46" s="8"/>
       <c r="AY46" s="8"/>
@@ -10588,10 +10648,10 @@
         <v>36</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>345</v>
@@ -10609,10 +10669,10 @@
         <v>38</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>393</v>
@@ -10621,13 +10681,13 @@
         <v>10.5</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="Y47" s="3">
         <v>4</v>
@@ -10666,13 +10726,13 @@
         <v>10</v>
       </c>
       <c r="AK47" s="3" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="AL47" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM47" s="3" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="AN47" s="3" t="s">
         <v>32</v>
@@ -10702,7 +10762,7 @@
         <v>38</v>
       </c>
       <c r="AW47" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX47" s="8"/>
       <c r="AY47" s="8"/>
@@ -10742,7 +10802,7 @@
         <v>119</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>346</v>
@@ -10760,10 +10820,10 @@
         <v>38</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>394</v>
@@ -10772,13 +10832,13 @@
         <v>3.5</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="Y48" s="3">
         <v>3</v>
@@ -10817,7 +10877,7 @@
         <v>15</v>
       </c>
       <c r="AK48" s="3" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="AL48" s="3" t="s">
         <v>46</v>
@@ -10853,10 +10913,10 @@
         <v>38</v>
       </c>
       <c r="AW48" s="7" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="AX48" s="10" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="AY48" s="8"/>
     </row>
@@ -10892,13 +10952,13 @@
         <v>36</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>337</v>
@@ -10913,10 +10973,10 @@
         <v>38</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>395</v>
@@ -10925,13 +10985,13 @@
         <v>5</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="X49" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y49" s="3">
         <v>3</v>
@@ -10970,13 +11030,13 @@
         <v>4</v>
       </c>
       <c r="AK49" s="3" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="AL49" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM49" s="3" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AN49" s="3" t="s">
         <v>32</v>
@@ -10991,10 +11051,10 @@
         <v>36</v>
       </c>
       <c r="AR49" s="3" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="AS49" s="3" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="AT49" s="3" t="s">
         <v>44</v>
@@ -11006,14 +11066,14 @@
         <v>38</v>
       </c>
       <c r="AW49" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX49" s="8"/>
       <c r="AY49" s="8"/>
     </row>
     <row r="50" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>32</v>
@@ -11043,10 +11103,10 @@
         <v>36</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="M50" s="3"/>
       <c r="N50" s="3" t="s">
@@ -11062,10 +11122,10 @@
         <v>36</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="T50" s="3" t="s">
         <v>396</v>
@@ -11074,13 +11134,13 @@
         <v>3.5</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="Y50" s="3">
         <v>3</v>
@@ -11155,16 +11215,16 @@
         <v>38</v>
       </c>
       <c r="AW50" s="7" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="AX50" s="10" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="AY50" s="8"/>
     </row>
     <row r="51" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>32</v>
@@ -11197,7 +11257,7 @@
         <v>310</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3" t="s">
@@ -11213,10 +11273,10 @@
         <v>36</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="T51" s="3" t="s">
         <v>397</v>
@@ -11225,13 +11285,13 @@
         <v>4</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="Y51" s="3">
         <v>1</v>
@@ -11270,13 +11330,13 @@
         <v>8</v>
       </c>
       <c r="AK51" s="3" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="AL51" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM51" s="3" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AN51" s="3" t="s">
         <v>32</v>
@@ -11306,7 +11366,7 @@
         <v>38</v>
       </c>
       <c r="AW51" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX51" s="8"/>
       <c r="AY51" s="8"/>
@@ -11346,7 +11406,7 @@
         <v>311</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3" t="s">
@@ -11362,10 +11422,10 @@
         <v>36</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>398</v>
@@ -11374,13 +11434,13 @@
         <v>7</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="Y52" s="3">
         <v>7</v>
@@ -11419,13 +11479,13 @@
         <v>4</v>
       </c>
       <c r="AK52" s="3" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="AL52" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM52" s="3" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AN52" s="3" t="s">
         <v>32</v>
@@ -11455,16 +11515,16 @@
         <v>38</v>
       </c>
       <c r="AW52" s="7" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="AX52" s="8" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="AY52" s="8"/>
     </row>
     <row r="53" spans="1:51" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>32</v>
@@ -11497,7 +11557,7 @@
         <v>124</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3" t="s">
@@ -11513,10 +11573,10 @@
         <v>38</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="T53" s="3" t="s">
         <v>399</v>
@@ -11528,10 +11588,10 @@
         <v>207</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="X53" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y53" s="3">
         <v>2</v>
@@ -11570,7 +11630,7 @@
         <v>6</v>
       </c>
       <c r="AK53" s="3" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AL53" s="3" t="s">
         <v>42</v>
@@ -11606,14 +11666,14 @@
         <v>38</v>
       </c>
       <c r="AW53" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX53" s="8"/>
       <c r="AY53" s="8"/>
     </row>
     <row r="54" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>32</v>
@@ -11646,7 +11706,7 @@
         <v>305</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="s">
@@ -11662,10 +11722,10 @@
         <v>36</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>400</v>
@@ -11674,13 +11734,13 @@
         <v>3</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="X54" s="3" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="Y54" s="3">
         <v>7</v>
@@ -11755,16 +11815,16 @@
         <v>38</v>
       </c>
       <c r="AW54" s="7" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="AX54" s="10" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="AY54" s="8"/>
     </row>
     <row r="55" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>32</v>
@@ -11797,7 +11857,7 @@
         <v>305</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="M55" s="3"/>
       <c r="N55" s="3" t="s">
@@ -11813,10 +11873,10 @@
         <v>36</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T55" s="3" t="s">
         <v>401</v>
@@ -11825,13 +11885,13 @@
         <v>3</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="X55" s="3" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="Y55" s="3">
         <v>3</v>
@@ -11906,10 +11966,10 @@
         <v>38</v>
       </c>
       <c r="AW55" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="AX55" s="10" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="AY55" s="8"/>
     </row>
@@ -11948,7 +12008,7 @@
         <v>312</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="M56" s="3"/>
       <c r="N56" s="3" t="s">
@@ -11964,10 +12024,10 @@
         <v>36</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T56" s="3" t="s">
         <v>402</v>
@@ -11976,13 +12036,13 @@
         <v>2.75</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="X56" s="3" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="Y56" s="3">
         <v>3</v>
@@ -12057,10 +12117,10 @@
         <v>38</v>
       </c>
       <c r="AW56" s="7" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="AX56" s="10" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="AY56" s="8"/>
     </row>
@@ -12099,10 +12159,10 @@
         <v>313</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>337</v>
@@ -12117,10 +12177,10 @@
         <v>38</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>403</v>
@@ -12129,13 +12189,13 @@
         <v>5</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="X57" s="3" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="Y57" s="3">
         <v>2</v>
@@ -12171,16 +12231,16 @@
         <v>41</v>
       </c>
       <c r="AJ57" s="3" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="AK57" s="3" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="AL57" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM57" s="3" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="AN57" s="3" t="s">
         <v>84</v>
@@ -12195,7 +12255,7 @@
         <v>36</v>
       </c>
       <c r="AR57" s="3" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="AS57" s="3" t="s">
         <v>36</v>
@@ -12210,16 +12270,16 @@
         <v>38</v>
       </c>
       <c r="AW57" s="7" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="AX57" s="10" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="AY57" s="8"/>
     </row>
     <row r="58" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>32</v>
@@ -12252,10 +12312,10 @@
         <v>314</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>343</v>
@@ -12270,10 +12330,10 @@
         <v>36</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>404</v>
@@ -12282,13 +12342,13 @@
         <v>5.5</v>
       </c>
       <c r="V58" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="X58" s="3" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="Y58" s="3">
         <v>3</v>
@@ -12309,10 +12369,10 @@
         <v>36</v>
       </c>
       <c r="AE58" s="5" t="s">
-        <v>429</v>
+        <v>775</v>
       </c>
       <c r="AF58" s="5" t="s">
-        <v>436</v>
+        <v>774</v>
       </c>
       <c r="AG58" s="3" t="s">
         <v>32</v>
@@ -12327,13 +12387,13 @@
         <v>4</v>
       </c>
       <c r="AK58" s="3" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="AL58" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM58" s="3" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="AN58" s="3" t="s">
         <v>32</v>
@@ -12363,10 +12423,10 @@
         <v>38</v>
       </c>
       <c r="AW58" s="7" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="AX58" s="10" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="AY58" s="8"/>
     </row>
@@ -12405,10 +12465,10 @@
         <v>314</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>344</v>
@@ -12423,10 +12483,10 @@
         <v>36</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>405</v>
@@ -12438,10 +12498,10 @@
         <v>207</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="X59" s="3" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="Y59" s="3">
         <v>2</v>
@@ -12480,7 +12540,7 @@
         <v>4</v>
       </c>
       <c r="AK59" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="AL59" s="3" t="s">
         <v>42</v>
@@ -12516,16 +12576,16 @@
         <v>38</v>
       </c>
       <c r="AW59" s="7" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="AX59" s="10" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="AY59" s="8"/>
     </row>
     <row r="60" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>36</v>
@@ -12558,10 +12618,10 @@
         <v>89</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>337</v>
@@ -12576,10 +12636,10 @@
         <v>38</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>406</v>
@@ -12591,10 +12651,10 @@
         <v>207</v>
       </c>
       <c r="W60" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="X60" s="3" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="Y60" s="3">
         <v>3</v>
@@ -12633,13 +12693,13 @@
         <v>4</v>
       </c>
       <c r="AK60" s="3" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="AL60" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM60" s="3" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="AN60" s="3" t="s">
         <v>32</v>
@@ -12657,7 +12717,7 @@
         <v>6</v>
       </c>
       <c r="AS60" s="3" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="AT60" s="3" t="s">
         <v>107</v>
@@ -12669,16 +12729,16 @@
         <v>38</v>
       </c>
       <c r="AW60" s="7" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="AX60" s="8" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="AY60" s="8"/>
     </row>
     <row r="61" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>32</v>
@@ -12693,7 +12753,7 @@
         <v>989804020</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>280</v>
@@ -12711,10 +12771,10 @@
         <v>315</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="N61" s="3" t="s">
         <v>337</v>
@@ -12729,10 +12789,10 @@
         <v>38</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="T61" s="3" t="s">
         <v>407</v>
@@ -12741,13 +12801,13 @@
         <v>8</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="W61" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="X61" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y61" s="3">
         <v>4</v>
@@ -12768,10 +12828,10 @@
         <v>36</v>
       </c>
       <c r="AE61" s="5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AF61" s="5" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG61" s="3" t="s">
         <v>32</v>
@@ -12786,13 +12846,13 @@
         <v>4</v>
       </c>
       <c r="AK61" s="3" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="AL61" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM61" s="3" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="AN61" s="3" t="s">
         <v>32</v>
@@ -12810,7 +12870,7 @@
         <v>4</v>
       </c>
       <c r="AS61" s="3" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="AT61" s="3" t="s">
         <v>107</v>
@@ -12822,16 +12882,16 @@
         <v>38</v>
       </c>
       <c r="AW61" s="7" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="AX61" s="8" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="AY61" s="8"/>
     </row>
     <row r="62" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>32</v>
@@ -12861,13 +12921,13 @@
         <v>36</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>337</v>
@@ -12882,10 +12942,10 @@
         <v>38</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>408</v>
@@ -12894,13 +12954,13 @@
         <v>7</v>
       </c>
       <c r="V62" s="3" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="W62" s="3" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="X62" s="3" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="Y62" s="3">
         <v>10</v>
@@ -12921,10 +12981,10 @@
         <v>38</v>
       </c>
       <c r="AE62" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="AF62" s="5" t="s">
         <v>433</v>
-      </c>
-      <c r="AF62" s="5" t="s">
-        <v>438</v>
       </c>
       <c r="AG62" s="3" t="s">
         <v>32</v>
@@ -12939,13 +12999,13 @@
         <v>15</v>
       </c>
       <c r="AK62" s="3" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="AL62" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM62" s="3" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="AN62" s="3" t="s">
         <v>32</v>
@@ -12957,7 +13017,7 @@
         <v>50</v>
       </c>
       <c r="AQ62" s="3" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="AR62" s="3">
         <v>3</v>
@@ -12975,10 +13035,10 @@
         <v>38</v>
       </c>
       <c r="AW62" s="7" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="AX62" s="10" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="AY62" s="8"/>
     </row>
@@ -13014,13 +13074,13 @@
         <v>36</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="N63" s="3" t="s">
         <v>337</v>
@@ -13038,7 +13098,7 @@
         <v>99</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="T63" s="3" t="s">
         <v>409</v>
@@ -13047,13 +13107,13 @@
         <v>7</v>
       </c>
       <c r="V63" s="3" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="W63" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="X63" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y63" s="3">
         <v>5</v>
@@ -13074,10 +13134,10 @@
         <v>38</v>
       </c>
       <c r="AE63" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="AF63" s="5" t="s">
         <v>434</v>
-      </c>
-      <c r="AF63" s="5" t="s">
-        <v>439</v>
       </c>
       <c r="AG63" s="3" t="s">
         <v>36</v>
@@ -13092,13 +13152,13 @@
         <v>5</v>
       </c>
       <c r="AK63" s="3" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="AL63" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM63" s="3" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="AN63" s="3" t="s">
         <v>32</v>
@@ -13107,7 +13167,7 @@
         <v>6</v>
       </c>
       <c r="AP63" s="3" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="AQ63" s="3" t="s">
         <v>36</v>
@@ -13116,7 +13176,7 @@
         <v>26</v>
       </c>
       <c r="AS63" s="3" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="AT63" s="3" t="s">
         <v>44</v>
@@ -13128,14 +13188,14 @@
         <v>38</v>
       </c>
       <c r="AW63" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX63" s="8"/>
       <c r="AY63" s="8"/>
     </row>
     <row r="64" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>32</v>
@@ -13168,10 +13228,10 @@
         <v>316</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="N64" s="3" t="s">
         <v>337</v>
@@ -13186,10 +13246,10 @@
         <v>38</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="T64" s="3" t="s">
         <v>410</v>
@@ -13198,13 +13258,13 @@
         <v>5.5</v>
       </c>
       <c r="V64" s="3" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="W64" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="X64" s="3" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="Y64" s="3">
         <v>2</v>
@@ -13243,7 +13303,7 @@
         <v>6</v>
       </c>
       <c r="AK64" s="3" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AL64" s="3" t="s">
         <v>46</v>
@@ -13267,7 +13327,7 @@
         <v>1</v>
       </c>
       <c r="AS64" s="3" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="AT64" s="3" t="s">
         <v>44</v>
@@ -13279,7 +13339,7 @@
         <v>38</v>
       </c>
       <c r="AW64" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX64" s="8"/>
       <c r="AY64" s="8"/>
@@ -13319,7 +13379,7 @@
         <v>317</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="M65" s="3"/>
       <c r="N65" s="3" t="s">
@@ -13335,10 +13395,10 @@
         <v>38</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="T65" s="3" t="s">
         <v>411</v>
@@ -13347,13 +13407,13 @@
         <v>3</v>
       </c>
       <c r="V65" s="3" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="W65" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="X65" s="3" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="Y65" s="3">
         <v>1</v>
@@ -13392,13 +13452,13 @@
         <v>5</v>
       </c>
       <c r="AK65" s="3" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AL65" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM65" s="3" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="AN65" s="3" t="s">
         <v>32</v>
@@ -13428,7 +13488,7 @@
         <v>38</v>
       </c>
       <c r="AW65" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX65" s="8"/>
       <c r="AY65" s="8"/>
@@ -13468,7 +13528,7 @@
         <v>318</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="M66" s="3"/>
       <c r="N66" s="3" t="s">
@@ -13484,10 +13544,10 @@
         <v>38</v>
       </c>
       <c r="R66" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>412</v>
@@ -13496,13 +13556,13 @@
         <v>3</v>
       </c>
       <c r="V66" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="W66" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="X66" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y66" s="3">
         <v>2</v>
@@ -13541,7 +13601,7 @@
         <v>16</v>
       </c>
       <c r="AK66" s="3" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="AL66" s="3" t="s">
         <v>46</v>
@@ -13577,10 +13637,10 @@
         <v>38</v>
       </c>
       <c r="AW66" s="7" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="AX66" s="10" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="AY66" s="8"/>
     </row>
@@ -13601,7 +13661,7 @@
         <v>991322614</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>286</v>
@@ -13619,7 +13679,7 @@
         <v>319</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="M67" s="3"/>
       <c r="N67" s="3" t="s">
@@ -13635,10 +13695,10 @@
         <v>38</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="T67" s="3" t="s">
         <v>413</v>
@@ -13650,10 +13710,10 @@
         <v>207</v>
       </c>
       <c r="W67" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="X67" s="3" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="Y67" s="3">
         <v>4</v>
@@ -13728,7 +13788,7 @@
         <v>38</v>
       </c>
       <c r="AW67" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX67" s="8"/>
       <c r="AY67" s="8"/>
@@ -13765,13 +13825,13 @@
         <v>36</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="N68" s="3" t="s">
         <v>337</v>
@@ -13786,10 +13846,10 @@
         <v>38</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="T68" s="3" t="s">
         <v>414</v>
@@ -13798,13 +13858,13 @@
         <v>5</v>
       </c>
       <c r="V68" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="W68" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="X68" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y68" s="3">
         <v>5</v>
@@ -13828,7 +13888,7 @@
         <v>-3.7921779999999998</v>
       </c>
       <c r="AF68" s="5" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AG68" s="3" t="s">
         <v>36</v>
@@ -13843,13 +13903,13 @@
         <v>4</v>
       </c>
       <c r="AK68" s="3" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="AL68" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM68" s="3" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="AN68" s="3" t="s">
         <v>32</v>
@@ -13879,10 +13939,10 @@
         <v>38</v>
       </c>
       <c r="AW68" s="7" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="AX68" s="10" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="AY68" s="8"/>
     </row>
@@ -13918,13 +13978,13 @@
         <v>36</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="N69" s="3" t="s">
         <v>337</v>
@@ -13939,10 +13999,10 @@
         <v>38</v>
       </c>
       <c r="R69" s="3" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="T69" s="3" t="s">
         <v>415</v>
@@ -13951,13 +14011,13 @@
         <v>5</v>
       </c>
       <c r="V69" s="3" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="W69" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="X69" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y69" s="3">
         <v>3</v>
@@ -13978,10 +14038,10 @@
         <v>38</v>
       </c>
       <c r="AE69" s="5" t="s">
-        <v>430</v>
+        <v>767</v>
       </c>
       <c r="AF69" s="5" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AG69" s="3" t="s">
         <v>36</v>
@@ -13996,13 +14056,13 @@
         <v>8</v>
       </c>
       <c r="AK69" s="3" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="AL69" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM69" s="3" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="AN69" s="3" t="s">
         <v>32</v>
@@ -14020,7 +14080,7 @@
         <v>3</v>
       </c>
       <c r="AS69" s="3" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="AT69" s="3" t="s">
         <v>44</v>
@@ -14032,7 +14092,7 @@
         <v>38</v>
       </c>
       <c r="AW69" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX69" s="8"/>
       <c r="AY69" s="8"/>
@@ -14072,10 +14132,10 @@
         <v>320</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="N70" s="3" t="s">
         <v>337</v>
@@ -14090,10 +14150,10 @@
         <v>38</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="T70" s="3" t="s">
         <v>416</v>
@@ -14102,13 +14162,13 @@
         <v>12</v>
       </c>
       <c r="V70" s="3" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="W70" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="X70" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y70" s="3">
         <v>2</v>
@@ -14132,7 +14192,7 @@
         <v>-4.2401593999999996</v>
       </c>
       <c r="AF70" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="AG70" s="3" t="s">
         <v>36</v>
@@ -14147,13 +14207,13 @@
         <v>12</v>
       </c>
       <c r="AK70" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="AL70" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM70" s="3" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="AN70" s="3" t="s">
         <v>32</v>
@@ -14183,10 +14243,10 @@
         <v>38</v>
       </c>
       <c r="AW70" s="7" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="AX70" s="10" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="AY70" s="8"/>
     </row>
@@ -14225,10 +14285,10 @@
         <v>321</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="N71" s="3" t="s">
         <v>337</v>
@@ -14243,10 +14303,10 @@
         <v>38</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="T71" s="3" t="s">
         <v>417</v>
@@ -14255,13 +14315,13 @@
         <v>10</v>
       </c>
       <c r="V71" s="3" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="W71" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="X71" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y71" s="3">
         <v>2</v>
@@ -14300,13 +14360,13 @@
         <v>12</v>
       </c>
       <c r="AK71" s="3" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="AL71" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM71" s="3" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="AN71" s="3" t="s">
         <v>32</v>
@@ -14324,7 +14384,7 @@
         <v>4</v>
       </c>
       <c r="AS71" s="3" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="AT71" s="3" t="s">
         <v>107</v>
@@ -14336,10 +14396,10 @@
         <v>38</v>
       </c>
       <c r="AW71" s="7" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="AX71" s="10" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="AY71" s="8"/>
     </row>
@@ -14378,7 +14438,7 @@
         <v>322</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="M72" s="3"/>
       <c r="N72" s="3" t="s">
@@ -14394,10 +14454,10 @@
         <v>38</v>
       </c>
       <c r="R72" s="3" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>418</v>
@@ -14406,13 +14466,13 @@
         <v>1</v>
       </c>
       <c r="V72" s="3" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="W72" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="X72" s="3" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="Y72" s="3">
         <v>4</v>
@@ -14451,13 +14511,13 @@
         <v>20</v>
       </c>
       <c r="AK72" s="3" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="AL72" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM72" s="3" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="AN72" s="3" t="s">
         <v>32</v>
@@ -14487,10 +14547,10 @@
         <v>38</v>
       </c>
       <c r="AW72" s="7" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="AX72" s="10" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="AY72" s="8"/>
     </row>
@@ -14526,10 +14586,10 @@
         <v>36</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="M73" s="3"/>
       <c r="N73" s="3" t="s">
@@ -14545,10 +14605,10 @@
         <v>38</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T73" s="3" t="s">
         <v>419</v>
@@ -14557,13 +14617,13 @@
         <v>3</v>
       </c>
       <c r="V73" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="W73" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="X73" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Y73" s="3">
         <v>2</v>
@@ -14587,7 +14647,7 @@
         <v>-4.2617066000000001</v>
       </c>
       <c r="AF73" s="5" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="AG73" s="3" t="s">
         <v>36</v>
@@ -14608,7 +14668,7 @@
         <v>46</v>
       </c>
       <c r="AM73" s="3" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN73" s="3" t="s">
         <v>32</v>
@@ -14638,7 +14698,7 @@
         <v>38</v>
       </c>
       <c r="AW73" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX73" s="8"/>
       <c r="AY73" s="8"/>
@@ -14678,7 +14738,7 @@
         <v>323</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="M74" s="3"/>
       <c r="N74" s="3" t="s">
@@ -14694,10 +14754,10 @@
         <v>38</v>
       </c>
       <c r="R74" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T74" s="3" t="s">
         <v>420</v>
@@ -14706,13 +14766,13 @@
         <v>3.5</v>
       </c>
       <c r="V74" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="W74" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="X74" s="3" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="Y74" s="3">
         <v>2</v>
@@ -14751,7 +14811,7 @@
         <v>10</v>
       </c>
       <c r="AK74" s="3" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="AL74" s="3" t="s">
         <v>46</v>
@@ -14787,14 +14847,14 @@
         <v>38</v>
       </c>
       <c r="AW74" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX74" s="8"/>
       <c r="AY74" s="8"/>
     </row>
     <row r="75" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>32</v>
@@ -14827,7 +14887,7 @@
         <v>324</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="M75" s="3"/>
       <c r="N75" s="3" t="s">
@@ -14843,10 +14903,10 @@
         <v>38</v>
       </c>
       <c r="R75" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T75" s="3" t="s">
         <v>421</v>
@@ -14855,13 +14915,13 @@
         <v>2.25</v>
       </c>
       <c r="V75" s="3" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="W75" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="X75" s="3" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="Y75" s="3">
         <v>3</v>
@@ -14936,10 +14996,10 @@
         <v>38</v>
       </c>
       <c r="AW75" s="7" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="AX75" s="10" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="AY75" s="8"/>
     </row>
@@ -14978,10 +15038,10 @@
         <v>325</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>337</v>
@@ -14996,10 +15056,10 @@
         <v>38</v>
       </c>
       <c r="R76" s="3" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>422</v>
@@ -15011,10 +15071,10 @@
         <v>207</v>
       </c>
       <c r="W76" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="X76" s="3" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="Y76" s="3">
         <v>3</v>
@@ -15053,13 +15113,13 @@
         <v>5</v>
       </c>
       <c r="AK76" s="3" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="AL76" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM76" s="3" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="AN76" s="3" t="s">
         <v>32</v>
@@ -15089,14 +15149,14 @@
         <v>38</v>
       </c>
       <c r="AW76" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX76" s="8"/>
       <c r="AY76" s="8"/>
     </row>
     <row r="77" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>32</v>
@@ -15126,13 +15186,13 @@
         <v>36</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="N77" s="3" t="s">
         <v>337</v>
@@ -15147,10 +15207,10 @@
         <v>38</v>
       </c>
       <c r="R77" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="T77" s="3" t="s">
         <v>423</v>
@@ -15159,13 +15219,13 @@
         <v>6</v>
       </c>
       <c r="V77" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="W77" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="X77" s="3" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="Y77" s="3">
         <v>2</v>
@@ -15186,10 +15246,10 @@
         <v>38</v>
       </c>
       <c r="AE77" s="5" t="s">
-        <v>431</v>
+        <v>768</v>
       </c>
       <c r="AF77" s="5" t="s">
-        <v>444</v>
+        <v>776</v>
       </c>
       <c r="AG77" s="3" t="s">
         <v>36</v>
@@ -15204,7 +15264,7 @@
         <v>9</v>
       </c>
       <c r="AK77" s="3" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AL77" s="3" t="s">
         <v>42</v>
@@ -15228,7 +15288,7 @@
         <v>2</v>
       </c>
       <c r="AS77" s="3" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="AT77" s="3" t="s">
         <v>44</v>
@@ -15240,7 +15300,7 @@
         <v>38</v>
       </c>
       <c r="AW77" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX77" s="8"/>
       <c r="AY77" s="8"/>
@@ -15280,7 +15340,7 @@
         <v>326</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="M78" s="3"/>
       <c r="N78" s="3" t="s">
@@ -15296,10 +15356,10 @@
         <v>38</v>
       </c>
       <c r="R78" s="3" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="T78" s="3" t="s">
         <v>424</v>
@@ -15308,13 +15368,13 @@
         <v>3.5</v>
       </c>
       <c r="V78" s="3" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="W78" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="X78" s="3" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="Y78" s="3">
         <v>1</v>
@@ -15335,10 +15395,10 @@
         <v>38</v>
       </c>
       <c r="AE78" s="5" t="s">
-        <v>432</v>
+        <v>769</v>
       </c>
       <c r="AF78" s="5" t="s">
-        <v>445</v>
+        <v>777</v>
       </c>
       <c r="AG78" s="3" t="s">
         <v>36</v>
@@ -15377,7 +15437,7 @@
         <v>1</v>
       </c>
       <c r="AS78" s="3" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="AT78" s="3" t="s">
         <v>44</v>
@@ -15389,16 +15449,16 @@
         <v>38</v>
       </c>
       <c r="AW78" s="7" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="AX78" s="10" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="AY78" s="8"/>
     </row>
     <row r="79" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>32</v>
@@ -15428,10 +15488,10 @@
         <v>36</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="M79" s="3"/>
       <c r="N79" s="3" t="s">
@@ -15447,10 +15507,10 @@
         <v>38</v>
       </c>
       <c r="R79" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T79" s="3" t="s">
         <v>425</v>
@@ -15462,10 +15522,10 @@
         <v>207</v>
       </c>
       <c r="W79" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="X79" s="3" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="Y79" s="3">
         <v>1</v>
@@ -15540,16 +15600,16 @@
         <v>38</v>
       </c>
       <c r="AW79" s="7" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="AX79" s="10" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="AY79" s="8"/>
     </row>
     <row r="80" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>32</v>
@@ -15582,10 +15642,10 @@
         <v>327</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="N80" s="3" t="s">
         <v>337</v>
@@ -15600,10 +15660,10 @@
         <v>38</v>
       </c>
       <c r="R80" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="T80" s="3" t="s">
         <v>426</v>
@@ -15612,13 +15672,13 @@
         <v>6</v>
       </c>
       <c r="V80" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="W80" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="X80" s="3" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="Y80" s="3">
         <v>2</v>
@@ -15693,10 +15753,10 @@
         <v>38</v>
       </c>
       <c r="AW80" s="7" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="AX80" s="10" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="AY80" s="8"/>
     </row>
@@ -15735,10 +15795,10 @@
         <v>328</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>337</v>
@@ -15753,10 +15813,10 @@
         <v>38</v>
       </c>
       <c r="R81" s="3" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>427</v>
@@ -15768,10 +15828,10 @@
         <v>207</v>
       </c>
       <c r="W81" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="X81" s="3" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="Y81" s="3">
         <v>2</v>
@@ -15846,14 +15906,14 @@
         <v>38</v>
       </c>
       <c r="AW81" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AX81" s="8"/>
       <c r="AY81" s="8"/>
     </row>
     <row r="82" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>32</v>
@@ -15886,10 +15946,10 @@
         <v>329</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="N82" s="3" t="s">
         <v>337</v>
@@ -15904,10 +15964,10 @@
         <v>38</v>
       </c>
       <c r="R82" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="T82" s="3" t="s">
         <v>428</v>
@@ -15916,7 +15976,7 @@
         <v>6</v>
       </c>
       <c r="V82" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="W82" s="6"/>
       <c r="X82" s="6"/>
@@ -15957,7 +16017,7 @@
         <v>10</v>
       </c>
       <c r="AK82" s="3" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AL82" s="3" t="s">
         <v>42</v>
@@ -15981,7 +16041,7 @@
         <v>1</v>
       </c>
       <c r="AS82" s="3" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="AT82" s="3" t="s">
         <v>107</v>
@@ -15993,16 +16053,259 @@
         <v>38</v>
       </c>
       <c r="AW82" s="7" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="AX82" s="8" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="AY82" s="8"/>
     </row>
     <row r="83" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H83"/>
       <c r="AM83"/>
+    </row>
+    <row r="84" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE84" s="11"/>
+    </row>
+    <row r="85" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE85" s="11"/>
+    </row>
+    <row r="86" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE86" s="11"/>
+    </row>
+    <row r="87" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE87" s="11"/>
+    </row>
+    <row r="88" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE88" s="11"/>
+    </row>
+    <row r="89" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE89" s="11"/>
+    </row>
+    <row r="90" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE90" s="11"/>
+    </row>
+    <row r="91" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE91" s="11"/>
+    </row>
+    <row r="92" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE92" s="11"/>
+    </row>
+    <row r="93" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE93" s="11"/>
+    </row>
+    <row r="94" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE94" s="11"/>
+    </row>
+    <row r="95" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE95" s="11"/>
+    </row>
+    <row r="96" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE96" s="11"/>
+    </row>
+    <row r="97" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE97" s="11"/>
+    </row>
+    <row r="98" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE98" s="11"/>
+    </row>
+    <row r="99" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE99" s="11"/>
+    </row>
+    <row r="100" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE100" s="11"/>
+    </row>
+    <row r="101" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE101" s="11"/>
+    </row>
+    <row r="102" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE102" s="11"/>
+    </row>
+    <row r="103" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE103" s="11"/>
+    </row>
+    <row r="104" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE104" s="11"/>
+    </row>
+    <row r="105" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE105" s="11"/>
+    </row>
+    <row r="106" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE106" s="11"/>
+    </row>
+    <row r="107" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE107" s="11"/>
+    </row>
+    <row r="108" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE108" s="11"/>
+    </row>
+    <row r="109" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE109" s="11"/>
+    </row>
+    <row r="110" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE110" s="11"/>
+    </row>
+    <row r="111" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE111" s="11"/>
+    </row>
+    <row r="112" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE112" s="11"/>
+    </row>
+    <row r="113" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE113" s="11"/>
+    </row>
+    <row r="114" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE114" s="11"/>
+    </row>
+    <row r="115" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE115" s="11"/>
+    </row>
+    <row r="116" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE116" s="11"/>
+    </row>
+    <row r="117" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE117" s="11"/>
+    </row>
+    <row r="118" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE118" s="11"/>
+    </row>
+    <row r="119" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE119" s="11"/>
+    </row>
+    <row r="120" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE120" s="11"/>
+    </row>
+    <row r="121" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE121" s="11"/>
+    </row>
+    <row r="122" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE122" s="11"/>
+    </row>
+    <row r="123" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE123" s="11"/>
+    </row>
+    <row r="124" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE124" s="11"/>
+    </row>
+    <row r="125" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE125" s="11"/>
+    </row>
+    <row r="126" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE126" s="11"/>
+    </row>
+    <row r="127" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE127" s="11"/>
+    </row>
+    <row r="128" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE128" s="11"/>
+    </row>
+    <row r="129" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE129" s="11"/>
+    </row>
+    <row r="130" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE130" s="11"/>
+    </row>
+    <row r="131" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE131" s="11"/>
+    </row>
+    <row r="132" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE132" s="11"/>
+    </row>
+    <row r="133" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE133" s="11"/>
+    </row>
+    <row r="134" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE134" s="11"/>
+    </row>
+    <row r="135" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE135" s="11"/>
+    </row>
+    <row r="136" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE136" s="11"/>
+    </row>
+    <row r="137" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE137" s="11"/>
+    </row>
+    <row r="138" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE138" s="11"/>
+    </row>
+    <row r="139" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE139" s="11"/>
+    </row>
+    <row r="140" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE140" s="11"/>
+    </row>
+    <row r="141" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE141" s="11"/>
+    </row>
+    <row r="142" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE142" s="11"/>
+    </row>
+    <row r="143" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE143" s="11"/>
+    </row>
+    <row r="144" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE144" s="11"/>
+    </row>
+    <row r="145" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE145" s="11"/>
+    </row>
+    <row r="146" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE146" s="11"/>
+    </row>
+    <row r="147" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE147" s="11"/>
+    </row>
+    <row r="148" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE148" s="11"/>
+    </row>
+    <row r="149" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE149" s="11"/>
+    </row>
+    <row r="150" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE150" s="11"/>
+    </row>
+    <row r="151" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE151" s="11"/>
+    </row>
+    <row r="152" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE152" s="11"/>
+    </row>
+    <row r="153" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE153" s="11"/>
+    </row>
+    <row r="154" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE154" s="11"/>
+    </row>
+    <row r="155" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE155" s="11"/>
+    </row>
+    <row r="156" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE156" s="11"/>
+    </row>
+    <row r="157" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE157" s="11"/>
+    </row>
+    <row r="158" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE158" s="11"/>
+    </row>
+    <row r="159" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE159" s="11"/>
+    </row>
+    <row r="160" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE160" s="11"/>
+    </row>
+    <row r="161" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE161" s="11"/>
+    </row>
+    <row r="162" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE162" s="11"/>
+    </row>
+    <row r="163" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE163" s="11"/>
+    </row>
+    <row r="164" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE164" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/media/csv_uploads/gastronomia_establecimiento1.xlsx
+++ b/media/csv_uploads/gastronomia_establecimiento1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santigovinan/Documents/applications-django/emprendimientos/media/csv_uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5040C19B-CBCD-574A-9E67-3B38137242A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306AA057-1622-094E-8B9C-358B6A34EFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="940" windowWidth="28940" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3080" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3081" uniqueCount="779">
   <si>
     <t>nombre</t>
   </si>
@@ -1331,21 +1331,6 @@
     <t>-4,2625</t>
   </si>
   <si>
-    <t>-79, 2229</t>
-  </si>
-  <si>
-    <t>-79, 21609</t>
-  </si>
-  <si>
-    <t>-79, 2275</t>
-  </si>
-  <si>
-    <t>-79, 2210</t>
-  </si>
-  <si>
-    <t>-79, 25412</t>
-  </si>
-  <si>
     <t>-79, 2230683</t>
   </si>
   <si>
@@ -2357,9 +2342,6 @@
     <t>-79,426833</t>
   </si>
   <si>
-    <t>-79.1746054</t>
-  </si>
-  <si>
     <t>-4,3626331</t>
   </si>
   <si>
@@ -2367,6 +2349,27 @@
   </si>
   <si>
     <t>-79,2250</t>
+  </si>
+  <si>
+    <t>-79,21609</t>
+  </si>
+  <si>
+    <t>-79,2229</t>
+  </si>
+  <si>
+    <t>-79,1746054</t>
+  </si>
+  <si>
+    <t>-79,2275</t>
+  </si>
+  <si>
+    <t>-79,25412</t>
+  </si>
+  <si>
+    <t>-79,2210</t>
+  </si>
+  <si>
+    <t>-79,16984556</t>
   </si>
 </sst>
 </file>
@@ -2464,7 +2467,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2496,9 +2499,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3632,10 +3632,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AY164"/>
+  <dimension ref="A1:AY82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AC53" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AG62" sqref="AG62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3735,10 +3735,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>13</v>
@@ -3750,40 +3750,40 @@
         <v>15</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>524</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>19</v>
@@ -3798,7 +3798,7 @@
         <v>22</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="AJ1" s="2" t="s">
         <v>23</v>
@@ -3813,25 +3813,25 @@
         <v>26</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="AO1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="AS1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="AU1" s="2" t="s">
         <v>29</v>
@@ -3840,13 +3840,13 @@
         <v>30</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="AY1" s="2" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:51" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3884,7 +3884,7 @@
         <v>37</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3" t="s">
@@ -3900,10 +3900,10 @@
         <v>38</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>348</v>
@@ -3915,10 +3915,10 @@
         <v>207</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="Y2" s="3">
         <v>2</v>
@@ -3991,10 +3991,10 @@
       </c>
       <c r="AV2" s="6"/>
       <c r="AW2" s="7" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="AX2" s="10" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="AY2" s="8"/>
     </row>
@@ -4033,7 +4033,7 @@
         <v>37</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
@@ -4049,10 +4049,10 @@
         <v>38</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>349</v>
@@ -4064,10 +4064,10 @@
         <v>207</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y3" s="3">
         <v>1</v>
@@ -4142,10 +4142,10 @@
         <v>38</v>
       </c>
       <c r="AW3" s="7" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="AX3" s="10" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="AY3" s="8"/>
     </row>
@@ -4184,7 +4184,7 @@
         <v>37</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
@@ -4200,10 +4200,10 @@
         <v>38</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>350</v>
@@ -4215,10 +4215,10 @@
         <v>207</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y4" s="3">
         <v>2</v>
@@ -4293,7 +4293,7 @@
         <v>38</v>
       </c>
       <c r="AW4" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX4" s="8"/>
       <c r="AY4" s="8"/>
@@ -4324,7 +4324,7 @@
         <v>35</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>36</v>
@@ -4333,7 +4333,7 @@
         <v>37</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
@@ -4349,10 +4349,10 @@
         <v>36</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>351</v>
@@ -4364,10 +4364,10 @@
         <v>207</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y5" s="3">
         <v>2</v>
@@ -4442,7 +4442,7 @@
         <v>38</v>
       </c>
       <c r="AW5" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX5" s="8"/>
       <c r="AY5" s="8"/>
@@ -4473,7 +4473,7 @@
         <v>35</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>36</v>
@@ -4482,7 +4482,7 @@
         <v>54</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
@@ -4498,10 +4498,10 @@
         <v>38</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>352</v>
@@ -4513,10 +4513,10 @@
         <v>207</v>
       </c>
       <c r="W6" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="X6" s="3" t="s">
         <v>536</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>541</v>
       </c>
       <c r="Y6" s="3">
         <v>4</v>
@@ -4537,7 +4537,7 @@
         <v>38</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="AF6" s="5">
         <v>-79.416832999999997</v>
@@ -4591,10 +4591,10 @@
         <v>38</v>
       </c>
       <c r="AW6" s="7" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="AX6" s="10" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="AY6" s="8"/>
     </row>
@@ -4624,7 +4624,7 @@
         <v>35</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>36</v>
@@ -4633,7 +4633,7 @@
         <v>58</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
@@ -4649,10 +4649,10 @@
         <v>38</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>353</v>
@@ -4664,10 +4664,10 @@
         <v>207</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y7" s="3">
         <v>3</v>
@@ -4688,7 +4688,7 @@
         <v>38</v>
       </c>
       <c r="AE7" s="5" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="AF7" s="5">
         <v>-79.426749999999998</v>
@@ -4742,10 +4742,10 @@
         <v>38</v>
       </c>
       <c r="AW7" s="7" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="AX7" s="10" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="AY7" s="8"/>
     </row>
@@ -4775,7 +4775,7 @@
         <v>57</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>36</v>
@@ -4784,7 +4784,7 @@
         <v>58</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
@@ -4800,10 +4800,10 @@
         <v>38</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>354</v>
@@ -4815,10 +4815,10 @@
         <v>207</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y8" s="3">
         <v>2</v>
@@ -4839,7 +4839,7 @@
         <v>38</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="AF8" s="5">
         <v>-79.426749999999998</v>
@@ -4893,10 +4893,10 @@
         <v>38</v>
       </c>
       <c r="AW8" s="7" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="AX8" s="10" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="AY8" s="8"/>
     </row>
@@ -4926,7 +4926,7 @@
         <v>35</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>36</v>
@@ -4935,7 +4935,7 @@
         <v>58</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
@@ -4951,10 +4951,10 @@
         <v>38</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>355</v>
@@ -4966,10 +4966,10 @@
         <v>207</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y9" s="3">
         <v>4</v>
@@ -4990,7 +4990,7 @@
         <v>38</v>
       </c>
       <c r="AE9" s="5" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="AF9" s="5">
         <v>-79.426777999999999</v>
@@ -5044,10 +5044,10 @@
         <v>38</v>
       </c>
       <c r="AW9" s="7" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="AX9" s="10" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="AY9" s="8"/>
     </row>
@@ -5077,7 +5077,7 @@
         <v>35</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>36</v>
@@ -5086,7 +5086,7 @@
         <v>58</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
@@ -5102,10 +5102,10 @@
         <v>38</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>356</v>
@@ -5117,10 +5117,10 @@
         <v>207</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y10" s="3">
         <v>3</v>
@@ -5195,10 +5195,10 @@
         <v>38</v>
       </c>
       <c r="AW10" s="7" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="AX10" s="10" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AY10" s="8"/>
     </row>
@@ -5237,7 +5237,7 @@
         <v>64</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
@@ -5253,10 +5253,10 @@
         <v>38</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T11" s="3" t="s">
         <v>357</v>
@@ -5268,10 +5268,10 @@
         <v>207</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y11" s="3">
         <v>5</v>
@@ -5292,7 +5292,7 @@
         <v>38</v>
       </c>
       <c r="AE11" s="5" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="AF11" s="5">
         <v>-79.426167000000007</v>
@@ -5346,7 +5346,7 @@
         <v>38</v>
       </c>
       <c r="AW11" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX11" s="8"/>
       <c r="AY11" s="8"/>
@@ -5377,7 +5377,7 @@
         <v>66</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>36</v>
@@ -5386,7 +5386,7 @@
         <v>58</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
@@ -5402,10 +5402,10 @@
         <v>38</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>358</v>
@@ -5417,10 +5417,10 @@
         <v>207</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="Y12" s="3">
         <v>2</v>
@@ -5441,7 +5441,7 @@
         <v>38</v>
       </c>
       <c r="AE12" s="5" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="AF12" s="5">
         <v>-79.425916999999998</v>
@@ -5495,10 +5495,10 @@
         <v>38</v>
       </c>
       <c r="AW12" s="7" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AX12" s="10" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="AY12" s="8"/>
     </row>
@@ -5528,7 +5528,7 @@
         <v>66</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>36</v>
@@ -5537,7 +5537,7 @@
         <v>58</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
@@ -5553,10 +5553,10 @@
         <v>38</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T13" s="3" t="s">
         <v>359</v>
@@ -5568,10 +5568,10 @@
         <v>207</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="Y13" s="3">
         <v>3</v>
@@ -5592,10 +5592,10 @@
         <v>38</v>
       </c>
       <c r="AE13" s="5" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="AF13" s="5" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="AG13" s="3" t="s">
         <v>32</v>
@@ -5646,10 +5646,10 @@
         <v>38</v>
       </c>
       <c r="AW13" s="7" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AX13" s="10" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="AY13" s="8"/>
     </row>
@@ -5679,7 +5679,7 @@
         <v>35</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>36</v>
@@ -5688,7 +5688,7 @@
         <v>300</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
@@ -5704,10 +5704,10 @@
         <v>38</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>360</v>
@@ -5719,10 +5719,10 @@
         <v>207</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y14" s="3">
         <v>2</v>
@@ -5743,10 +5743,10 @@
         <v>36</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="AG14" s="3" t="s">
         <v>36</v>
@@ -5797,10 +5797,10 @@
         <v>38</v>
       </c>
       <c r="AW14" s="7" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="AX14" s="10" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="AY14" s="8"/>
     </row>
@@ -5839,7 +5839,7 @@
         <v>69</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
@@ -5855,10 +5855,10 @@
         <v>38</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>361</v>
@@ -5870,10 +5870,10 @@
         <v>207</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="Y15" s="3">
         <v>3</v>
@@ -5894,7 +5894,7 @@
         <v>38</v>
       </c>
       <c r="AE15" s="5" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="AF15" s="5">
         <v>-79.426638999999994</v>
@@ -5948,7 +5948,7 @@
         <v>38</v>
       </c>
       <c r="AW15" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX15" s="8"/>
       <c r="AY15" s="8"/>
@@ -5979,7 +5979,7 @@
         <v>35</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>36</v>
@@ -5988,7 +5988,7 @@
         <v>72</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>76</v>
@@ -6006,10 +6006,10 @@
         <v>38</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>362</v>
@@ -6018,13 +6018,13 @@
         <v>5</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y16" s="3">
         <v>3</v>
@@ -6045,10 +6045,10 @@
         <v>38</v>
       </c>
       <c r="AE16" s="5" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="AF16" s="5" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="AG16" s="3" t="s">
         <v>32</v>
@@ -6099,10 +6099,10 @@
         <v>38</v>
       </c>
       <c r="AW16" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="AX16" s="10" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="AY16" s="8"/>
     </row>
@@ -6141,7 +6141,7 @@
         <v>75</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>76</v>
@@ -6159,10 +6159,10 @@
         <v>38</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>363</v>
@@ -6174,10 +6174,10 @@
         <v>207</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y17" s="3">
         <v>2</v>
@@ -6252,10 +6252,10 @@
         <v>38</v>
       </c>
       <c r="AW17" s="7" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="AX17" s="10" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="AY17" s="8"/>
     </row>
@@ -6294,7 +6294,7 @@
         <v>78</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
@@ -6310,10 +6310,10 @@
         <v>38</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>364</v>
@@ -6325,10 +6325,10 @@
         <v>207</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y18" s="3">
         <v>3</v>
@@ -6403,10 +6403,10 @@
         <v>38</v>
       </c>
       <c r="AW18" s="7" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="AX18" s="10" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="AY18" s="8"/>
     </row>
@@ -6445,7 +6445,7 @@
         <v>79</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
@@ -6461,10 +6461,10 @@
         <v>38</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T19" s="3" t="s">
         <v>365</v>
@@ -6476,10 +6476,10 @@
         <v>207</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y19" s="3">
         <v>7</v>
@@ -6554,10 +6554,10 @@
         <v>38</v>
       </c>
       <c r="AW19" s="7" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="AX19" s="10" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="AY19" s="8"/>
     </row>
@@ -6596,7 +6596,7 @@
         <v>79</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>76</v>
@@ -6614,10 +6614,10 @@
         <v>38</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>366</v>
@@ -6629,10 +6629,10 @@
         <v>207</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y20" s="3">
         <v>2</v>
@@ -6707,10 +6707,10 @@
         <v>38</v>
       </c>
       <c r="AW20" s="7" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="AX20" s="10" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="AY20" s="8"/>
     </row>
@@ -6749,7 +6749,7 @@
         <v>79</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="s">
@@ -6765,10 +6765,10 @@
         <v>38</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>367</v>
@@ -6780,10 +6780,10 @@
         <v>207</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y21" s="3">
         <v>4</v>
@@ -6804,7 +6804,7 @@
         <v>38</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="AF21" s="5">
         <v>-79.416639000000004</v>
@@ -6858,7 +6858,7 @@
         <v>38</v>
       </c>
       <c r="AW21" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX21" s="8"/>
       <c r="AY21" s="8"/>
@@ -6898,7 +6898,7 @@
         <v>58</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
@@ -6914,10 +6914,10 @@
         <v>38</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>368</v>
@@ -6929,10 +6929,10 @@
         <v>207</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y22" s="3">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>38</v>
       </c>
       <c r="AE22" s="5" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="AF22" s="5">
         <v>-79.426777999999999</v>
@@ -7007,10 +7007,10 @@
         <v>38</v>
       </c>
       <c r="AW22" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="AX22" s="10" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="AY22" s="8"/>
     </row>
@@ -7049,7 +7049,7 @@
         <v>81</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
@@ -7065,10 +7065,10 @@
         <v>38</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>369</v>
@@ -7080,10 +7080,10 @@
         <v>207</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y23" s="3">
         <v>2</v>
@@ -7122,7 +7122,7 @@
         <v>3</v>
       </c>
       <c r="AK23" s="3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AL23" s="3" t="s">
         <v>42</v>
@@ -7146,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="3" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="AT23" s="3" t="s">
         <v>44</v>
@@ -7158,10 +7158,10 @@
         <v>38</v>
       </c>
       <c r="AW23" s="7" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="AX23" s="10" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="AY23" s="8"/>
     </row>
@@ -7200,7 +7200,7 @@
         <v>83</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="s">
@@ -7216,10 +7216,10 @@
         <v>38</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>370</v>
@@ -7231,10 +7231,10 @@
         <v>207</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="Y24" s="3">
         <v>3</v>
@@ -7255,7 +7255,7 @@
         <v>38</v>
       </c>
       <c r="AE24" s="5" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="AF24" s="5">
         <v>-79.426805999999999</v>
@@ -7309,7 +7309,7 @@
         <v>38</v>
       </c>
       <c r="AW24" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX24" s="8"/>
       <c r="AY24" s="8"/>
@@ -7340,7 +7340,7 @@
         <v>35</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>36</v>
@@ -7349,7 +7349,7 @@
         <v>54</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3" t="s">
@@ -7365,10 +7365,10 @@
         <v>38</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T25" s="3" t="s">
         <v>371</v>
@@ -7380,10 +7380,10 @@
         <v>207</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="Y25" s="3">
         <v>3</v>
@@ -7404,7 +7404,7 @@
         <v>38</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="AF25" s="5">
         <v>-79.426305999999997</v>
@@ -7458,10 +7458,10 @@
         <v>38</v>
       </c>
       <c r="AW25" s="7" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="AX25" s="10" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="AY25" s="8"/>
     </row>
@@ -7500,7 +7500,7 @@
         <v>54</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
@@ -7516,10 +7516,10 @@
         <v>38</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>372</v>
@@ -7531,10 +7531,10 @@
         <v>207</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="Y26" s="3">
         <v>5</v>
@@ -7555,10 +7555,10 @@
         <v>38</v>
       </c>
       <c r="AE26" s="5" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="AF26" s="5" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="AG26" s="3" t="s">
         <v>32</v>
@@ -7609,10 +7609,10 @@
         <v>38</v>
       </c>
       <c r="AW26" s="7" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="AX26" s="10" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AY26" s="8"/>
     </row>
@@ -7651,7 +7651,7 @@
         <v>58</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3" t="s">
@@ -7667,10 +7667,10 @@
         <v>38</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>373</v>
@@ -7682,10 +7682,10 @@
         <v>207</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y27" s="3">
         <v>4</v>
@@ -7760,7 +7760,7 @@
         <v>38</v>
       </c>
       <c r="AW27" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX27" s="8"/>
       <c r="AY27" s="8"/>
@@ -7800,10 +7800,10 @@
         <v>58</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="N28" s="3" t="s">
         <v>335</v>
@@ -7818,10 +7818,10 @@
         <v>36</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="T28" s="3" t="s">
         <v>374</v>
@@ -7833,10 +7833,10 @@
         <v>207</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y28" s="3">
         <v>2</v>
@@ -7911,7 +7911,7 @@
         <v>38</v>
       </c>
       <c r="AW28" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX28" s="8"/>
       <c r="AY28" s="8"/>
@@ -7942,7 +7942,7 @@
         <v>35</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>36</v>
@@ -7951,7 +7951,7 @@
         <v>89</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
@@ -7967,10 +7967,10 @@
         <v>38</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>375</v>
@@ -7982,10 +7982,10 @@
         <v>207</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="Y29" s="3">
         <v>1</v>
@@ -8060,10 +8060,10 @@
         <v>38</v>
       </c>
       <c r="AW29" s="7" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="AX29" s="10" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AY29" s="8"/>
     </row>
@@ -8093,7 +8093,7 @@
         <v>77</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>36</v>
@@ -8102,7 +8102,7 @@
         <v>37</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3" t="s">
@@ -8118,10 +8118,10 @@
         <v>38</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T30" s="3" t="s">
         <v>376</v>
@@ -8133,10 +8133,10 @@
         <v>207</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y30" s="3">
         <v>3</v>
@@ -8157,7 +8157,7 @@
         <v>38</v>
       </c>
       <c r="AE30" s="5" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="AF30" s="5">
         <v>-79.377082999999999</v>
@@ -8211,10 +8211,10 @@
         <v>38</v>
       </c>
       <c r="AW30" s="7" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="AX30" s="10" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="AY30" s="8"/>
     </row>
@@ -8253,7 +8253,7 @@
         <v>37</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3" t="s">
@@ -8269,10 +8269,10 @@
         <v>38</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T31" s="3" t="s">
         <v>377</v>
@@ -8284,10 +8284,10 @@
         <v>207</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="Y31" s="3">
         <v>3</v>
@@ -8362,7 +8362,7 @@
         <v>38</v>
       </c>
       <c r="AW31" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX31" s="8"/>
       <c r="AY31" s="8"/>
@@ -8402,7 +8402,7 @@
         <v>91</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3" t="s">
@@ -8418,10 +8418,10 @@
         <v>38</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>378</v>
@@ -8433,10 +8433,10 @@
         <v>207</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="Y32" s="3">
         <v>1</v>
@@ -8459,8 +8459,8 @@
       <c r="AE32" s="5">
         <v>-3.859605143</v>
       </c>
-      <c r="AF32" s="5">
-        <v>-79.169845559999999</v>
+      <c r="AF32" s="5" t="s">
+        <v>778</v>
       </c>
       <c r="AG32" s="3" t="s">
         <v>36</v>
@@ -8511,7 +8511,7 @@
         <v>38</v>
       </c>
       <c r="AW32" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX32" s="8"/>
       <c r="AY32" s="8"/>
@@ -8542,7 +8542,7 @@
         <v>35</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>36</v>
@@ -8551,7 +8551,7 @@
         <v>91</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3" t="s">
@@ -8567,10 +8567,10 @@
         <v>38</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>379</v>
@@ -8582,10 +8582,10 @@
         <v>207</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="Y33" s="3">
         <v>2</v>
@@ -8660,7 +8660,7 @@
         <v>38</v>
       </c>
       <c r="AW33" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX33" s="8"/>
       <c r="AY33" s="8"/>
@@ -8700,7 +8700,7 @@
         <v>301</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3" t="s">
@@ -8716,10 +8716,10 @@
         <v>38</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="T34" s="3" t="s">
         <v>380</v>
@@ -8728,13 +8728,13 @@
         <v>3</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="Y34" s="3">
         <v>1</v>
@@ -8809,7 +8809,7 @@
         <v>38</v>
       </c>
       <c r="AW34" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX34" s="8"/>
       <c r="AY34" s="8"/>
@@ -8849,7 +8849,7 @@
         <v>302</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3" t="s">
@@ -8865,10 +8865,10 @@
         <v>38</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>381</v>
@@ -8877,13 +8877,13 @@
         <v>3</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y35" s="3">
         <v>1</v>
@@ -8958,14 +8958,14 @@
         <v>38</v>
       </c>
       <c r="AW35" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX35" s="8"/>
       <c r="AY35" s="8"/>
     </row>
     <row r="36" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>32</v>
@@ -8998,7 +8998,7 @@
         <v>303</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3" t="s">
@@ -9014,10 +9014,10 @@
         <v>38</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="T36" s="3" t="s">
         <v>382</v>
@@ -9026,13 +9026,13 @@
         <v>7</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="X36" s="3" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="Y36" s="3">
         <v>3</v>
@@ -9107,7 +9107,7 @@
         <v>38</v>
       </c>
       <c r="AW36" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX36" s="8"/>
       <c r="AY36" s="8"/>
@@ -9147,7 +9147,7 @@
         <v>304</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3" t="s">
@@ -9163,10 +9163,10 @@
         <v>38</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="T37" s="3" t="s">
         <v>383</v>
@@ -9175,13 +9175,13 @@
         <v>3.5</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="X37" s="3" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="Y37" s="3">
         <v>3</v>
@@ -9256,14 +9256,14 @@
         <v>38</v>
       </c>
       <c r="AW37" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX37" s="8"/>
       <c r="AY37" s="8"/>
     </row>
     <row r="38" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>32</v>
@@ -9296,7 +9296,7 @@
         <v>305</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3" t="s">
@@ -9312,10 +9312,10 @@
         <v>38</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T38" s="3" t="s">
         <v>384</v>
@@ -9324,13 +9324,13 @@
         <v>3.5</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X38" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="Y38" s="3">
         <v>3</v>
@@ -9366,7 +9366,7 @@
         <v>41</v>
       </c>
       <c r="AJ38" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AK38" s="3" t="s">
         <v>36</v>
@@ -9390,7 +9390,7 @@
         <v>36</v>
       </c>
       <c r="AR38" s="3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AS38" s="3" t="s">
         <v>36</v>
@@ -9405,7 +9405,7 @@
         <v>38</v>
       </c>
       <c r="AW38" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX38" s="8"/>
       <c r="AY38" s="8"/>
@@ -9445,7 +9445,7 @@
         <v>306</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3" t="s">
@@ -9461,10 +9461,10 @@
         <v>36</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="T39" s="3" t="s">
         <v>385</v>
@@ -9473,13 +9473,13 @@
         <v>2</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="X39" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y39" s="3">
         <v>2</v>
@@ -9554,14 +9554,14 @@
         <v>38</v>
       </c>
       <c r="AW39" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX39" s="8"/>
       <c r="AY39" s="8"/>
     </row>
     <row r="40" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>32</v>
@@ -9585,7 +9585,7 @@
         <v>35</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>36</v>
@@ -9594,7 +9594,7 @@
         <v>91</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="M40" s="3"/>
       <c r="N40" s="3" t="s">
@@ -9610,10 +9610,10 @@
         <v>38</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T40" s="3" t="s">
         <v>386</v>
@@ -9622,13 +9622,13 @@
         <v>3</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y40" s="3">
         <v>2</v>
@@ -9703,14 +9703,14 @@
         <v>38</v>
       </c>
       <c r="AW40" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX40" s="8"/>
       <c r="AY40" s="8"/>
     </row>
     <row r="41" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>36</v>
@@ -9734,7 +9734,7 @@
         <v>35</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>36</v>
@@ -9743,7 +9743,7 @@
         <v>91</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="M41" s="3"/>
       <c r="N41" s="3" t="s">
@@ -9759,10 +9759,10 @@
         <v>38</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>387</v>
@@ -9774,10 +9774,10 @@
         <v>207</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y41" s="3">
         <v>2</v>
@@ -9852,10 +9852,10 @@
         <v>38</v>
       </c>
       <c r="AW41" s="7" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="AX41" s="10" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="AY41" s="8"/>
     </row>
@@ -9894,10 +9894,10 @@
         <v>106</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>331</v>
@@ -9912,10 +9912,10 @@
         <v>38</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>388</v>
@@ -9927,10 +9927,10 @@
         <v>207</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="Y42" s="3">
         <v>3</v>
@@ -9969,13 +9969,13 @@
         <v>16</v>
       </c>
       <c r="AK42" s="3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="AL42" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM42" s="3" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="AN42" s="3" t="s">
         <v>32</v>
@@ -9993,7 +9993,7 @@
         <v>5</v>
       </c>
       <c r="AS42" s="3" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="AT42" s="3" t="s">
         <v>107</v>
@@ -10005,10 +10005,10 @@
         <v>38</v>
       </c>
       <c r="AW42" s="7" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="AX42" s="10" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="AY42" s="8"/>
     </row>
@@ -10047,10 +10047,10 @@
         <v>109</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>340</v>
@@ -10065,10 +10065,10 @@
         <v>38</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>389</v>
@@ -10080,10 +10080,10 @@
         <v>207</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="Y43" s="3">
         <v>3</v>
@@ -10122,13 +10122,13 @@
         <v>5</v>
       </c>
       <c r="AK43" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="AL43" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM43" s="3" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="AN43" s="3" t="s">
         <v>32</v>
@@ -10146,7 +10146,7 @@
         <v>3</v>
       </c>
       <c r="AS43" s="3" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="AT43" s="3" t="s">
         <v>107</v>
@@ -10158,16 +10158,16 @@
         <v>38</v>
       </c>
       <c r="AW43" s="7" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="AX43" s="10" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="AY43" s="8"/>
     </row>
     <row r="44" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>32</v>
@@ -10200,7 +10200,7 @@
         <v>307</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3" t="s">
@@ -10216,10 +10216,10 @@
         <v>38</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>390</v>
@@ -10228,13 +10228,13 @@
         <v>5.5</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="Y44" s="3">
         <v>10</v>
@@ -10273,13 +10273,13 @@
         <v>6</v>
       </c>
       <c r="AK44" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="AL44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM44" s="3" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="AN44" s="3" t="s">
         <v>84</v>
@@ -10309,16 +10309,16 @@
         <v>38</v>
       </c>
       <c r="AW44" s="7" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="AX44" s="10" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="AY44" s="8"/>
     </row>
     <row r="45" spans="1:51" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>32</v>
@@ -10351,7 +10351,7 @@
         <v>308</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3" t="s">
@@ -10367,10 +10367,10 @@
         <v>38</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>391</v>
@@ -10379,13 +10379,13 @@
         <v>5</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="Y45" s="3">
         <v>3</v>
@@ -10424,13 +10424,13 @@
         <v>3</v>
       </c>
       <c r="AK45" s="3" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="AL45" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM45" s="3" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="AN45" s="3" t="s">
         <v>32</v>
@@ -10460,10 +10460,10 @@
         <v>38</v>
       </c>
       <c r="AW45" s="7" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="AX45" s="8" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="AY45" s="8"/>
     </row>
@@ -10502,7 +10502,7 @@
         <v>309</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3" t="s">
@@ -10521,7 +10521,7 @@
         <v>347</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>392</v>
@@ -10530,13 +10530,13 @@
         <v>7</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="Y46" s="3">
         <v>4</v>
@@ -10575,7 +10575,7 @@
         <v>4</v>
       </c>
       <c r="AK46" s="3" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="AL46" s="3" t="s">
         <v>46</v>
@@ -10611,7 +10611,7 @@
         <v>38</v>
       </c>
       <c r="AW46" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX46" s="8"/>
       <c r="AY46" s="8"/>
@@ -10648,10 +10648,10 @@
         <v>36</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>345</v>
@@ -10669,10 +10669,10 @@
         <v>38</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>393</v>
@@ -10681,13 +10681,13 @@
         <v>10.5</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="Y47" s="3">
         <v>4</v>
@@ -10726,13 +10726,13 @@
         <v>10</v>
       </c>
       <c r="AK47" s="3" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="AL47" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM47" s="3" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="AN47" s="3" t="s">
         <v>32</v>
@@ -10762,7 +10762,7 @@
         <v>38</v>
       </c>
       <c r="AW47" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX47" s="8"/>
       <c r="AY47" s="8"/>
@@ -10802,7 +10802,7 @@
         <v>119</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>346</v>
@@ -10820,10 +10820,10 @@
         <v>38</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>394</v>
@@ -10832,13 +10832,13 @@
         <v>3.5</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="Y48" s="3">
         <v>3</v>
@@ -10877,7 +10877,7 @@
         <v>15</v>
       </c>
       <c r="AK48" s="3" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="AL48" s="3" t="s">
         <v>46</v>
@@ -10913,10 +10913,10 @@
         <v>38</v>
       </c>
       <c r="AW48" s="7" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="AX48" s="10" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="AY48" s="8"/>
     </row>
@@ -10952,13 +10952,13 @@
         <v>36</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>337</v>
@@ -10973,10 +10973,10 @@
         <v>38</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>395</v>
@@ -10985,13 +10985,13 @@
         <v>5</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="X49" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y49" s="3">
         <v>3</v>
@@ -11030,13 +11030,13 @@
         <v>4</v>
       </c>
       <c r="AK49" s="3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="AL49" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM49" s="3" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="AN49" s="3" t="s">
         <v>32</v>
@@ -11051,10 +11051,10 @@
         <v>36</v>
       </c>
       <c r="AR49" s="3" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="AS49" s="3" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="AT49" s="3" t="s">
         <v>44</v>
@@ -11066,14 +11066,14 @@
         <v>38</v>
       </c>
       <c r="AW49" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX49" s="8"/>
       <c r="AY49" s="8"/>
     </row>
     <row r="50" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>32</v>
@@ -11103,10 +11103,10 @@
         <v>36</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="M50" s="3"/>
       <c r="N50" s="3" t="s">
@@ -11122,10 +11122,10 @@
         <v>36</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="T50" s="3" t="s">
         <v>396</v>
@@ -11134,13 +11134,13 @@
         <v>3.5</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="Y50" s="3">
         <v>3</v>
@@ -11215,16 +11215,16 @@
         <v>38</v>
       </c>
       <c r="AW50" s="7" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="AX50" s="10" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="AY50" s="8"/>
     </row>
     <row r="51" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>32</v>
@@ -11257,7 +11257,7 @@
         <v>310</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3" t="s">
@@ -11273,10 +11273,10 @@
         <v>36</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="T51" s="3" t="s">
         <v>397</v>
@@ -11285,13 +11285,13 @@
         <v>4</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="Y51" s="3">
         <v>1</v>
@@ -11330,13 +11330,13 @@
         <v>8</v>
       </c>
       <c r="AK51" s="3" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="AL51" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM51" s="3" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="AN51" s="3" t="s">
         <v>32</v>
@@ -11366,7 +11366,7 @@
         <v>38</v>
       </c>
       <c r="AW51" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX51" s="8"/>
       <c r="AY51" s="8"/>
@@ -11406,7 +11406,7 @@
         <v>311</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3" t="s">
@@ -11422,10 +11422,10 @@
         <v>36</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>398</v>
@@ -11434,13 +11434,13 @@
         <v>7</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="Y52" s="3">
         <v>7</v>
@@ -11479,13 +11479,13 @@
         <v>4</v>
       </c>
       <c r="AK52" s="3" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="AL52" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM52" s="3" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="AN52" s="3" t="s">
         <v>32</v>
@@ -11515,16 +11515,16 @@
         <v>38</v>
       </c>
       <c r="AW52" s="7" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="AX52" s="8" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AY52" s="8"/>
     </row>
     <row r="53" spans="1:51" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>32</v>
@@ -11557,7 +11557,7 @@
         <v>124</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3" t="s">
@@ -11573,10 +11573,10 @@
         <v>38</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="T53" s="3" t="s">
         <v>399</v>
@@ -11588,10 +11588,10 @@
         <v>207</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X53" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y53" s="3">
         <v>2</v>
@@ -11630,7 +11630,7 @@
         <v>6</v>
       </c>
       <c r="AK53" s="3" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="AL53" s="3" t="s">
         <v>42</v>
@@ -11666,14 +11666,14 @@
         <v>38</v>
       </c>
       <c r="AW53" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX53" s="8"/>
       <c r="AY53" s="8"/>
     </row>
     <row r="54" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>32</v>
@@ -11706,7 +11706,7 @@
         <v>305</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="s">
@@ -11722,10 +11722,10 @@
         <v>36</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>400</v>
@@ -11734,13 +11734,13 @@
         <v>3</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="X54" s="3" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="Y54" s="3">
         <v>7</v>
@@ -11815,16 +11815,16 @@
         <v>38</v>
       </c>
       <c r="AW54" s="7" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="AX54" s="10" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AY54" s="8"/>
     </row>
     <row r="55" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>32</v>
@@ -11857,7 +11857,7 @@
         <v>305</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="M55" s="3"/>
       <c r="N55" s="3" t="s">
@@ -11873,10 +11873,10 @@
         <v>36</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T55" s="3" t="s">
         <v>401</v>
@@ -11885,13 +11885,13 @@
         <v>3</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X55" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="Y55" s="3">
         <v>3</v>
@@ -11966,10 +11966,10 @@
         <v>38</v>
       </c>
       <c r="AW55" s="7" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="AX55" s="10" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="AY55" s="8"/>
     </row>
@@ -12008,7 +12008,7 @@
         <v>312</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="M56" s="3"/>
       <c r="N56" s="3" t="s">
@@ -12024,10 +12024,10 @@
         <v>36</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T56" s="3" t="s">
         <v>402</v>
@@ -12036,13 +12036,13 @@
         <v>2.75</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="X56" s="3" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="Y56" s="3">
         <v>3</v>
@@ -12117,10 +12117,10 @@
         <v>38</v>
       </c>
       <c r="AW56" s="7" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="AX56" s="10" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="AY56" s="8"/>
     </row>
@@ -12159,10 +12159,10 @@
         <v>313</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>337</v>
@@ -12177,10 +12177,10 @@
         <v>38</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>403</v>
@@ -12189,13 +12189,13 @@
         <v>5</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="X57" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="Y57" s="3">
         <v>2</v>
@@ -12231,16 +12231,16 @@
         <v>41</v>
       </c>
       <c r="AJ57" s="3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AK57" s="3" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AL57" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM57" s="3" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="AN57" s="3" t="s">
         <v>84</v>
@@ -12255,7 +12255,7 @@
         <v>36</v>
       </c>
       <c r="AR57" s="3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AS57" s="3" t="s">
         <v>36</v>
@@ -12270,16 +12270,16 @@
         <v>38</v>
       </c>
       <c r="AW57" s="7" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AX57" s="10" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="AY57" s="8"/>
     </row>
     <row r="58" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>32</v>
@@ -12312,10 +12312,10 @@
         <v>314</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>343</v>
@@ -12330,10 +12330,10 @@
         <v>36</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>404</v>
@@ -12342,13 +12342,13 @@
         <v>5.5</v>
       </c>
       <c r="V58" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="X58" s="3" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="Y58" s="3">
         <v>3</v>
@@ -12369,7 +12369,7 @@
         <v>36</v>
       </c>
       <c r="AE58" s="5" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="AF58" s="5" t="s">
         <v>774</v>
@@ -12387,13 +12387,13 @@
         <v>4</v>
       </c>
       <c r="AK58" s="3" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="AL58" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM58" s="3" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="AN58" s="3" t="s">
         <v>32</v>
@@ -12423,10 +12423,10 @@
         <v>38</v>
       </c>
       <c r="AW58" s="7" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AX58" s="10" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="AY58" s="8"/>
     </row>
@@ -12465,10 +12465,10 @@
         <v>314</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>344</v>
@@ -12483,10 +12483,10 @@
         <v>36</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>405</v>
@@ -12498,10 +12498,10 @@
         <v>207</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="X59" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="Y59" s="3">
         <v>2</v>
@@ -12540,7 +12540,7 @@
         <v>4</v>
       </c>
       <c r="AK59" s="3" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="AL59" s="3" t="s">
         <v>42</v>
@@ -12576,16 +12576,16 @@
         <v>38</v>
       </c>
       <c r="AW59" s="7" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="AX59" s="10" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="AY59" s="8"/>
     </row>
     <row r="60" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>36</v>
@@ -12618,10 +12618,10 @@
         <v>89</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>337</v>
@@ -12636,10 +12636,10 @@
         <v>38</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>406</v>
@@ -12651,10 +12651,10 @@
         <v>207</v>
       </c>
       <c r="W60" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="X60" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="Y60" s="3">
         <v>3</v>
@@ -12693,13 +12693,13 @@
         <v>4</v>
       </c>
       <c r="AK60" s="3" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="AL60" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM60" s="3" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="AN60" s="3" t="s">
         <v>32</v>
@@ -12717,7 +12717,7 @@
         <v>6</v>
       </c>
       <c r="AS60" s="3" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="AT60" s="3" t="s">
         <v>107</v>
@@ -12729,16 +12729,16 @@
         <v>38</v>
       </c>
       <c r="AW60" s="7" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="AX60" s="8" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="AY60" s="8"/>
     </row>
     <row r="61" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>32</v>
@@ -12753,7 +12753,7 @@
         <v>989804020</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>280</v>
@@ -12771,10 +12771,10 @@
         <v>315</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="N61" s="3" t="s">
         <v>337</v>
@@ -12789,10 +12789,10 @@
         <v>38</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="T61" s="3" t="s">
         <v>407</v>
@@ -12801,13 +12801,13 @@
         <v>8</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="W61" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X61" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y61" s="3">
         <v>4</v>
@@ -12831,7 +12831,7 @@
         <v>431</v>
       </c>
       <c r="AF61" s="5" t="s">
-        <v>432</v>
+        <v>773</v>
       </c>
       <c r="AG61" s="3" t="s">
         <v>32</v>
@@ -12846,13 +12846,13 @@
         <v>4</v>
       </c>
       <c r="AK61" s="3" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="AL61" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM61" s="3" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="AN61" s="3" t="s">
         <v>32</v>
@@ -12870,7 +12870,7 @@
         <v>4</v>
       </c>
       <c r="AS61" s="3" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="AT61" s="3" t="s">
         <v>107</v>
@@ -12882,16 +12882,16 @@
         <v>38</v>
       </c>
       <c r="AW61" s="7" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="AX61" s="8" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AY61" s="8"/>
     </row>
     <row r="62" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>32</v>
@@ -12921,13 +12921,13 @@
         <v>36</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>337</v>
@@ -12942,10 +12942,10 @@
         <v>38</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>408</v>
@@ -12954,13 +12954,13 @@
         <v>7</v>
       </c>
       <c r="V62" s="3" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="W62" s="3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="X62" s="3" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="Y62" s="3">
         <v>10</v>
@@ -12984,7 +12984,7 @@
         <v>429</v>
       </c>
       <c r="AF62" s="5" t="s">
-        <v>433</v>
+        <v>772</v>
       </c>
       <c r="AG62" s="3" t="s">
         <v>32</v>
@@ -12999,13 +12999,13 @@
         <v>15</v>
       </c>
       <c r="AK62" s="3" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="AL62" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM62" s="3" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="AN62" s="3" t="s">
         <v>32</v>
@@ -13017,7 +13017,7 @@
         <v>50</v>
       </c>
       <c r="AQ62" s="3" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="AR62" s="3">
         <v>3</v>
@@ -13035,10 +13035,10 @@
         <v>38</v>
       </c>
       <c r="AW62" s="7" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="AX62" s="10" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="AY62" s="8"/>
     </row>
@@ -13074,13 +13074,13 @@
         <v>36</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="N63" s="3" t="s">
         <v>337</v>
@@ -13098,7 +13098,7 @@
         <v>99</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="T63" s="3" t="s">
         <v>409</v>
@@ -13107,13 +13107,13 @@
         <v>7</v>
       </c>
       <c r="V63" s="3" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="W63" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="X63" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y63" s="3">
         <v>5</v>
@@ -13137,7 +13137,7 @@
         <v>430</v>
       </c>
       <c r="AF63" s="5" t="s">
-        <v>434</v>
+        <v>775</v>
       </c>
       <c r="AG63" s="3" t="s">
         <v>36</v>
@@ -13152,13 +13152,13 @@
         <v>5</v>
       </c>
       <c r="AK63" s="3" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AL63" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM63" s="3" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="AN63" s="3" t="s">
         <v>32</v>
@@ -13167,7 +13167,7 @@
         <v>6</v>
       </c>
       <c r="AP63" s="3" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="AQ63" s="3" t="s">
         <v>36</v>
@@ -13176,7 +13176,7 @@
         <v>26</v>
       </c>
       <c r="AS63" s="3" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="AT63" s="3" t="s">
         <v>44</v>
@@ -13188,14 +13188,14 @@
         <v>38</v>
       </c>
       <c r="AW63" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX63" s="8"/>
       <c r="AY63" s="8"/>
     </row>
     <row r="64" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>32</v>
@@ -13228,10 +13228,10 @@
         <v>316</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="N64" s="3" t="s">
         <v>337</v>
@@ -13246,10 +13246,10 @@
         <v>38</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="T64" s="3" t="s">
         <v>410</v>
@@ -13258,13 +13258,13 @@
         <v>5.5</v>
       </c>
       <c r="V64" s="3" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="W64" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X64" s="3" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="Y64" s="3">
         <v>2</v>
@@ -13303,7 +13303,7 @@
         <v>6</v>
       </c>
       <c r="AK64" s="3" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="AL64" s="3" t="s">
         <v>46</v>
@@ -13327,7 +13327,7 @@
         <v>1</v>
       </c>
       <c r="AS64" s="3" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="AT64" s="3" t="s">
         <v>44</v>
@@ -13339,7 +13339,7 @@
         <v>38</v>
       </c>
       <c r="AW64" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX64" s="8"/>
       <c r="AY64" s="8"/>
@@ -13379,7 +13379,7 @@
         <v>317</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="M65" s="3"/>
       <c r="N65" s="3" t="s">
@@ -13395,10 +13395,10 @@
         <v>38</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="T65" s="3" t="s">
         <v>411</v>
@@ -13407,13 +13407,13 @@
         <v>3</v>
       </c>
       <c r="V65" s="3" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="W65" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X65" s="3" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="Y65" s="3">
         <v>1</v>
@@ -13452,13 +13452,13 @@
         <v>5</v>
       </c>
       <c r="AK65" s="3" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="AL65" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM65" s="3" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="AN65" s="3" t="s">
         <v>32</v>
@@ -13488,7 +13488,7 @@
         <v>38</v>
       </c>
       <c r="AW65" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX65" s="8"/>
       <c r="AY65" s="8"/>
@@ -13528,7 +13528,7 @@
         <v>318</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="M66" s="3"/>
       <c r="N66" s="3" t="s">
@@ -13544,10 +13544,10 @@
         <v>38</v>
       </c>
       <c r="R66" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>412</v>
@@ -13556,13 +13556,13 @@
         <v>3</v>
       </c>
       <c r="V66" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="W66" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X66" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y66" s="3">
         <v>2</v>
@@ -13601,7 +13601,7 @@
         <v>16</v>
       </c>
       <c r="AK66" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AL66" s="3" t="s">
         <v>46</v>
@@ -13637,10 +13637,10 @@
         <v>38</v>
       </c>
       <c r="AW66" s="7" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="AX66" s="10" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AY66" s="8"/>
     </row>
@@ -13661,7 +13661,7 @@
         <v>991322614</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>286</v>
@@ -13679,7 +13679,7 @@
         <v>319</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="M67" s="3"/>
       <c r="N67" s="3" t="s">
@@ -13695,10 +13695,10 @@
         <v>38</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="T67" s="3" t="s">
         <v>413</v>
@@ -13710,10 +13710,10 @@
         <v>207</v>
       </c>
       <c r="W67" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X67" s="3" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="Y67" s="3">
         <v>4</v>
@@ -13788,7 +13788,7 @@
         <v>38</v>
       </c>
       <c r="AW67" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX67" s="8"/>
       <c r="AY67" s="8"/>
@@ -13825,13 +13825,13 @@
         <v>36</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="N68" s="3" t="s">
         <v>337</v>
@@ -13846,10 +13846,10 @@
         <v>38</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="T68" s="3" t="s">
         <v>414</v>
@@ -13858,13 +13858,13 @@
         <v>5</v>
       </c>
       <c r="V68" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="W68" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X68" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y68" s="3">
         <v>5</v>
@@ -13888,7 +13888,7 @@
         <v>-3.7921779999999998</v>
       </c>
       <c r="AF68" s="5" t="s">
-        <v>435</v>
+        <v>777</v>
       </c>
       <c r="AG68" s="3" t="s">
         <v>36</v>
@@ -13903,13 +13903,13 @@
         <v>4</v>
       </c>
       <c r="AK68" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="AL68" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM68" s="3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="AN68" s="3" t="s">
         <v>32</v>
@@ -13939,10 +13939,10 @@
         <v>38</v>
       </c>
       <c r="AW68" s="7" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="AX68" s="10" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="AY68" s="8"/>
     </row>
@@ -13978,13 +13978,13 @@
         <v>36</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="N69" s="3" t="s">
         <v>337</v>
@@ -13999,10 +13999,10 @@
         <v>38</v>
       </c>
       <c r="R69" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="T69" s="3" t="s">
         <v>415</v>
@@ -14011,13 +14011,13 @@
         <v>5</v>
       </c>
       <c r="V69" s="3" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="W69" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="X69" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y69" s="3">
         <v>3</v>
@@ -14038,10 +14038,10 @@
         <v>38</v>
       </c>
       <c r="AE69" s="5" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="AF69" s="5" t="s">
-        <v>436</v>
+        <v>776</v>
       </c>
       <c r="AG69" s="3" t="s">
         <v>36</v>
@@ -14056,13 +14056,13 @@
         <v>8</v>
       </c>
       <c r="AK69" s="3" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="AL69" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM69" s="3" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="AN69" s="3" t="s">
         <v>32</v>
@@ -14080,7 +14080,7 @@
         <v>3</v>
       </c>
       <c r="AS69" s="3" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="AT69" s="3" t="s">
         <v>44</v>
@@ -14092,7 +14092,7 @@
         <v>38</v>
       </c>
       <c r="AW69" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX69" s="8"/>
       <c r="AY69" s="8"/>
@@ -14132,10 +14132,10 @@
         <v>320</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="N70" s="3" t="s">
         <v>337</v>
@@ -14150,10 +14150,10 @@
         <v>38</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="T70" s="3" t="s">
         <v>416</v>
@@ -14162,13 +14162,13 @@
         <v>12</v>
       </c>
       <c r="V70" s="3" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="W70" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X70" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y70" s="3">
         <v>2</v>
@@ -14192,7 +14192,7 @@
         <v>-4.2401593999999996</v>
       </c>
       <c r="AF70" s="5" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG70" s="3" t="s">
         <v>36</v>
@@ -14207,13 +14207,13 @@
         <v>12</v>
       </c>
       <c r="AK70" s="3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="AL70" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM70" s="3" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="AN70" s="3" t="s">
         <v>32</v>
@@ -14243,10 +14243,10 @@
         <v>38</v>
       </c>
       <c r="AW70" s="7" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="AX70" s="10" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="AY70" s="8"/>
     </row>
@@ -14285,10 +14285,10 @@
         <v>321</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="N71" s="3" t="s">
         <v>337</v>
@@ -14303,10 +14303,10 @@
         <v>38</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="T71" s="3" t="s">
         <v>417</v>
@@ -14315,13 +14315,13 @@
         <v>10</v>
       </c>
       <c r="V71" s="3" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="W71" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X71" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y71" s="3">
         <v>2</v>
@@ -14360,13 +14360,13 @@
         <v>12</v>
       </c>
       <c r="AK71" s="3" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="AL71" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM71" s="3" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="AN71" s="3" t="s">
         <v>32</v>
@@ -14384,7 +14384,7 @@
         <v>4</v>
       </c>
       <c r="AS71" s="3" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="AT71" s="3" t="s">
         <v>107</v>
@@ -14396,10 +14396,10 @@
         <v>38</v>
       </c>
       <c r="AW71" s="7" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="AX71" s="10" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="AY71" s="8"/>
     </row>
@@ -14438,7 +14438,7 @@
         <v>322</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="M72" s="3"/>
       <c r="N72" s="3" t="s">
@@ -14454,10 +14454,10 @@
         <v>38</v>
       </c>
       <c r="R72" s="3" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>418</v>
@@ -14466,13 +14466,13 @@
         <v>1</v>
       </c>
       <c r="V72" s="3" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="W72" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X72" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="Y72" s="3">
         <v>4</v>
@@ -14511,13 +14511,13 @@
         <v>20</v>
       </c>
       <c r="AK72" s="3" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AL72" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM72" s="3" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="AN72" s="3" t="s">
         <v>32</v>
@@ -14547,10 +14547,10 @@
         <v>38</v>
       </c>
       <c r="AW72" s="7" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="AX72" s="10" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="AY72" s="8"/>
     </row>
@@ -14586,10 +14586,10 @@
         <v>36</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="M73" s="3"/>
       <c r="N73" s="3" t="s">
@@ -14605,10 +14605,10 @@
         <v>38</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T73" s="3" t="s">
         <v>419</v>
@@ -14617,13 +14617,13 @@
         <v>3</v>
       </c>
       <c r="V73" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="W73" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X73" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Y73" s="3">
         <v>2</v>
@@ -14647,7 +14647,7 @@
         <v>-4.2617066000000001</v>
       </c>
       <c r="AF73" s="5" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AG73" s="3" t="s">
         <v>36</v>
@@ -14668,7 +14668,7 @@
         <v>46</v>
       </c>
       <c r="AM73" s="3" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="AN73" s="3" t="s">
         <v>32</v>
@@ -14698,7 +14698,7 @@
         <v>38</v>
       </c>
       <c r="AW73" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX73" s="8"/>
       <c r="AY73" s="8"/>
@@ -14738,7 +14738,7 @@
         <v>323</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="M74" s="3"/>
       <c r="N74" s="3" t="s">
@@ -14754,10 +14754,10 @@
         <v>38</v>
       </c>
       <c r="R74" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T74" s="3" t="s">
         <v>420</v>
@@ -14766,13 +14766,13 @@
         <v>3.5</v>
       </c>
       <c r="V74" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="W74" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X74" s="3" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="Y74" s="3">
         <v>2</v>
@@ -14811,7 +14811,7 @@
         <v>10</v>
       </c>
       <c r="AK74" s="3" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="AL74" s="3" t="s">
         <v>46</v>
@@ -14847,14 +14847,14 @@
         <v>38</v>
       </c>
       <c r="AW74" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX74" s="8"/>
       <c r="AY74" s="8"/>
     </row>
     <row r="75" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>32</v>
@@ -14887,7 +14887,7 @@
         <v>324</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="M75" s="3"/>
       <c r="N75" s="3" t="s">
@@ -14903,10 +14903,10 @@
         <v>38</v>
       </c>
       <c r="R75" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T75" s="3" t="s">
         <v>421</v>
@@ -14915,13 +14915,13 @@
         <v>2.25</v>
       </c>
       <c r="V75" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="W75" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="W75" s="3" t="s">
-        <v>554</v>
-      </c>
       <c r="X75" s="3" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="Y75" s="3">
         <v>3</v>
@@ -14996,10 +14996,10 @@
         <v>38</v>
       </c>
       <c r="AW75" s="7" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="AX75" s="10" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="AY75" s="8"/>
     </row>
@@ -15038,10 +15038,10 @@
         <v>325</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>337</v>
@@ -15056,10 +15056,10 @@
         <v>38</v>
       </c>
       <c r="R76" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>422</v>
@@ -15071,10 +15071,10 @@
         <v>207</v>
       </c>
       <c r="W76" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X76" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="Y76" s="3">
         <v>3</v>
@@ -15113,13 +15113,13 @@
         <v>5</v>
       </c>
       <c r="AK76" s="3" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AL76" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM76" s="3" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="AN76" s="3" t="s">
         <v>32</v>
@@ -15149,14 +15149,14 @@
         <v>38</v>
       </c>
       <c r="AW76" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX76" s="8"/>
       <c r="AY76" s="8"/>
     </row>
     <row r="77" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>32</v>
@@ -15186,13 +15186,13 @@
         <v>36</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="N77" s="3" t="s">
         <v>337</v>
@@ -15207,10 +15207,10 @@
         <v>38</v>
       </c>
       <c r="R77" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="T77" s="3" t="s">
         <v>423</v>
@@ -15219,13 +15219,13 @@
         <v>6</v>
       </c>
       <c r="V77" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="W77" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X77" s="3" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="Y77" s="3">
         <v>2</v>
@@ -15246,10 +15246,10 @@
         <v>38</v>
       </c>
       <c r="AE77" s="5" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="AF77" s="5" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="AG77" s="3" t="s">
         <v>36</v>
@@ -15264,7 +15264,7 @@
         <v>9</v>
       </c>
       <c r="AK77" s="3" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="AL77" s="3" t="s">
         <v>42</v>
@@ -15288,7 +15288,7 @@
         <v>2</v>
       </c>
       <c r="AS77" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="AT77" s="3" t="s">
         <v>44</v>
@@ -15300,7 +15300,7 @@
         <v>38</v>
       </c>
       <c r="AW77" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX77" s="8"/>
       <c r="AY77" s="8"/>
@@ -15340,7 +15340,7 @@
         <v>326</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="M78" s="3"/>
       <c r="N78" s="3" t="s">
@@ -15356,10 +15356,10 @@
         <v>38</v>
       </c>
       <c r="R78" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="T78" s="3" t="s">
         <v>424</v>
@@ -15368,13 +15368,13 @@
         <v>3.5</v>
       </c>
       <c r="V78" s="3" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="W78" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X78" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="Y78" s="3">
         <v>1</v>
@@ -15395,10 +15395,10 @@
         <v>38</v>
       </c>
       <c r="AE78" s="5" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="AF78" s="5" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="AG78" s="3" t="s">
         <v>36</v>
@@ -15437,7 +15437,7 @@
         <v>1</v>
       </c>
       <c r="AS78" s="3" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="AT78" s="3" t="s">
         <v>44</v>
@@ -15449,16 +15449,16 @@
         <v>38</v>
       </c>
       <c r="AW78" s="7" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="AX78" s="10" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="AY78" s="8"/>
     </row>
     <row r="79" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>32</v>
@@ -15488,10 +15488,10 @@
         <v>36</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="M79" s="3"/>
       <c r="N79" s="3" t="s">
@@ -15507,10 +15507,10 @@
         <v>38</v>
       </c>
       <c r="R79" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T79" s="3" t="s">
         <v>425</v>
@@ -15522,10 +15522,10 @@
         <v>207</v>
       </c>
       <c r="W79" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X79" s="3" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="Y79" s="3">
         <v>1</v>
@@ -15600,16 +15600,16 @@
         <v>38</v>
       </c>
       <c r="AW79" s="7" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="AX79" s="10" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="AY79" s="8"/>
     </row>
     <row r="80" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>32</v>
@@ -15642,10 +15642,10 @@
         <v>327</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="N80" s="3" t="s">
         <v>337</v>
@@ -15660,10 +15660,10 @@
         <v>38</v>
       </c>
       <c r="R80" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="T80" s="3" t="s">
         <v>426</v>
@@ -15672,13 +15672,13 @@
         <v>6</v>
       </c>
       <c r="V80" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="W80" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X80" s="3" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="Y80" s="3">
         <v>2</v>
@@ -15753,10 +15753,10 @@
         <v>38</v>
       </c>
       <c r="AW80" s="7" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AX80" s="10" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="AY80" s="8"/>
     </row>
@@ -15795,10 +15795,10 @@
         <v>328</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>337</v>
@@ -15813,10 +15813,10 @@
         <v>38</v>
       </c>
       <c r="R81" s="3" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>427</v>
@@ -15828,10 +15828,10 @@
         <v>207</v>
       </c>
       <c r="W81" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X81" s="3" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="Y81" s="3">
         <v>2</v>
@@ -15906,14 +15906,14 @@
         <v>38</v>
       </c>
       <c r="AW81" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AX81" s="8"/>
       <c r="AY81" s="8"/>
     </row>
     <row r="82" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>32</v>
@@ -15946,10 +15946,10 @@
         <v>329</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="N82" s="3" t="s">
         <v>337</v>
@@ -15964,10 +15964,10 @@
         <v>38</v>
       </c>
       <c r="R82" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="T82" s="3" t="s">
         <v>428</v>
@@ -15976,7 +15976,7 @@
         <v>6</v>
       </c>
       <c r="V82" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="W82" s="6"/>
       <c r="X82" s="6"/>
@@ -16017,7 +16017,7 @@
         <v>10</v>
       </c>
       <c r="AK82" s="3" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AL82" s="3" t="s">
         <v>42</v>
@@ -16041,7 +16041,7 @@
         <v>1</v>
       </c>
       <c r="AS82" s="3" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="AT82" s="3" t="s">
         <v>107</v>
@@ -16053,259 +16053,12 @@
         <v>38</v>
       </c>
       <c r="AW82" s="7" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="AX82" s="8" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="AY82" s="8"/>
-    </row>
-    <row r="83" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H83"/>
-      <c r="AM83"/>
-    </row>
-    <row r="84" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE84" s="11"/>
-    </row>
-    <row r="85" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE85" s="11"/>
-    </row>
-    <row r="86" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE86" s="11"/>
-    </row>
-    <row r="87" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE87" s="11"/>
-    </row>
-    <row r="88" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE88" s="11"/>
-    </row>
-    <row r="89" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE89" s="11"/>
-    </row>
-    <row r="90" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE90" s="11"/>
-    </row>
-    <row r="91" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE91" s="11"/>
-    </row>
-    <row r="92" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE92" s="11"/>
-    </row>
-    <row r="93" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE93" s="11"/>
-    </row>
-    <row r="94" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE94" s="11"/>
-    </row>
-    <row r="95" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE95" s="11"/>
-    </row>
-    <row r="96" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE96" s="11"/>
-    </row>
-    <row r="97" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE97" s="11"/>
-    </row>
-    <row r="98" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE98" s="11"/>
-    </row>
-    <row r="99" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE99" s="11"/>
-    </row>
-    <row r="100" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE100" s="11"/>
-    </row>
-    <row r="101" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE101" s="11"/>
-    </row>
-    <row r="102" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE102" s="11"/>
-    </row>
-    <row r="103" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE103" s="11"/>
-    </row>
-    <row r="104" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE104" s="11"/>
-    </row>
-    <row r="105" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE105" s="11"/>
-    </row>
-    <row r="106" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE106" s="11"/>
-    </row>
-    <row r="107" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE107" s="11"/>
-    </row>
-    <row r="108" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE108" s="11"/>
-    </row>
-    <row r="109" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE109" s="11"/>
-    </row>
-    <row r="110" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE110" s="11"/>
-    </row>
-    <row r="111" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE111" s="11"/>
-    </row>
-    <row r="112" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE112" s="11"/>
-    </row>
-    <row r="113" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE113" s="11"/>
-    </row>
-    <row r="114" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE114" s="11"/>
-    </row>
-    <row r="115" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE115" s="11"/>
-    </row>
-    <row r="116" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE116" s="11"/>
-    </row>
-    <row r="117" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE117" s="11"/>
-    </row>
-    <row r="118" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE118" s="11"/>
-    </row>
-    <row r="119" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE119" s="11"/>
-    </row>
-    <row r="120" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE120" s="11"/>
-    </row>
-    <row r="121" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE121" s="11"/>
-    </row>
-    <row r="122" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE122" s="11"/>
-    </row>
-    <row r="123" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE123" s="11"/>
-    </row>
-    <row r="124" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE124" s="11"/>
-    </row>
-    <row r="125" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE125" s="11"/>
-    </row>
-    <row r="126" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE126" s="11"/>
-    </row>
-    <row r="127" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE127" s="11"/>
-    </row>
-    <row r="128" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE128" s="11"/>
-    </row>
-    <row r="129" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE129" s="11"/>
-    </row>
-    <row r="130" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE130" s="11"/>
-    </row>
-    <row r="131" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE131" s="11"/>
-    </row>
-    <row r="132" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE132" s="11"/>
-    </row>
-    <row r="133" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE133" s="11"/>
-    </row>
-    <row r="134" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE134" s="11"/>
-    </row>
-    <row r="135" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE135" s="11"/>
-    </row>
-    <row r="136" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE136" s="11"/>
-    </row>
-    <row r="137" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE137" s="11"/>
-    </row>
-    <row r="138" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE138" s="11"/>
-    </row>
-    <row r="139" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE139" s="11"/>
-    </row>
-    <row r="140" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE140" s="11"/>
-    </row>
-    <row r="141" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE141" s="11"/>
-    </row>
-    <row r="142" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE142" s="11"/>
-    </row>
-    <row r="143" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE143" s="11"/>
-    </row>
-    <row r="144" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE144" s="11"/>
-    </row>
-    <row r="145" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE145" s="11"/>
-    </row>
-    <row r="146" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE146" s="11"/>
-    </row>
-    <row r="147" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE147" s="11"/>
-    </row>
-    <row r="148" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE148" s="11"/>
-    </row>
-    <row r="149" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE149" s="11"/>
-    </row>
-    <row r="150" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE150" s="11"/>
-    </row>
-    <row r="151" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE151" s="11"/>
-    </row>
-    <row r="152" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE152" s="11"/>
-    </row>
-    <row r="153" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE153" s="11"/>
-    </row>
-    <row r="154" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE154" s="11"/>
-    </row>
-    <row r="155" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE155" s="11"/>
-    </row>
-    <row r="156" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE156" s="11"/>
-    </row>
-    <row r="157" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE157" s="11"/>
-    </row>
-    <row r="158" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE158" s="11"/>
-    </row>
-    <row r="159" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE159" s="11"/>
-    </row>
-    <row r="160" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE160" s="11"/>
-    </row>
-    <row r="161" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE161" s="11"/>
-    </row>
-    <row r="162" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE162" s="11"/>
-    </row>
-    <row r="163" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE163" s="11"/>
-    </row>
-    <row r="164" spans="31:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE164" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/media/csv_uploads/gastronomia_establecimiento1.xlsx
+++ b/media/csv_uploads/gastronomia_establecimiento1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santigovinan/Documents/applications-django/emprendimientos/media/csv_uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306AA057-1622-094E-8B9C-358B6A34EFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4CCDB4-62FE-AE41-AB11-80CCD362F8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="940" windowWidth="28940" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3081" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3045" uniqueCount="744">
   <si>
     <t>nombre</t>
   </si>
@@ -1322,15 +1322,6 @@
     <t>Trucha Frita Tradicional - Miel con quesillo - Horchata</t>
   </si>
   <si>
-    <t>-4,26184</t>
-  </si>
-  <si>
-    <t>-4,2618</t>
-  </si>
-  <si>
-    <t>-4,2625</t>
-  </si>
-  <si>
     <t>-79, 2230683</t>
   </si>
   <si>
@@ -2274,102 +2265,6 @@
   </si>
   <si>
     <t>Bambú Café Restaurant</t>
-  </si>
-  <si>
-    <t>-3,886139</t>
-  </si>
-  <si>
-    <t>-3,850389</t>
-  </si>
-  <si>
-    <t>-3,850694</t>
-  </si>
-  <si>
-    <t>-3,850667</t>
-  </si>
-  <si>
-    <t>-3,851306</t>
-  </si>
-  <si>
-    <t>-3,851611</t>
-  </si>
-  <si>
-    <t>-3,851639</t>
-  </si>
-  <si>
-    <t>-3,850278</t>
-  </si>
-  <si>
-    <t>-3,889694</t>
-  </si>
-  <si>
-    <t>-3,885556</t>
-  </si>
-  <si>
-    <t>-3,850333</t>
-  </si>
-  <si>
-    <t>-3,851444</t>
-  </si>
-  <si>
-    <t>-3,850417</t>
-  </si>
-  <si>
-    <t>-3,851528</t>
-  </si>
-  <si>
-    <t>-3,770917</t>
-  </si>
-  <si>
-    <t>-4,2157681</t>
-  </si>
-  <si>
-    <t>-4,2605</t>
-  </si>
-  <si>
-    <t>-4,2627</t>
-  </si>
-  <si>
-    <t>-79,426056</t>
-  </si>
-  <si>
-    <t>-79,426694</t>
-  </si>
-  <si>
-    <t>-79,421722</t>
-  </si>
-  <si>
-    <t>-79,426833</t>
-  </si>
-  <si>
-    <t>-4,3626331</t>
-  </si>
-  <si>
-    <t>-79,221</t>
-  </si>
-  <si>
-    <t>-79,2250</t>
-  </si>
-  <si>
-    <t>-79,21609</t>
-  </si>
-  <si>
-    <t>-79,2229</t>
-  </si>
-  <si>
-    <t>-79,1746054</t>
-  </si>
-  <si>
-    <t>-79,2275</t>
-  </si>
-  <si>
-    <t>-79,25412</t>
-  </si>
-  <si>
-    <t>-79,2210</t>
-  </si>
-  <si>
-    <t>-79,16984556</t>
   </si>
 </sst>
 </file>
@@ -2467,7 +2362,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2499,6 +2394,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3634,8 +3532,8 @@
   </sheetPr>
   <dimension ref="A1:AY82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AC53" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AG62" sqref="AG62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Z70" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AF80" sqref="AF80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3735,10 +3633,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>13</v>
@@ -3750,40 +3648,40 @@
         <v>15</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>519</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>19</v>
@@ -3798,7 +3696,7 @@
         <v>22</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="AJ1" s="2" t="s">
         <v>23</v>
@@ -3813,25 +3711,25 @@
         <v>26</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="AO1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AS1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AU1" s="2" t="s">
         <v>29</v>
@@ -3840,13 +3738,13 @@
         <v>30</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AY1" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:51" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3884,7 +3782,7 @@
         <v>37</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3" t="s">
@@ -3900,10 +3798,10 @@
         <v>38</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>348</v>
@@ -3915,10 +3813,10 @@
         <v>207</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="Y2" s="3">
         <v>2</v>
@@ -3991,10 +3889,10 @@
       </c>
       <c r="AV2" s="6"/>
       <c r="AW2" s="7" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="AX2" s="10" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="AY2" s="8"/>
     </row>
@@ -4033,7 +3931,7 @@
         <v>37</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
@@ -4049,10 +3947,10 @@
         <v>38</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>349</v>
@@ -4064,10 +3962,10 @@
         <v>207</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y3" s="3">
         <v>1</v>
@@ -4142,10 +4040,10 @@
         <v>38</v>
       </c>
       <c r="AW3" s="7" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="AX3" s="10" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="AY3" s="8"/>
     </row>
@@ -4184,7 +4082,7 @@
         <v>37</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
@@ -4200,10 +4098,10 @@
         <v>38</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>350</v>
@@ -4215,10 +4113,10 @@
         <v>207</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y4" s="3">
         <v>2</v>
@@ -4293,7 +4191,7 @@
         <v>38</v>
       </c>
       <c r="AW4" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX4" s="8"/>
       <c r="AY4" s="8"/>
@@ -4324,7 +4222,7 @@
         <v>35</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>36</v>
@@ -4333,7 +4231,7 @@
         <v>37</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
@@ -4349,10 +4247,10 @@
         <v>36</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>351</v>
@@ -4364,10 +4262,10 @@
         <v>207</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y5" s="3">
         <v>2</v>
@@ -4442,7 +4340,7 @@
         <v>38</v>
       </c>
       <c r="AW5" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX5" s="8"/>
       <c r="AY5" s="8"/>
@@ -4473,7 +4371,7 @@
         <v>35</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>36</v>
@@ -4482,7 +4380,7 @@
         <v>54</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
@@ -4498,10 +4396,10 @@
         <v>38</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>352</v>
@@ -4513,10 +4411,10 @@
         <v>207</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="Y6" s="3">
         <v>4</v>
@@ -4536,8 +4434,8 @@
       <c r="AD6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE6" s="5" t="s">
-        <v>747</v>
+      <c r="AE6" s="11">
+        <v>-3.886139</v>
       </c>
       <c r="AF6" s="5">
         <v>-79.416832999999997</v>
@@ -4591,10 +4489,10 @@
         <v>38</v>
       </c>
       <c r="AW6" s="7" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="AX6" s="10" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="AY6" s="8"/>
     </row>
@@ -4624,7 +4522,7 @@
         <v>35</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>36</v>
@@ -4633,7 +4531,7 @@
         <v>58</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
@@ -4649,10 +4547,10 @@
         <v>38</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>353</v>
@@ -4664,10 +4562,10 @@
         <v>207</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y7" s="3">
         <v>3</v>
@@ -4687,8 +4585,8 @@
       <c r="AD7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE7" s="5" t="s">
-        <v>748</v>
+      <c r="AE7" s="11">
+        <v>-3.8503889999999998</v>
       </c>
       <c r="AF7" s="5">
         <v>-79.426749999999998</v>
@@ -4742,10 +4640,10 @@
         <v>38</v>
       </c>
       <c r="AW7" s="7" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="AX7" s="10" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="AY7" s="8"/>
     </row>
@@ -4775,7 +4673,7 @@
         <v>57</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>36</v>
@@ -4784,7 +4682,7 @@
         <v>58</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
@@ -4800,10 +4698,10 @@
         <v>38</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>354</v>
@@ -4815,10 +4713,10 @@
         <v>207</v>
       </c>
       <c r="W8" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="X8" s="3" t="s">
         <v>529</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>532</v>
       </c>
       <c r="Y8" s="3">
         <v>2</v>
@@ -4838,8 +4736,8 @@
       <c r="AD8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE8" s="5" t="s">
-        <v>749</v>
+      <c r="AE8" s="11">
+        <v>-3.8506939999999998</v>
       </c>
       <c r="AF8" s="5">
         <v>-79.426749999999998</v>
@@ -4893,10 +4791,10 @@
         <v>38</v>
       </c>
       <c r="AW8" s="7" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="AX8" s="10" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AY8" s="8"/>
     </row>
@@ -4926,7 +4824,7 @@
         <v>35</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>36</v>
@@ -4935,7 +4833,7 @@
         <v>58</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
@@ -4951,10 +4849,10 @@
         <v>38</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>355</v>
@@ -4966,10 +4864,10 @@
         <v>207</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y9" s="3">
         <v>4</v>
@@ -4989,8 +4887,8 @@
       <c r="AD9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE9" s="5" t="s">
-        <v>750</v>
+      <c r="AE9" s="11">
+        <v>-3.8506670000000001</v>
       </c>
       <c r="AF9" s="5">
         <v>-79.426777999999999</v>
@@ -5044,10 +4942,10 @@
         <v>38</v>
       </c>
       <c r="AW9" s="7" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="AX9" s="10" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="AY9" s="8"/>
     </row>
@@ -5077,7 +4975,7 @@
         <v>35</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>36</v>
@@ -5086,7 +4984,7 @@
         <v>58</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
@@ -5102,10 +5000,10 @@
         <v>38</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>356</v>
@@ -5117,10 +5015,10 @@
         <v>207</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y10" s="3">
         <v>3</v>
@@ -5195,10 +5093,10 @@
         <v>38</v>
       </c>
       <c r="AW10" s="7" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="AX10" s="10" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="AY10" s="8"/>
     </row>
@@ -5237,7 +5135,7 @@
         <v>64</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
@@ -5253,10 +5151,10 @@
         <v>38</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T11" s="3" t="s">
         <v>357</v>
@@ -5268,10 +5166,10 @@
         <v>207</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y11" s="3">
         <v>5</v>
@@ -5291,8 +5189,8 @@
       <c r="AD11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE11" s="5" t="s">
-        <v>751</v>
+      <c r="AE11" s="11">
+        <v>-3.8513060000000001</v>
       </c>
       <c r="AF11" s="5">
         <v>-79.426167000000007</v>
@@ -5346,7 +5244,7 @@
         <v>38</v>
       </c>
       <c r="AW11" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX11" s="8"/>
       <c r="AY11" s="8"/>
@@ -5377,7 +5275,7 @@
         <v>66</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>36</v>
@@ -5386,7 +5284,7 @@
         <v>58</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
@@ -5402,10 +5300,10 @@
         <v>38</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>358</v>
@@ -5417,10 +5315,10 @@
         <v>207</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Y12" s="3">
         <v>2</v>
@@ -5440,8 +5338,8 @@
       <c r="AD12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE12" s="5" t="s">
-        <v>752</v>
+      <c r="AE12" s="11">
+        <v>-3.8516110000000001</v>
       </c>
       <c r="AF12" s="5">
         <v>-79.425916999999998</v>
@@ -5495,10 +5393,10 @@
         <v>38</v>
       </c>
       <c r="AW12" s="7" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="AX12" s="10" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AY12" s="8"/>
     </row>
@@ -5528,7 +5426,7 @@
         <v>66</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>36</v>
@@ -5537,7 +5435,7 @@
         <v>58</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
@@ -5553,10 +5451,10 @@
         <v>38</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T13" s="3" t="s">
         <v>359</v>
@@ -5568,10 +5466,10 @@
         <v>207</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Y13" s="3">
         <v>3</v>
@@ -5591,11 +5489,11 @@
       <c r="AD13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE13" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="AF13" s="5" t="s">
-        <v>765</v>
+      <c r="AE13" s="11">
+        <v>-3.851639</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>-79.426056000000003</v>
       </c>
       <c r="AG13" s="3" t="s">
         <v>32</v>
@@ -5646,10 +5544,10 @@
         <v>38</v>
       </c>
       <c r="AW13" s="7" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="AX13" s="10" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="AY13" s="8"/>
     </row>
@@ -5679,7 +5577,7 @@
         <v>35</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>36</v>
@@ -5688,7 +5586,7 @@
         <v>300</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
@@ -5704,10 +5602,10 @@
         <v>38</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>360</v>
@@ -5719,10 +5617,10 @@
         <v>207</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y14" s="3">
         <v>2</v>
@@ -5742,11 +5640,11 @@
       <c r="AD14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AE14" s="5" t="s">
-        <v>754</v>
-      </c>
-      <c r="AF14" s="5" t="s">
-        <v>766</v>
+      <c r="AE14" s="11">
+        <v>-3.8502779999999999</v>
+      </c>
+      <c r="AF14" s="11">
+        <v>-79.426693999999998</v>
       </c>
       <c r="AG14" s="3" t="s">
         <v>36</v>
@@ -5797,10 +5695,10 @@
         <v>38</v>
       </c>
       <c r="AW14" s="7" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="AX14" s="10" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="AY14" s="8"/>
     </row>
@@ -5839,7 +5737,7 @@
         <v>69</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
@@ -5855,10 +5753,10 @@
         <v>38</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>361</v>
@@ -5870,10 +5768,10 @@
         <v>207</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Y15" s="3">
         <v>3</v>
@@ -5893,8 +5791,8 @@
       <c r="AD15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE15" s="5" t="s">
-        <v>748</v>
+      <c r="AE15" s="11">
+        <v>-3.8503889999999998</v>
       </c>
       <c r="AF15" s="5">
         <v>-79.426638999999994</v>
@@ -5948,7 +5846,7 @@
         <v>38</v>
       </c>
       <c r="AW15" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX15" s="8"/>
       <c r="AY15" s="8"/>
@@ -5979,7 +5877,7 @@
         <v>35</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>36</v>
@@ -5988,7 +5886,7 @@
         <v>72</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>76</v>
@@ -6006,10 +5904,10 @@
         <v>38</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>362</v>
@@ -6018,13 +5916,13 @@
         <v>5</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y16" s="3">
         <v>3</v>
@@ -6044,11 +5942,11 @@
       <c r="AD16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE16" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="AF16" s="5" t="s">
-        <v>767</v>
+      <c r="AE16" s="11">
+        <v>-3.889694</v>
+      </c>
+      <c r="AF16" s="11">
+        <v>-79.421722000000003</v>
       </c>
       <c r="AG16" s="3" t="s">
         <v>32</v>
@@ -6099,10 +5997,10 @@
         <v>38</v>
       </c>
       <c r="AW16" s="7" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="AX16" s="10" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="AY16" s="8"/>
     </row>
@@ -6141,7 +6039,7 @@
         <v>75</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>76</v>
@@ -6159,10 +6057,10 @@
         <v>38</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>363</v>
@@ -6174,10 +6072,10 @@
         <v>207</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y17" s="3">
         <v>2</v>
@@ -6252,10 +6150,10 @@
         <v>38</v>
       </c>
       <c r="AW17" s="7" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="AX17" s="10" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="AY17" s="8"/>
     </row>
@@ -6294,7 +6192,7 @@
         <v>78</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
@@ -6310,10 +6208,10 @@
         <v>38</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>364</v>
@@ -6325,10 +6223,10 @@
         <v>207</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y18" s="3">
         <v>3</v>
@@ -6403,10 +6301,10 @@
         <v>38</v>
       </c>
       <c r="AW18" s="7" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="AX18" s="10" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="AY18" s="8"/>
     </row>
@@ -6445,7 +6343,7 @@
         <v>79</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
@@ -6461,10 +6359,10 @@
         <v>38</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T19" s="3" t="s">
         <v>365</v>
@@ -6476,10 +6374,10 @@
         <v>207</v>
       </c>
       <c r="W19" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="X19" s="3" t="s">
         <v>529</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>532</v>
       </c>
       <c r="Y19" s="3">
         <v>7</v>
@@ -6554,10 +6452,10 @@
         <v>38</v>
       </c>
       <c r="AW19" s="7" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="AX19" s="10" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="AY19" s="8"/>
     </row>
@@ -6596,7 +6494,7 @@
         <v>79</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>76</v>
@@ -6614,10 +6512,10 @@
         <v>38</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>366</v>
@@ -6629,10 +6527,10 @@
         <v>207</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y20" s="3">
         <v>2</v>
@@ -6707,10 +6605,10 @@
         <v>38</v>
       </c>
       <c r="AW20" s="7" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="AX20" s="10" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="AY20" s="8"/>
     </row>
@@ -6749,7 +6647,7 @@
         <v>79</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="s">
@@ -6765,10 +6663,10 @@
         <v>38</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>367</v>
@@ -6780,10 +6678,10 @@
         <v>207</v>
       </c>
       <c r="W21" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="X21" s="3" t="s">
         <v>529</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>532</v>
       </c>
       <c r="Y21" s="3">
         <v>4</v>
@@ -6803,8 +6701,8 @@
       <c r="AD21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE21" s="5" t="s">
-        <v>756</v>
+      <c r="AE21" s="11">
+        <v>-3.8855559999999998</v>
       </c>
       <c r="AF21" s="5">
         <v>-79.416639000000004</v>
@@ -6858,7 +6756,7 @@
         <v>38</v>
       </c>
       <c r="AW21" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX21" s="8"/>
       <c r="AY21" s="8"/>
@@ -6898,7 +6796,7 @@
         <v>58</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
@@ -6914,10 +6812,10 @@
         <v>38</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>368</v>
@@ -6929,10 +6827,10 @@
         <v>207</v>
       </c>
       <c r="W22" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="X22" s="3" t="s">
         <v>529</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>532</v>
       </c>
       <c r="Y22" s="3">
         <v>2</v>
@@ -6952,8 +6850,8 @@
       <c r="AD22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE22" s="5" t="s">
-        <v>757</v>
+      <c r="AE22" s="11">
+        <v>-3.850333</v>
       </c>
       <c r="AF22" s="5">
         <v>-79.426777999999999</v>
@@ -7007,10 +6905,10 @@
         <v>38</v>
       </c>
       <c r="AW22" s="7" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="AX22" s="10" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="AY22" s="8"/>
     </row>
@@ -7049,7 +6947,7 @@
         <v>81</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
@@ -7065,10 +6963,10 @@
         <v>38</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>369</v>
@@ -7080,10 +6978,10 @@
         <v>207</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y23" s="3">
         <v>2</v>
@@ -7122,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AK23" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AL23" s="3" t="s">
         <v>42</v>
@@ -7146,7 +7044,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AT23" s="3" t="s">
         <v>44</v>
@@ -7158,10 +7056,10 @@
         <v>38</v>
       </c>
       <c r="AW23" s="7" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="AX23" s="10" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AY23" s="8"/>
     </row>
@@ -7200,7 +7098,7 @@
         <v>83</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="s">
@@ -7216,10 +7114,10 @@
         <v>38</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>370</v>
@@ -7231,10 +7129,10 @@
         <v>207</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Y24" s="3">
         <v>3</v>
@@ -7254,8 +7152,8 @@
       <c r="AD24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE24" s="5" t="s">
-        <v>758</v>
+      <c r="AE24" s="11">
+        <v>-3.8514439999999999</v>
       </c>
       <c r="AF24" s="5">
         <v>-79.426805999999999</v>
@@ -7309,7 +7207,7 @@
         <v>38</v>
       </c>
       <c r="AW24" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX24" s="8"/>
       <c r="AY24" s="8"/>
@@ -7340,7 +7238,7 @@
         <v>35</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>36</v>
@@ -7349,7 +7247,7 @@
         <v>54</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3" t="s">
@@ -7365,10 +7263,10 @@
         <v>38</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T25" s="3" t="s">
         <v>371</v>
@@ -7380,10 +7278,10 @@
         <v>207</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="Y25" s="3">
         <v>3</v>
@@ -7403,8 +7301,8 @@
       <c r="AD25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE25" s="5" t="s">
-        <v>759</v>
+      <c r="AE25" s="11">
+        <v>-3.8504170000000002</v>
       </c>
       <c r="AF25" s="5">
         <v>-79.426305999999997</v>
@@ -7458,10 +7356,10 @@
         <v>38</v>
       </c>
       <c r="AW25" s="7" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="AX25" s="10" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AY25" s="8"/>
     </row>
@@ -7500,7 +7398,7 @@
         <v>54</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
@@ -7516,10 +7414,10 @@
         <v>38</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>372</v>
@@ -7531,10 +7429,10 @@
         <v>207</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Y26" s="3">
         <v>5</v>
@@ -7554,11 +7452,11 @@
       <c r="AD26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE26" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="AF26" s="5" t="s">
-        <v>768</v>
+      <c r="AE26" s="11">
+        <v>-3.8515280000000001</v>
+      </c>
+      <c r="AF26" s="11">
+        <v>-79.426833000000002</v>
       </c>
       <c r="AG26" s="3" t="s">
         <v>32</v>
@@ -7609,10 +7507,10 @@
         <v>38</v>
       </c>
       <c r="AW26" s="7" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="AX26" s="10" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="AY26" s="8"/>
     </row>
@@ -7651,7 +7549,7 @@
         <v>58</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3" t="s">
@@ -7667,10 +7565,10 @@
         <v>38</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>373</v>
@@ -7682,10 +7580,10 @@
         <v>207</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y27" s="3">
         <v>4</v>
@@ -7760,7 +7658,7 @@
         <v>38</v>
       </c>
       <c r="AW27" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX27" s="8"/>
       <c r="AY27" s="8"/>
@@ -7800,10 +7698,10 @@
         <v>58</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="N28" s="3" t="s">
         <v>335</v>
@@ -7818,10 +7716,10 @@
         <v>36</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="T28" s="3" t="s">
         <v>374</v>
@@ -7833,10 +7731,10 @@
         <v>207</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y28" s="3">
         <v>2</v>
@@ -7911,7 +7809,7 @@
         <v>38</v>
       </c>
       <c r="AW28" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX28" s="8"/>
       <c r="AY28" s="8"/>
@@ -7942,7 +7840,7 @@
         <v>35</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>36</v>
@@ -7951,7 +7849,7 @@
         <v>89</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
@@ -7967,10 +7865,10 @@
         <v>38</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>375</v>
@@ -7982,10 +7880,10 @@
         <v>207</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Y29" s="3">
         <v>1</v>
@@ -8060,10 +7958,10 @@
         <v>38</v>
       </c>
       <c r="AW29" s="7" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="AX29" s="10" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="AY29" s="8"/>
     </row>
@@ -8093,7 +7991,7 @@
         <v>77</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>36</v>
@@ -8102,7 +8000,7 @@
         <v>37</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3" t="s">
@@ -8118,10 +8016,10 @@
         <v>38</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T30" s="3" t="s">
         <v>376</v>
@@ -8133,10 +8031,10 @@
         <v>207</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y30" s="3">
         <v>3</v>
@@ -8156,8 +8054,8 @@
       <c r="AD30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE30" s="5" t="s">
-        <v>761</v>
+      <c r="AE30" s="11">
+        <v>-3.7709169999999999</v>
       </c>
       <c r="AF30" s="5">
         <v>-79.377082999999999</v>
@@ -8211,10 +8109,10 @@
         <v>38</v>
       </c>
       <c r="AW30" s="7" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="AX30" s="10" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="AY30" s="8"/>
     </row>
@@ -8253,7 +8151,7 @@
         <v>37</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3" t="s">
@@ -8269,10 +8167,10 @@
         <v>38</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T31" s="3" t="s">
         <v>377</v>
@@ -8284,10 +8182,10 @@
         <v>207</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Y31" s="3">
         <v>3</v>
@@ -8362,7 +8260,7 @@
         <v>38</v>
       </c>
       <c r="AW31" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX31" s="8"/>
       <c r="AY31" s="8"/>
@@ -8402,7 +8300,7 @@
         <v>91</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3" t="s">
@@ -8418,10 +8316,10 @@
         <v>38</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>378</v>
@@ -8433,10 +8331,10 @@
         <v>207</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Y32" s="3">
         <v>1</v>
@@ -8459,8 +8357,8 @@
       <c r="AE32" s="5">
         <v>-3.859605143</v>
       </c>
-      <c r="AF32" s="5" t="s">
-        <v>778</v>
+      <c r="AF32" s="11">
+        <v>-79.169845559999999</v>
       </c>
       <c r="AG32" s="3" t="s">
         <v>36</v>
@@ -8511,7 +8409,7 @@
         <v>38</v>
       </c>
       <c r="AW32" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX32" s="8"/>
       <c r="AY32" s="8"/>
@@ -8542,7 +8440,7 @@
         <v>35</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>36</v>
@@ -8551,7 +8449,7 @@
         <v>91</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3" t="s">
@@ -8567,10 +8465,10 @@
         <v>38</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>379</v>
@@ -8582,10 +8480,10 @@
         <v>207</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Y33" s="3">
         <v>2</v>
@@ -8660,7 +8558,7 @@
         <v>38</v>
       </c>
       <c r="AW33" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX33" s="8"/>
       <c r="AY33" s="8"/>
@@ -8700,7 +8598,7 @@
         <v>301</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3" t="s">
@@ -8716,10 +8614,10 @@
         <v>38</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="T34" s="3" t="s">
         <v>380</v>
@@ -8728,13 +8626,13 @@
         <v>3</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="Y34" s="3">
         <v>1</v>
@@ -8809,7 +8707,7 @@
         <v>38</v>
       </c>
       <c r="AW34" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX34" s="8"/>
       <c r="AY34" s="8"/>
@@ -8849,7 +8747,7 @@
         <v>302</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3" t="s">
@@ -8865,10 +8763,10 @@
         <v>38</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>381</v>
@@ -8877,13 +8775,13 @@
         <v>3</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y35" s="3">
         <v>1</v>
@@ -8958,14 +8856,14 @@
         <v>38</v>
       </c>
       <c r="AW35" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX35" s="8"/>
       <c r="AY35" s="8"/>
     </row>
     <row r="36" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>32</v>
@@ -8998,7 +8896,7 @@
         <v>303</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3" t="s">
@@ -9014,10 +8912,10 @@
         <v>38</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="T36" s="3" t="s">
         <v>382</v>
@@ -9026,13 +8924,13 @@
         <v>7</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="X36" s="3" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="Y36" s="3">
         <v>3</v>
@@ -9107,7 +9005,7 @@
         <v>38</v>
       </c>
       <c r="AW36" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX36" s="8"/>
       <c r="AY36" s="8"/>
@@ -9147,7 +9045,7 @@
         <v>304</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3" t="s">
@@ -9163,10 +9061,10 @@
         <v>38</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="T37" s="3" t="s">
         <v>383</v>
@@ -9175,13 +9073,13 @@
         <v>3.5</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="X37" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="Y37" s="3">
         <v>3</v>
@@ -9256,14 +9154,14 @@
         <v>38</v>
       </c>
       <c r="AW37" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX37" s="8"/>
       <c r="AY37" s="8"/>
     </row>
     <row r="38" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>32</v>
@@ -9296,7 +9194,7 @@
         <v>305</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3" t="s">
@@ -9312,10 +9210,10 @@
         <v>38</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T38" s="3" t="s">
         <v>384</v>
@@ -9324,13 +9222,13 @@
         <v>3.5</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X38" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Y38" s="3">
         <v>3</v>
@@ -9366,7 +9264,7 @@
         <v>41</v>
       </c>
       <c r="AJ38" s="3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AK38" s="3" t="s">
         <v>36</v>
@@ -9390,7 +9288,7 @@
         <v>36</v>
       </c>
       <c r="AR38" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="AS38" s="3" t="s">
         <v>36</v>
@@ -9405,7 +9303,7 @@
         <v>38</v>
       </c>
       <c r="AW38" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX38" s="8"/>
       <c r="AY38" s="8"/>
@@ -9445,7 +9343,7 @@
         <v>306</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3" t="s">
@@ -9461,10 +9359,10 @@
         <v>36</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="T39" s="3" t="s">
         <v>385</v>
@@ -9473,13 +9371,13 @@
         <v>2</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="X39" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y39" s="3">
         <v>2</v>
@@ -9554,14 +9452,14 @@
         <v>38</v>
       </c>
       <c r="AW39" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX39" s="8"/>
       <c r="AY39" s="8"/>
     </row>
     <row r="40" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>32</v>
@@ -9585,7 +9483,7 @@
         <v>35</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>36</v>
@@ -9594,7 +9492,7 @@
         <v>91</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="M40" s="3"/>
       <c r="N40" s="3" t="s">
@@ -9610,10 +9508,10 @@
         <v>38</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T40" s="3" t="s">
         <v>386</v>
@@ -9622,13 +9520,13 @@
         <v>3</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y40" s="3">
         <v>2</v>
@@ -9703,14 +9601,14 @@
         <v>38</v>
       </c>
       <c r="AW40" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX40" s="8"/>
       <c r="AY40" s="8"/>
     </row>
     <row r="41" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>36</v>
@@ -9734,7 +9632,7 @@
         <v>35</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>36</v>
@@ -9743,7 +9641,7 @@
         <v>91</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="M41" s="3"/>
       <c r="N41" s="3" t="s">
@@ -9759,10 +9657,10 @@
         <v>38</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>387</v>
@@ -9774,10 +9672,10 @@
         <v>207</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y41" s="3">
         <v>2</v>
@@ -9852,10 +9750,10 @@
         <v>38</v>
       </c>
       <c r="AW41" s="7" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="AX41" s="10" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="AY41" s="8"/>
     </row>
@@ -9894,10 +9792,10 @@
         <v>106</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>331</v>
@@ -9912,10 +9810,10 @@
         <v>38</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>388</v>
@@ -9927,10 +9825,10 @@
         <v>207</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Y42" s="3">
         <v>3</v>
@@ -9969,13 +9867,13 @@
         <v>16</v>
       </c>
       <c r="AK42" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="AL42" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM42" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="AN42" s="3" t="s">
         <v>32</v>
@@ -9993,7 +9891,7 @@
         <v>5</v>
       </c>
       <c r="AS42" s="3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="AT42" s="3" t="s">
         <v>107</v>
@@ -10005,10 +9903,10 @@
         <v>38</v>
       </c>
       <c r="AW42" s="7" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="AX42" s="10" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="AY42" s="8"/>
     </row>
@@ -10047,10 +9945,10 @@
         <v>109</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>340</v>
@@ -10065,10 +9963,10 @@
         <v>38</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>389</v>
@@ -10080,10 +9978,10 @@
         <v>207</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Y43" s="3">
         <v>3</v>
@@ -10122,13 +10020,13 @@
         <v>5</v>
       </c>
       <c r="AK43" s="3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="AL43" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM43" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AN43" s="3" t="s">
         <v>32</v>
@@ -10146,7 +10044,7 @@
         <v>3</v>
       </c>
       <c r="AS43" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AT43" s="3" t="s">
         <v>107</v>
@@ -10158,16 +10056,16 @@
         <v>38</v>
       </c>
       <c r="AW43" s="7" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="AX43" s="10" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="AY43" s="8"/>
     </row>
     <row r="44" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>32</v>
@@ -10200,7 +10098,7 @@
         <v>307</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3" t="s">
@@ -10216,10 +10114,10 @@
         <v>38</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>390</v>
@@ -10228,13 +10126,13 @@
         <v>5.5</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="Y44" s="3">
         <v>10</v>
@@ -10273,13 +10171,13 @@
         <v>6</v>
       </c>
       <c r="AK44" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AL44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM44" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="AN44" s="3" t="s">
         <v>84</v>
@@ -10309,16 +10207,16 @@
         <v>38</v>
       </c>
       <c r="AW44" s="7" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="AX44" s="10" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="AY44" s="8"/>
     </row>
     <row r="45" spans="1:51" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>32</v>
@@ -10351,7 +10249,7 @@
         <v>308</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3" t="s">
@@ -10367,10 +10265,10 @@
         <v>38</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>391</v>
@@ -10379,13 +10277,13 @@
         <v>5</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="Y45" s="3">
         <v>3</v>
@@ -10424,13 +10322,13 @@
         <v>3</v>
       </c>
       <c r="AK45" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AL45" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM45" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="AN45" s="3" t="s">
         <v>32</v>
@@ -10460,10 +10358,10 @@
         <v>38</v>
       </c>
       <c r="AW45" s="7" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="AX45" s="8" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="AY45" s="8"/>
     </row>
@@ -10502,7 +10400,7 @@
         <v>309</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3" t="s">
@@ -10521,7 +10419,7 @@
         <v>347</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>392</v>
@@ -10530,13 +10428,13 @@
         <v>7</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="Y46" s="3">
         <v>4</v>
@@ -10575,7 +10473,7 @@
         <v>4</v>
       </c>
       <c r="AK46" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AL46" s="3" t="s">
         <v>46</v>
@@ -10611,7 +10509,7 @@
         <v>38</v>
       </c>
       <c r="AW46" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX46" s="8"/>
       <c r="AY46" s="8"/>
@@ -10648,10 +10546,10 @@
         <v>36</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>345</v>
@@ -10669,10 +10567,10 @@
         <v>38</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>393</v>
@@ -10681,13 +10579,13 @@
         <v>10.5</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Y47" s="3">
         <v>4</v>
@@ -10726,13 +10624,13 @@
         <v>10</v>
       </c>
       <c r="AK47" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AL47" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM47" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AN47" s="3" t="s">
         <v>32</v>
@@ -10762,7 +10660,7 @@
         <v>38</v>
       </c>
       <c r="AW47" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX47" s="8"/>
       <c r="AY47" s="8"/>
@@ -10802,7 +10700,7 @@
         <v>119</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>346</v>
@@ -10820,10 +10718,10 @@
         <v>38</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>394</v>
@@ -10832,13 +10730,13 @@
         <v>3.5</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="Y48" s="3">
         <v>3</v>
@@ -10877,7 +10775,7 @@
         <v>15</v>
       </c>
       <c r="AK48" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AL48" s="3" t="s">
         <v>46</v>
@@ -10913,10 +10811,10 @@
         <v>38</v>
       </c>
       <c r="AW48" s="7" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="AX48" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="AY48" s="8"/>
     </row>
@@ -10952,13 +10850,13 @@
         <v>36</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>337</v>
@@ -10973,10 +10871,10 @@
         <v>38</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>395</v>
@@ -10985,13 +10883,13 @@
         <v>5</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="X49" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y49" s="3">
         <v>3</v>
@@ -11030,13 +10928,13 @@
         <v>4</v>
       </c>
       <c r="AK49" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AL49" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM49" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="AN49" s="3" t="s">
         <v>32</v>
@@ -11051,10 +10949,10 @@
         <v>36</v>
       </c>
       <c r="AR49" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AS49" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AT49" s="3" t="s">
         <v>44</v>
@@ -11066,14 +10964,14 @@
         <v>38</v>
       </c>
       <c r="AW49" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX49" s="8"/>
       <c r="AY49" s="8"/>
     </row>
     <row r="50" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>32</v>
@@ -11103,10 +11001,10 @@
         <v>36</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="M50" s="3"/>
       <c r="N50" s="3" t="s">
@@ -11122,10 +11020,10 @@
         <v>36</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="T50" s="3" t="s">
         <v>396</v>
@@ -11134,13 +11032,13 @@
         <v>3.5</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="Y50" s="3">
         <v>3</v>
@@ -11215,16 +11113,16 @@
         <v>38</v>
       </c>
       <c r="AW50" s="7" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="AX50" s="10" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="AY50" s="8"/>
     </row>
     <row r="51" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>32</v>
@@ -11257,7 +11155,7 @@
         <v>310</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3" t="s">
@@ -11273,10 +11171,10 @@
         <v>36</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="T51" s="3" t="s">
         <v>397</v>
@@ -11285,13 +11183,13 @@
         <v>4</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Y51" s="3">
         <v>1</v>
@@ -11330,13 +11228,13 @@
         <v>8</v>
       </c>
       <c r="AK51" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AL51" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM51" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="AN51" s="3" t="s">
         <v>32</v>
@@ -11366,7 +11264,7 @@
         <v>38</v>
       </c>
       <c r="AW51" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX51" s="8"/>
       <c r="AY51" s="8"/>
@@ -11406,7 +11304,7 @@
         <v>311</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3" t="s">
@@ -11422,10 +11320,10 @@
         <v>36</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>398</v>
@@ -11434,13 +11332,13 @@
         <v>7</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="Y52" s="3">
         <v>7</v>
@@ -11479,13 +11377,13 @@
         <v>4</v>
       </c>
       <c r="AK52" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AL52" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM52" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="AN52" s="3" t="s">
         <v>32</v>
@@ -11515,16 +11413,16 @@
         <v>38</v>
       </c>
       <c r="AW52" s="7" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AX52" s="8" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="AY52" s="8"/>
     </row>
     <row r="53" spans="1:51" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>32</v>
@@ -11557,7 +11455,7 @@
         <v>124</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3" t="s">
@@ -11573,10 +11471,10 @@
         <v>38</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="T53" s="3" t="s">
         <v>399</v>
@@ -11588,10 +11486,10 @@
         <v>207</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X53" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y53" s="3">
         <v>2</v>
@@ -11630,7 +11528,7 @@
         <v>6</v>
       </c>
       <c r="AK53" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AL53" s="3" t="s">
         <v>42</v>
@@ -11666,14 +11564,14 @@
         <v>38</v>
       </c>
       <c r="AW53" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX53" s="8"/>
       <c r="AY53" s="8"/>
     </row>
     <row r="54" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>32</v>
@@ -11706,7 +11604,7 @@
         <v>305</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="s">
@@ -11722,10 +11620,10 @@
         <v>36</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>400</v>
@@ -11734,13 +11632,13 @@
         <v>3</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="X54" s="3" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="Y54" s="3">
         <v>7</v>
@@ -11815,16 +11713,16 @@
         <v>38</v>
       </c>
       <c r="AW54" s="7" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="AX54" s="10" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="AY54" s="8"/>
     </row>
     <row r="55" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>32</v>
@@ -11857,7 +11755,7 @@
         <v>305</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="M55" s="3"/>
       <c r="N55" s="3" t="s">
@@ -11873,10 +11771,10 @@
         <v>36</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T55" s="3" t="s">
         <v>401</v>
@@ -11885,13 +11783,13 @@
         <v>3</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X55" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Y55" s="3">
         <v>3</v>
@@ -11966,10 +11864,10 @@
         <v>38</v>
       </c>
       <c r="AW55" s="7" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="AX55" s="10" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="AY55" s="8"/>
     </row>
@@ -12008,7 +11906,7 @@
         <v>312</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="M56" s="3"/>
       <c r="N56" s="3" t="s">
@@ -12024,10 +11922,10 @@
         <v>36</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T56" s="3" t="s">
         <v>402</v>
@@ -12036,13 +11934,13 @@
         <v>2.75</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="X56" s="3" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="Y56" s="3">
         <v>3</v>
@@ -12117,10 +12015,10 @@
         <v>38</v>
       </c>
       <c r="AW56" s="7" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="AX56" s="10" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="AY56" s="8"/>
     </row>
@@ -12159,10 +12057,10 @@
         <v>313</v>
       </c>
       <c r="L57" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="M57" s="3" t="s">
         <v>588</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>591</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>337</v>
@@ -12177,10 +12075,10 @@
         <v>38</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>403</v>
@@ -12189,13 +12087,13 @@
         <v>5</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="X57" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Y57" s="3">
         <v>2</v>
@@ -12231,16 +12129,16 @@
         <v>41</v>
       </c>
       <c r="AJ57" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="AK57" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AL57" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM57" s="3" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="AN57" s="3" t="s">
         <v>84</v>
@@ -12255,7 +12153,7 @@
         <v>36</v>
       </c>
       <c r="AR57" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="AS57" s="3" t="s">
         <v>36</v>
@@ -12270,16 +12168,16 @@
         <v>38</v>
       </c>
       <c r="AW57" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="AX57" s="10" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="AY57" s="8"/>
     </row>
     <row r="58" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>32</v>
@@ -12312,10 +12210,10 @@
         <v>314</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>343</v>
@@ -12330,10 +12228,10 @@
         <v>36</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>404</v>
@@ -12342,13 +12240,13 @@
         <v>5.5</v>
       </c>
       <c r="V58" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="X58" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="Y58" s="3">
         <v>3</v>
@@ -12368,11 +12266,11 @@
       <c r="AD58" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AE58" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="AF58" s="5" t="s">
-        <v>774</v>
+      <c r="AE58" s="11">
+        <v>-4.3626331</v>
+      </c>
+      <c r="AF58" s="11">
+        <v>-79.174605400000004</v>
       </c>
       <c r="AG58" s="3" t="s">
         <v>32</v>
@@ -12387,13 +12285,13 @@
         <v>4</v>
       </c>
       <c r="AK58" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AL58" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM58" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AN58" s="3" t="s">
         <v>32</v>
@@ -12423,10 +12321,10 @@
         <v>38</v>
       </c>
       <c r="AW58" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="AX58" s="10" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="AY58" s="8"/>
     </row>
@@ -12465,10 +12363,10 @@
         <v>314</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>344</v>
@@ -12483,10 +12381,10 @@
         <v>36</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>405</v>
@@ -12498,10 +12396,10 @@
         <v>207</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="X59" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Y59" s="3">
         <v>2</v>
@@ -12540,7 +12438,7 @@
         <v>4</v>
       </c>
       <c r="AK59" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AL59" s="3" t="s">
         <v>42</v>
@@ -12576,16 +12474,16 @@
         <v>38</v>
       </c>
       <c r="AW59" s="7" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="AX59" s="10" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="AY59" s="8"/>
     </row>
     <row r="60" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>36</v>
@@ -12618,10 +12516,10 @@
         <v>89</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>337</v>
@@ -12636,10 +12534,10 @@
         <v>38</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>406</v>
@@ -12651,10 +12549,10 @@
         <v>207</v>
       </c>
       <c r="W60" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="X60" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Y60" s="3">
         <v>3</v>
@@ -12693,13 +12591,13 @@
         <v>4</v>
       </c>
       <c r="AK60" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AL60" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM60" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AN60" s="3" t="s">
         <v>32</v>
@@ -12717,7 +12615,7 @@
         <v>6</v>
       </c>
       <c r="AS60" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AT60" s="3" t="s">
         <v>107</v>
@@ -12729,16 +12627,16 @@
         <v>38</v>
       </c>
       <c r="AW60" s="7" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="AX60" s="8" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="AY60" s="8"/>
     </row>
     <row r="61" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>32</v>
@@ -12753,7 +12651,7 @@
         <v>989804020</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>280</v>
@@ -12771,10 +12669,10 @@
         <v>315</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="N61" s="3" t="s">
         <v>337</v>
@@ -12789,10 +12687,10 @@
         <v>38</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="T61" s="3" t="s">
         <v>407</v>
@@ -12801,13 +12699,13 @@
         <v>8</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="W61" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X61" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y61" s="3">
         <v>4</v>
@@ -12827,11 +12725,11 @@
       <c r="AD61" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AE61" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="AF61" s="5" t="s">
-        <v>773</v>
+      <c r="AE61" s="11">
+        <v>-4.2625000000000002</v>
+      </c>
+      <c r="AF61" s="11">
+        <v>-79.222899999999996</v>
       </c>
       <c r="AG61" s="3" t="s">
         <v>32</v>
@@ -12846,13 +12744,13 @@
         <v>4</v>
       </c>
       <c r="AK61" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AL61" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM61" s="3" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="AN61" s="3" t="s">
         <v>32</v>
@@ -12870,7 +12768,7 @@
         <v>4</v>
       </c>
       <c r="AS61" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="AT61" s="3" t="s">
         <v>107</v>
@@ -12882,16 +12780,16 @@
         <v>38</v>
       </c>
       <c r="AW61" s="7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="AX61" s="8" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="AY61" s="8"/>
     </row>
     <row r="62" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>32</v>
@@ -12921,13 +12819,13 @@
         <v>36</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>337</v>
@@ -12942,10 +12840,10 @@
         <v>38</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>408</v>
@@ -12954,13 +12852,13 @@
         <v>7</v>
       </c>
       <c r="V62" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="W62" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="X62" s="3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="Y62" s="3">
         <v>10</v>
@@ -12980,11 +12878,11 @@
       <c r="AD62" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE62" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="AF62" s="5" t="s">
-        <v>772</v>
+      <c r="AE62" s="11">
+        <v>-4.2618400000000003</v>
+      </c>
+      <c r="AF62" s="11">
+        <v>-79.216089999999994</v>
       </c>
       <c r="AG62" s="3" t="s">
         <v>32</v>
@@ -12999,13 +12897,13 @@
         <v>15</v>
       </c>
       <c r="AK62" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AL62" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM62" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AN62" s="3" t="s">
         <v>32</v>
@@ -13017,7 +12915,7 @@
         <v>50</v>
       </c>
       <c r="AQ62" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="AR62" s="3">
         <v>3</v>
@@ -13035,10 +12933,10 @@
         <v>38</v>
       </c>
       <c r="AW62" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AX62" s="10" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AY62" s="8"/>
     </row>
@@ -13074,13 +12972,13 @@
         <v>36</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="N63" s="3" t="s">
         <v>337</v>
@@ -13098,7 +12996,7 @@
         <v>99</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="T63" s="3" t="s">
         <v>409</v>
@@ -13107,13 +13005,13 @@
         <v>7</v>
       </c>
       <c r="V63" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="W63" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="X63" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y63" s="3">
         <v>5</v>
@@ -13133,11 +13031,11 @@
       <c r="AD63" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE63" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="AF63" s="5" t="s">
-        <v>775</v>
+      <c r="AE63" s="11">
+        <v>-4.2618</v>
+      </c>
+      <c r="AF63" s="11">
+        <v>-79.227500000000006</v>
       </c>
       <c r="AG63" s="3" t="s">
         <v>36</v>
@@ -13152,13 +13050,13 @@
         <v>5</v>
       </c>
       <c r="AK63" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="AL63" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM63" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AN63" s="3" t="s">
         <v>32</v>
@@ -13167,7 +13065,7 @@
         <v>6</v>
       </c>
       <c r="AP63" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AQ63" s="3" t="s">
         <v>36</v>
@@ -13176,7 +13074,7 @@
         <v>26</v>
       </c>
       <c r="AS63" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AT63" s="3" t="s">
         <v>44</v>
@@ -13188,14 +13086,14 @@
         <v>38</v>
       </c>
       <c r="AW63" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX63" s="8"/>
       <c r="AY63" s="8"/>
     </row>
     <row r="64" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>32</v>
@@ -13228,10 +13126,10 @@
         <v>316</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="N64" s="3" t="s">
         <v>337</v>
@@ -13246,10 +13144,10 @@
         <v>38</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="T64" s="3" t="s">
         <v>410</v>
@@ -13258,13 +13156,13 @@
         <v>5.5</v>
       </c>
       <c r="V64" s="3" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="W64" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X64" s="3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="Y64" s="3">
         <v>2</v>
@@ -13303,7 +13201,7 @@
         <v>6</v>
       </c>
       <c r="AK64" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AL64" s="3" t="s">
         <v>46</v>
@@ -13327,7 +13225,7 @@
         <v>1</v>
       </c>
       <c r="AS64" s="3" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="AT64" s="3" t="s">
         <v>44</v>
@@ -13339,7 +13237,7 @@
         <v>38</v>
       </c>
       <c r="AW64" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX64" s="8"/>
       <c r="AY64" s="8"/>
@@ -13379,7 +13277,7 @@
         <v>317</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M65" s="3"/>
       <c r="N65" s="3" t="s">
@@ -13395,10 +13293,10 @@
         <v>38</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="T65" s="3" t="s">
         <v>411</v>
@@ -13407,13 +13305,13 @@
         <v>3</v>
       </c>
       <c r="V65" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="W65" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X65" s="3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="Y65" s="3">
         <v>1</v>
@@ -13452,13 +13350,13 @@
         <v>5</v>
       </c>
       <c r="AK65" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AL65" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM65" s="3" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AN65" s="3" t="s">
         <v>32</v>
@@ -13488,7 +13386,7 @@
         <v>38</v>
       </c>
       <c r="AW65" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX65" s="8"/>
       <c r="AY65" s="8"/>
@@ -13528,7 +13426,7 @@
         <v>318</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="M66" s="3"/>
       <c r="N66" s="3" t="s">
@@ -13544,10 +13442,10 @@
         <v>38</v>
       </c>
       <c r="R66" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>412</v>
@@ -13556,13 +13454,13 @@
         <v>3</v>
       </c>
       <c r="V66" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="W66" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X66" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y66" s="3">
         <v>2</v>
@@ -13601,7 +13499,7 @@
         <v>16</v>
       </c>
       <c r="AK66" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AL66" s="3" t="s">
         <v>46</v>
@@ -13637,10 +13535,10 @@
         <v>38</v>
       </c>
       <c r="AW66" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="AX66" s="10" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="AY66" s="8"/>
     </row>
@@ -13661,7 +13559,7 @@
         <v>991322614</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>286</v>
@@ -13679,7 +13577,7 @@
         <v>319</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M67" s="3"/>
       <c r="N67" s="3" t="s">
@@ -13695,10 +13593,10 @@
         <v>38</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="T67" s="3" t="s">
         <v>413</v>
@@ -13710,10 +13608,10 @@
         <v>207</v>
       </c>
       <c r="W67" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X67" s="3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="Y67" s="3">
         <v>4</v>
@@ -13788,7 +13686,7 @@
         <v>38</v>
       </c>
       <c r="AW67" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX67" s="8"/>
       <c r="AY67" s="8"/>
@@ -13825,13 +13723,13 @@
         <v>36</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="N68" s="3" t="s">
         <v>337</v>
@@ -13846,10 +13744,10 @@
         <v>38</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="T68" s="3" t="s">
         <v>414</v>
@@ -13858,13 +13756,13 @@
         <v>5</v>
       </c>
       <c r="V68" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="W68" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X68" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y68" s="3">
         <v>5</v>
@@ -13887,8 +13785,8 @@
       <c r="AE68" s="5">
         <v>-3.7921779999999998</v>
       </c>
-      <c r="AF68" s="5" t="s">
-        <v>777</v>
+      <c r="AF68" s="11">
+        <v>-79.221000000000004</v>
       </c>
       <c r="AG68" s="3" t="s">
         <v>36</v>
@@ -13903,13 +13801,13 @@
         <v>4</v>
       </c>
       <c r="AK68" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="AL68" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM68" s="3" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="AN68" s="3" t="s">
         <v>32</v>
@@ -13939,10 +13837,10 @@
         <v>38</v>
       </c>
       <c r="AW68" s="7" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="AX68" s="10" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="AY68" s="8"/>
     </row>
@@ -13978,13 +13876,13 @@
         <v>36</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="N69" s="3" t="s">
         <v>337</v>
@@ -13999,10 +13897,10 @@
         <v>38</v>
       </c>
       <c r="R69" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="T69" s="3" t="s">
         <v>415</v>
@@ -14011,13 +13909,13 @@
         <v>5</v>
       </c>
       <c r="V69" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="W69" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="X69" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y69" s="3">
         <v>3</v>
@@ -14037,11 +13935,11 @@
       <c r="AD69" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE69" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="AF69" s="5" t="s">
-        <v>776</v>
+      <c r="AE69" s="11">
+        <v>-4.2157681</v>
+      </c>
+      <c r="AF69" s="11">
+        <v>-79.25412</v>
       </c>
       <c r="AG69" s="3" t="s">
         <v>36</v>
@@ -14056,13 +13954,13 @@
         <v>8</v>
       </c>
       <c r="AK69" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AL69" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM69" s="3" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="AN69" s="3" t="s">
         <v>32</v>
@@ -14080,7 +13978,7 @@
         <v>3</v>
       </c>
       <c r="AS69" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="AT69" s="3" t="s">
         <v>44</v>
@@ -14092,7 +13990,7 @@
         <v>38</v>
       </c>
       <c r="AW69" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX69" s="8"/>
       <c r="AY69" s="8"/>
@@ -14132,10 +14030,10 @@
         <v>320</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="N70" s="3" t="s">
         <v>337</v>
@@ -14150,10 +14048,10 @@
         <v>38</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="T70" s="3" t="s">
         <v>416</v>
@@ -14162,13 +14060,13 @@
         <v>12</v>
       </c>
       <c r="V70" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="W70" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X70" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y70" s="3">
         <v>2</v>
@@ -14192,7 +14090,7 @@
         <v>-4.2401593999999996</v>
       </c>
       <c r="AF70" s="5" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="AG70" s="3" t="s">
         <v>36</v>
@@ -14207,13 +14105,13 @@
         <v>12</v>
       </c>
       <c r="AK70" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AL70" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM70" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="AN70" s="3" t="s">
         <v>32</v>
@@ -14243,10 +14141,10 @@
         <v>38</v>
       </c>
       <c r="AW70" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="AX70" s="10" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="AY70" s="8"/>
     </row>
@@ -14285,10 +14183,10 @@
         <v>321</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="N71" s="3" t="s">
         <v>337</v>
@@ -14303,10 +14201,10 @@
         <v>38</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="T71" s="3" t="s">
         <v>417</v>
@@ -14315,13 +14213,13 @@
         <v>10</v>
       </c>
       <c r="V71" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="W71" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X71" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y71" s="3">
         <v>2</v>
@@ -14360,13 +14258,13 @@
         <v>12</v>
       </c>
       <c r="AK71" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AL71" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM71" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AN71" s="3" t="s">
         <v>32</v>
@@ -14384,7 +14282,7 @@
         <v>4</v>
       </c>
       <c r="AS71" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AT71" s="3" t="s">
         <v>107</v>
@@ -14396,10 +14294,10 @@
         <v>38</v>
       </c>
       <c r="AW71" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="AX71" s="10" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AY71" s="8"/>
     </row>
@@ -14438,7 +14336,7 @@
         <v>322</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="M72" s="3"/>
       <c r="N72" s="3" t="s">
@@ -14454,10 +14352,10 @@
         <v>38</v>
       </c>
       <c r="R72" s="3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>418</v>
@@ -14466,13 +14364,13 @@
         <v>1</v>
       </c>
       <c r="V72" s="3" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="W72" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X72" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Y72" s="3">
         <v>4</v>
@@ -14511,13 +14409,13 @@
         <v>20</v>
       </c>
       <c r="AK72" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AL72" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM72" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="AN72" s="3" t="s">
         <v>32</v>
@@ -14547,10 +14445,10 @@
         <v>38</v>
       </c>
       <c r="AW72" s="7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="AX72" s="10" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="AY72" s="8"/>
     </row>
@@ -14586,10 +14484,10 @@
         <v>36</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="M73" s="3"/>
       <c r="N73" s="3" t="s">
@@ -14605,10 +14503,10 @@
         <v>38</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T73" s="3" t="s">
         <v>419</v>
@@ -14617,13 +14515,13 @@
         <v>3</v>
       </c>
       <c r="V73" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="W73" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X73" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y73" s="3">
         <v>2</v>
@@ -14647,7 +14545,7 @@
         <v>-4.2617066000000001</v>
       </c>
       <c r="AF73" s="5" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AG73" s="3" t="s">
         <v>36</v>
@@ -14668,7 +14566,7 @@
         <v>46</v>
       </c>
       <c r="AM73" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AN73" s="3" t="s">
         <v>32</v>
@@ -14698,7 +14596,7 @@
         <v>38</v>
       </c>
       <c r="AW73" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX73" s="8"/>
       <c r="AY73" s="8"/>
@@ -14738,7 +14636,7 @@
         <v>323</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="M74" s="3"/>
       <c r="N74" s="3" t="s">
@@ -14754,10 +14652,10 @@
         <v>38</v>
       </c>
       <c r="R74" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T74" s="3" t="s">
         <v>420</v>
@@ -14766,13 +14664,13 @@
         <v>3.5</v>
       </c>
       <c r="V74" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="W74" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X74" s="3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="Y74" s="3">
         <v>2</v>
@@ -14811,7 +14709,7 @@
         <v>10</v>
       </c>
       <c r="AK74" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AL74" s="3" t="s">
         <v>46</v>
@@ -14847,14 +14745,14 @@
         <v>38</v>
       </c>
       <c r="AW74" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX74" s="8"/>
       <c r="AY74" s="8"/>
     </row>
     <row r="75" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>32</v>
@@ -14887,7 +14785,7 @@
         <v>324</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M75" s="3"/>
       <c r="N75" s="3" t="s">
@@ -14903,10 +14801,10 @@
         <v>38</v>
       </c>
       <c r="R75" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T75" s="3" t="s">
         <v>421</v>
@@ -14915,13 +14813,13 @@
         <v>2.25</v>
       </c>
       <c r="V75" s="3" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="W75" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X75" s="3" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="Y75" s="3">
         <v>3</v>
@@ -14996,10 +14894,10 @@
         <v>38</v>
       </c>
       <c r="AW75" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="AX75" s="10" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="AY75" s="8"/>
     </row>
@@ -15038,10 +14936,10 @@
         <v>325</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>337</v>
@@ -15056,10 +14954,10 @@
         <v>38</v>
       </c>
       <c r="R76" s="3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>422</v>
@@ -15071,10 +14969,10 @@
         <v>207</v>
       </c>
       <c r="W76" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X76" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Y76" s="3">
         <v>3</v>
@@ -15113,13 +15011,13 @@
         <v>5</v>
       </c>
       <c r="AK76" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AL76" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM76" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AN76" s="3" t="s">
         <v>32</v>
@@ -15149,14 +15047,14 @@
         <v>38</v>
       </c>
       <c r="AW76" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX76" s="8"/>
       <c r="AY76" s="8"/>
     </row>
     <row r="77" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>32</v>
@@ -15186,13 +15084,13 @@
         <v>36</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="N77" s="3" t="s">
         <v>337</v>
@@ -15207,10 +15105,10 @@
         <v>38</v>
       </c>
       <c r="R77" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="T77" s="3" t="s">
         <v>423</v>
@@ -15219,13 +15117,13 @@
         <v>6</v>
       </c>
       <c r="V77" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="W77" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X77" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="Y77" s="3">
         <v>2</v>
@@ -15245,11 +15143,11 @@
       <c r="AD77" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE77" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="AF77" s="5" t="s">
-        <v>770</v>
+      <c r="AE77" s="11">
+        <v>-4.2605000000000004</v>
+      </c>
+      <c r="AF77" s="11">
+        <v>-79.221000000000004</v>
       </c>
       <c r="AG77" s="3" t="s">
         <v>36</v>
@@ -15264,7 +15162,7 @@
         <v>9</v>
       </c>
       <c r="AK77" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AL77" s="3" t="s">
         <v>42</v>
@@ -15288,7 +15186,7 @@
         <v>2</v>
       </c>
       <c r="AS77" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AT77" s="3" t="s">
         <v>44</v>
@@ -15300,7 +15198,7 @@
         <v>38</v>
       </c>
       <c r="AW77" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX77" s="8"/>
       <c r="AY77" s="8"/>
@@ -15340,7 +15238,7 @@
         <v>326</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="M78" s="3"/>
       <c r="N78" s="3" t="s">
@@ -15356,10 +15254,10 @@
         <v>38</v>
       </c>
       <c r="R78" s="3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="T78" s="3" t="s">
         <v>424</v>
@@ -15368,13 +15266,13 @@
         <v>3.5</v>
       </c>
       <c r="V78" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="W78" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X78" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Y78" s="3">
         <v>1</v>
@@ -15394,11 +15292,11 @@
       <c r="AD78" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE78" s="5" t="s">
-        <v>764</v>
-      </c>
-      <c r="AF78" s="5" t="s">
-        <v>771</v>
+      <c r="AE78" s="11">
+        <v>-4.2626999999999997</v>
+      </c>
+      <c r="AF78" s="11">
+        <v>-79.224999999999994</v>
       </c>
       <c r="AG78" s="3" t="s">
         <v>36</v>
@@ -15437,7 +15335,7 @@
         <v>1</v>
       </c>
       <c r="AS78" s="3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AT78" s="3" t="s">
         <v>44</v>
@@ -15449,16 +15347,16 @@
         <v>38</v>
       </c>
       <c r="AW78" s="7" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="AX78" s="10" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="AY78" s="8"/>
     </row>
     <row r="79" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>32</v>
@@ -15488,10 +15386,10 @@
         <v>36</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="M79" s="3"/>
       <c r="N79" s="3" t="s">
@@ -15507,10 +15405,10 @@
         <v>38</v>
       </c>
       <c r="R79" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T79" s="3" t="s">
         <v>425</v>
@@ -15522,10 +15420,10 @@
         <v>207</v>
       </c>
       <c r="W79" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X79" s="3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="Y79" s="3">
         <v>1</v>
@@ -15600,16 +15498,16 @@
         <v>38</v>
       </c>
       <c r="AW79" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AX79" s="10" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AY79" s="8"/>
     </row>
     <row r="80" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>32</v>
@@ -15642,10 +15540,10 @@
         <v>327</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="N80" s="3" t="s">
         <v>337</v>
@@ -15660,10 +15558,10 @@
         <v>38</v>
       </c>
       <c r="R80" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="T80" s="3" t="s">
         <v>426</v>
@@ -15672,13 +15570,13 @@
         <v>6</v>
       </c>
       <c r="V80" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="W80" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X80" s="3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="Y80" s="3">
         <v>2</v>
@@ -15753,10 +15651,10 @@
         <v>38</v>
       </c>
       <c r="AW80" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="AX80" s="10" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="AY80" s="8"/>
     </row>
@@ -15795,10 +15693,10 @@
         <v>328</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>337</v>
@@ -15813,10 +15711,10 @@
         <v>38</v>
       </c>
       <c r="R81" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>427</v>
@@ -15828,10 +15726,10 @@
         <v>207</v>
       </c>
       <c r="W81" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X81" s="3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="Y81" s="3">
         <v>2</v>
@@ -15906,14 +15804,14 @@
         <v>38</v>
       </c>
       <c r="AW81" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AX81" s="8"/>
       <c r="AY81" s="8"/>
     </row>
     <row r="82" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>32</v>
@@ -15946,10 +15844,10 @@
         <v>329</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="N82" s="3" t="s">
         <v>337</v>
@@ -15964,10 +15862,10 @@
         <v>38</v>
       </c>
       <c r="R82" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="T82" s="3" t="s">
         <v>428</v>
@@ -15976,7 +15874,7 @@
         <v>6</v>
       </c>
       <c r="V82" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="W82" s="6"/>
       <c r="X82" s="6"/>
@@ -16017,7 +15915,7 @@
         <v>10</v>
       </c>
       <c r="AK82" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="AL82" s="3" t="s">
         <v>42</v>
@@ -16041,7 +15939,7 @@
         <v>1</v>
       </c>
       <c r="AS82" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AT82" s="3" t="s">
         <v>107</v>
@@ -16053,10 +15951,10 @@
         <v>38</v>
       </c>
       <c r="AW82" s="7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AX82" s="8" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AY82" s="8"/>
     </row>

--- a/media/csv_uploads/gastronomia_establecimiento1.xlsx
+++ b/media/csv_uploads/gastronomia_establecimiento1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santigovinan/Documents/applications-django/emprendimientos/media/csv_uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4CCDB4-62FE-AE41-AB11-80CCD362F8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47376FF7-F952-6C48-9697-98566348270C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="940" windowWidth="28940" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="28940" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -560,9 +560,6 @@
     <t>Oriundo Restaurante</t>
   </si>
   <si>
-    <t>Pollo a la Brasa Don Chinito</t>
-  </si>
-  <si>
     <t>Santiago</t>
   </si>
   <si>
@@ -2204,9 +2201,6 @@
     <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504308/Oriundo_Vilcabamba_productodtft_web__toomhe.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504317/Oriundo_Vilcabamba_productognf_web__dr36s9.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504327/Oriundo_Vilcabamba_fachadafr_web__u0aijd.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504335/Oriundo_Vilcabamba_identidad_web__jficnp.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504345/Oriundo_Vilcabamba_productocent_web__uxrym2.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504354/Oriundo_Vilcabamba_productodtls_web__ubzw2x.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504363/Oriundo_Vilcabamba_productoggg_web__c0ene4.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766504372/Oriundo_Vilcabamba_productogn_web__j6stgx.jpg}</t>
   </si>
   <si>
-    <t>Artesanal</t>
-  </si>
-  <si>
     <t>Restaurante Mamma Silvia</t>
   </si>
   <si>
@@ -2261,10 +2255,16 @@
     <t>Restaurant Marisquería Perú Mar Carnes y Parrillas</t>
   </si>
   <si>
-    <t>Cafetería Killa</t>
-  </si>
-  <si>
     <t>Bambú Café Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizzería Ibelia Mommy Coffee Shop Cafetería Artesanal </t>
+  </si>
+  <si>
+    <t>Cafetería Killari</t>
+  </si>
+  <si>
+    <t>Pollo a la Brasa "Don Chinito"</t>
   </si>
 </sst>
 </file>
@@ -3532,8 +3532,8 @@
   </sheetPr>
   <dimension ref="A1:AY82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Z70" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AF80" sqref="AF80"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A74" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3633,10 +3633,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>507</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>13</v>
@@ -3648,40 +3648,40 @@
         <v>15</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>516</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>19</v>
@@ -3696,7 +3696,7 @@
         <v>22</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AJ1" s="2" t="s">
         <v>23</v>
@@ -3711,25 +3711,25 @@
         <v>26</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AO1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="AP1" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>521</v>
       </c>
       <c r="AS1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AU1" s="2" t="s">
         <v>29</v>
@@ -3738,13 +3738,13 @@
         <v>30</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AY1" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:51" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3758,13 +3758,13 @@
         <v>33</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E2" s="3">
         <v>979670398</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>34</v>
@@ -3782,11 +3782,11 @@
         <v>37</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O2" s="3">
         <v>1</v>
@@ -3798,25 +3798,25 @@
         <v>38</v>
       </c>
       <c r="R2" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T2" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="U2" s="4">
         <v>3.75</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W2" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>526</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>527</v>
       </c>
       <c r="Y2" s="3">
         <v>2</v>
@@ -3889,10 +3889,10 @@
       </c>
       <c r="AV2" s="6"/>
       <c r="AW2" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AX2" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AY2" s="8"/>
     </row>
@@ -3907,13 +3907,13 @@
         <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E3" s="3">
         <v>982686170</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>45</v>
@@ -3931,11 +3931,11 @@
         <v>37</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O3" s="3">
         <v>2</v>
@@ -3947,25 +3947,25 @@
         <v>38</v>
       </c>
       <c r="R3" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T3" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="U3" s="4">
         <v>2.5</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W3" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>529</v>
       </c>
       <c r="Y3" s="3">
         <v>1</v>
@@ -4040,10 +4040,10 @@
         <v>38</v>
       </c>
       <c r="AW3" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="AX3" s="10" t="s">
         <v>634</v>
-      </c>
-      <c r="AX3" s="10" t="s">
-        <v>635</v>
       </c>
       <c r="AY3" s="8"/>
     </row>
@@ -4058,16 +4058,16 @@
         <v>48</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E4" s="3">
         <v>958690650</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>35</v>
@@ -4082,11 +4082,11 @@
         <v>37</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O4" s="3">
         <v>2</v>
@@ -4098,25 +4098,25 @@
         <v>38</v>
       </c>
       <c r="R4" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T4" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="U4" s="4">
         <v>3.5</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W4" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>529</v>
       </c>
       <c r="Y4" s="3">
         <v>2</v>
@@ -4191,7 +4191,7 @@
         <v>38</v>
       </c>
       <c r="AW4" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX4" s="8"/>
       <c r="AY4" s="8"/>
@@ -4207,22 +4207,22 @@
         <v>48</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E5" s="3">
         <v>985094341</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>36</v>
@@ -4231,11 +4231,11 @@
         <v>37</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O5" s="3">
         <v>2</v>
@@ -4247,25 +4247,25 @@
         <v>36</v>
       </c>
       <c r="R5" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S5" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S5" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T5" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="U5" s="4">
         <v>3</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Y5" s="3">
         <v>2</v>
@@ -4340,7 +4340,7 @@
         <v>38</v>
       </c>
       <c r="AW5" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX5" s="8"/>
       <c r="AY5" s="8"/>
@@ -4356,22 +4356,22 @@
         <v>62</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E6" s="3">
         <v>985902378</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>36</v>
@@ -4380,11 +4380,11 @@
         <v>54</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O6" s="3">
         <v>3</v>
@@ -4396,25 +4396,25 @@
         <v>38</v>
       </c>
       <c r="R6" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S6" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S6" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T6" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="U6" s="4">
         <v>5</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Y6" s="3">
         <v>4</v>
@@ -4489,10 +4489,10 @@
         <v>38</v>
       </c>
       <c r="AW6" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AX6" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AY6" s="8"/>
     </row>
@@ -4507,22 +4507,22 @@
         <v>62</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E7" s="3">
         <v>997101647</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>36</v>
@@ -4531,11 +4531,11 @@
         <v>58</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O7" s="3">
         <v>2</v>
@@ -4547,25 +4547,25 @@
         <v>38</v>
       </c>
       <c r="R7" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S7" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S7" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T7" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="U7" s="4">
         <v>7.5</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W7" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="X7" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>529</v>
       </c>
       <c r="Y7" s="3">
         <v>3</v>
@@ -4640,10 +4640,10 @@
         <v>38</v>
       </c>
       <c r="AW7" s="7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AX7" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AY7" s="8"/>
     </row>
@@ -4658,22 +4658,22 @@
         <v>62</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E8" s="3">
         <v>994424295</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>57</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>36</v>
@@ -4682,11 +4682,11 @@
         <v>58</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O8" s="3">
         <v>2</v>
@@ -4698,25 +4698,25 @@
         <v>38</v>
       </c>
       <c r="R8" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S8" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T8" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="U8" s="4">
         <v>4</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Y8" s="3">
         <v>2</v>
@@ -4791,10 +4791,10 @@
         <v>38</v>
       </c>
       <c r="AW8" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AX8" s="10" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AY8" s="8"/>
     </row>
@@ -4809,13 +4809,13 @@
         <v>62</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E9" s="3">
         <v>985709075</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>59</v>
@@ -4824,7 +4824,7 @@
         <v>35</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>36</v>
@@ -4833,11 +4833,11 @@
         <v>58</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O9" s="3">
         <v>2</v>
@@ -4849,25 +4849,25 @@
         <v>38</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="U9" s="4">
         <v>6</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W9" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="X9" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>529</v>
       </c>
       <c r="Y9" s="3">
         <v>4</v>
@@ -4942,10 +4942,10 @@
         <v>38</v>
       </c>
       <c r="AW9" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AX9" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AY9" s="8"/>
     </row>
@@ -4960,22 +4960,22 @@
         <v>62</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E10" s="3">
         <v>969691330</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>36</v>
@@ -4984,11 +4984,11 @@
         <v>58</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O10" s="3">
         <v>2</v>
@@ -5000,25 +5000,25 @@
         <v>38</v>
       </c>
       <c r="R10" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S10" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T10" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="U10" s="4">
         <v>4</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Y10" s="3">
         <v>3</v>
@@ -5093,10 +5093,10 @@
         <v>38</v>
       </c>
       <c r="AW10" s="7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AX10" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AY10" s="8"/>
     </row>
@@ -5111,13 +5111,13 @@
         <v>62</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11" s="3">
         <v>991450218</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>63</v>
@@ -5135,11 +5135,11 @@
         <v>64</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O11" s="3">
         <v>2</v>
@@ -5151,25 +5151,25 @@
         <v>38</v>
       </c>
       <c r="R11" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S11" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S11" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T11" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="U11" s="4">
         <v>4</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W11" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="X11" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>529</v>
       </c>
       <c r="Y11" s="3">
         <v>5</v>
@@ -5244,7 +5244,7 @@
         <v>38</v>
       </c>
       <c r="AW11" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX11" s="8"/>
       <c r="AY11" s="8"/>
@@ -5260,13 +5260,13 @@
         <v>62</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E12" s="3">
         <v>939462796</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>65</v>
@@ -5275,7 +5275,7 @@
         <v>66</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>36</v>
@@ -5284,11 +5284,11 @@
         <v>58</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O12" s="3">
         <v>1</v>
@@ -5300,25 +5300,25 @@
         <v>38</v>
       </c>
       <c r="R12" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S12" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T12" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="U12" s="4">
         <v>4</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W12" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="X12" s="3" t="s">
         <v>538</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>539</v>
       </c>
       <c r="Y12" s="3">
         <v>2</v>
@@ -5393,10 +5393,10 @@
         <v>38</v>
       </c>
       <c r="AW12" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AX12" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AY12" s="8"/>
     </row>
@@ -5411,22 +5411,22 @@
         <v>62</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E13" s="3">
         <v>990937330</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>66</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>36</v>
@@ -5435,11 +5435,11 @@
         <v>58</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O13" s="3">
         <v>2</v>
@@ -5451,25 +5451,25 @@
         <v>38</v>
       </c>
       <c r="R13" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S13" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S13" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T13" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="U13" s="4">
         <v>3</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Y13" s="3">
         <v>3</v>
@@ -5544,10 +5544,10 @@
         <v>38</v>
       </c>
       <c r="AW13" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AX13" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AY13" s="8"/>
     </row>
@@ -5562,35 +5562,35 @@
         <v>62</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E14" s="3">
         <v>939008806</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O14" s="3">
         <v>1</v>
@@ -5602,25 +5602,25 @@
         <v>38</v>
       </c>
       <c r="R14" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T14" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U14" s="4">
         <v>3</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W14" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>529</v>
       </c>
       <c r="Y14" s="3">
         <v>2</v>
@@ -5695,10 +5695,10 @@
         <v>38</v>
       </c>
       <c r="AW14" s="7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AX14" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AY14" s="8"/>
     </row>
@@ -5713,13 +5713,13 @@
         <v>62</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E15" s="3">
         <v>985908474</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>68</v>
@@ -5737,11 +5737,11 @@
         <v>69</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O15" s="3">
         <v>3</v>
@@ -5753,25 +5753,25 @@
         <v>38</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="U15" s="4">
         <v>4</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Y15" s="3">
         <v>3</v>
@@ -5846,7 +5846,7 @@
         <v>38</v>
       </c>
       <c r="AW15" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX15" s="8"/>
       <c r="AY15" s="8"/>
@@ -5868,16 +5868,16 @@
         <v>939233599</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>36</v>
@@ -5886,13 +5886,13 @@
         <v>72</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O16" s="3">
         <v>2</v>
@@ -5904,25 +5904,25 @@
         <v>38</v>
       </c>
       <c r="R16" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S16" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S16" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T16" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="U16" s="4">
         <v>5</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Y16" s="3">
         <v>3</v>
@@ -5997,10 +5997,10 @@
         <v>38</v>
       </c>
       <c r="AW16" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AX16" s="10" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AY16" s="8"/>
     </row>
@@ -6021,7 +6021,7 @@
         <v>992586806</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>74</v>
@@ -6039,13 +6039,13 @@
         <v>75</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O17" s="3">
         <v>2</v>
@@ -6057,25 +6057,25 @@
         <v>38</v>
       </c>
       <c r="R17" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S17" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T17" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="U17" s="4">
         <v>5</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W17" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="X17" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>529</v>
       </c>
       <c r="Y17" s="3">
         <v>2</v>
@@ -6150,10 +6150,10 @@
         <v>38</v>
       </c>
       <c r="AW17" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AX17" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AY17" s="8"/>
     </row>
@@ -6174,10 +6174,10 @@
         <v>939320817</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>77</v>
@@ -6192,11 +6192,11 @@
         <v>78</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O18" s="3">
         <v>2</v>
@@ -6208,25 +6208,25 @@
         <v>38</v>
       </c>
       <c r="R18" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S18" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T18" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="U18" s="4">
         <v>5</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W18" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="X18" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>529</v>
       </c>
       <c r="Y18" s="3">
         <v>3</v>
@@ -6301,10 +6301,10 @@
         <v>38</v>
       </c>
       <c r="AW18" s="7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AX18" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AY18" s="8"/>
     </row>
@@ -6325,10 +6325,10 @@
         <v>992309098</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>77</v>
@@ -6343,11 +6343,11 @@
         <v>79</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O19" s="3">
         <v>2</v>
@@ -6359,25 +6359,25 @@
         <v>38</v>
       </c>
       <c r="R19" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S19" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S19" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T19" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="U19" s="4">
         <v>5</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Y19" s="3">
         <v>7</v>
@@ -6452,10 +6452,10 @@
         <v>38</v>
       </c>
       <c r="AW19" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AX19" s="10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AY19" s="8"/>
     </row>
@@ -6470,16 +6470,16 @@
         <v>62</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E20" s="3">
         <v>981952323</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>77</v>
@@ -6494,13 +6494,13 @@
         <v>79</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O20" s="3">
         <v>2</v>
@@ -6512,25 +6512,25 @@
         <v>38</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U20" s="4">
         <v>5</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W20" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="X20" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>529</v>
       </c>
       <c r="Y20" s="3">
         <v>2</v>
@@ -6605,10 +6605,10 @@
         <v>38</v>
       </c>
       <c r="AW20" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AX20" s="10" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AY20" s="8"/>
     </row>
@@ -6629,10 +6629,10 @@
         <v>939998896</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>35</v>
@@ -6647,11 +6647,11 @@
         <v>79</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O21" s="3">
         <v>2</v>
@@ -6663,25 +6663,25 @@
         <v>38</v>
       </c>
       <c r="R21" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S21" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T21" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="U21" s="4">
         <v>5</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Y21" s="3">
         <v>4</v>
@@ -6756,7 +6756,7 @@
         <v>38</v>
       </c>
       <c r="AW21" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX21" s="8"/>
       <c r="AY21" s="8"/>
@@ -6772,16 +6772,16 @@
         <v>62</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E22" s="3">
         <v>988275571</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>35</v>
@@ -6796,11 +6796,11 @@
         <v>58</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O22" s="3">
         <v>2</v>
@@ -6812,25 +6812,25 @@
         <v>38</v>
       </c>
       <c r="R22" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S22" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T22" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U22" s="4">
         <v>4</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Y22" s="3">
         <v>2</v>
@@ -6905,10 +6905,10 @@
         <v>38</v>
       </c>
       <c r="AW22" s="7" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AX22" s="10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AY22" s="8"/>
     </row>
@@ -6929,7 +6929,7 @@
         <v>993179418</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>80</v>
@@ -6947,11 +6947,11 @@
         <v>81</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O23" s="3">
         <v>2</v>
@@ -6963,25 +6963,25 @@
         <v>38</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U23" s="4">
         <v>5</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Y23" s="3">
         <v>2</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AK23" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AL23" s="3" t="s">
         <v>42</v>
@@ -7044,7 +7044,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AT23" s="3" t="s">
         <v>44</v>
@@ -7056,10 +7056,10 @@
         <v>38</v>
       </c>
       <c r="AW23" s="7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AX23" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AY23" s="8"/>
     </row>
@@ -7074,16 +7074,16 @@
         <v>62</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E24" s="3">
         <v>992121769</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>57</v>
@@ -7098,11 +7098,11 @@
         <v>83</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O24" s="3">
         <v>2</v>
@@ -7114,25 +7114,25 @@
         <v>38</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U24" s="4">
         <v>3</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Y24" s="3">
         <v>3</v>
@@ -7207,7 +7207,7 @@
         <v>38</v>
       </c>
       <c r="AW24" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX24" s="8"/>
       <c r="AY24" s="8"/>
@@ -7223,22 +7223,22 @@
         <v>62</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E25" s="3">
         <v>986709948</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>36</v>
@@ -7247,11 +7247,11 @@
         <v>54</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O25" s="3">
         <v>2</v>
@@ -7263,25 +7263,25 @@
         <v>38</v>
       </c>
       <c r="R25" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S25" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S25" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T25" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U25" s="4">
         <v>3</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Y25" s="3">
         <v>3</v>
@@ -7356,10 +7356,10 @@
         <v>38</v>
       </c>
       <c r="AW25" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AX25" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AY25" s="8"/>
     </row>
@@ -7374,13 +7374,13 @@
         <v>62</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E26" s="3">
         <v>982944163</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>85</v>
@@ -7398,11 +7398,11 @@
         <v>54</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O26" s="3">
         <v>5</v>
@@ -7414,25 +7414,25 @@
         <v>38</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U26" s="4">
         <v>3</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Y26" s="3">
         <v>5</v>
@@ -7507,10 +7507,10 @@
         <v>38</v>
       </c>
       <c r="AW26" s="7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AX26" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AY26" s="8"/>
     </row>
@@ -7525,13 +7525,13 @@
         <v>62</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E27" s="3">
         <v>939468990</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>87</v>
@@ -7549,11 +7549,11 @@
         <v>58</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O27" s="3">
         <v>2</v>
@@ -7565,25 +7565,25 @@
         <v>38</v>
       </c>
       <c r="R27" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S27" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T27" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="U27" s="4">
         <v>4</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Y27" s="3">
         <v>4</v>
@@ -7658,7 +7658,7 @@
         <v>38</v>
       </c>
       <c r="AW27" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX27" s="8"/>
       <c r="AY27" s="8"/>
@@ -7674,16 +7674,16 @@
         <v>62</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E28" s="3">
         <v>980904460</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>35</v>
@@ -7698,13 +7698,13 @@
         <v>58</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O28" s="3">
         <v>4</v>
@@ -7716,25 +7716,25 @@
         <v>36</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="U28" s="4">
         <v>4</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Y28" s="3">
         <v>2</v>
@@ -7809,7 +7809,7 @@
         <v>38</v>
       </c>
       <c r="AW28" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX28" s="8"/>
       <c r="AY28" s="8"/>
@@ -7831,16 +7831,16 @@
         <v>993041863</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>36</v>
@@ -7849,11 +7849,11 @@
         <v>89</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O29" s="3">
         <v>2</v>
@@ -7865,25 +7865,25 @@
         <v>38</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="U29" s="4">
         <v>3</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W29" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="X29" s="3" t="s">
         <v>538</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>539</v>
       </c>
       <c r="Y29" s="3">
         <v>1</v>
@@ -7958,10 +7958,10 @@
         <v>38</v>
       </c>
       <c r="AW29" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AX29" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AY29" s="8"/>
     </row>
@@ -7982,16 +7982,16 @@
         <v>994108661</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>77</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>36</v>
@@ -8000,11 +8000,11 @@
         <v>37</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O30" s="3">
         <v>1</v>
@@ -8016,25 +8016,25 @@
         <v>38</v>
       </c>
       <c r="R30" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S30" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S30" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T30" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U30" s="4">
         <v>3</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Y30" s="3">
         <v>3</v>
@@ -8109,10 +8109,10 @@
         <v>38</v>
       </c>
       <c r="AW30" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AX30" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AY30" s="8"/>
     </row>
@@ -8133,10 +8133,10 @@
         <v>967437524</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>35</v>
@@ -8151,11 +8151,11 @@
         <v>37</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O31" s="3">
         <v>2</v>
@@ -8167,25 +8167,25 @@
         <v>38</v>
       </c>
       <c r="R31" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S31" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S31" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T31" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U31" s="4">
         <v>3</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Y31" s="3">
         <v>3</v>
@@ -8260,7 +8260,7 @@
         <v>38</v>
       </c>
       <c r="AW31" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX31" s="8"/>
       <c r="AY31" s="8"/>
@@ -8282,10 +8282,10 @@
         <v>967078713</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>77</v>
@@ -8300,11 +8300,11 @@
         <v>91</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O32" s="3">
         <v>1</v>
@@ -8316,25 +8316,25 @@
         <v>38</v>
       </c>
       <c r="R32" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S32" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T32" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U32" s="4">
         <v>3</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Y32" s="3">
         <v>1</v>
@@ -8409,7 +8409,7 @@
         <v>38</v>
       </c>
       <c r="AW32" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX32" s="8"/>
       <c r="AY32" s="8"/>
@@ -8431,16 +8431,16 @@
         <v>985550956</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>36</v>
@@ -8449,11 +8449,11 @@
         <v>91</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O33" s="3">
         <v>1</v>
@@ -8465,25 +8465,25 @@
         <v>38</v>
       </c>
       <c r="R33" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S33" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T33" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U33" s="4">
         <v>3</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Y33" s="3">
         <v>2</v>
@@ -8558,7 +8558,7 @@
         <v>38</v>
       </c>
       <c r="AW33" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX33" s="8"/>
       <c r="AY33" s="8"/>
@@ -8580,7 +8580,7 @@
         <v>992305288</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>95</v>
@@ -8595,14 +8595,14 @@
         <v>36</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O34" s="3">
         <v>5</v>
@@ -8614,25 +8614,25 @@
         <v>38</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U34" s="4">
         <v>3</v>
       </c>
       <c r="V34" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="W34" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="X34" s="3" t="s">
         <v>553</v>
-      </c>
-      <c r="W34" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="X34" s="3" t="s">
-        <v>554</v>
       </c>
       <c r="Y34" s="3">
         <v>1</v>
@@ -8707,7 +8707,7 @@
         <v>38</v>
       </c>
       <c r="AW34" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX34" s="8"/>
       <c r="AY34" s="8"/>
@@ -8729,7 +8729,7 @@
         <v>9599997990</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>97</v>
@@ -8744,14 +8744,14 @@
         <v>36</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O35" s="3">
         <v>5</v>
@@ -8763,25 +8763,25 @@
         <v>38</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U35" s="4">
         <v>3</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Y35" s="3">
         <v>1</v>
@@ -8856,14 +8856,14 @@
         <v>38</v>
       </c>
       <c r="AW35" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX35" s="8"/>
       <c r="AY35" s="8"/>
     </row>
     <row r="36" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>32</v>
@@ -8878,10 +8878,10 @@
         <v>939780206</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>35</v>
@@ -8893,14 +8893,14 @@
         <v>36</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O36" s="3">
         <v>5</v>
@@ -8912,25 +8912,25 @@
         <v>38</v>
       </c>
       <c r="R36" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="S36" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="S36" s="3" t="s">
-        <v>560</v>
-      </c>
       <c r="T36" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="U36" s="4">
         <v>7</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="X36" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="Y36" s="3">
         <v>3</v>
@@ -9005,7 +9005,7 @@
         <v>38</v>
       </c>
       <c r="AW36" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX36" s="8"/>
       <c r="AY36" s="8"/>
@@ -9027,10 +9027,10 @@
         <v>998313039</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>66</v>
@@ -9042,14 +9042,14 @@
         <v>36</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O37" s="3">
         <v>2</v>
@@ -9061,25 +9061,25 @@
         <v>38</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="U37" s="4">
         <v>3.5</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X37" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Y37" s="3">
         <v>3</v>
@@ -9154,14 +9154,14 @@
         <v>38</v>
       </c>
       <c r="AW37" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX37" s="8"/>
       <c r="AY37" s="8"/>
     </row>
     <row r="38" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>32</v>
@@ -9176,10 +9176,10 @@
         <v>959024149</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>35</v>
@@ -9191,14 +9191,14 @@
         <v>36</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O38" s="3">
         <v>2</v>
@@ -9210,25 +9210,25 @@
         <v>38</v>
       </c>
       <c r="R38" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S38" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S38" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T38" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U38" s="4">
         <v>3.5</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X38" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Y38" s="3">
         <v>3</v>
@@ -9264,7 +9264,7 @@
         <v>41</v>
       </c>
       <c r="AJ38" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AK38" s="3" t="s">
         <v>36</v>
@@ -9288,7 +9288,7 @@
         <v>36</v>
       </c>
       <c r="AR38" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AS38" s="3" t="s">
         <v>36</v>
@@ -9303,7 +9303,7 @@
         <v>38</v>
       </c>
       <c r="AW38" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX38" s="8"/>
       <c r="AY38" s="8"/>
@@ -9325,10 +9325,10 @@
         <v>991276907</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>35</v>
@@ -9340,14 +9340,14 @@
         <v>36</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O39" s="3">
         <v>3</v>
@@ -9359,25 +9359,25 @@
         <v>36</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U39" s="4">
         <v>2</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X39" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Y39" s="3">
         <v>2</v>
@@ -9452,14 +9452,14 @@
         <v>38</v>
       </c>
       <c r="AW39" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX39" s="8"/>
       <c r="AY39" s="8"/>
     </row>
     <row r="40" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>32</v>
@@ -9474,7 +9474,7 @@
         <v>969349587</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>103</v>
@@ -9483,7 +9483,7 @@
         <v>35</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>36</v>
@@ -9492,11 +9492,11 @@
         <v>91</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M40" s="3"/>
       <c r="N40" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O40" s="3">
         <v>1</v>
@@ -9508,25 +9508,25 @@
         <v>38</v>
       </c>
       <c r="R40" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S40" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S40" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T40" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U40" s="4">
         <v>3</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="W40" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="X40" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="X40" s="3" t="s">
-        <v>529</v>
       </c>
       <c r="Y40" s="3">
         <v>2</v>
@@ -9601,14 +9601,14 @@
         <v>38</v>
       </c>
       <c r="AW40" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX40" s="8"/>
       <c r="AY40" s="8"/>
     </row>
     <row r="41" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>36</v>
@@ -9623,7 +9623,7 @@
         <v>981670898</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>104</v>
@@ -9632,7 +9632,7 @@
         <v>35</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>36</v>
@@ -9641,11 +9641,11 @@
         <v>91</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M41" s="3"/>
       <c r="N41" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O41" s="3">
         <v>2</v>
@@ -9657,25 +9657,25 @@
         <v>38</v>
       </c>
       <c r="R41" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S41" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T41" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U41" s="4">
         <v>3</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W41" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="X41" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>529</v>
       </c>
       <c r="Y41" s="3">
         <v>2</v>
@@ -9750,10 +9750,10 @@
         <v>38</v>
       </c>
       <c r="AW41" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AX41" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AY41" s="8"/>
     </row>
@@ -9768,16 +9768,16 @@
         <v>102</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E42" s="3">
         <v>991347799</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>35</v>
@@ -9792,13 +9792,13 @@
         <v>106</v>
       </c>
       <c r="L42" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="M42" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>567</v>
-      </c>
       <c r="N42" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O42" s="3">
         <v>2</v>
@@ -9810,25 +9810,25 @@
         <v>38</v>
       </c>
       <c r="R42" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S42" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T42" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U42" s="4">
         <v>7</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Y42" s="3">
         <v>3</v>
@@ -9867,13 +9867,13 @@
         <v>16</v>
       </c>
       <c r="AK42" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AL42" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM42" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AN42" s="3" t="s">
         <v>32</v>
@@ -9891,7 +9891,7 @@
         <v>5</v>
       </c>
       <c r="AS42" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AT42" s="3" t="s">
         <v>107</v>
@@ -9903,10 +9903,10 @@
         <v>38</v>
       </c>
       <c r="AW42" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AX42" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AY42" s="8"/>
     </row>
@@ -9921,16 +9921,16 @@
         <v>102</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E43" s="3">
         <v>997194675</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>35</v>
@@ -9945,13 +9945,13 @@
         <v>109</v>
       </c>
       <c r="L43" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="M43" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>569</v>
-      </c>
       <c r="N43" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O43" s="3">
         <v>5</v>
@@ -9963,25 +9963,25 @@
         <v>38</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="U43" s="4">
         <v>8</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Y43" s="3">
         <v>3</v>
@@ -10020,13 +10020,13 @@
         <v>5</v>
       </c>
       <c r="AK43" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AL43" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM43" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AN43" s="3" t="s">
         <v>32</v>
@@ -10044,7 +10044,7 @@
         <v>3</v>
       </c>
       <c r="AS43" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AT43" s="3" t="s">
         <v>107</v>
@@ -10056,16 +10056,16 @@
         <v>38</v>
       </c>
       <c r="AW43" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AX43" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AY43" s="8"/>
     </row>
     <row r="44" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>32</v>
@@ -10080,7 +10080,7 @@
         <v>962983944</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>111</v>
@@ -10095,14 +10095,14 @@
         <v>36</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O44" s="3">
         <v>6</v>
@@ -10114,25 +10114,25 @@
         <v>38</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="U44" s="4">
         <v>5.5</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Y44" s="3">
         <v>10</v>
@@ -10171,13 +10171,13 @@
         <v>6</v>
       </c>
       <c r="AK44" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AL44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM44" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AN44" s="3" t="s">
         <v>84</v>
@@ -10207,16 +10207,16 @@
         <v>38</v>
       </c>
       <c r="AW44" s="7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AX44" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AY44" s="8"/>
     </row>
     <row r="45" spans="1:51" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>723</v>
+        <v>741</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>32</v>
@@ -10231,7 +10231,7 @@
         <v>989524512</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>114</v>
@@ -10246,14 +10246,14 @@
         <v>36</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O45" s="3">
         <v>5</v>
@@ -10265,25 +10265,25 @@
         <v>38</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T45" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="U45" s="4">
         <v>5</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="Y45" s="3">
         <v>3</v>
@@ -10322,13 +10322,13 @@
         <v>3</v>
       </c>
       <c r="AK45" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AL45" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM45" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AN45" s="3" t="s">
         <v>32</v>
@@ -10358,10 +10358,10 @@
         <v>38</v>
       </c>
       <c r="AW45" s="7" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AX45" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AY45" s="8"/>
     </row>
@@ -10382,7 +10382,7 @@
         <v>959569399</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>116</v>
@@ -10397,14 +10397,14 @@
         <v>36</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O46" s="3">
         <v>10</v>
@@ -10416,25 +10416,25 @@
         <v>38</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="U46" s="4">
         <v>7</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Y46" s="3">
         <v>4</v>
@@ -10473,7 +10473,7 @@
         <v>4</v>
       </c>
       <c r="AK46" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AL46" s="3" t="s">
         <v>46</v>
@@ -10509,7 +10509,7 @@
         <v>38</v>
       </c>
       <c r="AW46" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX46" s="8"/>
       <c r="AY46" s="8"/>
@@ -10531,7 +10531,7 @@
         <v>72640148</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>117</v>
@@ -10546,16 +10546,16 @@
         <v>36</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O47" s="3">
         <v>6</v>
@@ -10567,25 +10567,25 @@
         <v>38</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="U47" s="4">
         <v>10.5</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="W47" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="X47" s="3" t="s">
         <v>538</v>
-      </c>
-      <c r="X47" s="3" t="s">
-        <v>539</v>
       </c>
       <c r="Y47" s="3">
         <v>4</v>
@@ -10624,13 +10624,13 @@
         <v>10</v>
       </c>
       <c r="AK47" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AL47" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM47" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AN47" s="3" t="s">
         <v>32</v>
@@ -10660,7 +10660,7 @@
         <v>38</v>
       </c>
       <c r="AW47" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX47" s="8"/>
       <c r="AY47" s="8"/>
@@ -10682,10 +10682,10 @@
         <v>992250697</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>35</v>
@@ -10700,13 +10700,13 @@
         <v>119</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O48" s="3">
         <v>3</v>
@@ -10718,25 +10718,25 @@
         <v>38</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="U48" s="4">
         <v>3.5</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y48" s="3">
         <v>3</v>
@@ -10775,7 +10775,7 @@
         <v>15</v>
       </c>
       <c r="AK48" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AL48" s="3" t="s">
         <v>46</v>
@@ -10811,10 +10811,10 @@
         <v>38</v>
       </c>
       <c r="AW48" s="7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AX48" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AY48" s="8"/>
     </row>
@@ -10835,7 +10835,7 @@
         <v>960288270</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>121</v>
@@ -10850,16 +10850,16 @@
         <v>36</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L49" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="M49" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>582</v>
-      </c>
       <c r="N49" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O49" s="3">
         <v>7</v>
@@ -10871,25 +10871,25 @@
         <v>38</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="U49" s="4">
         <v>5</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="W49" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="X49" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="X49" s="3" t="s">
-        <v>529</v>
       </c>
       <c r="Y49" s="3">
         <v>3</v>
@@ -10928,13 +10928,13 @@
         <v>4</v>
       </c>
       <c r="AK49" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AL49" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM49" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AN49" s="3" t="s">
         <v>32</v>
@@ -10949,10 +10949,10 @@
         <v>36</v>
       </c>
       <c r="AR49" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AS49" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AT49" s="3" t="s">
         <v>44</v>
@@ -10964,14 +10964,14 @@
         <v>38</v>
       </c>
       <c r="AW49" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX49" s="8"/>
       <c r="AY49" s="8"/>
     </row>
     <row r="50" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>32</v>
@@ -10986,10 +10986,10 @@
         <v>988271410</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>35</v>
@@ -11001,14 +11001,14 @@
         <v>36</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M50" s="3"/>
       <c r="N50" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O50" s="3">
         <v>3</v>
@@ -11020,25 +11020,25 @@
         <v>36</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="U50" s="4">
         <v>3.5</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="Y50" s="3">
         <v>3</v>
@@ -11113,16 +11113,16 @@
         <v>38</v>
       </c>
       <c r="AW50" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AX50" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AY50" s="8"/>
     </row>
     <row r="51" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>32</v>
@@ -11137,7 +11137,7 @@
         <v>992670070</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>122</v>
@@ -11152,14 +11152,14 @@
         <v>36</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O51" s="3">
         <v>4</v>
@@ -11171,25 +11171,25 @@
         <v>36</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="U51" s="4">
         <v>4</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Y51" s="3">
         <v>1</v>
@@ -11228,13 +11228,13 @@
         <v>8</v>
       </c>
       <c r="AK51" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AL51" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM51" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AN51" s="3" t="s">
         <v>32</v>
@@ -11264,7 +11264,7 @@
         <v>38</v>
       </c>
       <c r="AW51" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX51" s="8"/>
       <c r="AY51" s="8"/>
@@ -11286,10 +11286,10 @@
         <v>939767460</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>35</v>
@@ -11301,14 +11301,14 @@
         <v>36</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O52" s="3">
         <v>5</v>
@@ -11320,25 +11320,25 @@
         <v>36</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="U52" s="4">
         <v>7</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="Y52" s="3">
         <v>7</v>
@@ -11377,13 +11377,13 @@
         <v>4</v>
       </c>
       <c r="AK52" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AL52" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM52" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AN52" s="3" t="s">
         <v>32</v>
@@ -11413,16 +11413,16 @@
         <v>38</v>
       </c>
       <c r="AW52" s="7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AX52" s="8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AY52" s="8"/>
     </row>
     <row r="53" spans="1:51" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>32</v>
@@ -11437,10 +11437,10 @@
         <v>991364262</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>57</v>
@@ -11455,11 +11455,11 @@
         <v>124</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O53" s="3">
         <v>6</v>
@@ -11471,25 +11471,25 @@
         <v>38</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="U53" s="4">
         <v>3</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X53" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Y53" s="3">
         <v>2</v>
@@ -11528,7 +11528,7 @@
         <v>6</v>
       </c>
       <c r="AK53" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AL53" s="3" t="s">
         <v>42</v>
@@ -11564,14 +11564,14 @@
         <v>38</v>
       </c>
       <c r="AW53" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX53" s="8"/>
       <c r="AY53" s="8"/>
     </row>
     <row r="54" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>32</v>
@@ -11586,7 +11586,7 @@
         <v>72735773</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>126</v>
@@ -11601,14 +11601,14 @@
         <v>36</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O54" s="3">
         <v>3</v>
@@ -11620,25 +11620,25 @@
         <v>36</v>
       </c>
       <c r="R54" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S54" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T54" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="U54" s="4">
         <v>3</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X54" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="Y54" s="3">
         <v>7</v>
@@ -11713,16 +11713,16 @@
         <v>38</v>
       </c>
       <c r="AW54" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AX54" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AY54" s="8"/>
     </row>
     <row r="55" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>32</v>
@@ -11737,10 +11737,10 @@
         <v>979802166</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>35</v>
@@ -11752,14 +11752,14 @@
         <v>36</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M55" s="3"/>
       <c r="N55" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O55" s="3">
         <v>2</v>
@@ -11771,25 +11771,25 @@
         <v>36</v>
       </c>
       <c r="R55" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S55" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S55" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T55" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="U55" s="4">
         <v>3</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X55" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Y55" s="3">
         <v>3</v>
@@ -11864,10 +11864,10 @@
         <v>38</v>
       </c>
       <c r="AW55" s="7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AX55" s="10" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AY55" s="8"/>
     </row>
@@ -11888,10 +11888,10 @@
         <v>996259401</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>35</v>
@@ -11903,14 +11903,14 @@
         <v>36</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M56" s="3"/>
       <c r="N56" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O56" s="3">
         <v>2</v>
@@ -11922,25 +11922,25 @@
         <v>36</v>
       </c>
       <c r="R56" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S56" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S56" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T56" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="U56" s="4">
         <v>2.75</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X56" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="Y56" s="3">
         <v>3</v>
@@ -12015,10 +12015,10 @@
         <v>38</v>
       </c>
       <c r="AW56" s="7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AX56" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AY56" s="8"/>
     </row>
@@ -12039,10 +12039,10 @@
         <v>990716673</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>35</v>
@@ -12054,16 +12054,16 @@
         <v>36</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O57" s="3">
         <v>4</v>
@@ -12075,25 +12075,25 @@
         <v>38</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T57" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="U57" s="4">
         <v>5</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W57" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="X57" s="3" t="s">
         <v>538</v>
-      </c>
-      <c r="X57" s="3" t="s">
-        <v>539</v>
       </c>
       <c r="Y57" s="3">
         <v>2</v>
@@ -12129,16 +12129,16 @@
         <v>41</v>
       </c>
       <c r="AJ57" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AK57" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AL57" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM57" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AN57" s="3" t="s">
         <v>84</v>
@@ -12153,7 +12153,7 @@
         <v>36</v>
       </c>
       <c r="AR57" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AS57" s="3" t="s">
         <v>36</v>
@@ -12168,16 +12168,16 @@
         <v>38</v>
       </c>
       <c r="AW57" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AX57" s="10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AY57" s="8"/>
     </row>
     <row r="58" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>32</v>
@@ -12192,10 +12192,10 @@
         <v>988637307</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>35</v>
@@ -12207,16 +12207,16 @@
         <v>36</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L58" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="M58" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>591</v>
-      </c>
       <c r="N58" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O58" s="3">
         <v>1</v>
@@ -12228,25 +12228,25 @@
         <v>36</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="U58" s="4">
         <v>5.5</v>
       </c>
       <c r="V58" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X58" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Y58" s="3">
         <v>3</v>
@@ -12285,13 +12285,13 @@
         <v>4</v>
       </c>
       <c r="AK58" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AL58" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM58" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AN58" s="3" t="s">
         <v>32</v>
@@ -12321,10 +12321,10 @@
         <v>38</v>
       </c>
       <c r="AW58" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AX58" s="10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AY58" s="8"/>
     </row>
@@ -12345,10 +12345,10 @@
         <v>969647354</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>35</v>
@@ -12360,16 +12360,16 @@
         <v>36</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O59" s="3">
         <v>4</v>
@@ -12381,25 +12381,25 @@
         <v>36</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U59" s="4">
         <v>5</v>
       </c>
       <c r="V59" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W59" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="X59" s="3" t="s">
         <v>538</v>
-      </c>
-      <c r="X59" s="3" t="s">
-        <v>539</v>
       </c>
       <c r="Y59" s="3">
         <v>2</v>
@@ -12438,7 +12438,7 @@
         <v>4</v>
       </c>
       <c r="AK59" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AL59" s="3" t="s">
         <v>42</v>
@@ -12474,16 +12474,16 @@
         <v>38</v>
       </c>
       <c r="AW59" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AX59" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AY59" s="8"/>
     </row>
     <row r="60" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>36</v>
@@ -12492,16 +12492,16 @@
         <v>110</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E60" s="3">
         <v>939385851</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>35</v>
@@ -12516,13 +12516,13 @@
         <v>89</v>
       </c>
       <c r="L60" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="M60" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>595</v>
-      </c>
       <c r="N60" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O60" s="3">
         <v>2</v>
@@ -12534,25 +12534,25 @@
         <v>38</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T60" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="U60" s="4">
         <v>5</v>
       </c>
       <c r="V60" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W60" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="X60" s="3" t="s">
         <v>538</v>
-      </c>
-      <c r="X60" s="3" t="s">
-        <v>539</v>
       </c>
       <c r="Y60" s="3">
         <v>3</v>
@@ -12591,13 +12591,13 @@
         <v>4</v>
       </c>
       <c r="AK60" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AL60" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM60" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AN60" s="3" t="s">
         <v>32</v>
@@ -12615,7 +12615,7 @@
         <v>6</v>
       </c>
       <c r="AS60" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AT60" s="3" t="s">
         <v>107</v>
@@ -12627,16 +12627,16 @@
         <v>38</v>
       </c>
       <c r="AW60" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AX60" s="8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AY60" s="8"/>
     </row>
     <row r="61" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>32</v>
@@ -12645,16 +12645,16 @@
         <v>110</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E61" s="3">
         <v>989804020</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>35</v>
@@ -12666,16 +12666,16 @@
         <v>36</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L61" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="M61" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="M61" s="3" t="s">
-        <v>598</v>
-      </c>
       <c r="N61" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O61" s="3">
         <v>4</v>
@@ -12687,25 +12687,25 @@
         <v>38</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T61" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="U61" s="4">
         <v>8</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="W61" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X61" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Y61" s="3">
         <v>4</v>
@@ -12744,13 +12744,13 @@
         <v>4</v>
       </c>
       <c r="AK61" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL61" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM61" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AN61" s="3" t="s">
         <v>32</v>
@@ -12768,7 +12768,7 @@
         <v>4</v>
       </c>
       <c r="AS61" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT61" s="3" t="s">
         <v>107</v>
@@ -12780,16 +12780,16 @@
         <v>38</v>
       </c>
       <c r="AW61" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AX61" s="8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AY61" s="8"/>
     </row>
     <row r="62" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>32</v>
@@ -12798,16 +12798,16 @@
         <v>110</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E62" s="3">
         <v>980882809</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>35</v>
@@ -12819,16 +12819,16 @@
         <v>36</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L62" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="M62" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>601</v>
-      </c>
       <c r="N62" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O62" s="3">
         <v>10</v>
@@ -12840,25 +12840,25 @@
         <v>38</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T62" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="U62" s="4">
         <v>7</v>
       </c>
       <c r="V62" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="W62" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="X62" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Y62" s="3">
         <v>10</v>
@@ -12897,13 +12897,13 @@
         <v>15</v>
       </c>
       <c r="AK62" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AL62" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM62" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AN62" s="3" t="s">
         <v>32</v>
@@ -12915,7 +12915,7 @@
         <v>50</v>
       </c>
       <c r="AQ62" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AR62" s="3">
         <v>3</v>
@@ -12933,10 +12933,10 @@
         <v>38</v>
       </c>
       <c r="AW62" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AX62" s="10" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AY62" s="8"/>
     </row>
@@ -12951,16 +12951,16 @@
         <v>110</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E63" s="3">
         <v>984934506</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>35</v>
@@ -12972,16 +12972,16 @@
         <v>36</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L63" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="M63" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="M63" s="3" t="s">
-        <v>603</v>
-      </c>
       <c r="N63" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O63" s="3">
         <v>7</v>
@@ -12996,22 +12996,22 @@
         <v>99</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="T63" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U63" s="4">
         <v>7</v>
       </c>
       <c r="V63" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="W63" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X63" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Y63" s="3">
         <v>5</v>
@@ -13050,13 +13050,13 @@
         <v>5</v>
       </c>
       <c r="AK63" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AL63" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM63" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AN63" s="3" t="s">
         <v>32</v>
@@ -13065,7 +13065,7 @@
         <v>6</v>
       </c>
       <c r="AP63" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AQ63" s="3" t="s">
         <v>36</v>
@@ -13074,7 +13074,7 @@
         <v>26</v>
       </c>
       <c r="AS63" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AT63" s="3" t="s">
         <v>44</v>
@@ -13086,14 +13086,14 @@
         <v>38</v>
       </c>
       <c r="AW63" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX63" s="8"/>
       <c r="AY63" s="8"/>
     </row>
     <row r="64" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>32</v>
@@ -13102,16 +13102,16 @@
         <v>93</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E64" s="3">
         <v>997382881</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>35</v>
@@ -13123,16 +13123,16 @@
         <v>36</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O64" s="3">
         <v>8</v>
@@ -13144,25 +13144,25 @@
         <v>38</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="T64" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="U64" s="4">
         <v>5.5</v>
       </c>
       <c r="V64" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="W64" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X64" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Y64" s="3">
         <v>2</v>
@@ -13201,7 +13201,7 @@
         <v>6</v>
       </c>
       <c r="AK64" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AL64" s="3" t="s">
         <v>46</v>
@@ -13225,7 +13225,7 @@
         <v>1</v>
       </c>
       <c r="AS64" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AT64" s="3" t="s">
         <v>44</v>
@@ -13237,7 +13237,7 @@
         <v>38</v>
       </c>
       <c r="AW64" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX64" s="8"/>
       <c r="AY64" s="8"/>
@@ -13259,10 +13259,10 @@
         <v>992714781</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>35</v>
@@ -13274,14 +13274,14 @@
         <v>36</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M65" s="3"/>
       <c r="N65" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O65" s="3">
         <v>5</v>
@@ -13293,25 +13293,25 @@
         <v>38</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T65" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="U65" s="4">
         <v>3</v>
       </c>
       <c r="V65" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="W65" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X65" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Y65" s="3">
         <v>1</v>
@@ -13350,13 +13350,13 @@
         <v>5</v>
       </c>
       <c r="AK65" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AL65" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM65" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AN65" s="3" t="s">
         <v>32</v>
@@ -13386,7 +13386,7 @@
         <v>38</v>
       </c>
       <c r="AW65" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX65" s="8"/>
       <c r="AY65" s="8"/>
@@ -13402,16 +13402,16 @@
         <v>110</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E66" s="3">
         <v>987192802</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>35</v>
@@ -13423,14 +13423,14 @@
         <v>36</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M66" s="3"/>
       <c r="N66" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O66" s="3">
         <v>3</v>
@@ -13442,25 +13442,25 @@
         <v>38</v>
       </c>
       <c r="R66" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S66" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T66" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="U66" s="4">
         <v>3</v>
       </c>
       <c r="V66" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W66" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X66" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Y66" s="3">
         <v>2</v>
@@ -13499,7 +13499,7 @@
         <v>16</v>
       </c>
       <c r="AK66" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AL66" s="3" t="s">
         <v>46</v>
@@ -13535,10 +13535,10 @@
         <v>38</v>
       </c>
       <c r="AW66" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AX66" s="10" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AY66" s="8"/>
     </row>
@@ -13559,10 +13559,10 @@
         <v>991322614</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>35</v>
@@ -13574,14 +13574,14 @@
         <v>36</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="M67" s="3"/>
       <c r="N67" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O67" s="3">
         <v>6</v>
@@ -13593,25 +13593,25 @@
         <v>38</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="T67" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="U67" s="4">
         <v>3.5</v>
       </c>
       <c r="V67" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W67" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X67" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Y67" s="3">
         <v>4</v>
@@ -13686,7 +13686,7 @@
         <v>38</v>
       </c>
       <c r="AW67" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX67" s="8"/>
       <c r="AY67" s="8"/>
@@ -13699,7 +13699,7 @@
         <v>32</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>94</v>
@@ -13708,10 +13708,10 @@
         <v>969306278</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>35</v>
@@ -13723,16 +13723,16 @@
         <v>36</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O68" s="3">
         <v>7</v>
@@ -13744,25 +13744,25 @@
         <v>38</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="T68" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U68" s="4">
         <v>5</v>
       </c>
       <c r="V68" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W68" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X68" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Y68" s="3">
         <v>5</v>
@@ -13801,13 +13801,13 @@
         <v>4</v>
       </c>
       <c r="AK68" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AL68" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM68" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AN68" s="3" t="s">
         <v>32</v>
@@ -13837,10 +13837,10 @@
         <v>38</v>
       </c>
       <c r="AW68" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AX68" s="10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AY68" s="8"/>
     </row>
@@ -13855,16 +13855,16 @@
         <v>93</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E69" s="3">
         <v>991860378</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>35</v>
@@ -13876,16 +13876,16 @@
         <v>36</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O69" s="3">
         <v>12</v>
@@ -13897,25 +13897,25 @@
         <v>38</v>
       </c>
       <c r="R69" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T69" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="U69" s="4">
         <v>5</v>
       </c>
       <c r="V69" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="W69" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X69" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Y69" s="3">
         <v>3</v>
@@ -13954,13 +13954,13 @@
         <v>8</v>
       </c>
       <c r="AK69" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AL69" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM69" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AN69" s="3" t="s">
         <v>32</v>
@@ -13978,7 +13978,7 @@
         <v>3</v>
       </c>
       <c r="AS69" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AT69" s="3" t="s">
         <v>44</v>
@@ -13990,7 +13990,7 @@
         <v>38</v>
       </c>
       <c r="AW69" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX69" s="8"/>
       <c r="AY69" s="8"/>
@@ -14006,16 +14006,16 @@
         <v>110</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E70" s="3">
         <v>987979144</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>35</v>
@@ -14027,16 +14027,16 @@
         <v>36</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O70" s="3">
         <v>6</v>
@@ -14048,25 +14048,25 @@
         <v>38</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T70" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="U70" s="4">
         <v>12</v>
       </c>
       <c r="V70" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="W70" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X70" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Y70" s="3">
         <v>2</v>
@@ -14090,7 +14090,7 @@
         <v>-4.2401593999999996</v>
       </c>
       <c r="AF70" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG70" s="3" t="s">
         <v>36</v>
@@ -14105,13 +14105,13 @@
         <v>12</v>
       </c>
       <c r="AK70" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AL70" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM70" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AN70" s="3" t="s">
         <v>32</v>
@@ -14141,10 +14141,10 @@
         <v>38</v>
       </c>
       <c r="AW70" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AX70" s="10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AY70" s="8"/>
     </row>
@@ -14156,19 +14156,19 @@
         <v>32</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E71" s="3">
         <v>984234395</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>35</v>
@@ -14180,16 +14180,16 @@
         <v>36</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L71" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="M71" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="M71" s="3" t="s">
-        <v>617</v>
-      </c>
       <c r="N71" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O71" s="3">
         <v>10</v>
@@ -14201,25 +14201,25 @@
         <v>38</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T71" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="U71" s="4">
         <v>10</v>
       </c>
       <c r="V71" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="W71" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X71" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Y71" s="3">
         <v>2</v>
@@ -14258,13 +14258,13 @@
         <v>12</v>
       </c>
       <c r="AK71" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AL71" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM71" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN71" s="3" t="s">
         <v>32</v>
@@ -14282,7 +14282,7 @@
         <v>4</v>
       </c>
       <c r="AS71" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AT71" s="3" t="s">
         <v>107</v>
@@ -14294,10 +14294,10 @@
         <v>38</v>
       </c>
       <c r="AW71" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AX71" s="10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AY71" s="8"/>
     </row>
@@ -14318,10 +14318,10 @@
         <v>989577107</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>57</v>
@@ -14333,14 +14333,14 @@
         <v>36</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M72" s="3"/>
       <c r="N72" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O72" s="3">
         <v>7</v>
@@ -14352,25 +14352,25 @@
         <v>38</v>
       </c>
       <c r="R72" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="T72" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="U72" s="4">
         <v>1</v>
       </c>
       <c r="V72" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="W72" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X72" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Y72" s="3">
         <v>4</v>
@@ -14409,13 +14409,13 @@
         <v>20</v>
       </c>
       <c r="AK72" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AL72" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM72" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AN72" s="3" t="s">
         <v>32</v>
@@ -14445,10 +14445,10 @@
         <v>38</v>
       </c>
       <c r="AW72" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AX72" s="10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AY72" s="8"/>
     </row>
@@ -14463,16 +14463,16 @@
         <v>110</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E73" s="3">
         <v>962876988</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>35</v>
@@ -14484,14 +14484,14 @@
         <v>36</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M73" s="3"/>
       <c r="N73" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O73" s="3">
         <v>5</v>
@@ -14503,25 +14503,25 @@
         <v>38</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="T73" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="U73" s="4">
         <v>3</v>
       </c>
       <c r="V73" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W73" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X73" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Y73" s="3">
         <v>2</v>
@@ -14545,7 +14545,7 @@
         <v>-4.2617066000000001</v>
       </c>
       <c r="AF73" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG73" s="3" t="s">
         <v>36</v>
@@ -14566,7 +14566,7 @@
         <v>46</v>
       </c>
       <c r="AM73" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AN73" s="3" t="s">
         <v>32</v>
@@ -14596,7 +14596,7 @@
         <v>38</v>
       </c>
       <c r="AW73" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX73" s="8"/>
       <c r="AY73" s="8"/>
@@ -14618,10 +14618,10 @@
         <v>939866173</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>35</v>
@@ -14633,14 +14633,14 @@
         <v>36</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M74" s="3"/>
       <c r="N74" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O74" s="3">
         <v>4</v>
@@ -14652,25 +14652,25 @@
         <v>38</v>
       </c>
       <c r="R74" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S74" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S74" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T74" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="U74" s="4">
         <v>3.5</v>
       </c>
       <c r="V74" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W74" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X74" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="Y74" s="3">
         <v>2</v>
@@ -14709,7 +14709,7 @@
         <v>10</v>
       </c>
       <c r="AK74" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AL74" s="3" t="s">
         <v>46</v>
@@ -14745,14 +14745,14 @@
         <v>38</v>
       </c>
       <c r="AW74" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX74" s="8"/>
       <c r="AY74" s="8"/>
     </row>
     <row r="75" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>32</v>
@@ -14767,10 +14767,10 @@
         <v>986925665</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>35</v>
@@ -14782,14 +14782,14 @@
         <v>36</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M75" s="3"/>
       <c r="N75" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O75" s="3">
         <v>3</v>
@@ -14801,25 +14801,25 @@
         <v>38</v>
       </c>
       <c r="R75" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S75" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S75" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T75" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="U75" s="4">
         <v>2.25</v>
       </c>
       <c r="V75" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="W75" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X75" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="Y75" s="3">
         <v>3</v>
@@ -14894,10 +14894,10 @@
         <v>38</v>
       </c>
       <c r="AW75" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AX75" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AY75" s="8"/>
     </row>
@@ -14912,16 +14912,16 @@
         <v>110</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E76" s="3">
         <v>985480644</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>35</v>
@@ -14933,16 +14933,16 @@
         <v>36</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O76" s="3">
         <v>5</v>
@@ -14954,25 +14954,25 @@
         <v>38</v>
       </c>
       <c r="R76" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T76" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="U76" s="4">
         <v>3.5</v>
       </c>
       <c r="V76" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W76" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X76" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Y76" s="3">
         <v>3</v>
@@ -15011,13 +15011,13 @@
         <v>5</v>
       </c>
       <c r="AK76" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AL76" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM76" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AN76" s="3" t="s">
         <v>32</v>
@@ -15047,32 +15047,32 @@
         <v>38</v>
       </c>
       <c r="AW76" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX76" s="8"/>
       <c r="AY76" s="8"/>
     </row>
     <row r="77" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E77" s="3">
         <v>96262869</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>35</v>
@@ -15084,16 +15084,16 @@
         <v>36</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O77" s="3">
         <v>3</v>
@@ -15105,25 +15105,25 @@
         <v>38</v>
       </c>
       <c r="R77" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="T77" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="U77" s="4">
         <v>6</v>
       </c>
       <c r="V77" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W77" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X77" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Y77" s="3">
         <v>2</v>
@@ -15162,7 +15162,7 @@
         <v>9</v>
       </c>
       <c r="AK77" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AL77" s="3" t="s">
         <v>42</v>
@@ -15186,7 +15186,7 @@
         <v>2</v>
       </c>
       <c r="AS77" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AT77" s="3" t="s">
         <v>44</v>
@@ -15198,7 +15198,7 @@
         <v>38</v>
       </c>
       <c r="AW77" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX77" s="8"/>
       <c r="AY77" s="8"/>
@@ -15214,16 +15214,16 @@
         <v>110</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E78" s="3">
         <v>939537782</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>35</v>
@@ -15235,14 +15235,14 @@
         <v>36</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M78" s="3"/>
       <c r="N78" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O78" s="3">
         <v>3</v>
@@ -15254,25 +15254,25 @@
         <v>38</v>
       </c>
       <c r="R78" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T78" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="U78" s="4">
         <v>3.5</v>
       </c>
       <c r="V78" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="W78" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X78" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Y78" s="3">
         <v>1</v>
@@ -15335,7 +15335,7 @@
         <v>1</v>
       </c>
       <c r="AS78" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AT78" s="3" t="s">
         <v>44</v>
@@ -15347,34 +15347,34 @@
         <v>38</v>
       </c>
       <c r="AW78" s="7" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AX78" s="10" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AY78" s="8"/>
     </row>
     <row r="79" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E79" s="3">
         <v>967800981</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>35</v>
@@ -15386,14 +15386,14 @@
         <v>36</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M79" s="3"/>
       <c r="N79" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O79" s="3">
         <v>3</v>
@@ -15405,25 +15405,25 @@
         <v>38</v>
       </c>
       <c r="R79" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S79" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="S79" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="T79" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U79" s="4">
         <v>2.5</v>
       </c>
       <c r="V79" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W79" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X79" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="Y79" s="3">
         <v>1</v>
@@ -15498,10 +15498,10 @@
         <v>38</v>
       </c>
       <c r="AW79" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AX79" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AY79" s="8"/>
     </row>
@@ -15513,19 +15513,19 @@
         <v>32</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E80" s="3">
         <v>995832522</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>57</v>
@@ -15537,16 +15537,16 @@
         <v>36</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O80" s="3">
         <v>4</v>
@@ -15558,25 +15558,25 @@
         <v>38</v>
       </c>
       <c r="R80" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="T80" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U80" s="4">
         <v>6</v>
       </c>
       <c r="V80" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W80" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X80" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="Y80" s="3">
         <v>2</v>
@@ -15651,16 +15651,16 @@
         <v>38</v>
       </c>
       <c r="AW80" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AX80" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AY80" s="8"/>
     </row>
     <row r="81" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
-        <v>175</v>
+        <v>743</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>32</v>
@@ -15669,16 +15669,16 @@
         <v>110</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E81" s="3">
         <v>989874633</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>66</v>
@@ -15690,16 +15690,16 @@
         <v>36</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N81" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O81" s="3">
         <v>5</v>
@@ -15711,25 +15711,25 @@
         <v>38</v>
       </c>
       <c r="R81" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="T81" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="U81" s="4">
         <v>3</v>
       </c>
       <c r="V81" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W81" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X81" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="Y81" s="3">
         <v>2</v>
@@ -15804,32 +15804,32 @@
         <v>38</v>
       </c>
       <c r="AW81" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AX81" s="8"/>
       <c r="AY81" s="8"/>
     </row>
     <row r="82" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E82" s="3">
         <v>995832522</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>57</v>
@@ -15841,16 +15841,16 @@
         <v>36</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O82" s="3">
         <v>4</v>
@@ -15862,19 +15862,19 @@
         <v>38</v>
       </c>
       <c r="R82" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="T82" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="U82" s="4">
         <v>6</v>
       </c>
       <c r="V82" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W82" s="6"/>
       <c r="X82" s="6"/>
@@ -15915,7 +15915,7 @@
         <v>10</v>
       </c>
       <c r="AK82" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AL82" s="3" t="s">
         <v>42</v>
@@ -15939,7 +15939,7 @@
         <v>1</v>
       </c>
       <c r="AS82" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AT82" s="3" t="s">
         <v>107</v>
@@ -15951,10 +15951,10 @@
         <v>38</v>
       </c>
       <c r="AW82" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AX82" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AY82" s="8"/>
     </row>

--- a/media/csv_uploads/gastronomia_establecimiento1.xlsx
+++ b/media/csv_uploads/gastronomia_establecimiento1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santigovinan/Documents/applications-django/emprendimientos/media/csv_uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47376FF7-F952-6C48-9697-98566348270C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2069B2-ECF5-3B42-9C9B-CB6EFEBEB827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="28940" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3045" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3050" uniqueCount="756">
   <si>
     <t>nombre</t>
   </si>
@@ -1319,12 +1319,6 @@
     <t>Trucha Frita Tradicional - Miel con quesillo - Horchata</t>
   </si>
   <si>
-    <t>-79, 2230683</t>
-  </si>
-  <si>
-    <t>-79, 2238493</t>
-  </si>
-  <si>
     <t>6 meses</t>
   </si>
   <si>
@@ -2265,6 +2259,48 @@
   </si>
   <si>
     <t>Pollo a la Brasa "Don Chinito"</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1768355336/BurguerRestaurantePapitas_SanPedrodeVilcabamba_prdftnn_web__hlx9y3.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1768355314/BurguerRestaurantePapitas_SanPedrodeVilcabamba_fachadahzt_web__dfsmak.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768355356/BurguerRestaurantePapitas_SanPedrodeVilcabamba_idnts_web__nqk6vl.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768355377/BurguerRestaurantePapitas_SanPedrodeVilcabamba_prdcenitpps_web__fq3ldn.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768355398/BurguerRestaurantePapitas_SanPedrodeVilcabamba_prdcentem_web__dpyvra.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768355419/BurguerRestaurantePapitas_SanPedrodeVilcabamba_prddetail_web__wmyj5j.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768355445/BurguerRestaurantePapitas_SanPedrodeVilcabamba06_fachada_web__w8u1ed.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768355478/BurguerRestaurantePapitas_SanPedrodeVilcabamba06_prodfnt_web__ax0gse.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1768355711/EstaderoSaborYTradicion_Santiago_fachada_web__i3vois.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1768355733/EstaderoSaborYTradicion_Santiago_fachadafrt_web__gcmjf1.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768355754/EstaderoSaborYTradicion_Santiago_fachadalgn_web__whmsha.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768355775/EstaderoSaborYTradicion_Santiago_ident_web__yzb3pq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768355796/EstaderoSaborYTradicion_Santiago_prdtfront_web__nhwslt.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768355839/EstaderoSaborYTradicion_Santiago_prodcontr_web__v23u0o.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768355861/EstaderoSaborYTradicion_Santiago_prodtruch_web__oymdva.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1768357082/Alivinatu_Vilcabamba_ext_web_so8k4y.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1768357128/Alivinatu_Vilcabamba_extse_web_o4pqsq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768357151/Alivinatu_Vilcabamba_identidad_web_sxfnwv.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768357173/Alivinatu_Vilcabamba_prod_web_f0l7jr.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768357197/Alivinatu_Vilcabamba_prodcent_web_x1nw5j.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768357243/Alivinatu_Vilcabamba_prodvert_web_ysymxi.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1768357409/DonChinito_Santiago30_fachada_web__cdsskf.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1768357435/DonChinito_Santiago30_prdtcent_web__nj2deh.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768357457/DonChinito_Santiago30_fachadadig_web__qsz9gd.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768357480/DonChinito_Santiago30_idnt_web__vvexsa.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768357525/DonChinito_Santiago30_prddgn_web__evjl1b.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768357549/DonChinito_Santiago30_prdtcentpps_web__uuzmd0.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768357575/DonChinito_Santiago30_prdtcentsp_web__i6wc8y.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768357600/DonChinito_Santiago30_prdtfrnt_web__isqm3t.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1768357853/LaCreperiadeYannick_Vilcabamba_fachadahrzt_web__pnoq7w.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1768357805/LaCreperiadeYannick_Vilcabamba_fachada_web__hy5uvk.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768357829/LaCreperiadeYannick_Vilcabamba_prdfront_web__hklylr.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768357876/LaCreperiadeYannick_Vilcabamba_ident_web__zsc1cl.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768357899/LaCreperiadeYannick_Vilcabamba_identvert_web__awp9ra.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768357926/LaCreperiadeYannick_Vilcabamba_intf_web__ddnvjx.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768357949/LaCreperiadeYannick_Vilcabamba_intfhzt_web__g7xsjp.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768357978/LaCreperiadeYannick_Vilcabamba_prddetailpd_web__fiigzv.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768358002/LaCreperiadeYannick_Vilcabamba_prdfrontpg_web__injgoq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768358032/LaCreperiadeYannick_Vilcabamba_prdfrovert_web__aablfj.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768358056/LaCreperiadeYannick_Vilcabamba_proddettale_web__btvdyj.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1768359127/UnitedFalafel_Vilcabamba_ext_web_ftnujh.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1768359131/UnitedFalafel_Vilcabamba_fachadaext_web_gbnbsb.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768359136/UnitedFalafel_Vilcabamba_fachaextint_web_yxkhnj.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768359140/UnitedFalafel_Vilcabamba_fachadint_web_ikkwmq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768359146/UnitedFalafel_Vilcabamba_intpg_web_yzlwud.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768359150/UnitedFalafel_Vilcabamba_ident_web_acirkd.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768359156/UnitedFalafel_Vilcabamba_prdctnt_web_bay44w.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768359160/UnitedFalafel_Vilcabamba_int_web_t0yhzz.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768359166/UnitedFalafel_Vilcabamba_prdftn_web_yq4mfj.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768359170/UnitedFalafel_Vilcabamba_prdcake_web_uy2ob8.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768359175/UnitedFalafel_Vilcabamba_prdcf_web_fzxnaj.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768359179/UnitedFalafel_Vilcabamba_prddtll_web_gj7m4n.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768359184/UnitedFalafel_Vilcabamba_prdetalle_web_u6zsnz.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1768359390/Vilkalitas_Vilcabamba_extfront_web__eez84d.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1768359396/Vilkalitas_Vilcabamba_fachada_web__m9oepb.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768359400/Vilkalitas_Vilcabamba_intfront_web__hnupog.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768359406/Vilkalitas_Vilcabamba_proddetal_web__qgqepz.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768359411/Vilkalitas_Vilcabamba_extfrt_web__brhrhn.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768359416/Vilkalitas_Vilcabamba_idnt_web__yr5gw2.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768359420/Vilkalitas_Vilcabamba_intr_web__motdwq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768359425/Vilkalitas_Vilcabamba_proddetals_web__z7bmdv.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768359436/Vilkalitas_Vilcabamba_prodft_web__vf6myl.jpg}</t>
   </si>
 </sst>
 </file>
@@ -2378,9 +2414,6 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2397,6 +2430,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3532,8 +3568,8 @@
   </sheetPr>
   <dimension ref="A1:AY82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A74" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="X65" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AF81" sqref="AF81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3633,10 +3669,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>13</v>
@@ -3648,40 +3684,40 @@
         <v>15</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>513</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>515</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>19</v>
@@ -3696,7 +3732,7 @@
         <v>22</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AJ1" s="2" t="s">
         <v>23</v>
@@ -3711,25 +3747,25 @@
         <v>26</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AO1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="AP1" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="AR1" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>520</v>
       </c>
       <c r="AS1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AU1" s="2" t="s">
         <v>29</v>
@@ -3738,13 +3774,13 @@
         <v>30</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AY1" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:51" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3782,7 +3818,7 @@
         <v>37</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3" t="s">
@@ -3798,10 +3834,10 @@
         <v>38</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>347</v>
@@ -3813,10 +3849,10 @@
         <v>206</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="Y2" s="3">
         <v>2</v>
@@ -3836,10 +3872,10 @@
       <c r="AD2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE2" s="5">
+      <c r="AE2" s="10">
         <v>-3.8795019989999999</v>
       </c>
-      <c r="AF2" s="5">
+      <c r="AF2" s="10">
         <v>-79.328793399999995</v>
       </c>
       <c r="AG2" s="3" t="s">
@@ -3887,14 +3923,14 @@
       <c r="AU2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="7" t="s">
-        <v>681</v>
-      </c>
-      <c r="AX2" s="10" t="s">
-        <v>632</v>
-      </c>
-      <c r="AY2" s="8"/>
+      <c r="AV2" s="5"/>
+      <c r="AW2" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="AX2" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="AY2" s="7"/>
     </row>
     <row r="3" spans="1:51" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
@@ -3931,7 +3967,7 @@
         <v>37</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
@@ -3947,10 +3983,10 @@
         <v>38</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>348</v>
@@ -3962,10 +3998,10 @@
         <v>206</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y3" s="3">
         <v>1</v>
@@ -3985,10 +4021,10 @@
       <c r="AD3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE3" s="5">
+      <c r="AE3" s="10">
         <v>-3.8836691029999999</v>
       </c>
-      <c r="AF3" s="5">
+      <c r="AF3" s="10">
         <v>-79.330903190000001</v>
       </c>
       <c r="AG3" s="3" t="s">
@@ -4039,13 +4075,13 @@
       <c r="AV3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW3" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="AX3" s="10" t="s">
-        <v>634</v>
-      </c>
-      <c r="AY3" s="8"/>
+      <c r="AW3" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="AX3" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="AY3" s="7"/>
     </row>
     <row r="4" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -4082,7 +4118,7 @@
         <v>37</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
@@ -4098,10 +4134,10 @@
         <v>38</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>349</v>
@@ -4113,10 +4149,10 @@
         <v>206</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y4" s="3">
         <v>2</v>
@@ -4136,10 +4172,10 @@
       <c r="AD4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE4" s="5">
+      <c r="AE4" s="10">
         <v>-3.8435458819999999</v>
       </c>
-      <c r="AF4" s="5">
+      <c r="AF4" s="10">
         <v>-79.34403322</v>
       </c>
       <c r="AG4" s="3" t="s">
@@ -4190,11 +4226,11 @@
       <c r="AV4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW4" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX4" s="8"/>
-      <c r="AY4" s="8"/>
+      <c r="AW4" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AX4" s="7"/>
+      <c r="AY4" s="7"/>
     </row>
     <row r="5" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
@@ -4222,7 +4258,7 @@
         <v>35</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>36</v>
@@ -4231,7 +4267,7 @@
         <v>37</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
@@ -4247,10 +4283,10 @@
         <v>36</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>350</v>
@@ -4262,10 +4298,10 @@
         <v>206</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y5" s="3">
         <v>2</v>
@@ -4285,10 +4321,10 @@
       <c r="AD5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE5" s="5">
+      <c r="AE5" s="10">
         <v>-3.8432362480000002</v>
       </c>
-      <c r="AF5" s="5">
+      <c r="AF5" s="10">
         <v>-79.344458119999999</v>
       </c>
       <c r="AG5" s="3" t="s">
@@ -4339,11 +4375,11 @@
       <c r="AV5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW5" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX5" s="8"/>
-      <c r="AY5" s="8"/>
+      <c r="AW5" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
     </row>
     <row r="6" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -4371,7 +4407,7 @@
         <v>35</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>36</v>
@@ -4380,7 +4416,7 @@
         <v>54</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
@@ -4396,10 +4432,10 @@
         <v>38</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>351</v>
@@ -4411,10 +4447,10 @@
         <v>206</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="Y6" s="3">
         <v>4</v>
@@ -4434,10 +4470,10 @@
       <c r="AD6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE6" s="11">
+      <c r="AE6" s="10">
         <v>-3.886139</v>
       </c>
-      <c r="AF6" s="5">
+      <c r="AF6" s="10">
         <v>-79.416832999999997</v>
       </c>
       <c r="AG6" s="3" t="s">
@@ -4488,13 +4524,13 @@
       <c r="AV6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW6" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="AX6" s="10" t="s">
-        <v>636</v>
-      </c>
-      <c r="AY6" s="8"/>
+      <c r="AW6" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="AX6" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="AY6" s="7"/>
     </row>
     <row r="7" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
@@ -4522,7 +4558,7 @@
         <v>35</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>36</v>
@@ -4531,7 +4567,7 @@
         <v>58</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
@@ -4547,10 +4583,10 @@
         <v>38</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>352</v>
@@ -4562,10 +4598,10 @@
         <v>206</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y7" s="3">
         <v>3</v>
@@ -4585,10 +4621,10 @@
       <c r="AD7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE7" s="11">
+      <c r="AE7" s="10">
         <v>-3.8503889999999998</v>
       </c>
-      <c r="AF7" s="5">
+      <c r="AF7" s="10">
         <v>-79.426749999999998</v>
       </c>
       <c r="AG7" s="3" t="s">
@@ -4639,13 +4675,13 @@
       <c r="AV7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW7" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="AX7" s="10" t="s">
-        <v>637</v>
-      </c>
-      <c r="AY7" s="8"/>
+      <c r="AW7" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="AX7" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="AY7" s="7"/>
     </row>
     <row r="8" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
@@ -4673,7 +4709,7 @@
         <v>57</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>36</v>
@@ -4682,7 +4718,7 @@
         <v>58</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
@@ -4698,10 +4734,10 @@
         <v>38</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>353</v>
@@ -4713,10 +4749,10 @@
         <v>206</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y8" s="3">
         <v>2</v>
@@ -4736,10 +4772,10 @@
       <c r="AD8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE8" s="11">
+      <c r="AE8" s="10">
         <v>-3.8506939999999998</v>
       </c>
-      <c r="AF8" s="5">
+      <c r="AF8" s="10">
         <v>-79.426749999999998</v>
       </c>
       <c r="AG8" s="3" t="s">
@@ -4790,13 +4826,13 @@
       <c r="AV8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW8" s="7" t="s">
-        <v>684</v>
-      </c>
-      <c r="AX8" s="10" t="s">
-        <v>638</v>
-      </c>
-      <c r="AY8" s="8"/>
+      <c r="AW8" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="AX8" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AY8" s="7"/>
     </row>
     <row r="9" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
@@ -4824,7 +4860,7 @@
         <v>35</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>36</v>
@@ -4833,7 +4869,7 @@
         <v>58</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
@@ -4849,10 +4885,10 @@
         <v>38</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>354</v>
@@ -4864,10 +4900,10 @@
         <v>206</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y9" s="3">
         <v>4</v>
@@ -4887,10 +4923,10 @@
       <c r="AD9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE9" s="11">
+      <c r="AE9" s="10">
         <v>-3.8506670000000001</v>
       </c>
-      <c r="AF9" s="5">
+      <c r="AF9" s="10">
         <v>-79.426777999999999</v>
       </c>
       <c r="AG9" s="3" t="s">
@@ -4941,13 +4977,13 @@
       <c r="AV9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW9" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="AX9" s="10" t="s">
-        <v>639</v>
-      </c>
-      <c r="AY9" s="8"/>
+      <c r="AW9" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="AX9" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AY9" s="7"/>
     </row>
     <row r="10" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
@@ -4975,7 +5011,7 @@
         <v>35</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>36</v>
@@ -4984,7 +5020,7 @@
         <v>58</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
@@ -5000,10 +5036,10 @@
         <v>38</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>355</v>
@@ -5015,10 +5051,10 @@
         <v>206</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y10" s="3">
         <v>3</v>
@@ -5038,10 +5074,10 @@
       <c r="AD10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE10" s="5">
+      <c r="AE10" s="10">
         <v>-3.8509957039999998</v>
       </c>
-      <c r="AF10" s="5">
+      <c r="AF10" s="10">
         <v>-79.42654847</v>
       </c>
       <c r="AG10" s="3" t="s">
@@ -5092,13 +5128,13 @@
       <c r="AV10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW10" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="AX10" s="10" t="s">
-        <v>640</v>
-      </c>
-      <c r="AY10" s="8"/>
+      <c r="AW10" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="AX10" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AY10" s="7"/>
     </row>
     <row r="11" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
@@ -5135,7 +5171,7 @@
         <v>64</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
@@ -5151,10 +5187,10 @@
         <v>38</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T11" s="3" t="s">
         <v>356</v>
@@ -5166,10 +5202,10 @@
         <v>206</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y11" s="3">
         <v>5</v>
@@ -5189,10 +5225,10 @@
       <c r="AD11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE11" s="11">
+      <c r="AE11" s="10">
         <v>-3.8513060000000001</v>
       </c>
-      <c r="AF11" s="5">
+      <c r="AF11" s="10">
         <v>-79.426167000000007</v>
       </c>
       <c r="AG11" s="3" t="s">
@@ -5243,11 +5279,11 @@
       <c r="AV11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW11" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX11" s="8"/>
-      <c r="AY11" s="8"/>
+      <c r="AW11" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
     </row>
     <row r="12" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
@@ -5275,7 +5311,7 @@
         <v>66</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>36</v>
@@ -5284,7 +5320,7 @@
         <v>58</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
@@ -5300,10 +5336,10 @@
         <v>38</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>357</v>
@@ -5315,10 +5351,10 @@
         <v>206</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Y12" s="3">
         <v>2</v>
@@ -5338,10 +5374,10 @@
       <c r="AD12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE12" s="11">
+      <c r="AE12" s="10">
         <v>-3.8516110000000001</v>
       </c>
-      <c r="AF12" s="5">
+      <c r="AF12" s="10">
         <v>-79.425916999999998</v>
       </c>
       <c r="AG12" s="3" t="s">
@@ -5392,13 +5428,13 @@
       <c r="AV12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW12" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="AX12" s="10" t="s">
-        <v>641</v>
-      </c>
-      <c r="AY12" s="8"/>
+      <c r="AW12" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="AX12" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AY12" s="7"/>
     </row>
     <row r="13" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
@@ -5426,7 +5462,7 @@
         <v>66</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>36</v>
@@ -5435,7 +5471,7 @@
         <v>58</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
@@ -5451,10 +5487,10 @@
         <v>38</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T13" s="3" t="s">
         <v>358</v>
@@ -5466,10 +5502,10 @@
         <v>206</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Y13" s="3">
         <v>3</v>
@@ -5489,10 +5525,10 @@
       <c r="AD13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE13" s="11">
+      <c r="AE13" s="10">
         <v>-3.851639</v>
       </c>
-      <c r="AF13" s="11">
+      <c r="AF13" s="10">
         <v>-79.426056000000003</v>
       </c>
       <c r="AG13" s="3" t="s">
@@ -5543,13 +5579,13 @@
       <c r="AV13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW13" s="7" t="s">
-        <v>688</v>
-      </c>
-      <c r="AX13" s="10" t="s">
-        <v>642</v>
-      </c>
-      <c r="AY13" s="8"/>
+      <c r="AW13" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="AX13" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="AY13" s="7"/>
     </row>
     <row r="14" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
@@ -5577,7 +5613,7 @@
         <v>35</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>36</v>
@@ -5586,7 +5622,7 @@
         <v>299</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
@@ -5602,10 +5638,10 @@
         <v>38</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>359</v>
@@ -5617,10 +5653,10 @@
         <v>206</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y14" s="3">
         <v>2</v>
@@ -5640,10 +5676,10 @@
       <c r="AD14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AE14" s="11">
+      <c r="AE14" s="10">
         <v>-3.8502779999999999</v>
       </c>
-      <c r="AF14" s="11">
+      <c r="AF14" s="10">
         <v>-79.426693999999998</v>
       </c>
       <c r="AG14" s="3" t="s">
@@ -5694,13 +5730,13 @@
       <c r="AV14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW14" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="AX14" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="AY14" s="8"/>
+      <c r="AW14" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="AX14" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="AY14" s="7"/>
     </row>
     <row r="15" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
@@ -5737,7 +5773,7 @@
         <v>69</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
@@ -5753,10 +5789,10 @@
         <v>38</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>360</v>
@@ -5768,10 +5804,10 @@
         <v>206</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Y15" s="3">
         <v>3</v>
@@ -5791,10 +5827,10 @@
       <c r="AD15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE15" s="11">
+      <c r="AE15" s="10">
         <v>-3.8503889999999998</v>
       </c>
-      <c r="AF15" s="5">
+      <c r="AF15" s="10">
         <v>-79.426638999999994</v>
       </c>
       <c r="AG15" s="3" t="s">
@@ -5845,11 +5881,11 @@
       <c r="AV15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW15" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX15" s="8"/>
-      <c r="AY15" s="8"/>
+      <c r="AW15" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AX15" s="7"/>
+      <c r="AY15" s="7"/>
     </row>
     <row r="16" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
@@ -5877,7 +5913,7 @@
         <v>35</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>36</v>
@@ -5886,7 +5922,7 @@
         <v>72</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>76</v>
@@ -5904,10 +5940,10 @@
         <v>38</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>361</v>
@@ -5916,13 +5952,13 @@
         <v>5</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y16" s="3">
         <v>3</v>
@@ -5942,10 +5978,10 @@
       <c r="AD16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE16" s="11">
+      <c r="AE16" s="10">
         <v>-3.889694</v>
       </c>
-      <c r="AF16" s="11">
+      <c r="AF16" s="10">
         <v>-79.421722000000003</v>
       </c>
       <c r="AG16" s="3" t="s">
@@ -5996,13 +6032,13 @@
       <c r="AV16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW16" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="AX16" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="AY16" s="8"/>
+      <c r="AW16" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="AX16" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="AY16" s="7"/>
     </row>
     <row r="17" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
@@ -6039,7 +6075,7 @@
         <v>75</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>76</v>
@@ -6057,10 +6093,10 @@
         <v>38</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>362</v>
@@ -6072,10 +6108,10 @@
         <v>206</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y17" s="3">
         <v>2</v>
@@ -6095,10 +6131,10 @@
       <c r="AD17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE17" s="5">
+      <c r="AE17" s="10">
         <v>-3.890249012</v>
       </c>
-      <c r="AF17" s="5">
+      <c r="AF17" s="10">
         <v>-79.419288320000007</v>
       </c>
       <c r="AG17" s="3" t="s">
@@ -6149,13 +6185,13 @@
       <c r="AV17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW17" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="AX17" s="10" t="s">
-        <v>645</v>
-      </c>
-      <c r="AY17" s="8"/>
+      <c r="AW17" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="AX17" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="AY17" s="7"/>
     </row>
     <row r="18" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
@@ -6192,7 +6228,7 @@
         <v>78</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
@@ -6208,10 +6244,10 @@
         <v>38</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>363</v>
@@ -6223,10 +6259,10 @@
         <v>206</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y18" s="3">
         <v>3</v>
@@ -6246,10 +6282,10 @@
       <c r="AD18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE18" s="5">
+      <c r="AE18" s="10">
         <v>-3.8907559200000001</v>
       </c>
-      <c r="AF18" s="5">
+      <c r="AF18" s="10">
         <v>-79.419012429999995</v>
       </c>
       <c r="AG18" s="3" t="s">
@@ -6300,13 +6336,13 @@
       <c r="AV18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW18" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="AX18" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="AY18" s="8"/>
+      <c r="AW18" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="AX18" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="AY18" s="7"/>
     </row>
     <row r="19" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
@@ -6343,7 +6379,7 @@
         <v>79</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
@@ -6359,10 +6395,10 @@
         <v>38</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T19" s="3" t="s">
         <v>364</v>
@@ -6374,10 +6410,10 @@
         <v>206</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y19" s="3">
         <v>7</v>
@@ -6397,10 +6433,10 @@
       <c r="AD19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE19" s="5">
+      <c r="AE19" s="10">
         <v>-3.8942608600000002</v>
       </c>
-      <c r="AF19" s="5">
+      <c r="AF19" s="10">
         <v>-79.416275099999993</v>
       </c>
       <c r="AG19" s="3" t="s">
@@ -6451,13 +6487,13 @@
       <c r="AV19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW19" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="AX19" s="10" t="s">
-        <v>647</v>
-      </c>
-      <c r="AY19" s="8"/>
+      <c r="AW19" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="AX19" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="AY19" s="7"/>
     </row>
     <row r="20" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
@@ -6494,7 +6530,7 @@
         <v>79</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>76</v>
@@ -6512,10 +6548,10 @@
         <v>38</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>365</v>
@@ -6527,10 +6563,10 @@
         <v>206</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y20" s="3">
         <v>2</v>
@@ -6550,10 +6586,10 @@
       <c r="AD20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE20" s="5">
+      <c r="AE20" s="10">
         <v>-3.885909726</v>
       </c>
-      <c r="AF20" s="5">
+      <c r="AF20" s="10">
         <v>-79.416806910000005</v>
       </c>
       <c r="AG20" s="3" t="s">
@@ -6604,13 +6640,13 @@
       <c r="AV20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW20" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="AX20" s="10" t="s">
-        <v>648</v>
-      </c>
-      <c r="AY20" s="8"/>
+      <c r="AW20" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="AX20" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="AY20" s="7"/>
     </row>
     <row r="21" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
@@ -6647,7 +6683,7 @@
         <v>79</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="s">
@@ -6663,10 +6699,10 @@
         <v>38</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>366</v>
@@ -6678,10 +6714,10 @@
         <v>206</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y21" s="3">
         <v>4</v>
@@ -6701,10 +6737,10 @@
       <c r="AD21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE21" s="11">
+      <c r="AE21" s="10">
         <v>-3.8855559999999998</v>
       </c>
-      <c r="AF21" s="5">
+      <c r="AF21" s="10">
         <v>-79.416639000000004</v>
       </c>
       <c r="AG21" s="3" t="s">
@@ -6755,11 +6791,11 @@
       <c r="AV21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW21" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX21" s="8"/>
-      <c r="AY21" s="8"/>
+      <c r="AW21" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AX21" s="7"/>
+      <c r="AY21" s="7"/>
     </row>
     <row r="22" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
@@ -6796,7 +6832,7 @@
         <v>58</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
@@ -6812,10 +6848,10 @@
         <v>38</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>367</v>
@@ -6827,10 +6863,10 @@
         <v>206</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y22" s="3">
         <v>2</v>
@@ -6850,10 +6886,10 @@
       <c r="AD22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE22" s="11">
+      <c r="AE22" s="10">
         <v>-3.850333</v>
       </c>
-      <c r="AF22" s="5">
+      <c r="AF22" s="10">
         <v>-79.426777999999999</v>
       </c>
       <c r="AG22" s="3" t="s">
@@ -6904,13 +6940,13 @@
       <c r="AV22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW22" s="7" t="s">
-        <v>695</v>
-      </c>
-      <c r="AX22" s="10" t="s">
-        <v>649</v>
-      </c>
-      <c r="AY22" s="8"/>
+      <c r="AW22" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="AX22" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="AY22" s="7"/>
     </row>
     <row r="23" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
@@ -6947,7 +6983,7 @@
         <v>81</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
@@ -6963,10 +6999,10 @@
         <v>38</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>368</v>
@@ -6978,10 +7014,10 @@
         <v>206</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y23" s="3">
         <v>2</v>
@@ -7001,10 +7037,10 @@
       <c r="AD23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE23" s="5">
+      <c r="AE23" s="10">
         <v>-3.8772741929999999</v>
       </c>
-      <c r="AF23" s="5">
+      <c r="AF23" s="10">
         <v>-79.422724880000004</v>
       </c>
       <c r="AG23" s="3" t="s">
@@ -7020,7 +7056,7 @@
         <v>3</v>
       </c>
       <c r="AK23" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AL23" s="3" t="s">
         <v>42</v>
@@ -7044,7 +7080,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AT23" s="3" t="s">
         <v>44</v>
@@ -7055,13 +7091,13 @@
       <c r="AV23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW23" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="AX23" s="10" t="s">
-        <v>650</v>
-      </c>
-      <c r="AY23" s="8"/>
+      <c r="AW23" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="AX23" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AY23" s="7"/>
     </row>
     <row r="24" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
@@ -7098,7 +7134,7 @@
         <v>83</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="s">
@@ -7114,10 +7150,10 @@
         <v>38</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>369</v>
@@ -7129,10 +7165,10 @@
         <v>206</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Y24" s="3">
         <v>3</v>
@@ -7152,10 +7188,10 @@
       <c r="AD24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE24" s="11">
+      <c r="AE24" s="10">
         <v>-3.8514439999999999</v>
       </c>
-      <c r="AF24" s="5">
+      <c r="AF24" s="10">
         <v>-79.426805999999999</v>
       </c>
       <c r="AG24" s="3" t="s">
@@ -7206,11 +7242,11 @@
       <c r="AV24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW24" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX24" s="8"/>
-      <c r="AY24" s="8"/>
+      <c r="AW24" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AX24" s="7"/>
+      <c r="AY24" s="7"/>
     </row>
     <row r="25" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
@@ -7238,7 +7274,7 @@
         <v>35</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>36</v>
@@ -7247,7 +7283,7 @@
         <v>54</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3" t="s">
@@ -7263,10 +7299,10 @@
         <v>38</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T25" s="3" t="s">
         <v>370</v>
@@ -7278,10 +7314,10 @@
         <v>206</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="Y25" s="3">
         <v>3</v>
@@ -7301,10 +7337,10 @@
       <c r="AD25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE25" s="11">
+      <c r="AE25" s="10">
         <v>-3.8504170000000002</v>
       </c>
-      <c r="AF25" s="5">
+      <c r="AF25" s="10">
         <v>-79.426305999999997</v>
       </c>
       <c r="AG25" s="3" t="s">
@@ -7355,13 +7391,13 @@
       <c r="AV25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW25" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="AX25" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="AY25" s="8"/>
+      <c r="AW25" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="AX25" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="AY25" s="7"/>
     </row>
     <row r="26" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
@@ -7398,7 +7434,7 @@
         <v>54</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
@@ -7414,10 +7450,10 @@
         <v>38</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>371</v>
@@ -7429,10 +7465,10 @@
         <v>206</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Y26" s="3">
         <v>5</v>
@@ -7452,10 +7488,10 @@
       <c r="AD26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE26" s="11">
+      <c r="AE26" s="10">
         <v>-3.8515280000000001</v>
       </c>
-      <c r="AF26" s="11">
+      <c r="AF26" s="10">
         <v>-79.426833000000002</v>
       </c>
       <c r="AG26" s="3" t="s">
@@ -7506,13 +7542,13 @@
       <c r="AV26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW26" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="AX26" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="AY26" s="8"/>
+      <c r="AW26" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="AX26" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="AY26" s="7"/>
     </row>
     <row r="27" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
@@ -7549,7 +7585,7 @@
         <v>58</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3" t="s">
@@ -7565,10 +7601,10 @@
         <v>38</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>372</v>
@@ -7580,10 +7616,10 @@
         <v>206</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y27" s="3">
         <v>4</v>
@@ -7603,10 +7639,10 @@
       <c r="AD27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE27" s="5">
+      <c r="AE27" s="10">
         <v>-3.8511472649999998</v>
       </c>
-      <c r="AF27" s="5">
+      <c r="AF27" s="10">
         <v>-79.426749479999998</v>
       </c>
       <c r="AG27" s="3" t="s">
@@ -7657,11 +7693,11 @@
       <c r="AV27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW27" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX27" s="8"/>
-      <c r="AY27" s="8"/>
+      <c r="AW27" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AX27" s="7"/>
+      <c r="AY27" s="7"/>
     </row>
     <row r="28" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
@@ -7698,10 +7734,10 @@
         <v>58</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="N28" s="3" t="s">
         <v>334</v>
@@ -7716,10 +7752,10 @@
         <v>36</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="T28" s="3" t="s">
         <v>373</v>
@@ -7731,10 +7767,10 @@
         <v>206</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y28" s="3">
         <v>2</v>
@@ -7754,10 +7790,10 @@
       <c r="AD28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE28" s="5">
+      <c r="AE28" s="10">
         <v>-3.849751404</v>
       </c>
-      <c r="AF28" s="5">
+      <c r="AF28" s="10">
         <v>-79.426691460000001</v>
       </c>
       <c r="AG28" s="3" t="s">
@@ -7808,11 +7844,11 @@
       <c r="AV28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW28" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX28" s="8"/>
-      <c r="AY28" s="8"/>
+      <c r="AW28" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AX28" s="7"/>
+      <c r="AY28" s="7"/>
     </row>
     <row r="29" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
@@ -7840,7 +7876,7 @@
         <v>35</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>36</v>
@@ -7849,7 +7885,7 @@
         <v>89</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
@@ -7865,10 +7901,10 @@
         <v>38</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>374</v>
@@ -7880,10 +7916,10 @@
         <v>206</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Y29" s="3">
         <v>1</v>
@@ -7903,10 +7939,10 @@
       <c r="AD29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE29" s="5">
+      <c r="AE29" s="10">
         <v>-3.770414996</v>
       </c>
-      <c r="AF29" s="5">
+      <c r="AF29" s="10">
         <v>-79.377020470000005</v>
       </c>
       <c r="AG29" s="3" t="s">
@@ -7957,13 +7993,13 @@
       <c r="AV29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW29" s="7" t="s">
-        <v>699</v>
-      </c>
-      <c r="AX29" s="10" t="s">
-        <v>653</v>
-      </c>
-      <c r="AY29" s="8"/>
+      <c r="AW29" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="AX29" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="AY29" s="7"/>
     </row>
     <row r="30" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
@@ -7991,7 +8027,7 @@
         <v>77</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>36</v>
@@ -8000,7 +8036,7 @@
         <v>37</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3" t="s">
@@ -8016,10 +8052,10 @@
         <v>38</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T30" s="3" t="s">
         <v>375</v>
@@ -8031,10 +8067,10 @@
         <v>206</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y30" s="3">
         <v>3</v>
@@ -8054,10 +8090,10 @@
       <c r="AD30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE30" s="11">
+      <c r="AE30" s="10">
         <v>-3.7709169999999999</v>
       </c>
-      <c r="AF30" s="5">
+      <c r="AF30" s="10">
         <v>-79.377082999999999</v>
       </c>
       <c r="AG30" s="3" t="s">
@@ -8108,13 +8144,13 @@
       <c r="AV30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW30" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="AX30" s="10" t="s">
-        <v>654</v>
-      </c>
-      <c r="AY30" s="8"/>
+      <c r="AW30" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="AX30" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="AY30" s="7"/>
     </row>
     <row r="31" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
@@ -8151,7 +8187,7 @@
         <v>37</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3" t="s">
@@ -8167,10 +8203,10 @@
         <v>38</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T31" s="3" t="s">
         <v>376</v>
@@ -8182,10 +8218,10 @@
         <v>206</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Y31" s="3">
         <v>3</v>
@@ -8205,10 +8241,10 @@
       <c r="AD31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AE31" s="5">
+      <c r="AE31" s="10">
         <v>-3.7713323949999999</v>
       </c>
-      <c r="AF31" s="5">
+      <c r="AF31" s="10">
         <v>-79.376277520000002</v>
       </c>
       <c r="AG31" s="3" t="s">
@@ -8259,11 +8295,11 @@
       <c r="AV31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW31" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX31" s="8"/>
-      <c r="AY31" s="8"/>
+      <c r="AW31" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AX31" s="7"/>
+      <c r="AY31" s="7"/>
     </row>
     <row r="32" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
@@ -8300,7 +8336,7 @@
         <v>91</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3" t="s">
@@ -8316,10 +8352,10 @@
         <v>38</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>377</v>
@@ -8331,10 +8367,10 @@
         <v>206</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Y32" s="3">
         <v>1</v>
@@ -8354,10 +8390,10 @@
       <c r="AD32" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE32" s="5">
+      <c r="AE32" s="10">
         <v>-3.859605143</v>
       </c>
-      <c r="AF32" s="11">
+      <c r="AF32" s="10">
         <v>-79.169845559999999</v>
       </c>
       <c r="AG32" s="3" t="s">
@@ -8408,11 +8444,11 @@
       <c r="AV32" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW32" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX32" s="8"/>
-      <c r="AY32" s="8"/>
+      <c r="AW32" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AX32" s="7"/>
+      <c r="AY32" s="7"/>
     </row>
     <row r="33" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
@@ -8440,7 +8476,7 @@
         <v>35</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>36</v>
@@ -8449,7 +8485,7 @@
         <v>91</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3" t="s">
@@ -8465,10 +8501,10 @@
         <v>38</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>378</v>
@@ -8480,10 +8516,10 @@
         <v>206</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Y33" s="3">
         <v>2</v>
@@ -8503,10 +8539,10 @@
       <c r="AD33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE33" s="5">
+      <c r="AE33" s="10">
         <v>-3.8607485220000002</v>
       </c>
-      <c r="AF33" s="5">
+      <c r="AF33" s="10">
         <v>-79.172275229999997</v>
       </c>
       <c r="AG33" s="3" t="s">
@@ -8557,11 +8593,11 @@
       <c r="AV33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW33" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX33" s="8"/>
-      <c r="AY33" s="8"/>
+      <c r="AW33" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AX33" s="7"/>
+      <c r="AY33" s="7"/>
     </row>
     <row r="34" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
@@ -8598,7 +8634,7 @@
         <v>300</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3" t="s">
@@ -8614,10 +8650,10 @@
         <v>38</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="T34" s="3" t="s">
         <v>379</v>
@@ -8626,13 +8662,13 @@
         <v>3</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Y34" s="3">
         <v>1</v>
@@ -8652,10 +8688,10 @@
       <c r="AD34" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE34" s="5">
+      <c r="AE34" s="10">
         <v>-4.2201085999999997</v>
       </c>
-      <c r="AF34" s="5">
+      <c r="AF34" s="10">
         <v>-79.2588583</v>
       </c>
       <c r="AG34" s="3" t="s">
@@ -8706,11 +8742,11 @@
       <c r="AV34" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW34" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX34" s="8"/>
-      <c r="AY34" s="8"/>
+      <c r="AW34" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AX34" s="7"/>
+      <c r="AY34" s="7"/>
     </row>
     <row r="35" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
@@ -8747,7 +8783,7 @@
         <v>301</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3" t="s">
@@ -8763,10 +8799,10 @@
         <v>38</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>380</v>
@@ -8775,13 +8811,13 @@
         <v>3</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y35" s="3">
         <v>1</v>
@@ -8801,10 +8837,10 @@
       <c r="AD35" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE35" s="5">
+      <c r="AE35" s="10">
         <v>-4.2196053999999998</v>
       </c>
-      <c r="AF35" s="5">
+      <c r="AF35" s="10">
         <v>-79.258742600000005</v>
       </c>
       <c r="AG35" s="3" t="s">
@@ -8855,15 +8891,15 @@
       <c r="AV35" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW35" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX35" s="8"/>
-      <c r="AY35" s="8"/>
+      <c r="AW35" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AX35" s="7"/>
+      <c r="AY35" s="7"/>
     </row>
     <row r="36" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>32</v>
@@ -8896,7 +8932,7 @@
         <v>302</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3" t="s">
@@ -8912,10 +8948,10 @@
         <v>38</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="T36" s="3" t="s">
         <v>381</v>
@@ -8924,13 +8960,13 @@
         <v>7</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="X36" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="Y36" s="3">
         <v>3</v>
@@ -8950,10 +8986,10 @@
       <c r="AD36" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE36" s="5">
+      <c r="AE36" s="10">
         <v>-4.2178430000000002</v>
       </c>
-      <c r="AF36" s="5">
+      <c r="AF36" s="10">
         <v>-79.258655099999999</v>
       </c>
       <c r="AG36" s="3" t="s">
@@ -9004,11 +9040,11 @@
       <c r="AV36" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW36" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX36" s="8"/>
-      <c r="AY36" s="8"/>
+      <c r="AW36" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AX36" s="7"/>
+      <c r="AY36" s="7"/>
     </row>
     <row r="37" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
@@ -9045,7 +9081,7 @@
         <v>303</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3" t="s">
@@ -9061,10 +9097,10 @@
         <v>38</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="T37" s="3" t="s">
         <v>382</v>
@@ -9073,13 +9109,13 @@
         <v>3.5</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="X37" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="Y37" s="3">
         <v>3</v>
@@ -9099,10 +9135,10 @@
       <c r="AD37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE37" s="5">
+      <c r="AE37" s="10">
         <v>-4.2196366999999997</v>
       </c>
-      <c r="AF37" s="5">
+      <c r="AF37" s="10">
         <v>-79.259322400000002</v>
       </c>
       <c r="AG37" s="3" t="s">
@@ -9153,15 +9189,15 @@
       <c r="AV37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW37" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX37" s="8"/>
-      <c r="AY37" s="8"/>
+      <c r="AW37" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AX37" s="7"/>
+      <c r="AY37" s="7"/>
     </row>
     <row r="38" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>32</v>
@@ -9194,7 +9230,7 @@
         <v>304</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3" t="s">
@@ -9210,10 +9246,10 @@
         <v>38</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T38" s="3" t="s">
         <v>383</v>
@@ -9222,13 +9258,13 @@
         <v>3.5</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X38" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Y38" s="3">
         <v>3</v>
@@ -9248,10 +9284,10 @@
       <c r="AD38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE38" s="5">
+      <c r="AE38" s="10">
         <v>-4.2191777000000004</v>
       </c>
-      <c r="AF38" s="5">
+      <c r="AF38" s="10">
         <v>-79.259355999999997</v>
       </c>
       <c r="AG38" s="3" t="s">
@@ -9264,7 +9300,7 @@
         <v>41</v>
       </c>
       <c r="AJ38" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AK38" s="3" t="s">
         <v>36</v>
@@ -9288,7 +9324,7 @@
         <v>36</v>
       </c>
       <c r="AR38" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AS38" s="3" t="s">
         <v>36</v>
@@ -9302,11 +9338,11 @@
       <c r="AV38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW38" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX38" s="8"/>
-      <c r="AY38" s="8"/>
+      <c r="AW38" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AX38" s="7"/>
+      <c r="AY38" s="7"/>
     </row>
     <row r="39" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
@@ -9343,7 +9379,7 @@
         <v>305</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3" t="s">
@@ -9359,10 +9395,10 @@
         <v>36</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="T39" s="3" t="s">
         <v>384</v>
@@ -9371,13 +9407,13 @@
         <v>2</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="X39" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y39" s="3">
         <v>2</v>
@@ -9397,11 +9433,11 @@
       <c r="AD39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE39" s="5">
-        <v>-4.2431545000000002</v>
-      </c>
-      <c r="AF39" s="5">
-        <v>-79.221579000000006</v>
+      <c r="AE39" s="10">
+        <v>-4.2432210000000001</v>
+      </c>
+      <c r="AF39" s="10">
+        <v>-79.221560999999994</v>
       </c>
       <c r="AG39" s="3" t="s">
         <v>36</v>
@@ -9451,15 +9487,17 @@
       <c r="AV39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW39" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX39" s="8"/>
-      <c r="AY39" s="8"/>
+      <c r="AW39" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="AX39" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="AY39" s="7"/>
     </row>
     <row r="40" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>32</v>
@@ -9483,7 +9521,7 @@
         <v>35</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>36</v>
@@ -9492,7 +9530,7 @@
         <v>91</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M40" s="3"/>
       <c r="N40" s="3" t="s">
@@ -9508,10 +9546,10 @@
         <v>38</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T40" s="3" t="s">
         <v>385</v>
@@ -9520,13 +9558,13 @@
         <v>3</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y40" s="3">
         <v>2</v>
@@ -9546,10 +9584,10 @@
       <c r="AD40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE40" s="5">
+      <c r="AE40" s="10">
         <v>-3.9052367239999999</v>
       </c>
-      <c r="AF40" s="5">
+      <c r="AF40" s="10">
         <v>-79.285355999999993</v>
       </c>
       <c r="AG40" s="3" t="s">
@@ -9600,15 +9638,15 @@
       <c r="AV40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW40" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX40" s="8"/>
-      <c r="AY40" s="8"/>
+      <c r="AW40" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AX40" s="7"/>
+      <c r="AY40" s="7"/>
     </row>
     <row r="41" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>36</v>
@@ -9632,7 +9670,7 @@
         <v>35</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>36</v>
@@ -9641,7 +9679,7 @@
         <v>91</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="M41" s="3"/>
       <c r="N41" s="3" t="s">
@@ -9657,10 +9695,10 @@
         <v>38</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>386</v>
@@ -9672,10 +9710,10 @@
         <v>206</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y41" s="3">
         <v>2</v>
@@ -9695,10 +9733,10 @@
       <c r="AD41" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE41" s="5">
+      <c r="AE41" s="10">
         <v>-3.9059856869999998</v>
       </c>
-      <c r="AF41" s="5">
+      <c r="AF41" s="10">
         <v>-79.285946319999994</v>
       </c>
       <c r="AG41" s="3" t="s">
@@ -9749,13 +9787,13 @@
       <c r="AV41" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW41" s="7" t="s">
-        <v>701</v>
-      </c>
-      <c r="AX41" s="10" t="s">
-        <v>655</v>
-      </c>
-      <c r="AY41" s="8"/>
+      <c r="AW41" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="AX41" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="AY41" s="7"/>
     </row>
     <row r="42" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
@@ -9792,10 +9830,10 @@
         <v>106</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>330</v>
@@ -9810,10 +9848,10 @@
         <v>38</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>387</v>
@@ -9825,10 +9863,10 @@
         <v>206</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Y42" s="3">
         <v>3</v>
@@ -9848,10 +9886,10 @@
       <c r="AD42" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AE42" s="5">
+      <c r="AE42" s="10">
         <v>-3.9037784000000002</v>
       </c>
-      <c r="AF42" s="5">
+      <c r="AF42" s="10">
         <v>-79.301738599999993</v>
       </c>
       <c r="AG42" s="3" t="s">
@@ -9867,13 +9905,13 @@
         <v>16</v>
       </c>
       <c r="AK42" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AL42" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM42" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AN42" s="3" t="s">
         <v>32</v>
@@ -9891,7 +9929,7 @@
         <v>5</v>
       </c>
       <c r="AS42" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AT42" s="3" t="s">
         <v>107</v>
@@ -9902,13 +9940,13 @@
       <c r="AV42" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW42" s="7" t="s">
-        <v>702</v>
-      </c>
-      <c r="AX42" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="AY42" s="8"/>
+      <c r="AW42" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="AX42" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="AY42" s="7"/>
     </row>
     <row r="43" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
@@ -9945,10 +9983,10 @@
         <v>109</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>339</v>
@@ -9963,10 +10001,10 @@
         <v>38</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>388</v>
@@ -9978,10 +10016,10 @@
         <v>206</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Y43" s="3">
         <v>3</v>
@@ -10001,10 +10039,10 @@
       <c r="AD43" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AE43" s="5">
+      <c r="AE43" s="10">
         <v>-3.9530097</v>
       </c>
-      <c r="AF43" s="5">
+      <c r="AF43" s="10">
         <v>-79.272164000000004</v>
       </c>
       <c r="AG43" s="3" t="s">
@@ -10020,13 +10058,13 @@
         <v>5</v>
       </c>
       <c r="AK43" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AL43" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM43" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AN43" s="3" t="s">
         <v>32</v>
@@ -10044,7 +10082,7 @@
         <v>3</v>
       </c>
       <c r="AS43" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AT43" s="3" t="s">
         <v>107</v>
@@ -10055,17 +10093,17 @@
       <c r="AV43" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW43" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="AX43" s="10" t="s">
-        <v>657</v>
-      </c>
-      <c r="AY43" s="8"/>
+      <c r="AW43" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="AX43" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="AY43" s="7"/>
     </row>
     <row r="44" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>32</v>
@@ -10098,7 +10136,7 @@
         <v>306</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3" t="s">
@@ -10114,10 +10152,10 @@
         <v>38</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>389</v>
@@ -10126,13 +10164,13 @@
         <v>5.5</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="Y44" s="3">
         <v>10</v>
@@ -10152,10 +10190,10 @@
       <c r="AD44" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AE44" s="5">
+      <c r="AE44" s="10">
         <v>-4.2600376000000004</v>
       </c>
-      <c r="AF44" s="5">
+      <c r="AF44" s="10">
         <v>-79.222199399999994</v>
       </c>
       <c r="AG44" s="3" t="s">
@@ -10171,13 +10209,13 @@
         <v>6</v>
       </c>
       <c r="AK44" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AL44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM44" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AN44" s="3" t="s">
         <v>84</v>
@@ -10206,17 +10244,17 @@
       <c r="AV44" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW44" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="AX44" s="10" t="s">
-        <v>658</v>
-      </c>
-      <c r="AY44" s="8"/>
+      <c r="AW44" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="AX44" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="AY44" s="7"/>
     </row>
     <row r="45" spans="1:51" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>32</v>
@@ -10249,7 +10287,7 @@
         <v>307</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3" t="s">
@@ -10265,10 +10303,10 @@
         <v>38</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>390</v>
@@ -10277,13 +10315,13 @@
         <v>5</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="Y45" s="3">
         <v>3</v>
@@ -10303,11 +10341,11 @@
       <c r="AD45" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE45" s="5">
-        <v>-4.2605367000000003</v>
-      </c>
-      <c r="AF45" s="5">
-        <v>-79.223017400000003</v>
+      <c r="AE45" s="10">
+        <v>-4.2605729999999999</v>
+      </c>
+      <c r="AF45" s="10">
+        <v>-79.222944999999996</v>
       </c>
       <c r="AG45" s="3" t="s">
         <v>36</v>
@@ -10322,13 +10360,13 @@
         <v>3</v>
       </c>
       <c r="AK45" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AL45" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM45" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AN45" s="3" t="s">
         <v>32</v>
@@ -10357,13 +10395,13 @@
       <c r="AV45" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW45" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="AX45" s="8" t="s">
-        <v>659</v>
-      </c>
-      <c r="AY45" s="8"/>
+      <c r="AW45" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="AX45" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="AY45" s="7"/>
     </row>
     <row r="46" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
@@ -10400,7 +10438,7 @@
         <v>308</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3" t="s">
@@ -10419,7 +10457,7 @@
         <v>346</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>391</v>
@@ -10428,13 +10466,13 @@
         <v>7</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Y46" s="3">
         <v>4</v>
@@ -10454,10 +10492,10 @@
       <c r="AD46" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AE46" s="5">
+      <c r="AE46" s="10">
         <v>-4.2608663</v>
       </c>
-      <c r="AF46" s="5">
+      <c r="AF46" s="10">
         <v>-79.222983900000003</v>
       </c>
       <c r="AG46" s="3" t="s">
@@ -10473,7 +10511,7 @@
         <v>4</v>
       </c>
       <c r="AK46" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AL46" s="3" t="s">
         <v>46</v>
@@ -10508,11 +10546,11 @@
       <c r="AV46" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW46" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX46" s="8"/>
-      <c r="AY46" s="8"/>
+      <c r="AW46" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AX46" s="7"/>
+      <c r="AY46" s="7"/>
     </row>
     <row r="47" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
@@ -10546,10 +10584,10 @@
         <v>36</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>344</v>
@@ -10567,10 +10605,10 @@
         <v>38</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>392</v>
@@ -10579,13 +10617,13 @@
         <v>10.5</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Y47" s="3">
         <v>4</v>
@@ -10605,10 +10643,10 @@
       <c r="AD47" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE47" s="5">
+      <c r="AE47" s="10">
         <v>-4.2606507000000002</v>
       </c>
-      <c r="AF47" s="5">
+      <c r="AF47" s="10">
         <v>-79.222619800000004</v>
       </c>
       <c r="AG47" s="3" t="s">
@@ -10624,13 +10662,13 @@
         <v>10</v>
       </c>
       <c r="AK47" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AL47" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM47" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AN47" s="3" t="s">
         <v>32</v>
@@ -10659,11 +10697,13 @@
       <c r="AV47" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW47" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX47" s="8"/>
-      <c r="AY47" s="8"/>
+      <c r="AW47" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="AX47" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="AY47" s="7"/>
     </row>
     <row r="48" spans="1:51" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
@@ -10700,7 +10740,7 @@
         <v>119</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>345</v>
@@ -10718,10 +10758,10 @@
         <v>38</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>393</v>
@@ -10730,13 +10770,13 @@
         <v>3.5</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="Y48" s="3">
         <v>3</v>
@@ -10756,10 +10796,10 @@
       <c r="AD48" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE48" s="5">
+      <c r="AE48" s="10">
         <v>-4.2613327999999999</v>
       </c>
-      <c r="AF48" s="5">
+      <c r="AF48" s="10">
         <v>-79.223179599999995</v>
       </c>
       <c r="AG48" s="3" t="s">
@@ -10775,7 +10815,7 @@
         <v>15</v>
       </c>
       <c r="AK48" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AL48" s="3" t="s">
         <v>46</v>
@@ -10810,13 +10850,13 @@
       <c r="AV48" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW48" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="AX48" s="10" t="s">
-        <v>660</v>
-      </c>
-      <c r="AY48" s="8"/>
+      <c r="AW48" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="AX48" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="AY48" s="7"/>
     </row>
     <row r="49" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
@@ -10850,13 +10890,13 @@
         <v>36</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>336</v>
@@ -10871,10 +10911,10 @@
         <v>38</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>394</v>
@@ -10883,13 +10923,13 @@
         <v>5</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="X49" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y49" s="3">
         <v>3</v>
@@ -10909,10 +10949,10 @@
       <c r="AD49" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE49" s="5">
+      <c r="AE49" s="10">
         <v>-4.2604248</v>
       </c>
-      <c r="AF49" s="5">
+      <c r="AF49" s="10">
         <v>-79.222820200000001</v>
       </c>
       <c r="AG49" s="3" t="s">
@@ -10928,13 +10968,13 @@
         <v>4</v>
       </c>
       <c r="AK49" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AL49" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM49" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AN49" s="3" t="s">
         <v>32</v>
@@ -10949,10 +10989,10 @@
         <v>36</v>
       </c>
       <c r="AR49" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AS49" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AT49" s="3" t="s">
         <v>44</v>
@@ -10963,15 +11003,17 @@
       <c r="AV49" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW49" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX49" s="8"/>
-      <c r="AY49" s="8"/>
+      <c r="AW49" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="AX49" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="AY49" s="7"/>
     </row>
     <row r="50" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>32</v>
@@ -11001,10 +11043,10 @@
         <v>36</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="M50" s="3"/>
       <c r="N50" s="3" t="s">
@@ -11020,10 +11062,10 @@
         <v>36</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="T50" s="3" t="s">
         <v>395</v>
@@ -11032,13 +11074,13 @@
         <v>3.5</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="Y50" s="3">
         <v>3</v>
@@ -11058,10 +11100,10 @@
       <c r="AD50" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE50" s="5">
+      <c r="AE50" s="10">
         <v>-4.2602055999999999</v>
       </c>
-      <c r="AF50" s="5">
+      <c r="AF50" s="10">
         <v>-79.223324700000006</v>
       </c>
       <c r="AG50" s="3" t="s">
@@ -11112,17 +11154,17 @@
       <c r="AV50" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW50" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="AX50" s="10" t="s">
-        <v>661</v>
-      </c>
-      <c r="AY50" s="8"/>
+      <c r="AW50" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="AX50" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="AY50" s="7"/>
     </row>
     <row r="51" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>32</v>
@@ -11155,7 +11197,7 @@
         <v>309</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3" t="s">
@@ -11171,10 +11213,10 @@
         <v>36</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="T51" s="3" t="s">
         <v>396</v>
@@ -11183,13 +11225,13 @@
         <v>4</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Y51" s="3">
         <v>1</v>
@@ -11209,10 +11251,10 @@
       <c r="AD51" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE51" s="5">
+      <c r="AE51" s="10">
         <v>-4.2603647000000002</v>
       </c>
-      <c r="AF51" s="5">
+      <c r="AF51" s="10">
         <v>-79.223065500000004</v>
       </c>
       <c r="AG51" s="3" t="s">
@@ -11228,13 +11270,13 @@
         <v>8</v>
       </c>
       <c r="AK51" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AL51" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM51" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AN51" s="3" t="s">
         <v>32</v>
@@ -11263,11 +11305,13 @@
       <c r="AV51" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW51" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX51" s="8"/>
-      <c r="AY51" s="8"/>
+      <c r="AW51" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AX51" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="AY51" s="7"/>
     </row>
     <row r="52" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
@@ -11304,7 +11348,7 @@
         <v>310</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3" t="s">
@@ -11320,10 +11364,10 @@
         <v>36</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>397</v>
@@ -11332,13 +11376,13 @@
         <v>7</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="Y52" s="3">
         <v>7</v>
@@ -11358,10 +11402,10 @@
       <c r="AD52" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AE52" s="5">
+      <c r="AE52" s="10">
         <v>-4.2583732999999997</v>
       </c>
-      <c r="AF52" s="5">
+      <c r="AF52" s="10">
         <v>-79.221826399999998</v>
       </c>
       <c r="AG52" s="3" t="s">
@@ -11377,13 +11421,13 @@
         <v>4</v>
       </c>
       <c r="AK52" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AL52" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM52" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AN52" s="3" t="s">
         <v>32</v>
@@ -11412,17 +11456,17 @@
       <c r="AV52" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW52" s="7" t="s">
-        <v>708</v>
-      </c>
-      <c r="AX52" s="8" t="s">
-        <v>662</v>
-      </c>
-      <c r="AY52" s="8"/>
+      <c r="AW52" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="AX52" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="AY52" s="7"/>
     </row>
     <row r="53" spans="1:51" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>32</v>
@@ -11455,7 +11499,7 @@
         <v>124</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3" t="s">
@@ -11471,10 +11515,10 @@
         <v>38</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="T53" s="3" t="s">
         <v>398</v>
@@ -11486,10 +11530,10 @@
         <v>206</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X53" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y53" s="3">
         <v>2</v>
@@ -11509,10 +11553,10 @@
       <c r="AD53" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AE53" s="5">
+      <c r="AE53" s="10">
         <v>-4.2621412999999997</v>
       </c>
-      <c r="AF53" s="5">
+      <c r="AF53" s="10">
         <v>-79.2236683</v>
       </c>
       <c r="AG53" s="3" t="s">
@@ -11528,7 +11572,7 @@
         <v>6</v>
       </c>
       <c r="AK53" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AL53" s="3" t="s">
         <v>42</v>
@@ -11563,15 +11607,15 @@
       <c r="AV53" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW53" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX53" s="8"/>
-      <c r="AY53" s="8"/>
+      <c r="AW53" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="AX53" s="7"/>
+      <c r="AY53" s="7"/>
     </row>
     <row r="54" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>32</v>
@@ -11604,7 +11648,7 @@
         <v>304</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="s">
@@ -11620,10 +11664,10 @@
         <v>36</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>399</v>
@@ -11632,13 +11676,13 @@
         <v>3</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="X54" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="Y54" s="3">
         <v>7</v>
@@ -11658,11 +11702,11 @@
       <c r="AD54" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE54" s="5">
-        <v>-3.9337149999999999</v>
-      </c>
-      <c r="AF54" s="5">
-        <v>-79.224285199999997</v>
+      <c r="AE54" s="10">
+        <v>-4.3649766999999997</v>
+      </c>
+      <c r="AF54" s="10">
+        <v>-79.177278400000006</v>
       </c>
       <c r="AG54" s="3" t="s">
         <v>36</v>
@@ -11712,17 +11756,17 @@
       <c r="AV54" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW54" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="AX54" s="10" t="s">
-        <v>663</v>
-      </c>
-      <c r="AY54" s="8"/>
+      <c r="AW54" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="AX54" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="AY54" s="7"/>
     </row>
     <row r="55" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>32</v>
@@ -11755,7 +11799,7 @@
         <v>304</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M55" s="3"/>
       <c r="N55" s="3" t="s">
@@ -11771,10 +11815,10 @@
         <v>36</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T55" s="3" t="s">
         <v>400</v>
@@ -11783,13 +11827,13 @@
         <v>3</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X55" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Y55" s="3">
         <v>3</v>
@@ -11809,11 +11853,11 @@
       <c r="AD55" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE55" s="5">
-        <v>-3.9337181999999999</v>
-      </c>
-      <c r="AF55" s="5">
-        <v>-79.224289799999994</v>
+      <c r="AE55" s="10">
+        <v>-4.3646099999999999</v>
+      </c>
+      <c r="AF55" s="10">
+        <v>-79.177319999999995</v>
       </c>
       <c r="AG55" s="3" t="s">
         <v>32</v>
@@ -11863,13 +11907,13 @@
       <c r="AV55" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW55" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="AX55" s="10" t="s">
-        <v>664</v>
-      </c>
-      <c r="AY55" s="8"/>
+      <c r="AW55" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="AX55" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="AY55" s="7"/>
     </row>
     <row r="56" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
@@ -11906,7 +11950,7 @@
         <v>311</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="M56" s="3"/>
       <c r="N56" s="3" t="s">
@@ -11922,10 +11966,10 @@
         <v>36</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T56" s="3" t="s">
         <v>401</v>
@@ -11934,13 +11978,13 @@
         <v>2.75</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="X56" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="Y56" s="3">
         <v>3</v>
@@ -11960,11 +12004,11 @@
       <c r="AD56" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE56" s="5">
-        <v>-3.9337152</v>
-      </c>
-      <c r="AF56" s="5">
-        <v>-79.224282099999996</v>
+      <c r="AE56" s="10">
+        <v>-4.3645310000000004</v>
+      </c>
+      <c r="AF56" s="10">
+        <v>-79.177012000000005</v>
       </c>
       <c r="AG56" s="3" t="s">
         <v>32</v>
@@ -12014,13 +12058,13 @@
       <c r="AV56" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW56" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="AX56" s="10" t="s">
-        <v>665</v>
-      </c>
-      <c r="AY56" s="8"/>
+      <c r="AW56" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="AX56" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="AY56" s="7"/>
     </row>
     <row r="57" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
@@ -12057,10 +12101,10 @@
         <v>312</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>336</v>
@@ -12075,10 +12119,10 @@
         <v>38</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>402</v>
@@ -12087,13 +12131,13 @@
         <v>5</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="X57" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Y57" s="3">
         <v>2</v>
@@ -12113,10 +12157,10 @@
       <c r="AD57" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AE57" s="5">
+      <c r="AE57" s="10">
         <v>-4.3824087</v>
       </c>
-      <c r="AF57" s="5">
+      <c r="AF57" s="10">
         <v>-79.172025300000001</v>
       </c>
       <c r="AG57" s="3" t="s">
@@ -12129,16 +12173,16 @@
         <v>41</v>
       </c>
       <c r="AJ57" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AK57" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AL57" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM57" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AN57" s="3" t="s">
         <v>84</v>
@@ -12153,7 +12197,7 @@
         <v>36</v>
       </c>
       <c r="AR57" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AS57" s="3" t="s">
         <v>36</v>
@@ -12167,17 +12211,17 @@
       <c r="AV57" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW57" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="AX57" s="10" t="s">
-        <v>666</v>
-      </c>
-      <c r="AY57" s="8"/>
+      <c r="AW57" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="AX57" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="AY57" s="7"/>
     </row>
     <row r="58" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>32</v>
@@ -12210,10 +12254,10 @@
         <v>313</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>342</v>
@@ -12228,10 +12272,10 @@
         <v>36</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>403</v>
@@ -12240,13 +12284,13 @@
         <v>5.5</v>
       </c>
       <c r="V58" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="X58" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="Y58" s="3">
         <v>3</v>
@@ -12266,11 +12310,11 @@
       <c r="AD58" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AE58" s="11">
-        <v>-4.3626331</v>
-      </c>
-      <c r="AF58" s="11">
-        <v>-79.174605400000004</v>
+      <c r="AE58" s="10">
+        <v>-4.3179660999999996</v>
+      </c>
+      <c r="AF58" s="10">
+        <v>-79.195122299999994</v>
       </c>
       <c r="AG58" s="3" t="s">
         <v>32</v>
@@ -12285,13 +12329,13 @@
         <v>4</v>
       </c>
       <c r="AK58" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AL58" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM58" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AN58" s="3" t="s">
         <v>32</v>
@@ -12320,13 +12364,13 @@
       <c r="AV58" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW58" s="7" t="s">
-        <v>680</v>
-      </c>
-      <c r="AX58" s="10" t="s">
-        <v>667</v>
-      </c>
-      <c r="AY58" s="8"/>
+      <c r="AW58" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="AX58" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="AY58" s="7"/>
     </row>
     <row r="59" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
@@ -12363,10 +12407,10 @@
         <v>313</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>343</v>
@@ -12381,10 +12425,10 @@
         <v>36</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>404</v>
@@ -12396,10 +12440,10 @@
         <v>206</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="X59" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Y59" s="3">
         <v>2</v>
@@ -12419,11 +12463,11 @@
       <c r="AD59" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AE59" s="5">
-        <v>-4.3191904000000001</v>
-      </c>
-      <c r="AF59" s="5">
-        <v>-79.209080499999999</v>
+      <c r="AE59" s="10">
+        <v>-4.3191009999999999</v>
+      </c>
+      <c r="AF59" s="10">
+        <v>-79.208659999999995</v>
       </c>
       <c r="AG59" s="3" t="s">
         <v>36</v>
@@ -12438,7 +12482,7 @@
         <v>4</v>
       </c>
       <c r="AK59" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AL59" s="3" t="s">
         <v>42</v>
@@ -12473,17 +12517,17 @@
       <c r="AV59" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW59" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="AX59" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="AY59" s="8"/>
+      <c r="AW59" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="AX59" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="AY59" s="7"/>
     </row>
     <row r="60" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>36</v>
@@ -12516,10 +12560,10 @@
         <v>89</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>336</v>
@@ -12534,10 +12578,10 @@
         <v>38</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>405</v>
@@ -12549,10 +12593,10 @@
         <v>206</v>
       </c>
       <c r="W60" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="X60" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Y60" s="3">
         <v>3</v>
@@ -12572,10 +12616,10 @@
       <c r="AD60" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE60" s="5">
+      <c r="AE60" s="10">
         <v>-4.2769050000000002</v>
       </c>
-      <c r="AF60" s="5">
+      <c r="AF60" s="10">
         <v>-79.224453999999994</v>
       </c>
       <c r="AG60" s="3" t="s">
@@ -12591,13 +12635,13 @@
         <v>4</v>
       </c>
       <c r="AK60" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AL60" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM60" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AN60" s="3" t="s">
         <v>32</v>
@@ -12615,7 +12659,7 @@
         <v>6</v>
       </c>
       <c r="AS60" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AT60" s="3" t="s">
         <v>107</v>
@@ -12626,17 +12670,17 @@
       <c r="AV60" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW60" s="7" t="s">
-        <v>713</v>
-      </c>
-      <c r="AX60" s="8" t="s">
-        <v>669</v>
-      </c>
-      <c r="AY60" s="8"/>
+      <c r="AW60" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="AX60" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="AY60" s="7"/>
     </row>
     <row r="61" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>32</v>
@@ -12651,7 +12695,7 @@
         <v>989804020</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>279</v>
@@ -12669,10 +12713,10 @@
         <v>314</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="N61" s="3" t="s">
         <v>336</v>
@@ -12687,10 +12731,10 @@
         <v>38</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="T61" s="3" t="s">
         <v>406</v>
@@ -12699,13 +12743,13 @@
         <v>8</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="W61" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X61" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y61" s="3">
         <v>4</v>
@@ -12725,11 +12769,11 @@
       <c r="AD61" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AE61" s="11">
-        <v>-4.2625000000000002</v>
-      </c>
-      <c r="AF61" s="11">
-        <v>-79.222899999999996</v>
+      <c r="AE61" s="10">
+        <v>-4.2780570000000004</v>
+      </c>
+      <c r="AF61" s="10">
+        <v>-79.219165000000004</v>
       </c>
       <c r="AG61" s="3" t="s">
         <v>32</v>
@@ -12744,13 +12788,13 @@
         <v>4</v>
       </c>
       <c r="AK61" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AL61" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM61" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AN61" s="3" t="s">
         <v>32</v>
@@ -12768,7 +12812,7 @@
         <v>4</v>
       </c>
       <c r="AS61" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AT61" s="3" t="s">
         <v>107</v>
@@ -12779,17 +12823,17 @@
       <c r="AV61" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW61" s="7" t="s">
-        <v>714</v>
-      </c>
-      <c r="AX61" s="8" t="s">
-        <v>670</v>
-      </c>
-      <c r="AY61" s="8"/>
+      <c r="AW61" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="AX61" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="AY61" s="7"/>
     </row>
     <row r="62" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>32</v>
@@ -12819,13 +12863,13 @@
         <v>36</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>336</v>
@@ -12840,10 +12884,10 @@
         <v>38</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>407</v>
@@ -12852,13 +12896,13 @@
         <v>7</v>
       </c>
       <c r="V62" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="W62" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="X62" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Y62" s="3">
         <v>10</v>
@@ -12878,11 +12922,11 @@
       <c r="AD62" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE62" s="11">
-        <v>-4.2618400000000003</v>
-      </c>
-      <c r="AF62" s="11">
-        <v>-79.216089999999994</v>
+      <c r="AE62" s="10">
+        <v>-4.2612943999999997</v>
+      </c>
+      <c r="AF62" s="10">
+        <v>-79.216306900000006</v>
       </c>
       <c r="AG62" s="3" t="s">
         <v>32</v>
@@ -12897,13 +12941,13 @@
         <v>15</v>
       </c>
       <c r="AK62" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AL62" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM62" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AN62" s="3" t="s">
         <v>32</v>
@@ -12915,7 +12959,7 @@
         <v>50</v>
       </c>
       <c r="AQ62" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AR62" s="3">
         <v>3</v>
@@ -12932,13 +12976,13 @@
       <c r="AV62" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW62" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="AX62" s="10" t="s">
-        <v>630</v>
-      </c>
-      <c r="AY62" s="8"/>
+      <c r="AW62" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="AX62" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="AY62" s="7"/>
     </row>
     <row r="63" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
@@ -12972,13 +13016,13 @@
         <v>36</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N63" s="3" t="s">
         <v>336</v>
@@ -12996,7 +13040,7 @@
         <v>99</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="T63" s="3" t="s">
         <v>408</v>
@@ -13005,13 +13049,13 @@
         <v>7</v>
       </c>
       <c r="V63" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="W63" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="X63" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y63" s="3">
         <v>5</v>
@@ -13031,11 +13075,11 @@
       <c r="AD63" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE63" s="11">
-        <v>-4.2618</v>
-      </c>
-      <c r="AF63" s="11">
-        <v>-79.227500000000006</v>
+      <c r="AE63" s="10">
+        <v>-4.2532800999999996</v>
+      </c>
+      <c r="AF63" s="10">
+        <v>-79.221549899999999</v>
       </c>
       <c r="AG63" s="3" t="s">
         <v>36</v>
@@ -13050,13 +13094,13 @@
         <v>5</v>
       </c>
       <c r="AK63" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AL63" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM63" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AN63" s="3" t="s">
         <v>32</v>
@@ -13065,7 +13109,7 @@
         <v>6</v>
       </c>
       <c r="AP63" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AQ63" s="3" t="s">
         <v>36</v>
@@ -13074,7 +13118,7 @@
         <v>26</v>
       </c>
       <c r="AS63" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AT63" s="3" t="s">
         <v>44</v>
@@ -13085,15 +13129,17 @@
       <c r="AV63" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW63" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX63" s="8"/>
-      <c r="AY63" s="8"/>
+      <c r="AW63" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="AX63" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="AY63" s="7"/>
     </row>
     <row r="64" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>32</v>
@@ -13126,10 +13172,10 @@
         <v>315</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="N64" s="3" t="s">
         <v>336</v>
@@ -13144,10 +13190,10 @@
         <v>38</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="T64" s="3" t="s">
         <v>409</v>
@@ -13156,13 +13202,13 @@
         <v>5.5</v>
       </c>
       <c r="V64" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="W64" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X64" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Y64" s="3">
         <v>2</v>
@@ -13182,10 +13228,10 @@
       <c r="AD64" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE64" s="5">
+      <c r="AE64" s="10">
         <v>-4.217212</v>
       </c>
-      <c r="AF64" s="5">
+      <c r="AF64" s="10">
         <v>-79.257220000000004</v>
       </c>
       <c r="AG64" s="3" t="s">
@@ -13201,12 +13247,12 @@
         <v>6</v>
       </c>
       <c r="AK64" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AL64" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AM64" s="9" t="s">
+      <c r="AM64" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN64" s="3" t="s">
@@ -13225,7 +13271,7 @@
         <v>1</v>
       </c>
       <c r="AS64" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AT64" s="3" t="s">
         <v>44</v>
@@ -13236,11 +13282,11 @@
       <c r="AV64" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW64" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX64" s="8"/>
-      <c r="AY64" s="8"/>
+      <c r="AW64" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AX64" s="7"/>
+      <c r="AY64" s="7"/>
     </row>
     <row r="65" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
@@ -13277,7 +13323,7 @@
         <v>316</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="M65" s="3"/>
       <c r="N65" s="3" t="s">
@@ -13293,10 +13339,10 @@
         <v>38</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="T65" s="3" t="s">
         <v>410</v>
@@ -13305,13 +13351,13 @@
         <v>3</v>
       </c>
       <c r="V65" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="W65" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X65" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Y65" s="3">
         <v>1</v>
@@ -13331,11 +13377,11 @@
       <c r="AD65" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AE65" s="5">
-        <v>-4.218998</v>
-      </c>
-      <c r="AF65" s="5">
-        <v>-79.258652999999995</v>
+      <c r="AE65" s="10">
+        <v>-4.2188930999999998</v>
+      </c>
+      <c r="AF65" s="10">
+        <v>-79.258753499999997</v>
       </c>
       <c r="AG65" s="3" t="s">
         <v>36</v>
@@ -13350,13 +13396,13 @@
         <v>5</v>
       </c>
       <c r="AK65" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AL65" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM65" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AN65" s="3" t="s">
         <v>32</v>
@@ -13385,11 +13431,11 @@
       <c r="AV65" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW65" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX65" s="8"/>
-      <c r="AY65" s="8"/>
+      <c r="AW65" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AX65" s="7"/>
+      <c r="AY65" s="7"/>
     </row>
     <row r="66" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
@@ -13426,7 +13472,7 @@
         <v>317</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M66" s="3"/>
       <c r="N66" s="3" t="s">
@@ -13442,10 +13488,10 @@
         <v>38</v>
       </c>
       <c r="R66" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>411</v>
@@ -13454,13 +13500,13 @@
         <v>3</v>
       </c>
       <c r="V66" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="W66" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X66" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y66" s="3">
         <v>2</v>
@@ -13480,10 +13526,10 @@
       <c r="AD66" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE66" s="5">
+      <c r="AE66" s="10">
         <v>-4.2602200000000003</v>
       </c>
-      <c r="AF66" s="5">
+      <c r="AF66" s="10">
         <v>-79.223202000000001</v>
       </c>
       <c r="AG66" s="3" t="s">
@@ -13499,7 +13545,7 @@
         <v>16</v>
       </c>
       <c r="AK66" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AL66" s="3" t="s">
         <v>46</v>
@@ -13534,13 +13580,13 @@
       <c r="AV66" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW66" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="AX66" s="10" t="s">
-        <v>671</v>
-      </c>
-      <c r="AY66" s="8"/>
+      <c r="AW66" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="AX66" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="AY66" s="7"/>
     </row>
     <row r="67" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
@@ -13559,7 +13605,7 @@
         <v>991322614</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>285</v>
@@ -13577,7 +13623,7 @@
         <v>318</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="M67" s="3"/>
       <c r="N67" s="3" t="s">
@@ -13593,10 +13639,10 @@
         <v>38</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="T67" s="3" t="s">
         <v>412</v>
@@ -13608,10 +13654,10 @@
         <v>206</v>
       </c>
       <c r="W67" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X67" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Y67" s="3">
         <v>4</v>
@@ -13631,11 +13677,11 @@
       <c r="AD67" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE67" s="5">
-        <v>-4.2072909999999997</v>
-      </c>
-      <c r="AF67" s="5">
-        <v>-79.226574999999997</v>
+      <c r="AE67" s="11">
+        <v>-4.2604838999999997</v>
+      </c>
+      <c r="AF67" s="10">
+        <v>-79.222212299999995</v>
       </c>
       <c r="AG67" s="3" t="s">
         <v>32</v>
@@ -13685,11 +13731,11 @@
       <c r="AV67" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW67" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX67" s="8"/>
-      <c r="AY67" s="8"/>
+      <c r="AW67" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AX67" s="7"/>
+      <c r="AY67" s="7"/>
     </row>
     <row r="68" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
@@ -13723,13 +13769,13 @@
         <v>36</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="N68" s="3" t="s">
         <v>336</v>
@@ -13744,10 +13790,10 @@
         <v>38</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="T68" s="3" t="s">
         <v>413</v>
@@ -13756,13 +13802,13 @@
         <v>5</v>
       </c>
       <c r="V68" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="W68" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X68" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y68" s="3">
         <v>5</v>
@@ -13782,11 +13828,11 @@
       <c r="AD68" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE68" s="5">
-        <v>-3.7921779999999998</v>
-      </c>
-      <c r="AF68" s="11">
-        <v>-79.221000000000004</v>
+      <c r="AE68" s="10">
+        <v>-3.7922074000000001</v>
+      </c>
+      <c r="AF68" s="10">
+        <v>-79.283734499999994</v>
       </c>
       <c r="AG68" s="3" t="s">
         <v>36</v>
@@ -13801,13 +13847,13 @@
         <v>4</v>
       </c>
       <c r="AK68" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AL68" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM68" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AN68" s="3" t="s">
         <v>32</v>
@@ -13836,13 +13882,13 @@
       <c r="AV68" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW68" s="7" t="s">
-        <v>716</v>
-      </c>
-      <c r="AX68" s="10" t="s">
-        <v>672</v>
-      </c>
-      <c r="AY68" s="8"/>
+      <c r="AW68" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="AX68" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="AY68" s="7"/>
     </row>
     <row r="69" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
@@ -13876,13 +13922,13 @@
         <v>36</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="N69" s="3" t="s">
         <v>336</v>
@@ -13897,10 +13943,10 @@
         <v>38</v>
       </c>
       <c r="R69" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="T69" s="3" t="s">
         <v>414</v>
@@ -13909,13 +13955,13 @@
         <v>5</v>
       </c>
       <c r="V69" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="W69" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="X69" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y69" s="3">
         <v>3</v>
@@ -13935,11 +13981,11 @@
       <c r="AD69" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE69" s="11">
+      <c r="AE69" s="10">
         <v>-4.2157681</v>
       </c>
-      <c r="AF69" s="11">
-        <v>-79.25412</v>
+      <c r="AF69" s="10">
+        <v>-79.254120499999999</v>
       </c>
       <c r="AG69" s="3" t="s">
         <v>36</v>
@@ -13954,13 +14000,13 @@
         <v>8</v>
       </c>
       <c r="AK69" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AL69" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM69" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AN69" s="3" t="s">
         <v>32</v>
@@ -13978,7 +14024,7 @@
         <v>3</v>
       </c>
       <c r="AS69" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AT69" s="3" t="s">
         <v>44</v>
@@ -13989,11 +14035,11 @@
       <c r="AV69" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW69" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX69" s="8"/>
-      <c r="AY69" s="8"/>
+      <c r="AW69" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AX69" s="7"/>
+      <c r="AY69" s="7"/>
     </row>
     <row r="70" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
@@ -14030,10 +14076,10 @@
         <v>319</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="N70" s="3" t="s">
         <v>336</v>
@@ -14048,10 +14094,10 @@
         <v>38</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="T70" s="3" t="s">
         <v>415</v>
@@ -14060,13 +14106,13 @@
         <v>12</v>
       </c>
       <c r="V70" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="W70" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X70" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y70" s="3">
         <v>2</v>
@@ -14086,11 +14132,11 @@
       <c r="AD70" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE70" s="5">
-        <v>-4.2401593999999996</v>
-      </c>
-      <c r="AF70" s="5" t="s">
-        <v>428</v>
+      <c r="AE70" s="10">
+        <v>-4.2591551000000001</v>
+      </c>
+      <c r="AF70" s="10">
+        <v>-79.221482300000005</v>
       </c>
       <c r="AG70" s="3" t="s">
         <v>36</v>
@@ -14105,13 +14151,13 @@
         <v>12</v>
       </c>
       <c r="AK70" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AL70" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM70" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AN70" s="3" t="s">
         <v>32</v>
@@ -14140,13 +14186,13 @@
       <c r="AV70" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW70" s="7" t="s">
-        <v>717</v>
-      </c>
-      <c r="AX70" s="10" t="s">
-        <v>673</v>
-      </c>
-      <c r="AY70" s="8"/>
+      <c r="AW70" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="AX70" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="AY70" s="7"/>
     </row>
     <row r="71" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
@@ -14183,10 +14229,10 @@
         <v>320</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="N71" s="3" t="s">
         <v>336</v>
@@ -14201,10 +14247,10 @@
         <v>38</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="T71" s="3" t="s">
         <v>416</v>
@@ -14213,13 +14259,13 @@
         <v>10</v>
       </c>
       <c r="V71" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="W71" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X71" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y71" s="3">
         <v>2</v>
@@ -14239,11 +14285,11 @@
       <c r="AD71" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE71" s="5">
-        <v>-3.7952233299999998</v>
-      </c>
-      <c r="AF71" s="5">
-        <v>-79.279866249999998</v>
+      <c r="AE71" s="10">
+        <v>-3.7951874999999999</v>
+      </c>
+      <c r="AF71" s="10">
+        <v>-79.2800625</v>
       </c>
       <c r="AG71" s="3" t="s">
         <v>36</v>
@@ -14258,13 +14304,13 @@
         <v>12</v>
       </c>
       <c r="AK71" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AL71" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM71" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AN71" s="3" t="s">
         <v>32</v>
@@ -14282,7 +14328,7 @@
         <v>4</v>
       </c>
       <c r="AS71" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AT71" s="3" t="s">
         <v>107</v>
@@ -14293,13 +14339,13 @@
       <c r="AV71" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW71" s="7" t="s">
-        <v>718</v>
-      </c>
-      <c r="AX71" s="10" t="s">
-        <v>674</v>
-      </c>
-      <c r="AY71" s="8"/>
+      <c r="AW71" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="AX71" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="AY71" s="7"/>
     </row>
     <row r="72" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
@@ -14336,7 +14382,7 @@
         <v>321</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M72" s="3"/>
       <c r="N72" s="3" t="s">
@@ -14352,10 +14398,10 @@
         <v>38</v>
       </c>
       <c r="R72" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>417</v>
@@ -14364,13 +14410,13 @@
         <v>1</v>
       </c>
       <c r="V72" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="W72" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X72" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Y72" s="3">
         <v>4</v>
@@ -14390,10 +14436,10 @@
       <c r="AD72" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE72" s="5">
+      <c r="AE72" s="10">
         <v>-4.2602510000000002</v>
       </c>
-      <c r="AF72" s="5">
+      <c r="AF72" s="10">
         <v>-79.223399999999998</v>
       </c>
       <c r="AG72" s="3" t="s">
@@ -14409,13 +14455,13 @@
         <v>20</v>
       </c>
       <c r="AK72" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AL72" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM72" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AN72" s="3" t="s">
         <v>32</v>
@@ -14444,13 +14490,13 @@
       <c r="AV72" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW72" s="7" t="s">
-        <v>719</v>
-      </c>
-      <c r="AX72" s="10" t="s">
-        <v>675</v>
-      </c>
-      <c r="AY72" s="8"/>
+      <c r="AW72" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="AX72" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="AY72" s="7"/>
     </row>
     <row r="73" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
@@ -14484,10 +14530,10 @@
         <v>36</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M73" s="3"/>
       <c r="N73" s="3" t="s">
@@ -14503,10 +14549,10 @@
         <v>38</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T73" s="3" t="s">
         <v>418</v>
@@ -14515,13 +14561,13 @@
         <v>3</v>
       </c>
       <c r="V73" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="W73" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X73" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y73" s="3">
         <v>2</v>
@@ -14541,11 +14587,11 @@
       <c r="AD73" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE73" s="5">
-        <v>-4.2617066000000001</v>
-      </c>
-      <c r="AF73" s="5" t="s">
-        <v>429</v>
+      <c r="AE73" s="10">
+        <v>-4.2617829</v>
+      </c>
+      <c r="AF73" s="10">
+        <v>-79.223820900000007</v>
       </c>
       <c r="AG73" s="3" t="s">
         <v>36</v>
@@ -14566,7 +14612,7 @@
         <v>46</v>
       </c>
       <c r="AM73" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AN73" s="3" t="s">
         <v>32</v>
@@ -14595,11 +14641,11 @@
       <c r="AV73" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW73" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX73" s="8"/>
-      <c r="AY73" s="8"/>
+      <c r="AW73" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AX73" s="7"/>
+      <c r="AY73" s="7"/>
     </row>
     <row r="74" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
@@ -14636,7 +14682,7 @@
         <v>322</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M74" s="3"/>
       <c r="N74" s="3" t="s">
@@ -14652,10 +14698,10 @@
         <v>38</v>
       </c>
       <c r="R74" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T74" s="3" t="s">
         <v>419</v>
@@ -14664,13 +14710,13 @@
         <v>3.5</v>
       </c>
       <c r="V74" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="W74" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X74" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="Y74" s="3">
         <v>2</v>
@@ -14690,10 +14736,10 @@
       <c r="AD74" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE74" s="5">
+      <c r="AE74" s="10">
         <v>-4.2603489999999997</v>
       </c>
-      <c r="AF74" s="5">
+      <c r="AF74" s="10">
         <v>-79.222251</v>
       </c>
       <c r="AG74" s="3" t="s">
@@ -14709,7 +14755,7 @@
         <v>10</v>
       </c>
       <c r="AK74" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AL74" s="3" t="s">
         <v>46</v>
@@ -14744,15 +14790,15 @@
       <c r="AV74" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW74" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX74" s="8"/>
-      <c r="AY74" s="8"/>
+      <c r="AW74" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AX74" s="7"/>
+      <c r="AY74" s="7"/>
     </row>
     <row r="75" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>32</v>
@@ -14785,7 +14831,7 @@
         <v>323</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M75" s="3"/>
       <c r="N75" s="3" t="s">
@@ -14801,10 +14847,10 @@
         <v>38</v>
       </c>
       <c r="R75" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T75" s="3" t="s">
         <v>420</v>
@@ -14813,13 +14859,13 @@
         <v>2.25</v>
       </c>
       <c r="V75" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="W75" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X75" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="Y75" s="3">
         <v>3</v>
@@ -14839,10 +14885,10 @@
       <c r="AD75" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE75" s="5">
+      <c r="AE75" s="10">
         <v>-4.3190039999999996</v>
       </c>
-      <c r="AF75" s="5">
+      <c r="AF75" s="10">
         <v>-79.235405700000001</v>
       </c>
       <c r="AG75" s="3" t="s">
@@ -14893,13 +14939,13 @@
       <c r="AV75" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW75" s="7" t="s">
-        <v>720</v>
-      </c>
-      <c r="AX75" s="10" t="s">
-        <v>676</v>
-      </c>
-      <c r="AY75" s="8"/>
+      <c r="AW75" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="AX75" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="AY75" s="7"/>
     </row>
     <row r="76" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
@@ -14936,10 +14982,10 @@
         <v>324</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>336</v>
@@ -14954,10 +15000,10 @@
         <v>38</v>
       </c>
       <c r="R76" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>421</v>
@@ -14969,10 +15015,10 @@
         <v>206</v>
       </c>
       <c r="W76" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X76" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Y76" s="3">
         <v>3</v>
@@ -14992,10 +15038,10 @@
       <c r="AD76" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE76" s="5">
+      <c r="AE76" s="10">
         <v>-4.2622049999999998</v>
       </c>
-      <c r="AF76" s="5">
+      <c r="AF76" s="10">
         <v>-79.221344000000002</v>
       </c>
       <c r="AG76" s="3" t="s">
@@ -15011,13 +15057,13 @@
         <v>5</v>
       </c>
       <c r="AK76" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AL76" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM76" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AN76" s="3" t="s">
         <v>32</v>
@@ -15046,15 +15092,15 @@
       <c r="AV76" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW76" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX76" s="8"/>
-      <c r="AY76" s="8"/>
+      <c r="AW76" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AX76" s="7"/>
+      <c r="AY76" s="7"/>
     </row>
     <row r="77" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>32</v>
@@ -15084,13 +15130,13 @@
         <v>36</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="N77" s="3" t="s">
         <v>336</v>
@@ -15105,10 +15151,10 @@
         <v>38</v>
       </c>
       <c r="R77" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="T77" s="3" t="s">
         <v>422</v>
@@ -15117,13 +15163,13 @@
         <v>6</v>
       </c>
       <c r="V77" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="W77" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X77" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="Y77" s="3">
         <v>2</v>
@@ -15143,10 +15189,10 @@
       <c r="AD77" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE77" s="11">
+      <c r="AE77" s="10">
         <v>-4.2605000000000004</v>
       </c>
-      <c r="AF77" s="11">
+      <c r="AF77" s="10">
         <v>-79.221000000000004</v>
       </c>
       <c r="AG77" s="3" t="s">
@@ -15162,7 +15208,7 @@
         <v>9</v>
       </c>
       <c r="AK77" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AL77" s="3" t="s">
         <v>42</v>
@@ -15186,7 +15232,7 @@
         <v>2</v>
       </c>
       <c r="AS77" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AT77" s="3" t="s">
         <v>44</v>
@@ -15197,11 +15243,13 @@
       <c r="AV77" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW77" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX77" s="8"/>
-      <c r="AY77" s="8"/>
+      <c r="AW77" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="AX77" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="AY77" s="7"/>
     </row>
     <row r="78" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
@@ -15238,7 +15286,7 @@
         <v>325</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="M78" s="3"/>
       <c r="N78" s="3" t="s">
@@ -15254,10 +15302,10 @@
         <v>38</v>
       </c>
       <c r="R78" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="T78" s="3" t="s">
         <v>423</v>
@@ -15266,13 +15314,13 @@
         <v>3.5</v>
       </c>
       <c r="V78" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="W78" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X78" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Y78" s="3">
         <v>1</v>
@@ -15292,11 +15340,11 @@
       <c r="AD78" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE78" s="11">
-        <v>-4.2626999999999997</v>
-      </c>
-      <c r="AF78" s="11">
-        <v>-79.224999999999994</v>
+      <c r="AE78" s="10">
+        <v>-4.2623907000000001</v>
+      </c>
+      <c r="AF78" s="10">
+        <v>-79.223282499999996</v>
       </c>
       <c r="AG78" s="3" t="s">
         <v>36</v>
@@ -15335,7 +15383,7 @@
         <v>1</v>
       </c>
       <c r="AS78" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AT78" s="3" t="s">
         <v>44</v>
@@ -15346,17 +15394,17 @@
       <c r="AV78" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW78" s="7" t="s">
-        <v>721</v>
-      </c>
-      <c r="AX78" s="10" t="s">
-        <v>677</v>
-      </c>
-      <c r="AY78" s="8"/>
+      <c r="AW78" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="AX78" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="AY78" s="7"/>
     </row>
     <row r="79" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>32</v>
@@ -15386,10 +15434,10 @@
         <v>36</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M79" s="3"/>
       <c r="N79" s="3" t="s">
@@ -15405,10 +15453,10 @@
         <v>38</v>
       </c>
       <c r="R79" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T79" s="3" t="s">
         <v>424</v>
@@ -15420,10 +15468,10 @@
         <v>206</v>
       </c>
       <c r="W79" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X79" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="Y79" s="3">
         <v>1</v>
@@ -15443,10 +15491,10 @@
       <c r="AD79" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE79" s="5">
+      <c r="AE79" s="10">
         <v>-3.7406410000000001</v>
       </c>
-      <c r="AF79" s="5">
+      <c r="AF79" s="10">
         <v>-79.264685</v>
       </c>
       <c r="AG79" s="3" t="s">
@@ -15497,17 +15545,17 @@
       <c r="AV79" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW79" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="AX79" s="10" t="s">
-        <v>624</v>
-      </c>
-      <c r="AY79" s="8"/>
+      <c r="AW79" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="AX79" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="AY79" s="7"/>
     </row>
     <row r="80" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>32</v>
@@ -15540,10 +15588,10 @@
         <v>326</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="N80" s="3" t="s">
         <v>336</v>
@@ -15558,10 +15606,10 @@
         <v>38</v>
       </c>
       <c r="R80" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="T80" s="3" t="s">
         <v>425</v>
@@ -15570,13 +15618,13 @@
         <v>6</v>
       </c>
       <c r="V80" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="W80" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X80" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="Y80" s="3">
         <v>2</v>
@@ -15596,11 +15644,11 @@
       <c r="AD80" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE80" s="5">
-        <v>-3.7893680010000002</v>
-      </c>
-      <c r="AF80" s="5">
-        <v>-79.289894709999999</v>
+      <c r="AE80" s="10">
+        <v>-3.7900879999999999</v>
+      </c>
+      <c r="AF80" s="10">
+        <v>-79.287612100000004</v>
       </c>
       <c r="AG80" s="3" t="s">
         <v>36</v>
@@ -15650,17 +15698,17 @@
       <c r="AV80" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW80" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="AX80" s="10" t="s">
-        <v>626</v>
-      </c>
-      <c r="AY80" s="8"/>
+      <c r="AW80" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="AX80" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="AY80" s="7"/>
     </row>
     <row r="81" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>32</v>
@@ -15693,10 +15741,10 @@
         <v>327</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>336</v>
@@ -15711,10 +15759,10 @@
         <v>38</v>
       </c>
       <c r="R81" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>426</v>
@@ -15726,10 +15774,10 @@
         <v>206</v>
       </c>
       <c r="W81" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="X81" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="Y81" s="3">
         <v>2</v>
@@ -15749,11 +15797,11 @@
       <c r="AD81" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE81" s="5">
-        <v>-4.2191359999999998</v>
-      </c>
-      <c r="AF81" s="5">
-        <v>-79.257497999999998</v>
+      <c r="AE81" s="10">
+        <v>-4.2613630000000002</v>
+      </c>
+      <c r="AF81" s="10">
+        <v>-79.224029000000002</v>
       </c>
       <c r="AG81" s="3" t="s">
         <v>36</v>
@@ -15803,15 +15851,17 @@
       <c r="AV81" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW81" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX81" s="8"/>
-      <c r="AY81" s="8"/>
+      <c r="AW81" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="AX81" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="AY81" s="7"/>
     </row>
     <row r="82" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>32</v>
@@ -15844,10 +15894,10 @@
         <v>328</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="N82" s="3" t="s">
         <v>336</v>
@@ -15862,10 +15912,10 @@
         <v>38</v>
       </c>
       <c r="R82" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="T82" s="3" t="s">
         <v>427</v>
@@ -15874,10 +15924,10 @@
         <v>6</v>
       </c>
       <c r="V82" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="W82" s="6"/>
-      <c r="X82" s="6"/>
+        <v>550</v>
+      </c>
+      <c r="W82" s="5"/>
+      <c r="X82" s="5"/>
       <c r="Y82" s="3">
         <v>2</v>
       </c>
@@ -15896,11 +15946,11 @@
       <c r="AD82" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE82" s="5">
-        <v>-3.7899438519999999</v>
-      </c>
-      <c r="AF82" s="5">
-        <v>-79.288125579999999</v>
+      <c r="AE82" s="10">
+        <v>-3.7900879999999999</v>
+      </c>
+      <c r="AF82" s="10">
+        <v>-79.287612100000004</v>
       </c>
       <c r="AG82" s="3" t="s">
         <v>36</v>
@@ -15915,7 +15965,7 @@
         <v>10</v>
       </c>
       <c r="AK82" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AL82" s="3" t="s">
         <v>42</v>
@@ -15939,7 +15989,7 @@
         <v>1</v>
       </c>
       <c r="AS82" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AT82" s="3" t="s">
         <v>107</v>
@@ -15950,13 +16000,13 @@
       <c r="AV82" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW82" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="AX82" s="8" t="s">
-        <v>628</v>
-      </c>
-      <c r="AY82" s="8"/>
+      <c r="AW82" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="AX82" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="AY82" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -16006,6 +16056,13 @@
     <hyperlink ref="AX82" r:id="rId43" xr:uid="{7D84B744-5B31-9C43-80F8-CF32B5B3A4A8}"/>
     <hyperlink ref="AX62" r:id="rId44" xr:uid="{F9669C75-4D0E-AA48-AD19-279027764C15}"/>
     <hyperlink ref="AX45" r:id="rId45" xr:uid="{C9C8826F-EDEE-6048-8B46-F998250E9A80}"/>
+    <hyperlink ref="AX39" r:id="rId46" xr:uid="{B67F2D20-9872-F94F-9EE2-39DFCB4F3916}"/>
+    <hyperlink ref="AX77" r:id="rId47" xr:uid="{884AD5F0-6547-BA42-98D6-BEF8B27AC7F9}"/>
+    <hyperlink ref="AX63" r:id="rId48" xr:uid="{3EAE533D-E995-C948-B42B-1627B7A2E753}"/>
+    <hyperlink ref="AX81" r:id="rId49" xr:uid="{49E159BD-EDE4-964D-A138-C7CA5D59B301}"/>
+    <hyperlink ref="AX51" r:id="rId50" xr:uid="{576C53BB-1A25-624C-A99D-D18E64AB8F1F}"/>
+    <hyperlink ref="AX47" r:id="rId51" xr:uid="{BDE86B85-045C-DC4D-9B46-EEE8EF3B3511}"/>
+    <hyperlink ref="AX49" r:id="rId52" xr:uid="{F2869AB6-5095-BA4C-8430-66ED50CBC955}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>

--- a/media/csv_uploads/gastronomia_establecimiento1.xlsx
+++ b/media/csv_uploads/gastronomia_establecimiento1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santigovinan/Documents/applications-django/emprendimientos/media/csv_uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2069B2-ECF5-3B42-9C9B-CB6EFEBEB827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A45A72-4792-B74E-8AB3-9351C26912C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="28940" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3050" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3064" uniqueCount="788">
   <si>
     <t>nombre</t>
   </si>
@@ -227,9 +227,6 @@
     <t>Elizabeth Orellana</t>
   </si>
   <si>
-    <t>Lunes a Domingo 8 am a 8 pm</t>
-  </si>
-  <si>
     <t>Patricia Pacha</t>
   </si>
   <si>
@@ -947,15 +944,9 @@
     <t>Jueves a Domingo 10h00 a 21h00</t>
   </si>
   <si>
-    <t>Pendiente confirmar con visita in situ</t>
-  </si>
-  <si>
     <t>Lunes a Domingo 10h00 a 18h00</t>
   </si>
   <si>
-    <t>"Jueves a Martes de 09h30 a 21h00 Miercoles (cerrado) "</t>
-  </si>
-  <si>
     <t>Todos los dias 09h00 a 23h00</t>
   </si>
   <si>
@@ -980,48 +971,9 @@
     <t>Martes a domingo 11 am a 19 pm</t>
   </si>
   <si>
-    <t>Lunes a Domingo 8:30 am a 9:00 pm</t>
-  </si>
-  <si>
-    <t>Martes a Domingo 11h30 am a 23:00 pm</t>
-  </si>
-  <si>
-    <t>Lunes a Domingo 8:00 a 11:00 pm</t>
-  </si>
-  <si>
-    <t>Miercoles a Domingo de 11:00 a 21:00</t>
-  </si>
-  <si>
-    <t>Viernes a Domingo 8 am a 7 pm</t>
-  </si>
-  <si>
-    <t>Miercoles a Domingo de 10:00 a 18:00</t>
-  </si>
-  <si>
-    <t>Miercoles a domingo 7:30 a 18</t>
-  </si>
-  <si>
-    <t>Lunes a domingo 8 am a 8 pm</t>
-  </si>
-  <si>
-    <t>Lunes a sabado 8:00 a 19:00</t>
-  </si>
-  <si>
-    <t>Jueves a Domingo de 10 am a 10 pm</t>
-  </si>
-  <si>
-    <t>Lunes a Doming de 9h00 a 21h00</t>
-  </si>
-  <si>
-    <t>Lunes a domingo 07h00 a 17h00</t>
-  </si>
-  <si>
     <t>Lunes a Domingo de 10:00 a 20:00</t>
   </si>
   <si>
-    <t>Sábado y Domingo 8h00 a 18h00</t>
-  </si>
-  <si>
     <t>Lavamanos funcional, Agua potable, Servicio higiénico, Utensilios de limpieza.</t>
   </si>
   <si>
@@ -1088,84 +1040,36 @@
     <t>Cuy - Caldo de borrego - Arroz con carne - Desayunos y Almuerzos en general</t>
   </si>
   <si>
-    <t>Cecinas - Longaniza - Caldo de Gallina</t>
-  </si>
-  <si>
     <t>Cecina - Mote pillo - Tigrillo</t>
   </si>
   <si>
-    <t>Cecina - Chaulafan - Seco de gallina</t>
-  </si>
-  <si>
     <t>Cecinas - Seco de gallina - Chuleta</t>
   </si>
   <si>
     <t>Cecina - Cuy - Guata - Asados en general</t>
   </si>
   <si>
-    <t>Cecina - Carne frita - Seco de carne - Tigrillo - Almuerzos en general</t>
-  </si>
-  <si>
-    <t>Pollos asados - Consomé</t>
-  </si>
-  <si>
-    <t>Caldo de gallina - Seco de pollo - Cecina - Desayuno/Almuerzos/Meriendas en general</t>
-  </si>
-  <si>
-    <t>Arroz relleno - Seco de pollo - Guatita - Almuerzos en general</t>
-  </si>
-  <si>
     <t>Cecina - Tigrillo - Seco de Pollo - Desayunos en general</t>
   </si>
   <si>
     <t>Cecinas - Sopas en general- Asados</t>
   </si>
   <si>
-    <t>Cecinas - Parrilladas - Costilla Asada</t>
-  </si>
-  <si>
     <t>Cecinas - Sopas en general - Pollo al jugo</t>
   </si>
   <si>
-    <t>Cecinas - Gallina criolla - Pescado frito</t>
-  </si>
-  <si>
-    <t>Longaniza - Cecina - Caldo de gallina criolla</t>
-  </si>
-  <si>
-    <t>Cecina Asada - Fritada- Caldo de gallina criolla</t>
-  </si>
-  <si>
     <t>Cecinas - Costilla - Guata con Ceviche</t>
   </si>
   <si>
-    <t>Chuleta - Cecinas - Pescado frito</t>
-  </si>
-  <si>
     <t>Pastelería en general - Papas con alitas - Sánduches</t>
   </si>
   <si>
-    <t>Cecina- Caldo de gallina - Seco de gallina - Desayunos en general</t>
-  </si>
-  <si>
-    <t>Cecina - Estofado de gallina - Caldo de gallina</t>
-  </si>
-  <si>
     <t>Cecina - Mixtas con guata - Longaniza</t>
   </si>
   <si>
     <t>Cecina - Longaniza - Alitas bbq</t>
   </si>
   <si>
-    <t>Pollo broster - Papipollo - Salchipapa - Desayunos /Almuerzos/ Meriendas en general</t>
-  </si>
-  <si>
-    <t>Fritada - Chuleta - Guatita - Almuerzos en general</t>
-  </si>
-  <si>
-    <t>Pollo al jugo - Almuerzos en general</t>
-  </si>
-  <si>
     <t>Fritada - Sancocho - Morcilla - Almuerzos en general</t>
   </si>
   <si>
@@ -1499,27 +1403,6 @@
     <t>piscicolaordonez</t>
   </si>
   <si>
-    <t>Lunes a viernes 11 am a 10 pm Sábado a Domingo 10 am a 11 pm</t>
-  </si>
-  <si>
-    <t>Sabados, Domingos y Feriados de 10 am hasta 22:00 Domingo de 10:00 a 19h00</t>
-  </si>
-  <si>
-    <t>6:30am a 21:00 pm lunes a sabado 8:00 am a 16:00 pm domingo</t>
-  </si>
-  <si>
-    <t>8 am a 9pm lunes a viernes 8 am a 4 pm sabados, domingos y feriados</t>
-  </si>
-  <si>
-    <t>8 am a 15:00 Lunes a Miercoles 17 am a 22:00 Jueves a Sábado</t>
-  </si>
-  <si>
-    <t>6:00 am a 23h30 de lunes a domingo (Bajo reserva)</t>
-  </si>
-  <si>
-    <t>Hosteria: todos los dias Restaurante: Viernes a domingo 8:00 a 21:00</t>
-  </si>
-  <si>
     <t>Miercoles y Jueves 15h00 a 22h00 Viernes 15h00 a 23h00 Sabado 12h00 a 23h59 Domingo 12h00 a 22h30</t>
   </si>
   <si>
@@ -2301,6 +2184,219 @@
   </si>
   <si>
     <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1768359396/Vilkalitas_Vilcabamba_fachada_web__m9oepb.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768359400/Vilkalitas_Vilcabamba_intfront_web__hnupog.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768359406/Vilkalitas_Vilcabamba_proddetal_web__qgqepz.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768359411/Vilkalitas_Vilcabamba_extfrt_web__brhrhn.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768359416/Vilkalitas_Vilcabamba_idnt_web__yr5gw2.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768359420/Vilkalitas_Vilcabamba_intr_web__motdwq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768359425/Vilkalitas_Vilcabamba_proddetals_web__z7bmdv.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768359436/Vilkalitas_Vilcabamba_prodft_web__vf6myl.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1768441040/TheMills_YelAsadero_ElCisne_ext_web__izni3d.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1768441052/TheMills_YelAsadero_ElCisne_identh_web__phhaye.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768441060/TheMills_YelAsadero_ElCisne_propg_web__cmnoco.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1768441221/Central_Rest_ElCisne_ext_web__s8jnri.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1768441228/Central_Rest_ElCisne_idnt_web__rzvtex.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768441233/Central_Rest_ElCisne_extngt_web__z2k1tx.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768441244/Central_Rest_ElCisne_prdpfam_web__kdjtqh.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768441250/Central_Rest_ElCisne_prddtll_web__icm9eh.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1768441470/CecinadelaChuronita_ElCisne_fachada_web__ak0soi.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1768441477/CecinadelaChuronita_ElCisne_identidd_web__esxlzw.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768441483/CecinadelaChuronita_ElCisne_prddetails_web__ziez4o.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768441490/CecinadelaChuronita_ElCisne_prddetls_web__fiknun.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768441496/CecinadelaChuronita_ElCisne_prdfgn_web__uuihbz.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1768441657/UnToqueCuencano_ElCisne_idnt_web__f3ji0c.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1768441663/UnToqueCuencano_ElCisne_prd_web__kkdq2g.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768441670/UnToqueCuencano_ElCisne_idnt2_web__eiq5rw.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768441678/UnToqueCuencano_ElCisne_prdtlxhx_web__i05wu2.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768441685/UnToqueCuencano_ElCisne_prdfrtal_web__qebfbt.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1768441897/DonFer_Rest_ElCisne_ext_web__kdlzr1.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1768441908/DonFer_Rest_ElCisne_idnt2_web__yyhpz5.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768441916/DonFer_Rest_ElCisne_ext2_web__pblytw.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768441923/DonFer_Rest_ElCisne_prd_web__gpyg6y.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1768442077/ElJure_Restaurante_ElCisne_identidad_web__ulb0ys.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1768442085/ElJure_Restaurante_ElCisne_productodtl_web__gcguca.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768442093/ElJure_Restaurante_ElCisne_productodls_web__dlobbh.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768442100/ElJure_Restaurante_ElCisne_productodtlc_web__b4m0ln.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768442108/ElJure_Restaurante_ElCisne_productog_web__v3tode.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1768442774/BambuRestaurante_Vilcabamba_ext_web__k82l3w.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1768442783/BambuRestaurante_Vilcabamba_prodcmrnl_web__lxvgjj.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768442790/BambuRestaurante_Vilcabamba_idnt_web__g7gg2c.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768442798/BambuRestaurante_Vilcabamba_prdop_web__zjcl9y.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768442807/BambuRestaurante_Vilcabamba_proddel_web__bv0hpt.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768442816/BambuRestaurante_Vilcabamba_proddettll_web__xl8bsz.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768442823/BambuRestaurante_Vilcabamba_proddtlxl_web__pejkgu.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768442832/BambuRestaurante_Vilcabamba_proppgg_web__gus2bv.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1768443138/Parrilla_CafeBar_Vilcabamba_02_ea6aej.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1768443153/Parrilla_CafeBar_Vilcabamba_Fachadalaterak_web__iwtbeq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768443163/Parrilla_CafeBar_Vilcabamba_04_w4t4di.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768443172/Parrilla_CafeBar_Vilcabamba_06_cavo8q.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768443182/Parrilla_CafeBar_Vilcabamba_Instalaciones_web__fzk92k.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1768443479/MamaFlora_Gualel_fachadad_web__t4fkq1.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1768443488/MamaFlora_Gualel_prddlt_web__jocfiy.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768443502/MamaFlora_Gualel_prdgppll_web__hcsqui.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768443511/MamaFlora_Gualel_identiddweb__ej1k3a.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768443521/MamaFlora_Gualel_prdfront_web__xruxqq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768443532/MamaFlora_Gualel_prdgpp_web__zijjtw.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1768443685/Sabor_Criollo_Jimbilla_idnt_web__jp2z1x.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1768443699/Sabor_Criollo_Jimbilla_proredl_web__nbuh1t.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768443709/Sabor_Criollo_Jimbilla_prod2_web__oahkl2.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1768443834/ComedorSinNombre_Jimbilla_idnt_web__sg6btf.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1768443848/ComedorSinNombre_Jimbilla_proddetalle_web__gzimcs.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1768443981/LaCriollita_Taquil_ext_web__tz5ltw.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1768443992/LaCriollita_Taquil_prodrec_web__t1crrs.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768444002/LaCriollita_Taquil_prodtll_web__yx9me6.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1768444392/CentroChuquiribambense_idnt2_web__ajifoo.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1768444370/CentroChuquiribambense_ext_web__aptzyz.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768444381/CentroChuquiribambense_proddtlpp_web__xxuoy4.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768444402/CentroChuquiribambense_proddetall_web__vjeymf.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768444413/CentroChuquiribambense_prodfront_web__hddaqg.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1768444587/DioslePague_Chuquiribamba_ext_web__ktb5ot.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1768444598/DioslePague_Chuquiribamba_intr_web__dpft5j.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768444611/DioslePague_Chuquiribamba_extint_web__iezxv3.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768444622/DioslePague_Chuquiribamba_ident_web__yh8t62.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768444634/DioslePague_Chuquiribamba_prodpg_web__yvawih.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768444645/DioslePague_Chuquiribamba_prodpgcutv_web__ibkl7f.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1768444656/DioslePague_Chuquiribamba_prodt_web__pss1gt.jpg}</t>
+  </si>
+  <si>
+    <t>Estofado y Caldo de Gallina Criolla - Cecinas - Longaniza</t>
+  </si>
+  <si>
+    <t>Tigrillo - Cecina - Chaulafan</t>
+  </si>
+  <si>
+    <t>Humita con Tamal - Cecina - Tigrillo - Almuerzos en general</t>
+  </si>
+  <si>
+    <t>Cecina - Pollos asados - Consomé</t>
+  </si>
+  <si>
+    <t>Cecina - Caldo de gallina - Asados - Desayuno/Almuerzos/Meriendas en general</t>
+  </si>
+  <si>
+    <t>Pollo a la plancha - Seco de pollo - Guatita - Almuerzos en general</t>
+  </si>
+  <si>
+    <t>Caldo de Gallina Criolla - Cecinas - Parrilladas</t>
+  </si>
+  <si>
+    <t>Caldo de Gallina criolla - Cecinas - Pescado frito</t>
+  </si>
+  <si>
+    <t>Cecina- Longaniza - Caldo de gallina criolla</t>
+  </si>
+  <si>
+    <t>Cecina Asada con longaniza - Fritada- Caldo de gallina criolla</t>
+  </si>
+  <si>
+    <t>Hornado- Cecinas - Pescado frito</t>
+  </si>
+  <si>
+    <t>Bolón con cecina - Cecina- Seco de gallina - Desayunos en general</t>
+  </si>
+  <si>
+    <t>Pescado frito - Cecina - Caldo de gallina</t>
+  </si>
+  <si>
+    <t>Pollo broster/plancha - Papipollo - Salchipapa - Desayunos /Almuerzos/ Meriendas en general</t>
+  </si>
+  <si>
+    <t>Encebollado- Fritada- Guatita - Almuerzos en general</t>
+  </si>
+  <si>
+    <t>Ecebollado - Guata - Pollo Asado/al jugo - Almuerzos en general</t>
+  </si>
+  <si>
+    <t>Miércoles a Domingo de 8:00 a 17:00</t>
+  </si>
+  <si>
+    <t>Lunes a Domingo 6:00 a 20:00</t>
+  </si>
+  <si>
+    <t>Lunes a Domingo 7:00 a 20:00</t>
+  </si>
+  <si>
+    <t>Lunes a Domingo 8:00 a 20:00</t>
+  </si>
+  <si>
+    <t>Todos los dias 10h30 a 22h00</t>
+  </si>
+  <si>
+    <t>Todos los dias 08h00 a 19h00</t>
+  </si>
+  <si>
+    <t>Lunes a Domingo de 06:00 a 23h30 (Bajo reserva)</t>
+  </si>
+  <si>
+    <t>Lunes a Domingo 08:30 a 21:00</t>
+  </si>
+  <si>
+    <t>Martes a Domingo 11h30 a 23:00</t>
+  </si>
+  <si>
+    <t>Lunes a Domingo 08:00 a 23:00</t>
+  </si>
+  <si>
+    <t>Miércoles a Domingo de 11:00 a 21:00</t>
+  </si>
+  <si>
+    <t>Viernes a Domingo de 08:00 a 19:00</t>
+  </si>
+  <si>
+    <t>Miércoles a Domingo de 10:00 a 18:00</t>
+  </si>
+  <si>
+    <t>Miércoles a Domingo de 07:30 a 18:00</t>
+  </si>
+  <si>
+    <t>Lunes a Domingo de 08:00 a 20:00</t>
+  </si>
+  <si>
+    <t>Lunes a Sábado de 08:00 a 19:00</t>
+  </si>
+  <si>
+    <t>Jueves a Domingo de 10:00 a 22:00</t>
+  </si>
+  <si>
+    <t>Lunes a Doming de 09:00 a 21:00</t>
+  </si>
+  <si>
+    <t>Lunes a Domingo 07:00 a 17:00</t>
+  </si>
+  <si>
+    <t>Sábado y Domingo 08:00 a 18:00</t>
+  </si>
+  <si>
+    <t>Jueves a Martes de 09h30 a 21h00 Miercoles (cerrado)</t>
+  </si>
+  <si>
+    <t>Hosteria: todos los dias. Restaurante: Viernes a domingo 8:00 a 21:00</t>
+  </si>
+  <si>
+    <t>Lunes a Sábado y Feriados de 10:00 a 22:00 Domingo de 10:00 a 19h00</t>
+  </si>
+  <si>
+    <t>Lunes a Viernes de 11:00 a 22:00 Sábado y Domingo de 10:00 a 23:00</t>
+  </si>
+  <si>
+    <t>Lunes a Miércoles de 08:00 a 15:00 Jueves a Sábado de 7:00 a 22:00</t>
+  </si>
+  <si>
+    <t>Lunes a Viernes de 08:00 a 21:00 Sábado, Domingo y Feriados de 08:00 a 16:00</t>
+  </si>
+  <si>
+    <t>Lunes a Sábado de 06:30 a 21:00 Domingo de 08:00 a 16:00</t>
   </si>
 </sst>
 </file>
@@ -3568,8 +3664,8 @@
   </sheetPr>
   <dimension ref="A1:AY82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="X65" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AF81" sqref="AF81"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AS1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3669,10 +3765,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>503</v>
+        <v>464</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>504</v>
+        <v>465</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>13</v>
@@ -3684,40 +3780,40 @@
         <v>15</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>505</v>
+        <v>466</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>506</v>
+        <v>467</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>508</v>
+        <v>469</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>509</v>
+        <v>470</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>510</v>
+        <v>471</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>511</v>
+        <v>472</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>512</v>
+        <v>473</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>513</v>
+        <v>474</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>19</v>
@@ -3732,7 +3828,7 @@
         <v>22</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>514</v>
+        <v>475</v>
       </c>
       <c r="AJ1" s="2" t="s">
         <v>23</v>
@@ -3747,25 +3843,25 @@
         <v>26</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>515</v>
+        <v>476</v>
       </c>
       <c r="AO1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>516</v>
+        <v>477</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>517</v>
+        <v>478</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>518</v>
+        <v>479</v>
       </c>
       <c r="AS1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>519</v>
+        <v>480</v>
       </c>
       <c r="AU1" s="2" t="s">
         <v>29</v>
@@ -3774,13 +3870,13 @@
         <v>30</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>676</v>
+        <v>637</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>633</v>
+        <v>594</v>
       </c>
       <c r="AY1" s="2" t="s">
-        <v>520</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:51" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3794,13 +3890,13 @@
         <v>33</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E2" s="3">
         <v>979670398</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>34</v>
@@ -3809,20 +3905,20 @@
         <v>35</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>37</v>
+        <v>761</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>500</v>
+        <v>461</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="O2" s="3">
         <v>1</v>
@@ -3834,25 +3930,25 @@
         <v>38</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="U2" s="4">
         <v>3.75</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>523</v>
+        <v>484</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>524</v>
+        <v>485</v>
       </c>
       <c r="Y2" s="3">
         <v>2</v>
@@ -3925,16 +4021,16 @@
       </c>
       <c r="AV2" s="5"/>
       <c r="AW2" s="6" t="s">
-        <v>679</v>
+        <v>640</v>
       </c>
       <c r="AX2" s="9" t="s">
-        <v>630</v>
+        <v>591</v>
       </c>
       <c r="AY2" s="7"/>
     </row>
     <row r="3" spans="1:51" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>32</v>
@@ -3943,13 +4039,13 @@
         <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E3" s="3">
         <v>982686170</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>45</v>
@@ -3958,20 +4054,20 @@
         <v>35</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>37</v>
+        <v>761</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="O3" s="3">
         <v>2</v>
@@ -3983,25 +4079,25 @@
         <v>38</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="U3" s="4">
         <v>2.5</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>525</v>
+        <v>486</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y3" s="3">
         <v>1</v>
@@ -4076,16 +4172,16 @@
         <v>38</v>
       </c>
       <c r="AW3" s="6" t="s">
-        <v>631</v>
+        <v>592</v>
       </c>
       <c r="AX3" s="9" t="s">
-        <v>632</v>
+        <v>593</v>
       </c>
       <c r="AY3" s="7"/>
     </row>
     <row r="4" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>32</v>
@@ -4094,35 +4190,35 @@
         <v>48</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4" s="3">
         <v>958690650</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>37</v>
+        <v>761</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>502</v>
+        <v>463</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="O4" s="3">
         <v>2</v>
@@ -4134,25 +4230,25 @@
         <v>38</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="U4" s="4">
         <v>3.5</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>525</v>
+        <v>486</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y4" s="3">
         <v>2</v>
@@ -4227,9 +4323,11 @@
         <v>38</v>
       </c>
       <c r="AW4" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="AX4" s="7"/>
+        <v>744</v>
+      </c>
+      <c r="AX4" s="9" t="s">
+        <v>743</v>
+      </c>
       <c r="AY4" s="7"/>
     </row>
     <row r="5" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4243,35 +4341,35 @@
         <v>48</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E5" s="3">
         <v>985094341</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>37</v>
+        <v>761</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>527</v>
+        <v>488</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="O5" s="3">
         <v>2</v>
@@ -4283,25 +4381,25 @@
         <v>36</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="U5" s="4">
         <v>3</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>528</v>
+        <v>489</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y5" s="3">
         <v>2</v>
@@ -4376,14 +4474,16 @@
         <v>38</v>
       </c>
       <c r="AW5" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="AX5" s="7"/>
+        <v>742</v>
+      </c>
+      <c r="AX5" s="9" t="s">
+        <v>741</v>
+      </c>
       <c r="AY5" s="7"/>
     </row>
     <row r="6" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>32</v>
@@ -4392,35 +4492,35 @@
         <v>62</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E6" s="3">
         <v>985902378</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>54</v>
+        <v>762</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>529</v>
+        <v>490</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="O6" s="3">
         <v>3</v>
@@ -4432,25 +4532,25 @@
         <v>38</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>351</v>
+        <v>745</v>
       </c>
       <c r="U6" s="4">
         <v>5</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>525</v>
+        <v>486</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>530</v>
+        <v>491</v>
       </c>
       <c r="Y6" s="3">
         <v>4</v>
@@ -4525,16 +4625,16 @@
         <v>38</v>
       </c>
       <c r="AW6" s="6" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="AX6" s="9" t="s">
-        <v>634</v>
+        <v>595</v>
       </c>
       <c r="AY6" s="7"/>
     </row>
     <row r="7" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>32</v>
@@ -4543,35 +4643,35 @@
         <v>62</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E7" s="3">
         <v>997101647</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>58</v>
+        <v>763</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>531</v>
+        <v>492</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="O7" s="3">
         <v>2</v>
@@ -4583,25 +4683,25 @@
         <v>38</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="U7" s="4">
         <v>7.5</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>525</v>
+        <v>486</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y7" s="3">
         <v>3</v>
@@ -4676,16 +4776,16 @@
         <v>38</v>
       </c>
       <c r="AW7" s="6" t="s">
-        <v>681</v>
+        <v>642</v>
       </c>
       <c r="AX7" s="9" t="s">
-        <v>635</v>
+        <v>596</v>
       </c>
       <c r="AY7" s="7"/>
     </row>
     <row r="8" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>32</v>
@@ -4694,35 +4794,35 @@
         <v>62</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E8" s="3">
         <v>994424295</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>57</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>58</v>
+        <v>763</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>532</v>
+        <v>493</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="O8" s="3">
         <v>2</v>
@@ -4734,25 +4834,25 @@
         <v>38</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>353</v>
+        <v>746</v>
       </c>
       <c r="U8" s="4">
         <v>4</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>523</v>
+        <v>484</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y8" s="3">
         <v>2</v>
@@ -4827,16 +4927,16 @@
         <v>38</v>
       </c>
       <c r="AW8" s="6" t="s">
-        <v>682</v>
+        <v>643</v>
       </c>
       <c r="AX8" s="9" t="s">
-        <v>636</v>
+        <v>597</v>
       </c>
       <c r="AY8" s="7"/>
     </row>
     <row r="9" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>32</v>
@@ -4845,13 +4945,13 @@
         <v>62</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E9" s="3">
         <v>985709075</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>59</v>
@@ -4860,20 +4960,20 @@
         <v>35</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>58</v>
+        <v>763</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>533</v>
+        <v>494</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="O9" s="3">
         <v>2</v>
@@ -4885,25 +4985,25 @@
         <v>38</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="U9" s="4">
         <v>6</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>525</v>
+        <v>486</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y9" s="3">
         <v>4</v>
@@ -4978,10 +5078,10 @@
         <v>38</v>
       </c>
       <c r="AW9" s="6" t="s">
-        <v>683</v>
+        <v>644</v>
       </c>
       <c r="AX9" s="9" t="s">
-        <v>637</v>
+        <v>598</v>
       </c>
       <c r="AY9" s="7"/>
     </row>
@@ -4996,35 +5096,35 @@
         <v>62</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E10" s="3">
         <v>969691330</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>58</v>
+        <v>763</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>532</v>
+        <v>493</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="O10" s="3">
         <v>2</v>
@@ -5036,25 +5136,25 @@
         <v>38</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="U10" s="4">
         <v>4</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>528</v>
+        <v>489</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y10" s="3">
         <v>3</v>
@@ -5129,16 +5229,16 @@
         <v>38</v>
       </c>
       <c r="AW10" s="6" t="s">
-        <v>684</v>
+        <v>645</v>
       </c>
       <c r="AX10" s="9" t="s">
-        <v>638</v>
+        <v>599</v>
       </c>
       <c r="AY10" s="7"/>
     </row>
     <row r="11" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>32</v>
@@ -5147,13 +5247,13 @@
         <v>62</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E11" s="3">
         <v>991450218</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>63</v>
@@ -5162,20 +5262,20 @@
         <v>35</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>64</v>
+        <v>764</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>529</v>
+        <v>490</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="O11" s="3">
         <v>2</v>
@@ -5187,25 +5287,25 @@
         <v>38</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>356</v>
+        <v>747</v>
       </c>
       <c r="U11" s="4">
         <v>4</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>525</v>
+        <v>486</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y11" s="3">
         <v>5</v>
@@ -5280,14 +5380,16 @@
         <v>38</v>
       </c>
       <c r="AW11" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="AX11" s="7"/>
+        <v>718</v>
+      </c>
+      <c r="AX11" s="9" t="s">
+        <v>717</v>
+      </c>
       <c r="AY11" s="7"/>
     </row>
     <row r="12" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>32</v>
@@ -5296,35 +5398,35 @@
         <v>62</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E12" s="3">
         <v>939462796</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="I12" s="3" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>58</v>
+        <v>763</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="O12" s="3">
         <v>1</v>
@@ -5336,25 +5438,25 @@
         <v>38</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>357</v>
+        <v>748</v>
       </c>
       <c r="U12" s="4">
         <v>4</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>535</v>
+        <v>496</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="Y12" s="3">
         <v>2</v>
@@ -5429,16 +5531,16 @@
         <v>38</v>
       </c>
       <c r="AW12" s="6" t="s">
-        <v>685</v>
+        <v>646</v>
       </c>
       <c r="AX12" s="9" t="s">
-        <v>639</v>
+        <v>600</v>
       </c>
       <c r="AY12" s="7"/>
     </row>
     <row r="13" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>32</v>
@@ -5447,22 +5549,22 @@
         <v>62</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E13" s="3">
         <v>990937330</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>36</v>
@@ -5471,11 +5573,11 @@
         <v>58</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="O13" s="3">
         <v>2</v>
@@ -5487,25 +5589,25 @@
         <v>38</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>358</v>
+        <v>749</v>
       </c>
       <c r="U13" s="4">
         <v>3</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>525</v>
+        <v>486</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="Y13" s="3">
         <v>3</v>
@@ -5580,16 +5682,16 @@
         <v>38</v>
       </c>
       <c r="AW13" s="6" t="s">
-        <v>686</v>
+        <v>647</v>
       </c>
       <c r="AX13" s="9" t="s">
-        <v>640</v>
+        <v>601</v>
       </c>
       <c r="AY13" s="7"/>
     </row>
     <row r="14" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>32</v>
@@ -5598,35 +5700,35 @@
         <v>62</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E14" s="3">
         <v>939008806</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="O14" s="3">
         <v>1</v>
@@ -5638,25 +5740,25 @@
         <v>38</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>359</v>
+        <v>750</v>
       </c>
       <c r="U14" s="4">
         <v>3</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>525</v>
+        <v>486</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y14" s="3">
         <v>2</v>
@@ -5731,16 +5833,16 @@
         <v>38</v>
       </c>
       <c r="AW14" s="6" t="s">
-        <v>687</v>
+        <v>648</v>
       </c>
       <c r="AX14" s="9" t="s">
-        <v>641</v>
+        <v>602</v>
       </c>
       <c r="AY14" s="7"/>
     </row>
     <row r="15" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>32</v>
@@ -5749,35 +5851,35 @@
         <v>62</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E15" s="3">
         <v>985908474</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>537</v>
+        <v>498</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="O15" s="3">
         <v>3</v>
@@ -5789,25 +5891,25 @@
         <v>38</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="U15" s="4">
         <v>4</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>523</v>
+        <v>484</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="Y15" s="3">
         <v>3</v>
@@ -5822,7 +5924,7 @@
         <v>32</v>
       </c>
       <c r="AC15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD15" s="3" t="s">
         <v>38</v>
@@ -5882,14 +5984,16 @@
         <v>38</v>
       </c>
       <c r="AW15" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="AX15" s="7"/>
+        <v>720</v>
+      </c>
+      <c r="AX15" s="9" t="s">
+        <v>719</v>
+      </c>
       <c r="AY15" s="7"/>
     </row>
     <row r="16" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>32</v>
@@ -5898,37 +6002,37 @@
         <v>62</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="3">
         <v>939233599</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>532</v>
+        <v>493</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="O16" s="3">
         <v>2</v>
@@ -5940,25 +6044,25 @@
         <v>38</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="U16" s="4">
         <v>5</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>538</v>
+        <v>499</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>535</v>
+        <v>496</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y16" s="3">
         <v>3</v>
@@ -6033,16 +6137,16 @@
         <v>38</v>
       </c>
       <c r="AW16" s="6" t="s">
-        <v>688</v>
+        <v>649</v>
       </c>
       <c r="AX16" s="9" t="s">
-        <v>642</v>
+        <v>603</v>
       </c>
       <c r="AY16" s="7"/>
     </row>
     <row r="17" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>32</v>
@@ -6051,37 +6155,37 @@
         <v>62</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="3">
         <v>992586806</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="N17" s="3" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="O17" s="3">
         <v>2</v>
@@ -6093,25 +6197,25 @@
         <v>38</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>362</v>
+        <v>751</v>
       </c>
       <c r="U17" s="4">
         <v>5</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>525</v>
+        <v>486</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y17" s="3">
         <v>2</v>
@@ -6186,16 +6290,16 @@
         <v>38</v>
       </c>
       <c r="AW17" s="6" t="s">
-        <v>689</v>
+        <v>650</v>
       </c>
       <c r="AX17" s="9" t="s">
-        <v>643</v>
+        <v>604</v>
       </c>
       <c r="AY17" s="7"/>
     </row>
     <row r="18" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>32</v>
@@ -6204,35 +6308,35 @@
         <v>62</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" s="3">
         <v>939320817</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="L18" s="3" t="s">
-        <v>532</v>
+        <v>493</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="O18" s="3">
         <v>2</v>
@@ -6244,25 +6348,25 @@
         <v>38</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="U18" s="4">
         <v>5</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>525</v>
+        <v>486</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y18" s="3">
         <v>3</v>
@@ -6337,16 +6441,16 @@
         <v>38</v>
       </c>
       <c r="AW18" s="6" t="s">
-        <v>690</v>
+        <v>651</v>
       </c>
       <c r="AX18" s="9" t="s">
-        <v>644</v>
+        <v>605</v>
       </c>
       <c r="AY18" s="7"/>
     </row>
     <row r="19" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>32</v>
@@ -6355,35 +6459,35 @@
         <v>62</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="3">
         <v>992309098</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>540</v>
+        <v>501</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="O19" s="3">
         <v>2</v>
@@ -6395,25 +6499,25 @@
         <v>38</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>364</v>
+        <v>752</v>
       </c>
       <c r="U19" s="4">
         <v>5</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>523</v>
+        <v>484</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y19" s="3">
         <v>7</v>
@@ -6488,16 +6592,16 @@
         <v>38</v>
       </c>
       <c r="AW19" s="6" t="s">
-        <v>691</v>
+        <v>652</v>
       </c>
       <c r="AX19" s="9" t="s">
-        <v>645</v>
+        <v>606</v>
       </c>
       <c r="AY19" s="7"/>
     </row>
     <row r="20" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -6506,37 +6610,37 @@
         <v>62</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E20" s="3">
         <v>981952323</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>529</v>
+        <v>490</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="O20" s="3">
         <v>2</v>
@@ -6548,25 +6652,25 @@
         <v>38</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>365</v>
+        <v>753</v>
       </c>
       <c r="U20" s="4">
         <v>5</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>525</v>
+        <v>486</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y20" s="3">
         <v>2</v>
@@ -6641,16 +6745,16 @@
         <v>38</v>
       </c>
       <c r="AW20" s="6" t="s">
-        <v>692</v>
+        <v>653</v>
       </c>
       <c r="AX20" s="9" t="s">
-        <v>646</v>
+        <v>607</v>
       </c>
       <c r="AY20" s="7"/>
     </row>
     <row r="21" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>32</v>
@@ -6659,35 +6763,35 @@
         <v>62</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" s="3">
         <v>939998896</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>532</v>
+        <v>493</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="O21" s="3">
         <v>2</v>
@@ -6699,25 +6803,25 @@
         <v>38</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>366</v>
+        <v>754</v>
       </c>
       <c r="U21" s="4">
         <v>5</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>523</v>
+        <v>484</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y21" s="3">
         <v>4</v>
@@ -6792,14 +6896,16 @@
         <v>38</v>
       </c>
       <c r="AW21" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="AX21" s="7"/>
+        <v>722</v>
+      </c>
+      <c r="AX21" s="9" t="s">
+        <v>721</v>
+      </c>
       <c r="AY21" s="7"/>
     </row>
     <row r="22" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>32</v>
@@ -6808,22 +6914,22 @@
         <v>62</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E22" s="3">
         <v>988275571</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>36</v>
@@ -6832,11 +6938,11 @@
         <v>58</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>541</v>
+        <v>502</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="O22" s="3">
         <v>2</v>
@@ -6848,25 +6954,25 @@
         <v>38</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="U22" s="4">
         <v>4</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>523</v>
+        <v>484</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y22" s="3">
         <v>2</v>
@@ -6941,16 +7047,16 @@
         <v>38</v>
       </c>
       <c r="AW22" s="6" t="s">
-        <v>693</v>
+        <v>654</v>
       </c>
       <c r="AX22" s="9" t="s">
-        <v>647</v>
+        <v>608</v>
       </c>
       <c r="AY22" s="7"/>
     </row>
     <row r="23" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>32</v>
@@ -6959,35 +7065,35 @@
         <v>62</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="3">
         <v>993179418</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>532</v>
+        <v>493</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="O23" s="3">
         <v>2</v>
@@ -6999,25 +7105,25 @@
         <v>38</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>542</v>
+        <v>503</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>368</v>
+        <v>755</v>
       </c>
       <c r="U23" s="4">
         <v>5</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y23" s="3">
         <v>2</v>
@@ -7032,7 +7138,7 @@
         <v>32</v>
       </c>
       <c r="AC23" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD23" s="3" t="s">
         <v>38</v>
@@ -7056,7 +7162,7 @@
         <v>3</v>
       </c>
       <c r="AK23" s="3" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="AL23" s="3" t="s">
         <v>42</v>
@@ -7080,7 +7186,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="3" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="AT23" s="3" t="s">
         <v>44</v>
@@ -7092,16 +7198,16 @@
         <v>38</v>
       </c>
       <c r="AW23" s="6" t="s">
-        <v>694</v>
+        <v>655</v>
       </c>
       <c r="AX23" s="9" t="s">
-        <v>648</v>
+        <v>609</v>
       </c>
       <c r="AY23" s="7"/>
     </row>
     <row r="24" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>32</v>
@@ -7110,35 +7216,35 @@
         <v>62</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E24" s="3">
         <v>992121769</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>57</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="O24" s="3">
         <v>2</v>
@@ -7150,25 +7256,25 @@
         <v>38</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="U24" s="4">
         <v>3</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>528</v>
+        <v>489</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="Y24" s="3">
         <v>3</v>
@@ -7243,14 +7349,16 @@
         <v>38</v>
       </c>
       <c r="AW24" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="AX24" s="7"/>
+        <v>724</v>
+      </c>
+      <c r="AX24" s="9" t="s">
+        <v>723</v>
+      </c>
       <c r="AY24" s="7"/>
     </row>
     <row r="25" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>32</v>
@@ -7259,22 +7367,22 @@
         <v>62</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E25" s="3">
         <v>986709948</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>36</v>
@@ -7283,11 +7391,11 @@
         <v>54</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="O25" s="3">
         <v>2</v>
@@ -7299,25 +7407,25 @@
         <v>38</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>370</v>
+        <v>756</v>
       </c>
       <c r="U25" s="4">
         <v>3</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>535</v>
+        <v>496</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>530</v>
+        <v>491</v>
       </c>
       <c r="Y25" s="3">
         <v>3</v>
@@ -7344,7 +7452,7 @@
         <v>-79.426305999999997</v>
       </c>
       <c r="AG25" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH25" s="3">
         <v>44</v>
@@ -7392,16 +7500,16 @@
         <v>38</v>
       </c>
       <c r="AW25" s="6" t="s">
-        <v>695</v>
+        <v>656</v>
       </c>
       <c r="AX25" s="9" t="s">
-        <v>649</v>
+        <v>610</v>
       </c>
       <c r="AY25" s="7"/>
     </row>
     <row r="26" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>32</v>
@@ -7410,22 +7518,22 @@
         <v>62</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E26" s="3">
         <v>982944163</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>36</v>
@@ -7434,11 +7542,11 @@
         <v>54</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>545</v>
+        <v>506</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="O26" s="3">
         <v>5</v>
@@ -7450,25 +7558,25 @@
         <v>38</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>371</v>
+        <v>757</v>
       </c>
       <c r="U26" s="4">
         <v>3</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="Y26" s="3">
         <v>5</v>
@@ -7483,7 +7591,7 @@
         <v>36</v>
       </c>
       <c r="AC26" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD26" s="3" t="s">
         <v>38</v>
@@ -7543,16 +7651,16 @@
         <v>38</v>
       </c>
       <c r="AW26" s="6" t="s">
-        <v>696</v>
+        <v>657</v>
       </c>
       <c r="AX26" s="9" t="s">
-        <v>650</v>
+        <v>611</v>
       </c>
       <c r="AY26" s="7"/>
     </row>
     <row r="27" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>32</v>
@@ -7561,22 +7669,22 @@
         <v>62</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E27" s="3">
         <v>939468990</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>36</v>
@@ -7585,11 +7693,11 @@
         <v>58</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="O27" s="3">
         <v>2</v>
@@ -7601,25 +7709,25 @@
         <v>38</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="U27" s="4">
         <v>4</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y27" s="3">
         <v>4</v>
@@ -7694,14 +7802,16 @@
         <v>38</v>
       </c>
       <c r="AW27" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="AX27" s="7"/>
+        <v>726</v>
+      </c>
+      <c r="AX27" s="9" t="s">
+        <v>725</v>
+      </c>
       <c r="AY27" s="7"/>
     </row>
     <row r="28" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>32</v>
@@ -7710,22 +7820,22 @@
         <v>62</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E28" s="3">
         <v>980904460</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>36</v>
@@ -7734,13 +7844,13 @@
         <v>58</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>532</v>
+        <v>493</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>546</v>
+        <v>507</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="O28" s="3">
         <v>4</v>
@@ -7752,25 +7862,25 @@
         <v>36</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="U28" s="4">
         <v>4</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y28" s="3">
         <v>2</v>
@@ -7797,7 +7907,7 @@
         <v>-79.426691460000001</v>
       </c>
       <c r="AG28" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH28" s="3">
         <v>37</v>
@@ -7845,51 +7955,53 @@
         <v>38</v>
       </c>
       <c r="AW28" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="AX28" s="7"/>
+        <v>728</v>
+      </c>
+      <c r="AX28" s="9" t="s">
+        <v>727</v>
+      </c>
       <c r="AY28" s="7"/>
     </row>
     <row r="29" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E29" s="3">
         <v>993041863</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="O29" s="3">
         <v>2</v>
@@ -7901,25 +8013,25 @@
         <v>38</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>374</v>
+        <v>758</v>
       </c>
       <c r="U29" s="4">
         <v>3</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>535</v>
+        <v>496</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="Y29" s="3">
         <v>1</v>
@@ -7994,40 +8106,40 @@
         <v>38</v>
       </c>
       <c r="AW29" s="6" t="s">
-        <v>697</v>
+        <v>658</v>
       </c>
       <c r="AX29" s="9" t="s">
-        <v>651</v>
+        <v>612</v>
       </c>
       <c r="AY29" s="7"/>
     </row>
     <row r="30" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E30" s="3">
         <v>994108661</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>36</v>
@@ -8036,11 +8148,11 @@
         <v>37</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="O30" s="3">
         <v>1</v>
@@ -8052,25 +8164,25 @@
         <v>38</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>375</v>
+        <v>759</v>
       </c>
       <c r="U30" s="4">
         <v>3</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>547</v>
+        <v>508</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y30" s="3">
         <v>3</v>
@@ -8145,40 +8257,40 @@
         <v>38</v>
       </c>
       <c r="AW30" s="6" t="s">
-        <v>698</v>
+        <v>659</v>
       </c>
       <c r="AX30" s="9" t="s">
-        <v>652</v>
+        <v>613</v>
       </c>
       <c r="AY30" s="7"/>
     </row>
     <row r="31" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E31" s="3">
         <v>967437524</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>36</v>
@@ -8187,11 +8299,11 @@
         <v>37</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="O31" s="3">
         <v>2</v>
@@ -8203,25 +8315,25 @@
         <v>38</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>376</v>
+        <v>760</v>
       </c>
       <c r="U31" s="4">
         <v>3</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>525</v>
+        <v>486</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="Y31" s="3">
         <v>3</v>
@@ -8248,7 +8360,7 @@
         <v>-79.376277520000002</v>
       </c>
       <c r="AG31" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH31" s="3">
         <v>47</v>
@@ -8296,51 +8408,53 @@
         <v>38</v>
       </c>
       <c r="AW31" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="AX31" s="7"/>
+        <v>734</v>
+      </c>
+      <c r="AX31" s="9" t="s">
+        <v>733</v>
+      </c>
       <c r="AY31" s="7"/>
     </row>
     <row r="32" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E32" s="3">
         <v>967078713</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>541</v>
+        <v>502</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="O32" s="3">
         <v>1</v>
@@ -8352,25 +8466,25 @@
         <v>38</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="U32" s="4">
         <v>3</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>525</v>
+        <v>486</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="Y32" s="3">
         <v>1</v>
@@ -8445,51 +8559,53 @@
         <v>38</v>
       </c>
       <c r="AW32" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="AX32" s="7"/>
+        <v>738</v>
+      </c>
+      <c r="AX32" s="9" t="s">
+        <v>737</v>
+      </c>
       <c r="AY32" s="7"/>
     </row>
     <row r="33" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E33" s="3">
         <v>985550956</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>541</v>
+        <v>502</v>
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="O33" s="3">
         <v>1</v>
@@ -8501,25 +8617,25 @@
         <v>38</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="U33" s="4">
         <v>3</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>525</v>
+        <v>486</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="Y33" s="3">
         <v>2</v>
@@ -8594,51 +8710,53 @@
         <v>38</v>
       </c>
       <c r="AW33" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="AX33" s="7"/>
+        <v>736</v>
+      </c>
+      <c r="AX33" s="9" t="s">
+        <v>735</v>
+      </c>
       <c r="AY33" s="7"/>
     </row>
     <row r="34" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E34" s="3">
         <v>992305288</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>548</v>
+        <v>509</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="O34" s="3">
         <v>5</v>
@@ -8650,25 +8768,25 @@
         <v>38</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>549</v>
+        <v>510</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="U34" s="4">
         <v>3</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>550</v>
+        <v>511</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>535</v>
+        <v>496</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>551</v>
+        <v>512</v>
       </c>
       <c r="Y34" s="3">
         <v>1</v>
@@ -8743,32 +8861,32 @@
         <v>38</v>
       </c>
       <c r="AW34" s="6" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="AX34" s="7"/>
       <c r="AY34" s="7"/>
     </row>
     <row r="35" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E35" s="3">
         <v>9599997990</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>57</v>
@@ -8780,14 +8898,14 @@
         <v>36</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>552</v>
+        <v>513</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="O35" s="3">
         <v>5</v>
@@ -8799,25 +8917,25 @@
         <v>38</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>553</v>
+        <v>514</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="U35" s="4">
         <v>3</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>554</v>
+        <v>515</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y35" s="3">
         <v>1</v>
@@ -8832,7 +8950,7 @@
         <v>32</v>
       </c>
       <c r="AC35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD35" s="3" t="s">
         <v>38</v>
@@ -8892,51 +9010,51 @@
         <v>38</v>
       </c>
       <c r="AW35" s="6" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="AX35" s="7"/>
       <c r="AY35" s="7"/>
     </row>
     <row r="36" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>737</v>
+        <v>698</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E36" s="3">
         <v>939780206</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>555</v>
+        <v>516</v>
       </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="O36" s="3">
         <v>5</v>
@@ -8948,25 +9066,25 @@
         <v>38</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>556</v>
+        <v>517</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>557</v>
+        <v>518</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="U36" s="4">
         <v>7</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>554</v>
+        <v>515</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>523</v>
+        <v>484</v>
       </c>
       <c r="X36" s="3" t="s">
-        <v>558</v>
+        <v>519</v>
       </c>
       <c r="Y36" s="3">
         <v>3</v>
@@ -8981,7 +9099,7 @@
         <v>32</v>
       </c>
       <c r="AC36" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD36" s="3" t="s">
         <v>38</v>
@@ -9041,51 +9159,51 @@
         <v>38</v>
       </c>
       <c r="AW36" s="6" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="AX36" s="7"/>
       <c r="AY36" s="7"/>
     </row>
     <row r="37" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E37" s="3">
         <v>998313039</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H37" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="J37" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>559</v>
+        <v>520</v>
       </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="O37" s="3">
         <v>2</v>
@@ -9097,25 +9215,25 @@
         <v>38</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>557</v>
+        <v>518</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="U37" s="4">
         <v>3.5</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>550</v>
+        <v>511</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>535</v>
+        <v>496</v>
       </c>
       <c r="X37" s="3" t="s">
-        <v>530</v>
+        <v>491</v>
       </c>
       <c r="Y37" s="3">
         <v>3</v>
@@ -9130,7 +9248,7 @@
         <v>32</v>
       </c>
       <c r="AC37" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD37" s="3" t="s">
         <v>38</v>
@@ -9163,7 +9281,7 @@
         <v>36</v>
       </c>
       <c r="AN37" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AO37" s="3">
         <v>5</v>
@@ -9190,32 +9308,32 @@
         <v>38</v>
       </c>
       <c r="AW37" s="6" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="AX37" s="7"/>
       <c r="AY37" s="7"/>
     </row>
     <row r="38" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>736</v>
+        <v>697</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E38" s="3">
         <v>959024149</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>35</v>
@@ -9227,14 +9345,14 @@
         <v>36</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>304</v>
+        <v>765</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>560</v>
+        <v>521</v>
       </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="O38" s="3">
         <v>2</v>
@@ -9246,25 +9364,25 @@
         <v>38</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="U38" s="4">
         <v>3.5</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>550</v>
+        <v>511</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="X38" s="3" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="Y38" s="3">
         <v>3</v>
@@ -9279,7 +9397,7 @@
         <v>32</v>
       </c>
       <c r="AC38" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD38" s="3" t="s">
         <v>38</v>
@@ -9300,7 +9418,7 @@
         <v>41</v>
       </c>
       <c r="AJ38" s="3" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="AK38" s="3" t="s">
         <v>36</v>
@@ -9324,7 +9442,7 @@
         <v>36</v>
       </c>
       <c r="AR38" s="3" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="AS38" s="3" t="s">
         <v>36</v>
@@ -9339,51 +9457,51 @@
         <v>38</v>
       </c>
       <c r="AW38" s="6" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="AX38" s="7"/>
       <c r="AY38" s="7"/>
     </row>
     <row r="39" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E39" s="3">
         <v>991276907</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>561</v>
+        <v>522</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="O39" s="3">
         <v>3</v>
@@ -9395,25 +9513,25 @@
         <v>36</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>557</v>
+        <v>518</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="U39" s="4">
         <v>2</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>550</v>
+        <v>511</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>535</v>
+        <v>496</v>
       </c>
       <c r="X39" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y39" s="3">
         <v>2</v>
@@ -9428,7 +9546,7 @@
         <v>32</v>
       </c>
       <c r="AC39" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD39" s="3" t="s">
         <v>38</v>
@@ -9488,53 +9606,53 @@
         <v>38</v>
       </c>
       <c r="AW39" s="6" t="s">
-        <v>743</v>
+        <v>704</v>
       </c>
       <c r="AX39" s="9" t="s">
-        <v>742</v>
+        <v>703</v>
       </c>
       <c r="AY39" s="7"/>
     </row>
     <row r="40" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>735</v>
+        <v>696</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E40" s="3">
         <v>969349587</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>562</v>
+        <v>523</v>
       </c>
       <c r="M40" s="3"/>
       <c r="N40" s="3" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="O40" s="3">
         <v>1</v>
@@ -9546,25 +9664,25 @@
         <v>38</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="U40" s="4">
         <v>3</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>554</v>
+        <v>515</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>525</v>
+        <v>486</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y40" s="3">
         <v>2</v>
@@ -9639,51 +9757,53 @@
         <v>38</v>
       </c>
       <c r="AW40" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="AX40" s="7"/>
+        <v>740</v>
+      </c>
+      <c r="AX40" s="9" t="s">
+        <v>739</v>
+      </c>
       <c r="AY40" s="7"/>
     </row>
     <row r="41" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>734</v>
+        <v>695</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E41" s="3">
         <v>981670898</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>527</v>
+        <v>488</v>
       </c>
       <c r="M41" s="3"/>
       <c r="N41" s="3" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="O41" s="3">
         <v>2</v>
@@ -9695,25 +9815,25 @@
         <v>38</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="U41" s="4">
         <v>3</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>525</v>
+        <v>486</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y41" s="3">
         <v>2</v>
@@ -9788,55 +9908,55 @@
         <v>38</v>
       </c>
       <c r="AW41" s="6" t="s">
-        <v>699</v>
+        <v>660</v>
       </c>
       <c r="AX41" s="9" t="s">
-        <v>653</v>
+        <v>614</v>
       </c>
       <c r="AY41" s="7"/>
     </row>
     <row r="42" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E42" s="3">
         <v>991347799</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>563</v>
+        <v>524</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>564</v>
+        <v>525</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="O42" s="3">
         <v>2</v>
@@ -9848,25 +9968,25 @@
         <v>38</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="U42" s="4">
         <v>7</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>525</v>
+        <v>486</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="Y42" s="3">
         <v>3</v>
@@ -9881,7 +10001,7 @@
         <v>32</v>
       </c>
       <c r="AC42" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD42" s="3" t="s">
         <v>36</v>
@@ -9905,13 +10025,13 @@
         <v>16</v>
       </c>
       <c r="AK42" s="3" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="AL42" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM42" s="3" t="s">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="AN42" s="3" t="s">
         <v>32</v>
@@ -9929,10 +10049,10 @@
         <v>5</v>
       </c>
       <c r="AS42" s="3" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="AT42" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AU42" s="3" t="s">
         <v>38</v>
@@ -9941,34 +10061,34 @@
         <v>38</v>
       </c>
       <c r="AW42" s="6" t="s">
-        <v>700</v>
+        <v>661</v>
       </c>
       <c r="AX42" s="9" t="s">
-        <v>654</v>
+        <v>615</v>
       </c>
       <c r="AY42" s="7"/>
     </row>
     <row r="43" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E43" s="3">
         <v>997194675</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>35</v>
@@ -9980,16 +10100,16 @@
         <v>36</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>565</v>
+        <v>526</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="O43" s="3">
         <v>5</v>
@@ -10001,25 +10121,25 @@
         <v>38</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="U43" s="4">
         <v>8</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="Y43" s="3">
         <v>3</v>
@@ -10034,7 +10154,7 @@
         <v>32</v>
       </c>
       <c r="AC43" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD43" s="3" t="s">
         <v>36</v>
@@ -10058,13 +10178,13 @@
         <v>5</v>
       </c>
       <c r="AK43" s="3" t="s">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="AL43" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM43" s="3" t="s">
-        <v>462</v>
+        <v>430</v>
       </c>
       <c r="AN43" s="3" t="s">
         <v>32</v>
@@ -10082,10 +10202,10 @@
         <v>3</v>
       </c>
       <c r="AS43" s="3" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="AT43" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AU43" s="3" t="s">
         <v>38</v>
@@ -10094,34 +10214,34 @@
         <v>38</v>
       </c>
       <c r="AW43" s="6" t="s">
-        <v>701</v>
+        <v>662</v>
       </c>
       <c r="AX43" s="9" t="s">
-        <v>655</v>
+        <v>616</v>
       </c>
       <c r="AY43" s="7"/>
     </row>
     <row r="44" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>720</v>
+        <v>681</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E44" s="3">
         <v>962983944</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>35</v>
@@ -10133,14 +10253,14 @@
         <v>36</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>306</v>
+        <v>781</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>567</v>
+        <v>528</v>
       </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="O44" s="3">
         <v>6</v>
@@ -10152,25 +10272,25 @@
         <v>38</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="U44" s="4">
         <v>5.5</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>554</v>
+        <v>515</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>535</v>
+        <v>496</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>530</v>
+        <v>491</v>
       </c>
       <c r="Y44" s="3">
         <v>10</v>
@@ -10185,7 +10305,7 @@
         <v>32</v>
       </c>
       <c r="AC44" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AD44" s="3" t="s">
         <v>36</v>
@@ -10197,7 +10317,7 @@
         <v>-79.222199399999994</v>
       </c>
       <c r="AG44" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH44" s="3">
         <v>67</v>
@@ -10209,16 +10329,16 @@
         <v>6</v>
       </c>
       <c r="AK44" s="3" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="AL44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM44" s="3" t="s">
-        <v>463</v>
+        <v>431</v>
       </c>
       <c r="AN44" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AO44" s="3">
         <v>10</v>
@@ -10233,7 +10353,7 @@
         <v>6</v>
       </c>
       <c r="AS44" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AT44" s="3" t="s">
         <v>44</v>
@@ -10245,34 +10365,34 @@
         <v>38</v>
       </c>
       <c r="AW44" s="6" t="s">
-        <v>702</v>
+        <v>663</v>
       </c>
       <c r="AX44" s="9" t="s">
-        <v>656</v>
+        <v>617</v>
       </c>
       <c r="AY44" s="7"/>
     </row>
     <row r="45" spans="1:51" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>739</v>
+        <v>700</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E45" s="3">
         <v>989524512</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>57</v>
@@ -10284,14 +10404,14 @@
         <v>36</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="O45" s="3">
         <v>5</v>
@@ -10303,25 +10423,25 @@
         <v>38</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="T45" s="3" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="U45" s="4">
         <v>5</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>550</v>
+        <v>511</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>571</v>
+        <v>532</v>
       </c>
       <c r="Y45" s="3">
         <v>3</v>
@@ -10336,7 +10456,7 @@
         <v>32</v>
       </c>
       <c r="AC45" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD45" s="3" t="s">
         <v>38</v>
@@ -10360,13 +10480,13 @@
         <v>3</v>
       </c>
       <c r="AK45" s="3" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="AL45" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM45" s="3" t="s">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="AN45" s="3" t="s">
         <v>32</v>
@@ -10396,34 +10516,34 @@
         <v>38</v>
       </c>
       <c r="AW45" s="6" t="s">
-        <v>703</v>
+        <v>664</v>
       </c>
       <c r="AX45" s="7" t="s">
-        <v>657</v>
+        <v>618</v>
       </c>
       <c r="AY45" s="7"/>
     </row>
     <row r="46" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E46" s="3">
         <v>959569399</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>35</v>
@@ -10435,14 +10555,14 @@
         <v>36</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>559</v>
+        <v>520</v>
       </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="O46" s="3">
         <v>10</v>
@@ -10454,25 +10574,25 @@
         <v>38</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>391</v>
+        <v>359</v>
       </c>
       <c r="U46" s="4">
         <v>7</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>554</v>
+        <v>515</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>535</v>
+        <v>496</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="Y46" s="3">
         <v>4</v>
@@ -10487,7 +10607,7 @@
         <v>32</v>
       </c>
       <c r="AC46" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AD46" s="3" t="s">
         <v>36</v>
@@ -10511,7 +10631,7 @@
         <v>4</v>
       </c>
       <c r="AK46" s="3" t="s">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="AL46" s="3" t="s">
         <v>46</v>
@@ -10547,32 +10667,32 @@
         <v>38</v>
       </c>
       <c r="AW46" s="6" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="AX46" s="7"/>
       <c r="AY46" s="7"/>
     </row>
     <row r="47" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E47" s="3">
         <v>72640148</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>35</v>
@@ -10584,16 +10704,16 @@
         <v>36</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>497</v>
+        <v>458</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="O47" s="3">
         <v>6</v>
@@ -10605,25 +10725,25 @@
         <v>38</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="U47" s="4">
         <v>10.5</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>554</v>
+        <v>515</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>535</v>
+        <v>496</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="Y47" s="3">
         <v>4</v>
@@ -10662,13 +10782,13 @@
         <v>10</v>
       </c>
       <c r="AK47" s="3" t="s">
-        <v>436</v>
+        <v>404</v>
       </c>
       <c r="AL47" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM47" s="3" t="s">
-        <v>464</v>
+        <v>432</v>
       </c>
       <c r="AN47" s="3" t="s">
         <v>32</v>
@@ -10698,55 +10818,55 @@
         <v>38</v>
       </c>
       <c r="AW47" s="6" t="s">
-        <v>753</v>
+        <v>714</v>
       </c>
       <c r="AX47" s="9" t="s">
-        <v>752</v>
+        <v>713</v>
       </c>
       <c r="AY47" s="7"/>
     </row>
     <row r="48" spans="1:51" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E48" s="3">
         <v>992250697</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="O48" s="3">
         <v>3</v>
@@ -10758,25 +10878,25 @@
         <v>38</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="U48" s="4">
         <v>3.5</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>550</v>
+        <v>511</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>577</v>
+        <v>538</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>524</v>
+        <v>485</v>
       </c>
       <c r="Y48" s="3">
         <v>3</v>
@@ -10791,7 +10911,7 @@
         <v>32</v>
       </c>
       <c r="AC48" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD48" s="3" t="s">
         <v>38</v>
@@ -10815,7 +10935,7 @@
         <v>15</v>
       </c>
       <c r="AK48" s="3" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="AL48" s="3" t="s">
         <v>46</v>
@@ -10824,7 +10944,7 @@
         <v>36</v>
       </c>
       <c r="AN48" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AO48" s="3">
         <v>10</v>
@@ -10851,34 +10971,34 @@
         <v>38</v>
       </c>
       <c r="AW48" s="6" t="s">
-        <v>704</v>
+        <v>665</v>
       </c>
       <c r="AX48" s="9" t="s">
-        <v>658</v>
+        <v>619</v>
       </c>
       <c r="AY48" s="7"/>
     </row>
     <row r="49" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E49" s="3">
         <v>960288270</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>35</v>
@@ -10890,16 +11010,16 @@
         <v>36</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>495</v>
+        <v>456</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>578</v>
+        <v>539</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>579</v>
+        <v>540</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="O49" s="3">
         <v>7</v>
@@ -10911,25 +11031,25 @@
         <v>38</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>549</v>
+        <v>510</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="U49" s="4">
         <v>5</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>554</v>
+        <v>515</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>525</v>
+        <v>486</v>
       </c>
       <c r="X49" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y49" s="3">
         <v>3</v>
@@ -10944,7 +11064,7 @@
         <v>32</v>
       </c>
       <c r="AC49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD49" s="3" t="s">
         <v>38</v>
@@ -10968,13 +11088,13 @@
         <v>4</v>
       </c>
       <c r="AK49" s="3" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="AL49" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM49" s="3" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
       <c r="AN49" s="3" t="s">
         <v>32</v>
@@ -10989,10 +11109,10 @@
         <v>36</v>
       </c>
       <c r="AR49" s="3" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="AS49" s="3" t="s">
-        <v>479</v>
+        <v>447</v>
       </c>
       <c r="AT49" s="3" t="s">
         <v>44</v>
@@ -11004,34 +11124,34 @@
         <v>38</v>
       </c>
       <c r="AW49" s="6" t="s">
-        <v>755</v>
+        <v>716</v>
       </c>
       <c r="AX49" s="9" t="s">
-        <v>754</v>
+        <v>715</v>
       </c>
       <c r="AY49" s="7"/>
     </row>
     <row r="50" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>733</v>
+        <v>694</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E50" s="3">
         <v>988271410</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>35</v>
@@ -11043,14 +11163,14 @@
         <v>36</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>496</v>
+        <v>457</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>580</v>
+        <v>541</v>
       </c>
       <c r="M50" s="3"/>
       <c r="N50" s="3" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="O50" s="3">
         <v>3</v>
@@ -11062,25 +11182,25 @@
         <v>36</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>557</v>
+        <v>518</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="U50" s="4">
         <v>3.5</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>550</v>
+        <v>511</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>581</v>
+        <v>542</v>
       </c>
       <c r="Y50" s="3">
         <v>3</v>
@@ -11095,7 +11215,7 @@
         <v>32</v>
       </c>
       <c r="AC50" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD50" s="3" t="s">
         <v>38</v>
@@ -11155,34 +11275,34 @@
         <v>38</v>
       </c>
       <c r="AW50" s="6" t="s">
-        <v>705</v>
+        <v>666</v>
       </c>
       <c r="AX50" s="9" t="s">
-        <v>659</v>
+        <v>620</v>
       </c>
       <c r="AY50" s="7"/>
     </row>
     <row r="51" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>732</v>
+        <v>693</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E51" s="3">
         <v>992670070</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>57</v>
@@ -11194,14 +11314,14 @@
         <v>36</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>582</v>
+        <v>543</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="O51" s="3">
         <v>4</v>
@@ -11213,25 +11333,25 @@
         <v>36</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="U51" s="4">
         <v>4</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>554</v>
+        <v>515</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="Y51" s="3">
         <v>1</v>
@@ -11246,7 +11366,7 @@
         <v>32</v>
       </c>
       <c r="AC51" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD51" s="3" t="s">
         <v>38</v>
@@ -11270,13 +11390,13 @@
         <v>8</v>
       </c>
       <c r="AK51" s="3" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="AL51" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM51" s="3" t="s">
-        <v>466</v>
+        <v>434</v>
       </c>
       <c r="AN51" s="3" t="s">
         <v>32</v>
@@ -11306,34 +11426,34 @@
         <v>38</v>
       </c>
       <c r="AW51" s="6" t="s">
-        <v>499</v>
+        <v>712</v>
       </c>
       <c r="AX51" s="9" t="s">
-        <v>750</v>
+        <v>711</v>
       </c>
       <c r="AY51" s="7"/>
     </row>
     <row r="52" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E52" s="3">
         <v>939767460</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>35</v>
@@ -11345,14 +11465,14 @@
         <v>36</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>582</v>
+        <v>543</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="O52" s="3">
         <v>5</v>
@@ -11364,25 +11484,25 @@
         <v>36</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="U52" s="4">
         <v>7</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>554</v>
+        <v>515</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>583</v>
+        <v>544</v>
       </c>
       <c r="Y52" s="3">
         <v>7</v>
@@ -11421,13 +11541,13 @@
         <v>4</v>
       </c>
       <c r="AK52" s="3" t="s">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="AL52" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM52" s="3" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="AN52" s="3" t="s">
         <v>32</v>
@@ -11457,34 +11577,34 @@
         <v>38</v>
       </c>
       <c r="AW52" s="6" t="s">
-        <v>706</v>
+        <v>667</v>
       </c>
       <c r="AX52" s="7" t="s">
-        <v>660</v>
+        <v>621</v>
       </c>
       <c r="AY52" s="7"/>
     </row>
     <row r="53" spans="1:51" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>738</v>
+        <v>699</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E53" s="3">
         <v>991364262</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>57</v>
@@ -11496,14 +11616,14 @@
         <v>36</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>582</v>
+        <v>543</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="O53" s="3">
         <v>6</v>
@@ -11515,25 +11635,25 @@
         <v>38</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>557</v>
+        <v>518</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="U53" s="4">
         <v>3</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="X53" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y53" s="3">
         <v>2</v>
@@ -11548,7 +11668,7 @@
         <v>32</v>
       </c>
       <c r="AC53" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD53" s="3" t="s">
         <v>36</v>
@@ -11572,7 +11692,7 @@
         <v>6</v>
       </c>
       <c r="AK53" s="3" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="AL53" s="3" t="s">
         <v>42</v>
@@ -11608,51 +11728,53 @@
         <v>38</v>
       </c>
       <c r="AW53" s="6" t="s">
-        <v>751</v>
-      </c>
-      <c r="AX53" s="7"/>
+        <v>730</v>
+      </c>
+      <c r="AX53" s="9" t="s">
+        <v>729</v>
+      </c>
       <c r="AY53" s="7"/>
     </row>
     <row r="54" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>721</v>
+        <v>682</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E54" s="3">
         <v>72735773</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>304</v>
+        <v>766</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>584</v>
+        <v>545</v>
       </c>
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="O54" s="3">
         <v>3</v>
@@ -11664,25 +11786,25 @@
         <v>36</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T54" s="3" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="U54" s="4">
         <v>3</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>550</v>
+        <v>511</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>535</v>
+        <v>496</v>
       </c>
       <c r="X54" s="3" t="s">
-        <v>558</v>
+        <v>519</v>
       </c>
       <c r="Y54" s="3">
         <v>7</v>
@@ -11697,7 +11819,7 @@
         <v>32</v>
       </c>
       <c r="AC54" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD54" s="3" t="s">
         <v>38</v>
@@ -11757,34 +11879,34 @@
         <v>38</v>
       </c>
       <c r="AW54" s="6" t="s">
-        <v>707</v>
+        <v>668</v>
       </c>
       <c r="AX54" s="9" t="s">
-        <v>661</v>
+        <v>622</v>
       </c>
       <c r="AY54" s="7"/>
     </row>
     <row r="55" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>726</v>
+        <v>687</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E55" s="3">
         <v>979802166</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>35</v>
@@ -11796,14 +11918,14 @@
         <v>36</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>559</v>
+        <v>520</v>
       </c>
       <c r="M55" s="3"/>
       <c r="N55" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="O55" s="3">
         <v>2</v>
@@ -11815,25 +11937,25 @@
         <v>36</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T55" s="3" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="U55" s="4">
         <v>3</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>550</v>
+        <v>511</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="X55" s="3" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="Y55" s="3">
         <v>3</v>
@@ -11848,7 +11970,7 @@
         <v>32</v>
       </c>
       <c r="AC55" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD55" s="3" t="s">
         <v>38</v>
@@ -11881,7 +12003,7 @@
         <v>36</v>
       </c>
       <c r="AN55" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AO55" s="3">
         <v>3</v>
@@ -11908,53 +12030,53 @@
         <v>38</v>
       </c>
       <c r="AW55" s="6" t="s">
-        <v>708</v>
+        <v>669</v>
       </c>
       <c r="AX55" s="9" t="s">
-        <v>662</v>
+        <v>623</v>
       </c>
       <c r="AY55" s="7"/>
     </row>
     <row r="56" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E56" s="3">
         <v>996259401</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>580</v>
+        <v>541</v>
       </c>
       <c r="M56" s="3"/>
       <c r="N56" s="3" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="O56" s="3">
         <v>2</v>
@@ -11966,25 +12088,25 @@
         <v>36</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="U56" s="4">
         <v>2.75</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>550</v>
+        <v>511</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>535</v>
+        <v>496</v>
       </c>
       <c r="X56" s="3" t="s">
-        <v>558</v>
+        <v>519</v>
       </c>
       <c r="Y56" s="3">
         <v>3</v>
@@ -11999,7 +12121,7 @@
         <v>32</v>
       </c>
       <c r="AC56" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AD56" s="3" t="s">
         <v>38</v>
@@ -12059,55 +12181,55 @@
         <v>38</v>
       </c>
       <c r="AW56" s="6" t="s">
-        <v>709</v>
+        <v>670</v>
       </c>
       <c r="AX56" s="9" t="s">
-        <v>663</v>
+        <v>624</v>
       </c>
       <c r="AY56" s="7"/>
     </row>
     <row r="57" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E57" s="3">
         <v>990716673</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>582</v>
+        <v>543</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>585</v>
+        <v>546</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="O57" s="3">
         <v>4</v>
@@ -12119,25 +12241,25 @@
         <v>38</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="T57" s="3" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="U57" s="4">
         <v>5</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>550</v>
+        <v>511</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>535</v>
+        <v>496</v>
       </c>
       <c r="X57" s="3" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="Y57" s="3">
         <v>2</v>
@@ -12173,19 +12295,19 @@
         <v>41</v>
       </c>
       <c r="AJ57" s="3" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="AK57" s="3" t="s">
-        <v>442</v>
+        <v>410</v>
       </c>
       <c r="AL57" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM57" s="3" t="s">
-        <v>586</v>
+        <v>547</v>
       </c>
       <c r="AN57" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AO57" s="3">
         <v>4</v>
@@ -12197,7 +12319,7 @@
         <v>36</v>
       </c>
       <c r="AR57" s="3" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="AS57" s="3" t="s">
         <v>36</v>
@@ -12212,34 +12334,34 @@
         <v>38</v>
       </c>
       <c r="AW57" s="6" t="s">
-        <v>677</v>
+        <v>638</v>
       </c>
       <c r="AX57" s="9" t="s">
-        <v>664</v>
+        <v>625</v>
       </c>
       <c r="AY57" s="7"/>
     </row>
     <row r="58" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>722</v>
+        <v>683</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E58" s="3">
         <v>988637307</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>35</v>
@@ -12251,16 +12373,16 @@
         <v>36</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>587</v>
+        <v>548</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>588</v>
+        <v>549</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="O58" s="3">
         <v>1</v>
@@ -12272,25 +12394,25 @@
         <v>36</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="U58" s="4">
         <v>5.5</v>
       </c>
       <c r="V58" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="X58" s="3" t="s">
         <v>550</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>589</v>
       </c>
       <c r="Y58" s="3">
         <v>3</v>
@@ -12329,13 +12451,13 @@
         <v>4</v>
       </c>
       <c r="AK58" s="3" t="s">
-        <v>443</v>
+        <v>411</v>
       </c>
       <c r="AL58" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM58" s="3" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="AN58" s="3" t="s">
         <v>32</v>
@@ -12365,55 +12487,55 @@
         <v>38</v>
       </c>
       <c r="AW58" s="6" t="s">
-        <v>678</v>
+        <v>639</v>
       </c>
       <c r="AX58" s="9" t="s">
-        <v>665</v>
+        <v>626</v>
       </c>
       <c r="AY58" s="7"/>
     </row>
     <row r="59" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E59" s="3">
         <v>969647354</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>582</v>
+        <v>543</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>590</v>
+        <v>551</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="O59" s="3">
         <v>4</v>
@@ -12425,25 +12547,25 @@
         <v>36</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>557</v>
+        <v>518</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="U59" s="4">
         <v>5</v>
       </c>
       <c r="V59" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>535</v>
+        <v>496</v>
       </c>
       <c r="X59" s="3" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="Y59" s="3">
         <v>2</v>
@@ -12482,7 +12604,7 @@
         <v>4</v>
       </c>
       <c r="AK59" s="3" t="s">
-        <v>444</v>
+        <v>412</v>
       </c>
       <c r="AL59" s="3" t="s">
         <v>42</v>
@@ -12491,7 +12613,7 @@
         <v>36</v>
       </c>
       <c r="AN59" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AO59" s="3">
         <v>7</v>
@@ -12509,7 +12631,7 @@
         <v>36</v>
       </c>
       <c r="AT59" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AU59" s="3" t="s">
         <v>36</v>
@@ -12518,34 +12640,34 @@
         <v>38</v>
       </c>
       <c r="AW59" s="6" t="s">
-        <v>710</v>
+        <v>671</v>
       </c>
       <c r="AX59" s="9" t="s">
-        <v>666</v>
+        <v>627</v>
       </c>
       <c r="AY59" s="7"/>
     </row>
     <row r="60" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>723</v>
+        <v>684</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E60" s="3">
         <v>939385851</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>35</v>
@@ -12557,16 +12679,16 @@
         <v>36</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>591</v>
+        <v>552</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>592</v>
+        <v>553</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="O60" s="3">
         <v>2</v>
@@ -12578,25 +12700,25 @@
         <v>38</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>556</v>
+        <v>517</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="T60" s="3" t="s">
-        <v>405</v>
+        <v>373</v>
       </c>
       <c r="U60" s="4">
         <v>5</v>
       </c>
       <c r="V60" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W60" s="3" t="s">
-        <v>535</v>
+        <v>496</v>
       </c>
       <c r="X60" s="3" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="Y60" s="3">
         <v>3</v>
@@ -12611,7 +12733,7 @@
         <v>32</v>
       </c>
       <c r="AC60" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD60" s="3" t="s">
         <v>38</v>
@@ -12623,7 +12745,7 @@
         <v>-79.224453999999994</v>
       </c>
       <c r="AG60" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH60" s="3">
         <v>41</v>
@@ -12635,13 +12757,13 @@
         <v>4</v>
       </c>
       <c r="AK60" s="3" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="AL60" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM60" s="3" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="AN60" s="3" t="s">
         <v>32</v>
@@ -12659,10 +12781,10 @@
         <v>6</v>
       </c>
       <c r="AS60" s="3" t="s">
-        <v>480</v>
+        <v>448</v>
       </c>
       <c r="AT60" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AU60" s="3" t="s">
         <v>36</v>
@@ -12671,34 +12793,34 @@
         <v>38</v>
       </c>
       <c r="AW60" s="6" t="s">
-        <v>711</v>
+        <v>672</v>
       </c>
       <c r="AX60" s="7" t="s">
-        <v>667</v>
+        <v>628</v>
       </c>
       <c r="AY60" s="7"/>
     </row>
     <row r="61" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>724</v>
+        <v>685</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E61" s="3">
         <v>989804020</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>593</v>
+        <v>554</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>35</v>
@@ -12710,16 +12832,16 @@
         <v>36</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>594</v>
+        <v>555</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>595</v>
+        <v>556</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="O61" s="3">
         <v>4</v>
@@ -12731,25 +12853,25 @@
         <v>38</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="T61" s="3" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="U61" s="4">
         <v>8</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>554</v>
+        <v>515</v>
       </c>
       <c r="W61" s="3" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="X61" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y61" s="3">
         <v>4</v>
@@ -12764,7 +12886,7 @@
         <v>32</v>
       </c>
       <c r="AC61" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AD61" s="3" t="s">
         <v>36</v>
@@ -12788,13 +12910,13 @@
         <v>4</v>
       </c>
       <c r="AK61" s="3" t="s">
-        <v>446</v>
+        <v>414</v>
       </c>
       <c r="AL61" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM61" s="3" t="s">
-        <v>596</v>
+        <v>557</v>
       </c>
       <c r="AN61" s="3" t="s">
         <v>32</v>
@@ -12812,10 +12934,10 @@
         <v>4</v>
       </c>
       <c r="AS61" s="3" t="s">
-        <v>481</v>
+        <v>449</v>
       </c>
       <c r="AT61" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AU61" s="3" t="s">
         <v>38</v>
@@ -12824,34 +12946,34 @@
         <v>38</v>
       </c>
       <c r="AW61" s="6" t="s">
-        <v>712</v>
+        <v>673</v>
       </c>
       <c r="AX61" s="7" t="s">
-        <v>668</v>
+        <v>629</v>
       </c>
       <c r="AY61" s="7"/>
     </row>
     <row r="62" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>725</v>
+        <v>686</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E62" s="3">
         <v>980882809</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>35</v>
@@ -12863,16 +12985,16 @@
         <v>36</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>494</v>
+        <v>782</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>597</v>
+        <v>558</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>598</v>
+        <v>559</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="O62" s="3">
         <v>10</v>
@@ -12884,25 +13006,25 @@
         <v>38</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>556</v>
+        <v>517</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="T62" s="3" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="U62" s="4">
         <v>7</v>
       </c>
       <c r="V62" s="3" t="s">
-        <v>554</v>
+        <v>515</v>
       </c>
       <c r="W62" s="3" t="s">
-        <v>525</v>
+        <v>486</v>
       </c>
       <c r="X62" s="3" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="Y62" s="3">
         <v>10</v>
@@ -12917,7 +13039,7 @@
         <v>32</v>
       </c>
       <c r="AC62" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD62" s="3" t="s">
         <v>38</v>
@@ -12941,13 +13063,13 @@
         <v>15</v>
       </c>
       <c r="AK62" s="3" t="s">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="AL62" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM62" s="3" t="s">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="AN62" s="3" t="s">
         <v>32</v>
@@ -12959,7 +13081,7 @@
         <v>50</v>
       </c>
       <c r="AQ62" s="3" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="AR62" s="3">
         <v>3</v>
@@ -12968,7 +13090,7 @@
         <v>36</v>
       </c>
       <c r="AT62" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AU62" s="3" t="s">
         <v>36</v>
@@ -12977,34 +13099,34 @@
         <v>38</v>
       </c>
       <c r="AW62" s="6" t="s">
-        <v>629</v>
+        <v>590</v>
       </c>
       <c r="AX62" s="9" t="s">
-        <v>628</v>
+        <v>589</v>
       </c>
       <c r="AY62" s="7"/>
     </row>
     <row r="63" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E63" s="3">
         <v>984934506</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>35</v>
@@ -13016,16 +13138,16 @@
         <v>36</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>493</v>
+        <v>767</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>599</v>
+        <v>560</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>600</v>
+        <v>561</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="O63" s="3">
         <v>7</v>
@@ -13037,25 +13159,25 @@
         <v>38</v>
       </c>
       <c r="R63" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>557</v>
+        <v>518</v>
       </c>
       <c r="T63" s="3" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="U63" s="4">
         <v>7</v>
       </c>
       <c r="V63" s="3" t="s">
-        <v>554</v>
+        <v>515</v>
       </c>
       <c r="W63" s="3" t="s">
-        <v>535</v>
+        <v>496</v>
       </c>
       <c r="X63" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y63" s="3">
         <v>5</v>
@@ -13070,7 +13192,7 @@
         <v>32</v>
       </c>
       <c r="AC63" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD63" s="3" t="s">
         <v>38</v>
@@ -13094,13 +13216,13 @@
         <v>5</v>
       </c>
       <c r="AK63" s="3" t="s">
-        <v>448</v>
+        <v>416</v>
       </c>
       <c r="AL63" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM63" s="3" t="s">
-        <v>601</v>
+        <v>562</v>
       </c>
       <c r="AN63" s="3" t="s">
         <v>32</v>
@@ -13109,7 +13231,7 @@
         <v>6</v>
       </c>
       <c r="AP63" s="3" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="AQ63" s="3" t="s">
         <v>36</v>
@@ -13118,7 +13240,7 @@
         <v>26</v>
       </c>
       <c r="AS63" s="3" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="AT63" s="3" t="s">
         <v>44</v>
@@ -13130,55 +13252,55 @@
         <v>38</v>
       </c>
       <c r="AW63" s="6" t="s">
-        <v>747</v>
+        <v>708</v>
       </c>
       <c r="AX63" s="9" t="s">
-        <v>746</v>
+        <v>707</v>
       </c>
       <c r="AY63" s="7"/>
     </row>
     <row r="64" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>727</v>
+        <v>688</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E64" s="3">
         <v>997382881</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>315</v>
+        <v>768</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>602</v>
+        <v>563</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>588</v>
+        <v>549</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="O64" s="3">
         <v>8</v>
@@ -13190,25 +13312,25 @@
         <v>38</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>549</v>
+        <v>510</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>557</v>
+        <v>518</v>
       </c>
       <c r="T64" s="3" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="U64" s="4">
         <v>5.5</v>
       </c>
       <c r="V64" s="3" t="s">
-        <v>603</v>
+        <v>564</v>
       </c>
       <c r="W64" s="3" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="X64" s="3" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="Y64" s="3">
         <v>2</v>
@@ -13223,7 +13345,7 @@
         <v>32</v>
       </c>
       <c r="AC64" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD64" s="3" t="s">
         <v>38</v>
@@ -13247,7 +13369,7 @@
         <v>6</v>
       </c>
       <c r="AK64" s="3" t="s">
-        <v>449</v>
+        <v>417</v>
       </c>
       <c r="AL64" s="3" t="s">
         <v>46</v>
@@ -13256,7 +13378,7 @@
         <v>36</v>
       </c>
       <c r="AN64" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AO64" s="3">
         <v>12</v>
@@ -13271,7 +13393,7 @@
         <v>1</v>
       </c>
       <c r="AS64" s="3" t="s">
-        <v>604</v>
+        <v>565</v>
       </c>
       <c r="AT64" s="3" t="s">
         <v>44</v>
@@ -13283,51 +13405,51 @@
         <v>38</v>
       </c>
       <c r="AW64" s="6" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="AX64" s="7"/>
       <c r="AY64" s="7"/>
     </row>
     <row r="65" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E65" s="3">
         <v>992714781</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J65" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>316</v>
+        <v>769</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>605</v>
+        <v>566</v>
       </c>
       <c r="M65" s="3"/>
       <c r="N65" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="O65" s="3">
         <v>5</v>
@@ -13339,25 +13461,25 @@
         <v>38</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="T65" s="3" t="s">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="U65" s="4">
         <v>3</v>
       </c>
       <c r="V65" s="3" t="s">
-        <v>554</v>
+        <v>515</v>
       </c>
       <c r="W65" s="3" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="X65" s="3" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="Y65" s="3">
         <v>1</v>
@@ -13372,7 +13494,7 @@
         <v>32</v>
       </c>
       <c r="AC65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD65" s="3" t="s">
         <v>36</v>
@@ -13396,13 +13518,13 @@
         <v>5</v>
       </c>
       <c r="AK65" s="3" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="AL65" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM65" s="3" t="s">
-        <v>606</v>
+        <v>567</v>
       </c>
       <c r="AN65" s="3" t="s">
         <v>32</v>
@@ -13432,51 +13554,51 @@
         <v>38</v>
       </c>
       <c r="AW65" s="6" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="AX65" s="7"/>
       <c r="AY65" s="7"/>
     </row>
     <row r="66" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E66" s="3">
         <v>987192802</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>317</v>
+        <v>770</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>582</v>
+        <v>543</v>
       </c>
       <c r="M66" s="3"/>
       <c r="N66" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="O66" s="3">
         <v>3</v>
@@ -13488,25 +13610,25 @@
         <v>38</v>
       </c>
       <c r="R66" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T66" s="3" t="s">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="U66" s="4">
         <v>3</v>
       </c>
       <c r="V66" s="3" t="s">
-        <v>550</v>
+        <v>511</v>
       </c>
       <c r="W66" s="3" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="X66" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y66" s="3">
         <v>2</v>
@@ -13521,7 +13643,7 @@
         <v>32</v>
       </c>
       <c r="AC66" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD66" s="3" t="s">
         <v>38</v>
@@ -13545,7 +13667,7 @@
         <v>16</v>
       </c>
       <c r="AK66" s="3" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="AL66" s="3" t="s">
         <v>46</v>
@@ -13581,34 +13703,34 @@
         <v>38</v>
       </c>
       <c r="AW66" s="6" t="s">
-        <v>713</v>
+        <v>674</v>
       </c>
       <c r="AX66" s="9" t="s">
-        <v>669</v>
+        <v>630</v>
       </c>
       <c r="AY66" s="7"/>
     </row>
     <row r="67" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" s="3">
         <v>991322614</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>607</v>
+        <v>568</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>35</v>
@@ -13620,14 +13742,14 @@
         <v>36</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>318</v>
+        <v>771</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>608</v>
+        <v>569</v>
       </c>
       <c r="M67" s="3"/>
       <c r="N67" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="O67" s="3">
         <v>6</v>
@@ -13639,25 +13761,25 @@
         <v>38</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>557</v>
+        <v>518</v>
       </c>
       <c r="T67" s="3" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="U67" s="4">
         <v>3.5</v>
       </c>
       <c r="V67" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W67" s="3" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="X67" s="3" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="Y67" s="3">
         <v>4</v>
@@ -13672,7 +13794,7 @@
         <v>32</v>
       </c>
       <c r="AC67" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD67" s="3" t="s">
         <v>38</v>
@@ -13732,32 +13854,32 @@
         <v>38</v>
       </c>
       <c r="AW67" s="6" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="AX67" s="7"/>
       <c r="AY67" s="7"/>
     </row>
     <row r="68" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E68" s="3">
         <v>969306278</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>35</v>
@@ -13769,16 +13891,16 @@
         <v>36</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>489</v>
+        <v>783</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>582</v>
+        <v>543</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>588</v>
+        <v>549</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="O68" s="3">
         <v>7</v>
@@ -13790,25 +13912,25 @@
         <v>38</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="T68" s="3" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="U68" s="4">
         <v>5</v>
       </c>
       <c r="V68" s="3" t="s">
-        <v>550</v>
+        <v>511</v>
       </c>
       <c r="W68" s="3" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="X68" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y68" s="3">
         <v>5</v>
@@ -13823,7 +13945,7 @@
         <v>32</v>
       </c>
       <c r="AC68" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD68" s="3" t="s">
         <v>38</v>
@@ -13847,13 +13969,13 @@
         <v>4</v>
       </c>
       <c r="AK68" s="3" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="AL68" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM68" s="3" t="s">
-        <v>609</v>
+        <v>570</v>
       </c>
       <c r="AN68" s="3" t="s">
         <v>32</v>
@@ -13883,34 +14005,34 @@
         <v>38</v>
       </c>
       <c r="AW68" s="6" t="s">
-        <v>714</v>
+        <v>675</v>
       </c>
       <c r="AX68" s="9" t="s">
-        <v>670</v>
+        <v>631</v>
       </c>
       <c r="AY68" s="7"/>
     </row>
     <row r="69" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E69" s="3">
         <v>991860378</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>35</v>
@@ -13922,16 +14044,16 @@
         <v>36</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>488</v>
+        <v>784</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>582</v>
+        <v>543</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>588</v>
+        <v>549</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="O69" s="3">
         <v>12</v>
@@ -13943,25 +14065,25 @@
         <v>38</v>
       </c>
       <c r="R69" s="3" t="s">
-        <v>542</v>
+        <v>503</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="T69" s="3" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="U69" s="4">
         <v>5</v>
       </c>
       <c r="V69" s="3" t="s">
-        <v>554</v>
+        <v>515</v>
       </c>
       <c r="W69" s="3" t="s">
-        <v>535</v>
+        <v>496</v>
       </c>
       <c r="X69" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y69" s="3">
         <v>3</v>
@@ -13976,7 +14098,7 @@
         <v>32</v>
       </c>
       <c r="AC69" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AD69" s="3" t="s">
         <v>38</v>
@@ -14000,13 +14122,13 @@
         <v>8</v>
       </c>
       <c r="AK69" s="3" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="AL69" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM69" s="3" t="s">
-        <v>610</v>
+        <v>571</v>
       </c>
       <c r="AN69" s="3" t="s">
         <v>32</v>
@@ -14024,7 +14146,7 @@
         <v>3</v>
       </c>
       <c r="AS69" s="3" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="AT69" s="3" t="s">
         <v>44</v>
@@ -14036,32 +14158,32 @@
         <v>38</v>
       </c>
       <c r="AW69" s="6" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="AX69" s="7"/>
       <c r="AY69" s="7"/>
     </row>
     <row r="70" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E70" s="3">
         <v>987979144</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>35</v>
@@ -14073,16 +14195,16 @@
         <v>36</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>319</v>
+        <v>772</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>582</v>
+        <v>543</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>611</v>
+        <v>572</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="O70" s="3">
         <v>6</v>
@@ -14094,25 +14216,25 @@
         <v>38</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="T70" s="3" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="U70" s="4">
         <v>12</v>
       </c>
       <c r="V70" s="3" t="s">
-        <v>554</v>
+        <v>515</v>
       </c>
       <c r="W70" s="3" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="X70" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y70" s="3">
         <v>2</v>
@@ -14127,7 +14249,7 @@
         <v>32</v>
       </c>
       <c r="AC70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD70" s="3" t="s">
         <v>38</v>
@@ -14151,13 +14273,13 @@
         <v>12</v>
       </c>
       <c r="AK70" s="3" t="s">
-        <v>454</v>
+        <v>422</v>
       </c>
       <c r="AL70" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM70" s="3" t="s">
-        <v>612</v>
+        <v>573</v>
       </c>
       <c r="AN70" s="3" t="s">
         <v>32</v>
@@ -14178,7 +14300,7 @@
         <v>36</v>
       </c>
       <c r="AT70" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AU70" s="3" t="s">
         <v>36</v>
@@ -14187,34 +14309,34 @@
         <v>38</v>
       </c>
       <c r="AW70" s="6" t="s">
-        <v>715</v>
+        <v>676</v>
       </c>
       <c r="AX70" s="9" t="s">
-        <v>671</v>
+        <v>632</v>
       </c>
       <c r="AY70" s="7"/>
     </row>
     <row r="71" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E71" s="3">
         <v>984234395</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>35</v>
@@ -14226,16 +14348,16 @@
         <v>36</v>
       </c>
       <c r="K71" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="N71" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="M71" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="N71" s="3" t="s">
-        <v>336</v>
       </c>
       <c r="O71" s="3">
         <v>10</v>
@@ -14247,25 +14369,25 @@
         <v>38</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>615</v>
+        <v>576</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="T71" s="3" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="U71" s="4">
         <v>10</v>
       </c>
       <c r="V71" s="3" t="s">
-        <v>554</v>
+        <v>515</v>
       </c>
       <c r="W71" s="3" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="X71" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y71" s="3">
         <v>2</v>
@@ -14280,7 +14402,7 @@
         <v>32</v>
       </c>
       <c r="AC71" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AD71" s="3" t="s">
         <v>38</v>
@@ -14304,13 +14426,13 @@
         <v>12</v>
       </c>
       <c r="AK71" s="3" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="AL71" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM71" s="3" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="AN71" s="3" t="s">
         <v>32</v>
@@ -14328,10 +14450,10 @@
         <v>4</v>
       </c>
       <c r="AS71" s="3" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="AT71" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AU71" s="3" t="s">
         <v>36</v>
@@ -14340,34 +14462,34 @@
         <v>38</v>
       </c>
       <c r="AW71" s="6" t="s">
-        <v>716</v>
+        <v>677</v>
       </c>
       <c r="AX71" s="9" t="s">
-        <v>672</v>
+        <v>633</v>
       </c>
       <c r="AY71" s="7"/>
     </row>
     <row r="72" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E72" s="3">
         <v>989577107</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>57</v>
@@ -14379,14 +14501,14 @@
         <v>36</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>321</v>
+        <v>774</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>582</v>
+        <v>543</v>
       </c>
       <c r="M72" s="3"/>
       <c r="N72" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="O72" s="3">
         <v>7</v>
@@ -14398,25 +14520,25 @@
         <v>38</v>
       </c>
       <c r="R72" s="3" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>557</v>
+        <v>518</v>
       </c>
       <c r="T72" s="3" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="U72" s="4">
         <v>1</v>
       </c>
       <c r="V72" s="3" t="s">
-        <v>616</v>
+        <v>577</v>
       </c>
       <c r="W72" s="3" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="X72" s="3" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="Y72" s="3">
         <v>4</v>
@@ -14431,7 +14553,7 @@
         <v>32</v>
       </c>
       <c r="AC72" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD72" s="3" t="s">
         <v>38</v>
@@ -14455,13 +14577,13 @@
         <v>20</v>
       </c>
       <c r="AK72" s="3" t="s">
-        <v>456</v>
+        <v>424</v>
       </c>
       <c r="AL72" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM72" s="3" t="s">
-        <v>617</v>
+        <v>578</v>
       </c>
       <c r="AN72" s="3" t="s">
         <v>32</v>
@@ -14491,34 +14613,34 @@
         <v>38</v>
       </c>
       <c r="AW72" s="6" t="s">
-        <v>717</v>
+        <v>678</v>
       </c>
       <c r="AX72" s="9" t="s">
-        <v>673</v>
+        <v>634</v>
       </c>
       <c r="AY72" s="7"/>
     </row>
     <row r="73" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E73" s="3">
         <v>962876988</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>35</v>
@@ -14530,14 +14652,14 @@
         <v>36</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>492</v>
+        <v>785</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>582</v>
+        <v>543</v>
       </c>
       <c r="M73" s="3"/>
       <c r="N73" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="O73" s="3">
         <v>5</v>
@@ -14549,25 +14671,25 @@
         <v>38</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T73" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="U73" s="4">
         <v>3</v>
       </c>
       <c r="V73" s="3" t="s">
-        <v>550</v>
+        <v>511</v>
       </c>
       <c r="W73" s="3" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="X73" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y73" s="3">
         <v>2</v>
@@ -14612,7 +14734,7 @@
         <v>46</v>
       </c>
       <c r="AM73" s="3" t="s">
-        <v>471</v>
+        <v>439</v>
       </c>
       <c r="AN73" s="3" t="s">
         <v>32</v>
@@ -14642,51 +14764,51 @@
         <v>38</v>
       </c>
       <c r="AW73" s="6" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="AX73" s="7"/>
       <c r="AY73" s="7"/>
     </row>
     <row r="74" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E74" s="3">
         <v>939866173</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>322</v>
+        <v>775</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>582</v>
+        <v>543</v>
       </c>
       <c r="M74" s="3"/>
       <c r="N74" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="O74" s="3">
         <v>4</v>
@@ -14698,25 +14820,25 @@
         <v>38</v>
       </c>
       <c r="R74" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T74" s="3" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="U74" s="4">
         <v>3.5</v>
       </c>
       <c r="V74" s="3" t="s">
-        <v>550</v>
+        <v>511</v>
       </c>
       <c r="W74" s="3" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="X74" s="3" t="s">
-        <v>571</v>
+        <v>532</v>
       </c>
       <c r="Y74" s="3">
         <v>2</v>
@@ -14755,7 +14877,7 @@
         <v>10</v>
       </c>
       <c r="AK74" s="3" t="s">
-        <v>457</v>
+        <v>425</v>
       </c>
       <c r="AL74" s="3" t="s">
         <v>46</v>
@@ -14791,51 +14913,51 @@
         <v>38</v>
       </c>
       <c r="AW74" s="6" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="AX74" s="7"/>
       <c r="AY74" s="7"/>
     </row>
     <row r="75" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
-        <v>728</v>
+        <v>689</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E75" s="3">
         <v>986925665</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J75" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>323</v>
+        <v>776</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="M75" s="3"/>
       <c r="N75" s="3" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="O75" s="3">
         <v>3</v>
@@ -14847,25 +14969,25 @@
         <v>38</v>
       </c>
       <c r="R75" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T75" s="3" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="U75" s="4">
         <v>2.25</v>
       </c>
       <c r="V75" s="3" t="s">
-        <v>538</v>
+        <v>499</v>
       </c>
       <c r="W75" s="3" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="X75" s="3" t="s">
-        <v>583</v>
+        <v>544</v>
       </c>
       <c r="Y75" s="3">
         <v>3</v>
@@ -14880,7 +15002,7 @@
         <v>32</v>
       </c>
       <c r="AC75" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD75" s="3" t="s">
         <v>38</v>
@@ -14940,34 +15062,34 @@
         <v>38</v>
       </c>
       <c r="AW75" s="6" t="s">
-        <v>718</v>
+        <v>679</v>
       </c>
       <c r="AX75" s="9" t="s">
-        <v>674</v>
+        <v>635</v>
       </c>
       <c r="AY75" s="7"/>
     </row>
     <row r="76" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E76" s="3">
         <v>985480644</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>35</v>
@@ -14979,16 +15101,16 @@
         <v>36</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>324</v>
+        <v>777</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>582</v>
+        <v>543</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>618</v>
+        <v>579</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="O76" s="3">
         <v>5</v>
@@ -15000,25 +15122,25 @@
         <v>38</v>
       </c>
       <c r="R76" s="3" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="T76" s="3" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="U76" s="4">
         <v>3.5</v>
       </c>
       <c r="V76" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W76" s="3" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="X76" s="3" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="Y76" s="3">
         <v>3</v>
@@ -15057,13 +15179,13 @@
         <v>5</v>
       </c>
       <c r="AK76" s="3" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
       <c r="AL76" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM76" s="3" t="s">
-        <v>472</v>
+        <v>440</v>
       </c>
       <c r="AN76" s="3" t="s">
         <v>32</v>
@@ -15093,53 +15215,55 @@
         <v>38</v>
       </c>
       <c r="AW76" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="AX76" s="7"/>
+        <v>732</v>
+      </c>
+      <c r="AX76" s="9" t="s">
+        <v>731</v>
+      </c>
       <c r="AY76" s="7"/>
     </row>
     <row r="77" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
-        <v>729</v>
+        <v>690</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E77" s="3">
         <v>96262869</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>491</v>
+        <v>786</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>619</v>
+        <v>580</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="O77" s="3">
         <v>3</v>
@@ -15151,25 +15275,25 @@
         <v>38</v>
       </c>
       <c r="R77" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="T77" s="3" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="U77" s="4">
         <v>6</v>
       </c>
       <c r="V77" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="W77" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="X77" s="3" t="s">
         <v>550</v>
-      </c>
-      <c r="W77" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="X77" s="3" t="s">
-        <v>589</v>
       </c>
       <c r="Y77" s="3">
         <v>2</v>
@@ -15208,7 +15332,7 @@
         <v>9</v>
       </c>
       <c r="AK77" s="3" t="s">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="AL77" s="3" t="s">
         <v>42</v>
@@ -15217,7 +15341,7 @@
         <v>36</v>
       </c>
       <c r="AN77" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AO77" s="3">
         <v>10</v>
@@ -15232,7 +15356,7 @@
         <v>2</v>
       </c>
       <c r="AS77" s="3" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="AT77" s="3" t="s">
         <v>44</v>
@@ -15244,34 +15368,34 @@
         <v>38</v>
       </c>
       <c r="AW77" s="6" t="s">
-        <v>745</v>
+        <v>706</v>
       </c>
       <c r="AX77" s="9" t="s">
-        <v>744</v>
+        <v>705</v>
       </c>
       <c r="AY77" s="7"/>
     </row>
     <row r="78" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E78" s="3">
         <v>939537782</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>35</v>
@@ -15283,14 +15407,14 @@
         <v>36</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>325</v>
+        <v>778</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>620</v>
+        <v>581</v>
       </c>
       <c r="M78" s="3"/>
       <c r="N78" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="O78" s="3">
         <v>3</v>
@@ -15302,25 +15426,25 @@
         <v>38</v>
       </c>
       <c r="R78" s="3" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="T78" s="3" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="U78" s="4">
         <v>3.5</v>
       </c>
       <c r="V78" s="3" t="s">
-        <v>554</v>
+        <v>515</v>
       </c>
       <c r="W78" s="3" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="X78" s="3" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="Y78" s="3">
         <v>1</v>
@@ -15368,7 +15492,7 @@
         <v>36</v>
       </c>
       <c r="AN78" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AO78" s="3">
         <v>6</v>
@@ -15383,7 +15507,7 @@
         <v>1</v>
       </c>
       <c r="AS78" s="3" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="AT78" s="3" t="s">
         <v>44</v>
@@ -15395,34 +15519,34 @@
         <v>38</v>
       </c>
       <c r="AW78" s="6" t="s">
-        <v>719</v>
+        <v>680</v>
       </c>
       <c r="AX78" s="9" t="s">
-        <v>675</v>
+        <v>636</v>
       </c>
       <c r="AY78" s="7"/>
     </row>
     <row r="79" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
-        <v>730</v>
+        <v>691</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E79" s="3">
         <v>967800981</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>35</v>
@@ -15434,14 +15558,14 @@
         <v>36</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>490</v>
+        <v>787</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>582</v>
+        <v>543</v>
       </c>
       <c r="M79" s="3"/>
       <c r="N79" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="O79" s="3">
         <v>3</v>
@@ -15453,25 +15577,25 @@
         <v>38</v>
       </c>
       <c r="R79" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T79" s="3" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="U79" s="4">
         <v>2.5</v>
       </c>
       <c r="V79" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W79" s="3" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="X79" s="3" t="s">
-        <v>571</v>
+        <v>532</v>
       </c>
       <c r="Y79" s="3">
         <v>1</v>
@@ -15546,34 +15670,34 @@
         <v>38</v>
       </c>
       <c r="AW79" s="6" t="s">
-        <v>623</v>
+        <v>584</v>
       </c>
       <c r="AX79" s="9" t="s">
-        <v>622</v>
+        <v>583</v>
       </c>
       <c r="AY79" s="7"/>
     </row>
     <row r="80" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
-        <v>740</v>
+        <v>701</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E80" s="3">
         <v>995832522</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>57</v>
@@ -15585,16 +15709,16 @@
         <v>36</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>326</v>
+        <v>779</v>
       </c>
       <c r="L80" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="M80" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="M80" s="3" t="s">
-        <v>621</v>
-      </c>
       <c r="N80" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="O80" s="3">
         <v>4</v>
@@ -15606,25 +15730,25 @@
         <v>38</v>
       </c>
       <c r="R80" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>557</v>
+        <v>518</v>
       </c>
       <c r="T80" s="3" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="U80" s="4">
         <v>6</v>
       </c>
       <c r="V80" s="3" t="s">
-        <v>550</v>
+        <v>511</v>
       </c>
       <c r="W80" s="3" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="X80" s="3" t="s">
-        <v>571</v>
+        <v>532</v>
       </c>
       <c r="Y80" s="3">
         <v>2</v>
@@ -15639,7 +15763,7 @@
         <v>32</v>
       </c>
       <c r="AC80" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD80" s="3" t="s">
         <v>38</v>
@@ -15690,7 +15814,7 @@
         <v>36</v>
       </c>
       <c r="AT80" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AU80" s="3" t="s">
         <v>36</v>
@@ -15699,55 +15823,55 @@
         <v>38</v>
       </c>
       <c r="AW80" s="6" t="s">
-        <v>625</v>
+        <v>586</v>
       </c>
       <c r="AX80" s="9" t="s">
-        <v>624</v>
+        <v>585</v>
       </c>
       <c r="AY80" s="7"/>
     </row>
     <row r="81" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
-        <v>741</v>
+        <v>702</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E81" s="3">
         <v>989874633</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H81" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I81" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>582</v>
+        <v>543</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>618</v>
+        <v>579</v>
       </c>
       <c r="N81" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="O81" s="3">
         <v>5</v>
@@ -15759,25 +15883,25 @@
         <v>38</v>
       </c>
       <c r="R81" s="3" t="s">
-        <v>615</v>
+        <v>576</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="T81" s="3" t="s">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="U81" s="4">
         <v>3</v>
       </c>
       <c r="V81" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W81" s="3" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="X81" s="3" t="s">
-        <v>571</v>
+        <v>532</v>
       </c>
       <c r="Y81" s="3">
         <v>2</v>
@@ -15792,7 +15916,7 @@
         <v>32</v>
       </c>
       <c r="AC81" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD81" s="3" t="s">
         <v>38</v>
@@ -15852,34 +15976,34 @@
         <v>38</v>
       </c>
       <c r="AW81" s="6" t="s">
-        <v>749</v>
+        <v>710</v>
       </c>
       <c r="AX81" s="9" t="s">
-        <v>748</v>
+        <v>709</v>
       </c>
       <c r="AY81" s="7"/>
     </row>
     <row r="82" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
-        <v>731</v>
+        <v>692</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E82" s="3">
         <v>995832522</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>57</v>
@@ -15891,16 +16015,16 @@
         <v>36</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>328</v>
+        <v>780</v>
       </c>
       <c r="L82" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="M82" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="M82" s="3" t="s">
-        <v>621</v>
-      </c>
       <c r="N82" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="O82" s="3">
         <v>4</v>
@@ -15912,19 +16036,19 @@
         <v>38</v>
       </c>
       <c r="R82" s="3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>557</v>
+        <v>518</v>
       </c>
       <c r="T82" s="3" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="U82" s="4">
         <v>6</v>
       </c>
       <c r="V82" s="3" t="s">
-        <v>550</v>
+        <v>511</v>
       </c>
       <c r="W82" s="5"/>
       <c r="X82" s="5"/>
@@ -15941,7 +16065,7 @@
         <v>32</v>
       </c>
       <c r="AC82" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD82" s="3" t="s">
         <v>38</v>
@@ -15965,7 +16089,7 @@
         <v>10</v>
       </c>
       <c r="AK82" s="3" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="AL82" s="3" t="s">
         <v>42</v>
@@ -15989,10 +16113,10 @@
         <v>1</v>
       </c>
       <c r="AS82" s="3" t="s">
-        <v>487</v>
+        <v>455</v>
       </c>
       <c r="AT82" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AU82" s="3" t="s">
         <v>36</v>
@@ -16001,10 +16125,10 @@
         <v>38</v>
       </c>
       <c r="AW82" s="6" t="s">
-        <v>627</v>
+        <v>588</v>
       </c>
       <c r="AX82" s="7" t="s">
-        <v>626</v>
+        <v>587</v>
       </c>
       <c r="AY82" s="7"/>
     </row>
@@ -16063,6 +16187,20 @@
     <hyperlink ref="AX51" r:id="rId50" xr:uid="{576C53BB-1A25-624C-A99D-D18E64AB8F1F}"/>
     <hyperlink ref="AX47" r:id="rId51" xr:uid="{BDE86B85-045C-DC4D-9B46-EEE8EF3B3511}"/>
     <hyperlink ref="AX49" r:id="rId52" xr:uid="{F2869AB6-5095-BA4C-8430-66ED50CBC955}"/>
+    <hyperlink ref="AX11" r:id="rId53" xr:uid="{204FF5A9-02A1-9844-8962-FE6A161077D7}"/>
+    <hyperlink ref="AX15" r:id="rId54" xr:uid="{D4A5C8D9-20C1-514D-8F99-08E314697242}"/>
+    <hyperlink ref="AX21" r:id="rId55" xr:uid="{517F8834-7ECC-B841-8BB0-8E9DDFB747C0}"/>
+    <hyperlink ref="AX24" r:id="rId56" xr:uid="{20FFDF42-61B7-3A4A-AF40-E6151B1C5B86}"/>
+    <hyperlink ref="AX27" r:id="rId57" xr:uid="{12FEC15F-3305-9C48-8B22-37E789CAA7CA}"/>
+    <hyperlink ref="AX28" r:id="rId58" xr:uid="{01BC1DA7-33ED-CB49-96CA-3DE39D905A61}"/>
+    <hyperlink ref="AX53" r:id="rId59" xr:uid="{B8272F26-7AE6-9744-BD81-9D3EA097FACD}"/>
+    <hyperlink ref="AX76" r:id="rId60" xr:uid="{658BC9EE-EE00-7347-807C-AE5EF7F65A20}"/>
+    <hyperlink ref="AX31" r:id="rId61" xr:uid="{9F437363-E081-F842-9AAA-FC51D156EB3C}"/>
+    <hyperlink ref="AX33" r:id="rId62" xr:uid="{5447B33C-C49F-C643-A29C-FBAD84CFE144}"/>
+    <hyperlink ref="AX32" r:id="rId63" xr:uid="{F3572F62-FD12-FF4B-BFEE-E3C0D081729D}"/>
+    <hyperlink ref="AX40" r:id="rId64" xr:uid="{86489F67-F526-0A4B-ABAE-CD3078899F81}"/>
+    <hyperlink ref="AX5" r:id="rId65" xr:uid="{986F1456-B2AD-554A-925D-E9BB1DC4CED8}"/>
+    <hyperlink ref="AX4" r:id="rId66" xr:uid="{D149E6A5-8ACD-6B4E-A061-227ED71C6C07}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>

--- a/media/csv_uploads/gastronomia_establecimiento1.xlsx
+++ b/media/csv_uploads/gastronomia_establecimiento1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santigovinan/Documents/applications-django/emprendimientos/media/csv_uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A45A72-4792-B74E-8AB3-9351C26912C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040C20AE-C20A-7949-9A51-60B7B7D35D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="28940" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3064" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3066" uniqueCount="792">
   <si>
     <t>nombre</t>
   </si>
@@ -2397,6 +2397,18 @@
   </si>
   <si>
     <t>Lunes a Sábado de 06:30 a 21:00 Domingo de 08:00 a 16:00</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502857/La_Terraza_Vilcabamba_instalaciones2_web__dwil1e.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502844/La_Terraza_Vilcabamba_productgll_web__goaf39.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502864/La_Terraza_Vilcabamba_instalaciones3_web__acdttf.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502851/La_Terraza_Vilcabamba_identidad_web__gqktdq.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502885/La_Terraza_Vilcabamba_productog_web__pqqn5g.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502836/La_Terraza_Vilcabamba_productcen_web__cj8bbk.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502830/La_Terraza_Vilcabamba_instalaciones_web__ij6s7d.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502878/La_Terraza_Vilcabamba_productdtl_web__jqip7c.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502823/La_Terraza_Vilcabamba_fachada_web__f85btk.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766502871/La_Terraza_Vilcabamba_productcendet_web__endoh4.jpg}</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457806/LaCriollita_Vilcabamba_Fachada_web__i1vwag.jpg</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457800/LaCriollita_Vilcabamba_Producto_web__f9iuzl.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457794/LaCriollita_Vilcabamba_Infraestructura_web__pokati.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457812/LaCriollita_Vilcabamba_Identidad2_web__k1eccg.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457817/LaCriollita_Vilcabamba_Infraestructura2_web__ifrffj.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457829/LaCriollita_Vilcabamba_Sopa_web__tpmpo9.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457823/LaCriollita_Vilcabamba_ProductoCent_web__begsff.jpg, https://res.cloudinary.com/djl0e1p6e/image/upload/v1766457780/LaCriollita_Vilcabamba_Exterior_web__fmvkjb.jpg}</t>
   </si>
 </sst>
 </file>
@@ -3664,8 +3676,9 @@
   </sheetPr>
   <dimension ref="A1:AY82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AS1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K82" sqref="K82"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AW1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AW81" sqref="AW81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13854,9 +13867,11 @@
         <v>38</v>
       </c>
       <c r="AW67" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="AX67" s="7"/>
+        <v>789</v>
+      </c>
+      <c r="AX67" s="9" t="s">
+        <v>788</v>
+      </c>
       <c r="AY67" s="7"/>
     </row>
     <row r="68" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -14913,9 +14928,11 @@
         <v>38</v>
       </c>
       <c r="AW74" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="AX74" s="7"/>
+        <v>791</v>
+      </c>
+      <c r="AX74" s="9" t="s">
+        <v>790</v>
+      </c>
       <c r="AY74" s="7"/>
     </row>
     <row r="75" spans="1:51" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -16201,6 +16218,8 @@
     <hyperlink ref="AX40" r:id="rId64" xr:uid="{86489F67-F526-0A4B-ABAE-CD3078899F81}"/>
     <hyperlink ref="AX5" r:id="rId65" xr:uid="{986F1456-B2AD-554A-925D-E9BB1DC4CED8}"/>
     <hyperlink ref="AX4" r:id="rId66" xr:uid="{D149E6A5-8ACD-6B4E-A061-227ED71C6C07}"/>
+    <hyperlink ref="AX67" r:id="rId67" xr:uid="{813CD1C1-C9D4-F347-B011-D51F37DD49BB}"/>
+    <hyperlink ref="AX74" r:id="rId68" xr:uid="{94666C1E-0A40-AD4D-92ED-FEEE0D1225B2}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
